--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA7F411-0413-41A8-B630-F2453DBF48DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94505C6F-79E6-4BC9-86A6-BFFE160CB036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="851" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6673,11 +6673,11 @@
     <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="178" fontId="25" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="19"/>
     <xf numFmtId="169" fontId="19" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="19"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -6705,7 +6705,367 @@
     <cellStyle name="Warning 21" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Yüzde" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="188" formatCode="0.00;[Red]0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="188" formatCode="0.00;[Red]0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="188" formatCode="0.00;[Red]0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="188" formatCode="0.00;[Red]0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="188" formatCode="0.00;[Red]0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -11260,8 +11620,8 @@
   </sheetPr>
   <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -11842,7 +12202,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="337"/>
-      <c r="F35" s="387"/>
+      <c r="F35" s="385"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="337"/>
@@ -12650,7 +13010,7 @@
       </c>
       <c r="G100" s="85">
         <f>SUM(G104:G128)</f>
-        <v>1146571.325</v>
+        <v>1146656.2</v>
       </c>
       <c r="I100"/>
       <c r="J100"/>
@@ -12840,11 +13200,11 @@
         <v>129919.99999999999</v>
       </c>
       <c r="F111" s="85">
-        <v>31</v>
+        <v>30.82</v>
       </c>
       <c r="G111" s="13">
         <f>F111*C111</f>
-        <v>124000</v>
+        <v>123280</v>
       </c>
       <c r="I111"/>
       <c r="J111"/>
@@ -12871,15 +13231,15 @@
         <v>123160</v>
       </c>
       <c r="F112" s="85">
-        <v>31</v>
+        <v>30.82</v>
       </c>
       <c r="G112" s="13">
         <f>F112*C112</f>
-        <v>124000</v>
+        <v>123280</v>
       </c>
       <c r="H112" s="13">
         <f>SUM(G110:G112)</f>
-        <v>282560</v>
+        <v>281120</v>
       </c>
       <c r="I112"/>
       <c r="J112"/>
@@ -12893,12 +13253,15 @@
       <c r="B113"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="369">
+      <c r="E113" s="85">
+        <f>SUM(E110:E112)</f>
+        <v>283182.22472</v>
+      </c>
+      <c r="G113" s="13"/>
+      <c r="H113" s="369">
         <f>(SUM(G110:G112))-(SUM(E110:E112))</f>
-        <v>-622.22471999999834</v>
-      </c>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
+        <v>-2062.2247199999983</v>
+      </c>
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113" s="86"/>
@@ -12935,12 +13298,12 @@
         <f>D115*C115</f>
         <v>129992.87500000001</v>
       </c>
-      <c r="F115" s="111">
-        <v>0.78212099999999996</v>
+      <c r="F115" s="85">
+        <v>0.79400000000000004</v>
       </c>
       <c r="G115" s="13">
         <f>F115*C115</f>
-        <v>97765.125</v>
+        <v>99250</v>
       </c>
       <c r="I115"/>
       <c r="J115"/>
@@ -12966,7 +13329,7 @@
         <f>D116*C116</f>
         <v>1350</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="85">
         <v>127.3</v>
       </c>
       <c r="G116" s="13">
@@ -12997,7 +13360,7 @@
         <f t="shared" ref="E117:E123" si="2">D117*C117</f>
         <v>1159</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="85">
         <v>20.14</v>
       </c>
       <c r="G117" s="13">
@@ -13028,7 +13391,7 @@
         <f t="shared" si="2"/>
         <v>964.99</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="85">
         <v>27.14</v>
       </c>
       <c r="G118" s="13">
@@ -13037,7 +13400,7 @@
       </c>
       <c r="H118" s="13">
         <f>SUM(G115:G118)</f>
-        <v>100509.08500000001</v>
+        <v>101993.96</v>
       </c>
       <c r="I118"/>
       <c r="J118"/>
@@ -13050,9 +13413,13 @@
       <c r="A119" s="97"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="369">
+      <c r="E119" s="85">
+        <f>SUM(E115:E118)</f>
+        <v>133466.86499999999</v>
+      </c>
+      <c r="H119" s="369">
         <f>(SUM(G115:G118))-(SUM(E115:E118))</f>
-        <v>-32957.779999999984</v>
+        <v>-31472.904999999984</v>
       </c>
       <c r="I119"/>
       <c r="J119"/>
@@ -13090,12 +13457,12 @@
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="F121" s="2">
-        <v>2960</v>
+      <c r="F121" s="85">
+        <v>3000</v>
       </c>
       <c r="G121" s="13">
         <f>C121*F121</f>
-        <v>2960</v>
+        <v>3000</v>
       </c>
       <c r="I121"/>
       <c r="J121"/>
@@ -13121,7 +13488,7 @@
         <f t="shared" si="2"/>
         <v>65600</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="85">
         <v>5000</v>
       </c>
       <c r="G122" s="13">
@@ -13152,7 +13519,7 @@
         <f t="shared" si="2"/>
         <v>16200</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="85">
         <v>20000</v>
       </c>
       <c r="G123" s="13">
@@ -13161,7 +13528,7 @@
       </c>
       <c r="H123" s="13">
         <f>SUM(G121:G123)</f>
-        <v>102960</v>
+        <v>103000</v>
       </c>
       <c r="I123"/>
       <c r="J123"/>
@@ -13175,9 +13542,13 @@
       <c r="B124"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="369">
+      <c r="E124" s="85">
+        <f>SUM(E121:E123)</f>
+        <v>84300</v>
+      </c>
+      <c r="H124" s="369">
         <f>(SUM(G121:G123))-(SUM(E121:E123))</f>
-        <v>18660</v>
+        <v>18700</v>
       </c>
       <c r="I124"/>
       <c r="J124"/>
@@ -13256,16 +13627,15 @@
     </row>
     <row r="129" spans="1:14" s="85" customFormat="1" ht="13.5" thickBot="1">
       <c r="A129" s="97"/>
-      <c r="B129" s="332"/>
-      <c r="C129" s="370"/>
-      <c r="D129" s="371" t="s">
+      <c r="E129" s="332"/>
+      <c r="F129" s="370"/>
+      <c r="G129" s="371" t="s">
         <v>1560</v>
       </c>
-      <c r="E129" s="372">
-        <f>E124+E119+E113</f>
-        <v>-14920.004719999983</v>
-      </c>
-      <c r="G129" s="113"/>
+      <c r="H129" s="372">
+        <f>H124+H119+H113</f>
+        <v>-14835.129719999983</v>
+      </c>
       <c r="I129"/>
       <c r="J129"/>
       <c r="K129" s="86"/>
@@ -13295,7 +13665,7 @@
       </c>
       <c r="G131" s="8">
         <f>SUM(G104:G128)</f>
-        <v>1146571.325</v>
+        <v>1146656.2</v>
       </c>
       <c r="I131"/>
       <c r="J131"/>
@@ -13385,6 +13755,31 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F110">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>D110</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F111">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>D111</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F112">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>D112</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F115:F118">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>D115</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F121:F123">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>D121</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
@@ -15893,10 +16288,10 @@
       <c r="K1" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="385" t="s">
+      <c r="L1" s="386" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="385"/>
+      <c r="M1" s="386"/>
       <c r="N1" t="s">
         <v>115</v>
       </c>
@@ -16608,11 +17003,11 @@
       <c r="K17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L17" s="386">
+      <c r="L17" s="387">
         <f>L15+M15</f>
         <v>1080.7929879999999</v>
       </c>
-      <c r="M17" s="386"/>
+      <c r="M17" s="387"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="66" t="s">
@@ -20728,10 +21123,10 @@
       <c r="K1" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="385" t="s">
+      <c r="L1" s="386" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="385"/>
+      <c r="M1" s="386"/>
       <c r="N1" t="s">
         <v>115</v>
       </c>
@@ -21443,11 +21838,11 @@
       <c r="K17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L17" s="386">
+      <c r="L17" s="387">
         <f>L15+M15</f>
         <v>961.10596800000008</v>
       </c>
-      <c r="M17" s="386"/>
+      <c r="M17" s="387"/>
     </row>
     <row r="18" spans="2:13" ht="13.5" thickBot="1">
       <c r="D18" s="66" t="s">

--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360203B4-66DC-4B01-BA13-0AC821DE4125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7135BD0B-0D61-4FF9-9201-2D9DC0AD7E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="1647">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -5124,9 +5124,6 @@
     <t>Doğuş Kira 5/12-2025-26 bankadan</t>
   </si>
   <si>
-    <t>emlak vergileri</t>
-  </si>
-  <si>
     <t>bankadan havale</t>
   </si>
   <si>
@@ -5203,6 +5200,93 @@
   </si>
   <si>
     <t>iş ytrm 382789 801                          nzn</t>
+  </si>
+  <si>
+    <t>merc çorca</t>
+  </si>
+  <si>
+    <t>pegasus kıbrıs umut mezuniyet peri-atila-hc kysr</t>
+  </si>
+  <si>
+    <t>pegasus kıbrıs umut mezuniyet ayşe ist</t>
+  </si>
+  <si>
+    <t>pegasus kıbrıs umut mezuniyet yasemin ist</t>
+  </si>
+  <si>
+    <t>tvk knt</t>
+  </si>
+  <si>
+    <t>tvk dnr</t>
+  </si>
+  <si>
+    <t>dnr</t>
+  </si>
+  <si>
+    <t>topçam istanbul tasemin karakol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mola </t>
+  </si>
+  <si>
+    <t>ymk ysmn</t>
+  </si>
+  <si>
+    <t>penti pijama</t>
+  </si>
+  <si>
+    <t>emar yemek</t>
+  </si>
+  <si>
+    <t>emar yemek çocuklar</t>
+  </si>
+  <si>
+    <t>pegasus iade</t>
+  </si>
+  <si>
+    <t>pegasus yasemin indirimli</t>
+  </si>
+  <si>
+    <t>mrcmk çorba</t>
+  </si>
+  <si>
+    <t>uöut klavye mouse n11</t>
+  </si>
+  <si>
+    <t>peri çiçek</t>
+  </si>
+  <si>
+    <t>lcw kot</t>
+  </si>
+  <si>
+    <t>pideci mustafa</t>
+  </si>
+  <si>
+    <t>kkasap</t>
+  </si>
+  <si>
+    <t>cevizli</t>
+  </si>
+  <si>
+    <t>mrkt bonustan</t>
+  </si>
+  <si>
+    <t>ahmet alp karne</t>
+  </si>
+  <si>
+    <t>BELEDİYE sanayi sayaç 5-6 taksitler</t>
+  </si>
+  <si>
+    <t>belediye ayşe balcı</t>
+  </si>
+  <si>
+    <t>belediye hmb 2024 emlak-su</t>
+  </si>
+  <si>
+    <t>emlak vergileri İŞ KK İLE ÖDENDİ AYŞE-HMB - PERİ BORC YOK</t>
+  </si>
+  <si>
+    <t>BELEDİYE PERİ BORÇ YOK</t>
   </si>
 </sst>
 </file>
@@ -5235,8 +5319,8 @@
     <numFmt numFmtId="186" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="187" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
     <numFmt numFmtId="188" formatCode="0.000%"/>
-    <numFmt numFmtId="194" formatCode="%0.000"/>
-    <numFmt numFmtId="195" formatCode="0.000000_ ;[Red]\-0.000000\ "/>
+    <numFmt numFmtId="189" formatCode="%0.000"/>
+    <numFmt numFmtId="190" formatCode="0.000000_ ;[Red]\-0.000000\ "/>
   </numFmts>
   <fonts count="47">
     <font>
@@ -6255,7 +6339,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="419">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6798,10 +6882,6 @@
     <xf numFmtId="0" fontId="22" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="175" fontId="25" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -6809,9 +6889,9 @@
     <xf numFmtId="4" fontId="3" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="3" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="194" fontId="46" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="46" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6819,7 +6899,12 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="174" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -6854,7 +6939,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="189" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -6867,7 +6952,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="189" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -6890,7 +6975,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="189" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -6903,7 +6988,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="189" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -6916,7 +7001,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="189" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -6929,7 +7014,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="189" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -6942,7 +7027,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="189" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7323,7 +7408,7 @@
         <v>45672</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="12"/>
@@ -7340,7 +7425,7 @@
         <v>45672</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="12"/>
@@ -7357,7 +7442,7 @@
         <v>45703</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="12"/>
@@ -7371,7 +7456,7 @@
         <v>45731</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="12"/>
@@ -7385,7 +7470,7 @@
         <v>45762</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="12"/>
@@ -7399,7 +7484,7 @@
         <v>45792</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="12"/>
@@ -7413,7 +7498,7 @@
         <v>45823</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="12"/>
@@ -7427,7 +7512,7 @@
         <v>45853</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="12"/>
@@ -7710,7 +7795,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="89" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C11" s="89"/>
       <c r="D11" s="90"/>
@@ -8592,7 +8677,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="89" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C11" s="89"/>
       <c r="D11" s="90"/>
@@ -9309,8 +9394,8 @@
   </sheetPr>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A41" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -9350,7 +9435,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E33)</f>
-        <v>-46297.06</v>
+        <v>-49685.05</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F33)</f>
@@ -9358,11 +9443,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G33)</f>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9423,23 +9508,23 @@
       <c r="D8" s="86"/>
       <c r="E8" s="86">
         <f>E52</f>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87">
         <f>E8</f>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="H8" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="G9" s="87"/>
       <c r="H9" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9454,12 +9539,12 @@
       </c>
       <c r="H10" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="89" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C11" s="89"/>
       <c r="D11" s="90"/>
@@ -9468,7 +9553,7 @@
       </c>
       <c r="H11" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9482,7 +9567,7 @@
       </c>
       <c r="H12" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9493,7 +9578,7 @@
       <c r="E13" s="90"/>
       <c r="H13" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="78" customFormat="1">
@@ -9506,7 +9591,7 @@
       <c r="G14" s="77"/>
       <c r="H14" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -9525,7 +9610,7 @@
       <c r="G15" s="77"/>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="78" customFormat="1">
@@ -9542,7 +9627,7 @@
       <c r="G16" s="77"/>
       <c r="H16" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="78" customFormat="1">
@@ -9559,7 +9644,7 @@
       <c r="G17" s="77"/>
       <c r="H17" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="78" customFormat="1">
@@ -9576,7 +9661,7 @@
       <c r="G18" s="77"/>
       <c r="H18" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="94"/>
@@ -9596,7 +9681,7 @@
       <c r="G19" s="77"/>
       <c r="H19" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="J19" s="94"/>
       <c r="K19" s="94"/>
@@ -9616,7 +9701,7 @@
       <c r="G20" s="77"/>
       <c r="H20" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="J20" s="94"/>
       <c r="K20" s="94"/>
@@ -9636,7 +9721,7 @@
       <c r="G21" s="77"/>
       <c r="H21" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="94"/>
@@ -9652,7 +9737,7 @@
       <c r="G22" s="77"/>
       <c r="H22" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="94"/>
@@ -9669,7 +9754,7 @@
       <c r="G23" s="77"/>
       <c r="H23" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -9684,7 +9769,7 @@
         <v>98</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D24" s="77"/>
       <c r="E24" s="77">
@@ -9694,7 +9779,7 @@
       <c r="G24" s="77"/>
       <c r="H24" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -9714,7 +9799,7 @@
       <c r="G25" s="77"/>
       <c r="H25" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -9734,7 +9819,7 @@
       <c r="G26" s="77"/>
       <c r="H26" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -9750,7 +9835,7 @@
       <c r="G27" s="77"/>
       <c r="H27" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="78" customFormat="1">
@@ -9760,7 +9845,7 @@
       <c r="G28" s="77"/>
       <c r="H28" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -9771,7 +9856,7 @@
       <c r="C29" s="101"/>
       <c r="H29" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="I29" s="78"/>
       <c r="J29" s="78"/>
@@ -9780,13 +9865,13 @@
       <c r="A30" s="100"/>
       <c r="H30" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="H31" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="78" customFormat="1">
@@ -9971,7 +10056,7 @@
       <c r="C52" s="103"/>
       <c r="E52" s="77">
         <f>SUM(E53:E71)</f>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="K52" s="78"/>
       <c r="L52" s="78"/>
@@ -9997,45 +10082,85 @@
       <c r="N54" s="78"/>
     </row>
     <row r="55" spans="1:14" s="77" customFormat="1">
-      <c r="A55" s="100"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="100">
+        <v>45681</v>
+      </c>
+      <c r="B55" s="92" t="s">
+        <v>1634</v>
+      </c>
       <c r="C55" s="106"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90">
+        <v>-1798</v>
+      </c>
       <c r="K55" s="78"/>
       <c r="L55" s="78"/>
       <c r="M55" s="78"/>
       <c r="N55" s="78"/>
     </row>
     <row r="56" spans="1:14" s="77" customFormat="1">
-      <c r="A56" s="100"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="100">
+        <v>45681</v>
+      </c>
+      <c r="B56" s="92" t="s">
+        <v>1633</v>
+      </c>
       <c r="C56" s="106"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90">
+        <v>-120</v>
+      </c>
       <c r="K56" s="78"/>
       <c r="L56" s="78"/>
       <c r="M56" s="78"/>
       <c r="N56" s="78"/>
     </row>
     <row r="57" spans="1:14" s="77" customFormat="1">
-      <c r="A57" s="100"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="100">
+        <v>45681</v>
+      </c>
+      <c r="B57" s="92" t="s">
+        <v>1635</v>
+      </c>
       <c r="C57" s="106"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90">
+        <v>-700</v>
+      </c>
       <c r="K57" s="78"/>
       <c r="L57" s="78"/>
       <c r="M57" s="78"/>
       <c r="N57" s="78"/>
     </row>
     <row r="58" spans="1:14" s="77" customFormat="1">
-      <c r="A58" s="100"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="100">
+        <v>45682</v>
+      </c>
+      <c r="B58" s="92" t="s">
+        <v>1623</v>
+      </c>
       <c r="C58" s="106"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90">
+        <v>-70</v>
+      </c>
       <c r="K58" s="78"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
       <c r="N58" s="78"/>
     </row>
     <row r="59" spans="1:14" s="77" customFormat="1">
-      <c r="A59" s="100"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="100">
+        <v>45682</v>
+      </c>
+      <c r="B59" s="92" t="s">
+        <v>1636</v>
+      </c>
       <c r="C59" s="106"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90">
+        <v>-699.99</v>
+      </c>
       <c r="K59" s="78"/>
       <c r="L59" s="78"/>
       <c r="M59" s="78"/>
@@ -10165,10 +10290,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -10208,7 +10333,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E31)</f>
-        <v>-46297.06</v>
+        <v>-81944.69</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F31)</f>
@@ -10216,11 +10341,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G31)</f>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10260,16 +10385,16 @@
       <c r="D7" s="86"/>
       <c r="E7" s="86">
         <f>E36</f>
-        <v>0</v>
+        <v>-6544.29</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87">
         <f>E7</f>
-        <v>0</v>
+        <v>-6544.29</v>
       </c>
       <c r="H7" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6544.29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10281,23 +10406,23 @@
       <c r="D8" s="86"/>
       <c r="E8" s="86">
         <f>E51</f>
-        <v>0</v>
+        <v>-29103.34</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87">
         <f>E8</f>
-        <v>0</v>
+        <v>-29103.34</v>
       </c>
       <c r="H8" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="G9" s="87"/>
       <c r="H9" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10312,12 +10437,12 @@
       </c>
       <c r="H10" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="89" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C11" s="89"/>
       <c r="D11" s="90"/>
@@ -10326,7 +10451,7 @@
       </c>
       <c r="H11" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10340,7 +10465,7 @@
       </c>
       <c r="H12" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10351,7 +10476,7 @@
       <c r="E13" s="90"/>
       <c r="H13" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="78" customFormat="1">
@@ -10364,7 +10489,7 @@
       <c r="G14" s="77"/>
       <c r="H14" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -10383,7 +10508,7 @@
       <c r="G15" s="77"/>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="78" customFormat="1">
@@ -10400,7 +10525,7 @@
       <c r="G16" s="77"/>
       <c r="H16" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="78" customFormat="1">
@@ -10417,7 +10542,7 @@
       <c r="G17" s="77"/>
       <c r="H17" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="78" customFormat="1">
@@ -10434,7 +10559,7 @@
       <c r="G18" s="77"/>
       <c r="H18" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="94"/>
@@ -10454,7 +10579,7 @@
       <c r="G19" s="77"/>
       <c r="H19" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="J19" s="94"/>
       <c r="K19" s="94"/>
@@ -10474,7 +10599,7 @@
       <c r="G20" s="77"/>
       <c r="H20" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="J20" s="94"/>
       <c r="K20" s="94"/>
@@ -10494,7 +10619,7 @@
       <c r="G21" s="77"/>
       <c r="H21" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="94"/>
@@ -10510,7 +10635,7 @@
       <c r="G22" s="77"/>
       <c r="H22" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="94"/>
@@ -10527,7 +10652,7 @@
       <c r="G23" s="77"/>
       <c r="H23" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -10542,7 +10667,7 @@
         <v>98</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D24" s="77"/>
       <c r="E24" s="77">
@@ -10552,7 +10677,7 @@
       <c r="G24" s="77"/>
       <c r="H24" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -10572,7 +10697,7 @@
       <c r="G25" s="77"/>
       <c r="H25" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -10592,7 +10717,7 @@
       <c r="G26" s="77"/>
       <c r="H26" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -10612,7 +10737,7 @@
       <c r="G27" s="77"/>
       <c r="H27" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="78" customFormat="1">
@@ -10622,7 +10747,7 @@
       <c r="G28" s="77"/>
       <c r="H28" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -10633,7 +10758,7 @@
       <c r="C29" s="101"/>
       <c r="H29" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="I29" s="78"/>
       <c r="J29" s="78"/>
@@ -10642,7 +10767,7 @@
       <c r="A30" s="100"/>
       <c r="H30" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="78" customFormat="1">
@@ -10655,7 +10780,7 @@
       <c r="G31" s="77"/>
       <c r="H31" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -10707,7 +10832,7 @@
       <c r="C36" s="103"/>
       <c r="E36" s="77">
         <f>SUM(E37:E48)</f>
-        <v>0</v>
+        <v>-6544.29</v>
       </c>
       <c r="I36" s="77"/>
       <c r="J36" s="77"/>
@@ -10735,6 +10860,12 @@
     </row>
     <row r="39" spans="1:14" s="77" customFormat="1">
       <c r="A39" s="88"/>
+      <c r="B39" s="77" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E39" s="77">
+        <v>-2880</v>
+      </c>
       <c r="K39" s="78"/>
       <c r="L39" s="78"/>
       <c r="M39" s="78"/>
@@ -10742,6 +10873,12 @@
     </row>
     <row r="40" spans="1:14" s="77" customFormat="1">
       <c r="A40" s="88"/>
+      <c r="B40" s="77" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E40" s="77">
+        <v>-3196.34</v>
+      </c>
       <c r="K40" s="78"/>
       <c r="L40" s="78"/>
       <c r="M40" s="78"/>
@@ -10749,14 +10886,21 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="88"/>
-      <c r="B41" s="77"/>
+      <c r="B41" s="90" t="s">
+        <v>1643</v>
+      </c>
       <c r="C41" s="77"/>
+      <c r="E41" s="77">
+        <v>-467.95</v>
+      </c>
       <c r="I41" s="77"/>
       <c r="J41" s="77"/>
     </row>
     <row r="42" spans="1:14" s="77" customFormat="1">
       <c r="A42"/>
-      <c r="B42"/>
+      <c r="B42" s="90" t="s">
+        <v>1646</v>
+      </c>
       <c r="C42"/>
       <c r="I42"/>
       <c r="J42"/>
@@ -10842,8 +10986,8 @@
       </c>
       <c r="C51" s="103"/>
       <c r="E51" s="77">
-        <f>SUM(E52:E70)</f>
-        <v>0</v>
+        <f>SUM(E52:E97)</f>
+        <v>-29103.34</v>
       </c>
       <c r="K51" s="78"/>
       <c r="L51" s="78"/>
@@ -10859,7 +11003,7 @@
       <c r="M52" s="78"/>
       <c r="N52" s="78"/>
     </row>
-    <row r="53" spans="1:14" s="77" customFormat="1">
+    <row r="53" spans="1:14" s="90" customFormat="1">
       <c r="A53" s="100"/>
       <c r="B53" s="106"/>
       <c r="C53" s="106"/>
@@ -10868,111 +11012,194 @@
       <c r="M53" s="78"/>
       <c r="N53" s="78"/>
     </row>
-    <row r="54" spans="1:14" s="77" customFormat="1">
+    <row r="54" spans="1:14" s="90" customFormat="1">
       <c r="A54" s="100"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="106"/>
       <c r="C54" s="106"/>
       <c r="K54" s="78"/>
       <c r="L54" s="78"/>
       <c r="M54" s="78"/>
       <c r="N54" s="78"/>
     </row>
-    <row r="55" spans="1:14" s="77" customFormat="1">
-      <c r="A55" s="100"/>
-      <c r="B55" s="3"/>
+    <row r="55" spans="1:14" s="90" customFormat="1">
+      <c r="A55" s="100">
+        <v>46018</v>
+      </c>
+      <c r="B55" s="106" t="s">
+        <v>1639</v>
+      </c>
       <c r="C55" s="106"/>
+      <c r="E55" s="90">
+        <v>-135</v>
+      </c>
       <c r="K55" s="78"/>
       <c r="L55" s="78"/>
       <c r="M55" s="78"/>
       <c r="N55" s="78"/>
     </row>
-    <row r="56" spans="1:14" s="77" customFormat="1">
-      <c r="A56" s="100"/>
-      <c r="B56" s="3"/>
+    <row r="56" spans="1:14" s="90" customFormat="1">
+      <c r="A56" s="100">
+        <v>46016</v>
+      </c>
+      <c r="B56" s="106" t="s">
+        <v>1638</v>
+      </c>
       <c r="C56" s="106"/>
+      <c r="E56" s="90">
+        <v>-240</v>
+      </c>
       <c r="K56" s="78"/>
       <c r="L56" s="78"/>
       <c r="M56" s="78"/>
       <c r="N56" s="78"/>
     </row>
     <row r="57" spans="1:14" s="77" customFormat="1">
-      <c r="A57" s="100"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="100">
+        <v>46015</v>
+      </c>
+      <c r="B57" s="106" t="s">
+        <v>1637</v>
+      </c>
       <c r="C57" s="106"/>
+      <c r="E57" s="77">
+        <v>-550</v>
+      </c>
       <c r="K57" s="78"/>
       <c r="L57" s="78"/>
       <c r="M57" s="78"/>
       <c r="N57" s="78"/>
     </row>
     <row r="58" spans="1:14" s="77" customFormat="1">
-      <c r="A58" s="100"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="100">
+        <v>46020</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1619</v>
+      </c>
       <c r="C58" s="106"/>
+      <c r="E58" s="77">
+        <v>-12762</v>
+      </c>
+      <c r="F58" s="77">
+        <v>0</v>
+      </c>
       <c r="K58" s="78"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
       <c r="N58" s="78"/>
     </row>
     <row r="59" spans="1:14" s="77" customFormat="1">
-      <c r="A59" s="100"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="100">
+        <v>46021</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1618</v>
+      </c>
       <c r="C59" s="106"/>
+      <c r="E59" s="77">
+        <v>-120</v>
+      </c>
       <c r="K59" s="78"/>
       <c r="L59" s="78"/>
       <c r="M59" s="78"/>
       <c r="N59" s="78"/>
     </row>
     <row r="60" spans="1:14" s="77" customFormat="1">
-      <c r="A60" s="100"/>
-      <c r="B60" s="3"/>
+      <c r="A60" s="100">
+        <v>46022</v>
+      </c>
+      <c r="B60" s="92" t="s">
+        <v>1621</v>
+      </c>
       <c r="C60" s="106"/>
+      <c r="E60" s="77">
+        <v>-3741</v>
+      </c>
+      <c r="F60" s="77">
+        <v>0</v>
+      </c>
       <c r="K60" s="78"/>
       <c r="L60" s="78"/>
       <c r="M60" s="78"/>
       <c r="N60" s="78"/>
     </row>
     <row r="61" spans="1:14" s="77" customFormat="1">
-      <c r="A61" s="100"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="100">
+        <v>46022</v>
+      </c>
+      <c r="B61" s="92" t="s">
+        <v>1620</v>
+      </c>
       <c r="C61" s="106"/>
+      <c r="E61" s="77">
+        <v>-3741</v>
+      </c>
+      <c r="F61" s="77">
+        <v>0</v>
+      </c>
       <c r="K61" s="78"/>
       <c r="L61" s="78"/>
       <c r="M61" s="78"/>
       <c r="N61" s="78"/>
     </row>
     <row r="62" spans="1:14" s="77" customFormat="1">
-      <c r="A62" s="100"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="100">
+        <v>46022</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1622</v>
+      </c>
       <c r="C62" s="106"/>
+      <c r="E62" s="77">
+        <v>-560</v>
+      </c>
       <c r="K62" s="78"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
       <c r="N62" s="78"/>
     </row>
-    <row r="63" spans="1:14" s="77" customFormat="1">
-      <c r="A63" s="100"/>
-      <c r="B63" s="3"/>
+    <row r="63" spans="1:14" s="90" customFormat="1">
+      <c r="A63" s="100">
+        <v>45658</v>
+      </c>
+      <c r="B63" s="92" t="s">
+        <v>130</v>
+      </c>
       <c r="C63" s="106"/>
+      <c r="E63" s="90">
+        <v>-177.87</v>
+      </c>
       <c r="K63" s="78"/>
       <c r="L63" s="78"/>
       <c r="M63" s="78"/>
       <c r="N63" s="78"/>
     </row>
     <row r="64" spans="1:14" s="77" customFormat="1">
-      <c r="A64" s="100"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="100">
+        <v>45658</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1640</v>
+      </c>
       <c r="C64" s="106"/>
+      <c r="D64" s="77">
+        <v>69.13</v>
+      </c>
       <c r="K64" s="78"/>
       <c r="L64" s="78"/>
       <c r="M64" s="78"/>
       <c r="N64" s="78"/>
     </row>
-    <row r="65" spans="1:14" s="77" customFormat="1" ht="15">
-      <c r="A65" s="100"/>
-      <c r="B65" s="3"/>
+    <row r="65" spans="1:14" s="77" customFormat="1">
+      <c r="A65" s="100">
+        <v>45659</v>
+      </c>
+      <c r="B65" s="92" t="s">
+        <v>130</v>
+      </c>
       <c r="C65" s="106"/>
-      <c r="E65" s="105" t="s">
-        <v>84</v>
+      <c r="E65" s="77">
+        <v>-470</v>
       </c>
       <c r="K65" s="78"/>
       <c r="L65" s="78"/>
@@ -10980,47 +11207,427 @@
       <c r="N65" s="78"/>
     </row>
     <row r="66" spans="1:14" s="77" customFormat="1">
-      <c r="A66" s="100"/>
-      <c r="B66" s="3"/>
+      <c r="A66" s="100">
+        <v>45660</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1623</v>
+      </c>
       <c r="C66" s="106"/>
+      <c r="E66" s="77">
+        <v>-70</v>
+      </c>
       <c r="K66" s="78"/>
       <c r="L66" s="78"/>
       <c r="M66" s="78"/>
       <c r="N66" s="78"/>
     </row>
-    <row r="67" spans="1:14" s="77" customFormat="1">
-      <c r="A67" s="100"/>
-      <c r="B67" s="3"/>
+    <row r="67" spans="1:14" s="90" customFormat="1">
+      <c r="A67" s="100">
+        <v>45660</v>
+      </c>
+      <c r="B67" s="92" t="s">
+        <v>132</v>
+      </c>
       <c r="C67" s="106"/>
+      <c r="D67" s="90">
+        <v>7885.34</v>
+      </c>
       <c r="K67" s="78"/>
       <c r="L67" s="78"/>
       <c r="M67" s="78"/>
       <c r="N67" s="78"/>
     </row>
     <row r="68" spans="1:14" s="77" customFormat="1">
-      <c r="A68" s="100"/>
-      <c r="B68" s="3"/>
+      <c r="A68" s="100">
+        <v>45664</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1624</v>
+      </c>
       <c r="C68" s="106"/>
+      <c r="E68" s="77">
+        <v>-230</v>
+      </c>
       <c r="K68" s="78"/>
       <c r="L68" s="78"/>
       <c r="M68" s="78"/>
       <c r="N68" s="78"/>
     </row>
-    <row r="69" spans="1:14" s="77" customFormat="1">
-      <c r="A69" s="100"/>
-      <c r="B69" s="3"/>
+    <row r="69" spans="1:14" s="90" customFormat="1">
+      <c r="A69" s="100">
+        <v>45666</v>
+      </c>
+      <c r="B69" s="92" t="s">
+        <v>1623</v>
+      </c>
       <c r="C69" s="106"/>
+      <c r="E69" s="90">
+        <v>-70</v>
+      </c>
       <c r="K69" s="78"/>
       <c r="L69" s="78"/>
       <c r="M69" s="78"/>
       <c r="N69" s="78"/>
     </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="100"/>
-      <c r="B70" s="3"/>
+    <row r="70" spans="1:14" s="90" customFormat="1">
+      <c r="A70" s="100">
+        <v>45667</v>
+      </c>
+      <c r="B70" s="92" t="s">
+        <v>1625</v>
+      </c>
       <c r="C70" s="106"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="77"/>
+      <c r="E70" s="90">
+        <v>-1000</v>
+      </c>
+      <c r="F70" s="90">
+        <v>0</v>
+      </c>
+      <c r="K70" s="78"/>
+      <c r="L70" s="78"/>
+      <c r="M70" s="78"/>
+      <c r="N70" s="78"/>
+    </row>
+    <row r="71" spans="1:14" s="90" customFormat="1">
+      <c r="A71" s="100">
+        <v>45667</v>
+      </c>
+      <c r="B71" s="92" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="E71" s="90">
+        <v>-75</v>
+      </c>
+      <c r="K71" s="78"/>
+      <c r="L71" s="78"/>
+      <c r="M71" s="78"/>
+      <c r="N71" s="78"/>
+    </row>
+    <row r="72" spans="1:14" s="90" customFormat="1">
+      <c r="A72" s="100">
+        <v>45667</v>
+      </c>
+      <c r="B72" s="92" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="E72" s="90">
+        <v>-400</v>
+      </c>
+      <c r="K72" s="78"/>
+      <c r="L72" s="78"/>
+      <c r="M72" s="78"/>
+      <c r="N72" s="78"/>
+    </row>
+    <row r="73" spans="1:14" s="90" customFormat="1">
+      <c r="A73" s="100">
+        <v>45669</v>
+      </c>
+      <c r="B73" s="92" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C73" s="106"/>
+      <c r="E73" s="90">
+        <v>-2529.9699999999998</v>
+      </c>
+      <c r="K73" s="78"/>
+      <c r="L73" s="78"/>
+      <c r="M73" s="78"/>
+      <c r="N73" s="78"/>
+    </row>
+    <row r="74" spans="1:14" s="90" customFormat="1">
+      <c r="A74" s="100">
+        <v>45669</v>
+      </c>
+      <c r="B74" s="92" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C74" s="106"/>
+      <c r="E74" s="90">
+        <v>-970</v>
+      </c>
+      <c r="K74" s="78"/>
+      <c r="L74" s="78"/>
+      <c r="M74" s="78"/>
+      <c r="N74" s="78"/>
+    </row>
+    <row r="75" spans="1:14" s="77" customFormat="1">
+      <c r="A75" s="100">
+        <v>45669</v>
+      </c>
+      <c r="B75" s="92" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C75" s="106"/>
+      <c r="E75" s="77">
+        <v>-970</v>
+      </c>
+      <c r="K75" s="78"/>
+      <c r="L75" s="78"/>
+      <c r="M75" s="78"/>
+      <c r="N75" s="78"/>
+    </row>
+    <row r="76" spans="1:14" s="77" customFormat="1">
+      <c r="A76" s="100">
+        <v>45670</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C76" s="106"/>
+      <c r="E76" s="77">
+        <v>-60</v>
+      </c>
+      <c r="K76" s="78"/>
+      <c r="L76" s="78"/>
+      <c r="M76" s="78"/>
+      <c r="N76" s="78"/>
+    </row>
+    <row r="77" spans="1:14" s="90" customFormat="1">
+      <c r="A77" s="100">
+        <v>45672</v>
+      </c>
+      <c r="B77" s="92" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C77" s="106"/>
+      <c r="E77" s="90">
+        <v>-794</v>
+      </c>
+      <c r="F77" s="90">
+        <v>0</v>
+      </c>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="78"/>
+      <c r="N77" s="78"/>
+    </row>
+    <row r="78" spans="1:14" s="90" customFormat="1">
+      <c r="A78" s="100">
+        <v>45672</v>
+      </c>
+      <c r="B78" s="92" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C78" s="106"/>
+      <c r="E78" s="90">
+        <v>1762</v>
+      </c>
+      <c r="F78" s="90">
+        <v>0</v>
+      </c>
+      <c r="K78" s="78"/>
+      <c r="L78" s="78"/>
+      <c r="M78" s="78"/>
+      <c r="N78" s="78"/>
+    </row>
+    <row r="79" spans="1:14" s="90" customFormat="1">
+      <c r="A79" s="100">
+        <v>45672</v>
+      </c>
+      <c r="B79" s="92" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C79" s="106"/>
+      <c r="E79" s="90">
+        <v>-120</v>
+      </c>
+      <c r="K79" s="78"/>
+      <c r="L79" s="78"/>
+      <c r="M79" s="78"/>
+      <c r="N79" s="78"/>
+    </row>
+    <row r="80" spans="1:14" s="90" customFormat="1">
+      <c r="A80" s="100">
+        <v>45673</v>
+      </c>
+      <c r="B80" s="92" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C80" s="106"/>
+      <c r="E80" s="90">
+        <v>-70</v>
+      </c>
+      <c r="K80" s="78"/>
+      <c r="L80" s="78"/>
+      <c r="M80" s="78"/>
+      <c r="N80" s="78"/>
+    </row>
+    <row r="81" spans="1:14" s="90" customFormat="1">
+      <c r="A81" s="100">
+        <v>45673</v>
+      </c>
+      <c r="B81" s="92" t="s">
+        <v>417</v>
+      </c>
+      <c r="C81" s="106"/>
+      <c r="E81" s="90">
+        <v>-385</v>
+      </c>
+      <c r="K81" s="78"/>
+      <c r="L81" s="78"/>
+      <c r="M81" s="78"/>
+      <c r="N81" s="78"/>
+    </row>
+    <row r="82" spans="1:14" s="90" customFormat="1">
+      <c r="A82" s="100">
+        <v>45674</v>
+      </c>
+      <c r="B82" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="106"/>
+      <c r="E82" s="90">
+        <v>-100</v>
+      </c>
+      <c r="K82" s="78"/>
+      <c r="L82" s="78"/>
+      <c r="M82" s="78"/>
+      <c r="N82" s="78"/>
+    </row>
+    <row r="83" spans="1:14" s="90" customFormat="1">
+      <c r="A83" s="100">
+        <v>45677</v>
+      </c>
+      <c r="B83" s="92" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C83" s="106"/>
+      <c r="E83" s="90">
+        <v>-230</v>
+      </c>
+      <c r="K83" s="78"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="78"/>
+      <c r="N83" s="78"/>
+    </row>
+    <row r="84" spans="1:14" s="90" customFormat="1">
+      <c r="A84" s="100">
+        <v>45677</v>
+      </c>
+      <c r="B84" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="106"/>
+      <c r="E84" s="90">
+        <v>-174.5</v>
+      </c>
+      <c r="K84" s="78"/>
+      <c r="L84" s="78"/>
+      <c r="M84" s="78"/>
+      <c r="N84" s="78"/>
+    </row>
+    <row r="85" spans="1:14" s="90" customFormat="1">
+      <c r="A85" s="100">
+        <v>45678</v>
+      </c>
+      <c r="B85" s="92" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C85" s="106"/>
+      <c r="E85" s="90">
+        <v>-120</v>
+      </c>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="78"/>
+      <c r="N85" s="78"/>
+    </row>
+    <row r="86" spans="1:14" s="90" customFormat="1">
+      <c r="K86" s="78"/>
+      <c r="L86" s="78"/>
+      <c r="M86" s="78"/>
+      <c r="N86" s="78"/>
+    </row>
+    <row r="87" spans="1:14" s="90" customFormat="1">
+      <c r="K87" s="78"/>
+      <c r="L87" s="78"/>
+      <c r="M87" s="78"/>
+      <c r="N87" s="78"/>
+    </row>
+    <row r="88" spans="1:14" s="90" customFormat="1">
+      <c r="K88" s="78"/>
+      <c r="L88" s="78"/>
+      <c r="M88" s="78"/>
+      <c r="N88" s="78"/>
+    </row>
+    <row r="89" spans="1:14" s="90" customFormat="1">
+      <c r="K89" s="78"/>
+      <c r="L89" s="78"/>
+      <c r="M89" s="78"/>
+      <c r="N89" s="78"/>
+    </row>
+    <row r="90" spans="1:14" s="90" customFormat="1">
+      <c r="K90" s="78"/>
+      <c r="L90" s="78"/>
+      <c r="M90" s="78"/>
+      <c r="N90" s="78"/>
+    </row>
+    <row r="91" spans="1:14" s="90" customFormat="1">
+      <c r="A91" s="100"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="106"/>
+      <c r="K91" s="78"/>
+      <c r="L91" s="78"/>
+      <c r="M91" s="78"/>
+      <c r="N91" s="78"/>
+    </row>
+    <row r="92" spans="1:14" s="77" customFormat="1" ht="15">
+      <c r="A92" s="100"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="106"/>
+      <c r="E92" s="105" t="s">
+        <v>84</v>
+      </c>
+      <c r="K92" s="78"/>
+      <c r="L92" s="78"/>
+      <c r="M92" s="78"/>
+      <c r="N92" s="78"/>
+    </row>
+    <row r="93" spans="1:14" s="77" customFormat="1">
+      <c r="A93" s="100"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="106"/>
+      <c r="K93" s="78"/>
+      <c r="L93" s="78"/>
+      <c r="M93" s="78"/>
+      <c r="N93" s="78"/>
+    </row>
+    <row r="94" spans="1:14" s="77" customFormat="1">
+      <c r="A94" s="100"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="106"/>
+      <c r="K94" s="78"/>
+      <c r="L94" s="78"/>
+      <c r="M94" s="78"/>
+      <c r="N94" s="78"/>
+    </row>
+    <row r="95" spans="1:14" s="77" customFormat="1">
+      <c r="A95" s="100"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="106"/>
+      <c r="K95" s="78"/>
+      <c r="L95" s="78"/>
+      <c r="M95" s="78"/>
+      <c r="N95" s="78"/>
+    </row>
+    <row r="96" spans="1:14" s="77" customFormat="1">
+      <c r="A96" s="100"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="106"/>
+      <c r="K96" s="78"/>
+      <c r="L96" s="78"/>
+      <c r="M96" s="78"/>
+      <c r="N96" s="78"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="100"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="106"/>
+      <c r="I97" s="77"/>
+      <c r="J97" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
@@ -11039,8 +11646,8 @@
   </sheetPr>
   <dimension ref="A1:N187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -11085,15 +11692,15 @@
       </c>
       <c r="F2" s="90">
         <f t="shared" si="0"/>
-        <v>305000</v>
+        <v>320054.88</v>
       </c>
       <c r="G2" s="90">
         <f t="shared" si="0"/>
-        <v>-34206.370000000003</v>
+        <v>-57708.37</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>270793.63</v>
+        <v>262346.51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -11238,7 +11845,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="394"/>
       <c r="B13" s="393" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C13" s="393"/>
       <c r="D13" s="388"/>
@@ -11308,10 +11915,10 @@
       <c r="A17" s="392">
         <v>45677</v>
       </c>
-      <c r="B17" s="415" t="s">
+      <c r="B17" s="413" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="415"/>
+      <c r="C17" s="413"/>
       <c r="D17" s="388"/>
       <c r="E17" s="388">
         <v>-1000</v>
@@ -11329,10 +11936,10 @@
       <c r="A18" s="392">
         <v>45677</v>
       </c>
-      <c r="B18" s="415" t="s">
+      <c r="B18" s="413" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="415"/>
+      <c r="C18" s="413"/>
       <c r="D18" s="388"/>
       <c r="E18" s="388">
         <v>-200</v>
@@ -11382,15 +11989,17 @@
       <c r="M20" s="96"/>
     </row>
     <row r="21" spans="1:13" s="78" customFormat="1">
-      <c r="A21" s="416"/>
-      <c r="B21" s="417" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C21" s="417"/>
-      <c r="D21" s="385"/>
-      <c r="E21" s="385"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90">
+      <c r="A21" s="414">
+        <v>45684</v>
+      </c>
+      <c r="B21" s="394" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C21" s="394"/>
+      <c r="D21" s="388"/>
+      <c r="E21" s="388"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87">
         <v>-4000</v>
       </c>
       <c r="H21" s="87">
@@ -11403,19 +12012,24 @@
       <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" s="78" customFormat="1">
-      <c r="B22" s="92" t="s">
+      <c r="A22" s="414">
+        <v>45684</v>
+      </c>
+      <c r="B22" s="394" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90">
+      <c r="C22" s="394"/>
+      <c r="D22" s="388"/>
+      <c r="E22" s="388">
         <v>-7500</v>
       </c>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87">
+        <v>-7501</v>
+      </c>
       <c r="H22" s="87">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>263292.63</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="94"/>
@@ -11423,19 +12037,24 @@
       <c r="M22" s="96"/>
     </row>
     <row r="23" spans="1:13" s="78" customFormat="1">
-      <c r="B23" s="92" t="s">
+      <c r="A23" s="414">
+        <v>45684</v>
+      </c>
+      <c r="B23" s="394" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90">
+      <c r="C23" s="394"/>
+      <c r="D23" s="388"/>
+      <c r="E23" s="388">
         <v>-7500</v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87">
+        <v>-7501</v>
+      </c>
       <c r="H23" s="87">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>255791.63</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -11443,19 +12062,24 @@
       <c r="M23" s="96"/>
     </row>
     <row r="24" spans="1:13" s="78" customFormat="1">
-      <c r="B24" s="92" t="s">
+      <c r="A24" s="414">
+        <v>45684</v>
+      </c>
+      <c r="B24" s="394" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90">
+      <c r="C24" s="394"/>
+      <c r="D24" s="388"/>
+      <c r="E24" s="388">
         <v>-7500</v>
       </c>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87">
+        <v>-7500</v>
+      </c>
       <c r="H24" s="87">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>248291.63</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -11463,15 +12087,22 @@
       <c r="M24" s="96"/>
     </row>
     <row r="25" spans="1:13" s="78" customFormat="1">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
+      <c r="A25" s="414">
+        <v>45684</v>
+      </c>
+      <c r="B25" s="394" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C25" s="394"/>
+      <c r="D25" s="388"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87">
+        <v>-1000</v>
+      </c>
       <c r="H25" s="87">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>247291.63</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -11479,24 +12110,24 @@
       <c r="M25" s="96"/>
     </row>
     <row r="26" spans="1:13" s="78" customFormat="1">
-      <c r="A26" s="97">
+      <c r="A26" s="417">
         <v>45655</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="394" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="92" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90">
+      <c r="C26" s="394" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D26" s="388"/>
+      <c r="E26" s="388">
         <v>-1380</v>
       </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
       <c r="H26" s="87">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>247291.63</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -11504,24 +12135,24 @@
       <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" s="78" customFormat="1">
-      <c r="A27" s="98">
+      <c r="A27" s="418">
         <v>45686</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="394" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77">
+      <c r="C27" s="394" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D27" s="388"/>
+      <c r="E27" s="388">
         <v>-1380</v>
       </c>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="87">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>247291.63</v>
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="94"/>
@@ -11529,18 +12160,20 @@
       <c r="M27" s="96"/>
     </row>
     <row r="28" spans="1:13" s="78" customFormat="1">
-      <c r="A28" s="98"/>
-      <c r="B28" s="92" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
+      <c r="A28" s="414">
+        <v>45684</v>
+      </c>
+      <c r="B28" s="394" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C28" s="394"/>
+      <c r="D28" s="388"/>
+      <c r="E28" s="388"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="90">
-        <f t="shared" ref="H18:H37" si="2">H27+F28+G28</f>
-        <v>270793.63</v>
+        <f t="shared" ref="H28:H37" si="2">H27+F28+G28</f>
+        <v>247291.63</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="94"/>
@@ -11550,7 +12183,7 @@
     <row r="29" spans="1:13" s="78" customFormat="1">
       <c r="A29" s="98"/>
       <c r="B29" s="92" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C29" s="92"/>
       <c r="D29" s="90"/>
@@ -11559,7 +12192,7 @@
       <c r="G29" s="90"/>
       <c r="H29" s="90">
         <f t="shared" si="2"/>
-        <v>270793.63</v>
+        <v>247291.63</v>
       </c>
       <c r="J29" s="94"/>
       <c r="K29" s="94"/>
@@ -11576,7 +12209,7 @@
       <c r="G30" s="90"/>
       <c r="H30" s="90">
         <f t="shared" si="2"/>
-        <v>270793.63</v>
+        <v>247291.63</v>
       </c>
       <c r="J30" s="94"/>
       <c r="K30" s="94"/>
@@ -11596,7 +12229,7 @@
       <c r="G31" s="77"/>
       <c r="H31" s="90">
         <f t="shared" si="2"/>
-        <v>270793.63</v>
+        <v>247291.63</v>
       </c>
       <c r="J31" s="94"/>
       <c r="K31" s="94"/>
@@ -11616,7 +12249,7 @@
       <c r="G32" s="77"/>
       <c r="H32" s="90">
         <f t="shared" si="2"/>
-        <v>270793.63</v>
+        <v>247291.63</v>
       </c>
       <c r="J32" s="94"/>
       <c r="K32" s="94"/>
@@ -11629,7 +12262,7 @@
       <c r="G33" s="77"/>
       <c r="H33" s="90">
         <f t="shared" si="2"/>
-        <v>270793.63</v>
+        <v>247291.63</v>
       </c>
       <c r="J33" s="94"/>
       <c r="K33" s="94"/>
@@ -11649,7 +12282,7 @@
       <c r="G34" s="77"/>
       <c r="H34" s="90">
         <f t="shared" si="2"/>
-        <v>270793.63</v>
+        <v>247291.63</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="78" customFormat="1">
@@ -11661,11 +12294,13 @@
         <v>15000</v>
       </c>
       <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
+      <c r="F35" s="77">
+        <v>15054.88</v>
+      </c>
       <c r="G35" s="77"/>
       <c r="H35" s="90">
         <f t="shared" si="2"/>
-        <v>270793.63</v>
+        <v>262346.51</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="78" customFormat="1">
@@ -11679,14 +12314,14 @@
       <c r="G36" s="77"/>
       <c r="H36" s="90">
         <f t="shared" si="2"/>
-        <v>270793.63</v>
+        <v>262346.51</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="100"/>
       <c r="H37" s="90">
         <f t="shared" si="2"/>
-        <v>270793.63</v>
+        <v>262346.51</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -12463,7 +13098,7 @@
       </c>
       <c r="G107" s="77">
         <f>SUM(G111:G139)</f>
-        <v>1107953.5132200001</v>
+        <v>1105264.9577200001</v>
       </c>
       <c r="K107" s="78"/>
       <c r="L107" s="78"/>
@@ -12542,7 +13177,7 @@
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="G113" s="17">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="K113" s="78"/>
       <c r="L113" s="78"/>
@@ -12596,19 +13231,19 @@
         <v>752.55561799999998</v>
       </c>
       <c r="E117" s="116">
-        <f>D117*C117</f>
+        <f t="shared" ref="E117:E122" si="3">D117*C117</f>
         <v>18813.890449999999</v>
       </c>
-      <c r="F117" s="408">
-        <v>887.660841</v>
+      <c r="F117" s="406">
+        <v>890.92231600000002</v>
       </c>
       <c r="G117" s="17">
-        <f>F117*C117</f>
-        <v>22191.521025000002</v>
+        <f t="shared" ref="G117:G122" si="4">F117*C117</f>
+        <v>22273.0579</v>
       </c>
       <c r="I117" s="77">
         <f>G117-E117</f>
-        <v>3377.6305750000029</v>
+        <v>3459.1674500000008</v>
       </c>
       <c r="K117" s="78"/>
       <c r="L117" s="78"/>
@@ -12629,20 +13264,20 @@
         <v>872.26366499999995</v>
       </c>
       <c r="E118" s="116">
-        <f>D118*C118</f>
+        <f t="shared" si="3"/>
         <v>87226.366499999989</v>
       </c>
-      <c r="F118" s="409">
+      <c r="F118" s="407">
         <f>F117</f>
-        <v>887.660841</v>
+        <v>890.92231600000002</v>
       </c>
       <c r="G118" s="17">
-        <f>F118*C118</f>
-        <v>88766.084100000007</v>
+        <f t="shared" si="4"/>
+        <v>89092.231599999999</v>
       </c>
       <c r="I118" s="90">
-        <f t="shared" ref="I118:I122" si="3">G118-E118</f>
-        <v>1539.7176000000181</v>
+        <f t="shared" ref="I118:I122" si="5">G118-E118</f>
+        <v>1865.86510000001</v>
       </c>
       <c r="K118" s="78"/>
       <c r="L118" s="78"/>
@@ -12663,20 +13298,20 @@
         <v>877.65409299999999</v>
       </c>
       <c r="E119" s="116">
-        <f>D119*C119</f>
+        <f t="shared" si="3"/>
         <v>48270.975115000001</v>
       </c>
-      <c r="F119" s="409">
+      <c r="F119" s="407">
         <f>F118</f>
-        <v>887.660841</v>
+        <v>890.92231600000002</v>
       </c>
       <c r="G119" s="17">
-        <f>F119*C119</f>
-        <v>48821.346254999997</v>
+        <f t="shared" si="4"/>
+        <v>49000.727380000004</v>
       </c>
       <c r="I119" s="90">
-        <f t="shared" si="3"/>
-        <v>550.37113999999565</v>
+        <f t="shared" si="5"/>
+        <v>729.75226500000281</v>
       </c>
       <c r="K119" s="78"/>
       <c r="L119" s="78"/>
@@ -12688,7 +13323,7 @@
         <v>45680</v>
       </c>
       <c r="B120" s="82" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C120" s="114">
         <v>120</v>
@@ -12697,19 +13332,19 @@
         <v>305</v>
       </c>
       <c r="E120" s="116">
-        <f>D120*C120</f>
+        <f t="shared" si="3"/>
         <v>36600</v>
       </c>
       <c r="F120" s="90">
-        <v>309.75</v>
+        <v>310</v>
       </c>
       <c r="G120" s="17">
-        <f>F120*C120</f>
-        <v>37170</v>
+        <f t="shared" si="4"/>
+        <v>37200</v>
       </c>
       <c r="I120" s="90">
-        <f t="shared" si="3"/>
-        <v>570</v>
+        <f t="shared" si="5"/>
+        <v>600</v>
       </c>
       <c r="K120" s="78"/>
       <c r="L120" s="78"/>
@@ -12721,7 +13356,7 @@
         <v>45620</v>
       </c>
       <c r="B121" s="82" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C121" s="114">
         <v>4000</v>
@@ -12730,19 +13365,19 @@
         <v>32.549999999999997</v>
       </c>
       <c r="E121" s="116">
-        <f>D121*C121</f>
+        <f t="shared" si="3"/>
         <v>130199.99999999999</v>
       </c>
       <c r="F121" s="77">
-        <v>32.32</v>
+        <v>32.15</v>
       </c>
       <c r="G121" s="17">
-        <f>F121*C121</f>
-        <v>129280</v>
+        <f t="shared" si="4"/>
+        <v>128600</v>
       </c>
       <c r="I121" s="90">
-        <f t="shared" si="3"/>
-        <v>-919.99999999998545</v>
+        <f t="shared" si="5"/>
+        <v>-1599.9999999999854</v>
       </c>
       <c r="K121" s="78"/>
       <c r="L121" s="78"/>
@@ -12754,7 +13389,7 @@
         <v>45659</v>
       </c>
       <c r="B122" s="82" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C122" s="114">
         <v>4000</v>
@@ -12763,24 +13398,24 @@
         <v>30.86</v>
       </c>
       <c r="E122" s="116">
-        <f>D122*C122</f>
+        <f t="shared" si="3"/>
         <v>123440</v>
       </c>
       <c r="F122" s="77">
         <f>F121</f>
-        <v>32.32</v>
+        <v>32.15</v>
       </c>
       <c r="G122" s="17">
-        <f>F122*C122</f>
-        <v>129280</v>
+        <f t="shared" si="4"/>
+        <v>128600</v>
       </c>
       <c r="H122" s="17">
         <f>SUM(G117:G122)</f>
-        <v>455508.95137999998</v>
+        <v>454766.01688000001</v>
       </c>
       <c r="I122" s="90">
-        <f t="shared" si="3"/>
-        <v>5840</v>
+        <f t="shared" si="5"/>
+        <v>5160</v>
       </c>
       <c r="K122" s="78"/>
       <c r="L122" s="78"/>
@@ -12798,11 +13433,11 @@
       <c r="G123" s="17"/>
       <c r="H123" s="117">
         <f>(SUM(G117:G122))-(SUM(E117:E122))</f>
-        <v>10957.719314999995</v>
+        <v>10214.784815000021</v>
       </c>
       <c r="I123" s="117">
         <f>SUM(I117:I122)</f>
-        <v>10957.719315000031</v>
+        <v>10214.784815000028</v>
       </c>
       <c r="K123" s="78"/>
       <c r="L123" s="78"/>
@@ -12836,15 +13471,15 @@
         <v>129992.87500000001</v>
       </c>
       <c r="F125" s="119">
-        <v>0.80633600000000005</v>
+        <v>0.81250900000000004</v>
       </c>
       <c r="G125" s="17">
         <f>F125*C125</f>
-        <v>100792</v>
+        <v>101563.625</v>
       </c>
       <c r="I125" s="90">
-        <f t="shared" ref="I125:I126" si="4">G125-E125</f>
-        <v>-29200.875000000015</v>
+        <f t="shared" ref="I125:I126" si="6">G125-E125</f>
+        <v>-28429.250000000015</v>
       </c>
       <c r="K125" s="78"/>
       <c r="L125" s="78"/>
@@ -12856,7 +13491,7 @@
         <v>45667</v>
       </c>
       <c r="B126" s="82" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C126" s="118">
         <v>240</v>
@@ -12868,18 +13503,19 @@
         <f>D126*C126</f>
         <v>209343.27959999998</v>
       </c>
-      <c r="F126" s="408">
-        <v>887.660841</v>
+      <c r="F126" s="406">
+        <f>F119</f>
+        <v>890.92231600000002</v>
       </c>
       <c r="G126" s="17">
         <f>F126*C126</f>
-        <v>213038.60183999999</v>
+        <v>213821.35584</v>
       </c>
       <c r="I126" s="90">
-        <f t="shared" si="4"/>
-        <v>3695.3222400000086</v>
-      </c>
-      <c r="J126" s="407"/>
+        <f t="shared" si="6"/>
+        <v>4478.076240000024</v>
+      </c>
+      <c r="J126" s="405"/>
       <c r="K126" s="78"/>
       <c r="L126" s="78"/>
       <c r="M126" s="78"/>
@@ -12910,7 +13546,7 @@
         <v>1233</v>
       </c>
       <c r="I127" s="90">
-        <f t="shared" ref="I127:I129" si="5">G127-E127</f>
+        <f t="shared" ref="I127:I129" si="7">G127-E127</f>
         <v>-117</v>
       </c>
       <c r="K127" s="78"/>
@@ -12943,7 +13579,7 @@
         <v>744.80000000000007</v>
       </c>
       <c r="I128" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-414.19999999999993</v>
       </c>
       <c r="K128" s="78"/>
@@ -12977,10 +13613,10 @@
       </c>
       <c r="H129" s="17">
         <f>SUM(G125:G129)</f>
-        <v>316514.56183999998</v>
+        <v>318068.94083999994</v>
       </c>
       <c r="I129" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-258.83000000000004</v>
       </c>
       <c r="K129" s="78"/>
@@ -12998,7 +13634,7 @@
       </c>
       <c r="H130" s="117">
         <f>(SUM(G125:G129))-(SUM(E125:E129))</f>
-        <v>-26295.582760000019</v>
+        <v>-24741.203760000062</v>
       </c>
       <c r="K130" s="78"/>
       <c r="L130" s="78"/>
@@ -13038,7 +13674,7 @@
         <v>3100</v>
       </c>
       <c r="I132" s="90">
-        <f t="shared" ref="I132:I134" si="6">G132-E132</f>
+        <f t="shared" ref="I132:I134" si="8">G132-E132</f>
         <v>600</v>
       </c>
       <c r="K132" s="78"/>
@@ -13071,7 +13707,7 @@
         <v>81600</v>
       </c>
       <c r="I133" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16000</v>
       </c>
       <c r="K133" s="78"/>
@@ -13108,7 +13744,7 @@
         <v>105100</v>
       </c>
       <c r="I134" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4200</v>
       </c>
       <c r="K134" s="78"/>
@@ -13202,7 +13838,7 @@
       </c>
       <c r="H140" s="124">
         <f>H135+H130+H123</f>
-        <v>5462.1365549999755</v>
+        <v>6273.5810549999587</v>
       </c>
       <c r="K140" s="78"/>
       <c r="L140" s="78"/>
@@ -13227,7 +13863,7 @@
       </c>
       <c r="G142" s="9">
         <f>SUM(G111:G139)</f>
-        <v>1107953.5132200001</v>
+        <v>1105264.9577200001</v>
       </c>
       <c r="K142" s="78"/>
       <c r="L142" s="78"/>
@@ -13262,31 +13898,31 @@
       <c r="N145" s="78"/>
     </row>
     <row r="146" spans="1:14" s="90" customFormat="1">
-      <c r="A146" s="400">
+      <c r="A146" s="398">
         <v>45680</v>
       </c>
-      <c r="B146" s="401" t="s">
+      <c r="B146" s="399" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="402">
+      <c r="C146" s="400">
         <v>-15</v>
       </c>
-      <c r="D146" s="403">
+      <c r="D146" s="401">
         <v>752.55561799999998</v>
       </c>
-      <c r="E146" s="404">
+      <c r="E146" s="402">
         <f>D146*C146</f>
         <v>-11288.334269999999</v>
       </c>
-      <c r="F146" s="405">
+      <c r="F146" s="403">
         <v>886.51320299999998</v>
       </c>
-      <c r="G146" s="406">
+      <c r="G146" s="404">
         <f>F146*C146</f>
         <v>-13297.698044999999</v>
       </c>
-      <c r="H146" s="405"/>
-      <c r="I146" s="405">
+      <c r="H146" s="403"/>
+      <c r="I146" s="403">
         <f>E146-G146</f>
         <v>2009.3637749999998</v>
       </c>
@@ -13296,21 +13932,21 @@
       <c r="N146" s="78"/>
     </row>
     <row r="147" spans="1:14" s="90" customFormat="1">
-      <c r="A147" s="400">
+      <c r="A147" s="398">
         <v>45680</v>
       </c>
-      <c r="B147" s="401" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C147" s="402"/>
-      <c r="D147" s="403"/>
-      <c r="E147" s="404">
+      <c r="B147" s="399" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C147" s="400"/>
+      <c r="D147" s="401"/>
+      <c r="E147" s="402">
         <v>150.77000000000001</v>
       </c>
-      <c r="F147" s="405"/>
-      <c r="G147" s="406"/>
-      <c r="H147" s="405"/>
-      <c r="I147" s="405">
+      <c r="F147" s="403"/>
+      <c r="G147" s="404"/>
+      <c r="H147" s="403"/>
+      <c r="I147" s="403">
         <f>G147-E147</f>
         <v>-150.77000000000001</v>
       </c>
@@ -13338,65 +13974,65 @@
       <c r="N150" s="78"/>
     </row>
     <row r="151" spans="1:14" s="90" customFormat="1">
-      <c r="A151" s="410"/>
-      <c r="B151" s="410"/>
-      <c r="C151" s="410"/>
-      <c r="D151" s="410"/>
-      <c r="E151" s="410"/>
-      <c r="F151" s="410"/>
-      <c r="G151" s="410"/>
+      <c r="A151" s="408"/>
+      <c r="B151" s="408"/>
+      <c r="C151" s="408"/>
+      <c r="D151" s="408"/>
+      <c r="E151" s="408"/>
+      <c r="F151" s="408"/>
+      <c r="G151" s="408"/>
       <c r="K151" s="78"/>
       <c r="L151" s="78"/>
       <c r="M151" s="78"/>
       <c r="N151" s="78"/>
     </row>
     <row r="152" spans="1:14" s="90" customFormat="1">
-      <c r="A152" s="410"/>
-      <c r="B152" s="410"/>
-      <c r="C152" s="410"/>
-      <c r="D152" s="410"/>
-      <c r="E152" s="410"/>
-      <c r="F152" s="410"/>
-      <c r="G152" s="410"/>
+      <c r="A152" s="408"/>
+      <c r="B152" s="408"/>
+      <c r="C152" s="408"/>
+      <c r="D152" s="408"/>
+      <c r="E152" s="408"/>
+      <c r="F152" s="408"/>
+      <c r="G152" s="408"/>
       <c r="K152" s="78"/>
       <c r="L152" s="78"/>
       <c r="M152" s="78"/>
       <c r="N152" s="78"/>
     </row>
     <row r="153" spans="1:14" s="77" customFormat="1">
-      <c r="A153" s="410"/>
-      <c r="B153" s="410"/>
-      <c r="C153" s="410"/>
-      <c r="D153" s="410"/>
-      <c r="E153" s="410"/>
-      <c r="F153" s="410"/>
-      <c r="G153" s="410"/>
+      <c r="A153" s="408"/>
+      <c r="B153" s="408"/>
+      <c r="C153" s="408"/>
+      <c r="D153" s="408"/>
+      <c r="E153" s="408"/>
+      <c r="F153" s="408"/>
+      <c r="G153" s="408"/>
       <c r="K153" s="78"/>
       <c r="L153" s="78"/>
       <c r="M153" s="78"/>
       <c r="N153" s="78"/>
     </row>
     <row r="154" spans="1:14" s="77" customFormat="1">
-      <c r="A154" s="410"/>
-      <c r="B154" s="410"/>
-      <c r="C154" s="410"/>
-      <c r="D154" s="410"/>
-      <c r="E154" s="410"/>
-      <c r="F154" s="410"/>
-      <c r="G154" s="410"/>
+      <c r="A154" s="408"/>
+      <c r="B154" s="408"/>
+      <c r="C154" s="408"/>
+      <c r="D154" s="408"/>
+      <c r="E154" s="408"/>
+      <c r="F154" s="408"/>
+      <c r="G154" s="408"/>
       <c r="K154" s="78"/>
       <c r="L154" s="78"/>
       <c r="M154" s="78"/>
       <c r="N154" s="78"/>
     </row>
     <row r="155" spans="1:14" s="77" customFormat="1">
-      <c r="A155" s="411"/>
-      <c r="B155" s="412"/>
-      <c r="C155" s="413"/>
-      <c r="D155" s="410"/>
-      <c r="E155" s="414"/>
-      <c r="F155" s="410"/>
-      <c r="G155" s="414"/>
+      <c r="A155" s="409"/>
+      <c r="B155" s="410"/>
+      <c r="C155" s="411"/>
+      <c r="D155" s="408"/>
+      <c r="E155" s="412"/>
+      <c r="F155" s="408"/>
+      <c r="G155" s="412"/>
       <c r="K155" s="78"/>
       <c r="L155" s="78"/>
       <c r="M155" s="78"/>
@@ -14533,7 +15169,7 @@
     <row r="64" spans="1:6" s="11" customFormat="1">
       <c r="A64" s="148"/>
       <c r="B64" s="8" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C64" s="67"/>
       <c r="D64" s="12">
@@ -16187,10 +16823,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="398" t="s">
+      <c r="L1" s="415" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="398"/>
+      <c r="M1" s="415"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -16902,11 +17538,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="399">
+      <c r="L17" s="416">
         <f>L15+M15</f>
         <v>1080.7929879999999</v>
       </c>
-      <c r="M17" s="399"/>
+      <c r="M17" s="416"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
@@ -21023,10 +21659,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="398" t="s">
+      <c r="L1" s="415" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="398"/>
+      <c r="M1" s="415"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -21091,15 +21727,15 @@
       </c>
       <c r="E3" s="32">
         <f>'01_25'!F2</f>
-        <v>305000</v>
+        <v>320054.88</v>
       </c>
       <c r="F3" s="32">
         <f>'01_25'!G2</f>
-        <v>-34206.370000000003</v>
+        <v>-57708.37</v>
       </c>
       <c r="G3" s="33">
         <f>E3+F3</f>
-        <v>270793.63</v>
+        <v>262346.51</v>
       </c>
       <c r="H3" s="34"/>
       <c r="I3" s="35" t="s">
@@ -21129,11 +21765,11 @@
       </c>
       <c r="C4" s="32">
         <f>'02_25'!E2</f>
-        <v>-46297.06</v>
+        <v>-81944.69</v>
       </c>
       <c r="D4" s="33">
         <f t="shared" ref="D4:D14" si="0">B4+C4+D3</f>
-        <v>326804.53999999998</v>
+        <v>291156.90999999997</v>
       </c>
       <c r="E4" s="32">
         <f>'02_25'!F2</f>
@@ -21141,11 +21777,11 @@
       </c>
       <c r="F4" s="32">
         <f>'02_25'!G2</f>
-        <v>0</v>
+        <v>-35647.629999999997</v>
       </c>
       <c r="G4" s="33">
         <f t="shared" ref="G4:G14" si="1">E4+F4+G3</f>
-        <v>270793.63</v>
+        <v>226698.88</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="35" t="s">
@@ -21164,7 +21800,7 @@
       </c>
       <c r="M4" s="38"/>
       <c r="N4" s="8">
-        <f>'02_25'!E111/1000</f>
+        <f>'02_25'!E138/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -21178,11 +21814,11 @@
       </c>
       <c r="C5" s="32">
         <f>'03_25'!E2</f>
-        <v>-46297.06</v>
+        <v>-49685.05</v>
       </c>
       <c r="D5" s="33">
         <f t="shared" si="0"/>
-        <v>295507.48</v>
+        <v>256471.86</v>
       </c>
       <c r="E5" s="32">
         <f>'03_25'!F2</f>
@@ -21190,11 +21826,11 @@
       </c>
       <c r="F5" s="32">
         <f>'03_25'!G2</f>
-        <v>0</v>
+        <v>-3387.99</v>
       </c>
       <c r="G5" s="33">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>223310.89</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="35" t="s">
@@ -21225,7 +21861,7 @@
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
-        <v>264210.42</v>
+        <v>225174.8</v>
       </c>
       <c r="E6" s="32">
         <f>'04_25'!F2</f>
@@ -21237,7 +21873,7 @@
       </c>
       <c r="G6" s="33">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>223310.89</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="41" t="s">
@@ -21268,7 +21904,7 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>234293.36</v>
+        <v>195257.74</v>
       </c>
       <c r="E7" s="32">
         <f>'05_25'!F2</f>
@@ -21280,7 +21916,7 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>223310.89</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="41" t="s">
@@ -21311,7 +21947,7 @@
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
-        <v>196876.3</v>
+        <v>157840.68</v>
       </c>
       <c r="E8" s="32">
         <f>'06_25'!F2</f>
@@ -21323,7 +21959,7 @@
       </c>
       <c r="G8" s="33">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>223310.89</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="35" t="s">
@@ -21357,7 +21993,7 @@
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
-        <v>159459.24</v>
+        <v>120423.62</v>
       </c>
       <c r="E9" s="32">
         <f>'07_25'!F2</f>
@@ -21369,7 +22005,7 @@
       </c>
       <c r="G9" s="33">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>223310.89</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="35" t="s">
@@ -21406,7 +22042,7 @@
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
-        <v>122042.18</v>
+        <v>83006.559999999998</v>
       </c>
       <c r="E10" s="32">
         <f>'08_25'!F2</f>
@@ -21418,7 +22054,7 @@
       </c>
       <c r="G10" s="33">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>223310.89</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="35" t="s">
@@ -21452,7 +22088,7 @@
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
-        <v>84625.12</v>
+        <v>45589.5</v>
       </c>
       <c r="E11" s="32">
         <f>'09_25'!F2</f>
@@ -21464,7 +22100,7 @@
       </c>
       <c r="G11" s="33">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>223310.89</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="35" t="s">
@@ -21501,7 +22137,7 @@
       </c>
       <c r="D12" s="33">
         <f t="shared" si="0"/>
-        <v>47208.06</v>
+        <v>8172.4400000000023</v>
       </c>
       <c r="E12" s="32">
         <f>'10_25'!F2</f>
@@ -21513,7 +22149,7 @@
       </c>
       <c r="G12" s="33">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>223310.89</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="35" t="s">
@@ -21550,7 +22186,7 @@
       </c>
       <c r="D13" s="33">
         <f t="shared" si="0"/>
-        <v>9791</v>
+        <v>-29244.619999999995</v>
       </c>
       <c r="E13" s="32">
         <f>'11_25'!F2</f>
@@ -21562,7 +22198,7 @@
       </c>
       <c r="G13" s="33">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>223310.89</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="35" t="s">
@@ -21599,7 +22235,7 @@
       </c>
       <c r="D14" s="33">
         <f t="shared" si="0"/>
-        <v>-27626.059999999998</v>
+        <v>-66661.679999999993</v>
       </c>
       <c r="E14" s="32">
         <f>'12_25'!F2</f>
@@ -21611,7 +22247,7 @@
       </c>
       <c r="G14" s="33">
         <f t="shared" si="1"/>
-        <v>270793.63</v>
+        <v>223310.89</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="44" t="s">
@@ -21644,23 +22280,23 @@
       </c>
       <c r="C15" s="33">
         <f>SUM(C3:C14)</f>
-        <v>-606290.06000000006</v>
+        <v>-645325.68000000017</v>
       </c>
       <c r="D15" s="33">
         <f>B15+C15</f>
-        <v>-27626.060000000056</v>
+        <v>-66661.680000000168</v>
       </c>
       <c r="E15" s="33">
         <f>SUM(E3:E14)</f>
-        <v>305000</v>
+        <v>320054.88</v>
       </c>
       <c r="F15" s="33">
         <f>SUM(F3:F14)</f>
-        <v>-34206.370000000003</v>
+        <v>-96743.99</v>
       </c>
       <c r="G15" s="33">
         <f>E15+F15</f>
-        <v>270793.63</v>
+        <v>223310.89</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="48"/>
@@ -21691,20 +22327,20 @@
       </c>
       <c r="C16" s="55">
         <f>C15/A16</f>
-        <v>-50524.171666666669</v>
+        <v>-53777.140000000014</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55">
         <f>E15/A16</f>
-        <v>25416.666666666668</v>
+        <v>26671.24</v>
       </c>
       <c r="F16" s="55">
         <f>F15/A16</f>
-        <v>-2850.5308333333337</v>
+        <v>-8061.9991666666674</v>
       </c>
       <c r="G16" s="55">
         <f>G15/A16</f>
-        <v>22566.135833333334</v>
+        <v>18609.240833333333</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="57"/>
@@ -21738,11 +22374,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="399">
+      <c r="L17" s="416">
         <f>L15+M15</f>
         <v>961.10596800000008</v>
       </c>
-      <c r="M17" s="399"/>
+      <c r="M17" s="416"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
@@ -33835,7 +34471,7 @@
   </sheetPr>
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A69" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -79113,7 +79749,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="89" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C11" s="89"/>
       <c r="D11" s="90"/>

--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DD522D-535D-4FBC-991C-E9B9AF76621D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B34C03-DB1C-4196-9175-08113CAD12DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_25" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4478" uniqueCount="1666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4479" uniqueCount="1667">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -5331,9 +5331,6 @@
     <t>havalanı fazla kilo</t>
   </si>
   <si>
-    <t>march benzin umut</t>
-  </si>
-  <si>
     <t>eziç yenek</t>
   </si>
   <si>
@@ -5382,6 +5379,12 @@
   </si>
   <si>
     <t>2025 01 tüfe</t>
+  </si>
+  <si>
+    <t>doğuş</t>
+  </si>
+  <si>
+    <t>march benzin umut mezuniyet</t>
   </si>
 </sst>
 </file>
@@ -6455,7 +6458,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="440">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7017,7 +7020,6 @@
     <xf numFmtId="174" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="23" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7027,10 +7029,6 @@
     <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="190" fontId="3" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -7039,6 +7037,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="46" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="25" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7690,32 +7696,32 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="424">
+      <c r="A7" s="423">
         <v>45667</v>
       </c>
-      <c r="B7" s="425" t="s">
+      <c r="B7" s="424" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="394"/>
-      <c r="D7" s="426">
+      <c r="D7" s="425">
         <v>20000</v>
       </c>
-      <c r="E7" s="426"/>
+      <c r="E7" s="425"/>
       <c r="F7" s="2">
         <f t="shared" ref="F7:F16" si="0">F6+D7-E7</f>
         <v>277330</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="11" customFormat="1">
-      <c r="A8" s="424">
+      <c r="A8" s="423">
         <v>45672</v>
       </c>
-      <c r="B8" s="425" t="s">
+      <c r="B8" s="424" t="s">
         <v>1590</v>
       </c>
       <c r="C8" s="394"/>
-      <c r="D8" s="426"/>
-      <c r="E8" s="426">
+      <c r="D8" s="425"/>
+      <c r="E8" s="425">
         <v>25000</v>
       </c>
       <c r="F8" s="12">
@@ -7724,15 +7730,15 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="424">
+      <c r="A9" s="423">
         <v>45672</v>
       </c>
       <c r="B9" s="394" t="s">
         <v>1591</v>
       </c>
       <c r="C9" s="394"/>
-      <c r="D9" s="426"/>
-      <c r="E9" s="426">
+      <c r="D9" s="425"/>
+      <c r="E9" s="425">
         <v>31000</v>
       </c>
       <c r="F9" s="12">
@@ -9721,8 +9727,8 @@
   </sheetPr>
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -9795,8 +9801,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="431"/>
-      <c r="B6" s="432"/>
+      <c r="A6" s="428"/>
+      <c r="B6" s="429"/>
       <c r="C6" s="410"/>
       <c r="D6" s="408"/>
       <c r="E6" s="408"/>
@@ -9806,13 +9812,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="433"/>
-      <c r="B7" s="432" t="s">
+      <c r="A7" s="430"/>
+      <c r="B7" s="429" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="434"/>
-      <c r="D7" s="435"/>
-      <c r="E7" s="435">
+      <c r="C7" s="431"/>
+      <c r="D7" s="432"/>
+      <c r="E7" s="432">
         <f>E37</f>
         <v>-16672.61</v>
       </c>
@@ -9827,13 +9833,13 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="431"/>
-      <c r="B8" s="432" t="s">
+      <c r="A8" s="428"/>
+      <c r="B8" s="429" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="434"/>
-      <c r="D8" s="435"/>
-      <c r="E8" s="435">
+      <c r="C8" s="431"/>
+      <c r="D8" s="432"/>
+      <c r="E8" s="432">
         <f>E58</f>
         <v>-3387.99</v>
       </c>
@@ -10405,7 +10411,7 @@
         <v>45691</v>
       </c>
       <c r="B48" s="107" t="s">
-        <v>1661</v>
+        <v>1666</v>
       </c>
       <c r="E48" s="77">
         <v>-1300.54</v>
@@ -10420,7 +10426,7 @@
         <v>45689</v>
       </c>
       <c r="B49" s="107" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C49" s="106"/>
       <c r="E49" s="77">
@@ -10751,8 +10757,8 @@
   </sheetPr>
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -10800,11 +10806,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G36)</f>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -10882,13 +10888,13 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="430">
+      <c r="A9" s="427">
         <v>45873</v>
       </c>
-      <c r="B9" s="425" t="s">
+      <c r="B9" s="439" t="s">
         <v>1657</v>
       </c>
-      <c r="C9" s="425"/>
+      <c r="C9" s="424"/>
       <c r="D9" s="385"/>
       <c r="E9" s="385"/>
       <c r="F9" s="385"/>
@@ -11047,11 +11053,11 @@
     </row>
     <row r="19" spans="1:13" s="78" customFormat="1">
       <c r="A19" s="88"/>
-      <c r="B19" s="420" t="s">
+      <c r="B19" s="419" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="420"/>
-      <c r="D19" s="421">
+      <c r="C19" s="419"/>
+      <c r="D19" s="420">
         <v>15000</v>
       </c>
       <c r="E19" s="77"/>
@@ -11065,7 +11071,9 @@
       <c r="J19"/>
     </row>
     <row r="20" spans="1:13" s="78" customFormat="1">
-      <c r="A20" s="88"/>
+      <c r="A20" s="88">
+        <v>45705</v>
+      </c>
       <c r="B20" s="93" t="s">
         <v>73</v>
       </c>
@@ -11075,14 +11083,18 @@
         <v>-1000</v>
       </c>
       <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
+      <c r="G20" s="77">
+        <v>-2305</v>
+      </c>
       <c r="H20" s="90">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51525.32</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="78" customFormat="1">
-      <c r="A21" s="88"/>
+      <c r="A21" s="88">
+        <v>45705</v>
+      </c>
       <c r="B21" s="93" t="s">
         <v>74</v>
       </c>
@@ -11092,10 +11104,12 @@
         <v>-200</v>
       </c>
       <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
+      <c r="G21" s="77">
+        <v>-40</v>
+      </c>
       <c r="H21" s="90">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="78" customFormat="1">
@@ -11112,7 +11126,7 @@
       <c r="G22" s="77"/>
       <c r="H22" s="90">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="78" customFormat="1">
@@ -11129,7 +11143,7 @@
       <c r="G23" s="77"/>
       <c r="H23" s="90">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -11149,7 +11163,7 @@
       <c r="G24" s="77"/>
       <c r="H24" s="77">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -11169,7 +11183,7 @@
       <c r="G25" s="77"/>
       <c r="H25" s="77">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -11189,7 +11203,7 @@
       <c r="G26" s="77"/>
       <c r="H26" s="77">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -11205,7 +11219,7 @@
       <c r="G27" s="77"/>
       <c r="H27" s="77">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="94"/>
@@ -11222,7 +11236,7 @@
       <c r="G28" s="77"/>
       <c r="H28" s="77">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="94"/>
@@ -11247,7 +11261,7 @@
       <c r="G29" s="77"/>
       <c r="H29" s="77">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
       <c r="J29" s="94"/>
       <c r="K29" s="94"/>
@@ -11267,7 +11281,7 @@
       <c r="G30" s="77"/>
       <c r="H30" s="77">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
       <c r="J30" s="94"/>
       <c r="K30" s="94"/>
@@ -11287,7 +11301,7 @@
       <c r="G31" s="77"/>
       <c r="H31" s="77">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
       <c r="J31" s="94"/>
       <c r="K31" s="94"/>
@@ -11307,7 +11321,7 @@
       <c r="G32" s="77"/>
       <c r="H32" s="77">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="78" customFormat="1">
@@ -11317,18 +11331,18 @@
       <c r="G33" s="77"/>
       <c r="H33" s="77">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="100"/>
       <c r="B34" s="101" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C34" s="101"/>
       <c r="H34" s="77">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
       <c r="I34" s="78"/>
       <c r="J34" s="78"/>
@@ -11337,7 +11351,7 @@
       <c r="A35" s="100"/>
       <c r="H35" s="77">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="78" customFormat="1">
@@ -11347,7 +11361,7 @@
       <c r="G36" s="77"/>
       <c r="H36" s="77">
         <f t="shared" si="0"/>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -11390,9 +11404,9 @@
     <row r="40" spans="1:14" s="77" customFormat="1">
       <c r="B40" s="102"/>
       <c r="G40" s="77" t="s">
-        <v>1665</v>
-      </c>
-      <c r="H40" s="436">
+        <v>1664</v>
+      </c>
+      <c r="H40" s="433">
         <v>0.5635</v>
       </c>
       <c r="K40" s="78"/>
@@ -11423,6 +11437,9 @@
       <c r="C42"/>
       <c r="E42" s="105" t="s">
         <v>84</v>
+      </c>
+      <c r="G42" s="77" t="s">
+        <v>1665</v>
       </c>
       <c r="H42" s="77">
         <f>SUM(H41+H39)</f>
@@ -12573,7 +12590,7 @@
         <f t="shared" si="2"/>
         <v>134200</v>
       </c>
-      <c r="H133" s="423">
+      <c r="H133" s="422">
         <f>SUM(G126:G133)</f>
         <v>414860.529454</v>
       </c>
@@ -12758,7 +12775,7 @@
         <f>F140*C140</f>
         <v>652.07999999999993</v>
       </c>
-      <c r="H140" s="423">
+      <c r="H140" s="422">
         <f>SUM(G136:G140)</f>
         <v>318043.82776000001</v>
       </c>
@@ -12879,7 +12896,7 @@
         <f>C145*F145</f>
         <v>21200</v>
       </c>
-      <c r="H145" s="423">
+      <c r="H145" s="422">
         <f>SUM(G143:G145)</f>
         <v>109250</v>
       </c>
@@ -13158,7 +13175,7 @@
         <f t="shared" ref="E161" si="12">D161*C161</f>
         <v>-21806.591624999997</v>
       </c>
-      <c r="F161" s="429">
+      <c r="F161" s="426">
         <v>900.29758900000002</v>
       </c>
       <c r="G161" s="404">
@@ -13285,12 +13302,12 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF9BC2E6"/>
+    <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:N187"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -13828,7 +13845,7 @@
       <c r="B29" s="394" t="s">
         <v>1609</v>
       </c>
-      <c r="C29" s="419" t="s">
+      <c r="C29" s="418" t="s">
         <v>631</v>
       </c>
       <c r="D29" s="385"/>
@@ -13862,22 +13879,22 @@
       <c r="M30" s="96"/>
     </row>
     <row r="31" spans="1:13" s="78" customFormat="1">
-      <c r="A31" s="416">
+      <c r="A31" s="436">
         <v>45688</v>
       </c>
-      <c r="B31" s="417" t="s">
+      <c r="B31" s="393" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="417"/>
-      <c r="D31" s="385"/>
-      <c r="E31" s="385">
+      <c r="C31" s="393"/>
+      <c r="D31" s="388"/>
+      <c r="E31" s="388">
         <v>-600</v>
       </c>
-      <c r="F31" s="408"/>
-      <c r="G31" s="408">
+      <c r="F31" s="432"/>
+      <c r="G31" s="432">
         <v>-425</v>
       </c>
-      <c r="H31" s="90">
+      <c r="H31" s="87">
         <f t="shared" si="2"/>
         <v>246866.63</v>
       </c>
@@ -13887,22 +13904,22 @@
       <c r="M31" s="96"/>
     </row>
     <row r="32" spans="1:13" s="78" customFormat="1">
-      <c r="A32" s="416">
+      <c r="A32" s="436">
         <v>45688</v>
       </c>
-      <c r="B32" s="417" t="s">
+      <c r="B32" s="393" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="417"/>
-      <c r="D32" s="385"/>
-      <c r="E32" s="385">
+      <c r="C32" s="393"/>
+      <c r="D32" s="388"/>
+      <c r="E32" s="388">
         <v>-800</v>
       </c>
-      <c r="F32" s="408"/>
-      <c r="G32" s="408">
+      <c r="F32" s="432"/>
+      <c r="G32" s="432">
         <v>-680</v>
       </c>
-      <c r="H32" s="90">
+      <c r="H32" s="87">
         <f t="shared" si="2"/>
         <v>246186.63</v>
       </c>
@@ -13912,20 +13929,20 @@
       <c r="M32" s="96"/>
     </row>
     <row r="33" spans="1:13" s="78" customFormat="1">
-      <c r="A33" s="416">
+      <c r="A33" s="436">
         <v>45688</v>
       </c>
-      <c r="B33" s="418" t="s">
+      <c r="B33" s="388" t="s">
         <v>1645</v>
       </c>
-      <c r="C33" s="418"/>
-      <c r="D33" s="418"/>
-      <c r="E33" s="385"/>
-      <c r="F33" s="408"/>
-      <c r="G33" s="408">
+      <c r="C33" s="388"/>
+      <c r="D33" s="388"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="432"/>
+      <c r="G33" s="432">
         <v>-205.5</v>
       </c>
-      <c r="H33" s="90">
+      <c r="H33" s="87">
         <f t="shared" si="2"/>
         <v>245981.13</v>
       </c>
@@ -13935,11 +13952,11 @@
       <c r="M33" s="96"/>
     </row>
     <row r="34" spans="1:13" s="78" customFormat="1">
-      <c r="B34" s="420" t="s">
+      <c r="B34" s="419" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="420"/>
-      <c r="D34" s="421">
+      <c r="C34" s="419"/>
+      <c r="D34" s="420">
         <v>15000</v>
       </c>
       <c r="E34" s="77"/>
@@ -13951,7 +13968,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="78" customFormat="1">
-      <c r="A35" s="418"/>
+      <c r="A35" s="417"/>
       <c r="B35" s="394" t="s">
         <v>76</v>
       </c>
@@ -13970,10 +13987,11 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="78" customFormat="1">
-      <c r="A36" s="100"/>
-      <c r="B36" s="101" t="s">
-        <v>1663</v>
-      </c>
+      <c r="A36" s="398"/>
+      <c r="B36" s="437" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C36" s="438"/>
       <c r="D36" s="77"/>
       <c r="E36" s="77"/>
       <c r="F36" s="77"/>
@@ -14425,7 +14443,7 @@
       <c r="F73" s="77" t="s">
         <v>1650</v>
       </c>
-      <c r="H73" s="422">
+      <c r="H73" s="421">
         <f>H70-H71</f>
         <v>299.89999999999964</v>
       </c>
@@ -15119,7 +15137,7 @@
         <f t="shared" si="4"/>
         <v>134200</v>
       </c>
-      <c r="H122" s="423">
+      <c r="H122" s="422">
         <f>SUM(G117:G122)</f>
         <v>467916.90332000004</v>
       </c>
@@ -15321,7 +15339,7 @@
         <f>F129*C129</f>
         <v>652.07999999999993</v>
       </c>
-      <c r="H129" s="423">
+      <c r="H129" s="422">
         <f>SUM(G125:G129)</f>
         <v>318043.82776000001</v>
       </c>
@@ -15450,7 +15468,7 @@
         <f>C134*F134</f>
         <v>21200</v>
       </c>
-      <c r="H134" s="423">
+      <c r="H134" s="422">
         <f>SUM(G132:G134)</f>
         <v>109250</v>
       </c>
@@ -18534,10 +18552,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="427" t="s">
+      <c r="L1" s="434" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="427"/>
+      <c r="M1" s="434"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -19249,11 +19267,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="428">
+      <c r="L17" s="435">
         <f>L15+M15</f>
         <v>1080.7929879999999</v>
       </c>
-      <c r="M17" s="428"/>
+      <c r="M17" s="435"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
@@ -23370,10 +23388,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="427" t="s">
+      <c r="L1" s="434" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="427"/>
+      <c r="M1" s="434"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -23488,11 +23506,11 @@
       </c>
       <c r="F4" s="32">
         <f>'02_25'!G2</f>
-        <v>-49220.32</v>
+        <v>-51565.32</v>
       </c>
       <c r="G4" s="33">
         <f t="shared" ref="G4:G14" si="1">E4+F4+G3</f>
-        <v>211815.69</v>
+        <v>209470.69</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="35" t="s">
@@ -23541,7 +23559,7 @@
       </c>
       <c r="G5" s="33">
         <f t="shared" si="1"/>
-        <v>191755.09</v>
+        <v>189410.09</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="35" t="s">
@@ -23584,7 +23602,7 @@
       </c>
       <c r="G6" s="33">
         <f t="shared" si="1"/>
-        <v>190765.31</v>
+        <v>188420.31</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="41" t="s">
@@ -23627,7 +23645,7 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>189775.53</v>
+        <v>187430.53</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="41" t="s">
@@ -23670,7 +23688,7 @@
       </c>
       <c r="G8" s="33">
         <f t="shared" si="1"/>
-        <v>188785.75</v>
+        <v>186440.75</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="35" t="s">
@@ -23716,7 +23734,7 @@
       </c>
       <c r="G9" s="33">
         <f t="shared" si="1"/>
-        <v>187795.97</v>
+        <v>185450.97</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="35" t="s">
@@ -23765,7 +23783,7 @@
       </c>
       <c r="G10" s="33">
         <f t="shared" si="1"/>
-        <v>186806.19</v>
+        <v>184461.19</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="35" t="s">
@@ -23811,7 +23829,7 @@
       </c>
       <c r="G11" s="33">
         <f t="shared" si="1"/>
-        <v>186806.19</v>
+        <v>184461.19</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="35" t="s">
@@ -23860,7 +23878,7 @@
       </c>
       <c r="G12" s="33">
         <f t="shared" si="1"/>
-        <v>186806.19</v>
+        <v>184461.19</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="35" t="s">
@@ -23909,7 +23927,7 @@
       </c>
       <c r="G13" s="33">
         <f t="shared" si="1"/>
-        <v>186806.19</v>
+        <v>184461.19</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="35" t="s">
@@ -23958,7 +23976,7 @@
       </c>
       <c r="G14" s="33">
         <f t="shared" si="1"/>
-        <v>186806.19</v>
+        <v>184461.19</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="44" t="s">
@@ -24003,11 +24021,11 @@
       </c>
       <c r="F15" s="33">
         <f>SUM(F3:F14)</f>
-        <v>-133248.69</v>
+        <v>-135593.69</v>
       </c>
       <c r="G15" s="33">
         <f>E15+F15</f>
-        <v>186806.19</v>
+        <v>184461.19</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="48"/>
@@ -24047,11 +24065,11 @@
       </c>
       <c r="F16" s="55">
         <f>F15/A16</f>
-        <v>-11104.057500000001</v>
+        <v>-11299.474166666667</v>
       </c>
       <c r="G16" s="55">
         <f>G15/A16</f>
-        <v>15567.182500000001</v>
+        <v>15371.765833333333</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="57"/>
@@ -24085,11 +24103,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="428">
+      <c r="L17" s="435">
         <f>L15+M15</f>
         <v>961.10596800000008</v>
       </c>
-      <c r="M17" s="428"/>
+      <c r="M17" s="435"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">

--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B34C03-DB1C-4196-9175-08113CAD12DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBADF3CA-41B7-4C88-A027-8AA9E4F5509D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_25" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4479" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4494" uniqueCount="1675">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -5385,6 +5385,30 @@
   </si>
   <si>
     <t>march benzin umut mezuniyet</t>
+  </si>
+  <si>
+    <t>İş ytrm 1626748 801          adem özen kira</t>
+  </si>
+  <si>
+    <t>İş ytrm 1626748 801                 satış 21</t>
+  </si>
+  <si>
+    <t>umut passtrm</t>
+  </si>
+  <si>
+    <t>ksp</t>
+  </si>
+  <si>
+    <t>coşkun giyim mont-pant</t>
+  </si>
+  <si>
+    <t>kanat</t>
+  </si>
+  <si>
+    <t>tv-kağıt-hvl</t>
+  </si>
+  <si>
+    <t>aof 4. dönem ücreti</t>
   </si>
 </sst>
 </file>
@@ -6458,7 +6482,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="440">
+  <cellXfs count="442">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7031,20 +7055,22 @@
     <xf numFmtId="4" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="190" fontId="3" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="46" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="25" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="25" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="172" fontId="3" fillId="43" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7072,7 +7098,7 @@
     <cellStyle name="Warning 21" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Yüzde" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
@@ -7106,6 +7132,45 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79989013336588644"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9725,14 +9790,15 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
+    <col min="1" max="1" width="12.28515625" style="98"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="77" customWidth="1"/>
@@ -9756,7 +9822,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="439" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="79" t="s">
@@ -9768,7 +9834,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E33)</f>
-        <v>-66357.66</v>
+        <v>-76451.259999999995</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F33)</f>
@@ -9776,11 +9842,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G33)</f>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9801,8 +9867,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="428"/>
-      <c r="B6" s="429"/>
+      <c r="A6" s="440"/>
+      <c r="B6" s="428"/>
       <c r="C6" s="410"/>
       <c r="D6" s="408"/>
       <c r="E6" s="408"/>
@@ -9812,56 +9878,55 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="430"/>
-      <c r="B7" s="429" t="s">
+      <c r="A7" s="440"/>
+      <c r="B7" s="428" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="431"/>
-      <c r="D7" s="432"/>
-      <c r="E7" s="432">
+      <c r="C7" s="429"/>
+      <c r="D7" s="430"/>
+      <c r="E7" s="408">
         <f>E37</f>
-        <v>-16672.61</v>
-      </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87">
+        <v>-18847.61</v>
+      </c>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90">
         <f>E7</f>
-        <v>-16672.61</v>
+        <v>-18847.61</v>
       </c>
       <c r="H7" s="77">
         <f t="shared" si="0"/>
-        <v>-16672.61</v>
+        <v>-18847.61</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="428"/>
-      <c r="B8" s="429" t="s">
+      <c r="A8" s="440"/>
+      <c r="B8" s="428" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="431"/>
-      <c r="D8" s="432"/>
-      <c r="E8" s="432">
-        <f>E58</f>
-        <v>-3387.99</v>
-      </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87">
+      <c r="C8" s="429"/>
+      <c r="D8" s="430"/>
+      <c r="E8" s="408">
+        <f>E61</f>
+        <v>-11306.589999999998</v>
+      </c>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90">
         <f>E8</f>
-        <v>-3387.99</v>
+        <v>-11306.589999999998</v>
       </c>
       <c r="H8" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="G9" s="87"/>
       <c r="H9" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="88"/>
       <c r="B10" s="89" t="s">
         <v>70</v>
       </c>
@@ -9872,7 +9937,7 @@
       </c>
       <c r="H10" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9886,7 +9951,7 @@
       </c>
       <c r="H11" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9900,22 +9965,21 @@
       </c>
       <c r="H12" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="88"/>
       <c r="B13" s="92"/>
       <c r="C13" s="92"/>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
       <c r="H13" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="78" customFormat="1">
-      <c r="A14" s="88"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="77"/>
@@ -9924,13 +9988,13 @@
       <c r="G14" s="77"/>
       <c r="H14" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" s="78" customFormat="1">
-      <c r="A15" s="88"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="93" t="s">
         <v>73</v>
       </c>
@@ -9943,11 +10007,11 @@
       <c r="G15" s="77"/>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="78" customFormat="1">
-      <c r="A16" s="88"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="93" t="s">
         <v>74</v>
       </c>
@@ -9960,11 +10024,11 @@
       <c r="G16" s="77"/>
       <c r="H16" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="78" customFormat="1">
-      <c r="A17" s="88"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="89" t="s">
         <v>75</v>
       </c>
@@ -9977,11 +10041,11 @@
       <c r="G17" s="77"/>
       <c r="H17" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="78" customFormat="1">
-      <c r="A18" s="88"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="92" t="s">
         <v>76</v>
       </c>
@@ -9994,7 +10058,7 @@
       <c r="G18" s="77"/>
       <c r="H18" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="94"/>
@@ -10002,6 +10066,7 @@
       <c r="M18" s="96"/>
     </row>
     <row r="19" spans="1:13" s="78" customFormat="1">
+      <c r="A19" s="98"/>
       <c r="B19" s="92" t="s">
         <v>77</v>
       </c>
@@ -10014,7 +10079,7 @@
       <c r="G19" s="77"/>
       <c r="H19" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
       <c r="J19" s="94"/>
       <c r="K19" s="94"/>
@@ -10022,6 +10087,7 @@
       <c r="M19" s="96"/>
     </row>
     <row r="20" spans="1:13" s="78" customFormat="1">
+      <c r="A20" s="98"/>
       <c r="B20" s="92" t="s">
         <v>78</v>
       </c>
@@ -10034,7 +10100,7 @@
       <c r="G20" s="77"/>
       <c r="H20" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
       <c r="J20" s="94"/>
       <c r="K20" s="94"/>
@@ -10042,6 +10108,7 @@
       <c r="M20" s="96"/>
     </row>
     <row r="21" spans="1:13" s="78" customFormat="1">
+      <c r="A21" s="98"/>
       <c r="B21" s="92" t="s">
         <v>79</v>
       </c>
@@ -10054,7 +10121,7 @@
       <c r="G21" s="77"/>
       <c r="H21" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="94"/>
@@ -10062,6 +10129,7 @@
       <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" s="78" customFormat="1">
+      <c r="A22" s="98"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="77"/>
@@ -10070,7 +10138,7 @@
       <c r="G22" s="77"/>
       <c r="H22" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="94"/>
@@ -10078,7 +10146,7 @@
       <c r="M22" s="96"/>
     </row>
     <row r="23" spans="1:13" s="78" customFormat="1">
-      <c r="A23" s="97"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="92"/>
       <c r="C23" s="92"/>
       <c r="D23" s="90"/>
@@ -10087,7 +10155,7 @@
       <c r="G23" s="77"/>
       <c r="H23" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -10112,7 +10180,7 @@
       <c r="G24" s="77"/>
       <c r="H24" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -10120,6 +10188,7 @@
       <c r="M24" s="96"/>
     </row>
     <row r="25" spans="1:13" s="78" customFormat="1">
+      <c r="A25" s="98"/>
       <c r="B25" s="99" t="s">
         <v>80</v>
       </c>
@@ -10132,7 +10201,7 @@
       <c r="G25" s="77"/>
       <c r="H25" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -10140,6 +10209,7 @@
       <c r="M25" s="96"/>
     </row>
     <row r="26" spans="1:13" s="78" customFormat="1">
+      <c r="A26" s="98"/>
       <c r="B26" s="99" t="s">
         <v>81</v>
       </c>
@@ -10152,7 +10222,7 @@
       <c r="G26" s="77"/>
       <c r="H26" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -10160,6 +10230,7 @@
       <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" s="78" customFormat="1">
+      <c r="A27" s="98"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="77"/>
@@ -10168,43 +10239,42 @@
       <c r="G27" s="77"/>
       <c r="H27" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="78" customFormat="1">
+      <c r="A28" s="98"/>
       <c r="D28" s="77"/>
       <c r="E28" s="77"/>
       <c r="F28" s="77"/>
       <c r="G28" s="77"/>
       <c r="H28" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="100"/>
       <c r="B29" s="101" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="101"/>
       <c r="H29" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
       <c r="I29" s="78"/>
       <c r="J29" s="78"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="100"/>
       <c r="H30" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="H31" s="77">
         <f t="shared" si="0"/>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="78" customFormat="1">
@@ -10228,7 +10298,7 @@
       <c r="H34" s="77"/>
     </row>
     <row r="35" spans="1:14" s="77" customFormat="1">
-      <c r="A35" s="88"/>
+      <c r="A35" s="98"/>
       <c r="B35" s="78"/>
       <c r="C35" s="78"/>
       <c r="I35" s="78"/>
@@ -10239,6 +10309,7 @@
       <c r="N35" s="78"/>
     </row>
     <row r="36" spans="1:14" s="77" customFormat="1">
+      <c r="A36" s="439"/>
       <c r="B36" s="102"/>
       <c r="K36" s="78"/>
       <c r="L36" s="78"/>
@@ -10246,20 +10317,20 @@
       <c r="N36" s="78"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="103"/>
+      <c r="A37" s="441"/>
       <c r="B37" s="104" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="103"/>
       <c r="E37" s="77">
-        <f>SUM(E38:E49)</f>
-        <v>-16672.61</v>
+        <f>SUM(E38:E55)</f>
+        <v>-18847.61</v>
       </c>
       <c r="I37" s="77"/>
       <c r="J37" s="77"/>
     </row>
     <row r="38" spans="1:14" s="77" customFormat="1">
-      <c r="A38"/>
+      <c r="A38" s="98"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="I38"/>
@@ -10270,7 +10341,7 @@
       <c r="N38" s="78"/>
     </row>
     <row r="39" spans="1:14" s="77" customFormat="1">
-      <c r="A39" s="88">
+      <c r="A39" s="98">
         <v>45715</v>
       </c>
       <c r="B39" s="90" t="s">
@@ -10291,14 +10362,14 @@
       <c r="N39" s="78"/>
     </row>
     <row r="40" spans="1:14" s="77" customFormat="1">
-      <c r="A40" s="88">
+      <c r="A40" s="98">
         <v>45715</v>
       </c>
       <c r="B40" s="77" t="s">
         <v>1640</v>
       </c>
       <c r="E40" s="77">
-        <v>-2880</v>
+        <v>-2820</v>
       </c>
       <c r="K40" s="78"/>
       <c r="L40" s="78"/>
@@ -10306,7 +10377,7 @@
       <c r="N40" s="78"/>
     </row>
     <row r="41" spans="1:14" s="77" customFormat="1">
-      <c r="A41" s="88">
+      <c r="A41" s="98">
         <v>45715</v>
       </c>
       <c r="B41" s="77" t="s">
@@ -10321,7 +10392,7 @@
       <c r="N41" s="78"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="88">
+      <c r="A42" s="98">
         <v>45715</v>
       </c>
       <c r="B42" s="90" t="s">
@@ -10335,7 +10406,7 @@
       <c r="J42" s="77"/>
     </row>
     <row r="43" spans="1:14" s="77" customFormat="1">
-      <c r="A43" s="88">
+      <c r="A43" s="98">
         <v>45715</v>
       </c>
       <c r="B43" s="90" t="s">
@@ -10350,7 +10421,7 @@
       <c r="N43" s="78"/>
     </row>
     <row r="44" spans="1:14" s="77" customFormat="1">
-      <c r="A44" s="100"/>
+      <c r="A44" s="98"/>
       <c r="B44" s="106"/>
       <c r="C44" s="106"/>
       <c r="K44" s="78"/>
@@ -10359,7 +10430,7 @@
       <c r="N44" s="78"/>
     </row>
     <row r="45" spans="1:14" s="77" customFormat="1">
-      <c r="A45" s="100">
+      <c r="A45" s="98">
         <v>45691</v>
       </c>
       <c r="B45" s="106" t="s">
@@ -10375,7 +10446,7 @@
       <c r="N45" s="78"/>
     </row>
     <row r="46" spans="1:14" s="77" customFormat="1">
-      <c r="A46" s="100">
+      <c r="A46" s="98">
         <v>45691</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -10391,7 +10462,7 @@
       <c r="N46" s="78"/>
     </row>
     <row r="47" spans="1:14" s="77" customFormat="1">
-      <c r="A47" s="100">
+      <c r="A47" s="98">
         <v>45691</v>
       </c>
       <c r="B47" s="107" t="s">
@@ -10407,7 +10478,7 @@
       <c r="N47" s="78"/>
     </row>
     <row r="48" spans="1:14" s="77" customFormat="1">
-      <c r="A48" s="100">
+      <c r="A48" s="98">
         <v>45691</v>
       </c>
       <c r="B48" s="107" t="s">
@@ -10422,7 +10493,7 @@
       <c r="N48" s="78"/>
     </row>
     <row r="49" spans="1:14" s="77" customFormat="1">
-      <c r="A49" s="100">
+      <c r="A49" s="98">
         <v>45689</v>
       </c>
       <c r="B49" s="107" t="s">
@@ -10438,15 +10509,22 @@
       <c r="N49" s="78"/>
     </row>
     <row r="50" spans="1:14" s="77" customFormat="1">
-      <c r="A50" s="100"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="98">
+        <v>45699</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E50" s="77">
+        <v>-2235</v>
+      </c>
       <c r="K50" s="78"/>
       <c r="L50" s="78"/>
       <c r="M50" s="78"/>
       <c r="N50" s="78"/>
     </row>
     <row r="51" spans="1:14" s="90" customFormat="1">
-      <c r="A51" s="100"/>
+      <c r="A51" s="98"/>
       <c r="B51" s="92"/>
       <c r="K51" s="78"/>
       <c r="L51" s="78"/>
@@ -10454,7 +10532,7 @@
       <c r="N51" s="78"/>
     </row>
     <row r="52" spans="1:14" s="90" customFormat="1">
-      <c r="A52" s="100"/>
+      <c r="A52" s="98"/>
       <c r="B52" s="92"/>
       <c r="K52" s="78"/>
       <c r="L52" s="78"/>
@@ -10462,7 +10540,7 @@
       <c r="N52" s="78"/>
     </row>
     <row r="53" spans="1:14" s="90" customFormat="1">
-      <c r="A53" s="100"/>
+      <c r="A53" s="98"/>
       <c r="B53" s="92"/>
       <c r="K53" s="78"/>
       <c r="L53" s="78"/>
@@ -10470,82 +10548,73 @@
       <c r="N53" s="78"/>
     </row>
     <row r="54" spans="1:14" s="90" customFormat="1">
-      <c r="A54" s="100"/>
+      <c r="A54" s="98"/>
       <c r="B54" s="92"/>
       <c r="K54" s="78"/>
       <c r="L54" s="78"/>
       <c r="M54" s="78"/>
       <c r="N54" s="78"/>
     </row>
-    <row r="55" spans="1:14" s="90" customFormat="1" ht="15">
-      <c r="A55" s="100"/>
-      <c r="B55" s="105" t="s">
-        <v>84</v>
-      </c>
+    <row r="55" spans="1:14" s="90" customFormat="1">
+      <c r="A55" s="98"/>
+      <c r="B55" s="92"/>
       <c r="K55" s="78"/>
       <c r="L55" s="78"/>
       <c r="M55" s="78"/>
       <c r="N55" s="78"/>
     </row>
     <row r="56" spans="1:14" s="90" customFormat="1">
-      <c r="A56" s="100"/>
+      <c r="A56" s="98"/>
       <c r="B56" s="92"/>
       <c r="K56" s="78"/>
       <c r="L56" s="78"/>
       <c r="M56" s="78"/>
       <c r="N56" s="78"/>
     </row>
-    <row r="57" spans="1:14" s="77" customFormat="1">
-      <c r="A57" s="100"/>
-      <c r="B57" s="106"/>
-      <c r="C57" s="106"/>
+    <row r="57" spans="1:14" s="90" customFormat="1">
+      <c r="A57" s="98"/>
+      <c r="B57" s="92"/>
       <c r="K57" s="78"/>
       <c r="L57" s="78"/>
       <c r="M57" s="78"/>
       <c r="N57" s="78"/>
     </row>
-    <row r="58" spans="1:14" s="77" customFormat="1">
-      <c r="A58" s="103"/>
-      <c r="B58" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" s="103"/>
-      <c r="E58" s="77">
-        <f>SUM(E59:E77)</f>
-        <v>-3387.99</v>
+    <row r="58" spans="1:14" s="90" customFormat="1" ht="15">
+      <c r="A58" s="98"/>
+      <c r="B58" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="K58" s="78"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
       <c r="N58" s="78"/>
     </row>
-    <row r="59" spans="1:14" s="77" customFormat="1">
-      <c r="A59" s="100"/>
-      <c r="B59" s="106"/>
-      <c r="C59" s="106"/>
+    <row r="59" spans="1:14" s="90" customFormat="1">
+      <c r="A59" s="98"/>
+      <c r="B59" s="92"/>
       <c r="K59" s="78"/>
       <c r="L59" s="78"/>
       <c r="M59" s="78"/>
       <c r="N59" s="78"/>
     </row>
     <row r="60" spans="1:14" s="77" customFormat="1">
-      <c r="F60" s="90"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="106"/>
       <c r="K60" s="78"/>
       <c r="L60" s="78"/>
       <c r="M60" s="78"/>
       <c r="N60" s="78"/>
     </row>
     <row r="61" spans="1:14" s="77" customFormat="1">
-      <c r="A61" s="100">
-        <v>45681</v>
-      </c>
-      <c r="B61" s="92" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C61" s="106"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90">
-        <v>-1798</v>
+      <c r="A61" s="441"/>
+      <c r="B61" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="103"/>
+      <c r="E61" s="77">
+        <f>SUM(E62:E92)</f>
+        <v>-11306.589999999998</v>
       </c>
       <c r="K61" s="78"/>
       <c r="L61" s="78"/>
@@ -10553,192 +10622,463 @@
       <c r="N61" s="78"/>
     </row>
     <row r="62" spans="1:14" s="77" customFormat="1">
-      <c r="A62" s="100">
-        <v>45681</v>
-      </c>
-      <c r="B62" s="92" t="s">
-        <v>1631</v>
-      </c>
+      <c r="A62" s="98"/>
+      <c r="B62" s="106"/>
       <c r="C62" s="106"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90">
-        <v>-120</v>
-      </c>
       <c r="K62" s="78"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="1:14" s="77" customFormat="1">
-      <c r="A63" s="100">
-        <v>45681</v>
-      </c>
-      <c r="B63" s="92" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C63" s="106"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90">
-        <v>-700</v>
-      </c>
+      <c r="A63" s="439"/>
+      <c r="F63" s="90"/>
       <c r="K63" s="78"/>
       <c r="L63" s="78"/>
       <c r="M63" s="78"/>
       <c r="N63" s="78"/>
     </row>
-    <row r="64" spans="1:14" s="77" customFormat="1">
-      <c r="A64" s="100">
-        <v>45682</v>
-      </c>
-      <c r="B64" s="92" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C64" s="106"/>
-      <c r="D64" s="90"/>
+    <row r="64" spans="1:14" s="90" customFormat="1">
+      <c r="A64" s="439">
+        <v>45692</v>
+      </c>
+      <c r="B64" s="90" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D64" s="90" t="s">
+        <v>1048</v>
+      </c>
       <c r="E64" s="90">
-        <v>-70</v>
+        <v>-600.13</v>
       </c>
       <c r="K64" s="78"/>
       <c r="L64" s="78"/>
       <c r="M64" s="78"/>
       <c r="N64" s="78"/>
     </row>
-    <row r="65" spans="1:14" s="77" customFormat="1">
-      <c r="A65" s="100">
-        <v>45682</v>
-      </c>
-      <c r="B65" s="92" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C65" s="106"/>
-      <c r="D65" s="90"/>
+    <row r="65" spans="1:14" s="90" customFormat="1">
+      <c r="A65" s="439">
+        <v>45692</v>
+      </c>
+      <c r="B65" s="90" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D65" s="90" t="s">
+        <v>1048</v>
+      </c>
       <c r="E65" s="90">
-        <v>-699.99</v>
+        <v>-2500.3000000000002</v>
       </c>
       <c r="K65" s="78"/>
       <c r="L65" s="78"/>
       <c r="M65" s="78"/>
       <c r="N65" s="78"/>
     </row>
-    <row r="66" spans="1:14" s="77" customFormat="1">
-      <c r="A66" s="100">
-        <v>45691</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="106">
-        <v>19000</v>
-      </c>
+    <row r="66" spans="1:14" s="90" customFormat="1">
+      <c r="A66" s="439"/>
       <c r="K66" s="78"/>
       <c r="L66" s="78"/>
       <c r="M66" s="78"/>
       <c r="N66" s="78"/>
     </row>
-    <row r="67" spans="1:14" s="77" customFormat="1">
-      <c r="A67" s="100">
-        <v>45691</v>
-      </c>
-      <c r="B67" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="106">
-        <v>10500</v>
-      </c>
+    <row r="67" spans="1:14" s="90" customFormat="1">
+      <c r="A67" s="439"/>
       <c r="K67" s="78"/>
       <c r="L67" s="78"/>
       <c r="M67" s="78"/>
       <c r="N67" s="78"/>
     </row>
-    <row r="68" spans="1:14" s="77" customFormat="1">
-      <c r="A68" s="100"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="106"/>
+    <row r="68" spans="1:14" s="90" customFormat="1">
+      <c r="A68" s="439"/>
       <c r="K68" s="78"/>
       <c r="L68" s="78"/>
       <c r="M68" s="78"/>
       <c r="N68" s="78"/>
     </row>
-    <row r="69" spans="1:14" s="77" customFormat="1">
-      <c r="A69" s="100"/>
-      <c r="B69" s="3"/>
+    <row r="69" spans="1:14" s="90" customFormat="1">
+      <c r="A69" s="98">
+        <v>45681</v>
+      </c>
+      <c r="B69" s="92" t="s">
+        <v>1632</v>
+      </c>
       <c r="C69" s="106"/>
+      <c r="E69" s="90">
+        <v>-1798</v>
+      </c>
+      <c r="F69" s="77"/>
       <c r="K69" s="78"/>
       <c r="L69" s="78"/>
       <c r="M69" s="78"/>
       <c r="N69" s="78"/>
     </row>
-    <row r="70" spans="1:14" s="77" customFormat="1">
-      <c r="A70" s="100"/>
-      <c r="B70" s="3"/>
+    <row r="70" spans="1:14" s="90" customFormat="1">
+      <c r="A70" s="98"/>
+      <c r="B70" s="92" t="s">
+        <v>539</v>
+      </c>
       <c r="C70" s="106"/>
+      <c r="E70" s="90">
+        <v>1.8</v>
+      </c>
       <c r="K70" s="78"/>
       <c r="L70" s="78"/>
       <c r="M70" s="78"/>
       <c r="N70" s="78"/>
     </row>
-    <row r="71" spans="1:14" s="77" customFormat="1">
-      <c r="A71" s="100"/>
-      <c r="B71" s="3"/>
+    <row r="71" spans="1:14" s="90" customFormat="1">
+      <c r="A71" s="98">
+        <v>45681</v>
+      </c>
+      <c r="B71" s="92" t="s">
+        <v>1633</v>
+      </c>
       <c r="C71" s="106"/>
+      <c r="E71" s="90">
+        <v>-700</v>
+      </c>
       <c r="K71" s="78"/>
       <c r="L71" s="78"/>
       <c r="M71" s="78"/>
       <c r="N71" s="78"/>
     </row>
-    <row r="72" spans="1:14" s="77" customFormat="1">
-      <c r="A72" s="100"/>
-      <c r="B72" s="3"/>
+    <row r="72" spans="1:14" s="90" customFormat="1">
+      <c r="A72" s="98">
+        <v>45681</v>
+      </c>
+      <c r="B72" s="92" t="s">
+        <v>1631</v>
+      </c>
       <c r="C72" s="106"/>
+      <c r="E72" s="90">
+        <v>-120</v>
+      </c>
       <c r="K72" s="78"/>
       <c r="L72" s="78"/>
       <c r="M72" s="78"/>
       <c r="N72" s="78"/>
     </row>
-    <row r="73" spans="1:14" s="77" customFormat="1" ht="15">
-      <c r="A73" s="100"/>
-      <c r="B73" s="105" t="s">
-        <v>84</v>
+    <row r="73" spans="1:14" s="90" customFormat="1">
+      <c r="A73" s="98">
+        <v>45682</v>
+      </c>
+      <c r="B73" s="92" t="s">
+        <v>1621</v>
       </c>
       <c r="C73" s="106"/>
+      <c r="E73" s="90">
+        <v>-70</v>
+      </c>
       <c r="K73" s="78"/>
       <c r="L73" s="78"/>
       <c r="M73" s="78"/>
       <c r="N73" s="78"/>
     </row>
-    <row r="74" spans="1:14" s="77" customFormat="1">
-      <c r="A74" s="100"/>
-      <c r="B74" s="3"/>
+    <row r="74" spans="1:14" s="90" customFormat="1">
+      <c r="A74" s="98">
+        <v>45682</v>
+      </c>
+      <c r="B74" s="92" t="s">
+        <v>1634</v>
+      </c>
       <c r="C74" s="106"/>
+      <c r="E74" s="90">
+        <v>-699.99</v>
+      </c>
       <c r="K74" s="78"/>
       <c r="L74" s="78"/>
       <c r="M74" s="78"/>
       <c r="N74" s="78"/>
     </row>
-    <row r="75" spans="1:14" s="77" customFormat="1">
-      <c r="A75" s="100"/>
-      <c r="B75" s="3"/>
+    <row r="75" spans="1:14" s="90" customFormat="1">
+      <c r="A75" s="98">
+        <v>45684</v>
+      </c>
+      <c r="B75" s="92" t="s">
+        <v>1621</v>
+      </c>
       <c r="C75" s="106"/>
+      <c r="E75" s="90">
+        <v>-70</v>
+      </c>
       <c r="K75" s="78"/>
       <c r="L75" s="78"/>
       <c r="M75" s="78"/>
       <c r="N75" s="78"/>
     </row>
-    <row r="76" spans="1:14" s="77" customFormat="1">
-      <c r="A76" s="100"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="106"/>
+    <row r="76" spans="1:14" s="90" customFormat="1">
+      <c r="A76" s="98">
+        <v>45686</v>
+      </c>
+      <c r="B76" s="90" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E76" s="90">
+        <v>-3600</v>
+      </c>
       <c r="K76" s="78"/>
       <c r="L76" s="78"/>
       <c r="M76" s="78"/>
       <c r="N76" s="78"/>
     </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="100"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="106"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
+    <row r="77" spans="1:14" s="90" customFormat="1">
+      <c r="A77" s="98">
+        <v>45691</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="106">
+        <v>18950.04</v>
+      </c>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="78"/>
+      <c r="N77" s="78"/>
+    </row>
+    <row r="78" spans="1:14" s="90" customFormat="1">
+      <c r="A78" s="98">
+        <v>45691</v>
+      </c>
+      <c r="B78" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="106">
+        <v>10153.299999999999</v>
+      </c>
+      <c r="K78" s="78"/>
+      <c r="L78" s="78"/>
+      <c r="M78" s="78"/>
+      <c r="N78" s="78"/>
+    </row>
+    <row r="79" spans="1:14" s="90" customFormat="1">
+      <c r="A79" s="439">
+        <v>45694</v>
+      </c>
+      <c r="B79" s="90" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E79" s="90">
+        <v>-70</v>
+      </c>
+      <c r="K79" s="78"/>
+      <c r="L79" s="78"/>
+      <c r="M79" s="78"/>
+      <c r="N79" s="78"/>
+    </row>
+    <row r="80" spans="1:14" s="90" customFormat="1">
+      <c r="A80" s="439">
+        <v>45695</v>
+      </c>
+      <c r="B80" s="90" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E80" s="90">
+        <v>-200</v>
+      </c>
+      <c r="K80" s="78"/>
+      <c r="L80" s="78"/>
+      <c r="M80" s="78"/>
+      <c r="N80" s="78"/>
+    </row>
+    <row r="81" spans="1:14" s="77" customFormat="1">
+      <c r="A81" s="439">
+        <v>45696</v>
+      </c>
+      <c r="B81" s="77" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E81" s="77">
+        <v>-550</v>
+      </c>
+      <c r="K81" s="78"/>
+      <c r="L81" s="78"/>
+      <c r="M81" s="78"/>
+      <c r="N81" s="78"/>
+    </row>
+    <row r="82" spans="1:14" s="77" customFormat="1">
+      <c r="A82" s="439">
+        <v>45697</v>
+      </c>
+      <c r="B82" s="77" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E82" s="77">
+        <v>-329.97</v>
+      </c>
+      <c r="K82" s="78"/>
+      <c r="L82" s="78"/>
+      <c r="M82" s="78"/>
+      <c r="N82" s="78"/>
+    </row>
+    <row r="83" spans="1:14" s="77" customFormat="1">
+      <c r="A83" s="439"/>
+      <c r="K83" s="78"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="78"/>
+      <c r="N83" s="78"/>
+    </row>
+    <row r="84" spans="1:14" s="77" customFormat="1">
+      <c r="A84" s="439"/>
+      <c r="K84" s="78"/>
+      <c r="L84" s="78"/>
+      <c r="M84" s="78"/>
+      <c r="N84" s="78"/>
+    </row>
+    <row r="85" spans="1:14" s="77" customFormat="1">
+      <c r="A85" s="439"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="78"/>
+      <c r="N85" s="78"/>
+    </row>
+    <row r="86" spans="1:14" s="77" customFormat="1">
+      <c r="A86" s="439"/>
+      <c r="K86" s="78"/>
+      <c r="L86" s="78"/>
+      <c r="M86" s="78"/>
+      <c r="N86" s="78"/>
+    </row>
+    <row r="87" spans="1:14" s="77" customFormat="1">
+      <c r="A87" s="439"/>
+      <c r="K87" s="78"/>
+      <c r="L87" s="78"/>
+      <c r="M87" s="78"/>
+      <c r="N87" s="78"/>
+    </row>
+    <row r="88" spans="1:14" s="77" customFormat="1">
+      <c r="A88" s="98"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="106"/>
+      <c r="K88" s="78"/>
+      <c r="L88" s="78"/>
+      <c r="M88" s="78"/>
+      <c r="N88" s="78"/>
+    </row>
+    <row r="89" spans="1:14" s="90" customFormat="1">
+      <c r="A89" s="98"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="106"/>
+      <c r="K89" s="78"/>
+      <c r="L89" s="78"/>
+      <c r="M89" s="78"/>
+      <c r="N89" s="78"/>
+    </row>
+    <row r="90" spans="1:14" s="90" customFormat="1">
+      <c r="A90" s="98"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="106"/>
+      <c r="K90" s="78"/>
+      <c r="L90" s="78"/>
+      <c r="M90" s="78"/>
+      <c r="N90" s="78"/>
+    </row>
+    <row r="91" spans="1:14" s="90" customFormat="1">
+      <c r="A91" s="98"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="106"/>
+      <c r="K91" s="78"/>
+      <c r="L91" s="78"/>
+      <c r="M91" s="78"/>
+      <c r="N91" s="78"/>
+    </row>
+    <row r="92" spans="1:14" s="90" customFormat="1">
+      <c r="A92" s="98"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="106"/>
+      <c r="K92" s="78"/>
+      <c r="L92" s="78"/>
+      <c r="M92" s="78"/>
+      <c r="N92" s="78"/>
+    </row>
+    <row r="93" spans="1:14" s="90" customFormat="1">
+      <c r="A93" s="98"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="106"/>
+      <c r="K93" s="78"/>
+      <c r="L93" s="78"/>
+      <c r="M93" s="78"/>
+      <c r="N93" s="78"/>
+    </row>
+    <row r="94" spans="1:14" s="77" customFormat="1">
+      <c r="A94" s="98"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="106"/>
+      <c r="K94" s="78"/>
+      <c r="L94" s="78"/>
+      <c r="M94" s="78"/>
+      <c r="N94" s="78"/>
+    </row>
+    <row r="95" spans="1:14" s="77" customFormat="1">
+      <c r="A95" s="98"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="106"/>
+      <c r="K95" s="78"/>
+      <c r="L95" s="78"/>
+      <c r="M95" s="78"/>
+      <c r="N95" s="78"/>
+    </row>
+    <row r="96" spans="1:14" s="77" customFormat="1">
+      <c r="A96" s="98"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="106"/>
+      <c r="K96" s="78"/>
+      <c r="L96" s="78"/>
+      <c r="M96" s="78"/>
+      <c r="N96" s="78"/>
+    </row>
+    <row r="97" spans="1:14" s="77" customFormat="1">
+      <c r="A97" s="98"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="106"/>
+      <c r="K97" s="78"/>
+      <c r="L97" s="78"/>
+      <c r="M97" s="78"/>
+      <c r="N97" s="78"/>
+    </row>
+    <row r="98" spans="1:14" s="77" customFormat="1" ht="15">
+      <c r="A98" s="98"/>
+      <c r="B98" s="105" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" s="106"/>
+      <c r="K98" s="78"/>
+      <c r="L98" s="78"/>
+      <c r="M98" s="78"/>
+      <c r="N98" s="78"/>
+    </row>
+    <row r="99" spans="1:14" s="77" customFormat="1">
+      <c r="A99" s="98"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="106"/>
+      <c r="K99" s="78"/>
+      <c r="L99" s="78"/>
+      <c r="M99" s="78"/>
+      <c r="N99" s="78"/>
+    </row>
+    <row r="100" spans="1:14" s="77" customFormat="1">
+      <c r="A100" s="98"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="106"/>
+      <c r="K100" s="78"/>
+      <c r="L100" s="78"/>
+      <c r="M100" s="78"/>
+      <c r="N100" s="78"/>
+    </row>
+    <row r="101" spans="1:14" s="77" customFormat="1">
+      <c r="A101" s="98"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="106"/>
+      <c r="K101" s="78"/>
+      <c r="L101" s="78"/>
+      <c r="M101" s="78"/>
+      <c r="N101" s="78"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="B102" s="3"/>
+      <c r="C102" s="106"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
@@ -10755,10 +11095,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -10806,11 +11146,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G36)</f>
-        <v>-51565.32</v>
+        <v>-69456.33</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-51565.32</v>
+        <v>-69456.33</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -10891,7 +11231,7 @@
       <c r="A9" s="427">
         <v>45873</v>
       </c>
-      <c r="B9" s="439" t="s">
+      <c r="B9" s="435" t="s">
         <v>1657</v>
       </c>
       <c r="C9" s="424"/>
@@ -10928,16 +11268,24 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="11" customFormat="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90">
-        <f t="shared" si="0"/>
-        <v>-49220.32</v>
+      <c r="A11" s="392">
+        <v>45699</v>
+      </c>
+      <c r="B11" s="393" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C11" s="393"/>
+      <c r="D11" s="388"/>
+      <c r="E11" s="388">
+        <v>-17500</v>
+      </c>
+      <c r="F11" s="77"/>
+      <c r="G11" s="87">
+        <v>-17500</v>
+      </c>
+      <c r="H11" s="87">
+        <f t="shared" si="0"/>
+        <v>-66720.320000000007</v>
       </c>
       <c r="K11" s="78"/>
       <c r="L11" s="78"/>
@@ -10945,16 +11293,24 @@
       <c r="N11" s="78"/>
     </row>
     <row r="12" spans="1:14" s="11" customFormat="1">
-      <c r="A12" s="88"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90">
-        <f t="shared" si="0"/>
-        <v>-49220.32</v>
+      <c r="A12" s="392">
+        <v>45699</v>
+      </c>
+      <c r="B12" s="393" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="393"/>
+      <c r="D12" s="388"/>
+      <c r="E12" s="388">
+        <v>-200</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="87">
+        <v>-391.01</v>
+      </c>
+      <c r="H12" s="87">
+        <f t="shared" si="0"/>
+        <v>-67111.33</v>
       </c>
       <c r="K12" s="78"/>
       <c r="L12" s="78"/>
@@ -10969,9 +11325,9 @@
       <c r="E13" s="90"/>
       <c r="F13" s="90"/>
       <c r="G13" s="90"/>
-      <c r="H13" s="90">
-        <f t="shared" si="0"/>
-        <v>-49220.32</v>
+      <c r="H13" s="87">
+        <f t="shared" si="0"/>
+        <v>-67111.33</v>
       </c>
       <c r="K13" s="78"/>
       <c r="L13" s="78"/>
@@ -10980,15 +11336,19 @@
     </row>
     <row r="14" spans="1:14" s="11" customFormat="1">
       <c r="A14" s="88"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
+      <c r="B14" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="92"/>
       <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
+      <c r="E14" s="90">
+        <v>0</v>
+      </c>
       <c r="F14" s="90"/>
       <c r="G14" s="90"/>
-      <c r="H14" s="90">
-        <f t="shared" si="0"/>
-        <v>-49220.32</v>
+      <c r="H14" s="87">
+        <f t="shared" si="0"/>
+        <v>-67111.33</v>
       </c>
       <c r="K14" s="78"/>
       <c r="L14" s="78"/>
@@ -11003,9 +11363,9 @@
       <c r="E15" s="90"/>
       <c r="F15" s="90"/>
       <c r="G15" s="90"/>
-      <c r="H15" s="90">
-        <f t="shared" si="0"/>
-        <v>-49220.32</v>
+      <c r="H15" s="87">
+        <f t="shared" si="0"/>
+        <v>-67111.33</v>
       </c>
       <c r="K15" s="78"/>
       <c r="L15" s="78"/>
@@ -11013,31 +11373,15 @@
       <c r="N15" s="78"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="89" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90">
-        <v>-17500</v>
-      </c>
-      <c r="H16" s="90">
-        <f t="shared" si="0"/>
-        <v>-49220.32</v>
+      <c r="H16" s="87">
+        <f t="shared" si="0"/>
+        <v>-67111.33</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="B17" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90">
-        <v>0</v>
-      </c>
-      <c r="H17" s="90">
-        <f t="shared" si="0"/>
-        <v>-49220.32</v>
+      <c r="H17" s="87">
+        <f t="shared" si="0"/>
+        <v>-67111.33</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -11046,9 +11390,9 @@
       <c r="C18" s="92"/>
       <c r="D18" s="90"/>
       <c r="E18" s="90"/>
-      <c r="H18" s="90">
-        <f t="shared" si="0"/>
-        <v>-49220.32</v>
+      <c r="H18" s="87">
+        <f t="shared" si="0"/>
+        <v>-67111.33</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="78" customFormat="1">
@@ -11063,9 +11407,9 @@
       <c r="E19" s="77"/>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
-      <c r="H19" s="90">
-        <f t="shared" si="0"/>
-        <v>-49220.32</v>
+      <c r="H19" s="87">
+        <f t="shared" si="0"/>
+        <v>-67111.33</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -11086,9 +11430,9 @@
       <c r="G20" s="77">
         <v>-2305</v>
       </c>
-      <c r="H20" s="90">
-        <f t="shared" si="0"/>
-        <v>-51525.32</v>
+      <c r="H20" s="87">
+        <f t="shared" si="0"/>
+        <v>-69416.33</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="78" customFormat="1">
@@ -11107,26 +11451,16 @@
       <c r="G21" s="77">
         <v>-40</v>
       </c>
-      <c r="H21" s="90">
-        <f t="shared" si="0"/>
-        <v>-51565.32</v>
+      <c r="H21" s="87">
+        <f t="shared" si="0"/>
+        <v>-69456.33</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="78" customFormat="1">
       <c r="A22" s="88"/>
-      <c r="B22" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90">
-        <v>-200</v>
-      </c>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="90">
-        <f t="shared" si="0"/>
-        <v>-51565.32</v>
+      <c r="H22" s="87">
+        <f t="shared" si="0"/>
+        <v>-69456.33</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="78" customFormat="1">
@@ -11141,9 +11475,9 @@
       <c r="E23" s="90"/>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
-      <c r="H23" s="90">
-        <f t="shared" si="0"/>
-        <v>-51565.32</v>
+      <c r="H23" s="87">
+        <f t="shared" si="0"/>
+        <v>-69456.33</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -11161,9 +11495,9 @@
       </c>
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
-      <c r="H24" s="77">
-        <f t="shared" si="0"/>
-        <v>-51565.32</v>
+      <c r="H24" s="87">
+        <f t="shared" si="0"/>
+        <v>-69456.33</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -11181,9 +11515,9 @@
       </c>
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
-      <c r="H25" s="77">
-        <f t="shared" si="0"/>
-        <v>-51565.32</v>
+      <c r="H25" s="87">
+        <f t="shared" si="0"/>
+        <v>-69456.33</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -11201,9 +11535,9 @@
       </c>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
-      <c r="H26" s="77">
-        <f t="shared" si="0"/>
-        <v>-51565.32</v>
+      <c r="H26" s="87">
+        <f t="shared" si="0"/>
+        <v>-69456.33</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -11217,9 +11551,9 @@
       <c r="E27" s="77"/>
       <c r="F27" s="77"/>
       <c r="G27" s="77"/>
-      <c r="H27" s="77">
-        <f t="shared" si="0"/>
-        <v>-51565.32</v>
+      <c r="H27" s="87">
+        <f t="shared" si="0"/>
+        <v>-69456.33</v>
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="94"/>
@@ -11234,9 +11568,9 @@
       <c r="E28" s="90"/>
       <c r="F28" s="77"/>
       <c r="G28" s="77"/>
-      <c r="H28" s="77">
-        <f t="shared" si="0"/>
-        <v>-51565.32</v>
+      <c r="H28" s="87">
+        <f t="shared" si="0"/>
+        <v>-69456.33</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="94"/>
@@ -11259,9 +11593,9 @@
       </c>
       <c r="F29" s="77"/>
       <c r="G29" s="77"/>
-      <c r="H29" s="77">
-        <f t="shared" si="0"/>
-        <v>-51565.32</v>
+      <c r="H29" s="87">
+        <f t="shared" si="0"/>
+        <v>-69456.33</v>
       </c>
       <c r="J29" s="94"/>
       <c r="K29" s="94"/>
@@ -11281,7 +11615,7 @@
       <c r="G30" s="77"/>
       <c r="H30" s="77">
         <f t="shared" si="0"/>
-        <v>-51565.32</v>
+        <v>-69456.33</v>
       </c>
       <c r="J30" s="94"/>
       <c r="K30" s="94"/>
@@ -11301,7 +11635,7 @@
       <c r="G31" s="77"/>
       <c r="H31" s="77">
         <f t="shared" si="0"/>
-        <v>-51565.32</v>
+        <v>-69456.33</v>
       </c>
       <c r="J31" s="94"/>
       <c r="K31" s="94"/>
@@ -11321,7 +11655,7 @@
       <c r="G32" s="77"/>
       <c r="H32" s="77">
         <f t="shared" si="0"/>
-        <v>-51565.32</v>
+        <v>-69456.33</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="78" customFormat="1">
@@ -11331,7 +11665,7 @@
       <c r="G33" s="77"/>
       <c r="H33" s="77">
         <f t="shared" si="0"/>
-        <v>-51565.32</v>
+        <v>-69456.33</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -11342,7 +11676,7 @@
       <c r="C34" s="101"/>
       <c r="H34" s="77">
         <f t="shared" si="0"/>
-        <v>-51565.32</v>
+        <v>-69456.33</v>
       </c>
       <c r="I34" s="78"/>
       <c r="J34" s="78"/>
@@ -11351,7 +11685,7 @@
       <c r="A35" s="100"/>
       <c r="H35" s="77">
         <f t="shared" si="0"/>
-        <v>-51565.32</v>
+        <v>-69456.33</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="78" customFormat="1">
@@ -11361,7 +11695,7 @@
       <c r="G36" s="77"/>
       <c r="H36" s="77">
         <f t="shared" si="0"/>
-        <v>-51565.32</v>
+        <v>-69456.33</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -11406,7 +11740,7 @@
       <c r="G40" s="77" t="s">
         <v>1664</v>
       </c>
-      <c r="H40" s="433">
+      <c r="H40" s="431">
         <v>0.5635</v>
       </c>
       <c r="K40" s="78"/>
@@ -12113,7 +12447,10 @@
       <c r="M90" s="78"/>
       <c r="N90" s="78"/>
     </row>
-    <row r="91" spans="1:14" s="90" customFormat="1">
+    <row r="91" spans="1:14" s="90" customFormat="1" ht="15">
+      <c r="E91" s="105" t="s">
+        <v>84</v>
+      </c>
       <c r="K91" s="78"/>
       <c r="L91" s="78"/>
       <c r="M91" s="78"/>
@@ -12152,13 +12489,10 @@
       <c r="M96" s="78"/>
       <c r="N96" s="78"/>
     </row>
-    <row r="97" spans="1:14" s="77" customFormat="1" ht="15">
+    <row r="97" spans="1:14" s="77" customFormat="1">
       <c r="A97" s="100"/>
       <c r="B97" s="3"/>
       <c r="C97" s="106"/>
-      <c r="E97" s="105" t="s">
-        <v>84</v>
-      </c>
       <c r="K97" s="78"/>
       <c r="L97" s="78"/>
       <c r="M97" s="78"/>
@@ -12221,8 +12555,8 @@
       <c r="E116" s="90"/>
       <c r="F116" s="90"/>
       <c r="G116" s="90">
-        <f>SUM(G120:G150)</f>
-        <v>1069484.3572140001</v>
+        <f>SUM(G120:G151)</f>
+        <v>1072531.43731</v>
       </c>
       <c r="H116" s="90"/>
       <c r="I116" s="90"/>
@@ -12283,7 +12617,7 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="100">
-        <v>45691</v>
+        <v>45699</v>
       </c>
       <c r="B121" s="90" t="s">
         <v>139</v>
@@ -12300,7 +12634,7 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="100">
-        <v>45691</v>
+        <v>45699</v>
       </c>
       <c r="B122" s="90" t="s">
         <v>140</v>
@@ -12362,14 +12696,14 @@
         <v>752.55561799999998</v>
       </c>
       <c r="E126" s="116">
-        <f t="shared" ref="E126:E133" si="1">D126*C126</f>
+        <f t="shared" ref="E126:E134" si="1">D126*C126</f>
         <v>0</v>
       </c>
       <c r="F126" s="406">
         <v>899.26057400000002</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" ref="G126:G133" si="2">F126*C126</f>
+        <f t="shared" ref="G126:G134" si="2">F126*C126</f>
         <v>0</v>
       </c>
       <c r="H126" s="90"/>
@@ -12380,62 +12714,60 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="100">
-        <v>45667</v>
+        <v>45699</v>
       </c>
       <c r="B127" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C127" s="114">
-        <v>66</v>
-      </c>
+        <v>1668</v>
+      </c>
+      <c r="C127" s="114"/>
       <c r="D127" s="115">
         <v>872.26366499999995</v>
       </c>
       <c r="E127" s="116">
         <f t="shared" si="1"/>
-        <v>57569.401889999994</v>
+        <v>0</v>
       </c>
       <c r="F127" s="407">
-        <f>F126</f>
-        <v>899.26057400000002</v>
+        <v>907.06739800000003</v>
       </c>
       <c r="G127" s="17">
         <f t="shared" si="2"/>
-        <v>59351.197884000001</v>
+        <v>0</v>
       </c>
       <c r="H127" s="90"/>
       <c r="I127" s="90">
-        <f t="shared" ref="I127:I133" si="3">G127-E127</f>
-        <v>1781.7959940000073</v>
+        <f t="shared" ref="I127:I134" si="3">G127-E127</f>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:14" s="11" customFormat="1">
       <c r="A128" s="100">
-        <v>45691</v>
+        <v>45667</v>
       </c>
       <c r="B128" s="82" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C128" s="114"/>
+        <v>142</v>
+      </c>
+      <c r="C128" s="114">
+        <v>50</v>
+      </c>
       <c r="D128" s="115">
         <v>872.26366499999995</v>
       </c>
       <c r="E128" s="116">
         <f t="shared" ref="E128" si="4">D128*C128</f>
-        <v>0</v>
+        <v>43613.183249999995</v>
       </c>
       <c r="F128" s="407">
-        <f>F127</f>
-        <v>899.26057400000002</v>
+        <v>907.06739800000003</v>
       </c>
       <c r="G128" s="17">
         <f t="shared" ref="G128" si="5">F128*C128</f>
-        <v>0</v>
+        <v>45353.369899999998</v>
       </c>
       <c r="H128" s="90"/>
       <c r="I128" s="90">
         <f t="shared" ref="I128" si="6">G128-E128</f>
-        <v>0</v>
+        <v>1740.1866500000033</v>
       </c>
       <c r="K128" s="78"/>
       <c r="L128" s="78"/>
@@ -12444,7 +12776,7 @@
     </row>
     <row r="129" spans="1:14" s="11" customFormat="1">
       <c r="A129" s="100">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B129" s="82" t="s">
         <v>1654</v>
@@ -12458,7 +12790,8 @@
         <v>0</v>
       </c>
       <c r="F129" s="407">
-        <v>900.29758900000002</v>
+        <f>F127</f>
+        <v>907.06739800000003</v>
       </c>
       <c r="G129" s="17">
         <f t="shared" ref="G129" si="8">F129*C129</f>
@@ -12474,476 +12807,495 @@
       <c r="M129" s="78"/>
       <c r="N129" s="78"/>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" s="11" customFormat="1">
       <c r="A130" s="100">
+        <v>45692</v>
+      </c>
+      <c r="B130" s="82" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C130" s="114"/>
+      <c r="D130" s="115">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E130" s="116">
+        <f t="shared" ref="E130" si="10">D130*C130</f>
+        <v>0</v>
+      </c>
+      <c r="F130" s="407">
+        <v>900.29758900000002</v>
+      </c>
+      <c r="G130" s="17">
+        <f t="shared" ref="G130" si="11">F130*C130</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="90"/>
+      <c r="I130" s="90">
+        <f t="shared" ref="I130" si="12">G130-E130</f>
+        <v>0</v>
+      </c>
+      <c r="K130" s="78"/>
+      <c r="L130" s="78"/>
+      <c r="M130" s="78"/>
+      <c r="N130" s="78"/>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="100">
         <v>45672</v>
       </c>
-      <c r="B130" s="82" t="s">
+      <c r="B131" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="C130" s="114">
+      <c r="C131" s="114">
         <v>55</v>
       </c>
-      <c r="D130" s="115">
+      <c r="D131" s="115">
         <v>877.65409299999999</v>
       </c>
-      <c r="E130" s="116">
+      <c r="E131" s="116">
         <f t="shared" si="1"/>
         <v>48270.975115000001</v>
       </c>
-      <c r="F130" s="407">
+      <c r="F131" s="407">
         <f>F127</f>
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G130" s="17">
-        <f t="shared" si="2"/>
-        <v>49459.331570000002</v>
-      </c>
-      <c r="H130" s="90"/>
-      <c r="I130" s="90">
-        <f t="shared" si="3"/>
-        <v>1188.356455000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
-      <c r="A131" s="100">
-        <v>45680</v>
-      </c>
-      <c r="B131" s="82" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C131" s="114">
-        <v>120</v>
-      </c>
-      <c r="D131" s="115">
-        <v>305</v>
-      </c>
-      <c r="E131" s="116">
-        <f t="shared" si="1"/>
-        <v>36600</v>
-      </c>
-      <c r="F131" s="90">
-        <v>313.75</v>
+        <v>907.06739800000003</v>
       </c>
       <c r="G131" s="17">
         <f t="shared" si="2"/>
-        <v>37650</v>
+        <v>49888.706890000001</v>
       </c>
       <c r="H131" s="90"/>
       <c r="I131" s="90">
         <f t="shared" si="3"/>
-        <v>1050</v>
+        <v>1617.7317750000002</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="100">
-        <v>45620</v>
+        <v>45680</v>
       </c>
       <c r="B132" s="82" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C132" s="114">
-        <v>4000</v>
-      </c>
-      <c r="D132" s="114">
-        <v>32.549999999999997</v>
+        <v>120</v>
+      </c>
+      <c r="D132" s="115">
+        <v>305</v>
       </c>
       <c r="E132" s="116">
         <f t="shared" si="1"/>
-        <v>130199.99999999999</v>
+        <v>36600</v>
       </c>
       <c r="F132" s="90">
-        <v>33.549999999999997</v>
+        <v>320.25</v>
       </c>
       <c r="G132" s="17">
         <f t="shared" si="2"/>
-        <v>134200</v>
+        <v>38430</v>
       </c>
       <c r="H132" s="90"/>
       <c r="I132" s="90">
         <f t="shared" si="3"/>
-        <v>4000.0000000000146</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" ht="13.5" thickBot="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="100">
-        <v>45659</v>
+        <v>45620</v>
       </c>
       <c r="B133" s="82" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="C133" s="114">
         <v>4000</v>
       </c>
-      <c r="D133" s="115">
-        <v>30.86</v>
+      <c r="D133" s="114">
+        <v>32.549999999999997</v>
       </c>
       <c r="E133" s="116">
         <f t="shared" si="1"/>
-        <v>123440</v>
+        <v>130199.99999999999</v>
       </c>
       <c r="F133" s="90">
-        <f>F132</f>
-        <v>33.549999999999997</v>
+        <v>34.64</v>
       </c>
       <c r="G133" s="17">
         <f t="shared" si="2"/>
-        <v>134200</v>
-      </c>
-      <c r="H133" s="422">
-        <f>SUM(G126:G133)</f>
-        <v>414860.529454</v>
-      </c>
+        <v>138560</v>
+      </c>
+      <c r="H133" s="90"/>
       <c r="I133" s="90">
         <f t="shared" si="3"/>
-        <v>10760</v>
+        <v>8360.0000000000146</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A134" s="100"/>
-      <c r="B134" s="90"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="90">
-        <f>SUM(E126:E133)</f>
-        <v>396080.37700499996</v>
-      </c>
-      <c r="F134" s="90"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="117">
-        <f>(SUM(G126:G133))-(SUM(E126:E133))</f>
-        <v>18780.152449000045</v>
-      </c>
-      <c r="I134" s="117">
-        <f>SUM(I126:I133)</f>
-        <v>18780.152449000023</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="A134" s="100">
+        <v>45659</v>
+      </c>
+      <c r="B134" s="82" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C134" s="114">
+        <v>4000</v>
+      </c>
+      <c r="D134" s="115">
+        <v>30.86</v>
+      </c>
+      <c r="E134" s="116">
+        <f t="shared" si="1"/>
+        <v>123440</v>
+      </c>
+      <c r="F134" s="90">
+        <f>F133</f>
+        <v>34.64</v>
+      </c>
+      <c r="G134" s="17">
+        <f t="shared" si="2"/>
+        <v>138560</v>
+      </c>
+      <c r="H134" s="422">
+        <f>SUM(G126:G134)</f>
+        <v>410792.07678999996</v>
+      </c>
+      <c r="I134" s="90">
+        <f t="shared" si="3"/>
+        <v>15120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="13.5" thickBot="1">
       <c r="A135" s="100"/>
       <c r="B135" s="90"/>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
-      <c r="E135" s="90"/>
+      <c r="E135" s="90">
+        <f>SUM(E126:E134)</f>
+        <v>382124.15836499998</v>
+      </c>
       <c r="F135" s="90"/>
-      <c r="G135" s="90"/>
-      <c r="H135" s="90"/>
-      <c r="I135" s="90"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="117">
+        <f>(SUM(G126:G134))-(SUM(E126:E134))</f>
+        <v>28667.918424999982</v>
+      </c>
+      <c r="I135" s="117">
+        <f>SUM(I126:I134)</f>
+        <v>28667.918425000018</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
-      <c r="A136" s="100">
-        <v>45345</v>
-      </c>
-      <c r="B136" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="C136" s="118">
-        <v>125000</v>
-      </c>
-      <c r="D136" s="83">
-        <v>1.0399430000000001</v>
-      </c>
-      <c r="E136" s="116">
-        <f>D136*C136</f>
-        <v>129992.87500000001</v>
-      </c>
-      <c r="F136" s="119">
-        <v>0.79772600000000005</v>
-      </c>
-      <c r="G136" s="17">
-        <f>F136*C136</f>
-        <v>99715.75</v>
-      </c>
+      <c r="A136" s="100"/>
+      <c r="B136" s="90"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="90"/>
+      <c r="F136" s="90"/>
+      <c r="G136" s="90"/>
       <c r="H136" s="90"/>
-      <c r="I136" s="90">
-        <f t="shared" ref="I136:I140" si="10">G136-E136</f>
-        <v>-30277.125000000015</v>
-      </c>
+      <c r="I136" s="90"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="100">
-        <v>45667</v>
+        <v>45345</v>
       </c>
       <c r="B137" s="82" t="s">
-        <v>1615</v>
+        <v>144</v>
       </c>
       <c r="C137" s="118">
-        <v>240</v>
+        <v>125000</v>
       </c>
       <c r="D137" s="83">
-        <v>872.26366499999995</v>
+        <v>1.0399430000000001</v>
       </c>
       <c r="E137" s="116">
         <f>D137*C137</f>
-        <v>209343.27959999998</v>
-      </c>
-      <c r="F137" s="406">
-        <f>F130</f>
-        <v>899.26057400000002</v>
+        <v>129992.87500000001</v>
+      </c>
+      <c r="F137" s="119">
+        <v>0.77102499999999996</v>
       </c>
       <c r="G137" s="17">
         <f>F137*C137</f>
-        <v>215822.53776000001</v>
+        <v>96378.125</v>
       </c>
       <c r="H137" s="90"/>
       <c r="I137" s="90">
-        <f t="shared" si="10"/>
-        <v>6479.2581600000267</v>
+        <f t="shared" ref="I137:I141" si="13">G137-E137</f>
+        <v>-33614.750000000015</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="100">
-        <v>45400</v>
+        <v>45667</v>
       </c>
       <c r="B138" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="C138" s="114">
-        <v>10</v>
+        <v>1615</v>
+      </c>
+      <c r="C138" s="118">
+        <v>240</v>
       </c>
       <c r="D138" s="83">
-        <v>135</v>
+        <v>872.26366499999995</v>
       </c>
       <c r="E138" s="116">
         <f>D138*C138</f>
-        <v>1350</v>
-      </c>
-      <c r="F138" s="90">
-        <v>118.2</v>
+        <v>209343.27959999998</v>
+      </c>
+      <c r="F138" s="406">
+        <f>F131</f>
+        <v>907.06739800000003</v>
       </c>
       <c r="G138" s="17">
         <f>F138*C138</f>
-        <v>1182</v>
+        <v>217696.17552000002</v>
       </c>
       <c r="H138" s="90"/>
       <c r="I138" s="90">
-        <f t="shared" si="10"/>
-        <v>-168</v>
+        <f t="shared" si="13"/>
+        <v>8352.895920000039</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="100">
-        <v>45418</v>
+        <v>45400</v>
       </c>
       <c r="B139" s="82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C139" s="114">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D139" s="83">
-        <v>30.5</v>
+        <v>135</v>
       </c>
       <c r="E139" s="116">
         <f>D139*C139</f>
-        <v>1159</v>
+        <v>1350</v>
       </c>
       <c r="F139" s="90">
-        <v>17.670000000000002</v>
+        <v>116.1</v>
       </c>
       <c r="G139" s="17">
         <f>F139*C139</f>
-        <v>671.46</v>
+        <v>1161</v>
       </c>
       <c r="H139" s="90"/>
       <c r="I139" s="90">
-        <f t="shared" si="10"/>
-        <v>-487.53999999999996</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" ht="13.5" thickBot="1">
+        <f t="shared" si="13"/>
+        <v>-189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" s="100">
         <v>45418</v>
       </c>
       <c r="B140" s="82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C140" s="114">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D140" s="83">
-        <v>37.115000000000002</v>
+        <v>30.5</v>
       </c>
       <c r="E140" s="116">
         <f>D140*C140</f>
-        <v>964.99</v>
+        <v>1159</v>
       </c>
       <c r="F140" s="90">
-        <v>25.08</v>
+        <v>17.71</v>
       </c>
       <c r="G140" s="17">
         <f>F140*C140</f>
-        <v>652.07999999999993</v>
-      </c>
-      <c r="H140" s="422">
-        <f>SUM(G136:G140)</f>
-        <v>318043.82776000001</v>
-      </c>
+        <v>672.98</v>
+      </c>
+      <c r="H140" s="90"/>
       <c r="I140" s="90">
-        <f t="shared" si="10"/>
-        <v>-312.91000000000008</v>
+        <f t="shared" si="13"/>
+        <v>-486.02</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A141" s="100"/>
-      <c r="B141" s="90"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="90">
-        <f>SUM(E136:E140)</f>
-        <v>342810.1446</v>
-      </c>
-      <c r="F141" s="90"/>
-      <c r="G141" s="90"/>
-      <c r="H141" s="117">
-        <f>(SUM(G136:G140))-(SUM(E136:E140))</f>
-        <v>-24766.316839999985</v>
-      </c>
-      <c r="I141" s="90"/>
-    </row>
-    <row r="142" spans="1:14">
+      <c r="A141" s="100">
+        <v>45418</v>
+      </c>
+      <c r="B141" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="C141" s="114">
+        <v>26</v>
+      </c>
+      <c r="D141" s="83">
+        <v>37.115000000000002</v>
+      </c>
+      <c r="E141" s="116">
+        <f>D141*C141</f>
+        <v>964.99</v>
+      </c>
+      <c r="F141" s="90">
+        <v>25.58</v>
+      </c>
+      <c r="G141" s="17">
+        <f>F141*C141</f>
+        <v>665.07999999999993</v>
+      </c>
+      <c r="H141" s="422">
+        <f>SUM(G137:G141)</f>
+        <v>316573.36052000005</v>
+      </c>
+      <c r="I141" s="90">
+        <f t="shared" si="13"/>
+        <v>-299.91000000000008</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="13.5" thickBot="1">
       <c r="A142" s="100"/>
       <c r="B142" s="90"/>
-      <c r="C142" s="90"/>
-      <c r="D142" s="90"/>
-      <c r="E142" s="17"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="90">
+        <f>SUM(E137:E141)</f>
+        <v>342810.1446</v>
+      </c>
       <c r="F142" s="90"/>
       <c r="G142" s="90"/>
-      <c r="H142" s="90"/>
+      <c r="H142" s="117">
+        <f>(SUM(G137:G141))-(SUM(E137:E141))</f>
+        <v>-26236.784079999954</v>
+      </c>
       <c r="I142" s="90"/>
     </row>
     <row r="143" spans="1:14">
-      <c r="A143" s="100">
-        <v>45509</v>
-      </c>
-      <c r="B143" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C143" s="114">
-        <v>1</v>
-      </c>
-      <c r="D143" s="83">
-        <v>2500</v>
-      </c>
-      <c r="E143" s="116">
-        <f>D143*C143</f>
-        <v>2500</v>
-      </c>
-      <c r="F143" s="90">
-        <v>3250</v>
-      </c>
-      <c r="G143" s="17">
-        <f>C143*F143</f>
-        <v>3250</v>
-      </c>
+      <c r="A143" s="100"/>
+      <c r="B143" s="90"/>
+      <c r="C143" s="90"/>
+      <c r="D143" s="90"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="90"/>
+      <c r="G143" s="90"/>
       <c r="H143" s="90"/>
-      <c r="I143" s="90">
-        <f t="shared" ref="I143:I145" si="11">G143-E143</f>
-        <v>750</v>
-      </c>
+      <c r="I143" s="90"/>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="100">
         <v>45509</v>
       </c>
       <c r="B144" s="82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C144" s="114">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D144" s="83">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="E144" s="116">
         <f>D144*C144</f>
-        <v>65600</v>
+        <v>2500</v>
       </c>
       <c r="F144" s="90">
-        <v>5300</v>
+        <v>3310</v>
       </c>
       <c r="G144" s="17">
         <f>C144*F144</f>
-        <v>84800</v>
+        <v>3310</v>
       </c>
       <c r="H144" s="90"/>
       <c r="I144" s="90">
-        <f t="shared" si="11"/>
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="13.5" thickBot="1">
+        <f t="shared" ref="I144:I146" si="14">G144-E144</f>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="100">
         <v>45509</v>
       </c>
       <c r="B145" s="82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C145" s="114">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D145" s="83">
-        <v>16200</v>
+        <v>4100</v>
       </c>
       <c r="E145" s="116">
         <f>D145*C145</f>
-        <v>16200</v>
+        <v>65600</v>
       </c>
       <c r="F145" s="90">
-        <v>21200</v>
+        <f>F144*1.73</f>
+        <v>5726.3</v>
       </c>
       <c r="G145" s="17">
         <f>C145*F145</f>
-        <v>21200</v>
-      </c>
-      <c r="H145" s="422">
-        <f>SUM(G143:G145)</f>
-        <v>109250</v>
-      </c>
+        <v>91620.800000000003</v>
+      </c>
+      <c r="H145" s="90"/>
       <c r="I145" s="90">
-        <f t="shared" si="11"/>
-        <v>5000</v>
+        <f t="shared" si="14"/>
+        <v>26020.800000000003</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A146" s="100"/>
-      <c r="B146" s="90"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="90">
-        <f>SUM(E143:E145)</f>
+      <c r="A146" s="100">
+        <v>45509</v>
+      </c>
+      <c r="B146" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" s="114">
+        <v>1</v>
+      </c>
+      <c r="D146" s="83">
+        <v>16200</v>
+      </c>
+      <c r="E146" s="116">
+        <f>D146*C146</f>
+        <v>16200</v>
+      </c>
+      <c r="F146" s="90">
+        <f>F145*4</f>
+        <v>22905.200000000001</v>
+      </c>
+      <c r="G146" s="17">
+        <f>C146*F146</f>
+        <v>22905.200000000001</v>
+      </c>
+      <c r="H146" s="422">
+        <f>SUM(G144:G146)</f>
+        <v>117836</v>
+      </c>
+      <c r="I146" s="90">
+        <f t="shared" si="14"/>
+        <v>6705.2000000000007</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A147" s="100"/>
+      <c r="B147" s="90"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="90">
+        <f>SUM(E144:E146)</f>
         <v>84300</v>
       </c>
-      <c r="F146" s="90"/>
-      <c r="G146" s="90"/>
-      <c r="H146" s="117">
-        <f>(SUM(G143:G145))-(SUM(E143:E145))</f>
-        <v>24950</v>
-      </c>
-      <c r="I146" s="90"/>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="100"/>
-      <c r="B147" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="C147" s="120">
-        <v>33.250599999999999</v>
-      </c>
-      <c r="D147" s="12"/>
-      <c r="E147" s="90"/>
       <c r="F147" s="90"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="90"/>
+      <c r="G147" s="90"/>
+      <c r="H147" s="117">
+        <f>(SUM(G144:G146))-(SUM(E144:E146))</f>
+        <v>33536</v>
+      </c>
       <c r="I147" s="90"/>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="100"/>
       <c r="B148" s="90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C148" s="120">
-        <v>36.854999999999997</v>
+        <v>33.250599999999999</v>
       </c>
       <c r="D148" s="12"/>
       <c r="E148" s="90"/>
@@ -12955,100 +13307,104 @@
     <row r="149" spans="1:9">
       <c r="A149" s="100"/>
       <c r="B149" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="C149" s="12"/>
+        <v>152</v>
+      </c>
+      <c r="C149" s="120">
+        <v>36.854999999999997</v>
+      </c>
       <c r="D149" s="12"/>
       <c r="E149" s="90"/>
       <c r="F149" s="90"/>
-      <c r="G149" s="17">
-        <v>0</v>
-      </c>
+      <c r="G149" s="17"/>
       <c r="H149" s="90"/>
       <c r="I149" s="90"/>
     </row>
-    <row r="150" spans="1:9" ht="13.5" thickBot="1">
+    <row r="150" spans="1:9">
       <c r="A150" s="100"/>
       <c r="B150" s="90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
       <c r="E150" s="90"/>
       <c r="F150" s="90"/>
       <c r="G150" s="17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H150" s="90"/>
       <c r="I150" s="90"/>
     </row>
     <row r="151" spans="1:9" ht="13.5" thickBot="1">
       <c r="A151" s="100"/>
-      <c r="B151" s="90"/>
-      <c r="C151" s="90"/>
-      <c r="D151" s="90"/>
-      <c r="E151" s="121"/>
-      <c r="F151" s="122"/>
-      <c r="G151" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="H151" s="124">
-        <f>H146+H141+H134</f>
-        <v>18963.83560900006</v>
-      </c>
+      <c r="B151" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="90"/>
+      <c r="F151" s="90"/>
+      <c r="G151" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H151" s="90"/>
       <c r="I151" s="90"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" ht="13.5" thickBot="1">
       <c r="A152" s="100"/>
       <c r="B152" s="90"/>
-      <c r="C152" s="125"/>
-      <c r="D152" s="92"/>
-      <c r="E152" s="90"/>
-      <c r="F152" s="90"/>
-      <c r="G152" s="125"/>
-      <c r="H152" s="90"/>
+      <c r="C152" s="90"/>
+      <c r="D152" s="90"/>
+      <c r="E152" s="121"/>
+      <c r="F152" s="122"/>
+      <c r="G152" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="H152" s="438">
+        <f>H147+H142+H135</f>
+        <v>35967.134345000028</v>
+      </c>
       <c r="I152" s="90"/>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="100"/>
       <c r="B153" s="90"/>
       <c r="C153" s="125"/>
-      <c r="D153" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="D153" s="92"/>
       <c r="E153" s="90"/>
       <c r="F153" s="90"/>
-      <c r="G153" s="9">
-        <f>SUM(G120:G150)</f>
-        <v>1069484.3572140001</v>
-      </c>
+      <c r="G153" s="125"/>
       <c r="H153" s="90"/>
       <c r="I153" s="90"/>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="100"/>
       <c r="B154" s="90"/>
-      <c r="C154" s="126" t="str">
+      <c r="C154" s="125"/>
+      <c r="D154" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E154" s="90"/>
+      <c r="F154" s="90"/>
+      <c r="G154" s="9">
+        <f>SUM(G120:G151)</f>
+        <v>1072531.43731</v>
+      </c>
+      <c r="H154" s="90"/>
+      <c r="I154" s="90"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="100"/>
+      <c r="B155" s="90"/>
+      <c r="C155" s="126" t="str">
         <f>A116</f>
         <v>MART 2025 e</v>
       </c>
-      <c r="D154" s="127" t="s">
+      <c r="D155" s="127" t="s">
         <v>157</v>
       </c>
-      <c r="E154" s="90"/>
-      <c r="F154" s="90"/>
-      <c r="G154" s="128"/>
-      <c r="H154" s="90"/>
-      <c r="I154" s="90"/>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="90"/>
-      <c r="B155" s="90"/>
-      <c r="C155" s="90"/>
-      <c r="D155" s="90"/>
       <c r="E155" s="90"/>
       <c r="F155" s="90"/>
-      <c r="G155" s="90"/>
+      <c r="G155" s="128"/>
       <c r="H155" s="90"/>
       <c r="I155" s="90"/>
     </row>
@@ -13064,53 +13420,44 @@
       <c r="I156" s="90"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="398">
-        <v>45680</v>
-      </c>
-      <c r="B157" s="399" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C157" s="400">
-        <v>-25</v>
-      </c>
-      <c r="D157" s="401">
-        <v>752.55561799999998</v>
-      </c>
-      <c r="E157" s="402">
-        <f>D157*C157</f>
-        <v>-18813.890449999999</v>
-      </c>
-      <c r="F157" s="403">
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G157" s="404">
-        <f>F157*C157</f>
-        <v>-22481.514350000001</v>
-      </c>
-      <c r="H157" s="403"/>
-      <c r="I157" s="403">
-        <f>E157-G157</f>
-        <v>3667.6239000000023</v>
-      </c>
+      <c r="A157" s="90"/>
+      <c r="B157" s="90"/>
+      <c r="C157" s="90"/>
+      <c r="D157" s="90"/>
+      <c r="E157" s="90"/>
+      <c r="F157" s="90"/>
+      <c r="G157" s="90"/>
+      <c r="H157" s="90"/>
+      <c r="I157" s="90"/>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="398">
         <v>45680</v>
       </c>
       <c r="B158" s="399" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C158" s="400"/>
-      <c r="D158" s="401"/>
+        <v>1656</v>
+      </c>
+      <c r="C158" s="400">
+        <v>-25</v>
+      </c>
+      <c r="D158" s="401">
+        <v>752.55561799999998</v>
+      </c>
       <c r="E158" s="402">
-        <v>299.37</v>
-      </c>
-      <c r="F158" s="403"/>
-      <c r="G158" s="404"/>
+        <f>D158*C158</f>
+        <v>-18813.890449999999</v>
+      </c>
+      <c r="F158" s="403">
+        <v>899.26057400000002</v>
+      </c>
+      <c r="G158" s="404">
+        <f>F158*C158</f>
+        <v>-22481.514350000001</v>
+      </c>
       <c r="H158" s="403"/>
       <c r="I158" s="403">
-        <f>G158-E158</f>
-        <v>-299.37</v>
+        <f>E158-G158</f>
+        <v>3667.6239000000023</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -13118,29 +13465,19 @@
         <v>45680</v>
       </c>
       <c r="B159" s="399" t="s">
-        <v>142</v>
-      </c>
-      <c r="C159" s="400">
-        <v>-9</v>
-      </c>
-      <c r="D159" s="115">
-        <v>872.26366499999995</v>
-      </c>
+        <v>1614</v>
+      </c>
+      <c r="C159" s="400"/>
+      <c r="D159" s="401"/>
       <c r="E159" s="402">
-        <f>D159*C159</f>
-        <v>-7850.372985</v>
-      </c>
-      <c r="F159" s="403">
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G159" s="404">
-        <f>F159*C159</f>
-        <v>-8093.3451660000001</v>
-      </c>
+        <v>299.37</v>
+      </c>
+      <c r="F159" s="403"/>
+      <c r="G159" s="404"/>
       <c r="H159" s="403"/>
       <c r="I159" s="403">
-        <f>E159-G159</f>
-        <v>242.97218100000009</v>
+        <f>G159-E159</f>
+        <v>-299.37</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -13148,146 +13485,276 @@
         <v>45680</v>
       </c>
       <c r="B160" s="399" t="s">
+        <v>142</v>
+      </c>
+      <c r="C160" s="400">
+        <v>-9</v>
+      </c>
+      <c r="D160" s="115">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E160" s="402">
+        <f>D160*C160</f>
+        <v>-7850.372985</v>
+      </c>
+      <c r="F160" s="403">
+        <v>899.26057400000002</v>
+      </c>
+      <c r="G160" s="404">
+        <f>F160*C160</f>
+        <v>-8093.3451660000001</v>
+      </c>
+      <c r="H160" s="403"/>
+      <c r="I160" s="403">
+        <f>E160-G160</f>
+        <v>242.97218100000009</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" s="398">
+        <v>45680</v>
+      </c>
+      <c r="B161" s="399" t="s">
         <v>1614</v>
       </c>
-      <c r="C160" s="400"/>
-      <c r="D160" s="401"/>
-      <c r="E160" s="402"/>
-      <c r="F160" s="403"/>
-      <c r="G160" s="404"/>
-      <c r="H160" s="403"/>
-      <c r="I160" s="403"/>
-    </row>
-    <row r="161" spans="1:14" s="11" customFormat="1">
-      <c r="A161" s="398">
-        <v>45692</v>
-      </c>
-      <c r="B161" s="399" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C161" s="400">
-        <v>-25</v>
-      </c>
-      <c r="D161" s="401">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E161" s="402">
-        <f t="shared" ref="E161" si="12">D161*C161</f>
-        <v>-21806.591624999997</v>
-      </c>
-      <c r="F161" s="426">
-        <v>900.29758900000002</v>
-      </c>
-      <c r="G161" s="404">
-        <f t="shared" ref="G161" si="13">F161*C161</f>
-        <v>-22507.439725</v>
-      </c>
+      <c r="C161" s="400"/>
+      <c r="D161" s="401"/>
+      <c r="E161" s="402"/>
+      <c r="F161" s="403"/>
+      <c r="G161" s="404"/>
       <c r="H161" s="403"/>
-      <c r="I161" s="403">
-        <f>E161-G161</f>
-        <v>700.84810000000289</v>
-      </c>
-      <c r="K161" s="78"/>
-      <c r="L161" s="78"/>
-      <c r="M161" s="78"/>
-      <c r="N161" s="78"/>
+      <c r="I161" s="403"/>
     </row>
     <row r="162" spans="1:14" s="11" customFormat="1">
       <c r="A162" s="398">
-        <v>45680</v>
+        <v>45692</v>
       </c>
       <c r="B162" s="399" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C162" s="400"/>
-      <c r="D162" s="401"/>
-      <c r="E162" s="402"/>
-      <c r="F162" s="403"/>
-      <c r="G162" s="404"/>
+        <v>1655</v>
+      </c>
+      <c r="C162" s="400">
+        <v>-25</v>
+      </c>
+      <c r="D162" s="401">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E162" s="402">
+        <f t="shared" ref="E162" si="15">D162*C162</f>
+        <v>-21806.591624999997</v>
+      </c>
+      <c r="F162" s="426">
+        <v>900.29758900000002</v>
+      </c>
+      <c r="G162" s="404">
+        <f t="shared" ref="G162" si="16">F162*C162</f>
+        <v>-22507.439725</v>
+      </c>
       <c r="H162" s="403"/>
       <c r="I162" s="403">
-        <v>-70.09</v>
+        <f>E162-G162</f>
+        <v>700.84810000000289</v>
       </c>
       <c r="K162" s="78"/>
       <c r="L162" s="78"/>
       <c r="M162" s="78"/>
       <c r="N162" s="78"/>
     </row>
-    <row r="164" spans="1:14">
-      <c r="I164" s="78">
-        <f>SUM(I157:I163)</f>
-        <v>4241.9841810000053</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
-      <c r="F171" s="407">
+    <row r="163" spans="1:14" s="11" customFormat="1">
+      <c r="A163" s="398">
+        <v>45680</v>
+      </c>
+      <c r="B163" s="399" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C163" s="400"/>
+      <c r="D163" s="401"/>
+      <c r="E163" s="402"/>
+      <c r="F163" s="403"/>
+      <c r="G163" s="404"/>
+      <c r="H163" s="403"/>
+      <c r="I163" s="403">
+        <v>-70.09</v>
+      </c>
+      <c r="K163" s="78"/>
+      <c r="L163" s="78"/>
+      <c r="M163" s="78"/>
+      <c r="N163" s="78"/>
+    </row>
+    <row r="164" spans="1:14" s="11" customFormat="1">
+      <c r="A164" s="398">
+        <v>45692</v>
+      </c>
+      <c r="B164" s="399" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C164" s="400">
+        <v>-21</v>
+      </c>
+      <c r="D164" s="401">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E164" s="402">
+        <f t="shared" ref="E164" si="17">D164*C164</f>
+        <v>-18317.536964999999</v>
+      </c>
+      <c r="F164" s="426">
+        <v>907.06739800000003</v>
+      </c>
+      <c r="G164" s="404">
+        <f t="shared" ref="G164" si="18">F164*C164</f>
+        <v>-19048.415358000002</v>
+      </c>
+      <c r="H164" s="403"/>
+      <c r="I164" s="403">
+        <f>E164-G164</f>
+        <v>730.87839300000269</v>
+      </c>
+      <c r="K164" s="78"/>
+      <c r="L164" s="78"/>
+      <c r="M164" s="78"/>
+      <c r="N164" s="78"/>
+    </row>
+    <row r="165" spans="1:14" s="11" customFormat="1">
+      <c r="A165" s="398">
+        <v>45699</v>
+      </c>
+      <c r="B165" s="399" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C165" s="400"/>
+      <c r="D165" s="401"/>
+      <c r="E165" s="402"/>
+      <c r="F165" s="403"/>
+      <c r="G165" s="404"/>
+      <c r="H165" s="403"/>
+      <c r="I165" s="403">
+        <v>-73.09</v>
+      </c>
+      <c r="K165" s="78"/>
+      <c r="L165" s="78"/>
+      <c r="M165" s="78"/>
+      <c r="N165" s="78"/>
+    </row>
+    <row r="166" spans="1:14" s="11" customFormat="1">
+      <c r="A166" s="398"/>
+      <c r="B166" s="399"/>
+      <c r="C166" s="400"/>
+      <c r="D166" s="401"/>
+      <c r="E166" s="402"/>
+      <c r="F166" s="403"/>
+      <c r="G166" s="404"/>
+      <c r="H166" s="403"/>
+      <c r="I166" s="403"/>
+      <c r="K166" s="78"/>
+      <c r="L166" s="78"/>
+      <c r="M166" s="78"/>
+      <c r="N166" s="78"/>
+    </row>
+    <row r="167" spans="1:14" s="11" customFormat="1">
+      <c r="A167" s="398"/>
+      <c r="B167" s="399"/>
+      <c r="C167" s="400"/>
+      <c r="D167" s="401"/>
+      <c r="E167" s="402"/>
+      <c r="F167" s="403"/>
+      <c r="G167" s="404"/>
+      <c r="H167" s="403"/>
+      <c r="I167" s="403"/>
+      <c r="K167" s="78"/>
+      <c r="L167" s="78"/>
+      <c r="M167" s="78"/>
+      <c r="N167" s="78"/>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="I169" s="78">
+        <f>SUM(I158:I168)</f>
+        <v>4899.7725740000078</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="F176" s="407">
         <v>900.29758900000002</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F143:F145">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="lessThan">
-      <formula>D143</formula>
+  <conditionalFormatting sqref="F144:F146">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="lessThan">
+      <formula>D144</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F138:F140">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="lessThan">
-      <formula>D138</formula>
+  <conditionalFormatting sqref="F139:F141">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="lessThan">
+      <formula>D139</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F134">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
+      <formula>D134</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F133">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="lessThan">
       <formula>D133</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F127 F131">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="lessThan">
+      <formula>D127</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F132">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="lessThan">
       <formula>D132</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F127 F130">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="lessThan">
-      <formula>D127</formula>
+  <conditionalFormatting sqref="F158:F159">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="lessThan">
+      <formula>D158</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F131">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
-      <formula>D131</formula>
+  <conditionalFormatting sqref="F161 F163 F166:F167">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
+      <formula>D161</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F157:F158">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="lessThan">
-      <formula>D157</formula>
+  <conditionalFormatting sqref="F129">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
+      <formula>D129</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F160 F162">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="F160">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="lessThan">
       <formula>D160</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F130">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
+      <formula>D130</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F176">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
+      <formula>D176</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F162">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
+      <formula>D162</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F128">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>D128</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F159">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
-      <formula>D159</formula>
+  <conditionalFormatting sqref="F165">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+      <formula>D165</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F129">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
-      <formula>D129</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F171">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
-      <formula>D171</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F161">
+  <conditionalFormatting sqref="F164">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
-      <formula>D161</formula>
+      <formula>D164</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
@@ -13306,8 +13773,8 @@
   </sheetPr>
   <dimension ref="A1:N187"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -13879,7 +14346,7 @@
       <c r="M30" s="96"/>
     </row>
     <row r="31" spans="1:13" s="78" customFormat="1">
-      <c r="A31" s="436">
+      <c r="A31" s="432">
         <v>45688</v>
       </c>
       <c r="B31" s="393" t="s">
@@ -13890,8 +14357,8 @@
       <c r="E31" s="388">
         <v>-600</v>
       </c>
-      <c r="F31" s="432"/>
-      <c r="G31" s="432">
+      <c r="F31" s="430"/>
+      <c r="G31" s="430">
         <v>-425</v>
       </c>
       <c r="H31" s="87">
@@ -13904,7 +14371,7 @@
       <c r="M31" s="96"/>
     </row>
     <row r="32" spans="1:13" s="78" customFormat="1">
-      <c r="A32" s="436">
+      <c r="A32" s="432">
         <v>45688</v>
       </c>
       <c r="B32" s="393" t="s">
@@ -13915,8 +14382,8 @@
       <c r="E32" s="388">
         <v>-800</v>
       </c>
-      <c r="F32" s="432"/>
-      <c r="G32" s="432">
+      <c r="F32" s="430"/>
+      <c r="G32" s="430">
         <v>-680</v>
       </c>
       <c r="H32" s="87">
@@ -13929,7 +14396,7 @@
       <c r="M32" s="96"/>
     </row>
     <row r="33" spans="1:13" s="78" customFormat="1">
-      <c r="A33" s="436">
+      <c r="A33" s="432">
         <v>45688</v>
       </c>
       <c r="B33" s="388" t="s">
@@ -13938,8 +14405,8 @@
       <c r="C33" s="388"/>
       <c r="D33" s="388"/>
       <c r="E33" s="388"/>
-      <c r="F33" s="432"/>
-      <c r="G33" s="432">
+      <c r="F33" s="430"/>
+      <c r="G33" s="430">
         <v>-205.5</v>
       </c>
       <c r="H33" s="87">
@@ -13988,10 +14455,10 @@
     </row>
     <row r="36" spans="1:13" s="78" customFormat="1">
       <c r="A36" s="398"/>
-      <c r="B36" s="437" t="s">
+      <c r="B36" s="433" t="s">
         <v>1662</v>
       </c>
-      <c r="C36" s="438"/>
+      <c r="C36" s="434"/>
       <c r="D36" s="77"/>
       <c r="E36" s="77"/>
       <c r="F36" s="77"/>
@@ -14378,9 +14845,6 @@
     </row>
     <row r="69" spans="1:14" s="77" customFormat="1">
       <c r="A69" s="88"/>
-      <c r="F69" s="77" t="s">
-        <v>1649</v>
-      </c>
       <c r="K69" s="78"/>
       <c r="L69" s="78"/>
       <c r="M69" s="78"/>
@@ -14399,16 +14863,6 @@
       <c r="D70" s="77" t="s">
         <v>1647</v>
       </c>
-      <c r="F70" s="77">
-        <v>989.78</v>
-      </c>
-      <c r="G70" s="77">
-        <v>6</v>
-      </c>
-      <c r="H70" s="77">
-        <f>G70*F70</f>
-        <v>5938.68</v>
-      </c>
       <c r="K70" s="78"/>
       <c r="L70" s="78"/>
       <c r="M70" s="78"/>
@@ -14416,14 +14870,6 @@
     </row>
     <row r="71" spans="1:14" s="77" customFormat="1">
       <c r="A71" s="88"/>
-      <c r="F71" s="77">
-        <f>H71/G70/2</f>
-        <v>469.89833333333337</v>
-      </c>
-      <c r="H71" s="77">
-        <f>H70-299.9</f>
-        <v>5638.7800000000007</v>
-      </c>
       <c r="K71" s="78"/>
       <c r="L71" s="78"/>
       <c r="M71" s="78"/>
@@ -14431,8 +14877,8 @@
     </row>
     <row r="72" spans="1:14" s="77" customFormat="1">
       <c r="A72" s="88"/>
-      <c r="F72" s="77" t="s">
-        <v>1648</v>
+      <c r="B72" s="77" t="s">
+        <v>1649</v>
       </c>
       <c r="K72" s="78"/>
       <c r="L72" s="78"/>
@@ -14440,18 +14886,27 @@
       <c r="N72" s="78"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="F73" s="77" t="s">
-        <v>1650</v>
-      </c>
-      <c r="H73" s="421">
-        <f>H70-H71</f>
-        <v>299.89999999999964</v>
+      <c r="B73" s="77">
+        <v>989.78</v>
+      </c>
+      <c r="C73" s="77">
+        <v>6</v>
+      </c>
+      <c r="D73" s="77">
+        <f>C73*B73</f>
+        <v>5938.68</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="77" customFormat="1">
       <c r="A74" s="100"/>
-      <c r="B74" s="106"/>
-      <c r="C74" s="106"/>
+      <c r="B74" s="77">
+        <f>D74/C73/2</f>
+        <v>469.89833333333337</v>
+      </c>
+      <c r="D74" s="77">
+        <f>D73-299.9</f>
+        <v>5638.7800000000007</v>
+      </c>
       <c r="K74" s="78"/>
       <c r="L74" s="78"/>
       <c r="M74" s="78"/>
@@ -14459,8 +14914,9 @@
     </row>
     <row r="75" spans="1:14" s="77" customFormat="1">
       <c r="A75" s="100"/>
-      <c r="B75" s="106"/>
-      <c r="C75" s="106"/>
+      <c r="B75" s="77" t="s">
+        <v>1648</v>
+      </c>
       <c r="K75" s="78"/>
       <c r="L75" s="78"/>
       <c r="M75" s="78"/>
@@ -14468,8 +14924,13 @@
     </row>
     <row r="76" spans="1:14" s="77" customFormat="1">
       <c r="A76" s="100"/>
-      <c r="B76" s="107"/>
-      <c r="C76" s="106"/>
+      <c r="B76" s="77" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D76" s="421">
+        <f>D73-D74</f>
+        <v>299.89999999999964</v>
+      </c>
       <c r="K76" s="78"/>
       <c r="L76" s="78"/>
       <c r="M76" s="78"/>
@@ -14477,8 +14938,6 @@
     </row>
     <row r="77" spans="1:14" s="77" customFormat="1">
       <c r="A77" s="100"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="106"/>
       <c r="K77" s="78"/>
       <c r="L77" s="78"/>
       <c r="M77" s="78"/>
@@ -14486,7 +14945,6 @@
     </row>
     <row r="78" spans="1:14" s="77" customFormat="1">
       <c r="A78" s="100"/>
-      <c r="B78" s="107"/>
       <c r="K78" s="78"/>
       <c r="L78" s="78"/>
       <c r="M78" s="78"/>
@@ -18552,10 +19010,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="434" t="s">
+      <c r="L1" s="436" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="434"/>
+      <c r="M1" s="436"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -19267,11 +19725,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="435">
+      <c r="L17" s="437">
         <f>L15+M15</f>
         <v>1080.7929879999999</v>
       </c>
-      <c r="M17" s="435"/>
+      <c r="M17" s="437"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
@@ -23388,10 +23846,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="434" t="s">
+      <c r="L1" s="436" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="434"/>
+      <c r="M1" s="436"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -23506,11 +23964,11 @@
       </c>
       <c r="F4" s="32">
         <f>'02_25'!G2</f>
-        <v>-51565.32</v>
+        <v>-69456.33</v>
       </c>
       <c r="G4" s="33">
         <f t="shared" ref="G4:G14" si="1">E4+F4+G3</f>
-        <v>209470.69</v>
+        <v>191579.68</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="35" t="s">
@@ -23529,7 +23987,7 @@
       </c>
       <c r="M4" s="38"/>
       <c r="N4" s="8">
-        <f>'02_25'!E145/1000</f>
+        <f>'02_25'!E146/1000</f>
         <v>16.2</v>
       </c>
     </row>
@@ -23543,11 +24001,11 @@
       </c>
       <c r="C5" s="32">
         <f>'03_25'!E2</f>
-        <v>-66357.66</v>
+        <v>-76451.259999999995</v>
       </c>
       <c r="D5" s="33">
         <f t="shared" si="0"/>
-        <v>261343.53999999995</v>
+        <v>251249.93999999994</v>
       </c>
       <c r="E5" s="32">
         <f>'03_25'!F2</f>
@@ -23555,11 +24013,11 @@
       </c>
       <c r="F5" s="32">
         <f>'03_25'!G2</f>
-        <v>-20060.599999999999</v>
+        <v>-30154.199999999997</v>
       </c>
       <c r="G5" s="33">
         <f t="shared" si="1"/>
-        <v>189410.09</v>
+        <v>161425.47999999998</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="35" t="s">
@@ -23572,7 +24030,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="8">
-        <f>'03_25'!E114/1000</f>
+        <f>'03_25'!E139/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -23590,7 +24048,7 @@
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
-        <v>229056.69999999995</v>
+        <v>218963.09999999995</v>
       </c>
       <c r="E6" s="32">
         <f>'04_25'!F2</f>
@@ -23602,7 +24060,7 @@
       </c>
       <c r="G6" s="33">
         <f t="shared" si="1"/>
-        <v>188420.31</v>
+        <v>160435.69999999998</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="41" t="s">
@@ -23633,7 +24091,7 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>198149.85999999996</v>
+        <v>188056.25999999995</v>
       </c>
       <c r="E7" s="32">
         <f>'05_25'!F2</f>
@@ -23645,7 +24103,7 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>187430.53</v>
+        <v>159445.91999999998</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="41" t="s">
@@ -23676,7 +24134,7 @@
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
-        <v>159743.01999999996</v>
+        <v>149649.41999999995</v>
       </c>
       <c r="E8" s="32">
         <f>'06_25'!F2</f>
@@ -23688,7 +24146,7 @@
       </c>
       <c r="G8" s="33">
         <f t="shared" si="1"/>
-        <v>186440.75</v>
+        <v>158456.13999999998</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="35" t="s">
@@ -23722,7 +24180,7 @@
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
-        <v>121336.17999999996</v>
+        <v>111242.57999999996</v>
       </c>
       <c r="E9" s="32">
         <f>'07_25'!F2</f>
@@ -23734,7 +24192,7 @@
       </c>
       <c r="G9" s="33">
         <f t="shared" si="1"/>
-        <v>185450.97</v>
+        <v>157466.35999999999</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="35" t="s">
@@ -23771,7 +24229,7 @@
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
-        <v>82929.339999999967</v>
+        <v>72835.739999999962</v>
       </c>
       <c r="E10" s="32">
         <f>'08_25'!F2</f>
@@ -23783,7 +24241,7 @@
       </c>
       <c r="G10" s="33">
         <f t="shared" si="1"/>
-        <v>184461.19</v>
+        <v>156476.57999999999</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="35" t="s">
@@ -23817,7 +24275,7 @@
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
-        <v>45512.27999999997</v>
+        <v>35418.679999999964</v>
       </c>
       <c r="E11" s="32">
         <f>'09_25'!F2</f>
@@ -23829,7 +24287,7 @@
       </c>
       <c r="G11" s="33">
         <f t="shared" si="1"/>
-        <v>184461.19</v>
+        <v>156476.57999999999</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="35" t="s">
@@ -23866,7 +24324,7 @@
       </c>
       <c r="D12" s="33">
         <f t="shared" si="0"/>
-        <v>8095.2199999999721</v>
+        <v>-1998.3800000000338</v>
       </c>
       <c r="E12" s="32">
         <f>'10_25'!F2</f>
@@ -23878,7 +24336,7 @@
       </c>
       <c r="G12" s="33">
         <f t="shared" si="1"/>
-        <v>184461.19</v>
+        <v>156476.57999999999</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="35" t="s">
@@ -23915,7 +24373,7 @@
       </c>
       <c r="D13" s="33">
         <f t="shared" si="0"/>
-        <v>-29321.840000000026</v>
+        <v>-39415.440000000031</v>
       </c>
       <c r="E13" s="32">
         <f>'11_25'!F2</f>
@@ -23927,7 +24385,7 @@
       </c>
       <c r="G13" s="33">
         <f t="shared" si="1"/>
-        <v>184461.19</v>
+        <v>156476.57999999999</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="35" t="s">
@@ -23964,7 +24422,7 @@
       </c>
       <c r="D14" s="33">
         <f t="shared" si="0"/>
-        <v>-66738.900000000023</v>
+        <v>-76832.500000000029</v>
       </c>
       <c r="E14" s="32">
         <f>'12_25'!F2</f>
@@ -23976,7 +24434,7 @@
       </c>
       <c r="G14" s="33">
         <f t="shared" si="1"/>
-        <v>184461.19</v>
+        <v>156476.57999999999</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="44" t="s">
@@ -24009,11 +24467,11 @@
       </c>
       <c r="C15" s="33">
         <f>SUM(C3:C14)</f>
-        <v>-660402.89999999991</v>
+        <v>-670496.5</v>
       </c>
       <c r="D15" s="33">
         <f>B15+C15</f>
-        <v>-66738.899999999907</v>
+        <v>-76832.5</v>
       </c>
       <c r="E15" s="33">
         <f>SUM(E3:E14)</f>
@@ -24021,11 +24479,11 @@
       </c>
       <c r="F15" s="33">
         <f>SUM(F3:F14)</f>
-        <v>-135593.69</v>
+        <v>-163578.30000000002</v>
       </c>
       <c r="G15" s="33">
         <f>E15+F15</f>
-        <v>184461.19</v>
+        <v>156476.57999999999</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="48"/>
@@ -24056,7 +24514,7 @@
       </c>
       <c r="C16" s="55">
         <f>C15/A16</f>
-        <v>-55033.57499999999</v>
+        <v>-55874.708333333336</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55">
@@ -24065,11 +24523,11 @@
       </c>
       <c r="F16" s="55">
         <f>F15/A16</f>
-        <v>-11299.474166666667</v>
+        <v>-13631.525000000001</v>
       </c>
       <c r="G16" s="55">
         <f>G15/A16</f>
-        <v>15371.765833333333</v>
+        <v>13039.714999999998</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="57"/>
@@ -24103,11 +24561,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="435">
+      <c r="L17" s="437">
         <f>L15+M15</f>
         <v>961.10596800000008</v>
       </c>
-      <c r="M17" s="435"/>
+      <c r="M17" s="437"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">

--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBADF3CA-41B7-4C88-A027-8AA9E4F5509D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB1CE20-5348-46A0-99FA-E1BBF850AEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_25" sheetId="1" r:id="rId1"/>
@@ -6482,7 +6482,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="442">
+  <cellXfs count="443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7063,14 +7063,15 @@
     <xf numFmtId="175" fontId="25" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="172" fontId="3" fillId="43" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="43" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7098,7 +7099,7 @@
     <cellStyle name="Warning 21" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Yüzde" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
     <dxf>
       <font>
         <b/>
@@ -7132,19 +7133,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79989013336588644"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7701,8 +7689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -9822,7 +9810,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="437" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="79" t="s">
@@ -9867,7 +9855,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="440"/>
+      <c r="A6" s="438"/>
       <c r="B6" s="428"/>
       <c r="C6" s="410"/>
       <c r="D6" s="408"/>
@@ -9878,7 +9866,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="440"/>
+      <c r="A7" s="438"/>
       <c r="B7" s="428" t="s">
         <v>68</v>
       </c>
@@ -9899,7 +9887,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="440"/>
+      <c r="A8" s="438"/>
       <c r="B8" s="428" t="s">
         <v>69</v>
       </c>
@@ -10309,7 +10297,7 @@
       <c r="N35" s="78"/>
     </row>
     <row r="36" spans="1:14" s="77" customFormat="1">
-      <c r="A36" s="439"/>
+      <c r="A36" s="437"/>
       <c r="B36" s="102"/>
       <c r="K36" s="78"/>
       <c r="L36" s="78"/>
@@ -10317,7 +10305,7 @@
       <c r="N36" s="78"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="441"/>
+      <c r="A37" s="439"/>
       <c r="B37" s="104" t="s">
         <v>83</v>
       </c>
@@ -10607,7 +10595,7 @@
       <c r="N60" s="78"/>
     </row>
     <row r="61" spans="1:14" s="77" customFormat="1">
-      <c r="A61" s="441"/>
+      <c r="A61" s="439"/>
       <c r="B61" s="104" t="s">
         <v>85</v>
       </c>
@@ -10631,7 +10619,7 @@
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="1:14" s="77" customFormat="1">
-      <c r="A63" s="439"/>
+      <c r="A63" s="437"/>
       <c r="F63" s="90"/>
       <c r="K63" s="78"/>
       <c r="L63" s="78"/>
@@ -10639,7 +10627,7 @@
       <c r="N63" s="78"/>
     </row>
     <row r="64" spans="1:14" s="90" customFormat="1">
-      <c r="A64" s="439">
+      <c r="A64" s="437">
         <v>45692</v>
       </c>
       <c r="B64" s="90" t="s">
@@ -10657,7 +10645,7 @@
       <c r="N64" s="78"/>
     </row>
     <row r="65" spans="1:14" s="90" customFormat="1">
-      <c r="A65" s="439">
+      <c r="A65" s="437">
         <v>45692</v>
       </c>
       <c r="B65" s="90" t="s">
@@ -10675,21 +10663,21 @@
       <c r="N65" s="78"/>
     </row>
     <row r="66" spans="1:14" s="90" customFormat="1">
-      <c r="A66" s="439"/>
+      <c r="A66" s="437"/>
       <c r="K66" s="78"/>
       <c r="L66" s="78"/>
       <c r="M66" s="78"/>
       <c r="N66" s="78"/>
     </row>
     <row r="67" spans="1:14" s="90" customFormat="1">
-      <c r="A67" s="439"/>
+      <c r="A67" s="437"/>
       <c r="K67" s="78"/>
       <c r="L67" s="78"/>
       <c r="M67" s="78"/>
       <c r="N67" s="78"/>
     </row>
     <row r="68" spans="1:14" s="90" customFormat="1">
-      <c r="A68" s="439"/>
+      <c r="A68" s="437"/>
       <c r="K68" s="78"/>
       <c r="L68" s="78"/>
       <c r="M68" s="78"/>
@@ -10852,7 +10840,7 @@
       <c r="N78" s="78"/>
     </row>
     <row r="79" spans="1:14" s="90" customFormat="1">
-      <c r="A79" s="439">
+      <c r="A79" s="437">
         <v>45694</v>
       </c>
       <c r="B79" s="90" t="s">
@@ -10867,7 +10855,7 @@
       <c r="N79" s="78"/>
     </row>
     <row r="80" spans="1:14" s="90" customFormat="1">
-      <c r="A80" s="439">
+      <c r="A80" s="437">
         <v>45695</v>
       </c>
       <c r="B80" s="90" t="s">
@@ -10882,7 +10870,7 @@
       <c r="N80" s="78"/>
     </row>
     <row r="81" spans="1:14" s="77" customFormat="1">
-      <c r="A81" s="439">
+      <c r="A81" s="437">
         <v>45696</v>
       </c>
       <c r="B81" s="77" t="s">
@@ -10897,7 +10885,7 @@
       <c r="N81" s="78"/>
     </row>
     <row r="82" spans="1:14" s="77" customFormat="1">
-      <c r="A82" s="439">
+      <c r="A82" s="437">
         <v>45697</v>
       </c>
       <c r="B82" s="77" t="s">
@@ -10912,35 +10900,35 @@
       <c r="N82" s="78"/>
     </row>
     <row r="83" spans="1:14" s="77" customFormat="1">
-      <c r="A83" s="439"/>
+      <c r="A83" s="437"/>
       <c r="K83" s="78"/>
       <c r="L83" s="78"/>
       <c r="M83" s="78"/>
       <c r="N83" s="78"/>
     </row>
     <row r="84" spans="1:14" s="77" customFormat="1">
-      <c r="A84" s="439"/>
+      <c r="A84" s="437"/>
       <c r="K84" s="78"/>
       <c r="L84" s="78"/>
       <c r="M84" s="78"/>
       <c r="N84" s="78"/>
     </row>
     <row r="85" spans="1:14" s="77" customFormat="1">
-      <c r="A85" s="439"/>
+      <c r="A85" s="437"/>
       <c r="K85" s="78"/>
       <c r="L85" s="78"/>
       <c r="M85" s="78"/>
       <c r="N85" s="78"/>
     </row>
     <row r="86" spans="1:14" s="77" customFormat="1">
-      <c r="A86" s="439"/>
+      <c r="A86" s="437"/>
       <c r="K86" s="78"/>
       <c r="L86" s="78"/>
       <c r="M86" s="78"/>
       <c r="N86" s="78"/>
     </row>
     <row r="87" spans="1:14" s="77" customFormat="1">
-      <c r="A87" s="439"/>
+      <c r="A87" s="437"/>
       <c r="K87" s="78"/>
       <c r="L87" s="78"/>
       <c r="M87" s="78"/>
@@ -11095,10 +11083,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView topLeftCell="A123" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -11106,7 +11094,9 @@
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="77" customWidth="1"/>
-    <col min="5" max="8" width="12.28515625" style="77"/>
+    <col min="5" max="5" width="12.28515625" style="77"/>
+    <col min="6" max="6" width="15" style="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.28515625" style="77"/>
     <col min="10" max="10" width="27.42578125" customWidth="1"/>
     <col min="11" max="11" width="6.140625" style="78" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="78" customWidth="1"/>
@@ -11142,7 +11132,7 @@
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F36)</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G36)</f>
@@ -11150,7 +11140,7 @@
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -11396,71 +11386,75 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="78" customFormat="1">
-      <c r="A19" s="88"/>
-      <c r="B19" s="419" t="s">
+      <c r="A19" s="442">
+        <v>45705</v>
+      </c>
+      <c r="B19" s="394" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="419"/>
-      <c r="D19" s="420">
+      <c r="C19" s="394"/>
+      <c r="D19" s="388">
         <v>15000</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
+      <c r="E19" s="388"/>
+      <c r="F19" s="388">
+        <v>15000</v>
+      </c>
+      <c r="G19" s="87"/>
       <c r="H19" s="87">
         <f t="shared" si="0"/>
-        <v>-67111.33</v>
+        <v>-52111.33</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:13" s="78" customFormat="1">
-      <c r="A20" s="88">
+      <c r="A20" s="442">
         <v>45705</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90">
+      <c r="C20" s="106"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87">
         <v>-1000</v>
       </c>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77">
+      <c r="F20" s="87"/>
+      <c r="G20" s="87">
         <v>-2305</v>
       </c>
       <c r="H20" s="87">
         <f t="shared" si="0"/>
-        <v>-69416.33</v>
+        <v>-54416.33</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="78" customFormat="1">
-      <c r="A21" s="88">
+      <c r="A21" s="442">
         <v>45705</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90">
+      <c r="C21" s="106"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87">
         <v>-200</v>
       </c>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77">
+      <c r="F21" s="87"/>
+      <c r="G21" s="87">
         <v>-40</v>
       </c>
       <c r="H21" s="87">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="78" customFormat="1">
       <c r="A22" s="88"/>
       <c r="H22" s="87">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="78" customFormat="1">
@@ -11477,7 +11471,7 @@
       <c r="G23" s="77"/>
       <c r="H23" s="87">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -11497,7 +11491,7 @@
       <c r="G24" s="77"/>
       <c r="H24" s="87">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -11517,7 +11511,7 @@
       <c r="G25" s="77"/>
       <c r="H25" s="87">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -11537,7 +11531,7 @@
       <c r="G26" s="77"/>
       <c r="H26" s="87">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -11553,7 +11547,7 @@
       <c r="G27" s="77"/>
       <c r="H27" s="87">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="94"/>
@@ -11570,7 +11564,7 @@
       <c r="G28" s="77"/>
       <c r="H28" s="87">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="94"/>
@@ -11595,7 +11589,7 @@
       <c r="G29" s="77"/>
       <c r="H29" s="87">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
       <c r="J29" s="94"/>
       <c r="K29" s="94"/>
@@ -11615,7 +11609,7 @@
       <c r="G30" s="77"/>
       <c r="H30" s="77">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
       <c r="J30" s="94"/>
       <c r="K30" s="94"/>
@@ -11635,7 +11629,7 @@
       <c r="G31" s="77"/>
       <c r="H31" s="77">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
       <c r="J31" s="94"/>
       <c r="K31" s="94"/>
@@ -11655,7 +11649,7 @@
       <c r="G32" s="77"/>
       <c r="H32" s="77">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="78" customFormat="1">
@@ -11665,7 +11659,7 @@
       <c r="G33" s="77"/>
       <c r="H33" s="77">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -11676,7 +11670,7 @@
       <c r="C34" s="101"/>
       <c r="H34" s="77">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
       <c r="I34" s="78"/>
       <c r="J34" s="78"/>
@@ -11685,7 +11679,7 @@
       <c r="A35" s="100"/>
       <c r="H35" s="77">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="78" customFormat="1">
@@ -11695,7 +11689,7 @@
       <c r="G36" s="77"/>
       <c r="H36" s="77">
         <f t="shared" si="0"/>
-        <v>-69456.33</v>
+        <v>-54456.33</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -12555,8 +12549,8 @@
       <c r="E116" s="90"/>
       <c r="F116" s="90"/>
       <c r="G116" s="90">
-        <f>SUM(G120:G151)</f>
-        <v>1072531.43731</v>
+        <f>SUM(G120:G146)</f>
+        <v>1085203.191145</v>
       </c>
       <c r="H116" s="90"/>
       <c r="I116" s="90"/>
@@ -12673,857 +12667,852 @@
       <c r="H124" s="90"/>
       <c r="I124" s="90"/>
     </row>
-    <row r="125" spans="1:14">
-      <c r="A125" s="100"/>
-      <c r="B125" s="90"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="90"/>
-      <c r="F125" s="90"/>
-      <c r="G125" s="17"/>
+    <row r="125" spans="1:14" s="11" customFormat="1">
+      <c r="A125" s="100">
+        <v>45667</v>
+      </c>
+      <c r="B125" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C125" s="114">
+        <v>50</v>
+      </c>
+      <c r="D125" s="115">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E125" s="116">
+        <f t="shared" ref="E125" si="1">D125*C125</f>
+        <v>43613.183249999995</v>
+      </c>
+      <c r="F125" s="407">
+        <v>914.14564099999996</v>
+      </c>
+      <c r="G125" s="17">
+        <f t="shared" ref="G125" si="2">F125*C125</f>
+        <v>45707.282049999994</v>
+      </c>
       <c r="H125" s="90"/>
-      <c r="I125" s="90"/>
+      <c r="I125" s="90">
+        <f t="shared" ref="I125" si="3">G125-E125</f>
+        <v>2094.0987999999998</v>
+      </c>
+      <c r="K125" s="78"/>
+      <c r="L125" s="78"/>
+      <c r="M125" s="78"/>
+      <c r="N125" s="78"/>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="100">
-        <v>45691</v>
+        <v>45672</v>
       </c>
       <c r="B126" s="82" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C126" s="114"/>
+        <v>142</v>
+      </c>
+      <c r="C126" s="114">
+        <v>55</v>
+      </c>
       <c r="D126" s="115">
-        <v>752.55561799999998</v>
+        <v>877.65409299999999</v>
       </c>
       <c r="E126" s="116">
-        <f t="shared" ref="E126:E134" si="1">D126*C126</f>
-        <v>0</v>
-      </c>
-      <c r="F126" s="406">
-        <v>899.26057400000002</v>
+        <f t="shared" ref="E126:E129" si="4">D126*C126</f>
+        <v>48270.975115000001</v>
+      </c>
+      <c r="F126" s="407">
+        <f>F125</f>
+        <v>914.14564099999996</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" ref="G126:G134" si="2">F126*C126</f>
-        <v>0</v>
+        <f t="shared" ref="G126:G129" si="5">F126*C126</f>
+        <v>50278.010255000001</v>
       </c>
       <c r="H126" s="90"/>
       <c r="I126" s="90">
-        <f>G126-E126</f>
-        <v>0</v>
+        <f t="shared" ref="I126:I129" si="6">G126-E126</f>
+        <v>2007.03514</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="100">
-        <v>45699</v>
+        <v>45680</v>
       </c>
       <c r="B127" s="82" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C127" s="114"/>
+        <v>1611</v>
+      </c>
+      <c r="C127" s="114">
+        <v>120</v>
+      </c>
       <c r="D127" s="115">
-        <v>872.26366499999995</v>
+        <v>305</v>
       </c>
       <c r="E127" s="116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F127" s="407">
-        <v>907.06739800000003</v>
+        <f t="shared" si="4"/>
+        <v>36600</v>
+      </c>
+      <c r="F127" s="90">
+        <v>325</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>39000</v>
       </c>
       <c r="H127" s="90"/>
       <c r="I127" s="90">
-        <f t="shared" ref="I127:I134" si="3">G127-E127</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" s="11" customFormat="1">
+        <f t="shared" si="6"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="100">
-        <v>45667</v>
+        <v>45620</v>
       </c>
       <c r="B128" s="82" t="s">
-        <v>142</v>
+        <v>1613</v>
       </c>
       <c r="C128" s="114">
-        <v>50</v>
-      </c>
-      <c r="D128" s="115">
-        <v>872.26366499999995</v>
+        <v>4000</v>
+      </c>
+      <c r="D128" s="114">
+        <v>32.549999999999997</v>
       </c>
       <c r="E128" s="116">
-        <f t="shared" ref="E128" si="4">D128*C128</f>
-        <v>43613.183249999995</v>
-      </c>
-      <c r="F128" s="407">
-        <v>907.06739800000003</v>
+        <f t="shared" si="4"/>
+        <v>130199.99999999999</v>
+      </c>
+      <c r="F128" s="90">
+        <v>35.58</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" ref="G128" si="5">F128*C128</f>
-        <v>45353.369899999998</v>
+        <f t="shared" si="5"/>
+        <v>142320</v>
       </c>
       <c r="H128" s="90"/>
       <c r="I128" s="90">
-        <f t="shared" ref="I128" si="6">G128-E128</f>
-        <v>1740.1866500000033</v>
-      </c>
-      <c r="K128" s="78"/>
-      <c r="L128" s="78"/>
-      <c r="M128" s="78"/>
-      <c r="N128" s="78"/>
-    </row>
-    <row r="129" spans="1:14" s="11" customFormat="1">
+        <f t="shared" si="6"/>
+        <v>12120.000000000015</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="13.5" thickBot="1">
       <c r="A129" s="100">
-        <v>45691</v>
+        <v>45659</v>
       </c>
       <c r="B129" s="82" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C129" s="114"/>
+        <v>1612</v>
+      </c>
+      <c r="C129" s="114">
+        <v>4000</v>
+      </c>
       <c r="D129" s="115">
-        <v>872.26366499999995</v>
+        <v>30.86</v>
       </c>
       <c r="E129" s="116">
-        <f t="shared" ref="E129" si="7">D129*C129</f>
-        <v>0</v>
-      </c>
-      <c r="F129" s="407">
-        <f>F127</f>
-        <v>907.06739800000003</v>
+        <f t="shared" si="4"/>
+        <v>123440</v>
+      </c>
+      <c r="F129" s="90">
+        <f>F128</f>
+        <v>35.58</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" ref="G129" si="8">F129*C129</f>
-        <v>0</v>
-      </c>
-      <c r="H129" s="90"/>
+        <f t="shared" si="5"/>
+        <v>142320</v>
+      </c>
+      <c r="H129" s="422">
+        <f>SUM(G125:G129)</f>
+        <v>419625.29230500001</v>
+      </c>
       <c r="I129" s="90">
-        <f t="shared" ref="I129" si="9">G129-E129</f>
-        <v>0</v>
-      </c>
-      <c r="K129" s="78"/>
-      <c r="L129" s="78"/>
-      <c r="M129" s="78"/>
-      <c r="N129" s="78"/>
-    </row>
-    <row r="130" spans="1:14" s="11" customFormat="1">
-      <c r="A130" s="100">
-        <v>45692</v>
-      </c>
-      <c r="B130" s="82" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C130" s="114"/>
-      <c r="D130" s="115">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E130" s="116">
-        <f t="shared" ref="E130" si="10">D130*C130</f>
-        <v>0</v>
-      </c>
-      <c r="F130" s="407">
-        <v>900.29758900000002</v>
-      </c>
-      <c r="G130" s="17">
-        <f t="shared" ref="G130" si="11">F130*C130</f>
-        <v>0</v>
-      </c>
-      <c r="H130" s="90"/>
-      <c r="I130" s="90">
-        <f t="shared" ref="I130" si="12">G130-E130</f>
-        <v>0</v>
-      </c>
-      <c r="K130" s="78"/>
-      <c r="L130" s="78"/>
-      <c r="M130" s="78"/>
-      <c r="N130" s="78"/>
-    </row>
-    <row r="131" spans="1:14">
-      <c r="A131" s="100">
-        <v>45672</v>
-      </c>
-      <c r="B131" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C131" s="114">
-        <v>55</v>
-      </c>
-      <c r="D131" s="115">
-        <v>877.65409299999999</v>
-      </c>
-      <c r="E131" s="116">
-        <f t="shared" si="1"/>
-        <v>48270.975115000001</v>
-      </c>
-      <c r="F131" s="407">
-        <f>F127</f>
-        <v>907.06739800000003</v>
-      </c>
-      <c r="G131" s="17">
-        <f t="shared" si="2"/>
-        <v>49888.706890000001</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>18880</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A130" s="100"/>
+      <c r="B130" s="90"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="90">
+        <f>SUM(E125:E129)</f>
+        <v>382124.15836499998</v>
+      </c>
+      <c r="F130" s="90"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="117">
+        <f>(SUM(G125:G129))-(SUM(E125:E129))</f>
+        <v>37501.133940000029</v>
+      </c>
+      <c r="I130" s="117">
+        <f>SUM(I125:I129)</f>
+        <v>37501.133940000014</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="100"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="90"/>
+      <c r="F131" s="90"/>
+      <c r="G131" s="90"/>
       <c r="H131" s="90"/>
-      <c r="I131" s="90">
-        <f t="shared" si="3"/>
-        <v>1617.7317750000002</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+      <c r="I131" s="90"/>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="100">
-        <v>45680</v>
+        <v>45345</v>
       </c>
       <c r="B132" s="82" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C132" s="114">
-        <v>120</v>
-      </c>
-      <c r="D132" s="115">
-        <v>305</v>
+        <v>144</v>
+      </c>
+      <c r="C132" s="118">
+        <v>125000</v>
+      </c>
+      <c r="D132" s="83">
+        <v>1.0399430000000001</v>
       </c>
       <c r="E132" s="116">
-        <f t="shared" si="1"/>
-        <v>36600</v>
-      </c>
-      <c r="F132" s="90">
-        <v>320.25</v>
+        <f>D132*C132</f>
+        <v>129992.87500000001</v>
+      </c>
+      <c r="F132" s="119">
+        <v>0.76337699999999997</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="2"/>
-        <v>38430</v>
+        <f>F132*C132</f>
+        <v>95422.125</v>
       </c>
       <c r="H132" s="90"/>
       <c r="I132" s="90">
-        <f t="shared" si="3"/>
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <f t="shared" ref="I132:I136" si="7">G132-E132</f>
+        <v>-34570.750000000015</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="100">
-        <v>45620</v>
+        <v>45667</v>
       </c>
       <c r="B133" s="82" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C133" s="114">
-        <v>4000</v>
-      </c>
-      <c r="D133" s="114">
-        <v>32.549999999999997</v>
+        <v>1615</v>
+      </c>
+      <c r="C133" s="118">
+        <v>240</v>
+      </c>
+      <c r="D133" s="83">
+        <v>872.26366499999995</v>
       </c>
       <c r="E133" s="116">
-        <f t="shared" si="1"/>
-        <v>130199.99999999999</v>
-      </c>
-      <c r="F133" s="90">
-        <v>34.64</v>
+        <f>D133*C133</f>
+        <v>209343.27959999998</v>
+      </c>
+      <c r="F133" s="406">
+        <f>F126</f>
+        <v>914.14564099999996</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="2"/>
-        <v>138560</v>
+        <f>F133*C133</f>
+        <v>219394.95384</v>
       </c>
       <c r="H133" s="90"/>
       <c r="I133" s="90">
-        <f t="shared" si="3"/>
-        <v>8360.0000000000146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" ht="13.5" thickBot="1">
+        <f t="shared" si="7"/>
+        <v>10051.674240000022</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="100">
-        <v>45659</v>
+        <v>45400</v>
       </c>
       <c r="B134" s="82" t="s">
-        <v>1612</v>
+        <v>145</v>
       </c>
       <c r="C134" s="114">
-        <v>4000</v>
-      </c>
-      <c r="D134" s="115">
-        <v>30.86</v>
+        <v>10</v>
+      </c>
+      <c r="D134" s="83">
+        <v>135</v>
       </c>
       <c r="E134" s="116">
-        <f t="shared" si="1"/>
-        <v>123440</v>
+        <f>D134*C134</f>
+        <v>1350</v>
       </c>
       <c r="F134" s="90">
-        <f>F133</f>
-        <v>34.64</v>
+        <v>112.7</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="2"/>
-        <v>138560</v>
-      </c>
-      <c r="H134" s="422">
-        <f>SUM(G126:G134)</f>
-        <v>410792.07678999996</v>
-      </c>
+        <f>F134*C134</f>
+        <v>1127</v>
+      </c>
+      <c r="H134" s="90"/>
       <c r="I134" s="90">
-        <f t="shared" si="3"/>
-        <v>15120</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A135" s="100"/>
-      <c r="B135" s="90"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="90">
-        <f>SUM(E126:E134)</f>
-        <v>382124.15836499998</v>
-      </c>
-      <c r="F135" s="90"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="117">
-        <f>(SUM(G126:G134))-(SUM(E126:E134))</f>
-        <v>28667.918424999982</v>
-      </c>
-      <c r="I135" s="117">
-        <f>SUM(I126:I134)</f>
-        <v>28667.918425000018</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
-      <c r="A136" s="100"/>
-      <c r="B136" s="90"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="90"/>
-      <c r="F136" s="90"/>
-      <c r="G136" s="90"/>
-      <c r="H136" s="90"/>
-      <c r="I136" s="90"/>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="A137" s="100">
-        <v>45345</v>
-      </c>
-      <c r="B137" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="C137" s="118">
-        <v>125000</v>
-      </c>
-      <c r="D137" s="83">
-        <v>1.0399430000000001</v>
-      </c>
-      <c r="E137" s="116">
-        <f>D137*C137</f>
-        <v>129992.87500000001</v>
-      </c>
-      <c r="F137" s="119">
-        <v>0.77102499999999996</v>
-      </c>
-      <c r="G137" s="17">
-        <f>F137*C137</f>
-        <v>96378.125</v>
-      </c>
-      <c r="H137" s="90"/>
-      <c r="I137" s="90">
-        <f t="shared" ref="I137:I141" si="13">G137-E137</f>
-        <v>-33614.750000000015</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
-      <c r="A138" s="100">
-        <v>45667</v>
-      </c>
-      <c r="B138" s="82" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C138" s="118">
-        <v>240</v>
-      </c>
-      <c r="D138" s="83">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E138" s="116">
-        <f>D138*C138</f>
-        <v>209343.27959999998</v>
-      </c>
-      <c r="F138" s="406">
-        <f>F131</f>
-        <v>907.06739800000003</v>
-      </c>
-      <c r="G138" s="17">
-        <f>F138*C138</f>
-        <v>217696.17552000002</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>-223</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="100">
+        <v>45418</v>
+      </c>
+      <c r="B135" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C135" s="114">
+        <v>38</v>
+      </c>
+      <c r="D135" s="83">
+        <v>30.5</v>
+      </c>
+      <c r="E135" s="116">
+        <f>D135*C135</f>
+        <v>1159</v>
+      </c>
+      <c r="F135" s="90">
+        <v>17.07</v>
+      </c>
+      <c r="G135" s="17">
+        <f>F135*C135</f>
+        <v>648.66</v>
+      </c>
+      <c r="H135" s="90"/>
+      <c r="I135" s="90">
+        <f t="shared" si="7"/>
+        <v>-510.34000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A136" s="100">
+        <v>45418</v>
+      </c>
+      <c r="B136" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" s="114">
+        <v>26</v>
+      </c>
+      <c r="D136" s="83">
+        <v>37.115000000000002</v>
+      </c>
+      <c r="E136" s="116">
+        <f>D136*C136</f>
+        <v>964.99</v>
+      </c>
+      <c r="F136" s="90">
+        <v>23.66</v>
+      </c>
+      <c r="G136" s="17">
+        <f>F136*C136</f>
+        <v>615.16</v>
+      </c>
+      <c r="H136" s="422">
+        <f>SUM(G132:G136)</f>
+        <v>317207.89883999992</v>
+      </c>
+      <c r="I136" s="90">
+        <f t="shared" si="7"/>
+        <v>-349.83000000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A137" s="100"/>
+      <c r="B137" s="90"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="90">
+        <f>SUM(E132:E136)</f>
+        <v>342810.1446</v>
+      </c>
+      <c r="F137" s="90"/>
+      <c r="G137" s="90"/>
+      <c r="H137" s="117">
+        <f>(SUM(G132:G136))-(SUM(E132:E136))</f>
+        <v>-25602.245760000078</v>
+      </c>
+      <c r="I137" s="90"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="100"/>
+      <c r="B138" s="90"/>
+      <c r="C138" s="90"/>
+      <c r="D138" s="90"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="90"/>
+      <c r="G138" s="90"/>
       <c r="H138" s="90"/>
-      <c r="I138" s="90">
-        <f t="shared" si="13"/>
-        <v>8352.895920000039</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+      <c r="I138" s="90"/>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="100">
-        <v>45400</v>
+        <v>45509</v>
       </c>
       <c r="B139" s="82" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C139" s="114">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D139" s="83">
-        <v>135</v>
+        <v>2500</v>
       </c>
       <c r="E139" s="116">
         <f>D139*C139</f>
-        <v>1350</v>
+        <v>2500</v>
       </c>
       <c r="F139" s="90">
-        <v>116.1</v>
+        <v>3400</v>
       </c>
       <c r="G139" s="17">
-        <f>F139*C139</f>
-        <v>1161</v>
+        <f>C139*F139</f>
+        <v>3400</v>
       </c>
       <c r="H139" s="90"/>
       <c r="I139" s="90">
-        <f t="shared" si="13"/>
-        <v>-189</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <f t="shared" ref="I139:I141" si="8">G139-E139</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="100">
-        <v>45418</v>
+        <v>45509</v>
       </c>
       <c r="B140" s="82" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C140" s="114">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D140" s="83">
-        <v>30.5</v>
+        <v>4100</v>
       </c>
       <c r="E140" s="116">
         <f>D140*C140</f>
-        <v>1159</v>
+        <v>65600</v>
       </c>
       <c r="F140" s="90">
-        <v>17.71</v>
+        <f>F139*1.73</f>
+        <v>5882</v>
       </c>
       <c r="G140" s="17">
-        <f>F140*C140</f>
-        <v>672.98</v>
+        <f>C140*F140</f>
+        <v>94112</v>
       </c>
       <c r="H140" s="90"/>
       <c r="I140" s="90">
-        <f t="shared" si="13"/>
-        <v>-486.02</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" ht="13.5" thickBot="1">
+        <f t="shared" si="8"/>
+        <v>28512</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="13.5" thickBot="1">
       <c r="A141" s="100">
-        <v>45418</v>
+        <v>45509</v>
       </c>
       <c r="B141" s="82" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C141" s="114">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D141" s="83">
-        <v>37.115000000000002</v>
+        <v>16200</v>
       </c>
       <c r="E141" s="116">
         <f>D141*C141</f>
-        <v>964.99</v>
+        <v>16200</v>
       </c>
       <c r="F141" s="90">
-        <v>25.58</v>
+        <f>F140*4</f>
+        <v>23528</v>
       </c>
       <c r="G141" s="17">
-        <f>F141*C141</f>
-        <v>665.07999999999993</v>
+        <f>C141*F141</f>
+        <v>23528</v>
       </c>
       <c r="H141" s="422">
-        <f>SUM(G137:G141)</f>
-        <v>316573.36052000005</v>
+        <f>SUM(G139:G141)</f>
+        <v>121040</v>
       </c>
       <c r="I141" s="90">
-        <f t="shared" si="13"/>
-        <v>-299.91000000000008</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" ht="13.5" thickBot="1">
+        <f t="shared" si="8"/>
+        <v>7328</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="13.5" thickBot="1">
       <c r="A142" s="100"/>
       <c r="B142" s="90"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="90">
-        <f>SUM(E137:E141)</f>
-        <v>342810.1446</v>
+        <f>SUM(E139:E141)</f>
+        <v>84300</v>
       </c>
       <c r="F142" s="90"/>
       <c r="G142" s="90"/>
       <c r="H142" s="117">
-        <f>(SUM(G137:G141))-(SUM(E137:E141))</f>
-        <v>-26236.784079999954</v>
+        <f>(SUM(G139:G141))-(SUM(E139:E141))</f>
+        <v>36740</v>
       </c>
       <c r="I142" s="90"/>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:9">
       <c r="A143" s="100"/>
-      <c r="B143" s="90"/>
-      <c r="C143" s="90"/>
-      <c r="D143" s="90"/>
-      <c r="E143" s="17"/>
+      <c r="B143" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" s="120">
+        <v>33.250599999999999</v>
+      </c>
+      <c r="D143" s="12"/>
+      <c r="E143" s="90"/>
       <c r="F143" s="90"/>
-      <c r="G143" s="90"/>
+      <c r="G143" s="17"/>
       <c r="H143" s="90"/>
       <c r="I143" s="90"/>
     </row>
-    <row r="144" spans="1:14">
-      <c r="A144" s="100">
-        <v>45509</v>
-      </c>
-      <c r="B144" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C144" s="114">
-        <v>1</v>
-      </c>
-      <c r="D144" s="83">
-        <v>2500</v>
-      </c>
-      <c r="E144" s="116">
-        <f>D144*C144</f>
-        <v>2500</v>
-      </c>
-      <c r="F144" s="90">
-        <v>3310</v>
-      </c>
-      <c r="G144" s="17">
-        <f>C144*F144</f>
-        <v>3310</v>
-      </c>
+    <row r="144" spans="1:9">
+      <c r="A144" s="100"/>
+      <c r="B144" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="C144" s="120">
+        <v>36.854999999999997</v>
+      </c>
+      <c r="D144" s="12"/>
+      <c r="E144" s="90"/>
+      <c r="F144" s="90"/>
+      <c r="G144" s="17"/>
       <c r="H144" s="90"/>
-      <c r="I144" s="90">
-        <f t="shared" ref="I144:I146" si="14">G144-E144</f>
-        <v>810</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="100">
-        <v>45509</v>
-      </c>
-      <c r="B145" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="C145" s="114">
-        <v>16</v>
-      </c>
-      <c r="D145" s="83">
-        <v>4100</v>
-      </c>
-      <c r="E145" s="116">
-        <f>D145*C145</f>
-        <v>65600</v>
-      </c>
-      <c r="F145" s="90">
-        <f>F144*1.73</f>
-        <v>5726.3</v>
-      </c>
+      <c r="I144" s="90"/>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" s="100"/>
+      <c r="B145" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="90"/>
+      <c r="F145" s="90"/>
       <c r="G145" s="17">
-        <f>C145*F145</f>
-        <v>91620.800000000003</v>
+        <v>0</v>
       </c>
       <c r="H145" s="90"/>
-      <c r="I145" s="90">
-        <f t="shared" si="14"/>
-        <v>26020.800000000003</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A146" s="100">
-        <v>45509</v>
-      </c>
-      <c r="B146" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="C146" s="114">
-        <v>1</v>
-      </c>
-      <c r="D146" s="83">
-        <v>16200</v>
-      </c>
-      <c r="E146" s="116">
-        <f>D146*C146</f>
-        <v>16200</v>
-      </c>
-      <c r="F146" s="90">
-        <f>F145*4</f>
-        <v>22905.200000000001</v>
-      </c>
+      <c r="I145" s="90"/>
+    </row>
+    <row r="146" spans="1:14" ht="13.5" thickBot="1">
+      <c r="A146" s="100"/>
+      <c r="B146" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="90"/>
+      <c r="F146" s="90"/>
       <c r="G146" s="17">
-        <f>C146*F146</f>
-        <v>22905.200000000001</v>
-      </c>
-      <c r="H146" s="422">
-        <f>SUM(G144:G146)</f>
-        <v>117836</v>
-      </c>
-      <c r="I146" s="90">
-        <f t="shared" si="14"/>
-        <v>6705.2000000000007</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="13.5" thickBot="1">
+        <v>1000</v>
+      </c>
+      <c r="H146" s="90"/>
+      <c r="I146" s="90"/>
+    </row>
+    <row r="147" spans="1:14" ht="13.5" thickBot="1">
       <c r="A147" s="100"/>
       <c r="B147" s="90"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="90">
-        <f>SUM(E144:E146)</f>
-        <v>84300</v>
-      </c>
-      <c r="F147" s="90"/>
-      <c r="G147" s="90"/>
-      <c r="H147" s="117">
-        <f>(SUM(G144:G146))-(SUM(E144:E146))</f>
-        <v>33536</v>
+      <c r="C147" s="90"/>
+      <c r="D147" s="90"/>
+      <c r="E147" s="121"/>
+      <c r="F147" s="122"/>
+      <c r="G147" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="H147" s="436">
+        <f>H142+H137+H130</f>
+        <v>48638.888179999951</v>
       </c>
       <c r="I147" s="90"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:14">
       <c r="A148" s="100"/>
-      <c r="B148" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="C148" s="120">
-        <v>33.250599999999999</v>
-      </c>
-      <c r="D148" s="12"/>
+      <c r="B148" s="90"/>
+      <c r="C148" s="125"/>
+      <c r="D148" s="92"/>
       <c r="E148" s="90"/>
       <c r="F148" s="90"/>
-      <c r="G148" s="17"/>
+      <c r="G148" s="125"/>
       <c r="H148" s="90"/>
       <c r="I148" s="90"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:14">
       <c r="A149" s="100"/>
-      <c r="B149" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="C149" s="120">
-        <v>36.854999999999997</v>
-      </c>
-      <c r="D149" s="12"/>
+      <c r="B149" s="90"/>
+      <c r="C149" s="125"/>
+      <c r="D149" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="E149" s="90"/>
       <c r="F149" s="90"/>
-      <c r="G149" s="17"/>
+      <c r="G149" s="9">
+        <f>SUM(G120:G146)</f>
+        <v>1085203.191145</v>
+      </c>
       <c r="H149" s="90"/>
       <c r="I149" s="90"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:14">
       <c r="A150" s="100"/>
-      <c r="B150" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
+      <c r="B150" s="90"/>
+      <c r="C150" s="126" t="str">
+        <f>A116</f>
+        <v>MART 2025 e</v>
+      </c>
+      <c r="D150" s="127" t="s">
+        <v>157</v>
+      </c>
       <c r="E150" s="90"/>
       <c r="F150" s="90"/>
-      <c r="G150" s="17">
-        <v>0</v>
-      </c>
+      <c r="G150" s="128"/>
       <c r="H150" s="90"/>
       <c r="I150" s="90"/>
     </row>
-    <row r="151" spans="1:9" ht="13.5" thickBot="1">
+    <row r="151" spans="1:14" s="11" customFormat="1">
       <c r="A151" s="100"/>
-      <c r="B151" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
+      <c r="B151" s="90"/>
+      <c r="C151" s="126"/>
+      <c r="D151" s="127"/>
       <c r="E151" s="90"/>
       <c r="F151" s="90"/>
-      <c r="G151" s="17">
-        <v>1000</v>
-      </c>
+      <c r="G151" s="128"/>
       <c r="H151" s="90"/>
       <c r="I151" s="90"/>
-    </row>
-    <row r="152" spans="1:9" ht="13.5" thickBot="1">
+      <c r="K151" s="78"/>
+      <c r="L151" s="78"/>
+      <c r="M151" s="78"/>
+      <c r="N151" s="78"/>
+    </row>
+    <row r="152" spans="1:14" s="11" customFormat="1">
       <c r="A152" s="100"/>
       <c r="B152" s="90"/>
-      <c r="C152" s="90"/>
-      <c r="D152" s="90"/>
-      <c r="E152" s="121"/>
-      <c r="F152" s="122"/>
-      <c r="G152" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="H152" s="438">
-        <f>H147+H142+H135</f>
-        <v>35967.134345000028</v>
-      </c>
+      <c r="C152" s="126"/>
+      <c r="D152" s="127"/>
+      <c r="E152" s="90"/>
+      <c r="F152" s="90"/>
+      <c r="G152" s="128"/>
+      <c r="H152" s="90"/>
       <c r="I152" s="90"/>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="K152" s="78"/>
+      <c r="L152" s="78"/>
+      <c r="M152" s="78"/>
+      <c r="N152" s="78"/>
+    </row>
+    <row r="153" spans="1:14" s="11" customFormat="1">
       <c r="A153" s="100"/>
       <c r="B153" s="90"/>
-      <c r="C153" s="125"/>
-      <c r="D153" s="92"/>
+      <c r="C153" s="126"/>
+      <c r="D153" s="127"/>
       <c r="E153" s="90"/>
       <c r="F153" s="90"/>
-      <c r="G153" s="125"/>
+      <c r="G153" s="128"/>
       <c r="H153" s="90"/>
       <c r="I153" s="90"/>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="100"/>
+      <c r="K153" s="78"/>
+      <c r="L153" s="78"/>
+      <c r="M153" s="78"/>
+      <c r="N153" s="78"/>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="90"/>
       <c r="B154" s="90"/>
-      <c r="C154" s="125"/>
-      <c r="D154" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="C154" s="90"/>
+      <c r="D154" s="90"/>
       <c r="E154" s="90"/>
       <c r="F154" s="90"/>
-      <c r="G154" s="9">
-        <f>SUM(G120:G151)</f>
-        <v>1072531.43731</v>
-      </c>
+      <c r="G154" s="90"/>
       <c r="H154" s="90"/>
       <c r="I154" s="90"/>
     </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="100"/>
-      <c r="B155" s="90"/>
-      <c r="C155" s="126" t="str">
-        <f>A116</f>
-        <v>MART 2025 e</v>
-      </c>
-      <c r="D155" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="E155" s="90"/>
-      <c r="F155" s="90"/>
-      <c r="G155" s="128"/>
+    <row r="155" spans="1:14">
+      <c r="A155" s="100">
+        <v>45691</v>
+      </c>
+      <c r="B155" s="82" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C155" s="114"/>
+      <c r="D155" s="115">
+        <v>752.55561799999998</v>
+      </c>
+      <c r="E155" s="116">
+        <f>D155*C155</f>
+        <v>0</v>
+      </c>
+      <c r="F155" s="406">
+        <v>899.26057400000002</v>
+      </c>
+      <c r="G155" s="17">
+        <f>F155*C155</f>
+        <v>0</v>
+      </c>
       <c r="H155" s="90"/>
-      <c r="I155" s="90"/>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="90"/>
-      <c r="B156" s="90"/>
-      <c r="C156" s="90"/>
-      <c r="D156" s="90"/>
-      <c r="E156" s="90"/>
-      <c r="F156" s="90"/>
-      <c r="G156" s="90"/>
-      <c r="H156" s="90"/>
-      <c r="I156" s="90"/>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="90"/>
-      <c r="B157" s="90"/>
-      <c r="C157" s="90"/>
-      <c r="D157" s="90"/>
-      <c r="E157" s="90"/>
-      <c r="F157" s="90"/>
-      <c r="G157" s="90"/>
-      <c r="H157" s="90"/>
-      <c r="I157" s="90"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="398">
+      <c r="I155" s="90">
+        <f>G155-E155</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="398">
         <v>45680</v>
       </c>
-      <c r="B158" s="399" t="s">
+      <c r="B156" s="399" t="s">
         <v>1656</v>
       </c>
-      <c r="C158" s="400">
+      <c r="C156" s="400">
         <v>-25</v>
       </c>
-      <c r="D158" s="401">
+      <c r="D156" s="401">
         <v>752.55561799999998</v>
       </c>
-      <c r="E158" s="402">
+      <c r="E156" s="402">
+        <f>D156*C156</f>
+        <v>-18813.890449999999</v>
+      </c>
+      <c r="F156" s="403">
+        <v>899.26057400000002</v>
+      </c>
+      <c r="G156" s="404">
+        <f>F156*C156</f>
+        <v>-22481.514350000001</v>
+      </c>
+      <c r="H156" s="403"/>
+      <c r="I156" s="403">
+        <f>E156-G156</f>
+        <v>3667.6239000000023</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" s="398">
+        <v>45680</v>
+      </c>
+      <c r="B157" s="399" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C157" s="400"/>
+      <c r="D157" s="401"/>
+      <c r="E157" s="402">
+        <v>299.37</v>
+      </c>
+      <c r="F157" s="403"/>
+      <c r="G157" s="404"/>
+      <c r="H157" s="403"/>
+      <c r="I157" s="403">
+        <f>G157-E157</f>
+        <v>-299.37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" s="11" customFormat="1">
+      <c r="A158" s="100">
+        <v>45691</v>
+      </c>
+      <c r="B158" s="82" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C158" s="114"/>
+      <c r="D158" s="115">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E158" s="116">
         <f>D158*C158</f>
-        <v>-18813.890449999999</v>
-      </c>
-      <c r="F158" s="403">
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G158" s="404">
+        <v>0</v>
+      </c>
+      <c r="F158" s="407">
+        <f>F164</f>
+        <v>907.06739800000003</v>
+      </c>
+      <c r="G158" s="17">
         <f>F158*C158</f>
-        <v>-22481.514350000001</v>
-      </c>
-      <c r="H158" s="403"/>
-      <c r="I158" s="403">
-        <f>E158-G158</f>
-        <v>3667.6239000000023</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="H158" s="90"/>
+      <c r="I158" s="90">
+        <f>G158-E158</f>
+        <v>0</v>
+      </c>
+      <c r="K158" s="78"/>
+      <c r="L158" s="78"/>
+      <c r="M158" s="78"/>
+      <c r="N158" s="78"/>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" s="398">
         <v>45680</v>
       </c>
       <c r="B159" s="399" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C159" s="400"/>
-      <c r="D159" s="401"/>
+        <v>142</v>
+      </c>
+      <c r="C159" s="400">
+        <v>-9</v>
+      </c>
+      <c r="D159" s="115">
+        <v>872.26366499999995</v>
+      </c>
       <c r="E159" s="402">
-        <v>299.37</v>
-      </c>
-      <c r="F159" s="403"/>
-      <c r="G159" s="404"/>
+        <f>D159*C159</f>
+        <v>-7850.372985</v>
+      </c>
+      <c r="F159" s="403">
+        <v>899.26057400000002</v>
+      </c>
+      <c r="G159" s="404">
+        <f>F159*C159</f>
+        <v>-8093.3451660000001</v>
+      </c>
       <c r="H159" s="403"/>
       <c r="I159" s="403">
-        <f>G159-E159</f>
-        <v>-299.37</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <f>E159-G159</f>
+        <v>242.97218100000009</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" s="398">
         <v>45680</v>
       </c>
       <c r="B160" s="399" t="s">
-        <v>142</v>
-      </c>
-      <c r="C160" s="400">
-        <v>-9</v>
-      </c>
-      <c r="D160" s="115">
+        <v>1614</v>
+      </c>
+      <c r="C160" s="400"/>
+      <c r="D160" s="401"/>
+      <c r="E160" s="402"/>
+      <c r="F160" s="403"/>
+      <c r="G160" s="404"/>
+      <c r="H160" s="403"/>
+      <c r="I160" s="403"/>
+    </row>
+    <row r="161" spans="1:14" s="11" customFormat="1">
+      <c r="A161" s="100">
+        <v>45692</v>
+      </c>
+      <c r="B161" s="82" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C161" s="114"/>
+      <c r="D161" s="115">
         <v>872.26366499999995</v>
       </c>
-      <c r="E160" s="402">
-        <f>D160*C160</f>
-        <v>-7850.372985</v>
-      </c>
-      <c r="F160" s="403">
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G160" s="404">
-        <f>F160*C160</f>
-        <v>-8093.3451660000001</v>
-      </c>
-      <c r="H160" s="403"/>
-      <c r="I160" s="403">
-        <f>E160-G160</f>
-        <v>242.97218100000009</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
-      <c r="A161" s="398">
-        <v>45680</v>
-      </c>
-      <c r="B161" s="399" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C161" s="400"/>
-      <c r="D161" s="401"/>
-      <c r="E161" s="402"/>
-      <c r="F161" s="403"/>
-      <c r="G161" s="404"/>
-      <c r="H161" s="403"/>
-      <c r="I161" s="403"/>
+      <c r="E161" s="116">
+        <f>D161*C161</f>
+        <v>0</v>
+      </c>
+      <c r="F161" s="407">
+        <v>900.29758900000002</v>
+      </c>
+      <c r="G161" s="17">
+        <f>F161*C161</f>
+        <v>0</v>
+      </c>
+      <c r="H161" s="90"/>
+      <c r="I161" s="90">
+        <f>G161-E161</f>
+        <v>0</v>
+      </c>
+      <c r="K161" s="78"/>
+      <c r="L161" s="78"/>
+      <c r="M161" s="78"/>
+      <c r="N161" s="78"/>
     </row>
     <row r="162" spans="1:14" s="11" customFormat="1">
       <c r="A162" s="398">
@@ -13539,14 +13528,14 @@
         <v>872.26366499999995</v>
       </c>
       <c r="E162" s="402">
-        <f t="shared" ref="E162" si="15">D162*C162</f>
+        <f t="shared" ref="E162" si="9">D162*C162</f>
         <v>-21806.591624999997</v>
       </c>
       <c r="F162" s="426">
         <v>900.29758900000002</v>
       </c>
       <c r="G162" s="404">
-        <f t="shared" ref="G162" si="16">F162*C162</f>
+        <f t="shared" ref="G162" si="10">F162*C162</f>
         <v>-22507.439725</v>
       </c>
       <c r="H162" s="403"/>
@@ -13581,33 +13570,31 @@
       <c r="N163" s="78"/>
     </row>
     <row r="164" spans="1:14" s="11" customFormat="1">
-      <c r="A164" s="398">
-        <v>45692</v>
-      </c>
-      <c r="B164" s="399" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C164" s="400">
-        <v>-21</v>
-      </c>
-      <c r="D164" s="401">
+      <c r="A164" s="100">
+        <v>45699</v>
+      </c>
+      <c r="B164" s="82" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C164" s="114"/>
+      <c r="D164" s="115">
         <v>872.26366499999995</v>
       </c>
-      <c r="E164" s="402">
-        <f t="shared" ref="E164" si="17">D164*C164</f>
-        <v>-18317.536964999999</v>
-      </c>
-      <c r="F164" s="426">
+      <c r="E164" s="116">
+        <f>D164*C164</f>
+        <v>0</v>
+      </c>
+      <c r="F164" s="407">
         <v>907.06739800000003</v>
       </c>
-      <c r="G164" s="404">
-        <f t="shared" ref="G164" si="18">F164*C164</f>
-        <v>-19048.415358000002</v>
-      </c>
-      <c r="H164" s="403"/>
-      <c r="I164" s="403">
-        <f>E164-G164</f>
-        <v>730.87839300000269</v>
+      <c r="G164" s="17">
+        <f>F164*C164</f>
+        <v>0</v>
+      </c>
+      <c r="H164" s="90"/>
+      <c r="I164" s="90">
+        <f>G164-E164</f>
+        <v>0</v>
       </c>
       <c r="K164" s="78"/>
       <c r="L164" s="78"/>
@@ -13616,19 +13603,32 @@
     </row>
     <row r="165" spans="1:14" s="11" customFormat="1">
       <c r="A165" s="398">
-        <v>45699</v>
+        <v>45692</v>
       </c>
       <c r="B165" s="399" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C165" s="400"/>
-      <c r="D165" s="401"/>
-      <c r="E165" s="402"/>
-      <c r="F165" s="403"/>
-      <c r="G165" s="404"/>
+        <v>1667</v>
+      </c>
+      <c r="C165" s="400">
+        <v>-21</v>
+      </c>
+      <c r="D165" s="401">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E165" s="402">
+        <f t="shared" ref="E165" si="11">D165*C165</f>
+        <v>-18317.536964999999</v>
+      </c>
+      <c r="F165" s="426">
+        <v>907.06739800000003</v>
+      </c>
+      <c r="G165" s="404">
+        <f t="shared" ref="G165" si="12">F165*C165</f>
+        <v>-19048.415358000002</v>
+      </c>
       <c r="H165" s="403"/>
       <c r="I165" s="403">
-        <v>-73.09</v>
+        <f>E165-G165</f>
+        <v>730.87839300000269</v>
       </c>
       <c r="K165" s="78"/>
       <c r="L165" s="78"/>
@@ -13636,15 +13636,21 @@
       <c r="N165" s="78"/>
     </row>
     <row r="166" spans="1:14" s="11" customFormat="1">
-      <c r="A166" s="398"/>
-      <c r="B166" s="399"/>
+      <c r="A166" s="398">
+        <v>45699</v>
+      </c>
+      <c r="B166" s="399" t="s">
+        <v>1614</v>
+      </c>
       <c r="C166" s="400"/>
       <c r="D166" s="401"/>
       <c r="E166" s="402"/>
       <c r="F166" s="403"/>
       <c r="G166" s="404"/>
       <c r="H166" s="403"/>
-      <c r="I166" s="403"/>
+      <c r="I166" s="403">
+        <v>-73.09</v>
+      </c>
       <c r="K166" s="78"/>
       <c r="L166" s="78"/>
       <c r="M166" s="78"/>
@@ -13665,76 +13671,86 @@
       <c r="M167" s="78"/>
       <c r="N167" s="78"/>
     </row>
-    <row r="169" spans="1:14">
-      <c r="I169" s="78">
-        <f>SUM(I158:I168)</f>
+    <row r="168" spans="1:14" s="11" customFormat="1">
+      <c r="A168" s="398"/>
+      <c r="B168" s="399"/>
+      <c r="C168" s="400"/>
+      <c r="D168" s="401"/>
+      <c r="E168" s="402"/>
+      <c r="F168" s="403"/>
+      <c r="G168" s="404"/>
+      <c r="H168" s="403"/>
+      <c r="I168" s="403"/>
+      <c r="K168" s="78"/>
+      <c r="L168" s="78"/>
+      <c r="M168" s="78"/>
+      <c r="N168" s="78"/>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="I170" s="78">
+        <f>SUM(I156:I169)</f>
         <v>4899.7725740000078</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
-      <c r="F176" s="407">
+    <row r="177" spans="6:6">
+      <c r="F177" s="407">
         <v>900.29758900000002</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F144:F146">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="lessThan">
-      <formula>D144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F139:F141">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="lessThan">
+  <conditionalFormatting sqref="F139:F141 F163 F160 F156:F157">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="lessThan">
       <formula>D139</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F134">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
+  <conditionalFormatting sqref="F134:F136">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="lessThan">
       <formula>D134</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F133">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="lessThan">
-      <formula>D133</formula>
+  <conditionalFormatting sqref="F129">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="lessThan">
+      <formula>D129</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F127 F131">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="lessThan">
+  <conditionalFormatting sqref="F128">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThan">
+      <formula>D128</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F164 F126">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="lessThan">
+      <formula>D126</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F127">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="lessThan">
       <formula>D127</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F132">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="lessThan">
-      <formula>D132</formula>
+  <conditionalFormatting sqref="F167:F168">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
+      <formula>D167</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F158:F159">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="lessThan">
+  <conditionalFormatting sqref="F158">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
       <formula>D158</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F161 F163 F166:F167">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="F159">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="lessThan">
+      <formula>D159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F161">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
       <formula>D161</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F129">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
-      <formula>D129</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F160">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="lessThan">
-      <formula>D160</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F130">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
-      <formula>D130</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F176">
+  <conditionalFormatting sqref="F177">
     <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
-      <formula>D176</formula>
+      <formula>D177</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162">
@@ -13742,19 +13758,19 @@
       <formula>D162</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F128">
+  <conditionalFormatting sqref="F125">
     <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
-      <formula>D128</formula>
+      <formula>D125</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F166">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+      <formula>D166</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F165">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>D165</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F164">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
-      <formula>D164</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
@@ -13773,7 +13789,7 @@
   </sheetPr>
   <dimension ref="A1:N187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
@@ -19010,10 +19026,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="436" t="s">
+      <c r="L1" s="440" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="436"/>
+      <c r="M1" s="440"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -19725,11 +19741,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="437">
+      <c r="L17" s="441">
         <f>L15+M15</f>
         <v>1080.7929879999999</v>
       </c>
-      <c r="M17" s="437"/>
+      <c r="M17" s="441"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
@@ -23846,10 +23862,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="436" t="s">
+      <c r="L1" s="440" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="436"/>
+      <c r="M1" s="440"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -23960,7 +23976,7 @@
       </c>
       <c r="E4" s="32">
         <f>'02_25'!F2</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F4" s="32">
         <f>'02_25'!G2</f>
@@ -23968,7 +23984,7 @@
       </c>
       <c r="G4" s="33">
         <f t="shared" ref="G4:G14" si="1">E4+F4+G3</f>
-        <v>191579.68</v>
+        <v>206579.68</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="35" t="s">
@@ -23987,7 +24003,7 @@
       </c>
       <c r="M4" s="38"/>
       <c r="N4" s="8">
-        <f>'02_25'!E146/1000</f>
+        <f>'02_25'!E141/1000</f>
         <v>16.2</v>
       </c>
     </row>
@@ -24017,7 +24033,7 @@
       </c>
       <c r="G5" s="33">
         <f t="shared" si="1"/>
-        <v>161425.47999999998</v>
+        <v>176425.47999999998</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="35" t="s">
@@ -24060,7 +24076,7 @@
       </c>
       <c r="G6" s="33">
         <f t="shared" si="1"/>
-        <v>160435.69999999998</v>
+        <v>175435.69999999998</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="41" t="s">
@@ -24070,7 +24086,7 @@
       <c r="L6" s="37"/>
       <c r="M6" s="42">
         <f>E18/1000</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N6" s="8">
         <f>'04_25'!E111/1000</f>
@@ -24103,7 +24119,7 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>159445.91999999998</v>
+        <v>174445.91999999998</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="41" t="s">
@@ -24146,7 +24162,7 @@
       </c>
       <c r="G8" s="33">
         <f t="shared" si="1"/>
-        <v>158456.13999999998</v>
+        <v>173456.13999999998</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="35" t="s">
@@ -24192,7 +24208,7 @@
       </c>
       <c r="G9" s="33">
         <f t="shared" si="1"/>
-        <v>157466.35999999999</v>
+        <v>172466.36</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="35" t="s">
@@ -24241,7 +24257,7 @@
       </c>
       <c r="G10" s="33">
         <f t="shared" si="1"/>
-        <v>156476.57999999999</v>
+        <v>171476.58</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="35" t="s">
@@ -24287,7 +24303,7 @@
       </c>
       <c r="G11" s="33">
         <f t="shared" si="1"/>
-        <v>156476.57999999999</v>
+        <v>171476.58</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="35" t="s">
@@ -24336,7 +24352,7 @@
       </c>
       <c r="G12" s="33">
         <f t="shared" si="1"/>
-        <v>156476.57999999999</v>
+        <v>171476.58</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="35" t="s">
@@ -24385,7 +24401,7 @@
       </c>
       <c r="G13" s="33">
         <f t="shared" si="1"/>
-        <v>156476.57999999999</v>
+        <v>171476.58</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="35" t="s">
@@ -24434,7 +24450,7 @@
       </c>
       <c r="G14" s="33">
         <f t="shared" si="1"/>
-        <v>156476.57999999999</v>
+        <v>171476.58</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="44" t="s">
@@ -24475,7 +24491,7 @@
       </c>
       <c r="E15" s="33">
         <f>SUM(E3:E14)</f>
-        <v>320054.88</v>
+        <v>335054.88</v>
       </c>
       <c r="F15" s="33">
         <f>SUM(F3:F14)</f>
@@ -24483,7 +24499,7 @@
       </c>
       <c r="G15" s="33">
         <f>E15+F15</f>
-        <v>156476.57999999999</v>
+        <v>171476.58</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="48"/>
@@ -24501,7 +24517,7 @@
       </c>
       <c r="M15" s="52">
         <f>M10+M8+M6+M5+M3+M7</f>
-        <v>236.25</v>
+        <v>251.25</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -24519,7 +24535,7 @@
       <c r="D16" s="55"/>
       <c r="E16" s="55">
         <f>E15/A16</f>
-        <v>26671.24</v>
+        <v>27921.24</v>
       </c>
       <c r="F16" s="55">
         <f>F15/A16</f>
@@ -24527,7 +24543,7 @@
       </c>
       <c r="G16" s="55">
         <f>G15/A16</f>
-        <v>13039.714999999998</v>
+        <v>14289.714999999998</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="57"/>
@@ -24545,7 +24561,7 @@
       </c>
       <c r="M16" s="61">
         <f>M15/12</f>
-        <v>19.6875</v>
+        <v>20.9375</v>
       </c>
       <c r="N16" s="62" t="e">
         <f>AVERAGE(N2:N15)</f>
@@ -24561,11 +24577,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="437">
+      <c r="L17" s="441">
         <f>L15+M15</f>
-        <v>961.10596800000008</v>
-      </c>
-      <c r="M17" s="437"/>
+        <v>976.10596800000008</v>
+      </c>
+      <c r="M17" s="441"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
@@ -24573,7 +24589,7 @@
       </c>
       <c r="E18" s="2">
         <f>'01_25'!F32+'02_25'!F19+'02_25'!F30+'03_25'!F19+'04_25'!F41+'05_25'!F22+'06_25'!F19+'06_25'!F31+'04_25'!F15</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="2" t="s">
@@ -24582,7 +24598,7 @@
       <c r="L18" s="65"/>
       <c r="M18" s="66">
         <f>L17/12</f>
-        <v>80.092164000000011</v>
+        <v>81.342164000000011</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -24601,7 +24617,7 @@
       </c>
       <c r="E20" s="17">
         <f>SUM(E18:E19)</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="21" spans="2:13">

--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB1CE20-5348-46A0-99FA-E1BBF850AEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE90C78-3E30-4923-9F34-47B3C1186D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_25" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4494" uniqueCount="1675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4496" uniqueCount="1676">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -5409,6 +5409,9 @@
   </si>
   <si>
     <t>aof 4. dönem ücreti</t>
+  </si>
+  <si>
+    <t>ali demirel ihtar noter msrf için av. Emrullaha havale</t>
   </si>
 </sst>
 </file>
@@ -6482,7 +6485,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="443">
+  <cellXfs count="444">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7071,7 +7074,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7687,10 +7691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -7761,7 +7765,7 @@
       </c>
       <c r="E7" s="425"/>
       <c r="F7" s="2">
-        <f t="shared" ref="F7:F16" si="0">F6+D7-E7</f>
+        <f t="shared" ref="F7:F17" si="0">F6+D7-E7</f>
         <v>277330</v>
       </c>
     </row>
@@ -7813,180 +7817,197 @@
         <v>221330</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>45731</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12"/>
+    <row r="11" spans="1:6" s="11" customFormat="1">
+      <c r="A11" s="423">
+        <v>45709</v>
+      </c>
+      <c r="B11" s="394" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="394"/>
+      <c r="D11" s="425"/>
+      <c r="E11" s="425">
+        <v>26000</v>
+      </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>221330</v>
+        <v>195330</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>45762</v>
+        <v>45731</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="12"/>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
-        <v>221330</v>
+        <v>195330</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>45792</v>
+        <v>45762</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="12"/>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>221330</v>
+        <v>195330</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>45823</v>
+        <v>45792</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="12"/>
       <c r="F14" s="12">
         <f t="shared" si="0"/>
-        <v>221330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" thickBot="1">
+        <v>195330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>45853</v>
+        <v>45823</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="12"/>
       <c r="F15" s="12">
         <f t="shared" si="0"/>
-        <v>221330</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="E16" s="13"/>
-      <c r="F16" s="390">
-        <f t="shared" si="0"/>
-        <v>221330</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" ht="13.5" thickBot="1">
-      <c r="E17" s="15"/>
-      <c r="F17" s="16" t="s">
+        <v>195330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A16" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="12"/>
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>195330</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="13"/>
+      <c r="F17" s="390">
+        <f t="shared" si="0"/>
+        <v>195330</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="13.5" thickBot="1">
+      <c r="E18" s="15"/>
+      <c r="F18" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="8" t="s">
+    <row r="37" spans="2:6">
+      <c r="B37" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
-      <c r="F38" s="2">
-        <f t="shared" ref="F38:F43" si="1">F37+D38-E38</f>
+    <row r="39" spans="2:6">
+      <c r="F39" s="2">
+        <f t="shared" ref="F39:F44" si="1">F38+D39-E39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="8" t="s">
+    <row r="40" spans="2:6">
+      <c r="B40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D40" s="2">
         <v>50000</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F40" s="2">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="8" t="s">
+    <row r="41" spans="2:6">
+      <c r="B41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D41" s="2">
         <v>140000</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F41" s="2">
         <f t="shared" si="1"/>
         <v>190000</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="8" t="s">
+    <row r="42" spans="2:6">
+      <c r="B42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D42" s="2">
         <v>195000</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F42" s="2">
         <f t="shared" si="1"/>
         <v>385000</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="8" t="s">
+    <row r="43" spans="2:6">
+      <c r="B43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E43" s="2">
         <v>310000</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F43" s="2">
         <f t="shared" si="1"/>
         <v>75000</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="3" t="s">
+    <row r="44" spans="2:6">
+      <c r="B44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17">
+      <c r="C44" s="3"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17">
         <f t="shared" si="1"/>
         <v>75000</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="3" t="s">
+    <row r="45" spans="2:6">
+      <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="17" t="e">
-        <f>#REF!-F42</f>
+      <c r="C45" s="3"/>
+      <c r="D45" s="17" t="e">
+        <f>#REF!-F43</f>
         <v>#REF!</v>
       </c>
-      <c r="F44" s="2" t="e">
-        <f>F42+D44-E44</f>
+      <c r="F45" s="2" t="e">
+        <f>F43+D45-E45</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
-      <c r="E45" s="18" t="s">
+    <row r="46" spans="2:6">
+      <c r="E46" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="17" t="e">
-        <f>F44</f>
+      <c r="F46" s="17" t="e">
+        <f>F45</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -11083,10 +11104,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125:XFD125"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -11123,24 +11144,24 @@
         <v>67</v>
       </c>
       <c r="D2" s="77">
-        <f>SUM(D4:D35)</f>
+        <f>SUM(D4:D31)</f>
         <v>45000</v>
       </c>
       <c r="E2" s="77">
-        <f>SUM(E4:E36)</f>
+        <f>SUM(E4:E32)</f>
         <v>-75400.399999999994</v>
       </c>
       <c r="F2" s="77">
-        <f>SUM(F4:F36)</f>
+        <f>SUM(F4:F32)</f>
         <v>15000</v>
       </c>
       <c r="G2" s="77">
-        <f>SUM(G4:G36)</f>
-        <v>-69456.33</v>
+        <f>SUM(G4:G32)</f>
+        <v>-71847.72</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-54456.33</v>
+        <v>-56847.72</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -11149,7 +11170,7 @@
     <row r="4" spans="1:14">
       <c r="B4" s="41"/>
       <c r="H4" s="77">
-        <f t="shared" ref="H4:H36" si="0">H3+F4+G4</f>
+        <f t="shared" ref="H4:H32" si="0">H3+F4+G4</f>
         <v>0</v>
       </c>
     </row>
@@ -11181,7 +11202,7 @@
       <c r="C7" s="85"/>
       <c r="D7" s="86"/>
       <c r="E7" s="86">
-        <f>E41</f>
+        <f>E37</f>
         <v>0</v>
       </c>
       <c r="F7" s="87"/>
@@ -11204,7 +11225,7 @@
       <c r="C8" s="85"/>
       <c r="D8" s="86"/>
       <c r="E8" s="86">
-        <f>E56</f>
+        <f>E52</f>
         <v>-29103.34</v>
       </c>
       <c r="F8" s="87"/>
@@ -11308,11 +11329,15 @@
       <c r="N12" s="78"/>
     </row>
     <row r="13" spans="1:14" s="11" customFormat="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
+      <c r="A13" s="414"/>
+      <c r="B13" s="442" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="418"/>
+      <c r="D13" s="385"/>
+      <c r="E13" s="385">
+        <v>0</v>
+      </c>
       <c r="F13" s="90"/>
       <c r="G13" s="90"/>
       <c r="H13" s="87">
@@ -11324,154 +11349,188 @@
       <c r="M13" s="78"/>
       <c r="N13" s="78"/>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90">
-        <v>0</v>
-      </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
+    <row r="14" spans="1:14" s="78" customFormat="1">
+      <c r="A14" s="392">
+        <v>45705</v>
+      </c>
+      <c r="B14" s="394" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="394"/>
+      <c r="D14" s="388">
+        <v>15000</v>
+      </c>
+      <c r="E14" s="388"/>
+      <c r="F14" s="388">
+        <v>15000</v>
+      </c>
+      <c r="G14" s="87"/>
       <c r="H14" s="87">
         <f t="shared" si="0"/>
-        <v>-67111.33</v>
-      </c>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-    </row>
-    <row r="15" spans="1:14" s="11" customFormat="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
+        <v>-52111.33</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:14" s="78" customFormat="1">
+      <c r="A15" s="392">
+        <v>45705</v>
+      </c>
+      <c r="B15" s="413" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="413"/>
+      <c r="D15" s="388"/>
+      <c r="E15" s="388">
+        <v>-1000</v>
+      </c>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87">
+        <v>-2305</v>
+      </c>
       <c r="H15" s="87">
         <f t="shared" si="0"/>
-        <v>-67111.33</v>
-      </c>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-    </row>
-    <row r="16" spans="1:14">
+        <v>-54416.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="78" customFormat="1">
+      <c r="A16" s="392">
+        <v>45705</v>
+      </c>
+      <c r="B16" s="413" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="413"/>
+      <c r="D16" s="388"/>
+      <c r="E16" s="388">
+        <v>-200</v>
+      </c>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87">
+        <v>-40</v>
+      </c>
       <c r="H16" s="87">
         <f t="shared" si="0"/>
-        <v>-67111.33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>-54456.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="78" customFormat="1">
+      <c r="A17" s="392">
+        <v>45709</v>
+      </c>
+      <c r="B17" s="443" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C17" s="443"/>
+      <c r="D17" s="388"/>
+      <c r="E17" s="388"/>
+      <c r="F17" s="388"/>
+      <c r="G17" s="388">
+        <v>-2391.39</v>
+      </c>
       <c r="H17" s="87">
         <f t="shared" si="0"/>
-        <v>-67111.33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>-56847.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="78" customFormat="1">
       <c r="A18" s="88"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
       <c r="H18" s="87">
         <f t="shared" si="0"/>
-        <v>-67111.33</v>
+        <v>-56847.72</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="78" customFormat="1">
-      <c r="A19" s="442">
-        <v>45705</v>
-      </c>
-      <c r="B19" s="394" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="394"/>
-      <c r="D19" s="388">
+      <c r="A19" s="88"/>
+      <c r="B19" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="90">
         <v>15000</v>
       </c>
-      <c r="E19" s="388"/>
-      <c r="F19" s="388">
-        <v>15000</v>
-      </c>
-      <c r="G19" s="87"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="87">
         <f t="shared" si="0"/>
-        <v>-52111.33</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19"/>
+        <v>-56847.72</v>
+      </c>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="96"/>
     </row>
     <row r="20" spans="1:13" s="78" customFormat="1">
-      <c r="A20" s="442">
-        <v>45705</v>
-      </c>
-      <c r="B20" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87">
-        <v>-1000</v>
-      </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87">
-        <v>-2305</v>
-      </c>
+      <c r="B20" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="92"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90">
+        <v>-7500</v>
+      </c>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="87">
         <f t="shared" si="0"/>
-        <v>-54416.33</v>
-      </c>
+        <v>-56847.72</v>
+      </c>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="96"/>
     </row>
     <row r="21" spans="1:13" s="78" customFormat="1">
-      <c r="A21" s="442">
-        <v>45705</v>
-      </c>
-      <c r="B21" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87">
-        <v>-200</v>
-      </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87">
-        <v>-40</v>
-      </c>
+      <c r="B21" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="92"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90">
+        <v>-7500</v>
+      </c>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="87">
         <f t="shared" si="0"/>
-        <v>-54456.33</v>
-      </c>
+        <v>-56847.72</v>
+      </c>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" s="78" customFormat="1">
-      <c r="A22" s="88"/>
+      <c r="B22" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90">
+        <v>-7500</v>
+      </c>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="87">
         <f t="shared" si="0"/>
-        <v>-54456.33</v>
-      </c>
+        <v>-56847.72</v>
+      </c>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="96"/>
     </row>
     <row r="23" spans="1:13" s="78" customFormat="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="90">
-        <v>15000</v>
-      </c>
-      <c r="E23" s="90"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
       <c r="H23" s="87">
         <f t="shared" si="0"/>
-        <v>-54456.33</v>
+        <v>-56847.72</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -11479,19 +11538,16 @@
       <c r="M23" s="96"/>
     </row>
     <row r="24" spans="1:13" s="78" customFormat="1">
-      <c r="B24" s="92" t="s">
-        <v>77</v>
-      </c>
+      <c r="A24" s="97"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="92"/>
       <c r="D24" s="90"/>
-      <c r="E24" s="90">
-        <v>-7500</v>
-      </c>
+      <c r="E24" s="90"/>
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
       <c r="H24" s="87">
         <f t="shared" si="0"/>
-        <v>-54456.33</v>
+        <v>-56847.72</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -11499,19 +11555,24 @@
       <c r="M24" s="96"/>
     </row>
     <row r="25" spans="1:13" s="78" customFormat="1">
-      <c r="B25" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90">
-        <v>-7500</v>
+      <c r="A25" s="98">
+        <v>45716</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77">
+        <v>-1380</v>
       </c>
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
       <c r="H25" s="87">
         <f t="shared" si="0"/>
-        <v>-54456.33</v>
+        <v>-56847.72</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -11519,19 +11580,19 @@
       <c r="M25" s="96"/>
     </row>
     <row r="26" spans="1:13" s="78" customFormat="1">
-      <c r="B26" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90">
-        <v>-7500</v>
+      <c r="B26" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="99"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77">
+        <v>-600</v>
       </c>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
-      <c r="H26" s="87">
-        <f t="shared" si="0"/>
-        <v>-54456.33</v>
+      <c r="H26" s="77">
+        <f t="shared" si="0"/>
+        <v>-56847.72</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -11539,15 +11600,19 @@
       <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" s="78" customFormat="1">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="99"/>
       <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
+      <c r="E27" s="77">
+        <v>-800</v>
+      </c>
       <c r="F27" s="77"/>
       <c r="G27" s="77"/>
-      <c r="H27" s="87">
-        <f t="shared" si="0"/>
-        <v>-54456.33</v>
+      <c r="H27" s="77">
+        <f t="shared" si="0"/>
+        <v>-56847.72</v>
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="94"/>
@@ -11555,261 +11620,215 @@
       <c r="M27" s="96"/>
     </row>
     <row r="28" spans="1:13" s="78" customFormat="1">
-      <c r="A28" s="97"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
+      <c r="B28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="77">
+        <v>15000</v>
+      </c>
+      <c r="E28" s="77"/>
       <c r="F28" s="77"/>
       <c r="G28" s="77"/>
-      <c r="H28" s="87">
-        <f t="shared" si="0"/>
-        <v>-54456.33</v>
-      </c>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="96"/>
+      <c r="H28" s="77">
+        <f t="shared" si="0"/>
+        <v>-56847.72</v>
+      </c>
     </row>
     <row r="29" spans="1:13" s="78" customFormat="1">
-      <c r="A29" s="98">
-        <v>45716</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>1606</v>
-      </c>
       <c r="D29" s="77"/>
-      <c r="E29" s="77">
-        <v>-1380</v>
-      </c>
+      <c r="E29" s="77"/>
       <c r="F29" s="77"/>
       <c r="G29" s="77"/>
-      <c r="H29" s="87">
-        <f t="shared" si="0"/>
-        <v>-54456.33</v>
-      </c>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="96"/>
-    </row>
-    <row r="30" spans="1:13" s="78" customFormat="1">
-      <c r="B30" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77">
-        <v>-600</v>
-      </c>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
+      <c r="H29" s="77">
+        <f t="shared" si="0"/>
+        <v>-56847.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="100"/>
+      <c r="B30" s="101" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C30" s="101"/>
       <c r="H30" s="77">
         <f t="shared" si="0"/>
-        <v>-54456.33</v>
-      </c>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="96"/>
-    </row>
-    <row r="31" spans="1:13" s="78" customFormat="1">
-      <c r="B31" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77">
-        <v>-800</v>
-      </c>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
+        <v>-56847.72</v>
+      </c>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="100"/>
       <c r="H31" s="77">
         <f t="shared" si="0"/>
-        <v>-54456.33</v>
-      </c>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="96"/>
+        <v>-56847.72</v>
+      </c>
     </row>
     <row r="32" spans="1:13" s="78" customFormat="1">
-      <c r="B32" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="77">
-        <v>15000</v>
-      </c>
+      <c r="A32"/>
       <c r="E32" s="77"/>
       <c r="F32" s="77"/>
       <c r="G32" s="77"/>
       <c r="H32" s="77">
         <f t="shared" si="0"/>
-        <v>-54456.33</v>
-      </c>
+        <v>-56847.72</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
     </row>
     <row r="33" spans="1:14" s="78" customFormat="1">
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="77"/>
       <c r="E33" s="77"/>
       <c r="F33" s="77"/>
       <c r="G33" s="77"/>
-      <c r="H33" s="77">
-        <f t="shared" si="0"/>
-        <v>-54456.33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="100"/>
-      <c r="B34" s="101" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C34" s="101"/>
-      <c r="H34" s="77">
-        <f t="shared" si="0"/>
-        <v>-54456.33</v>
-      </c>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="100"/>
+      <c r="H33" s="77"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="96"/>
+    </row>
+    <row r="34" spans="1:14" s="78" customFormat="1">
+      <c r="A34" s="98"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+    </row>
+    <row r="35" spans="1:14" s="77" customFormat="1">
+      <c r="A35" s="88"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
       <c r="H35" s="77">
-        <f t="shared" si="0"/>
-        <v>-54456.33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="78" customFormat="1">
-      <c r="A36"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77">
-        <f t="shared" si="0"/>
-        <v>-54456.33</v>
-      </c>
-      <c r="I36"/>
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="1:14" s="78" customFormat="1">
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="96"/>
-    </row>
-    <row r="38" spans="1:14" s="78" customFormat="1">
-      <c r="A38" s="98"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
+        <v>15000</v>
+      </c>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+    </row>
+    <row r="36" spans="1:14" s="77" customFormat="1">
+      <c r="B36" s="102"/>
+      <c r="G36" s="77" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H36" s="431">
+        <v>0.5635</v>
+      </c>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="103"/>
+      <c r="B37" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="103"/>
+      <c r="E37" s="77">
+        <f>SUM(E38:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="77">
+        <f>H36*H35</f>
+        <v>8452.5</v>
+      </c>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+    </row>
+    <row r="38" spans="1:14" s="77" customFormat="1" ht="15">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="E38" s="105" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="77" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H38" s="77">
+        <f>SUM(H37+H35)</f>
+        <v>23452.5</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
     </row>
     <row r="39" spans="1:14" s="77" customFormat="1">
       <c r="A39" s="88"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="H39" s="77">
-        <v>15000</v>
-      </c>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
       <c r="K39" s="78"/>
       <c r="L39" s="78"/>
       <c r="M39" s="78"/>
       <c r="N39" s="78"/>
     </row>
     <row r="40" spans="1:14" s="77" customFormat="1">
-      <c r="B40" s="102"/>
-      <c r="G40" s="77" t="s">
-        <v>1664</v>
-      </c>
-      <c r="H40" s="431">
-        <v>0.5635</v>
-      </c>
+      <c r="A40" s="88"/>
       <c r="K40" s="78"/>
       <c r="L40" s="78"/>
       <c r="M40" s="78"/>
       <c r="N40" s="78"/>
     </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="103"/>
-      <c r="B41" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="103"/>
-      <c r="E41" s="77">
-        <f>SUM(E42:E53)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="77">
-        <f>H40*H39</f>
-        <v>8452.5</v>
-      </c>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-    </row>
-    <row r="42" spans="1:14" s="77" customFormat="1" ht="15">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="E42" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="77" t="s">
-        <v>1665</v>
-      </c>
-      <c r="H42" s="77">
-        <f>SUM(H41+H39)</f>
-        <v>23452.5</v>
-      </c>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
+    <row r="41" spans="1:14" s="77" customFormat="1">
+      <c r="A41" s="88"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="88"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
     </row>
     <row r="43" spans="1:14" s="77" customFormat="1">
-      <c r="A43" s="88"/>
+      <c r="A43"/>
+      <c r="I43"/>
+      <c r="J43"/>
       <c r="K43" s="78"/>
       <c r="L43" s="78"/>
       <c r="M43" s="78"/>
       <c r="N43" s="78"/>
     </row>
     <row r="44" spans="1:14" s="77" customFormat="1">
-      <c r="A44" s="88"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
       <c r="K44" s="78"/>
       <c r="L44" s="78"/>
       <c r="M44" s="78"/>
       <c r="N44" s="78"/>
     </row>
     <row r="45" spans="1:14" s="77" customFormat="1">
-      <c r="A45" s="88"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
       <c r="K45" s="78"/>
       <c r="L45" s="78"/>
       <c r="M45" s="78"/>
       <c r="N45" s="78"/>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="88"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
+    <row r="46" spans="1:14" s="77" customFormat="1">
+      <c r="A46" s="100"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="106"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="78"/>
     </row>
     <row r="47" spans="1:14" s="77" customFormat="1">
-      <c r="A47"/>
-      <c r="I47"/>
-      <c r="J47"/>
+      <c r="A47" s="100"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="106"/>
       <c r="K47" s="78"/>
       <c r="L47" s="78"/>
       <c r="M47" s="78"/>
@@ -11817,8 +11836,7 @@
     </row>
     <row r="48" spans="1:14" s="77" customFormat="1">
       <c r="A48" s="100"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="106"/>
+      <c r="B48" s="107"/>
       <c r="K48" s="78"/>
       <c r="L48" s="78"/>
       <c r="M48" s="78"/>
@@ -11826,7 +11844,7 @@
     </row>
     <row r="49" spans="1:14" s="77" customFormat="1">
       <c r="A49" s="100"/>
-      <c r="B49" s="106"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="106"/>
       <c r="K49" s="78"/>
       <c r="L49" s="78"/>
@@ -11835,8 +11853,7 @@
     </row>
     <row r="50" spans="1:14" s="77" customFormat="1">
       <c r="A50" s="100"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="106"/>
+      <c r="B50" s="3"/>
       <c r="K50" s="78"/>
       <c r="L50" s="78"/>
       <c r="M50" s="78"/>
@@ -11844,7 +11861,7 @@
     </row>
     <row r="51" spans="1:14" s="77" customFormat="1">
       <c r="A51" s="100"/>
-      <c r="B51" s="107"/>
+      <c r="B51" s="106"/>
       <c r="C51" s="106"/>
       <c r="K51" s="78"/>
       <c r="L51" s="78"/>
@@ -11852,8 +11869,15 @@
       <c r="N51" s="78"/>
     </row>
     <row r="52" spans="1:14" s="77" customFormat="1">
-      <c r="A52" s="100"/>
-      <c r="B52" s="107"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="103"/>
+      <c r="E52" s="77">
+        <f>SUM(E53:E98)</f>
+        <v>-29103.34</v>
+      </c>
       <c r="K52" s="78"/>
       <c r="L52" s="78"/>
       <c r="M52" s="78"/>
@@ -11861,22 +11885,23 @@
     </row>
     <row r="53" spans="1:14" s="77" customFormat="1">
       <c r="A53" s="100"/>
-      <c r="B53" s="107"/>
+      <c r="B53" s="106"/>
       <c r="C53" s="106"/>
       <c r="K53" s="78"/>
       <c r="L53" s="78"/>
       <c r="M53" s="78"/>
       <c r="N53" s="78"/>
     </row>
-    <row r="54" spans="1:14" s="77" customFormat="1">
+    <row r="54" spans="1:14" s="90" customFormat="1">
       <c r="A54" s="100"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
       <c r="K54" s="78"/>
       <c r="L54" s="78"/>
       <c r="M54" s="78"/>
       <c r="N54" s="78"/>
     </row>
-    <row r="55" spans="1:14" s="77" customFormat="1">
+    <row r="55" spans="1:14" s="90" customFormat="1">
       <c r="A55" s="100"/>
       <c r="B55" s="106"/>
       <c r="C55" s="106"/>
@@ -11885,74 +11910,102 @@
       <c r="M55" s="78"/>
       <c r="N55" s="78"/>
     </row>
-    <row r="56" spans="1:14" s="77" customFormat="1">
-      <c r="A56" s="103"/>
-      <c r="B56" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="103"/>
-      <c r="E56" s="77">
-        <f>SUM(E57:E102)</f>
-        <v>-29103.34</v>
+    <row r="56" spans="1:14" s="90" customFormat="1">
+      <c r="A56" s="100">
+        <v>46018</v>
+      </c>
+      <c r="B56" s="106" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C56" s="106"/>
+      <c r="E56" s="90">
+        <v>-135</v>
       </c>
       <c r="K56" s="78"/>
       <c r="L56" s="78"/>
       <c r="M56" s="78"/>
       <c r="N56" s="78"/>
     </row>
-    <row r="57" spans="1:14" s="77" customFormat="1">
-      <c r="A57" s="100"/>
-      <c r="B57" s="106"/>
+    <row r="57" spans="1:14" s="90" customFormat="1">
+      <c r="A57" s="100">
+        <v>46016</v>
+      </c>
+      <c r="B57" s="106" t="s">
+        <v>1636</v>
+      </c>
       <c r="C57" s="106"/>
+      <c r="E57" s="90">
+        <v>-240</v>
+      </c>
       <c r="K57" s="78"/>
       <c r="L57" s="78"/>
       <c r="M57" s="78"/>
       <c r="N57" s="78"/>
     </row>
-    <row r="58" spans="1:14" s="90" customFormat="1">
-      <c r="A58" s="100"/>
-      <c r="B58" s="106"/>
+    <row r="58" spans="1:14" s="77" customFormat="1">
+      <c r="A58" s="100">
+        <v>46015</v>
+      </c>
+      <c r="B58" s="106" t="s">
+        <v>1635</v>
+      </c>
       <c r="C58" s="106"/>
+      <c r="E58" s="77">
+        <v>-550</v>
+      </c>
       <c r="K58" s="78"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
       <c r="N58" s="78"/>
     </row>
-    <row r="59" spans="1:14" s="90" customFormat="1">
-      <c r="A59" s="100"/>
-      <c r="B59" s="106"/>
+    <row r="59" spans="1:14" s="77" customFormat="1">
+      <c r="A59" s="100">
+        <v>46020</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1617</v>
+      </c>
       <c r="C59" s="106"/>
+      <c r="E59" s="77">
+        <v>-12762</v>
+      </c>
+      <c r="F59" s="77">
+        <v>0</v>
+      </c>
       <c r="K59" s="78"/>
       <c r="L59" s="78"/>
       <c r="M59" s="78"/>
       <c r="N59" s="78"/>
     </row>
-    <row r="60" spans="1:14" s="90" customFormat="1">
+    <row r="60" spans="1:14" s="77" customFormat="1">
       <c r="A60" s="100">
-        <v>46018</v>
-      </c>
-      <c r="B60" s="106" t="s">
-        <v>1637</v>
+        <v>46021</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1616</v>
       </c>
       <c r="C60" s="106"/>
-      <c r="E60" s="90">
-        <v>-135</v>
+      <c r="E60" s="77">
+        <v>-120</v>
       </c>
       <c r="K60" s="78"/>
       <c r="L60" s="78"/>
       <c r="M60" s="78"/>
       <c r="N60" s="78"/>
     </row>
-    <row r="61" spans="1:14" s="90" customFormat="1">
+    <row r="61" spans="1:14" s="77" customFormat="1">
       <c r="A61" s="100">
-        <v>46016</v>
-      </c>
-      <c r="B61" s="106" t="s">
-        <v>1636</v>
+        <v>46022</v>
+      </c>
+      <c r="B61" s="92" t="s">
+        <v>1619</v>
       </c>
       <c r="C61" s="106"/>
-      <c r="E61" s="90">
-        <v>-240</v>
+      <c r="E61" s="77">
+        <v>-3741</v>
+      </c>
+      <c r="F61" s="77">
+        <v>0</v>
       </c>
       <c r="K61" s="78"/>
       <c r="L61" s="78"/>
@@ -11961,14 +12014,17 @@
     </row>
     <row r="62" spans="1:14" s="77" customFormat="1">
       <c r="A62" s="100">
-        <v>46015</v>
-      </c>
-      <c r="B62" s="106" t="s">
-        <v>1635</v>
+        <v>46022</v>
+      </c>
+      <c r="B62" s="92" t="s">
+        <v>1618</v>
       </c>
       <c r="C62" s="106"/>
       <c r="E62" s="77">
-        <v>-550</v>
+        <v>-3741</v>
+      </c>
+      <c r="F62" s="77">
+        <v>0</v>
       </c>
       <c r="K62" s="78"/>
       <c r="L62" s="78"/>
@@ -11977,33 +12033,30 @@
     </row>
     <row r="63" spans="1:14" s="77" customFormat="1">
       <c r="A63" s="100">
-        <v>46020</v>
+        <v>46022</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="C63" s="106"/>
       <c r="E63" s="77">
-        <v>-12762</v>
-      </c>
-      <c r="F63" s="77">
-        <v>0</v>
+        <v>-560</v>
       </c>
       <c r="K63" s="78"/>
       <c r="L63" s="78"/>
       <c r="M63" s="78"/>
       <c r="N63" s="78"/>
     </row>
-    <row r="64" spans="1:14" s="77" customFormat="1">
+    <row r="64" spans="1:14" s="90" customFormat="1">
       <c r="A64" s="100">
-        <v>46021</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>1616</v>
+        <v>45658</v>
+      </c>
+      <c r="B64" s="92" t="s">
+        <v>128</v>
       </c>
       <c r="C64" s="106"/>
-      <c r="E64" s="77">
-        <v>-120</v>
+      <c r="E64" s="90">
+        <v>-177.87</v>
       </c>
       <c r="K64" s="78"/>
       <c r="L64" s="78"/>
@@ -12012,17 +12065,14 @@
     </row>
     <row r="65" spans="1:14" s="77" customFormat="1">
       <c r="A65" s="100">
-        <v>46022</v>
-      </c>
-      <c r="B65" s="92" t="s">
-        <v>1619</v>
+        <v>45658</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1638</v>
       </c>
       <c r="C65" s="106"/>
-      <c r="E65" s="77">
-        <v>-3741</v>
-      </c>
-      <c r="F65" s="77">
-        <v>0</v>
+      <c r="D65" s="77">
+        <v>69.13</v>
       </c>
       <c r="K65" s="78"/>
       <c r="L65" s="78"/>
@@ -12031,17 +12081,14 @@
     </row>
     <row r="66" spans="1:14" s="77" customFormat="1">
       <c r="A66" s="100">
-        <v>46022</v>
+        <v>45659</v>
       </c>
       <c r="B66" s="92" t="s">
-        <v>1618</v>
+        <v>128</v>
       </c>
       <c r="C66" s="106"/>
       <c r="E66" s="77">
-        <v>-3741</v>
-      </c>
-      <c r="F66" s="77">
-        <v>0</v>
+        <v>-470</v>
       </c>
       <c r="K66" s="78"/>
       <c r="L66" s="78"/>
@@ -12050,14 +12097,14 @@
     </row>
     <row r="67" spans="1:14" s="77" customFormat="1">
       <c r="A67" s="100">
-        <v>46022</v>
+        <v>45660</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C67" s="106"/>
       <c r="E67" s="77">
-        <v>-560</v>
+        <v>-70</v>
       </c>
       <c r="K67" s="78"/>
       <c r="L67" s="78"/>
@@ -12066,14 +12113,14 @@
     </row>
     <row r="68" spans="1:14" s="90" customFormat="1">
       <c r="A68" s="100">
-        <v>45658</v>
+        <v>45660</v>
       </c>
       <c r="B68" s="92" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C68" s="106"/>
-      <c r="E68" s="90">
-        <v>-177.87</v>
+      <c r="D68" s="90">
+        <v>7885.34</v>
       </c>
       <c r="K68" s="78"/>
       <c r="L68" s="78"/>
@@ -12082,46 +12129,49 @@
     </row>
     <row r="69" spans="1:14" s="77" customFormat="1">
       <c r="A69" s="100">
-        <v>45658</v>
+        <v>45664</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="C69" s="106"/>
-      <c r="D69" s="77">
-        <v>69.13</v>
+      <c r="E69" s="77">
+        <v>-230</v>
       </c>
       <c r="K69" s="78"/>
       <c r="L69" s="78"/>
       <c r="M69" s="78"/>
       <c r="N69" s="78"/>
     </row>
-    <row r="70" spans="1:14" s="77" customFormat="1">
+    <row r="70" spans="1:14" s="90" customFormat="1">
       <c r="A70" s="100">
-        <v>45659</v>
+        <v>45666</v>
       </c>
       <c r="B70" s="92" t="s">
-        <v>128</v>
+        <v>1621</v>
       </c>
       <c r="C70" s="106"/>
-      <c r="E70" s="77">
-        <v>-470</v>
+      <c r="E70" s="90">
+        <v>-70</v>
       </c>
       <c r="K70" s="78"/>
       <c r="L70" s="78"/>
       <c r="M70" s="78"/>
       <c r="N70" s="78"/>
     </row>
-    <row r="71" spans="1:14" s="77" customFormat="1">
+    <row r="71" spans="1:14" s="90" customFormat="1">
       <c r="A71" s="100">
-        <v>45660</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>1621</v>
+        <v>45667</v>
+      </c>
+      <c r="B71" s="92" t="s">
+        <v>1623</v>
       </c>
       <c r="C71" s="106"/>
-      <c r="E71" s="77">
-        <v>-70</v>
+      <c r="E71" s="90">
+        <v>-1000</v>
+      </c>
+      <c r="F71" s="90">
+        <v>0</v>
       </c>
       <c r="K71" s="78"/>
       <c r="L71" s="78"/>
@@ -12130,30 +12180,30 @@
     </row>
     <row r="72" spans="1:14" s="90" customFormat="1">
       <c r="A72" s="100">
-        <v>45660</v>
+        <v>45667</v>
       </c>
       <c r="B72" s="92" t="s">
-        <v>130</v>
+        <v>1624</v>
       </c>
       <c r="C72" s="106"/>
-      <c r="D72" s="90">
-        <v>7885.34</v>
+      <c r="E72" s="90">
+        <v>-75</v>
       </c>
       <c r="K72" s="78"/>
       <c r="L72" s="78"/>
       <c r="M72" s="78"/>
       <c r="N72" s="78"/>
     </row>
-    <row r="73" spans="1:14" s="77" customFormat="1">
+    <row r="73" spans="1:14" s="90" customFormat="1">
       <c r="A73" s="100">
-        <v>45664</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>1622</v>
+        <v>45667</v>
+      </c>
+      <c r="B73" s="92" t="s">
+        <v>1625</v>
       </c>
       <c r="C73" s="106"/>
-      <c r="E73" s="77">
-        <v>-230</v>
+      <c r="E73" s="90">
+        <v>-400</v>
       </c>
       <c r="K73" s="78"/>
       <c r="L73" s="78"/>
@@ -12162,14 +12212,14 @@
     </row>
     <row r="74" spans="1:14" s="90" customFormat="1">
       <c r="A74" s="100">
-        <v>45666</v>
+        <v>45669</v>
       </c>
       <c r="B74" s="92" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
       <c r="C74" s="106"/>
       <c r="E74" s="90">
-        <v>-70</v>
+        <v>-2529.9699999999998</v>
       </c>
       <c r="K74" s="78"/>
       <c r="L74" s="78"/>
@@ -12178,49 +12228,46 @@
     </row>
     <row r="75" spans="1:14" s="90" customFormat="1">
       <c r="A75" s="100">
-        <v>45667</v>
+        <v>45669</v>
       </c>
       <c r="B75" s="92" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="C75" s="106"/>
       <c r="E75" s="90">
-        <v>-1000</v>
-      </c>
-      <c r="F75" s="90">
-        <v>0</v>
+        <v>-970</v>
       </c>
       <c r="K75" s="78"/>
       <c r="L75" s="78"/>
       <c r="M75" s="78"/>
       <c r="N75" s="78"/>
     </row>
-    <row r="76" spans="1:14" s="90" customFormat="1">
+    <row r="76" spans="1:14" s="77" customFormat="1">
       <c r="A76" s="100">
-        <v>45667</v>
+        <v>45669</v>
       </c>
       <c r="B76" s="92" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="C76" s="106"/>
-      <c r="E76" s="90">
-        <v>-75</v>
+      <c r="E76" s="77">
+        <v>-970</v>
       </c>
       <c r="K76" s="78"/>
       <c r="L76" s="78"/>
       <c r="M76" s="78"/>
       <c r="N76" s="78"/>
     </row>
-    <row r="77" spans="1:14" s="90" customFormat="1">
+    <row r="77" spans="1:14" s="77" customFormat="1">
       <c r="A77" s="100">
-        <v>45667</v>
-      </c>
-      <c r="B77" s="92" t="s">
-        <v>1625</v>
+        <v>45670</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1624</v>
       </c>
       <c r="C77" s="106"/>
-      <c r="E77" s="90">
-        <v>-400</v>
+      <c r="E77" s="77">
+        <v>-60</v>
       </c>
       <c r="K77" s="78"/>
       <c r="L77" s="78"/>
@@ -12229,14 +12276,17 @@
     </row>
     <row r="78" spans="1:14" s="90" customFormat="1">
       <c r="A78" s="100">
-        <v>45669</v>
+        <v>45672</v>
       </c>
       <c r="B78" s="92" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="C78" s="106"/>
       <c r="E78" s="90">
-        <v>-2529.9699999999998</v>
+        <v>-794</v>
+      </c>
+      <c r="F78" s="90">
+        <v>0</v>
       </c>
       <c r="K78" s="78"/>
       <c r="L78" s="78"/>
@@ -12245,46 +12295,49 @@
     </row>
     <row r="79" spans="1:14" s="90" customFormat="1">
       <c r="A79" s="100">
-        <v>45669</v>
+        <v>45672</v>
       </c>
       <c r="B79" s="92" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="C79" s="106"/>
       <c r="E79" s="90">
-        <v>-970</v>
+        <v>1762</v>
+      </c>
+      <c r="F79" s="90">
+        <v>0</v>
       </c>
       <c r="K79" s="78"/>
       <c r="L79" s="78"/>
       <c r="M79" s="78"/>
       <c r="N79" s="78"/>
     </row>
-    <row r="80" spans="1:14" s="77" customFormat="1">
+    <row r="80" spans="1:14" s="90" customFormat="1">
       <c r="A80" s="100">
-        <v>45669</v>
+        <v>45672</v>
       </c>
       <c r="B80" s="92" t="s">
-        <v>1628</v>
+        <v>1616</v>
       </c>
       <c r="C80" s="106"/>
-      <c r="E80" s="77">
-        <v>-970</v>
+      <c r="E80" s="90">
+        <v>-120</v>
       </c>
       <c r="K80" s="78"/>
       <c r="L80" s="78"/>
       <c r="M80" s="78"/>
       <c r="N80" s="78"/>
     </row>
-    <row r="81" spans="1:14" s="77" customFormat="1">
+    <row r="81" spans="1:14" s="90" customFormat="1">
       <c r="A81" s="100">
-        <v>45670</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>1624</v>
+        <v>45673</v>
+      </c>
+      <c r="B81" s="92" t="s">
+        <v>1621</v>
       </c>
       <c r="C81" s="106"/>
-      <c r="E81" s="77">
-        <v>-60</v>
+      <c r="E81" s="90">
+        <v>-70</v>
       </c>
       <c r="K81" s="78"/>
       <c r="L81" s="78"/>
@@ -12293,17 +12346,14 @@
     </row>
     <row r="82" spans="1:14" s="90" customFormat="1">
       <c r="A82" s="100">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B82" s="92" t="s">
-        <v>1630</v>
+        <v>415</v>
       </c>
       <c r="C82" s="106"/>
       <c r="E82" s="90">
-        <v>-794</v>
-      </c>
-      <c r="F82" s="90">
-        <v>0</v>
+        <v>-385</v>
       </c>
       <c r="K82" s="78"/>
       <c r="L82" s="78"/>
@@ -12312,17 +12362,14 @@
     </row>
     <row r="83" spans="1:14" s="90" customFormat="1">
       <c r="A83" s="100">
-        <v>45672</v>
+        <v>45674</v>
       </c>
       <c r="B83" s="92" t="s">
-        <v>1629</v>
+        <v>135</v>
       </c>
       <c r="C83" s="106"/>
       <c r="E83" s="90">
-        <v>1762</v>
-      </c>
-      <c r="F83" s="90">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K83" s="78"/>
       <c r="L83" s="78"/>
@@ -12331,14 +12378,14 @@
     </row>
     <row r="84" spans="1:14" s="90" customFormat="1">
       <c r="A84" s="100">
-        <v>45672</v>
+        <v>45677</v>
       </c>
       <c r="B84" s="92" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="C84" s="106"/>
       <c r="E84" s="90">
-        <v>-120</v>
+        <v>-230</v>
       </c>
       <c r="K84" s="78"/>
       <c r="L84" s="78"/>
@@ -12347,14 +12394,14 @@
     </row>
     <row r="85" spans="1:14" s="90" customFormat="1">
       <c r="A85" s="100">
-        <v>45673</v>
+        <v>45677</v>
       </c>
       <c r="B85" s="92" t="s">
-        <v>1621</v>
+        <v>128</v>
       </c>
       <c r="C85" s="106"/>
       <c r="E85" s="90">
-        <v>-70</v>
+        <v>-174.5</v>
       </c>
       <c r="K85" s="78"/>
       <c r="L85" s="78"/>
@@ -12363,30 +12410,23 @@
     </row>
     <row r="86" spans="1:14" s="90" customFormat="1">
       <c r="A86" s="100">
-        <v>45673</v>
+        <v>45678</v>
       </c>
       <c r="B86" s="92" t="s">
-        <v>415</v>
+        <v>1631</v>
       </c>
       <c r="C86" s="106"/>
       <c r="E86" s="90">
-        <v>-385</v>
+        <v>-120</v>
       </c>
       <c r="K86" s="78"/>
       <c r="L86" s="78"/>
       <c r="M86" s="78"/>
       <c r="N86" s="78"/>
     </row>
-    <row r="87" spans="1:14" s="90" customFormat="1">
-      <c r="A87" s="100">
-        <v>45674</v>
-      </c>
-      <c r="B87" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="C87" s="106"/>
-      <c r="E87" s="90">
-        <v>-100</v>
+    <row r="87" spans="1:14" s="90" customFormat="1" ht="15">
+      <c r="E87" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="K87" s="78"/>
       <c r="L87" s="78"/>
@@ -12394,89 +12434,68 @@
       <c r="N87" s="78"/>
     </row>
     <row r="88" spans="1:14" s="90" customFormat="1">
-      <c r="A88" s="100">
-        <v>45677</v>
-      </c>
-      <c r="B88" s="92" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C88" s="106"/>
-      <c r="E88" s="90">
-        <v>-230</v>
-      </c>
       <c r="K88" s="78"/>
       <c r="L88" s="78"/>
       <c r="M88" s="78"/>
       <c r="N88" s="78"/>
     </row>
     <row r="89" spans="1:14" s="90" customFormat="1">
-      <c r="A89" s="100">
-        <v>45677</v>
-      </c>
-      <c r="B89" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="106"/>
-      <c r="E89" s="90">
-        <v>-174.5</v>
-      </c>
       <c r="K89" s="78"/>
       <c r="L89" s="78"/>
       <c r="M89" s="78"/>
       <c r="N89" s="78"/>
     </row>
     <row r="90" spans="1:14" s="90" customFormat="1">
-      <c r="A90" s="100">
-        <v>45678</v>
-      </c>
-      <c r="B90" s="92" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C90" s="106"/>
-      <c r="E90" s="90">
-        <v>-120</v>
-      </c>
       <c r="K90" s="78"/>
       <c r="L90" s="78"/>
       <c r="M90" s="78"/>
       <c r="N90" s="78"/>
     </row>
-    <row r="91" spans="1:14" s="90" customFormat="1" ht="15">
-      <c r="E91" s="105" t="s">
-        <v>84</v>
-      </c>
+    <row r="91" spans="1:14" s="90" customFormat="1">
       <c r="K91" s="78"/>
       <c r="L91" s="78"/>
       <c r="M91" s="78"/>
       <c r="N91" s="78"/>
     </row>
     <row r="92" spans="1:14" s="90" customFormat="1">
+      <c r="A92" s="100"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="106"/>
       <c r="K92" s="78"/>
       <c r="L92" s="78"/>
       <c r="M92" s="78"/>
       <c r="N92" s="78"/>
     </row>
-    <row r="93" spans="1:14" s="90" customFormat="1">
+    <row r="93" spans="1:14" s="77" customFormat="1">
+      <c r="A93" s="100"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="106"/>
       <c r="K93" s="78"/>
       <c r="L93" s="78"/>
       <c r="M93" s="78"/>
       <c r="N93" s="78"/>
     </row>
-    <row r="94" spans="1:14" s="90" customFormat="1">
+    <row r="94" spans="1:14" s="77" customFormat="1">
+      <c r="A94" s="100"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="106"/>
       <c r="K94" s="78"/>
       <c r="L94" s="78"/>
       <c r="M94" s="78"/>
       <c r="N94" s="78"/>
     </row>
-    <row r="95" spans="1:14" s="90" customFormat="1">
+    <row r="95" spans="1:14" s="77" customFormat="1">
+      <c r="A95" s="100"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="106"/>
       <c r="K95" s="78"/>
       <c r="L95" s="78"/>
       <c r="M95" s="78"/>
       <c r="N95" s="78"/>
     </row>
-    <row r="96" spans="1:14" s="90" customFormat="1">
+    <row r="96" spans="1:14" s="77" customFormat="1">
       <c r="A96" s="100"/>
-      <c r="B96" s="92"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="106"/>
       <c r="K96" s="78"/>
       <c r="L96" s="78"/>
@@ -12492,866 +12511,943 @@
       <c r="M97" s="78"/>
       <c r="N97" s="78"/>
     </row>
-    <row r="98" spans="1:14" s="77" customFormat="1">
+    <row r="98" spans="1:14">
       <c r="A98" s="100"/>
       <c r="B98" s="3"/>
       <c r="C98" s="106"/>
-      <c r="K98" s="78"/>
-      <c r="L98" s="78"/>
-      <c r="M98" s="78"/>
-      <c r="N98" s="78"/>
-    </row>
-    <row r="99" spans="1:14" s="77" customFormat="1">
-      <c r="A99" s="100"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="106"/>
-      <c r="K99" s="78"/>
-      <c r="L99" s="78"/>
-      <c r="M99" s="78"/>
-      <c r="N99" s="78"/>
-    </row>
-    <row r="100" spans="1:14" s="77" customFormat="1">
-      <c r="A100" s="100"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="106"/>
-      <c r="K100" s="78"/>
-      <c r="L100" s="78"/>
-      <c r="M100" s="78"/>
-      <c r="N100" s="78"/>
-    </row>
-    <row r="101" spans="1:14" s="77" customFormat="1">
-      <c r="A101" s="100"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="106"/>
-      <c r="K101" s="78"/>
-      <c r="L101" s="78"/>
-      <c r="M101" s="78"/>
-      <c r="N101" s="78"/>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" s="100"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="106"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
+      <c r="I98" s="77"/>
+      <c r="J98" s="77"/>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="113" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B112" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="103">
+        <v>2025</v>
+      </c>
+      <c r="D112" s="90"/>
+      <c r="E112" s="90"/>
+      <c r="F112" s="90"/>
+      <c r="G112" s="90">
+        <f>SUM(G116:G142)</f>
+        <v>1085262.9450000001</v>
+      </c>
+      <c r="H112" s="90"/>
+      <c r="I112" s="90"/>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="113"/>
+      <c r="B113" s="104"/>
+      <c r="C113" s="103"/>
+      <c r="D113" s="90"/>
+      <c r="E113" s="90"/>
+      <c r="F113" s="90"/>
+      <c r="G113" s="90"/>
+      <c r="H113" s="90"/>
+      <c r="I113" s="90"/>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="113"/>
+      <c r="B114" s="104"/>
+      <c r="C114" s="103"/>
+      <c r="D114" s="90"/>
+      <c r="E114" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="F114" s="90"/>
+      <c r="G114" s="90"/>
+      <c r="H114" s="90"/>
+      <c r="I114" s="90"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="100"/>
+      <c r="B115" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="90"/>
+      <c r="D115" s="90"/>
+      <c r="E115" s="90"/>
+      <c r="F115" s="90"/>
+      <c r="G115" s="90">
+        <v>0</v>
+      </c>
+      <c r="H115" s="90"/>
+      <c r="I115" s="90"/>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="113" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B116" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="C116" s="103">
-        <v>2025</v>
-      </c>
+      <c r="A116" s="100"/>
+      <c r="B116" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" s="90"/>
       <c r="D116" s="90"/>
       <c r="E116" s="90"/>
       <c r="F116" s="90"/>
       <c r="G116" s="90">
-        <f>SUM(G120:G146)</f>
-        <v>1085203.191145</v>
+        <v>0</v>
       </c>
       <c r="H116" s="90"/>
       <c r="I116" s="90"/>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="113"/>
-      <c r="B117" s="104"/>
-      <c r="C117" s="103"/>
+      <c r="A117" s="100">
+        <v>45699</v>
+      </c>
+      <c r="B117" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117" s="90"/>
       <c r="D117" s="90"/>
       <c r="E117" s="90"/>
       <c r="F117" s="90"/>
-      <c r="G117" s="90"/>
+      <c r="G117" s="90">
+        <v>195330</v>
+      </c>
       <c r="H117" s="90"/>
       <c r="I117" s="90"/>
     </row>
     <row r="118" spans="1:14">
-      <c r="A118" s="113"/>
-      <c r="B118" s="104"/>
-      <c r="C118" s="103"/>
-      <c r="D118" s="90"/>
-      <c r="E118" s="90" t="s">
-        <v>138</v>
-      </c>
+      <c r="A118" s="100">
+        <v>45699</v>
+      </c>
+      <c r="B118" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="90"/>
       <c r="F118" s="90"/>
-      <c r="G118" s="90"/>
+      <c r="G118" s="17">
+        <v>25000</v>
+      </c>
       <c r="H118" s="90"/>
       <c r="I118" s="90"/>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="100"/>
       <c r="B119" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C119" s="90"/>
-      <c r="D119" s="90"/>
+        <v>141</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
       <c r="E119" s="90"/>
       <c r="F119" s="90"/>
-      <c r="G119" s="90">
-        <v>0</v>
-      </c>
+      <c r="G119" s="17"/>
       <c r="H119" s="90"/>
       <c r="I119" s="90"/>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="100"/>
-      <c r="B120" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="C120" s="90"/>
-      <c r="D120" s="90"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
       <c r="E120" s="90"/>
       <c r="F120" s="90"/>
-      <c r="G120" s="90">
-        <v>0</v>
-      </c>
+      <c r="G120" s="17"/>
       <c r="H120" s="90"/>
       <c r="I120" s="90"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" s="11" customFormat="1">
       <c r="A121" s="100">
-        <v>45699</v>
-      </c>
-      <c r="B121" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="C121" s="90"/>
-      <c r="D121" s="90"/>
-      <c r="E121" s="90"/>
-      <c r="F121" s="90"/>
-      <c r="G121" s="90">
-        <v>221330</v>
+        <v>45667</v>
+      </c>
+      <c r="B121" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="114">
+        <v>50</v>
+      </c>
+      <c r="D121" s="115">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E121" s="116">
+        <f t="shared" ref="E121" si="1">D121*C121</f>
+        <v>43613.183249999995</v>
+      </c>
+      <c r="F121" s="407">
+        <v>920</v>
+      </c>
+      <c r="G121" s="17">
+        <f t="shared" ref="G121" si="2">F121*C121</f>
+        <v>46000</v>
       </c>
       <c r="H121" s="90"/>
-      <c r="I121" s="90"/>
+      <c r="I121" s="90">
+        <f t="shared" ref="I121" si="3">G121-E121</f>
+        <v>2386.8167500000054</v>
+      </c>
+      <c r="K121" s="78"/>
+      <c r="L121" s="78"/>
+      <c r="M121" s="78"/>
+      <c r="N121" s="78"/>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="100">
-        <v>45699</v>
-      </c>
-      <c r="B122" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="90"/>
-      <c r="F122" s="90"/>
+        <v>45672</v>
+      </c>
+      <c r="B122" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C122" s="114">
+        <v>55</v>
+      </c>
+      <c r="D122" s="115">
+        <v>877.65409299999999</v>
+      </c>
+      <c r="E122" s="116">
+        <f t="shared" ref="E122:E125" si="4">D122*C122</f>
+        <v>48270.975115000001</v>
+      </c>
+      <c r="F122" s="407">
+        <f>F121</f>
+        <v>920</v>
+      </c>
       <c r="G122" s="17">
-        <v>5000</v>
+        <f t="shared" ref="G122:G125" si="5">F122*C122</f>
+        <v>50600</v>
       </c>
       <c r="H122" s="90"/>
-      <c r="I122" s="90"/>
+      <c r="I122" s="90">
+        <f t="shared" ref="I122:I125" si="6">G122-E122</f>
+        <v>2329.0248849999989</v>
+      </c>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="100"/>
-      <c r="B123" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="90"/>
-      <c r="F123" s="90"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="90"/>
-      <c r="I123" s="90"/>
-    </row>
-    <row r="124" spans="1:14">
-      <c r="A124" s="100"/>
-      <c r="B124" s="90"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="90"/>
-      <c r="F124" s="90"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="90"/>
-      <c r="I124" s="90"/>
-    </row>
-    <row r="125" spans="1:14" s="11" customFormat="1">
-      <c r="A125" s="100">
-        <v>45667</v>
-      </c>
-      <c r="B125" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C125" s="114">
-        <v>50</v>
-      </c>
-      <c r="D125" s="115">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E125" s="116">
-        <f t="shared" ref="E125" si="1">D125*C125</f>
-        <v>43613.183249999995</v>
-      </c>
-      <c r="F125" s="407">
-        <v>914.14564099999996</v>
-      </c>
-      <c r="G125" s="17">
-        <f t="shared" ref="G125" si="2">F125*C125</f>
-        <v>45707.282049999994</v>
-      </c>
-      <c r="H125" s="90"/>
-      <c r="I125" s="90">
-        <f t="shared" ref="I125" si="3">G125-E125</f>
-        <v>2094.0987999999998</v>
-      </c>
-      <c r="K125" s="78"/>
-      <c r="L125" s="78"/>
-      <c r="M125" s="78"/>
-      <c r="N125" s="78"/>
-    </row>
-    <row r="126" spans="1:14">
-      <c r="A126" s="100">
-        <v>45672</v>
-      </c>
-      <c r="B126" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C126" s="114">
-        <v>55</v>
-      </c>
-      <c r="D126" s="115">
-        <v>877.65409299999999</v>
-      </c>
-      <c r="E126" s="116">
-        <f t="shared" ref="E126:E129" si="4">D126*C126</f>
-        <v>48270.975115000001</v>
-      </c>
-      <c r="F126" s="407">
-        <f>F125</f>
-        <v>914.14564099999996</v>
-      </c>
-      <c r="G126" s="17">
-        <f t="shared" ref="G126:G129" si="5">F126*C126</f>
-        <v>50278.010255000001</v>
-      </c>
-      <c r="H126" s="90"/>
-      <c r="I126" s="90">
-        <f t="shared" ref="I126:I129" si="6">G126-E126</f>
-        <v>2007.03514</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="A127" s="100">
+      <c r="A123" s="100">
         <v>45680</v>
       </c>
-      <c r="B127" s="82" t="s">
+      <c r="B123" s="82" t="s">
         <v>1611</v>
       </c>
-      <c r="C127" s="114">
+      <c r="C123" s="114">
         <v>120</v>
       </c>
-      <c r="D127" s="115">
+      <c r="D123" s="115">
         <v>305</v>
       </c>
-      <c r="E127" s="116">
+      <c r="E123" s="116">
         <f t="shared" si="4"/>
         <v>36600</v>
       </c>
-      <c r="F127" s="90">
-        <v>325</v>
-      </c>
-      <c r="G127" s="17">
+      <c r="F123" s="90">
+        <v>310</v>
+      </c>
+      <c r="G123" s="17">
         <f t="shared" si="5"/>
-        <v>39000</v>
-      </c>
+        <v>37200</v>
+      </c>
+      <c r="H123" s="90"/>
+      <c r="I123" s="90">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="100">
+        <v>45620</v>
+      </c>
+      <c r="B124" s="82" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C124" s="114">
+        <v>4000</v>
+      </c>
+      <c r="D124" s="114">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="E124" s="116">
+        <f t="shared" si="4"/>
+        <v>130199.99999999999</v>
+      </c>
+      <c r="F124" s="90">
+        <v>36.31</v>
+      </c>
+      <c r="G124" s="17">
+        <f t="shared" si="5"/>
+        <v>145240</v>
+      </c>
+      <c r="H124" s="90"/>
+      <c r="I124" s="90">
+        <f t="shared" si="6"/>
+        <v>15040.000000000015</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="13.5" thickBot="1">
+      <c r="A125" s="100">
+        <v>45659</v>
+      </c>
+      <c r="B125" s="82" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C125" s="114">
+        <v>4000</v>
+      </c>
+      <c r="D125" s="115">
+        <v>30.86</v>
+      </c>
+      <c r="E125" s="116">
+        <f t="shared" si="4"/>
+        <v>123440</v>
+      </c>
+      <c r="F125" s="90">
+        <f>F124</f>
+        <v>36.31</v>
+      </c>
+      <c r="G125" s="17">
+        <f t="shared" si="5"/>
+        <v>145240</v>
+      </c>
+      <c r="H125" s="422">
+        <f>SUM(G121:G125)</f>
+        <v>424280</v>
+      </c>
+      <c r="I125" s="90">
+        <f t="shared" si="6"/>
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="13.5" thickBot="1">
+      <c r="A126" s="100"/>
+      <c r="B126" s="90"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="90">
+        <f>SUM(E121:E125)</f>
+        <v>382124.15836499998</v>
+      </c>
+      <c r="F126" s="90"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="117">
+        <f>(SUM(G121:G125))-(SUM(E121:E125))</f>
+        <v>42155.841635000019</v>
+      </c>
+      <c r="I126" s="117">
+        <f>SUM(I121:I125)</f>
+        <v>42155.841635000019</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="100"/>
+      <c r="B127" s="90"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="90"/>
+      <c r="F127" s="90"/>
+      <c r="G127" s="90"/>
       <c r="H127" s="90"/>
-      <c r="I127" s="90">
-        <f t="shared" si="6"/>
-        <v>2400</v>
-      </c>
+      <c r="I127" s="90"/>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="100">
-        <v>45620</v>
+        <v>45345</v>
       </c>
       <c r="B128" s="82" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C128" s="114">
-        <v>4000</v>
-      </c>
-      <c r="D128" s="114">
-        <v>32.549999999999997</v>
+        <v>144</v>
+      </c>
+      <c r="C128" s="118">
+        <v>125000</v>
+      </c>
+      <c r="D128" s="83">
+        <v>1.0399430000000001</v>
       </c>
       <c r="E128" s="116">
-        <f t="shared" si="4"/>
-        <v>130199.99999999999</v>
-      </c>
-      <c r="F128" s="90">
-        <v>35.58</v>
+        <f>D128*C128</f>
+        <v>129992.87500000001</v>
+      </c>
+      <c r="F128" s="119">
+        <v>0.76337699999999997</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="5"/>
-        <v>142320</v>
+        <f>F128*C128</f>
+        <v>95422.125</v>
       </c>
       <c r="H128" s="90"/>
       <c r="I128" s="90">
-        <f t="shared" si="6"/>
-        <v>12120.000000000015</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="13.5" thickBot="1">
+        <f t="shared" ref="I128:I132" si="7">G128-E128</f>
+        <v>-34570.750000000015</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="100">
-        <v>45659</v>
+        <v>45667</v>
       </c>
       <c r="B129" s="82" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C129" s="114">
-        <v>4000</v>
-      </c>
-      <c r="D129" s="115">
-        <v>30.86</v>
+        <v>1615</v>
+      </c>
+      <c r="C129" s="118">
+        <v>240</v>
+      </c>
+      <c r="D129" s="83">
+        <v>872.26366499999995</v>
       </c>
       <c r="E129" s="116">
-        <f t="shared" si="4"/>
-        <v>123440</v>
-      </c>
-      <c r="F129" s="90">
-        <f>F128</f>
-        <v>35.58</v>
+        <f>D129*C129</f>
+        <v>209343.27959999998</v>
+      </c>
+      <c r="F129" s="406">
+        <f>F122</f>
+        <v>920</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" si="5"/>
-        <v>142320</v>
-      </c>
-      <c r="H129" s="422">
-        <f>SUM(G125:G129)</f>
-        <v>419625.29230500001</v>
-      </c>
+        <f>F129*C129</f>
+        <v>220800</v>
+      </c>
+      <c r="H129" s="90"/>
       <c r="I129" s="90">
-        <f t="shared" si="6"/>
-        <v>18880</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A130" s="100"/>
-      <c r="B130" s="90"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="90">
-        <f>SUM(E125:E129)</f>
-        <v>382124.15836499998</v>
-      </c>
-      <c r="F130" s="90"/>
-      <c r="G130" s="17"/>
-      <c r="H130" s="117">
-        <f>(SUM(G125:G129))-(SUM(E125:E129))</f>
-        <v>37501.133940000029</v>
-      </c>
-      <c r="I130" s="117">
-        <f>SUM(I125:I129)</f>
-        <v>37501.133940000014</v>
+        <f t="shared" si="7"/>
+        <v>11456.72040000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="100">
+        <v>45400</v>
+      </c>
+      <c r="B130" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="114">
+        <v>10</v>
+      </c>
+      <c r="D130" s="83">
+        <v>135</v>
+      </c>
+      <c r="E130" s="116">
+        <f>D130*C130</f>
+        <v>1350</v>
+      </c>
+      <c r="F130" s="90">
+        <v>112.7</v>
+      </c>
+      <c r="G130" s="17">
+        <f>F130*C130</f>
+        <v>1127</v>
+      </c>
+      <c r="H130" s="90"/>
+      <c r="I130" s="90">
+        <f t="shared" si="7"/>
+        <v>-223</v>
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="100"/>
-      <c r="B131" s="90"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="90"/>
-      <c r="F131" s="90"/>
-      <c r="G131" s="90"/>
+      <c r="A131" s="100">
+        <v>45418</v>
+      </c>
+      <c r="B131" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131" s="114">
+        <v>38</v>
+      </c>
+      <c r="D131" s="83">
+        <v>30.5</v>
+      </c>
+      <c r="E131" s="116">
+        <f>D131*C131</f>
+        <v>1159</v>
+      </c>
+      <c r="F131" s="90">
+        <v>17.07</v>
+      </c>
+      <c r="G131" s="17">
+        <f>F131*C131</f>
+        <v>648.66</v>
+      </c>
       <c r="H131" s="90"/>
-      <c r="I131" s="90"/>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="I131" s="90">
+        <f t="shared" si="7"/>
+        <v>-510.34000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="13.5" thickBot="1">
       <c r="A132" s="100">
-        <v>45345</v>
+        <v>45418</v>
       </c>
       <c r="B132" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="C132" s="118">
-        <v>125000</v>
+        <v>147</v>
+      </c>
+      <c r="C132" s="114">
+        <v>26</v>
       </c>
       <c r="D132" s="83">
-        <v>1.0399430000000001</v>
+        <v>37.115000000000002</v>
       </c>
       <c r="E132" s="116">
         <f>D132*C132</f>
-        <v>129992.87500000001</v>
-      </c>
-      <c r="F132" s="119">
-        <v>0.76337699999999997</v>
+        <v>964.99</v>
+      </c>
+      <c r="F132" s="90">
+        <v>23.66</v>
       </c>
       <c r="G132" s="17">
         <f>F132*C132</f>
-        <v>95422.125</v>
-      </c>
-      <c r="H132" s="90"/>
+        <v>615.16</v>
+      </c>
+      <c r="H132" s="422">
+        <f>SUM(G128:G132)</f>
+        <v>318612.94499999995</v>
+      </c>
       <c r="I132" s="90">
-        <f t="shared" ref="I132:I136" si="7">G132-E132</f>
-        <v>-34570.750000000015</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="100">
-        <v>45667</v>
-      </c>
-      <c r="B133" s="82" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C133" s="118">
-        <v>240</v>
-      </c>
-      <c r="D133" s="83">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E133" s="116">
-        <f>D133*C133</f>
-        <v>209343.27959999998</v>
-      </c>
-      <c r="F133" s="406">
-        <f>F126</f>
-        <v>914.14564099999996</v>
-      </c>
-      <c r="G133" s="17">
-        <f>F133*C133</f>
-        <v>219394.95384</v>
-      </c>
-      <c r="H133" s="90"/>
-      <c r="I133" s="90">
         <f t="shared" si="7"/>
-        <v>10051.674240000022</v>
-      </c>
+        <v>-349.83000000000004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A133" s="100"/>
+      <c r="B133" s="90"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="90">
+        <f>SUM(E128:E132)</f>
+        <v>342810.1446</v>
+      </c>
+      <c r="F133" s="90"/>
+      <c r="G133" s="90"/>
+      <c r="H133" s="117">
+        <f>(SUM(G128:G132))-(SUM(E128:E132))</f>
+        <v>-24197.199600000051</v>
+      </c>
+      <c r="I133" s="90"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="100">
-        <v>45400</v>
-      </c>
-      <c r="B134" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="C134" s="114">
-        <v>10</v>
-      </c>
-      <c r="D134" s="83">
-        <v>135</v>
-      </c>
-      <c r="E134" s="116">
-        <f>D134*C134</f>
-        <v>1350</v>
-      </c>
-      <c r="F134" s="90">
-        <v>112.7</v>
-      </c>
-      <c r="G134" s="17">
-        <f>F134*C134</f>
-        <v>1127</v>
-      </c>
+      <c r="A134" s="100"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="90"/>
+      <c r="D134" s="90"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="90"/>
+      <c r="G134" s="90"/>
       <c r="H134" s="90"/>
-      <c r="I134" s="90">
-        <f t="shared" si="7"/>
-        <v>-223</v>
-      </c>
+      <c r="I134" s="90"/>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="100">
-        <v>45418</v>
+        <v>45509</v>
       </c>
       <c r="B135" s="82" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C135" s="114">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D135" s="83">
-        <v>30.5</v>
+        <v>2500</v>
       </c>
       <c r="E135" s="116">
         <f>D135*C135</f>
-        <v>1159</v>
+        <v>2500</v>
       </c>
       <c r="F135" s="90">
-        <v>17.07</v>
+        <v>3400</v>
       </c>
       <c r="G135" s="17">
-        <f>F135*C135</f>
-        <v>648.66</v>
+        <f>C135*F135</f>
+        <v>3400</v>
       </c>
       <c r="H135" s="90"/>
       <c r="I135" s="90">
-        <f t="shared" si="7"/>
-        <v>-510.34000000000003</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="13.5" thickBot="1">
+        <f t="shared" ref="I135:I137" si="8">G135-E135</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="100">
-        <v>45418</v>
+        <v>45509</v>
       </c>
       <c r="B136" s="82" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C136" s="114">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D136" s="83">
-        <v>37.115000000000002</v>
+        <v>4100</v>
       </c>
       <c r="E136" s="116">
         <f>D136*C136</f>
-        <v>964.99</v>
+        <v>65600</v>
       </c>
       <c r="F136" s="90">
-        <v>23.66</v>
+        <f>F135*1.73</f>
+        <v>5882</v>
       </c>
       <c r="G136" s="17">
-        <f>F136*C136</f>
-        <v>615.16</v>
-      </c>
-      <c r="H136" s="422">
-        <f>SUM(G132:G136)</f>
-        <v>317207.89883999992</v>
-      </c>
+        <f>C136*F136</f>
+        <v>94112</v>
+      </c>
+      <c r="H136" s="90"/>
       <c r="I136" s="90">
-        <f t="shared" si="7"/>
-        <v>-349.83000000000004</v>
+        <f t="shared" si="8"/>
+        <v>28512</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A137" s="100"/>
-      <c r="B137" s="90"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="90">
-        <f>SUM(E132:E136)</f>
-        <v>342810.1446</v>
-      </c>
-      <c r="F137" s="90"/>
-      <c r="G137" s="90"/>
-      <c r="H137" s="117">
-        <f>(SUM(G132:G136))-(SUM(E132:E136))</f>
-        <v>-25602.245760000078</v>
-      </c>
-      <c r="I137" s="90"/>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="A137" s="100">
+        <v>45509</v>
+      </c>
+      <c r="B137" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137" s="114">
+        <v>1</v>
+      </c>
+      <c r="D137" s="83">
+        <v>16200</v>
+      </c>
+      <c r="E137" s="116">
+        <f>D137*C137</f>
+        <v>16200</v>
+      </c>
+      <c r="F137" s="90">
+        <f>F136*4</f>
+        <v>23528</v>
+      </c>
+      <c r="G137" s="17">
+        <f>C137*F137</f>
+        <v>23528</v>
+      </c>
+      <c r="H137" s="422">
+        <f>SUM(G135:G137)</f>
+        <v>121040</v>
+      </c>
+      <c r="I137" s="90">
+        <f t="shared" si="8"/>
+        <v>7328</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="13.5" thickBot="1">
       <c r="A138" s="100"/>
       <c r="B138" s="90"/>
-      <c r="C138" s="90"/>
-      <c r="D138" s="90"/>
-      <c r="E138" s="17"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="90">
+        <f>SUM(E135:E137)</f>
+        <v>84300</v>
+      </c>
       <c r="F138" s="90"/>
       <c r="G138" s="90"/>
-      <c r="H138" s="90"/>
+      <c r="H138" s="117">
+        <f>(SUM(G135:G137))-(SUM(E135:E137))</f>
+        <v>36740</v>
+      </c>
       <c r="I138" s="90"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="100">
-        <v>45509</v>
-      </c>
-      <c r="B139" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C139" s="114">
-        <v>1</v>
-      </c>
-      <c r="D139" s="83">
-        <v>2500</v>
-      </c>
-      <c r="E139" s="116">
-        <f>D139*C139</f>
-        <v>2500</v>
-      </c>
-      <c r="F139" s="90">
-        <v>3400</v>
-      </c>
-      <c r="G139" s="17">
-        <f>C139*F139</f>
-        <v>3400</v>
-      </c>
+      <c r="A139" s="100"/>
+      <c r="B139" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" s="120">
+        <v>33.250599999999999</v>
+      </c>
+      <c r="D139" s="12"/>
+      <c r="E139" s="90"/>
+      <c r="F139" s="90"/>
+      <c r="G139" s="17"/>
       <c r="H139" s="90"/>
-      <c r="I139" s="90">
-        <f t="shared" ref="I139:I141" si="8">G139-E139</f>
-        <v>900</v>
-      </c>
+      <c r="I139" s="90"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="100">
-        <v>45509</v>
-      </c>
-      <c r="B140" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="C140" s="114">
-        <v>16</v>
-      </c>
-      <c r="D140" s="83">
-        <v>4100</v>
-      </c>
-      <c r="E140" s="116">
-        <f>D140*C140</f>
-        <v>65600</v>
-      </c>
-      <c r="F140" s="90">
-        <f>F139*1.73</f>
-        <v>5882</v>
-      </c>
-      <c r="G140" s="17">
-        <f>C140*F140</f>
-        <v>94112</v>
-      </c>
+      <c r="A140" s="100"/>
+      <c r="B140" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" s="120">
+        <v>36.854999999999997</v>
+      </c>
+      <c r="D140" s="12"/>
+      <c r="E140" s="90"/>
+      <c r="F140" s="90"/>
+      <c r="G140" s="17"/>
       <c r="H140" s="90"/>
-      <c r="I140" s="90">
-        <f t="shared" si="8"/>
-        <v>28512</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A141" s="100">
-        <v>45509</v>
-      </c>
-      <c r="B141" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="C141" s="114">
-        <v>1</v>
-      </c>
-      <c r="D141" s="83">
-        <v>16200</v>
-      </c>
-      <c r="E141" s="116">
-        <f>D141*C141</f>
-        <v>16200</v>
-      </c>
-      <c r="F141" s="90">
-        <f>F140*4</f>
-        <v>23528</v>
-      </c>
+      <c r="I140" s="90"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="100"/>
+      <c r="B141" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="90"/>
+      <c r="F141" s="90"/>
       <c r="G141" s="17">
-        <f>C141*F141</f>
-        <v>23528</v>
-      </c>
-      <c r="H141" s="422">
-        <f>SUM(G139:G141)</f>
-        <v>121040</v>
-      </c>
-      <c r="I141" s="90">
-        <f t="shared" si="8"/>
-        <v>7328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" s="90"/>
+      <c r="I141" s="90"/>
     </row>
     <row r="142" spans="1:9" ht="13.5" thickBot="1">
       <c r="A142" s="100"/>
-      <c r="B142" s="90"/>
+      <c r="B142" s="90" t="s">
+        <v>154</v>
+      </c>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
-      <c r="E142" s="90">
-        <f>SUM(E139:E141)</f>
-        <v>84300</v>
-      </c>
+      <c r="E142" s="90"/>
       <c r="F142" s="90"/>
-      <c r="G142" s="90"/>
-      <c r="H142" s="117">
-        <f>(SUM(G139:G141))-(SUM(E139:E141))</f>
-        <v>36740</v>
-      </c>
+      <c r="G142" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H142" s="90"/>
       <c r="I142" s="90"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" ht="13.5" thickBot="1">
       <c r="A143" s="100"/>
-      <c r="B143" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="C143" s="120">
-        <v>33.250599999999999</v>
-      </c>
-      <c r="D143" s="12"/>
-      <c r="E143" s="90"/>
-      <c r="F143" s="90"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="90"/>
+      <c r="B143" s="90"/>
+      <c r="C143" s="90"/>
+      <c r="D143" s="90"/>
+      <c r="E143" s="121"/>
+      <c r="F143" s="122"/>
+      <c r="G143" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="H143" s="436">
+        <f>H138+H133+H126</f>
+        <v>54698.642034999968</v>
+      </c>
       <c r="I143" s="90"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="100"/>
-      <c r="B144" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="C144" s="120">
-        <v>36.854999999999997</v>
-      </c>
-      <c r="D144" s="12"/>
+      <c r="B144" s="90"/>
+      <c r="C144" s="125"/>
+      <c r="D144" s="92"/>
       <c r="E144" s="90"/>
       <c r="F144" s="90"/>
-      <c r="G144" s="17"/>
+      <c r="G144" s="125"/>
       <c r="H144" s="90"/>
       <c r="I144" s="90"/>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="100"/>
-      <c r="B145" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
+      <c r="B145" s="90"/>
+      <c r="C145" s="125"/>
+      <c r="D145" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="E145" s="90"/>
       <c r="F145" s="90"/>
-      <c r="G145" s="17">
-        <v>0</v>
+      <c r="G145" s="9">
+        <f>SUM(G116:G142)</f>
+        <v>1085262.9450000001</v>
       </c>
       <c r="H145" s="90"/>
       <c r="I145" s="90"/>
     </row>
-    <row r="146" spans="1:14" ht="13.5" thickBot="1">
+    <row r="146" spans="1:14">
       <c r="A146" s="100"/>
-      <c r="B146" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
+      <c r="B146" s="90"/>
+      <c r="C146" s="126" t="str">
+        <f>A112</f>
+        <v>MART 2025 e</v>
+      </c>
+      <c r="D146" s="127" t="s">
+        <v>157</v>
+      </c>
       <c r="E146" s="90"/>
       <c r="F146" s="90"/>
-      <c r="G146" s="17">
-        <v>1000</v>
-      </c>
+      <c r="G146" s="128"/>
       <c r="H146" s="90"/>
       <c r="I146" s="90"/>
     </row>
-    <row r="147" spans="1:14" ht="13.5" thickBot="1">
+    <row r="147" spans="1:14" s="11" customFormat="1">
       <c r="A147" s="100"/>
       <c r="B147" s="90"/>
-      <c r="C147" s="90"/>
-      <c r="D147" s="90"/>
-      <c r="E147" s="121"/>
-      <c r="F147" s="122"/>
-      <c r="G147" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="H147" s="436">
-        <f>H142+H137+H130</f>
-        <v>48638.888179999951</v>
-      </c>
+      <c r="C147" s="126"/>
+      <c r="D147" s="127"/>
+      <c r="E147" s="90"/>
+      <c r="F147" s="90"/>
+      <c r="G147" s="128"/>
+      <c r="H147" s="90"/>
       <c r="I147" s="90"/>
-    </row>
-    <row r="148" spans="1:14">
+      <c r="K147" s="78"/>
+      <c r="L147" s="78"/>
+      <c r="M147" s="78"/>
+      <c r="N147" s="78"/>
+    </row>
+    <row r="148" spans="1:14" s="11" customFormat="1">
       <c r="A148" s="100"/>
       <c r="B148" s="90"/>
-      <c r="C148" s="125"/>
-      <c r="D148" s="92"/>
+      <c r="C148" s="126"/>
+      <c r="D148" s="127"/>
       <c r="E148" s="90"/>
       <c r="F148" s="90"/>
-      <c r="G148" s="125"/>
+      <c r="G148" s="128"/>
       <c r="H148" s="90"/>
       <c r="I148" s="90"/>
-    </row>
-    <row r="149" spans="1:14">
+      <c r="K148" s="78"/>
+      <c r="L148" s="78"/>
+      <c r="M148" s="78"/>
+      <c r="N148" s="78"/>
+    </row>
+    <row r="149" spans="1:14" s="11" customFormat="1">
       <c r="A149" s="100"/>
       <c r="B149" s="90"/>
-      <c r="C149" s="125"/>
-      <c r="D149" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="C149" s="126"/>
+      <c r="D149" s="127"/>
       <c r="E149" s="90"/>
       <c r="F149" s="90"/>
-      <c r="G149" s="9">
-        <f>SUM(G120:G146)</f>
-        <v>1085203.191145</v>
-      </c>
+      <c r="G149" s="128"/>
       <c r="H149" s="90"/>
       <c r="I149" s="90"/>
+      <c r="K149" s="78"/>
+      <c r="L149" s="78"/>
+      <c r="M149" s="78"/>
+      <c r="N149" s="78"/>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="100"/>
+      <c r="A150" s="90"/>
       <c r="B150" s="90"/>
-      <c r="C150" s="126" t="str">
-        <f>A116</f>
-        <v>MART 2025 e</v>
-      </c>
-      <c r="D150" s="127" t="s">
-        <v>157</v>
-      </c>
+      <c r="C150" s="90"/>
+      <c r="D150" s="90"/>
       <c r="E150" s="90"/>
       <c r="F150" s="90"/>
-      <c r="G150" s="128"/>
+      <c r="G150" s="90"/>
       <c r="H150" s="90"/>
       <c r="I150" s="90"/>
     </row>
-    <row r="151" spans="1:14" s="11" customFormat="1">
-      <c r="A151" s="100"/>
-      <c r="B151" s="90"/>
-      <c r="C151" s="126"/>
-      <c r="D151" s="127"/>
-      <c r="E151" s="90"/>
-      <c r="F151" s="90"/>
-      <c r="G151" s="128"/>
+    <row r="151" spans="1:14">
+      <c r="A151" s="100">
+        <v>45691</v>
+      </c>
+      <c r="B151" s="82" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C151" s="114"/>
+      <c r="D151" s="115">
+        <v>752.55561799999998</v>
+      </c>
+      <c r="E151" s="116">
+        <f>D151*C151</f>
+        <v>0</v>
+      </c>
+      <c r="F151" s="406">
+        <v>899.26057400000002</v>
+      </c>
+      <c r="G151" s="17">
+        <f>F151*C151</f>
+        <v>0</v>
+      </c>
       <c r="H151" s="90"/>
-      <c r="I151" s="90"/>
-      <c r="K151" s="78"/>
-      <c r="L151" s="78"/>
-      <c r="M151" s="78"/>
-      <c r="N151" s="78"/>
-    </row>
-    <row r="152" spans="1:14" s="11" customFormat="1">
-      <c r="A152" s="100"/>
-      <c r="B152" s="90"/>
-      <c r="C152" s="126"/>
-      <c r="D152" s="127"/>
-      <c r="E152" s="90"/>
-      <c r="F152" s="90"/>
-      <c r="G152" s="128"/>
-      <c r="H152" s="90"/>
-      <c r="I152" s="90"/>
-      <c r="K152" s="78"/>
-      <c r="L152" s="78"/>
-      <c r="M152" s="78"/>
-      <c r="N152" s="78"/>
-    </row>
-    <row r="153" spans="1:14" s="11" customFormat="1">
-      <c r="A153" s="100"/>
-      <c r="B153" s="90"/>
-      <c r="C153" s="126"/>
-      <c r="D153" s="127"/>
-      <c r="E153" s="90"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="128"/>
-      <c r="H153" s="90"/>
-      <c r="I153" s="90"/>
-      <c r="K153" s="78"/>
-      <c r="L153" s="78"/>
-      <c r="M153" s="78"/>
-      <c r="N153" s="78"/>
-    </row>
-    <row r="154" spans="1:14">
-      <c r="A154" s="90"/>
-      <c r="B154" s="90"/>
-      <c r="C154" s="90"/>
-      <c r="D154" s="90"/>
-      <c r="E154" s="90"/>
-      <c r="F154" s="90"/>
-      <c r="G154" s="90"/>
+      <c r="I151" s="90">
+        <f>G151-E151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="398">
+        <v>45680</v>
+      </c>
+      <c r="B152" s="399" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C152" s="400">
+        <v>-25</v>
+      </c>
+      <c r="D152" s="401">
+        <v>752.55561799999998</v>
+      </c>
+      <c r="E152" s="402">
+        <f>D152*C152</f>
+        <v>-18813.890449999999</v>
+      </c>
+      <c r="F152" s="403">
+        <v>899.26057400000002</v>
+      </c>
+      <c r="G152" s="404">
+        <f>F152*C152</f>
+        <v>-22481.514350000001</v>
+      </c>
+      <c r="H152" s="403"/>
+      <c r="I152" s="403">
+        <f>E152-G152</f>
+        <v>3667.6239000000023</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="398">
+        <v>45680</v>
+      </c>
+      <c r="B153" s="399" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C153" s="400"/>
+      <c r="D153" s="401"/>
+      <c r="E153" s="402">
+        <v>299.37</v>
+      </c>
+      <c r="F153" s="403"/>
+      <c r="G153" s="404"/>
+      <c r="H153" s="403"/>
+      <c r="I153" s="403">
+        <f>G153-E153</f>
+        <v>-299.37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" s="11" customFormat="1">
+      <c r="A154" s="100">
+        <v>45691</v>
+      </c>
+      <c r="B154" s="82" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C154" s="114"/>
+      <c r="D154" s="115">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E154" s="116">
+        <f>D154*C154</f>
+        <v>0</v>
+      </c>
+      <c r="F154" s="407">
+        <f>F160</f>
+        <v>907.06739800000003</v>
+      </c>
+      <c r="G154" s="17">
+        <f>F154*C154</f>
+        <v>0</v>
+      </c>
       <c r="H154" s="90"/>
-      <c r="I154" s="90"/>
+      <c r="I154" s="90">
+        <f>G154-E154</f>
+        <v>0</v>
+      </c>
+      <c r="K154" s="78"/>
+      <c r="L154" s="78"/>
+      <c r="M154" s="78"/>
+      <c r="N154" s="78"/>
     </row>
     <row r="155" spans="1:14">
-      <c r="A155" s="100">
-        <v>45691</v>
-      </c>
-      <c r="B155" s="82" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C155" s="114"/>
+      <c r="A155" s="398">
+        <v>45680</v>
+      </c>
+      <c r="B155" s="399" t="s">
+        <v>142</v>
+      </c>
+      <c r="C155" s="400">
+        <v>-9</v>
+      </c>
       <c r="D155" s="115">
-        <v>752.55561799999998</v>
-      </c>
-      <c r="E155" s="116">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E155" s="402">
         <f>D155*C155</f>
-        <v>0</v>
-      </c>
-      <c r="F155" s="406">
+        <v>-7850.372985</v>
+      </c>
+      <c r="F155" s="403">
         <v>899.26057400000002</v>
       </c>
-      <c r="G155" s="17">
+      <c r="G155" s="404">
         <f>F155*C155</f>
-        <v>0</v>
-      </c>
-      <c r="H155" s="90"/>
-      <c r="I155" s="90">
-        <f>G155-E155</f>
-        <v>0</v>
+        <v>-8093.3451660000001</v>
+      </c>
+      <c r="H155" s="403"/>
+      <c r="I155" s="403">
+        <f>E155-G155</f>
+        <v>242.97218100000009</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -13359,155 +13455,163 @@
         <v>45680</v>
       </c>
       <c r="B156" s="399" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C156" s="400">
+        <v>1614</v>
+      </c>
+      <c r="C156" s="400"/>
+      <c r="D156" s="401"/>
+      <c r="E156" s="402"/>
+      <c r="F156" s="403"/>
+      <c r="G156" s="404"/>
+      <c r="H156" s="403"/>
+      <c r="I156" s="403"/>
+    </row>
+    <row r="157" spans="1:14" s="11" customFormat="1">
+      <c r="A157" s="100">
+        <v>45692</v>
+      </c>
+      <c r="B157" s="82" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C157" s="114"/>
+      <c r="D157" s="115">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E157" s="116">
+        <f>D157*C157</f>
+        <v>0</v>
+      </c>
+      <c r="F157" s="407">
+        <v>900.29758900000002</v>
+      </c>
+      <c r="G157" s="17">
+        <f>F157*C157</f>
+        <v>0</v>
+      </c>
+      <c r="H157" s="90"/>
+      <c r="I157" s="90">
+        <f>G157-E157</f>
+        <v>0</v>
+      </c>
+      <c r="K157" s="78"/>
+      <c r="L157" s="78"/>
+      <c r="M157" s="78"/>
+      <c r="N157" s="78"/>
+    </row>
+    <row r="158" spans="1:14" s="11" customFormat="1">
+      <c r="A158" s="398">
+        <v>45692</v>
+      </c>
+      <c r="B158" s="399" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C158" s="400">
         <v>-25</v>
       </c>
-      <c r="D156" s="401">
-        <v>752.55561799999998</v>
-      </c>
-      <c r="E156" s="402">
-        <f>D156*C156</f>
-        <v>-18813.890449999999</v>
-      </c>
-      <c r="F156" s="403">
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G156" s="404">
-        <f>F156*C156</f>
-        <v>-22481.514350000001</v>
-      </c>
-      <c r="H156" s="403"/>
-      <c r="I156" s="403">
-        <f>E156-G156</f>
-        <v>3667.6239000000023</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
-      <c r="A157" s="398">
-        <v>45680</v>
-      </c>
-      <c r="B157" s="399" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C157" s="400"/>
-      <c r="D157" s="401"/>
-      <c r="E157" s="402">
-        <v>299.37</v>
-      </c>
-      <c r="F157" s="403"/>
-      <c r="G157" s="404"/>
-      <c r="H157" s="403"/>
-      <c r="I157" s="403">
-        <f>G157-E157</f>
-        <v>-299.37</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" s="11" customFormat="1">
-      <c r="A158" s="100">
-        <v>45691</v>
-      </c>
-      <c r="B158" s="82" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C158" s="114"/>
-      <c r="D158" s="115">
+      <c r="D158" s="401">
         <v>872.26366499999995</v>
       </c>
-      <c r="E158" s="116">
-        <f>D158*C158</f>
-        <v>0</v>
-      </c>
-      <c r="F158" s="407">
-        <f>F164</f>
-        <v>907.06739800000003</v>
-      </c>
-      <c r="G158" s="17">
-        <f>F158*C158</f>
-        <v>0</v>
-      </c>
-      <c r="H158" s="90"/>
-      <c r="I158" s="90">
-        <f>G158-E158</f>
-        <v>0</v>
+      <c r="E158" s="402">
+        <f t="shared" ref="E158" si="9">D158*C158</f>
+        <v>-21806.591624999997</v>
+      </c>
+      <c r="F158" s="426">
+        <v>900.29758900000002</v>
+      </c>
+      <c r="G158" s="404">
+        <f t="shared" ref="G158" si="10">F158*C158</f>
+        <v>-22507.439725</v>
+      </c>
+      <c r="H158" s="403"/>
+      <c r="I158" s="403">
+        <f>E158-G158</f>
+        <v>700.84810000000289</v>
       </c>
       <c r="K158" s="78"/>
       <c r="L158" s="78"/>
       <c r="M158" s="78"/>
       <c r="N158" s="78"/>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" s="11" customFormat="1">
       <c r="A159" s="398">
         <v>45680</v>
       </c>
       <c r="B159" s="399" t="s">
-        <v>142</v>
-      </c>
-      <c r="C159" s="400">
-        <v>-9</v>
-      </c>
-      <c r="D159" s="115">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E159" s="402">
-        <f>D159*C159</f>
-        <v>-7850.372985</v>
-      </c>
-      <c r="F159" s="403">
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G159" s="404">
-        <f>F159*C159</f>
-        <v>-8093.3451660000001</v>
-      </c>
+        <v>1614</v>
+      </c>
+      <c r="C159" s="400"/>
+      <c r="D159" s="401"/>
+      <c r="E159" s="402"/>
+      <c r="F159" s="403"/>
+      <c r="G159" s="404"/>
       <c r="H159" s="403"/>
       <c r="I159" s="403">
-        <f>E159-G159</f>
-        <v>242.97218100000009</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
-      <c r="A160" s="398">
-        <v>45680</v>
-      </c>
-      <c r="B160" s="399" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C160" s="400"/>
-      <c r="D160" s="401"/>
-      <c r="E160" s="402"/>
-      <c r="F160" s="403"/>
-      <c r="G160" s="404"/>
-      <c r="H160" s="403"/>
-      <c r="I160" s="403"/>
+        <v>-70.09</v>
+      </c>
+      <c r="K159" s="78"/>
+      <c r="L159" s="78"/>
+      <c r="M159" s="78"/>
+      <c r="N159" s="78"/>
+    </row>
+    <row r="160" spans="1:14" s="11" customFormat="1">
+      <c r="A160" s="100">
+        <v>45699</v>
+      </c>
+      <c r="B160" s="82" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C160" s="114"/>
+      <c r="D160" s="115">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E160" s="116">
+        <f>D160*C160</f>
+        <v>0</v>
+      </c>
+      <c r="F160" s="407">
+        <v>907.06739800000003</v>
+      </c>
+      <c r="G160" s="17">
+        <f>F160*C160</f>
+        <v>0</v>
+      </c>
+      <c r="H160" s="90"/>
+      <c r="I160" s="90">
+        <f>G160-E160</f>
+        <v>0</v>
+      </c>
+      <c r="K160" s="78"/>
+      <c r="L160" s="78"/>
+      <c r="M160" s="78"/>
+      <c r="N160" s="78"/>
     </row>
     <row r="161" spans="1:14" s="11" customFormat="1">
-      <c r="A161" s="100">
+      <c r="A161" s="398">
         <v>45692</v>
       </c>
-      <c r="B161" s="82" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C161" s="114"/>
-      <c r="D161" s="115">
+      <c r="B161" s="399" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C161" s="400">
+        <v>-21</v>
+      </c>
+      <c r="D161" s="401">
         <v>872.26366499999995</v>
       </c>
-      <c r="E161" s="116">
-        <f>D161*C161</f>
-        <v>0</v>
-      </c>
-      <c r="F161" s="407">
-        <v>900.29758900000002</v>
-      </c>
-      <c r="G161" s="17">
-        <f>F161*C161</f>
-        <v>0</v>
-      </c>
-      <c r="H161" s="90"/>
-      <c r="I161" s="90">
-        <f>G161-E161</f>
-        <v>0</v>
+      <c r="E161" s="402">
+        <f t="shared" ref="E161" si="11">D161*C161</f>
+        <v>-18317.536964999999</v>
+      </c>
+      <c r="F161" s="426">
+        <v>907.06739800000003</v>
+      </c>
+      <c r="G161" s="404">
+        <f t="shared" ref="G161" si="12">F161*C161</f>
+        <v>-19048.415358000002</v>
+      </c>
+      <c r="H161" s="403"/>
+      <c r="I161" s="403">
+        <f>E161-G161</f>
+        <v>730.87839300000269</v>
       </c>
       <c r="K161" s="78"/>
       <c r="L161" s="78"/>
@@ -13516,32 +13620,19 @@
     </row>
     <row r="162" spans="1:14" s="11" customFormat="1">
       <c r="A162" s="398">
-        <v>45692</v>
+        <v>45699</v>
       </c>
       <c r="B162" s="399" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C162" s="400">
-        <v>-25</v>
-      </c>
-      <c r="D162" s="401">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E162" s="402">
-        <f t="shared" ref="E162" si="9">D162*C162</f>
-        <v>-21806.591624999997</v>
-      </c>
-      <c r="F162" s="426">
-        <v>900.29758900000002</v>
-      </c>
-      <c r="G162" s="404">
-        <f t="shared" ref="G162" si="10">F162*C162</f>
-        <v>-22507.439725</v>
-      </c>
+        <v>1614</v>
+      </c>
+      <c r="C162" s="400"/>
+      <c r="D162" s="401"/>
+      <c r="E162" s="402"/>
+      <c r="F162" s="403"/>
+      <c r="G162" s="404"/>
       <c r="H162" s="403"/>
       <c r="I162" s="403">
-        <f>E162-G162</f>
-        <v>700.84810000000289</v>
+        <v>-73.09</v>
       </c>
       <c r="K162" s="78"/>
       <c r="L162" s="78"/>
@@ -13549,228 +13640,120 @@
       <c r="N162" s="78"/>
     </row>
     <row r="163" spans="1:14" s="11" customFormat="1">
-      <c r="A163" s="398">
-        <v>45680</v>
-      </c>
-      <c r="B163" s="399" t="s">
-        <v>1614</v>
-      </c>
+      <c r="A163" s="398"/>
+      <c r="B163" s="399"/>
       <c r="C163" s="400"/>
       <c r="D163" s="401"/>
       <c r="E163" s="402"/>
       <c r="F163" s="403"/>
       <c r="G163" s="404"/>
       <c r="H163" s="403"/>
-      <c r="I163" s="403">
-        <v>-70.09</v>
-      </c>
+      <c r="I163" s="403"/>
       <c r="K163" s="78"/>
       <c r="L163" s="78"/>
       <c r="M163" s="78"/>
       <c r="N163" s="78"/>
     </row>
     <row r="164" spans="1:14" s="11" customFormat="1">
-      <c r="A164" s="100">
-        <v>45699</v>
-      </c>
-      <c r="B164" s="82" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C164" s="114"/>
-      <c r="D164" s="115">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E164" s="116">
-        <f>D164*C164</f>
-        <v>0</v>
-      </c>
-      <c r="F164" s="407">
-        <v>907.06739800000003</v>
-      </c>
-      <c r="G164" s="17">
-        <f>F164*C164</f>
-        <v>0</v>
-      </c>
-      <c r="H164" s="90"/>
-      <c r="I164" s="90">
-        <f>G164-E164</f>
-        <v>0</v>
-      </c>
+      <c r="A164" s="398"/>
+      <c r="B164" s="399"/>
+      <c r="C164" s="400"/>
+      <c r="D164" s="401"/>
+      <c r="E164" s="402"/>
+      <c r="F164" s="403"/>
+      <c r="G164" s="404"/>
+      <c r="H164" s="403"/>
+      <c r="I164" s="403"/>
       <c r="K164" s="78"/>
       <c r="L164" s="78"/>
       <c r="M164" s="78"/>
       <c r="N164" s="78"/>
     </row>
-    <row r="165" spans="1:14" s="11" customFormat="1">
-      <c r="A165" s="398">
-        <v>45692</v>
-      </c>
-      <c r="B165" s="399" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C165" s="400">
-        <v>-21</v>
-      </c>
-      <c r="D165" s="401">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E165" s="402">
-        <f t="shared" ref="E165" si="11">D165*C165</f>
-        <v>-18317.536964999999</v>
-      </c>
-      <c r="F165" s="426">
-        <v>907.06739800000003</v>
-      </c>
-      <c r="G165" s="404">
-        <f t="shared" ref="G165" si="12">F165*C165</f>
-        <v>-19048.415358000002</v>
-      </c>
-      <c r="H165" s="403"/>
-      <c r="I165" s="403">
-        <f>E165-G165</f>
-        <v>730.87839300000269</v>
-      </c>
-      <c r="K165" s="78"/>
-      <c r="L165" s="78"/>
-      <c r="M165" s="78"/>
-      <c r="N165" s="78"/>
-    </row>
-    <row r="166" spans="1:14" s="11" customFormat="1">
-      <c r="A166" s="398">
-        <v>45699</v>
-      </c>
-      <c r="B166" s="399" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C166" s="400"/>
-      <c r="D166" s="401"/>
-      <c r="E166" s="402"/>
-      <c r="F166" s="403"/>
-      <c r="G166" s="404"/>
-      <c r="H166" s="403"/>
-      <c r="I166" s="403">
-        <v>-73.09</v>
-      </c>
-      <c r="K166" s="78"/>
-      <c r="L166" s="78"/>
-      <c r="M166" s="78"/>
-      <c r="N166" s="78"/>
-    </row>
-    <row r="167" spans="1:14" s="11" customFormat="1">
-      <c r="A167" s="398"/>
-      <c r="B167" s="399"/>
-      <c r="C167" s="400"/>
-      <c r="D167" s="401"/>
-      <c r="E167" s="402"/>
-      <c r="F167" s="403"/>
-      <c r="G167" s="404"/>
-      <c r="H167" s="403"/>
-      <c r="I167" s="403"/>
-      <c r="K167" s="78"/>
-      <c r="L167" s="78"/>
-      <c r="M167" s="78"/>
-      <c r="N167" s="78"/>
-    </row>
-    <row r="168" spans="1:14" s="11" customFormat="1">
-      <c r="A168" s="398"/>
-      <c r="B168" s="399"/>
-      <c r="C168" s="400"/>
-      <c r="D168" s="401"/>
-      <c r="E168" s="402"/>
-      <c r="F168" s="403"/>
-      <c r="G168" s="404"/>
-      <c r="H168" s="403"/>
-      <c r="I168" s="403"/>
-      <c r="K168" s="78"/>
-      <c r="L168" s="78"/>
-      <c r="M168" s="78"/>
-      <c r="N168" s="78"/>
-    </row>
-    <row r="170" spans="1:14">
-      <c r="I170" s="78">
-        <f>SUM(I156:I169)</f>
+    <row r="166" spans="1:14">
+      <c r="I166" s="78">
+        <f>SUM(I152:I165)</f>
         <v>4899.7725740000078</v>
       </c>
     </row>
-    <row r="177" spans="6:6">
-      <c r="F177" s="407">
+    <row r="173" spans="1:14">
+      <c r="F173" s="407">
         <v>900.29758900000002</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F139:F141 F163 F160 F156:F157">
+  <conditionalFormatting sqref="F135:F137 F159 F156 F152:F153">
     <cfRule type="cellIs" dxfId="22" priority="12" operator="lessThan">
-      <formula>D139</formula>
+      <formula>D135</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F134:F136">
+  <conditionalFormatting sqref="F130:F132">
     <cfRule type="cellIs" dxfId="21" priority="13" operator="lessThan">
-      <formula>D134</formula>
+      <formula>D130</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F129">
+  <conditionalFormatting sqref="F125">
     <cfRule type="cellIs" dxfId="20" priority="14" operator="lessThan">
-      <formula>D129</formula>
+      <formula>D125</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F128">
+  <conditionalFormatting sqref="F124">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThan">
-      <formula>D128</formula>
+      <formula>D124</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F164 F126">
+  <conditionalFormatting sqref="F160 F122">
     <cfRule type="cellIs" dxfId="18" priority="16" operator="lessThan">
-      <formula>D126</formula>
+      <formula>D122</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F127">
+  <conditionalFormatting sqref="F123">
     <cfRule type="cellIs" dxfId="17" priority="11" operator="lessThan">
-      <formula>D127</formula>
+      <formula>D123</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F167:F168">
+  <conditionalFormatting sqref="F163:F164">
     <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
-      <formula>D167</formula>
+      <formula>D163</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F154">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
+      <formula>D154</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F155">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="lessThan">
+      <formula>D155</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F157">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
+      <formula>D157</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F173">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
+      <formula>D173</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
       <formula>D158</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F159">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="lessThan">
-      <formula>D159</formula>
+  <conditionalFormatting sqref="F121">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+      <formula>D121</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F162">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+      <formula>D162</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>D161</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F177">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
-      <formula>D177</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F162">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
-      <formula>D162</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F125">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
-      <formula>D125</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F166">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
-      <formula>D166</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F165">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
-      <formula>D165</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
@@ -16517,7 +16500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
@@ -23980,11 +23963,11 @@
       </c>
       <c r="F4" s="32">
         <f>'02_25'!G2</f>
-        <v>-69456.33</v>
+        <v>-71847.72</v>
       </c>
       <c r="G4" s="33">
         <f t="shared" ref="G4:G14" si="1">E4+F4+G3</f>
-        <v>206579.68</v>
+        <v>204188.29</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="35" t="s">
@@ -24003,7 +23986,7 @@
       </c>
       <c r="M4" s="38"/>
       <c r="N4" s="8">
-        <f>'02_25'!E141/1000</f>
+        <f>'02_25'!E137/1000</f>
         <v>16.2</v>
       </c>
     </row>
@@ -24033,7 +24016,7 @@
       </c>
       <c r="G5" s="33">
         <f t="shared" si="1"/>
-        <v>176425.47999999998</v>
+        <v>174034.09000000003</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="35" t="s">
@@ -24076,7 +24059,7 @@
       </c>
       <c r="G6" s="33">
         <f t="shared" si="1"/>
-        <v>175435.69999999998</v>
+        <v>173044.31000000003</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="41" t="s">
@@ -24119,7 +24102,7 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>174445.91999999998</v>
+        <v>172054.53000000003</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="41" t="s">
@@ -24162,7 +24145,7 @@
       </c>
       <c r="G8" s="33">
         <f t="shared" si="1"/>
-        <v>173456.13999999998</v>
+        <v>171064.75000000003</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="35" t="s">
@@ -24208,7 +24191,7 @@
       </c>
       <c r="G9" s="33">
         <f t="shared" si="1"/>
-        <v>172466.36</v>
+        <v>170074.97000000003</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="35" t="s">
@@ -24257,7 +24240,7 @@
       </c>
       <c r="G10" s="33">
         <f t="shared" si="1"/>
-        <v>171476.58</v>
+        <v>169085.19000000003</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="35" t="s">
@@ -24303,7 +24286,7 @@
       </c>
       <c r="G11" s="33">
         <f t="shared" si="1"/>
-        <v>171476.58</v>
+        <v>169085.19000000003</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="35" t="s">
@@ -24352,7 +24335,7 @@
       </c>
       <c r="G12" s="33">
         <f t="shared" si="1"/>
-        <v>171476.58</v>
+        <v>169085.19000000003</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="35" t="s">
@@ -24401,7 +24384,7 @@
       </c>
       <c r="G13" s="33">
         <f t="shared" si="1"/>
-        <v>171476.58</v>
+        <v>169085.19000000003</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="35" t="s">
@@ -24450,7 +24433,7 @@
       </c>
       <c r="G14" s="33">
         <f t="shared" si="1"/>
-        <v>171476.58</v>
+        <v>169085.19000000003</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="44" t="s">
@@ -24495,11 +24478,11 @@
       </c>
       <c r="F15" s="33">
         <f>SUM(F3:F14)</f>
-        <v>-163578.30000000002</v>
+        <v>-165969.68999999997</v>
       </c>
       <c r="G15" s="33">
         <f>E15+F15</f>
-        <v>171476.58</v>
+        <v>169085.19000000003</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="48"/>
@@ -24539,11 +24522,11 @@
       </c>
       <c r="F16" s="55">
         <f>F15/A16</f>
-        <v>-13631.525000000001</v>
+        <v>-13830.807499999997</v>
       </c>
       <c r="G16" s="55">
         <f>G15/A16</f>
-        <v>14289.714999999998</v>
+        <v>14090.432500000003</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="57"/>
@@ -24588,7 +24571,7 @@
         <v>58</v>
       </c>
       <c r="E18" s="2">
-        <f>'01_25'!F32+'02_25'!F19+'02_25'!F30+'03_25'!F19+'04_25'!F41+'05_25'!F22+'06_25'!F19+'06_25'!F31+'04_25'!F15</f>
+        <f>'01_25'!F32+'02_25'!F14+'02_25'!F26+'03_25'!F19+'04_25'!F41+'05_25'!F22+'06_25'!F19+'06_25'!F31+'04_25'!F15</f>
         <v>15000</v>
       </c>
       <c r="J18" s="35"/>

--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE90C78-3E30-4923-9F34-47B3C1186D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E799B3DB-83ED-4D9A-8E73-B4EDECCF2BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4496" uniqueCount="1676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4509" uniqueCount="1681">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -5412,6 +5412,21 @@
   </si>
   <si>
     <t>ali demirel ihtar noter msrf için av. Emrullaha havale</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>EMRAR ARAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pide   </t>
+  </si>
+  <si>
+    <t>bahçe benzin</t>
+  </si>
+  <si>
+    <t>tantuni</t>
   </si>
 </sst>
 </file>
@@ -7070,12 +7085,12 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -9801,8 +9816,8 @@
   </sheetPr>
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -9843,7 +9858,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E33)</f>
-        <v>-76451.259999999995</v>
+        <v>-79968.849999999991</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F33)</f>
@@ -9851,11 +9866,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G33)</f>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9895,16 +9910,16 @@
       <c r="D7" s="430"/>
       <c r="E7" s="408">
         <f>E37</f>
-        <v>-18847.61</v>
+        <v>-19043.61</v>
       </c>
       <c r="F7" s="90"/>
       <c r="G7" s="90">
         <f>E7</f>
-        <v>-18847.61</v>
+        <v>-19043.61</v>
       </c>
       <c r="H7" s="77">
         <f t="shared" si="0"/>
-        <v>-18847.61</v>
+        <v>-19043.61</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9916,23 +9931,23 @@
       <c r="D8" s="430"/>
       <c r="E8" s="408">
         <f>E61</f>
-        <v>-11306.589999999998</v>
+        <v>-14628.179999999997</v>
       </c>
       <c r="F8" s="90"/>
       <c r="G8" s="90">
         <f>E8</f>
-        <v>-11306.589999999998</v>
+        <v>-14628.179999999997</v>
       </c>
       <c r="H8" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="G9" s="87"/>
       <c r="H9" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9946,7 +9961,7 @@
       </c>
       <c r="H10" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9960,7 +9975,7 @@
       </c>
       <c r="H11" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9974,7 +9989,7 @@
       </c>
       <c r="H12" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9984,7 +9999,7 @@
       <c r="E13" s="90"/>
       <c r="H13" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="78" customFormat="1">
@@ -9997,7 +10012,7 @@
       <c r="G14" s="77"/>
       <c r="H14" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -10016,7 +10031,7 @@
       <c r="G15" s="77"/>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="78" customFormat="1">
@@ -10033,7 +10048,7 @@
       <c r="G16" s="77"/>
       <c r="H16" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="78" customFormat="1">
@@ -10050,7 +10065,7 @@
       <c r="G17" s="77"/>
       <c r="H17" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="78" customFormat="1">
@@ -10067,7 +10082,7 @@
       <c r="G18" s="77"/>
       <c r="H18" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="94"/>
@@ -10088,7 +10103,7 @@
       <c r="G19" s="77"/>
       <c r="H19" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
       <c r="J19" s="94"/>
       <c r="K19" s="94"/>
@@ -10109,7 +10124,7 @@
       <c r="G20" s="77"/>
       <c r="H20" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
       <c r="J20" s="94"/>
       <c r="K20" s="94"/>
@@ -10130,7 +10145,7 @@
       <c r="G21" s="77"/>
       <c r="H21" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="94"/>
@@ -10147,7 +10162,7 @@
       <c r="G22" s="77"/>
       <c r="H22" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="94"/>
@@ -10164,7 +10179,7 @@
       <c r="G23" s="77"/>
       <c r="H23" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -10189,7 +10204,7 @@
       <c r="G24" s="77"/>
       <c r="H24" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -10210,7 +10225,7 @@
       <c r="G25" s="77"/>
       <c r="H25" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -10231,7 +10246,7 @@
       <c r="G26" s="77"/>
       <c r="H26" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -10248,7 +10263,7 @@
       <c r="G27" s="77"/>
       <c r="H27" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="78" customFormat="1">
@@ -10259,7 +10274,7 @@
       <c r="G28" s="77"/>
       <c r="H28" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -10269,7 +10284,7 @@
       <c r="C29" s="101"/>
       <c r="H29" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
       <c r="I29" s="78"/>
       <c r="J29" s="78"/>
@@ -10277,13 +10292,13 @@
     <row r="30" spans="1:13">
       <c r="H30" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="H31" s="77">
         <f t="shared" si="0"/>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="78" customFormat="1">
@@ -10333,7 +10348,7 @@
       <c r="C37" s="103"/>
       <c r="E37" s="77">
         <f>SUM(E38:E55)</f>
-        <v>-18847.61</v>
+        <v>-19043.61</v>
       </c>
       <c r="I37" s="77"/>
       <c r="J37" s="77"/>
@@ -10365,6 +10380,9 @@
       <c r="E39" s="90">
         <v>-989.78</v>
       </c>
+      <c r="F39" s="77">
+        <v>0</v>
+      </c>
       <c r="K39" s="78"/>
       <c r="L39" s="78"/>
       <c r="M39" s="78"/>
@@ -10380,6 +10398,9 @@
       <c r="E40" s="77">
         <v>-2820</v>
       </c>
+      <c r="F40" s="77">
+        <v>0</v>
+      </c>
       <c r="K40" s="78"/>
       <c r="L40" s="78"/>
       <c r="M40" s="78"/>
@@ -10395,6 +10416,9 @@
       <c r="E41" s="77">
         <v>-3196.34</v>
       </c>
+      <c r="F41" s="77">
+        <v>0</v>
+      </c>
       <c r="K41" s="78"/>
       <c r="L41" s="78"/>
       <c r="M41" s="78"/>
@@ -10410,6 +10434,9 @@
       <c r="C42" s="77"/>
       <c r="E42" s="77">
         <v>-467.95</v>
+      </c>
+      <c r="F42" s="77">
+        <v>0</v>
       </c>
       <c r="I42" s="77"/>
       <c r="J42" s="77"/>
@@ -10449,6 +10476,9 @@
       <c r="E45" s="77">
         <v>-1580</v>
       </c>
+      <c r="F45" s="77">
+        <v>0</v>
+      </c>
       <c r="K45" s="78"/>
       <c r="L45" s="78"/>
       <c r="M45" s="78"/>
@@ -10465,6 +10495,9 @@
       <c r="E46" s="77">
         <v>-1338</v>
       </c>
+      <c r="F46" s="77">
+        <v>0</v>
+      </c>
       <c r="K46" s="78"/>
       <c r="L46" s="78"/>
       <c r="M46" s="78"/>
@@ -10481,6 +10514,9 @@
       <c r="E47" s="77">
         <v>-1200</v>
       </c>
+      <c r="F47" s="77">
+        <v>0</v>
+      </c>
       <c r="K47" s="78"/>
       <c r="L47" s="78"/>
       <c r="M47" s="78"/>
@@ -10496,6 +10532,9 @@
       <c r="E48" s="77">
         <v>-1300.54</v>
       </c>
+      <c r="F48" s="77">
+        <v>0</v>
+      </c>
       <c r="K48" s="78"/>
       <c r="L48" s="78"/>
       <c r="M48" s="78"/>
@@ -10512,6 +10551,9 @@
       <c r="E49" s="77">
         <v>-3720</v>
       </c>
+      <c r="F49" s="77">
+        <v>0</v>
+      </c>
       <c r="K49" s="78"/>
       <c r="L49" s="78"/>
       <c r="M49" s="78"/>
@@ -10527,22 +10569,38 @@
       <c r="E50" s="77">
         <v>-2235</v>
       </c>
+      <c r="F50" s="77">
+        <v>0</v>
+      </c>
       <c r="K50" s="78"/>
       <c r="L50" s="78"/>
       <c r="M50" s="78"/>
       <c r="N50" s="78"/>
     </row>
     <row r="51" spans="1:14" s="90" customFormat="1">
-      <c r="A51" s="98"/>
-      <c r="B51" s="92"/>
+      <c r="A51" s="98">
+        <v>45703</v>
+      </c>
+      <c r="B51" s="92" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E51" s="90">
+        <v>-196</v>
+      </c>
+      <c r="F51" s="90">
+        <v>0</v>
+      </c>
       <c r="K51" s="78"/>
       <c r="L51" s="78"/>
       <c r="M51" s="78"/>
       <c r="N51" s="78"/>
     </row>
-    <row r="52" spans="1:14" s="90" customFormat="1">
+    <row r="52" spans="1:14" s="90" customFormat="1" ht="15">
       <c r="A52" s="98"/>
       <c r="B52" s="92"/>
+      <c r="E52" s="105" t="s">
+        <v>84</v>
+      </c>
       <c r="K52" s="78"/>
       <c r="L52" s="78"/>
       <c r="M52" s="78"/>
@@ -10588,11 +10646,8 @@
       <c r="M57" s="78"/>
       <c r="N57" s="78"/>
     </row>
-    <row r="58" spans="1:14" s="90" customFormat="1" ht="15">
+    <row r="58" spans="1:14" s="90" customFormat="1">
       <c r="A58" s="98"/>
-      <c r="B58" s="105" t="s">
-        <v>84</v>
-      </c>
       <c r="K58" s="78"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
@@ -10622,8 +10677,8 @@
       </c>
       <c r="C61" s="103"/>
       <c r="E61" s="77">
-        <f>SUM(E62:E92)</f>
-        <v>-11306.589999999998</v>
+        <f>SUM(E62:E95)</f>
+        <v>-14628.179999999997</v>
       </c>
       <c r="K61" s="78"/>
       <c r="L61" s="78"/>
@@ -10921,116 +10976,213 @@
       <c r="N82" s="78"/>
     </row>
     <row r="83" spans="1:14" s="77" customFormat="1">
-      <c r="A83" s="437"/>
+      <c r="A83" s="437">
+        <v>45699</v>
+      </c>
+      <c r="B83" s="77" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E83" s="77">
+        <v>-200</v>
+      </c>
       <c r="K83" s="78"/>
       <c r="L83" s="78"/>
       <c r="M83" s="78"/>
       <c r="N83" s="78"/>
     </row>
     <row r="84" spans="1:14" s="77" customFormat="1">
-      <c r="A84" s="437"/>
+      <c r="A84" s="437">
+        <v>45700</v>
+      </c>
+      <c r="B84" s="77" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E84" s="77">
+        <v>-70</v>
+      </c>
       <c r="K84" s="78"/>
       <c r="L84" s="78"/>
       <c r="M84" s="78"/>
       <c r="N84" s="78"/>
     </row>
     <row r="85" spans="1:14" s="77" customFormat="1">
-      <c r="A85" s="437"/>
+      <c r="A85" s="437">
+        <v>45701</v>
+      </c>
+      <c r="B85" s="77" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E85" s="77">
+        <v>-230</v>
+      </c>
       <c r="K85" s="78"/>
       <c r="L85" s="78"/>
       <c r="M85" s="78"/>
       <c r="N85" s="78"/>
     </row>
     <row r="86" spans="1:14" s="77" customFormat="1">
-      <c r="A86" s="437"/>
+      <c r="A86" s="437">
+        <v>45702</v>
+      </c>
+      <c r="B86" s="77" t="s">
+        <v>489</v>
+      </c>
+      <c r="E86" s="77">
+        <v>-250</v>
+      </c>
       <c r="K86" s="78"/>
       <c r="L86" s="78"/>
       <c r="M86" s="78"/>
       <c r="N86" s="78"/>
     </row>
     <row r="87" spans="1:14" s="77" customFormat="1">
-      <c r="A87" s="437"/>
+      <c r="A87" s="437">
+        <v>45703</v>
+      </c>
+      <c r="B87" s="77" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E87" s="77">
+        <v>-210</v>
+      </c>
       <c r="K87" s="78"/>
       <c r="L87" s="78"/>
       <c r="M87" s="78"/>
       <c r="N87" s="78"/>
     </row>
     <row r="88" spans="1:14" s="77" customFormat="1">
-      <c r="A88" s="98"/>
-      <c r="B88" s="3"/>
+      <c r="A88" s="98">
+        <v>45704</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="C88" s="106"/>
+      <c r="E88" s="77">
+        <v>-467.38</v>
+      </c>
       <c r="K88" s="78"/>
       <c r="L88" s="78"/>
       <c r="M88" s="78"/>
       <c r="N88" s="78"/>
     </row>
     <row r="89" spans="1:14" s="90" customFormat="1">
-      <c r="A89" s="98"/>
-      <c r="B89" s="92"/>
+      <c r="A89" s="98">
+        <v>45705</v>
+      </c>
+      <c r="B89" s="92" t="s">
+        <v>1679</v>
+      </c>
       <c r="C89" s="106"/>
+      <c r="E89" s="90">
+        <v>-350</v>
+      </c>
       <c r="K89" s="78"/>
       <c r="L89" s="78"/>
       <c r="M89" s="78"/>
       <c r="N89" s="78"/>
     </row>
     <row r="90" spans="1:14" s="90" customFormat="1">
-      <c r="A90" s="98"/>
+      <c r="A90" s="98">
+        <v>45704</v>
+      </c>
       <c r="B90" s="92"/>
       <c r="C90" s="106"/>
+      <c r="E90" s="90">
+        <v>-33</v>
+      </c>
       <c r="K90" s="78"/>
       <c r="L90" s="78"/>
       <c r="M90" s="78"/>
       <c r="N90" s="78"/>
     </row>
     <row r="91" spans="1:14" s="90" customFormat="1">
-      <c r="A91" s="98"/>
-      <c r="B91" s="92"/>
+      <c r="A91" s="98">
+        <v>45705</v>
+      </c>
+      <c r="B91" s="92" t="s">
+        <v>415</v>
+      </c>
       <c r="C91" s="106"/>
+      <c r="E91" s="90">
+        <v>-380</v>
+      </c>
       <c r="K91" s="78"/>
       <c r="L91" s="78"/>
       <c r="M91" s="78"/>
       <c r="N91" s="78"/>
     </row>
     <row r="92" spans="1:14" s="90" customFormat="1">
-      <c r="A92" s="98"/>
-      <c r="B92" s="92"/>
+      <c r="A92" s="98">
+        <v>45706</v>
+      </c>
+      <c r="B92" s="92" t="s">
+        <v>1621</v>
+      </c>
       <c r="C92" s="106"/>
+      <c r="E92" s="90">
+        <v>-400</v>
+      </c>
       <c r="K92" s="78"/>
       <c r="L92" s="78"/>
       <c r="M92" s="78"/>
       <c r="N92" s="78"/>
     </row>
     <row r="93" spans="1:14" s="90" customFormat="1">
-      <c r="A93" s="98"/>
-      <c r="B93" s="92"/>
+      <c r="A93" s="98">
+        <v>45706</v>
+      </c>
+      <c r="B93" s="92" t="s">
+        <v>128</v>
+      </c>
       <c r="C93" s="106"/>
+      <c r="E93" s="90">
+        <v>-215.21</v>
+      </c>
       <c r="K93" s="78"/>
       <c r="L93" s="78"/>
       <c r="M93" s="78"/>
       <c r="N93" s="78"/>
     </row>
     <row r="94" spans="1:14" s="77" customFormat="1">
-      <c r="A94" s="98"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="98">
+        <v>45709</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>1680</v>
+      </c>
       <c r="C94" s="106"/>
+      <c r="E94" s="77">
+        <v>-120</v>
+      </c>
       <c r="K94" s="78"/>
       <c r="L94" s="78"/>
       <c r="M94" s="78"/>
       <c r="N94" s="78"/>
     </row>
     <row r="95" spans="1:14" s="77" customFormat="1">
-      <c r="A95" s="98"/>
-      <c r="B95" s="3"/>
+      <c r="A95" s="98">
+        <v>45710</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="C95" s="106"/>
+      <c r="E95" s="77">
+        <v>-396</v>
+      </c>
       <c r="K95" s="78"/>
       <c r="L95" s="78"/>
       <c r="M95" s="78"/>
       <c r="N95" s="78"/>
     </row>
-    <row r="96" spans="1:14" s="77" customFormat="1">
+    <row r="96" spans="1:14" s="77" customFormat="1" ht="15">
       <c r="A96" s="98"/>
       <c r="B96" s="3"/>
       <c r="C96" s="106"/>
+      <c r="E96" s="105" t="s">
+        <v>84</v>
+      </c>
       <c r="K96" s="78"/>
       <c r="L96" s="78"/>
       <c r="M96" s="78"/>
@@ -11045,11 +11197,8 @@
       <c r="M97" s="78"/>
       <c r="N97" s="78"/>
     </row>
-    <row r="98" spans="1:14" s="77" customFormat="1" ht="15">
+    <row r="98" spans="1:14" s="77" customFormat="1">
       <c r="A98" s="98"/>
-      <c r="B98" s="105" t="s">
-        <v>84</v>
-      </c>
       <c r="C98" s="106"/>
       <c r="K98" s="78"/>
       <c r="L98" s="78"/>
@@ -11106,7 +11255,7 @@
   </sheetPr>
   <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
@@ -11330,7 +11479,7 @@
     </row>
     <row r="13" spans="1:14" s="11" customFormat="1">
       <c r="A13" s="414"/>
-      <c r="B13" s="442" t="s">
+      <c r="B13" s="440" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="418"/>
@@ -11418,10 +11567,10 @@
       <c r="A17" s="392">
         <v>45709</v>
       </c>
-      <c r="B17" s="443" t="s">
+      <c r="B17" s="441" t="s">
         <v>1675</v>
       </c>
-      <c r="C17" s="443"/>
+      <c r="C17" s="441"/>
       <c r="D17" s="388"/>
       <c r="E17" s="388"/>
       <c r="F17" s="388"/>
@@ -19009,10 +19158,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="440" t="s">
+      <c r="L1" s="442" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="440"/>
+      <c r="M1" s="442"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -19724,11 +19873,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="441">
+      <c r="L17" s="443">
         <f>L15+M15</f>
         <v>1080.7929879999999</v>
       </c>
-      <c r="M17" s="441"/>
+      <c r="M17" s="443"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
@@ -23845,10 +23994,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="440" t="s">
+      <c r="L1" s="442" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="440"/>
+      <c r="M1" s="442"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -24000,11 +24149,11 @@
       </c>
       <c r="C5" s="32">
         <f>'03_25'!E2</f>
-        <v>-76451.259999999995</v>
+        <v>-79968.849999999991</v>
       </c>
       <c r="D5" s="33">
         <f t="shared" si="0"/>
-        <v>251249.93999999994</v>
+        <v>247732.34999999998</v>
       </c>
       <c r="E5" s="32">
         <f>'03_25'!F2</f>
@@ -24012,11 +24161,11 @@
       </c>
       <c r="F5" s="32">
         <f>'03_25'!G2</f>
-        <v>-30154.199999999997</v>
+        <v>-33671.789999999994</v>
       </c>
       <c r="G5" s="33">
         <f t="shared" si="1"/>
-        <v>174034.09000000003</v>
+        <v>170516.5</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="35" t="s">
@@ -24047,7 +24196,7 @@
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
-        <v>218963.09999999995</v>
+        <v>215445.50999999998</v>
       </c>
       <c r="E6" s="32">
         <f>'04_25'!F2</f>
@@ -24059,7 +24208,7 @@
       </c>
       <c r="G6" s="33">
         <f t="shared" si="1"/>
-        <v>173044.31000000003</v>
+        <v>169526.72</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="41" t="s">
@@ -24090,7 +24239,7 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>188056.25999999995</v>
+        <v>184538.66999999998</v>
       </c>
       <c r="E7" s="32">
         <f>'05_25'!F2</f>
@@ -24102,7 +24251,7 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>172054.53000000003</v>
+        <v>168536.94</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="41" t="s">
@@ -24133,7 +24282,7 @@
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
-        <v>149649.41999999995</v>
+        <v>146131.82999999999</v>
       </c>
       <c r="E8" s="32">
         <f>'06_25'!F2</f>
@@ -24145,7 +24294,7 @@
       </c>
       <c r="G8" s="33">
         <f t="shared" si="1"/>
-        <v>171064.75000000003</v>
+        <v>167547.16</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="35" t="s">
@@ -24179,7 +24328,7 @@
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
-        <v>111242.57999999996</v>
+        <v>107724.98999999999</v>
       </c>
       <c r="E9" s="32">
         <f>'07_25'!F2</f>
@@ -24191,7 +24340,7 @@
       </c>
       <c r="G9" s="33">
         <f t="shared" si="1"/>
-        <v>170074.97000000003</v>
+        <v>166557.38</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="35" t="s">
@@ -24228,7 +24377,7 @@
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
-        <v>72835.739999999962</v>
+        <v>69318.149999999994</v>
       </c>
       <c r="E10" s="32">
         <f>'08_25'!F2</f>
@@ -24240,7 +24389,7 @@
       </c>
       <c r="G10" s="33">
         <f t="shared" si="1"/>
-        <v>169085.19000000003</v>
+        <v>165567.6</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="35" t="s">
@@ -24274,7 +24423,7 @@
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
-        <v>35418.679999999964</v>
+        <v>31901.089999999997</v>
       </c>
       <c r="E11" s="32">
         <f>'09_25'!F2</f>
@@ -24286,7 +24435,7 @@
       </c>
       <c r="G11" s="33">
         <f t="shared" si="1"/>
-        <v>169085.19000000003</v>
+        <v>165567.6</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="35" t="s">
@@ -24323,7 +24472,7 @@
       </c>
       <c r="D12" s="33">
         <f t="shared" si="0"/>
-        <v>-1998.3800000000338</v>
+        <v>-5515.9700000000012</v>
       </c>
       <c r="E12" s="32">
         <f>'10_25'!F2</f>
@@ -24335,7 +24484,7 @@
       </c>
       <c r="G12" s="33">
         <f t="shared" si="1"/>
-        <v>169085.19000000003</v>
+        <v>165567.6</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="35" t="s">
@@ -24372,7 +24521,7 @@
       </c>
       <c r="D13" s="33">
         <f t="shared" si="0"/>
-        <v>-39415.440000000031</v>
+        <v>-42933.03</v>
       </c>
       <c r="E13" s="32">
         <f>'11_25'!F2</f>
@@ -24384,7 +24533,7 @@
       </c>
       <c r="G13" s="33">
         <f t="shared" si="1"/>
-        <v>169085.19000000003</v>
+        <v>165567.6</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="35" t="s">
@@ -24421,7 +24570,7 @@
       </c>
       <c r="D14" s="33">
         <f t="shared" si="0"/>
-        <v>-76832.500000000029</v>
+        <v>-80350.09</v>
       </c>
       <c r="E14" s="32">
         <f>'12_25'!F2</f>
@@ -24433,7 +24582,7 @@
       </c>
       <c r="G14" s="33">
         <f t="shared" si="1"/>
-        <v>169085.19000000003</v>
+        <v>165567.6</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="44" t="s">
@@ -24466,11 +24615,11 @@
       </c>
       <c r="C15" s="33">
         <f>SUM(C3:C14)</f>
-        <v>-670496.5</v>
+        <v>-674014.08999999985</v>
       </c>
       <c r="D15" s="33">
         <f>B15+C15</f>
-        <v>-76832.5</v>
+        <v>-80350.089999999851</v>
       </c>
       <c r="E15" s="33">
         <f>SUM(E3:E14)</f>
@@ -24478,11 +24627,11 @@
       </c>
       <c r="F15" s="33">
         <f>SUM(F3:F14)</f>
-        <v>-165969.68999999997</v>
+        <v>-169487.28</v>
       </c>
       <c r="G15" s="33">
         <f>E15+F15</f>
-        <v>169085.19000000003</v>
+        <v>165567.6</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="48"/>
@@ -24513,7 +24662,7 @@
       </c>
       <c r="C16" s="55">
         <f>C15/A16</f>
-        <v>-55874.708333333336</v>
+        <v>-56167.840833333321</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55">
@@ -24522,11 +24671,11 @@
       </c>
       <c r="F16" s="55">
         <f>F15/A16</f>
-        <v>-13830.807499999997</v>
+        <v>-14123.94</v>
       </c>
       <c r="G16" s="55">
         <f>G15/A16</f>
-        <v>14090.432500000003</v>
+        <v>13797.300000000001</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="57"/>
@@ -24560,11 +24709,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="441">
+      <c r="L17" s="443">
         <f>L15+M15</f>
         <v>976.10596800000008</v>
       </c>
-      <c r="M17" s="441"/>
+      <c r="M17" s="443"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">

--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DFEDE3-C4D5-4C19-AC11-418A5A97B0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58C8404-8224-4C07-9FD4-C605CE307DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_25" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4557" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="1684">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -5433,6 +5433,9 @@
   </si>
   <si>
     <t>NİSAN 2025 e</t>
+  </si>
+  <si>
+    <t>vodafone 2240</t>
   </si>
 </sst>
 </file>
@@ -5465,7 +5468,7 @@
     <numFmt numFmtId="186" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="187" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
     <numFmt numFmtId="188" formatCode="0.000%"/>
-    <numFmt numFmtId="190" formatCode="0.000000_ ;[Red]\-0.000000\ "/>
+    <numFmt numFmtId="189" formatCode="0.000000_ ;[Red]\-0.000000\ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -7060,8 +7063,8 @@
     <xf numFmtId="4" fontId="3" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="3" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -7080,10 +7083,8 @@
     <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="3" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="189" fontId="3" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="46" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -7092,18 +7093,13 @@
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="172" fontId="3" fillId="43" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="23" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -7111,6 +7107,13 @@
     <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="16" fillId="43" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7145,7 +7148,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7158,7 +7161,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7181,7 +7184,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7194,7 +7197,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7207,7 +7210,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7220,7 +7223,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7233,7 +7236,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7246,7 +7249,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7259,7 +7262,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7272,7 +7275,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7285,7 +7288,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7298,7 +7301,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7311,7 +7314,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7324,7 +7327,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7337,7 +7340,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7350,7 +7353,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7363,7 +7366,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7376,7 +7379,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7389,7 +7392,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7402,7 +7405,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7415,7 +7418,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7428,7 +7431,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7441,7 +7444,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7454,7 +7457,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7467,7 +7470,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7480,7 +7483,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7493,7 +7496,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7506,7 +7509,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7519,7 +7522,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7532,7 +7535,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7545,7 +7548,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7558,7 +7561,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7571,7 +7574,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7584,7 +7587,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7597,7 +7600,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7610,7 +7613,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -10028,10 +10031,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -10048,7 +10051,7 @@
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="F1" s="77" t="s">
         <v>28</v>
       </c>
@@ -10059,315 +10062,300 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="435" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="433" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="79" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="77">
-        <f>SUM(D4:D33)</f>
+        <f>SUM(D4:D36)</f>
         <v>15000</v>
       </c>
       <c r="E2" s="77">
-        <f>SUM(E4:E33)</f>
-        <v>-79968.849999999991</v>
+        <f>SUM(E4:E36)</f>
+        <v>-79968.850000000006</v>
       </c>
       <c r="F2" s="77">
-        <f>SUM(F4:F33)</f>
+        <f>SUM(F4:F36)</f>
         <v>0</v>
       </c>
       <c r="G2" s="77">
-        <f>SUM(G4:G33)</f>
-        <v>-33671.789999999994</v>
+        <f>SUM(G4:G36)</f>
+        <v>-33885.039999999994</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-33671.789999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>-33885.039999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="B3" s="18"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="B4" s="41"/>
       <c r="H4" s="77">
-        <f t="shared" ref="H4:H31" si="0">H3+F4+G4</f>
+        <f t="shared" ref="H4:H34" si="0">H3+F4+G4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14" s="11" customFormat="1">
+      <c r="A5" s="98"/>
       <c r="B5" s="41"/>
-      <c r="H5" s="77">
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="436"/>
-      <c r="B6" s="426"/>
-      <c r="C6" s="408"/>
-      <c r="D6" s="406"/>
-      <c r="E6" s="406"/>
-      <c r="H6" s="77">
-        <f t="shared" si="0"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+    </row>
+    <row r="6" spans="1:14" s="11" customFormat="1">
+      <c r="A6" s="448">
+        <v>45718</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87">
+        <v>-213.25</v>
+      </c>
+      <c r="H6" s="90">
+        <f t="shared" si="0"/>
+        <v>-213.25</v>
+      </c>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+    </row>
+    <row r="7" spans="1:14" s="11" customFormat="1">
+      <c r="A7" s="448"/>
+      <c r="B7" s="177" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="436">
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="90">
+        <f t="shared" si="0"/>
+        <v>-213.25</v>
+      </c>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="98">
+        <v>45721</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90">
+        <v>-2117.06</v>
+      </c>
+      <c r="H8" s="90">
+        <f t="shared" si="0"/>
+        <v>-213.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="449">
+        <v>45722</v>
+      </c>
+      <c r="B9" s="450" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="441"/>
+      <c r="D9" s="406"/>
+      <c r="E9" s="406">
+        <f>E64</f>
+        <v>-14628.179999999997</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90">
+        <f>E9</f>
+        <v>-14628.179999999997</v>
+      </c>
+      <c r="H9" s="90">
+        <f t="shared" si="0"/>
+        <v>-14841.429999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="449">
         <v>45723</v>
       </c>
-      <c r="B7" s="426" t="s">
+      <c r="B10" s="450" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="427"/>
-      <c r="D7" s="428"/>
-      <c r="E7" s="406">
-        <f>E37</f>
+      <c r="C10" s="441"/>
+      <c r="D10" s="406"/>
+      <c r="E10" s="406">
+        <f>E40</f>
         <v>-19043.61</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90">
-        <f>E7</f>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90">
+        <f>E10</f>
         <v>-19043.61</v>
       </c>
-      <c r="H7" s="77">
-        <f t="shared" si="0"/>
-        <v>-19043.61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="436"/>
-      <c r="B8" s="426" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="427"/>
-      <c r="D8" s="428"/>
-      <c r="E8" s="406">
-        <f>E61</f>
-        <v>-14628.179999999997</v>
-      </c>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90">
-        <f>E8</f>
-        <v>-14628.179999999997</v>
-      </c>
-      <c r="H8" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="G9" s="87"/>
-      <c r="H9" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="98">
-        <v>45721</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90">
-        <v>-2117.06</v>
-      </c>
-      <c r="H10" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="98">
+      <c r="H10" s="90">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="H11" s="90">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="G12" s="87"/>
+      <c r="H12" s="90">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="H13" s="90">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="98">
         <v>45723</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B14" s="89" t="s">
         <v>1601</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90">
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90">
         <v>-17500</v>
       </c>
-      <c r="H11" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90">
-        <v>0</v>
-      </c>
-      <c r="H12" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="H13" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="78" customFormat="1">
-      <c r="A14" s="98"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10" s="78" customFormat="1">
-      <c r="A15" s="98"/>
-      <c r="B15" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90">
-        <v>-1000</v>
-      </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="78" customFormat="1">
-      <c r="A16" s="98"/>
-      <c r="B16" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="93"/>
+      <c r="H14" s="90">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="H15" s="90">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="90"/>
-      <c r="E16" s="90">
-        <v>-200</v>
-      </c>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
+      <c r="E16" s="90"/>
+      <c r="H16" s="90">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="78" customFormat="1">
       <c r="A17" s="98"/>
-      <c r="B17" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90">
-        <v>-200</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
-      <c r="H17" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
+      <c r="H17" s="90">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
     </row>
     <row r="18" spans="1:13" s="78" customFormat="1">
       <c r="A18" s="98"/>
-      <c r="B18" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="90">
-        <v>15000</v>
-      </c>
-      <c r="E18" s="90"/>
+      <c r="B18" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90">
+        <v>-1000</v>
+      </c>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
-      <c r="H18" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="96"/>
+      <c r="H18" s="90">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
     </row>
     <row r="19" spans="1:13" s="78" customFormat="1">
       <c r="A19" s="98"/>
-      <c r="B19" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="92"/>
+      <c r="B19" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="93"/>
       <c r="D19" s="90"/>
       <c r="E19" s="90">
-        <v>-7500</v>
+        <v>-200</v>
       </c>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
-      <c r="H19" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="96"/>
+      <c r="H19" s="90">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
     </row>
     <row r="20" spans="1:13" s="78" customFormat="1">
       <c r="A20" s="98"/>
-      <c r="B20" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="92"/>
+      <c r="B20" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="89"/>
       <c r="D20" s="90"/>
       <c r="E20" s="90">
-        <v>-7500</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="77"/>
       <c r="G20" s="77"/>
-      <c r="H20" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="96"/>
+      <c r="H20" s="90">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
     </row>
     <row r="21" spans="1:13" s="78" customFormat="1">
       <c r="A21" s="98"/>
       <c r="B21" s="92" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21" s="92"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90">
-        <v>-7500</v>
-      </c>
+      <c r="D21" s="90">
+        <v>15000</v>
+      </c>
+      <c r="E21" s="90"/>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
       <c r="H21" s="77">
         <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
+        <v>-33885.039999999994</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="94"/>
@@ -10376,15 +10364,19 @@
     </row>
     <row r="22" spans="1:13" s="78" customFormat="1">
       <c r="A22" s="98"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
+      <c r="B22" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90">
+        <v>-7500</v>
+      </c>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
       <c r="H22" s="77">
         <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
+        <v>-33885.039999999994</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="94"/>
@@ -10393,15 +10385,19 @@
     </row>
     <row r="23" spans="1:13" s="78" customFormat="1">
       <c r="A23" s="98"/>
-      <c r="B23" s="92"/>
+      <c r="B23" s="92" t="s">
+        <v>78</v>
+      </c>
       <c r="C23" s="92"/>
       <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
+      <c r="E23" s="90">
+        <v>-7500</v>
+      </c>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
       <c r="H23" s="77">
         <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
+        <v>-33885.039999999994</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -10409,24 +10405,20 @@
       <c r="M23" s="96"/>
     </row>
     <row r="24" spans="1:13" s="78" customFormat="1">
-      <c r="A24" s="98">
-        <v>45716</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77">
-        <v>-1380</v>
+      <c r="A24" s="98"/>
+      <c r="B24" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="92"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90">
+        <v>-7500</v>
       </c>
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
       <c r="H24" s="77">
         <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
+        <v>-33885.039999999994</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -10435,19 +10427,15 @@
     </row>
     <row r="25" spans="1:13" s="78" customFormat="1">
       <c r="A25" s="98"/>
-      <c r="B25" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="99"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="77"/>
-      <c r="E25" s="77">
-        <v>-600</v>
-      </c>
+      <c r="E25" s="77"/>
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
       <c r="H25" s="77">
         <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
+        <v>-33885.039999999994</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -10456,19 +10444,15 @@
     </row>
     <row r="26" spans="1:13" s="78" customFormat="1">
       <c r="A26" s="98"/>
-      <c r="B26" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77">
-        <v>-800</v>
-      </c>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
       <c r="H26" s="77">
         <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
+        <v>-33885.039999999994</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -10476,269 +10460,279 @@
       <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" s="78" customFormat="1">
-      <c r="A27" s="98"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="98">
+        <v>45716</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1605</v>
+      </c>
       <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
+      <c r="E27" s="77">
+        <v>-1380</v>
+      </c>
       <c r="F27" s="77"/>
       <c r="G27" s="77"/>
       <c r="H27" s="77">
         <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
+        <v>-33885.039999999994</v>
+      </c>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="96"/>
     </row>
     <row r="28" spans="1:13" s="78" customFormat="1">
       <c r="A28" s="98"/>
+      <c r="B28" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="99"/>
       <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
+      <c r="E28" s="77">
+        <v>-600</v>
+      </c>
       <c r="F28" s="77"/>
       <c r="G28" s="77"/>
       <c r="H28" s="77">
         <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="B29" s="101" t="s">
+        <v>-33885.039999999994</v>
+      </c>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="96"/>
+    </row>
+    <row r="29" spans="1:13" s="78" customFormat="1">
+      <c r="A29" s="98"/>
+      <c r="B29" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="99"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77">
+        <v>-800</v>
+      </c>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="96"/>
+    </row>
+    <row r="30" spans="1:13" s="78" customFormat="1">
+      <c r="A30" s="98"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="78" customFormat="1">
+      <c r="A31" s="98"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="H29" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="H30" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="H31" s="77">
-        <f t="shared" si="0"/>
-        <v>-33671.789999999994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="78" customFormat="1">
-      <c r="A33" s="98"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33"/>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="1:14" s="78" customFormat="1">
-      <c r="A34" s="98"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-    </row>
-    <row r="35" spans="1:14" s="77" customFormat="1">
-      <c r="A35" s="98"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-    </row>
-    <row r="36" spans="1:14" s="77" customFormat="1">
-      <c r="A36" s="435"/>
-      <c r="B36" s="102"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="437"/>
-      <c r="B37" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="103"/>
-      <c r="E37" s="77">
-        <f>SUM(E38:E55)</f>
-        <v>-19043.61</v>
-      </c>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
+      <c r="C32" s="101"/>
+      <c r="H32" s="77">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="H33" s="77">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="H34" s="77">
+        <f t="shared" si="0"/>
+        <v>-33885.039999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="78" customFormat="1">
+      <c r="A36" s="98"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:14" s="78" customFormat="1">
+      <c r="A37" s="98"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:14" s="77" customFormat="1">
       <c r="A38" s="98"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="I38"/>
-      <c r="J38"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
       <c r="K38" s="78"/>
       <c r="L38" s="78"/>
       <c r="M38" s="78"/>
       <c r="N38" s="78"/>
     </row>
     <row r="39" spans="1:14" s="77" customFormat="1">
-      <c r="A39" s="98">
-        <v>45715</v>
-      </c>
-      <c r="B39" s="90" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C39" s="90">
-        <v>5938.7</v>
-      </c>
-      <c r="D39" s="90" t="s">
-        <v>700</v>
-      </c>
-      <c r="E39" s="90">
-        <v>-989.78</v>
-      </c>
-      <c r="F39" s="77">
-        <v>0</v>
-      </c>
+      <c r="A39" s="433"/>
+      <c r="B39" s="102"/>
       <c r="K39" s="78"/>
       <c r="L39" s="78"/>
       <c r="M39" s="78"/>
       <c r="N39" s="78"/>
     </row>
-    <row r="40" spans="1:14" s="77" customFormat="1">
-      <c r="A40" s="98">
-        <v>45715</v>
-      </c>
-      <c r="B40" s="77" t="s">
-        <v>1639</v>
-      </c>
+    <row r="40" spans="1:14">
+      <c r="A40" s="434"/>
+      <c r="B40" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="103"/>
       <c r="E40" s="77">
-        <v>-2820</v>
-      </c>
-      <c r="F40" s="77">
-        <v>0</v>
-      </c>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
+        <f>SUM(E41:E58)</f>
+        <v>-19043.61</v>
+      </c>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
     </row>
     <row r="41" spans="1:14" s="77" customFormat="1">
-      <c r="A41" s="98">
-        <v>45715</v>
-      </c>
-      <c r="B41" s="77" t="s">
-        <v>1641</v>
-      </c>
-      <c r="E41" s="77">
-        <v>-3196.34</v>
-      </c>
-      <c r="F41" s="77">
-        <v>0</v>
-      </c>
+      <c r="A41" s="98"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="I41"/>
+      <c r="J41"/>
       <c r="K41" s="78"/>
       <c r="L41" s="78"/>
       <c r="M41" s="78"/>
       <c r="N41" s="78"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" s="77" customFormat="1">
       <c r="A42" s="98">
         <v>45715</v>
       </c>
       <c r="B42" s="90" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C42" s="77"/>
-      <c r="E42" s="77">
-        <v>-467.95</v>
+        <v>1645</v>
+      </c>
+      <c r="C42" s="90">
+        <v>5938.7</v>
+      </c>
+      <c r="D42" s="90" t="s">
+        <v>700</v>
+      </c>
+      <c r="E42" s="90">
+        <v>-989.78</v>
       </c>
       <c r="F42" s="77">
         <v>0</v>
       </c>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
     </row>
     <row r="43" spans="1:14" s="77" customFormat="1">
       <c r="A43" s="98">
         <v>45715</v>
       </c>
-      <c r="B43" s="90" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C43"/>
-      <c r="I43"/>
-      <c r="J43"/>
+      <c r="B43" s="77" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E43" s="77">
+        <v>-2820</v>
+      </c>
+      <c r="F43" s="77">
+        <v>0</v>
+      </c>
       <c r="K43" s="78"/>
       <c r="L43" s="78"/>
       <c r="M43" s="78"/>
       <c r="N43" s="78"/>
     </row>
     <row r="44" spans="1:14" s="77" customFormat="1">
-      <c r="A44" s="98"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
+      <c r="A44" s="98">
+        <v>45715</v>
+      </c>
+      <c r="B44" s="77" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E44" s="77">
+        <v>-3196.34</v>
+      </c>
+      <c r="F44" s="77">
+        <v>0</v>
+      </c>
       <c r="K44" s="78"/>
       <c r="L44" s="78"/>
       <c r="M44" s="78"/>
       <c r="N44" s="78"/>
     </row>
-    <row r="45" spans="1:14" s="77" customFormat="1">
+    <row r="45" spans="1:14">
       <c r="A45" s="98">
-        <v>45691</v>
-      </c>
-      <c r="B45" s="106" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C45" s="106"/>
+        <v>45715</v>
+      </c>
+      <c r="B45" s="90" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C45" s="77"/>
       <c r="E45" s="77">
-        <v>-1580</v>
+        <v>-467.95</v>
       </c>
       <c r="F45" s="77">
         <v>0</v>
       </c>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
     </row>
     <row r="46" spans="1:14" s="77" customFormat="1">
       <c r="A46" s="98">
-        <v>45691</v>
-      </c>
-      <c r="B46" s="107" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C46" s="106"/>
-      <c r="E46" s="77">
-        <v>-1338</v>
-      </c>
-      <c r="F46" s="77">
-        <v>0</v>
-      </c>
+        <v>45715</v>
+      </c>
+      <c r="B46" s="90" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C46"/>
+      <c r="I46"/>
+      <c r="J46"/>
       <c r="K46" s="78"/>
       <c r="L46" s="78"/>
       <c r="M46" s="78"/>
       <c r="N46" s="78"/>
     </row>
     <row r="47" spans="1:14" s="77" customFormat="1">
-      <c r="A47" s="98">
-        <v>45691</v>
-      </c>
-      <c r="B47" s="107" t="s">
-        <v>1659</v>
-      </c>
+      <c r="A47" s="98"/>
+      <c r="B47" s="106"/>
       <c r="C47" s="106"/>
-      <c r="E47" s="77">
-        <v>-1200</v>
-      </c>
-      <c r="F47" s="77">
-        <v>0</v>
-      </c>
       <c r="K47" s="78"/>
       <c r="L47" s="78"/>
       <c r="M47" s="78"/>
@@ -10748,11 +10742,12 @@
       <c r="A48" s="98">
         <v>45691</v>
       </c>
-      <c r="B48" s="107" t="s">
-        <v>1665</v>
-      </c>
+      <c r="B48" s="106" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C48" s="106"/>
       <c r="E48" s="77">
-        <v>-1300.54</v>
+        <v>-1580</v>
       </c>
       <c r="F48" s="77">
         <v>0</v>
@@ -10764,14 +10759,14 @@
     </row>
     <row r="49" spans="1:14" s="77" customFormat="1">
       <c r="A49" s="98">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="B49" s="107" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C49" s="106"/>
       <c r="E49" s="77">
-        <v>-3720</v>
+        <v>-1338</v>
       </c>
       <c r="F49" s="77">
         <v>0</v>
@@ -10783,13 +10778,14 @@
     </row>
     <row r="50" spans="1:14" s="77" customFormat="1">
       <c r="A50" s="98">
-        <v>45699</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>1673</v>
-      </c>
+        <v>45691</v>
+      </c>
+      <c r="B50" s="107" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C50" s="106"/>
       <c r="E50" s="77">
-        <v>-2235</v>
+        <v>-1200</v>
       </c>
       <c r="F50" s="77">
         <v>0</v>
@@ -10799,17 +10795,17 @@
       <c r="M50" s="78"/>
       <c r="N50" s="78"/>
     </row>
-    <row r="51" spans="1:14" s="90" customFormat="1">
+    <row r="51" spans="1:14" s="77" customFormat="1">
       <c r="A51" s="98">
-        <v>45703</v>
-      </c>
-      <c r="B51" s="92" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E51" s="90">
-        <v>-196</v>
-      </c>
-      <c r="F51" s="90">
+        <v>45691</v>
+      </c>
+      <c r="B51" s="107" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E51" s="77">
+        <v>-1300.54</v>
+      </c>
+      <c r="F51" s="77">
         <v>0</v>
       </c>
       <c r="K51" s="78"/>
@@ -10817,36 +10813,67 @@
       <c r="M51" s="78"/>
       <c r="N51" s="78"/>
     </row>
-    <row r="52" spans="1:14" s="90" customFormat="1" ht="15">
-      <c r="A52" s="98"/>
-      <c r="B52" s="92"/>
-      <c r="E52" s="105" t="s">
-        <v>84</v>
+    <row r="52" spans="1:14" s="77" customFormat="1">
+      <c r="A52" s="98">
+        <v>45689</v>
+      </c>
+      <c r="B52" s="107" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C52" s="106"/>
+      <c r="E52" s="77">
+        <v>-3720</v>
+      </c>
+      <c r="F52" s="77">
+        <v>0</v>
       </c>
       <c r="K52" s="78"/>
       <c r="L52" s="78"/>
       <c r="M52" s="78"/>
       <c r="N52" s="78"/>
     </row>
-    <row r="53" spans="1:14" s="90" customFormat="1">
-      <c r="A53" s="98"/>
-      <c r="B53" s="92"/>
+    <row r="53" spans="1:14" s="77" customFormat="1">
+      <c r="A53" s="98">
+        <v>45699</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E53" s="77">
+        <v>-2235</v>
+      </c>
+      <c r="F53" s="77">
+        <v>0</v>
+      </c>
       <c r="K53" s="78"/>
       <c r="L53" s="78"/>
       <c r="M53" s="78"/>
       <c r="N53" s="78"/>
     </row>
     <row r="54" spans="1:14" s="90" customFormat="1">
-      <c r="A54" s="98"/>
-      <c r="B54" s="92"/>
+      <c r="A54" s="98">
+        <v>45703</v>
+      </c>
+      <c r="B54" s="92" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E54" s="90">
+        <v>-196</v>
+      </c>
+      <c r="F54" s="90">
+        <v>0</v>
+      </c>
       <c r="K54" s="78"/>
       <c r="L54" s="78"/>
       <c r="M54" s="78"/>
       <c r="N54" s="78"/>
     </row>
-    <row r="55" spans="1:14" s="90" customFormat="1">
+    <row r="55" spans="1:14" s="90" customFormat="1" ht="15">
       <c r="A55" s="98"/>
       <c r="B55" s="92"/>
+      <c r="E55" s="105" t="s">
+        <v>84</v>
+      </c>
       <c r="K55" s="78"/>
       <c r="L55" s="78"/>
       <c r="M55" s="78"/>
@@ -10870,6 +10897,7 @@
     </row>
     <row r="58" spans="1:14" s="90" customFormat="1">
       <c r="A58" s="98"/>
+      <c r="B58" s="92"/>
       <c r="K58" s="78"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
@@ -10883,146 +10911,122 @@
       <c r="M59" s="78"/>
       <c r="N59" s="78"/>
     </row>
-    <row r="60" spans="1:14" s="77" customFormat="1">
+    <row r="60" spans="1:14" s="90" customFormat="1">
       <c r="A60" s="98"/>
-      <c r="B60" s="106"/>
-      <c r="C60" s="106"/>
+      <c r="B60" s="92"/>
       <c r="K60" s="78"/>
       <c r="L60" s="78"/>
       <c r="M60" s="78"/>
       <c r="N60" s="78"/>
     </row>
-    <row r="61" spans="1:14" s="77" customFormat="1">
-      <c r="A61" s="437"/>
-      <c r="B61" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="103"/>
-      <c r="E61" s="77">
-        <f>SUM(E62:E95)</f>
-        <v>-14628.179999999997</v>
-      </c>
+    <row r="61" spans="1:14" s="90" customFormat="1">
+      <c r="A61" s="98"/>
       <c r="K61" s="78"/>
       <c r="L61" s="78"/>
       <c r="M61" s="78"/>
       <c r="N61" s="78"/>
     </row>
-    <row r="62" spans="1:14" s="77" customFormat="1">
+    <row r="62" spans="1:14" s="90" customFormat="1">
       <c r="A62" s="98"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106"/>
+      <c r="B62" s="92"/>
       <c r="K62" s="78"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="1:14" s="77" customFormat="1">
-      <c r="A63" s="435"/>
-      <c r="F63" s="90"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="106"/>
       <c r="K63" s="78"/>
       <c r="L63" s="78"/>
       <c r="M63" s="78"/>
       <c r="N63" s="78"/>
     </row>
-    <row r="64" spans="1:14" s="90" customFormat="1">
-      <c r="A64" s="435">
-        <v>45692</v>
-      </c>
-      <c r="B64" s="90" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D64" s="90" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E64" s="90">
-        <v>-600.13</v>
+    <row r="64" spans="1:14" s="77" customFormat="1">
+      <c r="A64" s="434"/>
+      <c r="B64" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="103"/>
+      <c r="E64" s="77">
+        <f>SUM(E65:E98)</f>
+        <v>-14628.179999999997</v>
       </c>
       <c r="K64" s="78"/>
       <c r="L64" s="78"/>
       <c r="M64" s="78"/>
       <c r="N64" s="78"/>
     </row>
-    <row r="65" spans="1:14" s="90" customFormat="1">
-      <c r="A65" s="435">
-        <v>45692</v>
-      </c>
-      <c r="B65" s="90" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D65" s="90" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E65" s="90">
-        <v>-2500.3000000000002</v>
-      </c>
+    <row r="65" spans="1:14" s="77" customFormat="1">
+      <c r="A65" s="98"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
       <c r="K65" s="78"/>
       <c r="L65" s="78"/>
       <c r="M65" s="78"/>
       <c r="N65" s="78"/>
     </row>
-    <row r="66" spans="1:14" s="90" customFormat="1">
-      <c r="A66" s="435"/>
+    <row r="66" spans="1:14" s="77" customFormat="1">
+      <c r="A66" s="433"/>
+      <c r="F66" s="90"/>
       <c r="K66" s="78"/>
       <c r="L66" s="78"/>
       <c r="M66" s="78"/>
       <c r="N66" s="78"/>
     </row>
     <row r="67" spans="1:14" s="90" customFormat="1">
-      <c r="A67" s="435"/>
+      <c r="A67" s="433">
+        <v>45692</v>
+      </c>
+      <c r="B67" s="90" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D67" s="90" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E67" s="90">
+        <v>-600.13</v>
+      </c>
       <c r="K67" s="78"/>
       <c r="L67" s="78"/>
       <c r="M67" s="78"/>
       <c r="N67" s="78"/>
     </row>
     <row r="68" spans="1:14" s="90" customFormat="1">
-      <c r="A68" s="435"/>
+      <c r="A68" s="433">
+        <v>45692</v>
+      </c>
+      <c r="B68" s="90" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D68" s="90" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E68" s="90">
+        <v>-2500.3000000000002</v>
+      </c>
       <c r="K68" s="78"/>
       <c r="L68" s="78"/>
       <c r="M68" s="78"/>
       <c r="N68" s="78"/>
     </row>
     <row r="69" spans="1:14" s="90" customFormat="1">
-      <c r="A69" s="98">
-        <v>45681</v>
-      </c>
-      <c r="B69" s="92" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C69" s="106"/>
-      <c r="E69" s="90">
-        <v>-1798</v>
-      </c>
-      <c r="F69" s="77"/>
+      <c r="A69" s="433"/>
       <c r="K69" s="78"/>
       <c r="L69" s="78"/>
       <c r="M69" s="78"/>
       <c r="N69" s="78"/>
     </row>
     <row r="70" spans="1:14" s="90" customFormat="1">
-      <c r="A70" s="98"/>
-      <c r="B70" s="92" t="s">
-        <v>539</v>
-      </c>
-      <c r="C70" s="106"/>
-      <c r="E70" s="90">
-        <v>1.8</v>
-      </c>
+      <c r="A70" s="433"/>
       <c r="K70" s="78"/>
       <c r="L70" s="78"/>
       <c r="M70" s="78"/>
       <c r="N70" s="78"/>
     </row>
     <row r="71" spans="1:14" s="90" customFormat="1">
-      <c r="A71" s="98">
-        <v>45681</v>
-      </c>
-      <c r="B71" s="92" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C71" s="106"/>
-      <c r="E71" s="90">
-        <v>-700</v>
-      </c>
+      <c r="A71" s="433"/>
       <c r="K71" s="78"/>
       <c r="L71" s="78"/>
       <c r="M71" s="78"/>
@@ -11033,27 +11037,26 @@
         <v>45681</v>
       </c>
       <c r="B72" s="92" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C72" s="106"/>
       <c r="E72" s="90">
-        <v>-120</v>
-      </c>
+        <v>-1798</v>
+      </c>
+      <c r="F72" s="77"/>
       <c r="K72" s="78"/>
       <c r="L72" s="78"/>
       <c r="M72" s="78"/>
       <c r="N72" s="78"/>
     </row>
     <row r="73" spans="1:14" s="90" customFormat="1">
-      <c r="A73" s="98">
-        <v>45682</v>
-      </c>
+      <c r="A73" s="98"/>
       <c r="B73" s="92" t="s">
-        <v>1620</v>
+        <v>539</v>
       </c>
       <c r="C73" s="106"/>
       <c r="E73" s="90">
-        <v>-70</v>
+        <v>1.8</v>
       </c>
       <c r="K73" s="78"/>
       <c r="L73" s="78"/>
@@ -11062,14 +11065,14 @@
     </row>
     <row r="74" spans="1:14" s="90" customFormat="1">
       <c r="A74" s="98">
-        <v>45682</v>
+        <v>45681</v>
       </c>
       <c r="B74" s="92" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C74" s="106"/>
       <c r="E74" s="90">
-        <v>-699.99</v>
+        <v>-700</v>
       </c>
       <c r="K74" s="78"/>
       <c r="L74" s="78"/>
@@ -11078,14 +11081,14 @@
     </row>
     <row r="75" spans="1:14" s="90" customFormat="1">
       <c r="A75" s="98">
-        <v>45684</v>
+        <v>45681</v>
       </c>
       <c r="B75" s="92" t="s">
-        <v>1620</v>
+        <v>1630</v>
       </c>
       <c r="C75" s="106"/>
       <c r="E75" s="90">
-        <v>-70</v>
+        <v>-120</v>
       </c>
       <c r="K75" s="78"/>
       <c r="L75" s="78"/>
@@ -11094,13 +11097,14 @@
     </row>
     <row r="76" spans="1:14" s="90" customFormat="1">
       <c r="A76" s="98">
-        <v>45686</v>
-      </c>
-      <c r="B76" s="90" t="s">
-        <v>1668</v>
-      </c>
+        <v>45682</v>
+      </c>
+      <c r="B76" s="92" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C76" s="106"/>
       <c r="E76" s="90">
-        <v>-3600</v>
+        <v>-70</v>
       </c>
       <c r="K76" s="78"/>
       <c r="L76" s="78"/>
@@ -11109,13 +11113,14 @@
     </row>
     <row r="77" spans="1:14" s="90" customFormat="1">
       <c r="A77" s="98">
-        <v>45691</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" s="106">
-        <v>18950.04</v>
+        <v>45682</v>
+      </c>
+      <c r="B77" s="92" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C77" s="106"/>
+      <c r="E77" s="90">
+        <v>-699.99</v>
       </c>
       <c r="K77" s="78"/>
       <c r="L77" s="78"/>
@@ -11124,13 +11129,14 @@
     </row>
     <row r="78" spans="1:14" s="90" customFormat="1">
       <c r="A78" s="98">
-        <v>45691</v>
+        <v>45684</v>
       </c>
       <c r="B78" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" s="106">
-        <v>10153.299999999999</v>
+        <v>1620</v>
+      </c>
+      <c r="C78" s="106"/>
+      <c r="E78" s="90">
+        <v>-70</v>
       </c>
       <c r="K78" s="78"/>
       <c r="L78" s="78"/>
@@ -11138,14 +11144,14 @@
       <c r="N78" s="78"/>
     </row>
     <row r="79" spans="1:14" s="90" customFormat="1">
-      <c r="A79" s="435">
-        <v>45694</v>
+      <c r="A79" s="98">
+        <v>45686</v>
       </c>
       <c r="B79" s="90" t="s">
-        <v>1620</v>
+        <v>1668</v>
       </c>
       <c r="E79" s="90">
-        <v>-70</v>
+        <v>-3600</v>
       </c>
       <c r="K79" s="78"/>
       <c r="L79" s="78"/>
@@ -11153,58 +11159,58 @@
       <c r="N79" s="78"/>
     </row>
     <row r="80" spans="1:14" s="90" customFormat="1">
-      <c r="A80" s="435">
-        <v>45695</v>
-      </c>
-      <c r="B80" s="90" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E80" s="90">
-        <v>-200</v>
+      <c r="A80" s="98">
+        <v>45691</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="106">
+        <v>18950.04</v>
       </c>
       <c r="K80" s="78"/>
       <c r="L80" s="78"/>
       <c r="M80" s="78"/>
       <c r="N80" s="78"/>
     </row>
-    <row r="81" spans="1:14" s="77" customFormat="1">
-      <c r="A81" s="435">
-        <v>45696</v>
-      </c>
-      <c r="B81" s="77" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E81" s="77">
-        <v>-550</v>
+    <row r="81" spans="1:14" s="90" customFormat="1">
+      <c r="A81" s="98">
+        <v>45691</v>
+      </c>
+      <c r="B81" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="106">
+        <v>10153.299999999999</v>
       </c>
       <c r="K81" s="78"/>
       <c r="L81" s="78"/>
       <c r="M81" s="78"/>
       <c r="N81" s="78"/>
     </row>
-    <row r="82" spans="1:14" s="77" customFormat="1">
-      <c r="A82" s="435">
-        <v>45697</v>
-      </c>
-      <c r="B82" s="77" t="s">
-        <v>1672</v>
-      </c>
-      <c r="E82" s="77">
-        <v>-329.97</v>
+    <row r="82" spans="1:14" s="90" customFormat="1">
+      <c r="A82" s="433">
+        <v>45694</v>
+      </c>
+      <c r="B82" s="90" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E82" s="90">
+        <v>-70</v>
       </c>
       <c r="K82" s="78"/>
       <c r="L82" s="78"/>
       <c r="M82" s="78"/>
       <c r="N82" s="78"/>
     </row>
-    <row r="83" spans="1:14" s="77" customFormat="1">
-      <c r="A83" s="435">
-        <v>45699</v>
-      </c>
-      <c r="B83" s="77" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E83" s="77">
+    <row r="83" spans="1:14" s="90" customFormat="1">
+      <c r="A83" s="433">
+        <v>45695</v>
+      </c>
+      <c r="B83" s="90" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E83" s="90">
         <v>-200</v>
       </c>
       <c r="K83" s="78"/>
@@ -11213,14 +11219,14 @@
       <c r="N83" s="78"/>
     </row>
     <row r="84" spans="1:14" s="77" customFormat="1">
-      <c r="A84" s="435">
-        <v>45700</v>
+      <c r="A84" s="433">
+        <v>45696</v>
       </c>
       <c r="B84" s="77" t="s">
-        <v>1620</v>
+        <v>1671</v>
       </c>
       <c r="E84" s="77">
-        <v>-70</v>
+        <v>-550</v>
       </c>
       <c r="K84" s="78"/>
       <c r="L84" s="78"/>
@@ -11228,14 +11234,14 @@
       <c r="N84" s="78"/>
     </row>
     <row r="85" spans="1:14" s="77" customFormat="1">
-      <c r="A85" s="435">
-        <v>45701</v>
+      <c r="A85" s="433">
+        <v>45697</v>
       </c>
       <c r="B85" s="77" t="s">
-        <v>1621</v>
+        <v>1672</v>
       </c>
       <c r="E85" s="77">
-        <v>-230</v>
+        <v>-329.97</v>
       </c>
       <c r="K85" s="78"/>
       <c r="L85" s="78"/>
@@ -11243,14 +11249,14 @@
       <c r="N85" s="78"/>
     </row>
     <row r="86" spans="1:14" s="77" customFormat="1">
-      <c r="A86" s="435">
-        <v>45702</v>
+      <c r="A86" s="433">
+        <v>45699</v>
       </c>
       <c r="B86" s="77" t="s">
-        <v>489</v>
+        <v>1676</v>
       </c>
       <c r="E86" s="77">
-        <v>-250</v>
+        <v>-200</v>
       </c>
       <c r="K86" s="78"/>
       <c r="L86" s="78"/>
@@ -11258,14 +11264,14 @@
       <c r="N86" s="78"/>
     </row>
     <row r="87" spans="1:14" s="77" customFormat="1">
-      <c r="A87" s="435">
-        <v>45703</v>
+      <c r="A87" s="433">
+        <v>45700</v>
       </c>
       <c r="B87" s="77" t="s">
-        <v>1677</v>
+        <v>1620</v>
       </c>
       <c r="E87" s="77">
-        <v>-210</v>
+        <v>-70</v>
       </c>
       <c r="K87" s="78"/>
       <c r="L87" s="78"/>
@@ -11273,61 +11279,60 @@
       <c r="N87" s="78"/>
     </row>
     <row r="88" spans="1:14" s="77" customFormat="1">
-      <c r="A88" s="98">
-        <v>45704</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="106"/>
+      <c r="A88" s="433">
+        <v>45701</v>
+      </c>
+      <c r="B88" s="77" t="s">
+        <v>1621</v>
+      </c>
       <c r="E88" s="77">
-        <v>-467.38</v>
+        <v>-230</v>
       </c>
       <c r="K88" s="78"/>
       <c r="L88" s="78"/>
       <c r="M88" s="78"/>
       <c r="N88" s="78"/>
     </row>
-    <row r="89" spans="1:14" s="90" customFormat="1">
-      <c r="A89" s="98">
-        <v>45705</v>
-      </c>
-      <c r="B89" s="92" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C89" s="106"/>
-      <c r="E89" s="90">
-        <v>-350</v>
+    <row r="89" spans="1:14" s="77" customFormat="1">
+      <c r="A89" s="433">
+        <v>45702</v>
+      </c>
+      <c r="B89" s="77" t="s">
+        <v>489</v>
+      </c>
+      <c r="E89" s="77">
+        <v>-250</v>
       </c>
       <c r="K89" s="78"/>
       <c r="L89" s="78"/>
       <c r="M89" s="78"/>
       <c r="N89" s="78"/>
     </row>
-    <row r="90" spans="1:14" s="90" customFormat="1">
-      <c r="A90" s="98">
-        <v>45704</v>
-      </c>
-      <c r="B90" s="92"/>
-      <c r="C90" s="106"/>
-      <c r="E90" s="90">
-        <v>-33</v>
+    <row r="90" spans="1:14" s="77" customFormat="1">
+      <c r="A90" s="433">
+        <v>45703</v>
+      </c>
+      <c r="B90" s="77" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E90" s="77">
+        <v>-210</v>
       </c>
       <c r="K90" s="78"/>
       <c r="L90" s="78"/>
       <c r="M90" s="78"/>
       <c r="N90" s="78"/>
     </row>
-    <row r="91" spans="1:14" s="90" customFormat="1">
+    <row r="91" spans="1:14" s="77" customFormat="1">
       <c r="A91" s="98">
-        <v>45705</v>
-      </c>
-      <c r="B91" s="92" t="s">
-        <v>415</v>
+        <v>45704</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C91" s="106"/>
-      <c r="E91" s="90">
-        <v>-380</v>
+      <c r="E91" s="77">
+        <v>-467.38</v>
       </c>
       <c r="K91" s="78"/>
       <c r="L91" s="78"/>
@@ -11336,14 +11341,14 @@
     </row>
     <row r="92" spans="1:14" s="90" customFormat="1">
       <c r="A92" s="98">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B92" s="92" t="s">
-        <v>1620</v>
+        <v>1678</v>
       </c>
       <c r="C92" s="106"/>
       <c r="E92" s="90">
-        <v>-400</v>
+        <v>-350</v>
       </c>
       <c r="K92" s="78"/>
       <c r="L92" s="78"/>
@@ -11352,58 +11357,60 @@
     </row>
     <row r="93" spans="1:14" s="90" customFormat="1">
       <c r="A93" s="98">
-        <v>45706</v>
-      </c>
-      <c r="B93" s="92" t="s">
-        <v>128</v>
-      </c>
+        <v>45704</v>
+      </c>
+      <c r="B93" s="92"/>
       <c r="C93" s="106"/>
       <c r="E93" s="90">
-        <v>-215.21</v>
+        <v>-33</v>
       </c>
       <c r="K93" s="78"/>
       <c r="L93" s="78"/>
       <c r="M93" s="78"/>
       <c r="N93" s="78"/>
     </row>
-    <row r="94" spans="1:14" s="77" customFormat="1">
+    <row r="94" spans="1:14" s="90" customFormat="1">
       <c r="A94" s="98">
-        <v>45709</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>1679</v>
+        <v>45705</v>
+      </c>
+      <c r="B94" s="92" t="s">
+        <v>415</v>
       </c>
       <c r="C94" s="106"/>
-      <c r="E94" s="77">
-        <v>-120</v>
+      <c r="E94" s="90">
+        <v>-380</v>
       </c>
       <c r="K94" s="78"/>
       <c r="L94" s="78"/>
       <c r="M94" s="78"/>
       <c r="N94" s="78"/>
     </row>
-    <row r="95" spans="1:14" s="77" customFormat="1">
+    <row r="95" spans="1:14" s="90" customFormat="1">
       <c r="A95" s="98">
-        <v>45710</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>128</v>
+        <v>45706</v>
+      </c>
+      <c r="B95" s="92" t="s">
+        <v>1620</v>
       </c>
       <c r="C95" s="106"/>
-      <c r="E95" s="77">
-        <v>-396</v>
+      <c r="E95" s="90">
+        <v>-400</v>
       </c>
       <c r="K95" s="78"/>
       <c r="L95" s="78"/>
       <c r="M95" s="78"/>
       <c r="N95" s="78"/>
     </row>
-    <row r="96" spans="1:14" s="77" customFormat="1" ht="15">
-      <c r="A96" s="98"/>
-      <c r="B96" s="3"/>
+    <row r="96" spans="1:14" s="90" customFormat="1">
+      <c r="A96" s="98">
+        <v>45706</v>
+      </c>
+      <c r="B96" s="92" t="s">
+        <v>128</v>
+      </c>
       <c r="C96" s="106"/>
-      <c r="E96" s="105" t="s">
-        <v>84</v>
+      <c r="E96" s="90">
+        <v>-215.21</v>
       </c>
       <c r="K96" s="78"/>
       <c r="L96" s="78"/>
@@ -11411,26 +11418,44 @@
       <c r="N96" s="78"/>
     </row>
     <row r="97" spans="1:14" s="77" customFormat="1">
-      <c r="A97" s="98"/>
-      <c r="B97" s="3"/>
+      <c r="A97" s="98">
+        <v>45709</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1679</v>
+      </c>
       <c r="C97" s="106"/>
+      <c r="E97" s="77">
+        <v>-120</v>
+      </c>
       <c r="K97" s="78"/>
       <c r="L97" s="78"/>
       <c r="M97" s="78"/>
       <c r="N97" s="78"/>
     </row>
     <row r="98" spans="1:14" s="77" customFormat="1">
-      <c r="A98" s="98"/>
+      <c r="A98" s="98">
+        <v>45710</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="C98" s="106"/>
+      <c r="E98" s="77">
+        <v>-396</v>
+      </c>
       <c r="K98" s="78"/>
       <c r="L98" s="78"/>
       <c r="M98" s="78"/>
       <c r="N98" s="78"/>
     </row>
-    <row r="99" spans="1:14" s="77" customFormat="1">
+    <row r="99" spans="1:14" s="77" customFormat="1" ht="15">
       <c r="A99" s="98"/>
       <c r="B99" s="3"/>
       <c r="C99" s="106"/>
+      <c r="E99" s="105" t="s">
+        <v>84</v>
+      </c>
       <c r="K99" s="78"/>
       <c r="L99" s="78"/>
       <c r="M99" s="78"/>
@@ -11447,123 +11472,100 @@
     </row>
     <row r="101" spans="1:14" s="77" customFormat="1">
       <c r="A101" s="98"/>
-      <c r="B101" s="3"/>
       <c r="C101" s="106"/>
       <c r="K101" s="78"/>
       <c r="L101" s="78"/>
       <c r="M101" s="78"/>
       <c r="N101" s="78"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" s="77" customFormat="1">
+      <c r="A102" s="98"/>
       <c r="B102" s="3"/>
       <c r="C102" s="106"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111" s="113" t="s">
+      <c r="K102" s="78"/>
+      <c r="L102" s="78"/>
+      <c r="M102" s="78"/>
+      <c r="N102" s="78"/>
+    </row>
+    <row r="103" spans="1:14" s="77" customFormat="1">
+      <c r="A103" s="98"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="106"/>
+      <c r="K103" s="78"/>
+      <c r="L103" s="78"/>
+      <c r="M103" s="78"/>
+      <c r="N103" s="78"/>
+    </row>
+    <row r="104" spans="1:14" s="77" customFormat="1">
+      <c r="A104" s="98"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="106"/>
+      <c r="K104" s="78"/>
+      <c r="L104" s="78"/>
+      <c r="M104" s="78"/>
+      <c r="N104" s="78"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="B105" s="3"/>
+      <c r="C105" s="106"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="113" t="s">
         <v>1682</v>
       </c>
-      <c r="B111" s="104" t="s">
+      <c r="B114" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="C111" s="103">
+      <c r="C114" s="103">
         <v>2025</v>
       </c>
-      <c r="D111" s="90"/>
-      <c r="E111" s="90"/>
-      <c r="F111" s="90"/>
-      <c r="G111" s="90">
-        <f>SUM(G115:G141)</f>
-        <v>1079616.2095900001</v>
-      </c>
-      <c r="H111" s="90"/>
-      <c r="I111" s="90"/>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112" s="113"/>
-      <c r="B112" s="104"/>
-      <c r="C112" s="103"/>
-      <c r="D112" s="90"/>
-      <c r="E112" s="90"/>
-      <c r="F112" s="90"/>
-      <c r="G112" s="90"/>
-      <c r="H112" s="90"/>
-      <c r="I112" s="90"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="113"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="103"/>
-      <c r="D113" s="90"/>
-      <c r="E113" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="F113" s="90"/>
-      <c r="G113" s="90"/>
-      <c r="H113" s="90"/>
-      <c r="I113" s="90"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="100"/>
-      <c r="B114" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C114" s="90"/>
       <c r="D114" s="90"/>
       <c r="E114" s="90"/>
       <c r="F114" s="90"/>
       <c r="G114" s="90">
-        <v>0</v>
+        <f>SUM(G118:G144)</f>
+        <v>1079616.2095900001</v>
       </c>
       <c r="H114" s="90"/>
       <c r="I114" s="90"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="100"/>
-      <c r="B115" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="C115" s="90"/>
+      <c r="A115" s="113"/>
+      <c r="B115" s="104"/>
+      <c r="C115" s="103"/>
       <c r="D115" s="90"/>
       <c r="E115" s="90"/>
       <c r="F115" s="90"/>
-      <c r="G115" s="90">
-        <v>0</v>
-      </c>
+      <c r="G115" s="90"/>
       <c r="H115" s="90"/>
       <c r="I115" s="90"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="100">
-        <v>45716</v>
-      </c>
-      <c r="B116" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="C116" s="90"/>
+      <c r="A116" s="113"/>
+      <c r="B116" s="104"/>
+      <c r="C116" s="103"/>
       <c r="D116" s="90"/>
-      <c r="E116" s="90"/>
+      <c r="E116" s="90" t="s">
+        <v>138</v>
+      </c>
       <c r="F116" s="90"/>
-      <c r="G116" s="90">
-        <v>195330</v>
-      </c>
+      <c r="G116" s="90"/>
       <c r="H116" s="90"/>
       <c r="I116" s="90"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="100">
-        <v>45716</v>
-      </c>
+      <c r="A117" s="100"/>
       <c r="B117" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="C117" s="90"/>
+      <c r="D117" s="90"/>
       <c r="E117" s="90"/>
       <c r="F117" s="90"/>
-      <c r="G117" s="17">
-        <v>35797.120000000003</v>
+      <c r="G117" s="90">
+        <v>0</v>
       </c>
       <c r="H117" s="90"/>
       <c r="I117" s="90"/>
@@ -11571,655 +11573,671 @@
     <row r="118" spans="1:9">
       <c r="A118" s="100"/>
       <c r="B118" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
+        <v>78</v>
+      </c>
+      <c r="C118" s="90"/>
+      <c r="D118" s="90"/>
       <c r="E118" s="90"/>
       <c r="F118" s="90"/>
-      <c r="G118" s="17">
-        <v>500</v>
+      <c r="G118" s="90">
+        <v>0</v>
       </c>
       <c r="H118" s="90"/>
       <c r="I118" s="90"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="100"/>
-      <c r="B119" s="90"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
+      <c r="A119" s="100">
+        <v>45716</v>
+      </c>
+      <c r="B119" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="90"/>
+      <c r="D119" s="90"/>
       <c r="E119" s="90"/>
       <c r="F119" s="90"/>
-      <c r="G119" s="17"/>
+      <c r="G119" s="90">
+        <v>195330</v>
+      </c>
       <c r="H119" s="90"/>
       <c r="I119" s="90"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="100">
+        <v>45716</v>
+      </c>
+      <c r="B120" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="90"/>
+      <c r="F120" s="90"/>
+      <c r="G120" s="17">
+        <v>35797.120000000003</v>
+      </c>
+      <c r="H120" s="90"/>
+      <c r="I120" s="90"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="100"/>
+      <c r="B121" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="90"/>
+      <c r="F121" s="90"/>
+      <c r="G121" s="17">
+        <v>500</v>
+      </c>
+      <c r="H121" s="90"/>
+      <c r="I121" s="90"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="100"/>
+      <c r="B122" s="90"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="90"/>
+      <c r="F122" s="90"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="90"/>
+      <c r="I122" s="90"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="100">
         <v>45667</v>
       </c>
-      <c r="B120" s="82" t="s">
+      <c r="B123" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="C120" s="114">
+      <c r="C123" s="114">
         <v>50</v>
       </c>
-      <c r="D120" s="115">
+      <c r="D123" s="115">
         <v>872.26366499999995</v>
       </c>
-      <c r="E120" s="116">
-        <f t="shared" ref="E120:E124" si="1">D120*C120</f>
+      <c r="E123" s="116">
+        <f t="shared" ref="E123:E127" si="1">D123*C123</f>
         <v>43613.183249999995</v>
       </c>
-      <c r="F120" s="405">
+      <c r="F123" s="405">
         <v>924.55062199999998</v>
       </c>
-      <c r="G120" s="17">
-        <f t="shared" ref="G120:G124" si="2">F120*C120</f>
+      <c r="G123" s="17">
+        <f t="shared" ref="G123:G127" si="2">F123*C123</f>
         <v>46227.5311</v>
       </c>
-      <c r="H120" s="90"/>
-      <c r="I120" s="90">
-        <f t="shared" ref="I120:I124" si="3">G120-E120</f>
+      <c r="H123" s="90"/>
+      <c r="I123" s="90">
+        <f t="shared" ref="I123:I127" si="3">G123-E123</f>
         <v>2614.3478500000056</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="100">
+    <row r="124" spans="1:9">
+      <c r="A124" s="100">
         <v>45672</v>
       </c>
-      <c r="B121" s="82" t="s">
+      <c r="B124" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="C121" s="114">
+      <c r="C124" s="114">
         <v>55</v>
       </c>
-      <c r="D121" s="115">
+      <c r="D124" s="115">
         <v>877.65409299999999</v>
       </c>
-      <c r="E121" s="116">
+      <c r="E124" s="116">
         <f t="shared" si="1"/>
         <v>48270.975115000001</v>
       </c>
-      <c r="F121" s="405">
-        <f>F120</f>
+      <c r="F124" s="405">
+        <f>F123</f>
         <v>924.55062199999998</v>
       </c>
-      <c r="G121" s="17">
+      <c r="G124" s="17">
         <f t="shared" si="2"/>
         <v>50850.284209999998</v>
       </c>
-      <c r="H121" s="90"/>
-      <c r="I121" s="90">
+      <c r="H124" s="90"/>
+      <c r="I124" s="90">
         <f t="shared" si="3"/>
         <v>2579.3090949999969</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="100">
+    <row r="125" spans="1:9">
+      <c r="A125" s="100">
         <v>45680</v>
       </c>
-      <c r="B122" s="82" t="s">
+      <c r="B125" s="82" t="s">
         <v>1610</v>
       </c>
-      <c r="C122" s="114">
+      <c r="C125" s="114">
         <v>120</v>
       </c>
-      <c r="D122" s="115">
+      <c r="D125" s="115">
         <v>305</v>
       </c>
-      <c r="E122" s="116">
+      <c r="E125" s="116">
         <f t="shared" si="1"/>
         <v>36600</v>
       </c>
-      <c r="F122" s="90">
+      <c r="F125" s="90">
         <v>308</v>
       </c>
-      <c r="G122" s="17">
+      <c r="G125" s="17">
         <f t="shared" si="2"/>
         <v>36960</v>
       </c>
-      <c r="H122" s="90"/>
-      <c r="I122" s="90">
+      <c r="H125" s="90"/>
+      <c r="I125" s="90">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="100">
+    <row r="126" spans="1:9">
+      <c r="A126" s="100">
         <v>45620</v>
       </c>
-      <c r="B123" s="82" t="s">
+      <c r="B126" s="82" t="s">
         <v>1612</v>
       </c>
-      <c r="C123" s="114">
+      <c r="C126" s="114">
         <v>4000</v>
       </c>
-      <c r="D123" s="114">
+      <c r="D126" s="114">
         <v>32.549999999999997</v>
       </c>
-      <c r="E123" s="116">
+      <c r="E126" s="116">
         <f t="shared" si="1"/>
         <v>130199.99999999999</v>
       </c>
-      <c r="F123" s="90">
+      <c r="F126" s="90">
         <v>34.47</v>
       </c>
-      <c r="G123" s="17">
+      <c r="G126" s="17">
         <f t="shared" si="2"/>
         <v>137880</v>
       </c>
-      <c r="H123" s="90"/>
-      <c r="I123" s="90">
+      <c r="H126" s="90"/>
+      <c r="I126" s="90">
         <f t="shared" si="3"/>
         <v>7680.0000000000146</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A124" s="100">
+    <row r="127" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A127" s="100">
         <v>45659</v>
       </c>
-      <c r="B124" s="82" t="s">
+      <c r="B127" s="82" t="s">
         <v>1611</v>
       </c>
-      <c r="C124" s="114">
+      <c r="C127" s="114">
         <v>4000</v>
       </c>
-      <c r="D124" s="115">
+      <c r="D127" s="115">
         <v>30.86</v>
       </c>
-      <c r="E124" s="116">
+      <c r="E127" s="116">
         <f t="shared" si="1"/>
         <v>123440</v>
       </c>
-      <c r="F124" s="90">
-        <f>F123</f>
+      <c r="F127" s="90">
+        <f>F126</f>
         <v>34.47</v>
       </c>
-      <c r="G124" s="17">
+      <c r="G127" s="17">
         <f t="shared" si="2"/>
         <v>137880</v>
       </c>
-      <c r="H124" s="420">
-        <f>SUM(G120:G124)</f>
+      <c r="H127" s="420">
+        <f>SUM(G123:G127)</f>
         <v>409797.81530999998</v>
       </c>
-      <c r="I124" s="90">
+      <c r="I127" s="90">
         <f t="shared" si="3"/>
         <v>14440</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A125" s="100"/>
-      <c r="B125" s="90"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="90">
-        <f>SUM(E120:E124)</f>
+    <row r="128" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A128" s="100"/>
+      <c r="B128" s="90"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="90">
+        <f>SUM(E123:E127)</f>
         <v>382124.15836499998</v>
       </c>
-      <c r="F125" s="90"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="117">
-        <f>(SUM(G120:G124))-(SUM(E120:E124))</f>
+      <c r="F128" s="90"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="117">
+        <f>(SUM(G123:G127))-(SUM(E123:E127))</f>
         <v>27673.656944999995</v>
       </c>
-      <c r="I125" s="117">
-        <f>SUM(I120:I124)</f>
+      <c r="I128" s="117">
+        <f>SUM(I123:I127)</f>
         <v>27673.656945000017</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="100"/>
-      <c r="B126" s="90"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="90"/>
-      <c r="F126" s="90"/>
-      <c r="G126" s="90"/>
-      <c r="H126" s="90"/>
-      <c r="I126" s="90"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="100">
+    <row r="129" spans="1:9">
+      <c r="A129" s="100"/>
+      <c r="B129" s="90"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="90"/>
+      <c r="F129" s="90"/>
+      <c r="G129" s="90"/>
+      <c r="H129" s="90"/>
+      <c r="I129" s="90"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="100">
         <v>45345</v>
       </c>
-      <c r="B127" s="82" t="s">
+      <c r="B130" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="C127" s="118">
+      <c r="C130" s="118">
         <v>125000</v>
       </c>
-      <c r="D127" s="83">
+      <c r="D130" s="83">
         <v>1.0399430000000001</v>
       </c>
-      <c r="E127" s="116">
-        <f>D127*C127</f>
+      <c r="E130" s="116">
+        <f>D130*C130</f>
         <v>129992.87500000001</v>
       </c>
-      <c r="F127" s="119">
+      <c r="F130" s="119">
         <v>0.76836099999999996</v>
       </c>
-      <c r="G127" s="17">
-        <f>F127*C127</f>
+      <c r="G130" s="17">
+        <f>F130*C130</f>
         <v>96045.125</v>
       </c>
-      <c r="H127" s="90"/>
-      <c r="I127" s="90">
-        <f t="shared" ref="I127:I131" si="4">G127-E127</f>
+      <c r="H130" s="90"/>
+      <c r="I130" s="90">
+        <f t="shared" ref="I130:I134" si="4">G130-E130</f>
         <v>-33947.750000000015</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="100">
+    <row r="131" spans="1:9">
+      <c r="A131" s="100">
         <v>45667</v>
       </c>
-      <c r="B128" s="82" t="s">
+      <c r="B131" s="82" t="s">
         <v>1614</v>
       </c>
-      <c r="C128" s="118">
+      <c r="C131" s="118">
         <v>240</v>
       </c>
-      <c r="D128" s="83">
+      <c r="D131" s="83">
         <v>872.26366499999995</v>
       </c>
-      <c r="E128" s="116">
-        <f>D128*C128</f>
+      <c r="E131" s="116">
+        <f>D131*C131</f>
         <v>209343.27959999998</v>
       </c>
-      <c r="F128" s="404">
-        <f>F121</f>
+      <c r="F131" s="404">
+        <f>F124</f>
         <v>924.55062199999998</v>
       </c>
-      <c r="G128" s="17">
-        <f>F128*C128</f>
+      <c r="G131" s="17">
+        <f>F131*C131</f>
         <v>221892.14927999998</v>
       </c>
-      <c r="H128" s="90"/>
-      <c r="I128" s="90">
+      <c r="H131" s="90"/>
+      <c r="I131" s="90">
         <f t="shared" si="4"/>
         <v>12548.869680000003</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="100">
+    <row r="132" spans="1:9">
+      <c r="A132" s="100">
         <v>45400</v>
       </c>
-      <c r="B129" s="82" t="s">
+      <c r="B132" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="C129" s="114">
+      <c r="C132" s="114">
         <v>10</v>
       </c>
-      <c r="D129" s="83">
+      <c r="D132" s="83">
         <v>135</v>
       </c>
-      <c r="E129" s="116">
-        <f>D129*C129</f>
+      <c r="E132" s="116">
+        <f>D132*C132</f>
         <v>1350</v>
       </c>
-      <c r="F129" s="90">
+      <c r="F132" s="90">
         <v>112.6</v>
       </c>
-      <c r="G129" s="17">
-        <f>F129*C129</f>
+      <c r="G132" s="17">
+        <f>F132*C132</f>
         <v>1126</v>
       </c>
-      <c r="H129" s="90"/>
-      <c r="I129" s="90">
+      <c r="H132" s="90"/>
+      <c r="I132" s="90">
         <f t="shared" si="4"/>
         <v>-224</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="100">
+    <row r="133" spans="1:9">
+      <c r="A133" s="100">
         <v>45418</v>
       </c>
-      <c r="B130" s="82" t="s">
+      <c r="B133" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="C130" s="114">
+      <c r="C133" s="114">
         <v>38</v>
       </c>
-      <c r="D130" s="83">
+      <c r="D133" s="83">
         <v>30.5</v>
       </c>
-      <c r="E130" s="116">
-        <f>D130*C130</f>
+      <c r="E133" s="116">
+        <f>D133*C133</f>
         <v>1159</v>
       </c>
-      <c r="F130" s="90">
+      <c r="F133" s="90">
         <v>16.899999999999999</v>
       </c>
-      <c r="G130" s="17">
-        <f>F130*C130</f>
+      <c r="G133" s="17">
+        <f>F133*C133</f>
         <v>642.19999999999993</v>
       </c>
-      <c r="H130" s="90"/>
-      <c r="I130" s="90">
+      <c r="H133" s="90"/>
+      <c r="I133" s="90">
         <f t="shared" si="4"/>
         <v>-516.80000000000007</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A131" s="100">
+    <row r="134" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A134" s="100">
         <v>45418</v>
       </c>
-      <c r="B131" s="82" t="s">
+      <c r="B134" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="C131" s="114">
+      <c r="C134" s="114">
         <v>26</v>
       </c>
-      <c r="D131" s="83">
+      <c r="D134" s="83">
         <v>37.115000000000002</v>
       </c>
-      <c r="E131" s="116">
-        <f>D131*C131</f>
+      <c r="E134" s="116">
+        <f>D134*C134</f>
         <v>964.99</v>
       </c>
-      <c r="F131" s="90">
+      <c r="F134" s="90">
         <v>23.5</v>
       </c>
-      <c r="G131" s="17">
-        <f>F131*C131</f>
+      <c r="G134" s="17">
+        <f>F134*C134</f>
         <v>611</v>
       </c>
-      <c r="H131" s="420">
-        <f>SUM(G127:G131)</f>
+      <c r="H134" s="420">
+        <f>SUM(G130:G134)</f>
         <v>320316.47428000002</v>
       </c>
-      <c r="I131" s="90">
+      <c r="I134" s="90">
         <f t="shared" si="4"/>
         <v>-353.99</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A132" s="100"/>
-      <c r="B132" s="90"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="90">
-        <f>SUM(E127:E131)</f>
+    <row r="135" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A135" s="100"/>
+      <c r="B135" s="90"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="90">
+        <f>SUM(E130:E134)</f>
         <v>342810.1446</v>
       </c>
-      <c r="F132" s="90"/>
-      <c r="G132" s="90"/>
-      <c r="H132" s="117">
-        <f>(SUM(G127:G131))-(SUM(E127:E131))</f>
+      <c r="F135" s="90"/>
+      <c r="G135" s="90"/>
+      <c r="H135" s="117">
+        <f>(SUM(G130:G134))-(SUM(E130:E134))</f>
         <v>-22493.670319999976</v>
       </c>
-      <c r="I132" s="90"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="100"/>
-      <c r="B133" s="90"/>
-      <c r="C133" s="90"/>
-      <c r="D133" s="90"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="90"/>
-      <c r="G133" s="90"/>
-      <c r="H133" s="90"/>
-      <c r="I133" s="90"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="100">
+      <c r="I135" s="90"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="100"/>
+      <c r="B136" s="90"/>
+      <c r="C136" s="90"/>
+      <c r="D136" s="90"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="90"/>
+      <c r="G136" s="90"/>
+      <c r="H136" s="90"/>
+      <c r="I136" s="90"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="100">
         <v>45509</v>
       </c>
-      <c r="B134" s="82" t="s">
+      <c r="B137" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="C134" s="114">
+      <c r="C137" s="114">
         <v>1</v>
       </c>
-      <c r="D134" s="83">
+      <c r="D137" s="83">
         <v>2500</v>
       </c>
-      <c r="E134" s="116">
-        <f>D134*C134</f>
+      <c r="E137" s="116">
+        <f>D137*C137</f>
         <v>2500</v>
       </c>
-      <c r="F134" s="90">
+      <c r="F137" s="90">
         <v>3283</v>
       </c>
-      <c r="G134" s="17">
-        <f>C134*F134</f>
+      <c r="G137" s="17">
+        <f>C137*F137</f>
         <v>3283</v>
       </c>
-      <c r="H134" s="90"/>
-      <c r="I134" s="90">
-        <f t="shared" ref="I134:I136" si="5">G134-E134</f>
+      <c r="H137" s="90"/>
+      <c r="I137" s="90">
+        <f t="shared" ref="I137:I139" si="5">G137-E137</f>
         <v>783</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="100">
+    <row r="138" spans="1:9">
+      <c r="A138" s="100">
         <v>45509</v>
       </c>
-      <c r="B135" s="82" t="s">
+      <c r="B138" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="C135" s="114">
+      <c r="C138" s="114">
         <v>16</v>
       </c>
-      <c r="D135" s="83">
+      <c r="D138" s="83">
         <v>4100</v>
       </c>
-      <c r="E135" s="116">
-        <f>D135*C135</f>
+      <c r="E138" s="116">
+        <f>D138*C138</f>
         <v>65600</v>
       </c>
-      <c r="F135" s="90">
-        <f>F134*1.73</f>
+      <c r="F138" s="90">
+        <f>F137*1.73</f>
         <v>5679.59</v>
       </c>
-      <c r="G135" s="17">
-        <f>C135*F135</f>
+      <c r="G138" s="17">
+        <f>C138*F138</f>
         <v>90873.44</v>
       </c>
-      <c r="H135" s="90"/>
-      <c r="I135" s="90">
+      <c r="H138" s="90"/>
+      <c r="I138" s="90">
         <f t="shared" si="5"/>
         <v>25273.440000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A136" s="100">
+    <row r="139" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A139" s="100">
         <v>45509</v>
       </c>
-      <c r="B136" s="82" t="s">
+      <c r="B139" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C136" s="114">
+      <c r="C139" s="114">
         <v>1</v>
       </c>
-      <c r="D136" s="83">
+      <c r="D139" s="83">
         <v>16200</v>
       </c>
-      <c r="E136" s="116">
-        <f>D136*C136</f>
+      <c r="E139" s="116">
+        <f>D139*C139</f>
         <v>16200</v>
       </c>
-      <c r="F136" s="90">
-        <f>F135*4</f>
+      <c r="F139" s="90">
+        <f>F138*4</f>
         <v>22718.36</v>
       </c>
-      <c r="G136" s="17">
-        <f>C136*F136</f>
+      <c r="G139" s="17">
+        <f>C139*F139</f>
         <v>22718.36</v>
       </c>
-      <c r="H136" s="420">
-        <f>SUM(G134:G136)</f>
+      <c r="H139" s="420">
+        <f>SUM(G137:G139)</f>
         <v>116874.8</v>
       </c>
-      <c r="I136" s="90">
+      <c r="I139" s="90">
         <f t="shared" si="5"/>
         <v>6518.3600000000006</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A137" s="100"/>
-      <c r="B137" s="90"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="90">
-        <f>SUM(E134:E136)</f>
-        <v>84300</v>
-      </c>
-      <c r="F137" s="90"/>
-      <c r="G137" s="90"/>
-      <c r="H137" s="117">
-        <f>(SUM(G134:G136))-(SUM(E134:E136))</f>
-        <v>32574.800000000003</v>
-      </c>
-      <c r="I137" s="90"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="100"/>
-      <c r="B138" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="C138" s="120">
-        <v>33.250599999999999</v>
-      </c>
-      <c r="D138" s="12"/>
-      <c r="E138" s="90"/>
-      <c r="F138" s="90"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="90"/>
-      <c r="I138" s="90"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="100"/>
-      <c r="B139" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="C139" s="120">
-        <v>36.854999999999997</v>
-      </c>
-      <c r="D139" s="12"/>
-      <c r="E139" s="90"/>
-      <c r="F139" s="90"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="90"/>
-      <c r="I139" s="90"/>
-    </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" ht="13.5" thickBot="1">
       <c r="A140" s="100"/>
-      <c r="B140" s="90" t="s">
-        <v>153</v>
-      </c>
+      <c r="B140" s="90"/>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
-      <c r="E140" s="90"/>
+      <c r="E140" s="90">
+        <f>SUM(E137:E139)</f>
+        <v>84300</v>
+      </c>
       <c r="F140" s="90"/>
-      <c r="G140" s="17">
-        <v>0</v>
-      </c>
-      <c r="H140" s="90"/>
+      <c r="G140" s="90"/>
+      <c r="H140" s="117">
+        <f>(SUM(G137:G139))-(SUM(E137:E139))</f>
+        <v>32574.800000000003</v>
+      </c>
       <c r="I140" s="90"/>
     </row>
-    <row r="141" spans="1:9" ht="13.5" thickBot="1">
+    <row r="141" spans="1:9">
       <c r="A141" s="100"/>
       <c r="B141" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="C141" s="12"/>
+        <v>151</v>
+      </c>
+      <c r="C141" s="120">
+        <v>33.250599999999999</v>
+      </c>
       <c r="D141" s="12"/>
       <c r="E141" s="90"/>
       <c r="F141" s="90"/>
-      <c r="G141" s="17">
-        <v>1000</v>
-      </c>
+      <c r="G141" s="17"/>
       <c r="H141" s="90"/>
       <c r="I141" s="90"/>
     </row>
-    <row r="142" spans="1:9" ht="13.5" thickBot="1">
+    <row r="142" spans="1:9">
       <c r="A142" s="100"/>
-      <c r="B142" s="90"/>
-      <c r="C142" s="90"/>
-      <c r="D142" s="90"/>
-      <c r="E142" s="121"/>
-      <c r="F142" s="122"/>
-      <c r="G142" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="H142" s="434">
-        <f>H137+H132+H125</f>
-        <v>37754.786625000022</v>
-      </c>
+      <c r="B142" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="C142" s="120">
+        <v>36.854999999999997</v>
+      </c>
+      <c r="D142" s="12"/>
+      <c r="E142" s="90"/>
+      <c r="F142" s="90"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="90"/>
       <c r="I142" s="90"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="100"/>
-      <c r="B143" s="90"/>
-      <c r="C143" s="124"/>
-      <c r="D143" s="92"/>
+      <c r="B143" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
       <c r="E143" s="90"/>
       <c r="F143" s="90"/>
-      <c r="G143" s="124"/>
+      <c r="G143" s="17">
+        <v>0</v>
+      </c>
       <c r="H143" s="90"/>
       <c r="I143" s="90"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" ht="13.5" thickBot="1">
       <c r="A144" s="100"/>
-      <c r="B144" s="90"/>
-      <c r="C144" s="124"/>
-      <c r="D144" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="B144" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
       <c r="E144" s="90"/>
       <c r="F144" s="90"/>
-      <c r="G144" s="9">
-        <f>SUM(G115:G141)</f>
-        <v>1079616.2095900001</v>
+      <c r="G144" s="17">
+        <v>1000</v>
       </c>
       <c r="H144" s="90"/>
       <c r="I144" s="90"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" ht="13.5" thickBot="1">
       <c r="A145" s="100"/>
       <c r="B145" s="90"/>
-      <c r="C145" s="126" t="str">
-        <f>A111</f>
-        <v>NİSAN 2025 e</v>
-      </c>
-      <c r="D145" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="E145" s="90"/>
-      <c r="F145" s="90"/>
-      <c r="G145" s="127"/>
-      <c r="H145" s="90"/>
+      <c r="C145" s="90"/>
+      <c r="D145" s="90"/>
+      <c r="E145" s="121"/>
+      <c r="F145" s="122"/>
+      <c r="G145" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="H145" s="432">
+        <f>H140+H135+H128</f>
+        <v>37754.786625000022</v>
+      </c>
       <c r="I145" s="90"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="100"/>
       <c r="B146" s="90"/>
-      <c r="C146" s="125"/>
-      <c r="D146" s="126"/>
+      <c r="C146" s="124"/>
+      <c r="D146" s="92"/>
       <c r="E146" s="90"/>
       <c r="F146" s="90"/>
-      <c r="G146" s="127"/>
+      <c r="G146" s="124"/>
       <c r="H146" s="90"/>
       <c r="I146" s="90"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="100"/>
       <c r="B147" s="90"/>
-      <c r="C147" s="125"/>
-      <c r="D147" s="126"/>
+      <c r="C147" s="124"/>
+      <c r="D147" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="E147" s="90"/>
       <c r="F147" s="90"/>
-      <c r="G147" s="127"/>
+      <c r="G147" s="9">
+        <f>SUM(G118:G144)</f>
+        <v>1079616.2095900001</v>
+      </c>
       <c r="H147" s="90"/>
       <c r="I147" s="90"/>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="100"/>
       <c r="B148" s="90"/>
-      <c r="C148" s="125"/>
-      <c r="D148" s="126"/>
+      <c r="C148" s="126" t="str">
+        <f>A114</f>
+        <v>NİSAN 2025 e</v>
+      </c>
+      <c r="D148" s="126" t="s">
+        <v>157</v>
+      </c>
       <c r="E148" s="90"/>
       <c r="F148" s="90"/>
       <c r="G148" s="127"/>
@@ -12227,110 +12245,66 @@
       <c r="I148" s="90"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="90"/>
+      <c r="A149" s="100"/>
       <c r="B149" s="90"/>
-      <c r="C149" s="90"/>
-      <c r="D149" s="90"/>
+      <c r="C149" s="125"/>
+      <c r="D149" s="126"/>
       <c r="E149" s="90"/>
       <c r="F149" s="90"/>
-      <c r="G149" s="90"/>
+      <c r="G149" s="127"/>
       <c r="H149" s="90"/>
       <c r="I149" s="90"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="100">
-        <v>45691</v>
-      </c>
-      <c r="B150" s="82" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C150" s="114"/>
-      <c r="D150" s="115">
-        <v>752.55561799999998</v>
-      </c>
-      <c r="E150" s="116">
-        <f>D150*C150</f>
-        <v>0</v>
-      </c>
-      <c r="F150" s="404">
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G150" s="17">
-        <f>F150*C150</f>
-        <v>0</v>
-      </c>
+      <c r="A150" s="100"/>
+      <c r="B150" s="90"/>
+      <c r="C150" s="125"/>
+      <c r="D150" s="126"/>
+      <c r="E150" s="90"/>
+      <c r="F150" s="90"/>
+      <c r="G150" s="127"/>
       <c r="H150" s="90"/>
-      <c r="I150" s="90">
-        <f>G150-E150</f>
-        <v>0</v>
-      </c>
+      <c r="I150" s="90"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="397">
-        <v>45680</v>
-      </c>
-      <c r="B151" s="398" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C151" s="399"/>
-      <c r="D151" s="400">
-        <v>752.55561799999998</v>
-      </c>
-      <c r="E151" s="401">
-        <f>D151*C151</f>
-        <v>0</v>
-      </c>
-      <c r="F151" s="402">
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G151" s="403">
-        <f>F151*C151</f>
-        <v>0</v>
-      </c>
-      <c r="H151" s="402"/>
-      <c r="I151" s="402">
-        <f>E151-G151</f>
-        <v>0</v>
-      </c>
+      <c r="A151" s="100"/>
+      <c r="B151" s="90"/>
+      <c r="C151" s="125"/>
+      <c r="D151" s="126"/>
+      <c r="E151" s="90"/>
+      <c r="F151" s="90"/>
+      <c r="G151" s="127"/>
+      <c r="H151" s="90"/>
+      <c r="I151" s="90"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="397">
-        <v>45680</v>
-      </c>
-      <c r="B152" s="398" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C152" s="399"/>
-      <c r="D152" s="400"/>
-      <c r="E152" s="401">
-        <v>299.37</v>
-      </c>
-      <c r="F152" s="402"/>
-      <c r="G152" s="403"/>
-      <c r="H152" s="402"/>
-      <c r="I152" s="402">
-        <f>G152-E152</f>
-        <v>-299.37</v>
-      </c>
+      <c r="A152" s="90"/>
+      <c r="B152" s="90"/>
+      <c r="C152" s="90"/>
+      <c r="D152" s="90"/>
+      <c r="E152" s="90"/>
+      <c r="F152" s="90"/>
+      <c r="G152" s="90"/>
+      <c r="H152" s="90"/>
+      <c r="I152" s="90"/>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="100">
         <v>45691</v>
       </c>
       <c r="B153" s="82" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C153" s="114"/>
       <c r="D153" s="115">
-        <v>872.26366499999995</v>
+        <v>752.55561799999998</v>
       </c>
       <c r="E153" s="116">
         <f>D153*C153</f>
         <v>0</v>
       </c>
-      <c r="F153" s="405">
-        <f>F159</f>
-        <v>907.06739800000003</v>
+      <c r="F153" s="404">
+        <v>899.26057400000002</v>
       </c>
       <c r="G153" s="17">
         <f>F153*C153</f>
@@ -12347,11 +12321,11 @@
         <v>45680</v>
       </c>
       <c r="B154" s="398" t="s">
-        <v>142</v>
+        <v>1655</v>
       </c>
       <c r="C154" s="399"/>
-      <c r="D154" s="115">
-        <v>872.26366499999995</v>
+      <c r="D154" s="400">
+        <v>752.55561799999998</v>
       </c>
       <c r="E154" s="401">
         <f>D154*C154</f>
@@ -12379,15 +12353,20 @@
       </c>
       <c r="C155" s="399"/>
       <c r="D155" s="400"/>
-      <c r="E155" s="401"/>
+      <c r="E155" s="401">
+        <v>299.37</v>
+      </c>
       <c r="F155" s="402"/>
       <c r="G155" s="403"/>
       <c r="H155" s="402"/>
-      <c r="I155" s="402"/>
+      <c r="I155" s="402">
+        <f>G155-E155</f>
+        <v>-299.37</v>
+      </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="100">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B156" s="82" t="s">
         <v>1653</v>
@@ -12401,7 +12380,8 @@
         <v>0</v>
       </c>
       <c r="F156" s="405">
-        <v>900.29758900000002</v>
+        <f>F162</f>
+        <v>907.06739800000003</v>
       </c>
       <c r="G156" s="17">
         <f>F156*C156</f>
@@ -12415,22 +12395,24 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="397">
-        <v>45692</v>
-      </c>
-      <c r="B157" s="398"/>
+        <v>45680</v>
+      </c>
+      <c r="B157" s="398" t="s">
+        <v>142</v>
+      </c>
       <c r="C157" s="399"/>
-      <c r="D157" s="400">
+      <c r="D157" s="115">
         <v>872.26366499999995</v>
       </c>
       <c r="E157" s="401">
-        <f t="shared" ref="E157" si="6">D157*C157</f>
+        <f>D157*C157</f>
         <v>0</v>
       </c>
-      <c r="F157" s="424">
-        <v>900.29758900000002</v>
+      <c r="F157" s="402">
+        <v>899.26057400000002</v>
       </c>
       <c r="G157" s="403">
-        <f t="shared" ref="G157" si="7">F157*C157</f>
+        <f>F157*C157</f>
         <v>0</v>
       </c>
       <c r="H157" s="402"/>
@@ -12452,16 +12434,14 @@
       <c r="F158" s="402"/>
       <c r="G158" s="403"/>
       <c r="H158" s="402"/>
-      <c r="I158" s="402">
-        <v>-70.09</v>
-      </c>
+      <c r="I158" s="402"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="100">
-        <v>45699</v>
+        <v>45692</v>
       </c>
       <c r="B159" s="82" t="s">
-        <v>1667</v>
+        <v>1653</v>
       </c>
       <c r="C159" s="114"/>
       <c r="D159" s="115">
@@ -12472,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="F159" s="405">
-        <v>907.06739800000003</v>
+        <v>900.29758900000002</v>
       </c>
       <c r="G159" s="17">
         <f>F159*C159</f>
@@ -12494,14 +12474,14 @@
         <v>872.26366499999995</v>
       </c>
       <c r="E160" s="401">
-        <f t="shared" ref="E160" si="8">D160*C160</f>
+        <f t="shared" ref="E160" si="6">D160*C160</f>
         <v>0</v>
       </c>
       <c r="F160" s="424">
-        <v>907.06739800000003</v>
+        <v>900.29758900000002</v>
       </c>
       <c r="G160" s="403">
-        <f t="shared" ref="G160" si="9">F160*C160</f>
+        <f t="shared" ref="G160" si="7">F160*C160</f>
         <v>0</v>
       </c>
       <c r="H160" s="402"/>
@@ -12512,7 +12492,7 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="397">
-        <v>45699</v>
+        <v>45680</v>
       </c>
       <c r="B161" s="398" t="s">
         <v>1613</v>
@@ -12524,140 +12504,211 @@
       <c r="G161" s="403"/>
       <c r="H161" s="402"/>
       <c r="I161" s="402">
-        <v>-73.09</v>
+        <v>-70.09</v>
       </c>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="397"/>
-      <c r="B162" s="398"/>
-      <c r="C162" s="399"/>
-      <c r="D162" s="400"/>
-      <c r="E162" s="401"/>
-      <c r="F162" s="402"/>
-      <c r="G162" s="403"/>
-      <c r="H162" s="402"/>
-      <c r="I162" s="402"/>
+      <c r="A162" s="100">
+        <v>45699</v>
+      </c>
+      <c r="B162" s="82" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C162" s="114"/>
+      <c r="D162" s="115">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E162" s="116">
+        <f>D162*C162</f>
+        <v>0</v>
+      </c>
+      <c r="F162" s="405">
+        <v>907.06739800000003</v>
+      </c>
+      <c r="G162" s="17">
+        <f>F162*C162</f>
+        <v>0</v>
+      </c>
+      <c r="H162" s="90"/>
+      <c r="I162" s="90">
+        <f>G162-E162</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="397"/>
+      <c r="A163" s="397">
+        <v>45692</v>
+      </c>
       <c r="B163" s="398"/>
       <c r="C163" s="399"/>
-      <c r="D163" s="400"/>
-      <c r="E163" s="401"/>
-      <c r="F163" s="402"/>
-      <c r="G163" s="403"/>
+      <c r="D163" s="400">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E163" s="401">
+        <f t="shared" ref="E163" si="8">D163*C163</f>
+        <v>0</v>
+      </c>
+      <c r="F163" s="424">
+        <v>907.06739800000003</v>
+      </c>
+      <c r="G163" s="403">
+        <f t="shared" ref="G163" si="9">F163*C163</f>
+        <v>0</v>
+      </c>
       <c r="H163" s="402"/>
-      <c r="I163" s="402"/>
+      <c r="I163" s="402">
+        <f>E163-G163</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="90"/>
-      <c r="E164" s="90"/>
-      <c r="F164" s="90"/>
-      <c r="G164" s="90"/>
-      <c r="H164" s="90"/>
-      <c r="I164" s="11"/>
+      <c r="A164" s="397">
+        <v>45699</v>
+      </c>
+      <c r="B164" s="398" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C164" s="399"/>
+      <c r="D164" s="400"/>
+      <c r="E164" s="401"/>
+      <c r="F164" s="402"/>
+      <c r="G164" s="403"/>
+      <c r="H164" s="402"/>
+      <c r="I164" s="402">
+        <v>-73.09</v>
+      </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="90"/>
-      <c r="E165" s="90"/>
-      <c r="F165" s="90"/>
-      <c r="G165" s="90"/>
-      <c r="H165" s="90"/>
-      <c r="I165" s="78">
-        <f>SUM(I151:I164)</f>
+      <c r="A165" s="397"/>
+      <c r="B165" s="398"/>
+      <c r="C165" s="399"/>
+      <c r="D165" s="400"/>
+      <c r="E165" s="401"/>
+      <c r="F165" s="402"/>
+      <c r="G165" s="403"/>
+      <c r="H165" s="402"/>
+      <c r="I165" s="402"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="397"/>
+      <c r="B166" s="398"/>
+      <c r="C166" s="399"/>
+      <c r="D166" s="400"/>
+      <c r="E166" s="401"/>
+      <c r="F166" s="402"/>
+      <c r="G166" s="403"/>
+      <c r="H166" s="402"/>
+      <c r="I166" s="402"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="90"/>
+      <c r="E167" s="90"/>
+      <c r="F167" s="90"/>
+      <c r="G167" s="90"/>
+      <c r="H167" s="90"/>
+      <c r="I167" s="11"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="90"/>
+      <c r="E168" s="90"/>
+      <c r="F168" s="90"/>
+      <c r="G168" s="90"/>
+      <c r="H168" s="90"/>
+      <c r="I168" s="78">
+        <f>SUM(I154:I167)</f>
         <v>-442.55000000000007</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="90"/>
-      <c r="E166" s="90"/>
-      <c r="F166" s="90"/>
-      <c r="G166" s="90"/>
-      <c r="H166" s="90"/>
-      <c r="I166" s="11"/>
+    <row r="169" spans="1:9">
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="90"/>
+      <c r="E169" s="90"/>
+      <c r="F169" s="90"/>
+      <c r="G169" s="90"/>
+      <c r="H169" s="90"/>
+      <c r="I169" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F134:F136 F158 F155 F151:F152">
+  <conditionalFormatting sqref="F137:F139 F161 F158 F154:F155">
     <cfRule type="cellIs" dxfId="36" priority="10" operator="lessThan">
-      <formula>D134</formula>
+      <formula>D137</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F129:F131">
+  <conditionalFormatting sqref="F132:F134">
     <cfRule type="cellIs" dxfId="35" priority="11" operator="lessThan">
-      <formula>D129</formula>
+      <formula>D132</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F124">
+  <conditionalFormatting sqref="F127">
     <cfRule type="cellIs" dxfId="34" priority="12" operator="lessThan">
+      <formula>D127</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F126">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="lessThan">
+      <formula>D126</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F162 F124">
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="lessThan">
       <formula>D124</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F123">
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="lessThan">
-      <formula>D123</formula>
+  <conditionalFormatting sqref="F125">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="lessThan">
+      <formula>D125</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F159 F121">
-    <cfRule type="cellIs" dxfId="32" priority="14" operator="lessThan">
-      <formula>D121</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F122">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="lessThan">
-      <formula>D122</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F162:F163">
+  <conditionalFormatting sqref="F165:F166">
     <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
-      <formula>D162</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F153">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
-      <formula>D153</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F154">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
-      <formula>D154</formula>
+      <formula>D165</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F156">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
       <formula>D156</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F157">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
       <formula>D157</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
-      <formula>D120</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F161">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
-      <formula>D161</formula>
+  <conditionalFormatting sqref="F159">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
+      <formula>D159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F160">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
       <formula>D160</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F123">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
+      <formula>D123</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F164">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
+      <formula>D164</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F163">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+      <formula>D163</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
-  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -12672,7 +12723,7 @@
   </sheetPr>
   <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
@@ -12808,7 +12859,7 @@
       <c r="A9" s="425">
         <v>45873</v>
       </c>
-      <c r="B9" s="433" t="s">
+      <c r="B9" s="431" t="s">
         <v>1656</v>
       </c>
       <c r="C9" s="422"/>
@@ -12896,7 +12947,7 @@
     </row>
     <row r="13" spans="1:14" s="11" customFormat="1">
       <c r="A13" s="412"/>
-      <c r="B13" s="438" t="s">
+      <c r="B13" s="435" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="416"/>
@@ -12919,15 +12970,15 @@
       <c r="A14" s="391">
         <v>45705</v>
       </c>
-      <c r="B14" s="443" t="s">
+      <c r="B14" s="438" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="443"/>
-      <c r="D14" s="444">
+      <c r="C14" s="438"/>
+      <c r="D14" s="439">
         <v>15000</v>
       </c>
-      <c r="E14" s="444"/>
-      <c r="F14" s="444">
+      <c r="E14" s="439"/>
+      <c r="F14" s="439">
         <v>15000</v>
       </c>
       <c r="G14" s="87"/>
@@ -12984,10 +13035,10 @@
       <c r="A17" s="391">
         <v>45709</v>
       </c>
-      <c r="B17" s="439" t="s">
+      <c r="B17" s="436" t="s">
         <v>1674</v>
       </c>
-      <c r="C17" s="439"/>
+      <c r="C17" s="436"/>
       <c r="D17" s="387"/>
       <c r="E17" s="387"/>
       <c r="F17" s="387"/>
@@ -13163,10 +13214,10 @@
       <c r="A26" s="414">
         <v>45716</v>
       </c>
-      <c r="B26" s="442" t="s">
+      <c r="B26" s="437" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="442"/>
+      <c r="C26" s="437"/>
       <c r="D26" s="384"/>
       <c r="E26" s="384">
         <v>-600</v>
@@ -13188,10 +13239,10 @@
       <c r="A27" s="414">
         <v>45716</v>
       </c>
-      <c r="B27" s="442" t="s">
+      <c r="B27" s="437" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="442"/>
+      <c r="C27" s="437"/>
       <c r="D27" s="384"/>
       <c r="E27" s="384">
         <v>-800</v>
@@ -13307,7 +13358,7 @@
       <c r="G36" s="77" t="s">
         <v>1663</v>
       </c>
-      <c r="H36" s="429">
+      <c r="H36" s="427">
         <v>0.5635</v>
       </c>
       <c r="K36" s="78"/>
@@ -14786,7 +14837,7 @@
       <c r="G143" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="H143" s="449">
+      <c r="H143" s="444">
         <f>H131+H137+H126</f>
         <v>25205.916945000004</v>
       </c>
@@ -14840,8 +14891,8 @@
     <row r="147" spans="1:14" s="11" customFormat="1">
       <c r="A147" s="100"/>
       <c r="B147" s="90"/>
-      <c r="C147" s="446"/>
-      <c r="D147" s="447"/>
+      <c r="C147" s="441"/>
+      <c r="D147" s="442"/>
       <c r="E147" s="406"/>
       <c r="F147" s="406"/>
       <c r="G147" s="410"/>
@@ -14890,8 +14941,8 @@
     <row r="149" spans="1:14" s="11" customFormat="1">
       <c r="A149" s="100"/>
       <c r="B149" s="90"/>
-      <c r="C149" s="446"/>
-      <c r="D149" s="447"/>
+      <c r="C149" s="441"/>
+      <c r="D149" s="442"/>
       <c r="E149" s="406"/>
       <c r="F149" s="406"/>
       <c r="G149" s="410"/>
@@ -15376,7 +15427,7 @@
   </sheetPr>
   <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
@@ -15949,7 +16000,7 @@
       <c r="M30" s="96"/>
     </row>
     <row r="31" spans="1:13" s="78" customFormat="1">
-      <c r="A31" s="430">
+      <c r="A31" s="428">
         <v>45688</v>
       </c>
       <c r="B31" s="392" t="s">
@@ -15960,8 +16011,8 @@
       <c r="E31" s="387">
         <v>-600</v>
       </c>
-      <c r="F31" s="428"/>
-      <c r="G31" s="428">
+      <c r="F31" s="426"/>
+      <c r="G31" s="426">
         <v>-425</v>
       </c>
       <c r="H31" s="87">
@@ -15974,7 +16025,7 @@
       <c r="M31" s="96"/>
     </row>
     <row r="32" spans="1:13" s="78" customFormat="1">
-      <c r="A32" s="430">
+      <c r="A32" s="428">
         <v>45688</v>
       </c>
       <c r="B32" s="392" t="s">
@@ -15985,8 +16036,8 @@
       <c r="E32" s="387">
         <v>-800</v>
       </c>
-      <c r="F32" s="428"/>
-      <c r="G32" s="428">
+      <c r="F32" s="426"/>
+      <c r="G32" s="426">
         <v>-680</v>
       </c>
       <c r="H32" s="87">
@@ -15999,7 +16050,7 @@
       <c r="M32" s="96"/>
     </row>
     <row r="33" spans="1:13" s="78" customFormat="1">
-      <c r="A33" s="430">
+      <c r="A33" s="428">
         <v>45688</v>
       </c>
       <c r="B33" s="387" t="s">
@@ -16008,8 +16059,8 @@
       <c r="C33" s="387"/>
       <c r="D33" s="387"/>
       <c r="E33" s="387"/>
-      <c r="F33" s="428"/>
-      <c r="G33" s="428">
+      <c r="F33" s="426"/>
+      <c r="G33" s="426">
         <v>-205.5</v>
       </c>
       <c r="H33" s="87">
@@ -16058,10 +16109,10 @@
     </row>
     <row r="36" spans="1:13" s="78" customFormat="1">
       <c r="A36" s="397"/>
-      <c r="B36" s="431" t="s">
+      <c r="B36" s="429" t="s">
         <v>1661</v>
       </c>
-      <c r="C36" s="432"/>
+      <c r="C36" s="430"/>
       <c r="D36" s="77"/>
       <c r="E36" s="77"/>
       <c r="F36" s="77"/>
@@ -17374,7 +17425,7 @@
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="F129" s="182"/>
-      <c r="H129" s="448"/>
+      <c r="H129" s="443"/>
       <c r="K129" s="78"/>
       <c r="L129" s="78"/>
       <c r="M129" s="78"/>
@@ -17603,7 +17654,7 @@
       <c r="G140" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="H140" s="450">
+      <c r="H140" s="445">
         <f>H128+H134+H123</f>
         <v>17070.09625500007</v>
       </c>
@@ -17702,7 +17753,7 @@
       <c r="C146" s="409"/>
       <c r="D146" s="406"/>
       <c r="E146" s="410"/>
-      <c r="F146" s="445"/>
+      <c r="F146" s="440"/>
       <c r="G146" s="17"/>
       <c r="K146" s="78"/>
       <c r="L146" s="78"/>
@@ -20635,10 +20686,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="440" t="s">
+      <c r="L1" s="446" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="440"/>
+      <c r="M1" s="446"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -21350,11 +21401,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="441">
+      <c r="L17" s="447">
         <f>L15+M15</f>
         <v>1080.7929879999999</v>
       </c>
-      <c r="M17" s="441"/>
+      <c r="M17" s="447"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
@@ -25471,10 +25522,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="440" t="s">
+      <c r="L1" s="446" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="440"/>
+      <c r="M1" s="446"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -25626,11 +25677,11 @@
       </c>
       <c r="C5" s="32">
         <f>'03_25'!E2</f>
-        <v>-79968.849999999991</v>
+        <v>-79968.850000000006</v>
       </c>
       <c r="D5" s="33">
         <f t="shared" si="0"/>
-        <v>247732.34999999998</v>
+        <v>247732.34999999995</v>
       </c>
       <c r="E5" s="32">
         <f>'03_25'!F2</f>
@@ -25638,11 +25689,11 @@
       </c>
       <c r="F5" s="32">
         <f>'03_25'!G2</f>
-        <v>-33671.789999999994</v>
+        <v>-33885.039999999994</v>
       </c>
       <c r="G5" s="33">
         <f t="shared" si="1"/>
-        <v>160790.38</v>
+        <v>160577.13</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="35" t="s">
@@ -25655,7 +25706,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="8">
-        <f>'03_25'!E139/1000</f>
+        <f>'03_25'!E142/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -25673,7 +25724,7 @@
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
-        <v>95455.959999999963</v>
+        <v>95455.959999999934</v>
       </c>
       <c r="E6" s="32">
         <f>'04_25'!F2</f>
@@ -25685,7 +25736,7 @@
       </c>
       <c r="G6" s="33">
         <f t="shared" si="1"/>
-        <v>39811.050000000003</v>
+        <v>39597.800000000003</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="41" t="s">
@@ -25716,7 +25767,7 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>64549.119999999966</v>
+        <v>64549.119999999937</v>
       </c>
       <c r="E7" s="32">
         <f>'05_25'!F2</f>
@@ -25728,7 +25779,7 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>38821.270000000004</v>
+        <v>38608.020000000004</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="41" t="s">
@@ -25759,7 +25810,7 @@
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
-        <v>26142.27999999997</v>
+        <v>26142.279999999941</v>
       </c>
       <c r="E8" s="32">
         <f>'06_25'!F2</f>
@@ -25771,7 +25822,7 @@
       </c>
       <c r="G8" s="33">
         <f t="shared" si="1"/>
-        <v>37831.490000000005</v>
+        <v>37618.240000000005</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="35" t="s">
@@ -25805,7 +25856,7 @@
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
-        <v>-12264.560000000027</v>
+        <v>-12264.560000000056</v>
       </c>
       <c r="E9" s="32">
         <f>'07_25'!F2</f>
@@ -25817,7 +25868,7 @@
       </c>
       <c r="G9" s="33">
         <f t="shared" si="1"/>
-        <v>36841.710000000006</v>
+        <v>36628.460000000006</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="35" t="s">
@@ -25854,7 +25905,7 @@
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
-        <v>-50671.400000000023</v>
+        <v>-50671.400000000052</v>
       </c>
       <c r="E10" s="32">
         <f>'08_25'!F2</f>
@@ -25866,7 +25917,7 @@
       </c>
       <c r="G10" s="33">
         <f t="shared" si="1"/>
-        <v>35851.930000000008</v>
+        <v>35638.680000000008</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="35" t="s">
@@ -25900,7 +25951,7 @@
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
-        <v>-88088.460000000021</v>
+        <v>-88088.46000000005</v>
       </c>
       <c r="E11" s="32">
         <f>'09_25'!F2</f>
@@ -25912,7 +25963,7 @@
       </c>
       <c r="G11" s="33">
         <f t="shared" si="1"/>
-        <v>35851.930000000008</v>
+        <v>35638.680000000008</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="35" t="s">
@@ -25949,7 +26000,7 @@
       </c>
       <c r="D12" s="33">
         <f t="shared" si="0"/>
-        <v>-125505.52000000002</v>
+        <v>-125505.52000000005</v>
       </c>
       <c r="E12" s="32">
         <f>'10_25'!F2</f>
@@ -25961,7 +26012,7 @@
       </c>
       <c r="G12" s="33">
         <f t="shared" si="1"/>
-        <v>35851.930000000008</v>
+        <v>35638.680000000008</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="35" t="s">
@@ -25998,7 +26049,7 @@
       </c>
       <c r="D13" s="33">
         <f t="shared" si="0"/>
-        <v>-162922.58000000002</v>
+        <v>-162922.58000000005</v>
       </c>
       <c r="E13" s="32">
         <f>'11_25'!F2</f>
@@ -26010,7 +26061,7 @@
       </c>
       <c r="G13" s="33">
         <f t="shared" si="1"/>
-        <v>35851.930000000008</v>
+        <v>35638.680000000008</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="35" t="s">
@@ -26047,7 +26098,7 @@
       </c>
       <c r="D14" s="33">
         <f t="shared" si="0"/>
-        <v>-200339.64</v>
+        <v>-200339.64000000004</v>
       </c>
       <c r="E14" s="32">
         <f>'12_25'!F2</f>
@@ -26059,7 +26110,7 @@
       </c>
       <c r="G14" s="33">
         <f t="shared" si="1"/>
-        <v>35851.930000000008</v>
+        <v>35638.680000000008</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="44" t="s">
@@ -26104,11 +26155,11 @@
       </c>
       <c r="F15" s="33">
         <f>SUM(F3:F14)</f>
-        <v>-314257.83000000013</v>
+        <v>-314471.08000000013</v>
       </c>
       <c r="G15" s="33">
         <f>E15+F15</f>
-        <v>35851.929999999877</v>
+        <v>35638.679999999877</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="48"/>
@@ -26148,11 +26199,11 @@
       </c>
       <c r="F16" s="55">
         <f>F15/A16</f>
-        <v>-26188.152500000011</v>
+        <v>-26205.923333333343</v>
       </c>
       <c r="G16" s="55">
         <f>G15/A16</f>
-        <v>2987.6608333333229</v>
+        <v>2969.8899999999899</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="57"/>
@@ -26186,18 +26237,18 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="441">
+      <c r="L17" s="447">
         <f>L15+M15</f>
         <v>976.10596800000008</v>
       </c>
-      <c r="M17" s="441"/>
+      <c r="M17" s="447"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="2">
-        <f>'01_25'!F32+'02_25'!F14+'02_25'!F26+'03_25'!F19+'04_25'!F41+'05_25'!F22+'06_25'!F19+'06_25'!F31+'04_25'!F15</f>
+        <f>'01_25'!F32+'02_25'!F14+'02_25'!F26+'03_25'!F22+'04_25'!F41+'05_25'!F22+'06_25'!F19+'06_25'!F31+'04_25'!F15</f>
         <v>15000</v>
       </c>
       <c r="J18" s="35"/>

--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58C8404-8224-4C07-9FD4-C605CE307DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162709DD-B537-45C6-BAC5-72C78437025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="1684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="1691">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -5437,12 +5437,33 @@
   <si>
     <t>vodafone 2240</t>
   </si>
+  <si>
+    <t>kar</t>
+  </si>
+  <si>
+    <t>satış</t>
+  </si>
+  <si>
+    <t>gün</t>
+  </si>
+  <si>
+    <t>aylık</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>thyo</t>
+  </si>
+  <si>
+    <t>İş ytrm 1626748 THYAO             satış 120</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="26">
+  <numFmts count="28">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _T_L;[Red]\-#,##0.00\ _T_L"/>
     <numFmt numFmtId="166" formatCode="%0"/>
@@ -5469,6 +5490,8 @@
     <numFmt numFmtId="187" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
     <numFmt numFmtId="188" formatCode="0.000%"/>
     <numFmt numFmtId="189" formatCode="0.000000_ ;[Red]\-0.000000\ "/>
+    <numFmt numFmtId="192" formatCode="%0.000"/>
+    <numFmt numFmtId="193" formatCode="0.000_ ;[Red]\-0.000\ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -5814,7 +5837,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6095,6 +6118,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFE2EFDA"/>
       </patternFill>
     </fill>
   </fills>
@@ -6514,7 +6543,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="451">
+  <cellXfs count="464">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7107,13 +7136,26 @@
     <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="16" fillId="43" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="192" fontId="46" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="189" fontId="3" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7141,7 +7183,20 @@
     <cellStyle name="Warning 21" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Yüzde" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -10031,10 +10086,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -10044,10 +10099,11 @@
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="77" customWidth="1"/>
     <col min="5" max="8" width="12.28515625" style="77"/>
-    <col min="10" max="10" width="27.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="78" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="78" customWidth="1"/>
-    <col min="13" max="14" width="12.28515625" style="78"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="78"/>
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10083,11 +10139,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G36)</f>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -10117,7 +10173,7 @@
       <c r="N5" s="78"/>
     </row>
     <row r="6" spans="1:14" s="11" customFormat="1">
-      <c r="A6" s="448">
+      <c r="A6" s="446">
         <v>45718</v>
       </c>
       <c r="B6" s="41" t="s">
@@ -10130,7 +10186,7 @@
       <c r="G6" s="87">
         <v>-213.25</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="87">
         <f t="shared" si="0"/>
         <v>-213.25</v>
       </c>
@@ -10140,7 +10196,7 @@
       <c r="N6" s="78"/>
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1">
-      <c r="A7" s="448"/>
+      <c r="A7" s="446"/>
       <c r="B7" s="177" t="s">
         <v>72</v>
       </c>
@@ -10151,7 +10207,7 @@
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87"/>
-      <c r="H7" s="90">
+      <c r="H7" s="87">
         <f t="shared" si="0"/>
         <v>-213.25</v>
       </c>
@@ -10161,50 +10217,54 @@
       <c r="N7" s="78"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="98">
+      <c r="A8" s="446">
         <v>45721</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90">
+      <c r="C8" s="101"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87">
         <v>-2117.06</v>
       </c>
-      <c r="H8" s="90">
-        <f t="shared" si="0"/>
-        <v>-213.25</v>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87">
+        <v>-2116.98</v>
+      </c>
+      <c r="H8" s="87">
+        <f t="shared" si="0"/>
+        <v>-2330.23</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="449">
+      <c r="A9" s="461">
         <v>45722</v>
       </c>
-      <c r="B9" s="450" t="s">
+      <c r="B9" s="462" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="441"/>
-      <c r="D9" s="406"/>
-      <c r="E9" s="406">
+      <c r="C9" s="463"/>
+      <c r="D9" s="426"/>
+      <c r="E9" s="426">
         <f>E64</f>
         <v>-14628.179999999997</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90">
+      <c r="F9" s="87"/>
+      <c r="G9" s="87">
         <f>E9</f>
         <v>-14628.179999999997</v>
       </c>
-      <c r="H9" s="90">
-        <f t="shared" si="0"/>
-        <v>-14841.429999999997</v>
+      <c r="H9" s="87">
+        <f t="shared" si="0"/>
+        <v>-16958.409999999996</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="449">
+      <c r="A10" s="447">
         <v>45723</v>
       </c>
-      <c r="B10" s="450" t="s">
+      <c r="B10" s="448" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="441"/>
@@ -10220,26 +10280,26 @@
       </c>
       <c r="H10" s="90">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="90">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="G12" s="87"/>
       <c r="H12" s="90">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="H13" s="90">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -10256,13 +10316,13 @@
       </c>
       <c r="H14" s="90">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="H15" s="90">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -10272,7 +10332,7 @@
       <c r="E16" s="90"/>
       <c r="H16" s="90">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="78" customFormat="1">
@@ -10285,7 +10345,7 @@
       <c r="G17" s="77"/>
       <c r="H17" s="90">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -10304,7 +10364,7 @@
       <c r="G18" s="77"/>
       <c r="H18" s="90">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="78" customFormat="1">
@@ -10321,7 +10381,7 @@
       <c r="G19" s="77"/>
       <c r="H19" s="90">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="78" customFormat="1">
@@ -10338,7 +10398,7 @@
       <c r="G20" s="77"/>
       <c r="H20" s="90">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="78" customFormat="1">
@@ -10355,7 +10415,7 @@
       <c r="G21" s="77"/>
       <c r="H21" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="94"/>
@@ -10376,7 +10436,7 @@
       <c r="G22" s="77"/>
       <c r="H22" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="94"/>
@@ -10397,7 +10457,7 @@
       <c r="G23" s="77"/>
       <c r="H23" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -10418,7 +10478,7 @@
       <c r="G24" s="77"/>
       <c r="H24" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -10435,7 +10495,7 @@
       <c r="G25" s="77"/>
       <c r="H25" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -10452,7 +10512,7 @@
       <c r="G26" s="77"/>
       <c r="H26" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -10477,7 +10537,7 @@
       <c r="G27" s="77"/>
       <c r="H27" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="94"/>
@@ -10498,7 +10558,7 @@
       <c r="G28" s="77"/>
       <c r="H28" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="94"/>
@@ -10519,7 +10579,7 @@
       <c r="G29" s="77"/>
       <c r="H29" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
       <c r="J29" s="94"/>
       <c r="K29" s="94"/>
@@ -10536,7 +10596,7 @@
       <c r="G30" s="77"/>
       <c r="H30" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="78" customFormat="1">
@@ -10547,7 +10607,7 @@
       <c r="G31" s="77"/>
       <c r="H31" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -10557,7 +10617,7 @@
       <c r="C32" s="101"/>
       <c r="H32" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
       <c r="I32" s="78"/>
       <c r="J32" s="78"/>
@@ -10565,13 +10625,13 @@
     <row r="33" spans="1:14">
       <c r="H33" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="H34" s="77">
         <f t="shared" si="0"/>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="78" customFormat="1">
@@ -11511,7 +11571,7 @@
       <c r="I105" s="77"/>
       <c r="J105" s="77"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:14">
       <c r="A114" s="113" t="s">
         <v>1682</v>
       </c>
@@ -11525,13 +11585,13 @@
       <c r="E114" s="90"/>
       <c r="F114" s="90"/>
       <c r="G114" s="90">
-        <f>SUM(G118:G144)</f>
-        <v>1079616.2095900001</v>
+        <f>SUM(G118:G146)</f>
+        <v>1096661.0538949999</v>
       </c>
       <c r="H114" s="90"/>
       <c r="I114" s="90"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:14">
       <c r="A115" s="113"/>
       <c r="B115" s="104"/>
       <c r="C115" s="103"/>
@@ -11542,7 +11602,7 @@
       <c r="H115" s="90"/>
       <c r="I115" s="90"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:14">
       <c r="A116" s="113"/>
       <c r="B116" s="104"/>
       <c r="C116" s="103"/>
@@ -11555,7 +11615,7 @@
       <c r="H116" s="90"/>
       <c r="I116" s="90"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:14">
       <c r="A117" s="100"/>
       <c r="B117" s="90" t="s">
         <v>77</v>
@@ -11570,7 +11630,7 @@
       <c r="H117" s="90"/>
       <c r="I117" s="90"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:14">
       <c r="A118" s="100"/>
       <c r="B118" s="90" t="s">
         <v>78</v>
@@ -11585,9 +11645,9 @@
       <c r="H118" s="90"/>
       <c r="I118" s="90"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:14">
       <c r="A119" s="100">
-        <v>45716</v>
+        <v>45721</v>
       </c>
       <c r="B119" s="90" t="s">
         <v>139</v>
@@ -11602,9 +11662,9 @@
       <c r="H119" s="90"/>
       <c r="I119" s="90"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:14">
       <c r="A120" s="100">
-        <v>45716</v>
+        <v>45721</v>
       </c>
       <c r="B120" s="90" t="s">
         <v>140</v>
@@ -11614,659 +11674,684 @@
       <c r="E120" s="90"/>
       <c r="F120" s="90"/>
       <c r="G120" s="17">
-        <v>35797.120000000003</v>
+        <v>18000</v>
       </c>
       <c r="H120" s="90"/>
       <c r="I120" s="90"/>
     </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="100"/>
-      <c r="B121" s="90" t="s">
-        <v>141</v>
-      </c>
+    <row r="121" spans="1:14" s="11" customFormat="1">
+      <c r="A121" s="100">
+        <v>45721</v>
+      </c>
+      <c r="B121" s="90"/>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="90"/>
-      <c r="F121" s="90"/>
+      <c r="F121" s="90" t="s">
+        <v>1689</v>
+      </c>
       <c r="G121" s="17">
-        <v>500</v>
+        <v>38850</v>
       </c>
       <c r="H121" s="90"/>
       <c r="I121" s="90"/>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="100"/>
-      <c r="B122" s="90"/>
+      <c r="K121" s="78"/>
+      <c r="L121" s="78"/>
+      <c r="M121" s="78"/>
+      <c r="N121" s="78"/>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="100">
+        <v>45721</v>
+      </c>
+      <c r="B122" s="90" t="s">
+        <v>141</v>
+      </c>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
       <c r="E122" s="90"/>
       <c r="F122" s="90"/>
-      <c r="G122" s="17"/>
+      <c r="G122" s="17">
+        <v>15000</v>
+      </c>
       <c r="H122" s="90"/>
       <c r="I122" s="90"/>
     </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="100">
+    <row r="123" spans="1:14">
+      <c r="A123" s="100"/>
+      <c r="B123" s="90"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="90"/>
+      <c r="I123" s="90"/>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="100">
         <v>45667</v>
-      </c>
-      <c r="B123" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C123" s="114">
-        <v>50</v>
-      </c>
-      <c r="D123" s="115">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E123" s="116">
-        <f t="shared" ref="E123:E127" si="1">D123*C123</f>
-        <v>43613.183249999995</v>
-      </c>
-      <c r="F123" s="405">
-        <v>924.55062199999998</v>
-      </c>
-      <c r="G123" s="17">
-        <f t="shared" ref="G123:G127" si="2">F123*C123</f>
-        <v>46227.5311</v>
-      </c>
-      <c r="H123" s="90"/>
-      <c r="I123" s="90">
-        <f t="shared" ref="I123:I127" si="3">G123-E123</f>
-        <v>2614.3478500000056</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="100">
-        <v>45672</v>
       </c>
       <c r="B124" s="82" t="s">
         <v>142</v>
       </c>
       <c r="C124" s="114">
+        <v>50</v>
+      </c>
+      <c r="D124" s="115">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E124" s="116">
+        <f t="shared" ref="E124:E129" si="1">D124*C124</f>
+        <v>43613.183249999995</v>
+      </c>
+      <c r="F124" s="405">
+        <v>929.84559100000001</v>
+      </c>
+      <c r="G124" s="17">
+        <f t="shared" ref="G124:G129" si="2">F124*C124</f>
+        <v>46492.279549999999</v>
+      </c>
+      <c r="H124" s="90"/>
+      <c r="I124" s="90">
+        <f t="shared" ref="I124:I129" si="3">G124-E124</f>
+        <v>2879.0963000000047</v>
+      </c>
+      <c r="M124" s="452"/>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="100">
+        <v>45672</v>
+      </c>
+      <c r="B125" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C125" s="114">
         <v>55</v>
       </c>
-      <c r="D124" s="115">
+      <c r="D125" s="115">
         <v>877.65409299999999</v>
       </c>
-      <c r="E124" s="116">
+      <c r="E125" s="116">
         <f t="shared" si="1"/>
         <v>48270.975115000001</v>
       </c>
-      <c r="F124" s="405">
-        <f>F123</f>
-        <v>924.55062199999998</v>
-      </c>
-      <c r="G124" s="17">
-        <f t="shared" si="2"/>
-        <v>50850.284209999998</v>
-      </c>
-      <c r="H124" s="90"/>
-      <c r="I124" s="90">
-        <f t="shared" si="3"/>
-        <v>2579.3090949999969</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="100">
-        <v>45680</v>
-      </c>
-      <c r="B125" s="82" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C125" s="114">
-        <v>120</v>
-      </c>
-      <c r="D125" s="115">
-        <v>305</v>
-      </c>
-      <c r="E125" s="116">
-        <f t="shared" si="1"/>
-        <v>36600</v>
-      </c>
-      <c r="F125" s="90">
-        <v>308</v>
+      <c r="F125" s="405">
+        <f>F124</f>
+        <v>929.84559100000001</v>
       </c>
       <c r="G125" s="17">
         <f t="shared" si="2"/>
-        <v>36960</v>
+        <v>51141.507505000001</v>
       </c>
       <c r="H125" s="90"/>
       <c r="I125" s="90">
         <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="100">
+        <v>2870.5323900000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="453">
+        <v>45680</v>
+      </c>
+      <c r="B126" s="454" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C126" s="455"/>
+      <c r="D126" s="456">
+        <v>305</v>
+      </c>
+      <c r="E126" s="457">
+        <f>D126*C126</f>
+        <v>0</v>
+      </c>
+      <c r="F126" s="418">
+        <v>323.75</v>
+      </c>
+      <c r="G126" s="458">
+        <f>F126*C126</f>
+        <v>0</v>
+      </c>
+      <c r="H126" s="418"/>
+      <c r="I126" s="418">
+        <f>G126-E126</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="451"/>
+      <c r="K126" s="100"/>
+      <c r="M126" s="451"/>
+    </row>
+    <row r="127" spans="1:14" s="11" customFormat="1">
+      <c r="A127" s="453">
+        <v>45721</v>
+      </c>
+      <c r="B127" s="454" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C127" s="455"/>
+      <c r="D127" s="456"/>
+      <c r="E127" s="457"/>
+      <c r="F127" s="418"/>
+      <c r="G127" s="458"/>
+      <c r="H127" s="418"/>
+      <c r="I127" s="418">
+        <v>-81.59</v>
+      </c>
+      <c r="J127" s="78"/>
+      <c r="K127" s="451"/>
+      <c r="L127" s="78"/>
+      <c r="M127" s="451"/>
+      <c r="N127" s="78"/>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="100">
         <v>45620</v>
       </c>
-      <c r="B126" s="82" t="s">
+      <c r="B128" s="82" t="s">
         <v>1612</v>
       </c>
-      <c r="C126" s="114">
+      <c r="C128" s="114">
         <v>4000</v>
       </c>
-      <c r="D126" s="114">
+      <c r="D128" s="114">
         <v>32.549999999999997</v>
       </c>
-      <c r="E126" s="116">
+      <c r="E128" s="116">
         <f t="shared" si="1"/>
         <v>130199.99999999999</v>
       </c>
-      <c r="F126" s="90">
-        <v>34.47</v>
-      </c>
-      <c r="G126" s="17">
+      <c r="F128" s="90">
+        <v>36.25</v>
+      </c>
+      <c r="G128" s="17">
         <f t="shared" si="2"/>
-        <v>137880</v>
-      </c>
-      <c r="H126" s="90"/>
-      <c r="I126" s="90">
+        <v>145000</v>
+      </c>
+      <c r="H128" s="90"/>
+      <c r="I128" s="90">
         <f t="shared" si="3"/>
-        <v>7680.0000000000146</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A127" s="100">
+        <v>14800.000000000015</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A129" s="100">
         <v>45659</v>
       </c>
-      <c r="B127" s="82" t="s">
+      <c r="B129" s="82" t="s">
         <v>1611</v>
       </c>
-      <c r="C127" s="114">
+      <c r="C129" s="114">
         <v>4000</v>
       </c>
-      <c r="D127" s="115">
+      <c r="D129" s="115">
         <v>30.86</v>
       </c>
-      <c r="E127" s="116">
+      <c r="E129" s="116">
         <f t="shared" si="1"/>
         <v>123440</v>
       </c>
-      <c r="F127" s="90">
-        <f>F126</f>
-        <v>34.47</v>
-      </c>
-      <c r="G127" s="17">
+      <c r="F129" s="90">
+        <f>F128</f>
+        <v>36.25</v>
+      </c>
+      <c r="G129" s="17">
         <f t="shared" si="2"/>
-        <v>137880</v>
-      </c>
-      <c r="H127" s="420">
-        <f>SUM(G123:G127)</f>
-        <v>409797.81530999998</v>
-      </c>
-      <c r="I127" s="90">
+        <v>145000</v>
+      </c>
+      <c r="H129" s="420">
+        <f>SUM(G124:G129)</f>
+        <v>387633.78705499996</v>
+      </c>
+      <c r="I129" s="90">
         <f t="shared" si="3"/>
-        <v>14440</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A128" s="100"/>
-      <c r="B128" s="90"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="90">
-        <f>SUM(E123:E127)</f>
-        <v>382124.15836499998</v>
-      </c>
-      <c r="F128" s="90"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="117">
-        <f>(SUM(G123:G127))-(SUM(E123:E127))</f>
-        <v>27673.656944999995</v>
-      </c>
-      <c r="I128" s="117">
-        <f>SUM(I123:I127)</f>
-        <v>27673.656945000017</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="100"/>
-      <c r="B129" s="90"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="90"/>
-      <c r="F129" s="90"/>
-      <c r="G129" s="90"/>
-      <c r="H129" s="90"/>
-      <c r="I129" s="90"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="100">
-        <v>45345</v>
-      </c>
-      <c r="B130" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="C130" s="118">
-        <v>125000</v>
-      </c>
-      <c r="D130" s="83">
-        <v>1.0399430000000001</v>
-      </c>
-      <c r="E130" s="116">
-        <f>D130*C130</f>
-        <v>129992.87500000001</v>
-      </c>
-      <c r="F130" s="119">
-        <v>0.76836099999999996</v>
-      </c>
-      <c r="G130" s="17">
-        <f>F130*C130</f>
-        <v>96045.125</v>
-      </c>
-      <c r="H130" s="90"/>
-      <c r="I130" s="90">
-        <f t="shared" ref="I130:I134" si="4">G130-E130</f>
-        <v>-33947.750000000015</v>
+        <v>21560</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A130" s="100"/>
+      <c r="B130" s="90"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="90">
+        <f>SUM(E124:E129)</f>
+        <v>345524.15836499998</v>
+      </c>
+      <c r="F130" s="90"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="117">
+        <f>(SUM(G124:G129))-(SUM(E124:E129))</f>
+        <v>42109.628689999983</v>
+      </c>
+      <c r="I130" s="117">
+        <f>SUM(I124:I129)</f>
+        <v>42028.038690000016</v>
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="100">
-        <v>45667</v>
-      </c>
-      <c r="B131" s="82" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C131" s="118">
-        <v>240</v>
-      </c>
-      <c r="D131" s="83">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E131" s="116">
-        <f>D131*C131</f>
-        <v>209343.27959999998</v>
-      </c>
-      <c r="F131" s="404">
-        <f>F124</f>
-        <v>924.55062199999998</v>
-      </c>
-      <c r="G131" s="17">
-        <f>F131*C131</f>
-        <v>221892.14927999998</v>
-      </c>
+      <c r="A131" s="100"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="90"/>
+      <c r="F131" s="90"/>
+      <c r="G131" s="90"/>
       <c r="H131" s="90"/>
-      <c r="I131" s="90">
-        <f t="shared" si="4"/>
-        <v>12548.869680000003</v>
-      </c>
+      <c r="I131" s="90"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="100">
-        <v>45400</v>
+        <v>45345</v>
       </c>
       <c r="B132" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="C132" s="114">
-        <v>10</v>
+        <v>144</v>
+      </c>
+      <c r="C132" s="118">
+        <v>125000</v>
       </c>
       <c r="D132" s="83">
-        <v>135</v>
+        <v>1.0399430000000001</v>
       </c>
       <c r="E132" s="116">
         <f>D132*C132</f>
-        <v>1350</v>
-      </c>
-      <c r="F132" s="90">
-        <v>112.6</v>
+        <v>129992.87500000001</v>
+      </c>
+      <c r="F132" s="119">
+        <v>0.76836099999999996</v>
       </c>
       <c r="G132" s="17">
         <f>F132*C132</f>
-        <v>1126</v>
+        <v>96045.125</v>
       </c>
       <c r="H132" s="90"/>
       <c r="I132" s="90">
-        <f t="shared" si="4"/>
-        <v>-224</v>
+        <f t="shared" ref="I132:I136" si="4">G132-E132</f>
+        <v>-33947.750000000015</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="100">
-        <v>45418</v>
+        <v>45667</v>
       </c>
       <c r="B133" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="C133" s="114">
-        <v>38</v>
+        <v>1614</v>
+      </c>
+      <c r="C133" s="118">
+        <v>240</v>
       </c>
       <c r="D133" s="83">
-        <v>30.5</v>
+        <v>872.26366499999995</v>
       </c>
       <c r="E133" s="116">
         <f>D133*C133</f>
-        <v>1159</v>
-      </c>
-      <c r="F133" s="90">
-        <v>16.899999999999999</v>
+        <v>209343.27959999998</v>
+      </c>
+      <c r="F133" s="404">
+        <f>F125</f>
+        <v>929.84559100000001</v>
       </c>
       <c r="G133" s="17">
         <f>F133*C133</f>
-        <v>642.19999999999993</v>
+        <v>223162.94184000001</v>
       </c>
       <c r="H133" s="90"/>
       <c r="I133" s="90">
         <f t="shared" si="4"/>
-        <v>-516.80000000000007</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="13.5" thickBot="1">
+        <v>13819.662240000034</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="100">
-        <v>45418</v>
+        <v>45400</v>
       </c>
       <c r="B134" s="82" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C134" s="114">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D134" s="83">
-        <v>37.115000000000002</v>
+        <v>135</v>
       </c>
       <c r="E134" s="116">
         <f>D134*C134</f>
-        <v>964.99</v>
+        <v>1350</v>
       </c>
       <c r="F134" s="90">
-        <v>23.5</v>
+        <v>112.6</v>
       </c>
       <c r="G134" s="17">
         <f>F134*C134</f>
-        <v>611</v>
-      </c>
-      <c r="H134" s="420">
-        <f>SUM(G130:G134)</f>
-        <v>320316.47428000002</v>
-      </c>
+        <v>1126</v>
+      </c>
+      <c r="H134" s="90"/>
       <c r="I134" s="90">
         <f t="shared" si="4"/>
+        <v>-224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="100">
+        <v>45418</v>
+      </c>
+      <c r="B135" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C135" s="114">
+        <v>38</v>
+      </c>
+      <c r="D135" s="83">
+        <v>30.5</v>
+      </c>
+      <c r="E135" s="116">
+        <f>D135*C135</f>
+        <v>1159</v>
+      </c>
+      <c r="F135" s="90">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G135" s="17">
+        <f>F135*C135</f>
+        <v>642.19999999999993</v>
+      </c>
+      <c r="H135" s="90"/>
+      <c r="I135" s="90">
+        <f t="shared" si="4"/>
+        <v>-516.80000000000007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A136" s="100">
+        <v>45418</v>
+      </c>
+      <c r="B136" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" s="114">
+        <v>26</v>
+      </c>
+      <c r="D136" s="83">
+        <v>37.115000000000002</v>
+      </c>
+      <c r="E136" s="116">
+        <f>D136*C136</f>
+        <v>964.99</v>
+      </c>
+      <c r="F136" s="90">
+        <v>23.5</v>
+      </c>
+      <c r="G136" s="17">
+        <f>F136*C136</f>
+        <v>611</v>
+      </c>
+      <c r="H136" s="420">
+        <f>SUM(G132:G136)</f>
+        <v>321587.26684</v>
+      </c>
+      <c r="I136" s="90">
+        <f t="shared" si="4"/>
         <v>-353.99</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A135" s="100"/>
-      <c r="B135" s="90"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="90">
-        <f>SUM(E130:E134)</f>
+    <row r="137" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A137" s="100"/>
+      <c r="B137" s="90"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="90">
+        <f>SUM(E132:E136)</f>
         <v>342810.1446</v>
       </c>
-      <c r="F135" s="90"/>
-      <c r="G135" s="90"/>
-      <c r="H135" s="117">
-        <f>(SUM(G130:G134))-(SUM(E130:E134))</f>
-        <v>-22493.670319999976</v>
-      </c>
-      <c r="I135" s="90"/>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="100"/>
-      <c r="B136" s="90"/>
-      <c r="C136" s="90"/>
-      <c r="D136" s="90"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="90"/>
-      <c r="G136" s="90"/>
-      <c r="H136" s="90"/>
-      <c r="I136" s="90"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="100">
-        <v>45509</v>
-      </c>
-      <c r="B137" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C137" s="114">
-        <v>1</v>
-      </c>
-      <c r="D137" s="83">
-        <v>2500</v>
-      </c>
-      <c r="E137" s="116">
-        <f>D137*C137</f>
-        <v>2500</v>
-      </c>
-      <c r="F137" s="90">
-        <v>3283</v>
-      </c>
-      <c r="G137" s="17">
-        <f>C137*F137</f>
-        <v>3283</v>
-      </c>
-      <c r="H137" s="90"/>
-      <c r="I137" s="90">
-        <f t="shared" ref="I137:I139" si="5">G137-E137</f>
-        <v>783</v>
-      </c>
+      <c r="F137" s="90"/>
+      <c r="G137" s="90"/>
+      <c r="H137" s="117">
+        <f>(SUM(G132:G136))-(SUM(E132:E136))</f>
+        <v>-21222.877760000003</v>
+      </c>
+      <c r="I137" s="90"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="100">
-        <v>45509</v>
-      </c>
-      <c r="B138" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="C138" s="114">
-        <v>16</v>
-      </c>
-      <c r="D138" s="83">
-        <v>4100</v>
-      </c>
-      <c r="E138" s="116">
-        <f>D138*C138</f>
-        <v>65600</v>
-      </c>
-      <c r="F138" s="90">
-        <f>F137*1.73</f>
-        <v>5679.59</v>
-      </c>
-      <c r="G138" s="17">
-        <f>C138*F138</f>
-        <v>90873.44</v>
-      </c>
+      <c r="A138" s="100"/>
+      <c r="B138" s="90"/>
+      <c r="C138" s="90"/>
+      <c r="D138" s="90"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="90"/>
+      <c r="G138" s="90"/>
       <c r="H138" s="90"/>
-      <c r="I138" s="90">
-        <f t="shared" si="5"/>
-        <v>25273.440000000002</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="13.5" thickBot="1">
+      <c r="I138" s="90"/>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="100">
         <v>45509</v>
       </c>
       <c r="B139" s="82" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C139" s="114">
         <v>1</v>
       </c>
       <c r="D139" s="83">
-        <v>16200</v>
+        <v>2500</v>
       </c>
       <c r="E139" s="116">
         <f>D139*C139</f>
-        <v>16200</v>
+        <v>2500</v>
       </c>
       <c r="F139" s="90">
-        <f>F138*4</f>
-        <v>22718.36</v>
+        <v>3350</v>
       </c>
       <c r="G139" s="17">
         <f>C139*F139</f>
-        <v>22718.36</v>
-      </c>
-      <c r="H139" s="420">
-        <f>SUM(G137:G139)</f>
-        <v>116874.8</v>
-      </c>
+        <v>3350</v>
+      </c>
+      <c r="H139" s="90"/>
       <c r="I139" s="90">
+        <f t="shared" ref="I139:I141" si="5">G139-E139</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="100">
+        <v>45509</v>
+      </c>
+      <c r="B140" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" s="114">
+        <v>16</v>
+      </c>
+      <c r="D140" s="83">
+        <v>4100</v>
+      </c>
+      <c r="E140" s="116">
+        <f>D140*C140</f>
+        <v>65600</v>
+      </c>
+      <c r="F140" s="90">
+        <f>F139*1.73</f>
+        <v>5795.5</v>
+      </c>
+      <c r="G140" s="17">
+        <f>C140*F140</f>
+        <v>92728</v>
+      </c>
+      <c r="H140" s="90"/>
+      <c r="I140" s="90">
         <f t="shared" si="5"/>
-        <v>6518.3600000000006</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A140" s="100"/>
-      <c r="B140" s="90"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="90">
-        <f>SUM(E137:E139)</f>
+        <v>27128</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A141" s="100">
+        <v>45509</v>
+      </c>
+      <c r="B141" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141" s="114">
+        <v>1</v>
+      </c>
+      <c r="D141" s="83">
+        <v>16200</v>
+      </c>
+      <c r="E141" s="116">
+        <f>D141*C141</f>
+        <v>16200</v>
+      </c>
+      <c r="F141" s="90">
+        <f>F140*4</f>
+        <v>23182</v>
+      </c>
+      <c r="G141" s="17">
+        <f>C141*F141</f>
+        <v>23182</v>
+      </c>
+      <c r="H141" s="420">
+        <f>SUM(G139:G141)</f>
+        <v>119260</v>
+      </c>
+      <c r="I141" s="90">
+        <f t="shared" si="5"/>
+        <v>6982</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A142" s="100"/>
+      <c r="B142" s="90"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="90">
+        <f>SUM(E139:E141)</f>
         <v>84300</v>
       </c>
-      <c r="F140" s="90"/>
-      <c r="G140" s="90"/>
-      <c r="H140" s="117">
-        <f>(SUM(G137:G139))-(SUM(E137:E139))</f>
-        <v>32574.800000000003</v>
-      </c>
-      <c r="I140" s="90"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="100"/>
-      <c r="B141" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="C141" s="120">
-        <v>33.250599999999999</v>
-      </c>
-      <c r="D141" s="12"/>
-      <c r="E141" s="90"/>
-      <c r="F141" s="90"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="90"/>
-      <c r="I141" s="90"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="100"/>
-      <c r="B142" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="C142" s="120">
-        <v>36.854999999999997</v>
-      </c>
-      <c r="D142" s="12"/>
-      <c r="E142" s="90"/>
       <c r="F142" s="90"/>
-      <c r="G142" s="17"/>
-      <c r="H142" s="90"/>
+      <c r="G142" s="90"/>
+      <c r="H142" s="117">
+        <f>(SUM(G139:G141))-(SUM(E139:E141))</f>
+        <v>34960</v>
+      </c>
       <c r="I142" s="90"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="100"/>
       <c r="B143" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="C143" s="12"/>
+        <v>151</v>
+      </c>
+      <c r="C143" s="120">
+        <v>33.250599999999999</v>
+      </c>
       <c r="D143" s="12"/>
       <c r="E143" s="90"/>
       <c r="F143" s="90"/>
-      <c r="G143" s="17">
-        <v>0</v>
-      </c>
+      <c r="G143" s="17"/>
       <c r="H143" s="90"/>
       <c r="I143" s="90"/>
     </row>
-    <row r="144" spans="1:9" ht="13.5" thickBot="1">
+    <row r="144" spans="1:9">
       <c r="A144" s="100"/>
       <c r="B144" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="C144" s="12"/>
+        <v>152</v>
+      </c>
+      <c r="C144" s="120">
+        <v>36.854999999999997</v>
+      </c>
       <c r="D144" s="12"/>
       <c r="E144" s="90"/>
       <c r="F144" s="90"/>
-      <c r="G144" s="17">
-        <v>1000</v>
-      </c>
+      <c r="G144" s="17"/>
       <c r="H144" s="90"/>
       <c r="I144" s="90"/>
     </row>
-    <row r="145" spans="1:9" ht="13.5" thickBot="1">
+    <row r="145" spans="1:13">
       <c r="A145" s="100"/>
-      <c r="B145" s="90"/>
-      <c r="C145" s="90"/>
-      <c r="D145" s="90"/>
-      <c r="E145" s="121"/>
-      <c r="F145" s="122"/>
-      <c r="G145" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="H145" s="432">
-        <f>H140+H135+H128</f>
-        <v>37754.786625000022</v>
-      </c>
+      <c r="B145" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="90"/>
+      <c r="F145" s="90"/>
+      <c r="G145" s="17">
+        <v>0</v>
+      </c>
+      <c r="H145" s="90"/>
       <c r="I145" s="90"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:13" ht="13.5" thickBot="1">
       <c r="A146" s="100"/>
-      <c r="B146" s="90"/>
-      <c r="C146" s="124"/>
-      <c r="D146" s="92"/>
+      <c r="B146" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
       <c r="E146" s="90"/>
       <c r="F146" s="90"/>
-      <c r="G146" s="124"/>
+      <c r="G146" s="17">
+        <v>1000</v>
+      </c>
       <c r="H146" s="90"/>
       <c r="I146" s="90"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:13" ht="13.5" thickBot="1">
       <c r="A147" s="100"/>
       <c r="B147" s="90"/>
-      <c r="C147" s="124"/>
-      <c r="D147" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E147" s="90"/>
-      <c r="F147" s="90"/>
-      <c r="G147" s="9">
-        <f>SUM(G118:G144)</f>
-        <v>1079616.2095900001</v>
-      </c>
-      <c r="H147" s="90"/>
+      <c r="C147" s="90"/>
+      <c r="D147" s="90"/>
+      <c r="E147" s="121"/>
+      <c r="F147" s="122"/>
+      <c r="G147" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="H147" s="432">
+        <f>H142+H137+H130</f>
+        <v>55846.75092999998</v>
+      </c>
       <c r="I147" s="90"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:13">
       <c r="A148" s="100"/>
       <c r="B148" s="90"/>
-      <c r="C148" s="126" t="str">
+      <c r="C148" s="124"/>
+      <c r="D148" s="92"/>
+      <c r="E148" s="90"/>
+      <c r="F148" s="90"/>
+      <c r="G148" s="124"/>
+      <c r="H148" s="90"/>
+      <c r="I148" s="90"/>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="100"/>
+      <c r="B149" s="90"/>
+      <c r="C149" s="124"/>
+      <c r="D149" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E149" s="90"/>
+      <c r="F149" s="90"/>
+      <c r="G149" s="9">
+        <f>SUM(G118:G146)</f>
+        <v>1096661.0538949999</v>
+      </c>
+      <c r="H149" s="90"/>
+      <c r="I149" s="90"/>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="100"/>
+      <c r="B150" s="90"/>
+      <c r="C150" s="126" t="str">
         <f>A114</f>
         <v>NİSAN 2025 e</v>
       </c>
-      <c r="D148" s="126" t="s">
+      <c r="D150" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="E148" s="90"/>
-      <c r="F148" s="90"/>
-      <c r="G148" s="127"/>
-      <c r="H148" s="90"/>
-      <c r="I148" s="90"/>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="100"/>
-      <c r="B149" s="90"/>
-      <c r="C149" s="125"/>
-      <c r="D149" s="126"/>
-      <c r="E149" s="90"/>
-      <c r="F149" s="90"/>
-      <c r="G149" s="127"/>
-      <c r="H149" s="90"/>
-      <c r="I149" s="90"/>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="100"/>
-      <c r="B150" s="90"/>
-      <c r="C150" s="125"/>
-      <c r="D150" s="126"/>
       <c r="E150" s="90"/>
       <c r="F150" s="90"/>
       <c r="G150" s="127"/>
       <c r="H150" s="90"/>
       <c r="I150" s="90"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:13">
       <c r="A151" s="100"/>
       <c r="B151" s="90"/>
       <c r="C151" s="125"/>
@@ -12277,434 +12362,482 @@
       <c r="H151" s="90"/>
       <c r="I151" s="90"/>
     </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="90"/>
+    <row r="152" spans="1:13">
+      <c r="A152" s="100"/>
       <c r="B152" s="90"/>
-      <c r="C152" s="90"/>
-      <c r="D152" s="90"/>
+      <c r="C152" s="125"/>
+      <c r="D152" s="126"/>
       <c r="E152" s="90"/>
       <c r="F152" s="90"/>
-      <c r="G152" s="90"/>
+      <c r="G152" s="127"/>
       <c r="H152" s="90"/>
       <c r="I152" s="90"/>
     </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="100">
-        <v>45691</v>
-      </c>
-      <c r="B153" s="82" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C153" s="114"/>
-      <c r="D153" s="115">
-        <v>752.55561799999998</v>
-      </c>
-      <c r="E153" s="116">
-        <f>D153*C153</f>
-        <v>0</v>
-      </c>
-      <c r="F153" s="404">
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G153" s="17">
-        <f>F153*C153</f>
-        <v>0</v>
-      </c>
+    <row r="153" spans="1:13">
+      <c r="A153" s="100"/>
+      <c r="B153" s="90"/>
+      <c r="C153" s="125"/>
+      <c r="D153" s="126"/>
+      <c r="E153" s="90"/>
+      <c r="F153" s="90"/>
+      <c r="G153" s="127"/>
       <c r="H153" s="90"/>
-      <c r="I153" s="90">
-        <f>G153-E153</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="397">
+      <c r="I153" s="90"/>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="90"/>
+      <c r="B154" s="90"/>
+      <c r="C154" s="90"/>
+      <c r="D154" s="90"/>
+      <c r="E154" s="90"/>
+      <c r="F154" s="90"/>
+      <c r="G154" s="90"/>
+      <c r="H154" s="90"/>
+      <c r="I154" s="90" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1684</v>
+      </c>
+      <c r="K154" s="78" t="s">
+        <v>1685</v>
+      </c>
+      <c r="L154" s="78" t="s">
+        <v>1686</v>
+      </c>
+      <c r="M154" s="78" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="100">
         <v>45680</v>
       </c>
-      <c r="B154" s="398" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C154" s="399"/>
-      <c r="D154" s="400">
-        <v>752.55561799999998</v>
-      </c>
-      <c r="E154" s="401">
-        <f>D154*C154</f>
-        <v>0</v>
-      </c>
-      <c r="F154" s="402">
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G154" s="403">
-        <f>F154*C154</f>
-        <v>0</v>
-      </c>
-      <c r="H154" s="402"/>
-      <c r="I154" s="402">
-        <f>E154-G154</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="397">
-        <v>45680</v>
-      </c>
-      <c r="B155" s="398" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C155" s="399"/>
-      <c r="D155" s="400"/>
-      <c r="E155" s="401">
-        <v>299.37</v>
-      </c>
-      <c r="F155" s="402"/>
-      <c r="G155" s="403"/>
-      <c r="H155" s="402"/>
-      <c r="I155" s="402">
+      <c r="B155" s="82" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C155" s="114">
+        <v>120</v>
+      </c>
+      <c r="D155" s="115">
+        <v>305</v>
+      </c>
+      <c r="E155" s="116">
+        <f>D155*C155</f>
+        <v>36600</v>
+      </c>
+      <c r="F155" s="90">
+        <v>323.75</v>
+      </c>
+      <c r="G155" s="17">
+        <f>F155*C155</f>
+        <v>38850</v>
+      </c>
+      <c r="H155" s="90"/>
+      <c r="I155" s="90">
         <f>G155-E155</f>
-        <v>-299.37</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>2250</v>
+      </c>
+      <c r="J155" s="451">
+        <f>(I155-I156)/E155</f>
+        <v>6.3704644808743174E-2</v>
+      </c>
+      <c r="K155" s="100">
+        <v>45721</v>
+      </c>
+      <c r="L155" s="78">
+        <f>K155-A155</f>
+        <v>41</v>
+      </c>
+      <c r="M155" s="451">
+        <f>J155/L155*30</f>
+        <v>4.6613154738104762E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="100">
-        <v>45691</v>
+        <v>45721</v>
       </c>
       <c r="B156" s="82" t="s">
-        <v>1653</v>
+        <v>1610</v>
       </c>
       <c r="C156" s="114"/>
-      <c r="D156" s="115">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E156" s="116">
-        <f>D156*C156</f>
-        <v>0</v>
-      </c>
-      <c r="F156" s="405">
-        <f>F162</f>
-        <v>907.06739800000003</v>
-      </c>
-      <c r="G156" s="17">
-        <f>F156*C156</f>
-        <v>0</v>
-      </c>
+      <c r="D156" s="115"/>
+      <c r="E156" s="116"/>
+      <c r="F156" s="90"/>
+      <c r="G156" s="17"/>
       <c r="H156" s="90"/>
       <c r="I156" s="90">
-        <f>G156-E156</f>
+        <v>-81.59</v>
+      </c>
+      <c r="J156" s="78">
+        <f>I155-I156</f>
+        <v>2331.59</v>
+      </c>
+      <c r="K156" s="451" t="s">
+        <v>1688</v>
+      </c>
+      <c r="M156" s="451"/>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="453">
+        <v>45680</v>
+      </c>
+      <c r="B157" s="454" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C157" s="455"/>
+      <c r="D157" s="456"/>
+      <c r="E157" s="457">
+        <v>299.37</v>
+      </c>
+      <c r="F157" s="418"/>
+      <c r="G157" s="458"/>
+      <c r="H157" s="418"/>
+      <c r="I157" s="418"/>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="453">
+        <v>45691</v>
+      </c>
+      <c r="B158" s="454" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C158" s="455"/>
+      <c r="D158" s="456">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E158" s="457">
+        <f>D158*C158</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="397">
+      <c r="F158" s="459">
+        <f>F164</f>
+        <v>907.06739800000003</v>
+      </c>
+      <c r="G158" s="458">
+        <f>F158*C158</f>
+        <v>0</v>
+      </c>
+      <c r="H158" s="418"/>
+      <c r="I158" s="418">
+        <f>G158-E158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="453">
         <v>45680</v>
       </c>
-      <c r="B157" s="398" t="s">
+      <c r="B159" s="454" t="s">
         <v>142</v>
       </c>
-      <c r="C157" s="399"/>
-      <c r="D157" s="115">
+      <c r="C159" s="455"/>
+      <c r="D159" s="456">
         <v>872.26366499999995</v>
       </c>
-      <c r="E157" s="401">
-        <f>D157*C157</f>
-        <v>0</v>
-      </c>
-      <c r="F157" s="402">
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G157" s="403">
-        <f>F157*C157</f>
-        <v>0</v>
-      </c>
-      <c r="H157" s="402"/>
-      <c r="I157" s="402">
-        <f>E157-G157</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="397">
-        <v>45680</v>
-      </c>
-      <c r="B158" s="398" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C158" s="399"/>
-      <c r="D158" s="400"/>
-      <c r="E158" s="401"/>
-      <c r="F158" s="402"/>
-      <c r="G158" s="403"/>
-      <c r="H158" s="402"/>
-      <c r="I158" s="402"/>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="100">
-        <v>45692</v>
-      </c>
-      <c r="B159" s="82" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C159" s="114"/>
-      <c r="D159" s="115">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E159" s="116">
+      <c r="E159" s="457">
         <f>D159*C159</f>
         <v>0</v>
       </c>
-      <c r="F159" s="405">
-        <v>900.29758900000002</v>
-      </c>
-      <c r="G159" s="17">
+      <c r="F159" s="418">
+        <v>899.26057400000002</v>
+      </c>
+      <c r="G159" s="458">
         <f>F159*C159</f>
         <v>0</v>
       </c>
-      <c r="H159" s="90"/>
-      <c r="I159" s="90">
-        <f>G159-E159</f>
+      <c r="H159" s="418"/>
+      <c r="I159" s="418">
+        <f>E159-G159</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="397">
+    <row r="160" spans="1:13">
+      <c r="A160" s="453">
+        <v>45680</v>
+      </c>
+      <c r="B160" s="454" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C160" s="455"/>
+      <c r="D160" s="456"/>
+      <c r="E160" s="457"/>
+      <c r="F160" s="418"/>
+      <c r="G160" s="458"/>
+      <c r="H160" s="418"/>
+      <c r="I160" s="418"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="453">
         <v>45692</v>
       </c>
-      <c r="B160" s="398"/>
-      <c r="C160" s="399"/>
-      <c r="D160" s="400">
+      <c r="B161" s="454" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C161" s="455"/>
+      <c r="D161" s="456">
         <v>872.26366499999995</v>
       </c>
-      <c r="E160" s="401">
-        <f t="shared" ref="E160" si="6">D160*C160</f>
+      <c r="E161" s="457">
+        <f>D161*C161</f>
         <v>0</v>
       </c>
-      <c r="F160" s="424">
+      <c r="F161" s="459">
         <v>900.29758900000002</v>
       </c>
-      <c r="G160" s="403">
-        <f t="shared" ref="G160" si="7">F160*C160</f>
+      <c r="G161" s="458">
+        <f>F161*C161</f>
         <v>0</v>
       </c>
-      <c r="H160" s="402"/>
-      <c r="I160" s="402">
-        <f>E160-G160</f>
+      <c r="H161" s="418"/>
+      <c r="I161" s="418">
+        <f>G161-E161</f>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="397">
+    <row r="162" spans="1:9">
+      <c r="A162" s="453">
+        <v>45692</v>
+      </c>
+      <c r="B162" s="454"/>
+      <c r="C162" s="455"/>
+      <c r="D162" s="456">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E162" s="457">
+        <f t="shared" ref="E162" si="6">D162*C162</f>
+        <v>0</v>
+      </c>
+      <c r="F162" s="459">
+        <v>900.29758900000002</v>
+      </c>
+      <c r="G162" s="458">
+        <f t="shared" ref="G162" si="7">F162*C162</f>
+        <v>0</v>
+      </c>
+      <c r="H162" s="418"/>
+      <c r="I162" s="418">
+        <f>E162-G162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="453">
         <v>45680</v>
       </c>
-      <c r="B161" s="398" t="s">
+      <c r="B163" s="454" t="s">
         <v>1613</v>
       </c>
-      <c r="C161" s="399"/>
-      <c r="D161" s="400"/>
-      <c r="E161" s="401"/>
-      <c r="F161" s="402"/>
-      <c r="G161" s="403"/>
-      <c r="H161" s="402"/>
-      <c r="I161" s="402">
-        <v>-70.09</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="100">
+      <c r="C163" s="455"/>
+      <c r="D163" s="456"/>
+      <c r="E163" s="457"/>
+      <c r="F163" s="418"/>
+      <c r="G163" s="458"/>
+      <c r="H163" s="418"/>
+      <c r="I163" s="418"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="453">
         <v>45699</v>
       </c>
-      <c r="B162" s="82" t="s">
+      <c r="B164" s="454" t="s">
         <v>1667</v>
       </c>
-      <c r="C162" s="114"/>
-      <c r="D162" s="115">
+      <c r="C164" s="455"/>
+      <c r="D164" s="456">
         <v>872.26366499999995</v>
       </c>
-      <c r="E162" s="116">
-        <f>D162*C162</f>
+      <c r="E164" s="457">
+        <f>D164*C164</f>
         <v>0</v>
       </c>
-      <c r="F162" s="405">
+      <c r="F164" s="459">
         <v>907.06739800000003</v>
       </c>
-      <c r="G162" s="17">
-        <f>F162*C162</f>
+      <c r="G164" s="458">
+        <f>F164*C164</f>
         <v>0</v>
       </c>
-      <c r="H162" s="90"/>
-      <c r="I162" s="90">
-        <f>G162-E162</f>
+      <c r="H164" s="418"/>
+      <c r="I164" s="418">
+        <f>G164-E164</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="397">
+    <row r="165" spans="1:9">
+      <c r="A165" s="453">
         <v>45692</v>
       </c>
-      <c r="B163" s="398"/>
-      <c r="C163" s="399"/>
-      <c r="D163" s="400">
+      <c r="B165" s="454"/>
+      <c r="C165" s="455"/>
+      <c r="D165" s="456">
         <v>872.26366499999995</v>
       </c>
-      <c r="E163" s="401">
-        <f t="shared" ref="E163" si="8">D163*C163</f>
+      <c r="E165" s="457">
+        <f t="shared" ref="E165" si="8">D165*C165</f>
         <v>0</v>
       </c>
-      <c r="F163" s="424">
+      <c r="F165" s="459">
         <v>907.06739800000003</v>
       </c>
-      <c r="G163" s="403">
-        <f t="shared" ref="G163" si="9">F163*C163</f>
+      <c r="G165" s="458">
+        <f t="shared" ref="G165" si="9">F165*C165</f>
         <v>0</v>
       </c>
-      <c r="H163" s="402"/>
-      <c r="I163" s="402">
-        <f>E163-G163</f>
+      <c r="H165" s="418"/>
+      <c r="I165" s="418">
+        <f>E165-G165</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="397">
+    <row r="166" spans="1:9">
+      <c r="A166" s="453">
         <v>45699</v>
       </c>
-      <c r="B164" s="398" t="s">
+      <c r="B166" s="454" t="s">
         <v>1613</v>
       </c>
-      <c r="C164" s="399"/>
-      <c r="D164" s="400"/>
-      <c r="E164" s="401"/>
-      <c r="F164" s="402"/>
-      <c r="G164" s="403"/>
-      <c r="H164" s="402"/>
-      <c r="I164" s="402">
-        <v>-73.09</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="397"/>
-      <c r="B165" s="398"/>
-      <c r="C165" s="399"/>
-      <c r="D165" s="400"/>
-      <c r="E165" s="401"/>
-      <c r="F165" s="402"/>
-      <c r="G165" s="403"/>
-      <c r="H165" s="402"/>
-      <c r="I165" s="402"/>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="397"/>
-      <c r="B166" s="398"/>
-      <c r="C166" s="399"/>
-      <c r="D166" s="400"/>
-      <c r="E166" s="401"/>
-      <c r="F166" s="402"/>
-      <c r="G166" s="403"/>
-      <c r="H166" s="402"/>
-      <c r="I166" s="402"/>
+      <c r="C166" s="455"/>
+      <c r="D166" s="456"/>
+      <c r="E166" s="457"/>
+      <c r="F166" s="418"/>
+      <c r="G166" s="458"/>
+      <c r="H166" s="418"/>
+      <c r="I166" s="418"/>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="90"/>
-      <c r="E167" s="90"/>
-      <c r="F167" s="90"/>
-      <c r="G167" s="90"/>
-      <c r="H167" s="90"/>
-      <c r="I167" s="11"/>
+      <c r="A167" s="453"/>
+      <c r="B167" s="454"/>
+      <c r="C167" s="455"/>
+      <c r="D167" s="456"/>
+      <c r="E167" s="457"/>
+      <c r="F167" s="418"/>
+      <c r="G167" s="458"/>
+      <c r="H167" s="418"/>
+      <c r="I167" s="418"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="90"/>
-      <c r="E168" s="90"/>
-      <c r="F168" s="90"/>
-      <c r="G168" s="90"/>
-      <c r="H168" s="90"/>
-      <c r="I168" s="78">
-        <f>SUM(I154:I167)</f>
-        <v>-442.55000000000007</v>
-      </c>
+      <c r="A168" s="453"/>
+      <c r="B168" s="454"/>
+      <c r="C168" s="455"/>
+      <c r="D168" s="456"/>
+      <c r="E168" s="457"/>
+      <c r="F168" s="418"/>
+      <c r="G168" s="458"/>
+      <c r="H168" s="418"/>
+      <c r="I168" s="418"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="90"/>
-      <c r="E169" s="90"/>
-      <c r="F169" s="90"/>
-      <c r="G169" s="90"/>
-      <c r="H169" s="90"/>
-      <c r="I169" s="11"/>
+      <c r="A169" s="431"/>
+      <c r="B169" s="431"/>
+      <c r="C169" s="431"/>
+      <c r="D169" s="418"/>
+      <c r="E169" s="418"/>
+      <c r="F169" s="418"/>
+      <c r="G169" s="418"/>
+      <c r="H169" s="418"/>
+      <c r="I169" s="431"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="431"/>
+      <c r="B170" s="431"/>
+      <c r="C170" s="431"/>
+      <c r="D170" s="418"/>
+      <c r="E170" s="418"/>
+      <c r="F170" s="418"/>
+      <c r="G170" s="418"/>
+      <c r="H170" s="418"/>
+      <c r="I170" s="460">
+        <f>SUM(I155:I169)</f>
+        <v>2168.41</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="90"/>
+      <c r="E171" s="90"/>
+      <c r="F171" s="90"/>
+      <c r="G171" s="90"/>
+      <c r="H171" s="90"/>
+      <c r="I171" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F137:F139 F161 F158 F154:F155">
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="lessThan">
-      <formula>D137</formula>
+  <conditionalFormatting sqref="F139:F141 F163 F160 F157">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="lessThan">
+      <formula>D139</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F132:F134">
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="lessThan">
-      <formula>D132</formula>
+  <conditionalFormatting sqref="F134:F136">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="lessThan">
+      <formula>D134</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F127">
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="lessThan">
-      <formula>D127</formula>
+  <conditionalFormatting sqref="F129">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="lessThan">
+      <formula>D129</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F126">
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="lessThan">
-      <formula>D126</formula>
+  <conditionalFormatting sqref="F128">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="lessThan">
+      <formula>D128</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F162 F124">
-    <cfRule type="cellIs" dxfId="32" priority="14" operator="lessThan">
+  <conditionalFormatting sqref="F164 F125">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="lessThan">
+      <formula>D125</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F155:F156">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
+      <formula>D155</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F167:F168">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="lessThan">
+      <formula>D167</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F158">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
+      <formula>D158</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F159">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
+      <formula>D159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F161">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
+      <formula>D161</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F162">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
+      <formula>D162</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F124">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
       <formula>D124</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F125">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="lessThan">
-      <formula>D125</formula>
+  <conditionalFormatting sqref="F166">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
+      <formula>D166</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F165:F166">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="F165">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
       <formula>D165</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F156">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
-      <formula>D156</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F157">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
-      <formula>D157</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F159">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
-      <formula>D159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F160">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
-      <formula>D160</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
-      <formula>D123</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F164">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
-      <formula>D164</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F163">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
-      <formula>D163</formula>
+  <conditionalFormatting sqref="F126:F127">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>D126</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
@@ -15337,77 +15470,77 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F128:F130 F159 F156 F152:F153">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="lessThan">
       <formula>D128</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F136">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="lessThan">
       <formula>D134</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125">
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
       <formula>D125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="lessThan">
       <formula>D124</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F160 F122">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="lessThan">
       <formula>D122</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="lessThan">
       <formula>D123</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F163:F164">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
       <formula>D163</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F154">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="lessThan">
       <formula>D154</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
       <formula>D155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F157">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
       <formula>D157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
       <formula>D173</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
       <formula>D158</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F121">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
       <formula>D121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>D162</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>D161</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18125,42 +18258,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F125:F127">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>D125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F133">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
       <formula>D131</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
       <formula>D122</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F121">
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
       <formula>D121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:F119">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="lessThan">
       <formula>D118</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I165:I166">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>H165&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>D120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>D147</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20686,10 +20819,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="446" t="s">
+      <c r="L1" s="449" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="446"/>
+      <c r="M1" s="449"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -21401,11 +21534,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="447">
+      <c r="L17" s="450">
         <f>L15+M15</f>
         <v>1080.7929879999999</v>
       </c>
-      <c r="M17" s="447"/>
+      <c r="M17" s="450"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
@@ -25522,10 +25655,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="446" t="s">
+      <c r="L1" s="449" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="446"/>
+      <c r="M1" s="449"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -25689,11 +25822,11 @@
       </c>
       <c r="F5" s="32">
         <f>'03_25'!G2</f>
-        <v>-33885.039999999994</v>
+        <v>-36002.019999999997</v>
       </c>
       <c r="G5" s="33">
         <f t="shared" si="1"/>
-        <v>160577.13</v>
+        <v>158460.15000000002</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="35" t="s">
@@ -25706,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="8">
-        <f>'03_25'!E142/1000</f>
+        <f>'03_25'!E144/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -25736,7 +25869,7 @@
       </c>
       <c r="G6" s="33">
         <f t="shared" si="1"/>
-        <v>39597.800000000003</v>
+        <v>37480.820000000022</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="41" t="s">
@@ -25779,7 +25912,7 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>38608.020000000004</v>
+        <v>36491.040000000023</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="41" t="s">
@@ -25822,7 +25955,7 @@
       </c>
       <c r="G8" s="33">
         <f t="shared" si="1"/>
-        <v>37618.240000000005</v>
+        <v>35501.260000000024</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="35" t="s">
@@ -25868,7 +26001,7 @@
       </c>
       <c r="G9" s="33">
         <f t="shared" si="1"/>
-        <v>36628.460000000006</v>
+        <v>34511.480000000025</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="35" t="s">
@@ -25917,7 +26050,7 @@
       </c>
       <c r="G10" s="33">
         <f t="shared" si="1"/>
-        <v>35638.680000000008</v>
+        <v>33521.700000000026</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="35" t="s">
@@ -25963,7 +26096,7 @@
       </c>
       <c r="G11" s="33">
         <f t="shared" si="1"/>
-        <v>35638.680000000008</v>
+        <v>33521.700000000026</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="35" t="s">
@@ -26012,7 +26145,7 @@
       </c>
       <c r="G12" s="33">
         <f t="shared" si="1"/>
-        <v>35638.680000000008</v>
+        <v>33521.700000000026</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="35" t="s">
@@ -26061,7 +26194,7 @@
       </c>
       <c r="G13" s="33">
         <f t="shared" si="1"/>
-        <v>35638.680000000008</v>
+        <v>33521.700000000026</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="35" t="s">
@@ -26110,7 +26243,7 @@
       </c>
       <c r="G14" s="33">
         <f t="shared" si="1"/>
-        <v>35638.680000000008</v>
+        <v>33521.700000000026</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="44" t="s">
@@ -26155,11 +26288,11 @@
       </c>
       <c r="F15" s="33">
         <f>SUM(F3:F14)</f>
-        <v>-314471.08000000013</v>
+        <v>-316588.06000000011</v>
       </c>
       <c r="G15" s="33">
         <f>E15+F15</f>
-        <v>35638.679999999877</v>
+        <v>33521.699999999895</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="48"/>
@@ -26199,11 +26332,11 @@
       </c>
       <c r="F16" s="55">
         <f>F15/A16</f>
-        <v>-26205.923333333343</v>
+        <v>-26382.338333333344</v>
       </c>
       <c r="G16" s="55">
         <f>G15/A16</f>
-        <v>2969.8899999999899</v>
+        <v>2793.4749999999913</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="57"/>
@@ -26237,11 +26370,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="447">
+      <c r="L17" s="450">
         <f>L15+M15</f>
         <v>976.10596800000008</v>
       </c>
-      <c r="M17" s="447"/>
+      <c r="M17" s="450"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">

--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162709DD-B537-45C6-BAC5-72C78437025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2F6158-3FB9-49ED-BB86-AB82A1848C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5490,8 +5490,8 @@
     <numFmt numFmtId="187" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
     <numFmt numFmtId="188" formatCode="0.000%"/>
     <numFmt numFmtId="189" formatCode="0.000000_ ;[Red]\-0.000000\ "/>
-    <numFmt numFmtId="192" formatCode="%0.000"/>
-    <numFmt numFmtId="193" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="190" formatCode="%0.000"/>
+    <numFmt numFmtId="191" formatCode="0.000_ ;[Red]\-0.000\ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -7139,12 +7139,8 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="192" fontId="46" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="46" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -7156,6 +7152,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7190,7 +7190,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7203,20 +7203,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79989013336588644"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7239,7 +7226,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7252,7 +7239,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7265,7 +7252,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7278,7 +7265,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7291,7 +7278,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7304,7 +7291,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7317,7 +7304,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7330,7 +7317,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7343,7 +7330,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7356,7 +7343,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7369,7 +7356,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7382,7 +7369,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7395,7 +7382,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7408,7 +7395,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7421,7 +7408,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7434,7 +7421,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7447,7 +7434,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7460,7 +7447,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7473,7 +7460,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7486,7 +7473,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7499,7 +7486,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7512,7 +7499,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7525,7 +7512,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7538,7 +7525,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7551,7 +7538,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7564,7 +7551,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7577,7 +7564,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7590,7 +7577,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7603,7 +7590,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7616,7 +7603,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7629,7 +7616,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7642,7 +7629,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7655,7 +7642,7 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -7668,7 +7655,20 @@
         <i val="0"/>
         <strike val="0"/>
       </font>
-      <numFmt numFmtId="190" formatCode="0.00;[Red]0.00"/>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79989013336588644"/>
@@ -10088,8 +10088,8 @@
   </sheetPr>
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -10238,13 +10238,13 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="461">
+      <c r="A9" s="459">
         <v>45722</v>
       </c>
-      <c r="B9" s="462" t="s">
+      <c r="B9" s="460" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="463"/>
+      <c r="C9" s="461"/>
       <c r="D9" s="426"/>
       <c r="E9" s="426">
         <f>E64</f>
@@ -11586,7 +11586,7 @@
       <c r="F114" s="90"/>
       <c r="G114" s="90">
         <f>SUM(G118:G146)</f>
-        <v>1096661.0538949999</v>
+        <v>1097621.0538949999</v>
       </c>
       <c r="H114" s="90"/>
       <c r="I114" s="90"/>
@@ -11757,7 +11757,7 @@
         <f t="shared" ref="I124:I129" si="3">G124-E124</f>
         <v>2879.0963000000047</v>
       </c>
-      <c r="M124" s="452"/>
+      <c r="M124" s="450"/>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="100">
@@ -11791,24 +11791,24 @@
       </c>
     </row>
     <row r="126" spans="1:14">
-      <c r="A126" s="453">
+      <c r="A126" s="451">
         <v>45680</v>
       </c>
-      <c r="B126" s="454" t="s">
+      <c r="B126" s="452" t="s">
         <v>1610</v>
       </c>
-      <c r="C126" s="455"/>
-      <c r="D126" s="456">
+      <c r="C126" s="453"/>
+      <c r="D126" s="454">
         <v>305</v>
       </c>
-      <c r="E126" s="457">
+      <c r="E126" s="455">
         <f>D126*C126</f>
         <v>0</v>
       </c>
       <c r="F126" s="418">
         <v>323.75</v>
       </c>
-      <c r="G126" s="458">
+      <c r="G126" s="456">
         <f>F126*C126</f>
         <v>0</v>
       </c>
@@ -11817,30 +11817,30 @@
         <f>G126-E126</f>
         <v>0</v>
       </c>
-      <c r="J126" s="451"/>
+      <c r="J126" s="449"/>
       <c r="K126" s="100"/>
-      <c r="M126" s="451"/>
+      <c r="M126" s="449"/>
     </row>
     <row r="127" spans="1:14" s="11" customFormat="1">
-      <c r="A127" s="453">
+      <c r="A127" s="451">
         <v>45721</v>
       </c>
-      <c r="B127" s="454" t="s">
+      <c r="B127" s="452" t="s">
         <v>1610</v>
       </c>
-      <c r="C127" s="455"/>
-      <c r="D127" s="456"/>
-      <c r="E127" s="457"/>
+      <c r="C127" s="453"/>
+      <c r="D127" s="454"/>
+      <c r="E127" s="455"/>
       <c r="F127" s="418"/>
-      <c r="G127" s="458"/>
+      <c r="G127" s="456"/>
       <c r="H127" s="418"/>
       <c r="I127" s="418">
         <v>-81.59</v>
       </c>
       <c r="J127" s="78"/>
-      <c r="K127" s="451"/>
+      <c r="K127" s="449"/>
       <c r="L127" s="78"/>
-      <c r="M127" s="451"/>
+      <c r="M127" s="449"/>
       <c r="N127" s="78"/>
     </row>
     <row r="128" spans="1:14">
@@ -11861,16 +11861,16 @@
         <v>130199.99999999999</v>
       </c>
       <c r="F128" s="90">
-        <v>36.25</v>
+        <v>36.369999999999997</v>
       </c>
       <c r="G128" s="17">
         <f t="shared" si="2"/>
-        <v>145000</v>
+        <v>145480</v>
       </c>
       <c r="H128" s="90"/>
       <c r="I128" s="90">
         <f t="shared" si="3"/>
-        <v>14800.000000000015</v>
+        <v>15280.000000000015</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="13.5" thickBot="1">
@@ -11892,19 +11892,19 @@
       </c>
       <c r="F129" s="90">
         <f>F128</f>
-        <v>36.25</v>
+        <v>36.369999999999997</v>
       </c>
       <c r="G129" s="17">
         <f t="shared" si="2"/>
-        <v>145000</v>
+        <v>145480</v>
       </c>
       <c r="H129" s="420">
         <f>SUM(G124:G129)</f>
-        <v>387633.78705499996</v>
+        <v>388593.78705499996</v>
       </c>
       <c r="I129" s="90">
         <f t="shared" si="3"/>
-        <v>21560</v>
+        <v>22040</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="13.5" thickBot="1">
@@ -11920,11 +11920,11 @@
       <c r="G130" s="17"/>
       <c r="H130" s="117">
         <f>(SUM(G124:G129))-(SUM(E124:E129))</f>
-        <v>42109.628689999983</v>
+        <v>43069.628689999983</v>
       </c>
       <c r="I130" s="117">
         <f>SUM(I124:I129)</f>
-        <v>42028.038690000016</v>
+        <v>42988.038690000016</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -12304,7 +12304,7 @@
       </c>
       <c r="H147" s="432">
         <f>H142+H137+H130</f>
-        <v>55846.75092999998</v>
+        <v>56806.75092999998</v>
       </c>
       <c r="I147" s="90"/>
     </row>
@@ -12330,7 +12330,7 @@
       <c r="F149" s="90"/>
       <c r="G149" s="9">
         <f>SUM(G118:G146)</f>
-        <v>1096661.0538949999</v>
+        <v>1097621.0538949999</v>
       </c>
       <c r="H149" s="90"/>
       <c r="I149" s="90"/>
@@ -12438,7 +12438,7 @@
         <f>G155-E155</f>
         <v>2250</v>
       </c>
-      <c r="J155" s="451">
+      <c r="J155" s="449">
         <f>(I155-I156)/E155</f>
         <v>6.3704644808743174E-2</v>
       </c>
@@ -12449,7 +12449,7 @@
         <f>K155-A155</f>
         <v>41</v>
       </c>
-      <c r="M155" s="451">
+      <c r="M155" s="449">
         <f>J155/L155*30</f>
         <v>4.6613154738104762E-2</v>
       </c>
@@ -12474,48 +12474,48 @@
         <f>I155-I156</f>
         <v>2331.59</v>
       </c>
-      <c r="K156" s="451" t="s">
+      <c r="K156" s="449" t="s">
         <v>1688</v>
       </c>
-      <c r="M156" s="451"/>
+      <c r="M156" s="449"/>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="453">
+      <c r="A157" s="451">
         <v>45680</v>
       </c>
-      <c r="B157" s="454" t="s">
+      <c r="B157" s="452" t="s">
         <v>1613</v>
       </c>
-      <c r="C157" s="455"/>
-      <c r="D157" s="456"/>
-      <c r="E157" s="457">
+      <c r="C157" s="453"/>
+      <c r="D157" s="454"/>
+      <c r="E157" s="455">
         <v>299.37</v>
       </c>
       <c r="F157" s="418"/>
-      <c r="G157" s="458"/>
+      <c r="G157" s="456"/>
       <c r="H157" s="418"/>
       <c r="I157" s="418"/>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="453">
+      <c r="A158" s="451">
         <v>45691</v>
       </c>
-      <c r="B158" s="454" t="s">
+      <c r="B158" s="452" t="s">
         <v>1653</v>
       </c>
-      <c r="C158" s="455"/>
-      <c r="D158" s="456">
+      <c r="C158" s="453"/>
+      <c r="D158" s="454">
         <v>872.26366499999995</v>
       </c>
-      <c r="E158" s="457">
+      <c r="E158" s="455">
         <f>D158*C158</f>
         <v>0</v>
       </c>
-      <c r="F158" s="459">
+      <c r="F158" s="457">
         <f>F164</f>
         <v>907.06739800000003</v>
       </c>
-      <c r="G158" s="458">
+      <c r="G158" s="456">
         <f>F158*C158</f>
         <v>0</v>
       </c>
@@ -12526,24 +12526,24 @@
       </c>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="453">
+      <c r="A159" s="451">
         <v>45680</v>
       </c>
-      <c r="B159" s="454" t="s">
+      <c r="B159" s="452" t="s">
         <v>142</v>
       </c>
-      <c r="C159" s="455"/>
-      <c r="D159" s="456">
+      <c r="C159" s="453"/>
+      <c r="D159" s="454">
         <v>872.26366499999995</v>
       </c>
-      <c r="E159" s="457">
+      <c r="E159" s="455">
         <f>D159*C159</f>
         <v>0</v>
       </c>
       <c r="F159" s="418">
         <v>899.26057400000002</v>
       </c>
-      <c r="G159" s="458">
+      <c r="G159" s="456">
         <f>F159*C159</f>
         <v>0</v>
       </c>
@@ -12554,39 +12554,39 @@
       </c>
     </row>
     <row r="160" spans="1:13">
-      <c r="A160" s="453">
+      <c r="A160" s="451">
         <v>45680</v>
       </c>
-      <c r="B160" s="454" t="s">
+      <c r="B160" s="452" t="s">
         <v>1613</v>
       </c>
-      <c r="C160" s="455"/>
-      <c r="D160" s="456"/>
-      <c r="E160" s="457"/>
+      <c r="C160" s="453"/>
+      <c r="D160" s="454"/>
+      <c r="E160" s="455"/>
       <c r="F160" s="418"/>
-      <c r="G160" s="458"/>
+      <c r="G160" s="456"/>
       <c r="H160" s="418"/>
       <c r="I160" s="418"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="453">
+      <c r="A161" s="451">
         <v>45692</v>
       </c>
-      <c r="B161" s="454" t="s">
+      <c r="B161" s="452" t="s">
         <v>1653</v>
       </c>
-      <c r="C161" s="455"/>
-      <c r="D161" s="456">
+      <c r="C161" s="453"/>
+      <c r="D161" s="454">
         <v>872.26366499999995</v>
       </c>
-      <c r="E161" s="457">
+      <c r="E161" s="455">
         <f>D161*C161</f>
         <v>0</v>
       </c>
-      <c r="F161" s="459">
+      <c r="F161" s="457">
         <v>900.29758900000002</v>
       </c>
-      <c r="G161" s="458">
+      <c r="G161" s="456">
         <f>F161*C161</f>
         <v>0</v>
       </c>
@@ -12597,22 +12597,22 @@
       </c>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="453">
+      <c r="A162" s="451">
         <v>45692</v>
       </c>
-      <c r="B162" s="454"/>
-      <c r="C162" s="455"/>
-      <c r="D162" s="456">
+      <c r="B162" s="452"/>
+      <c r="C162" s="453"/>
+      <c r="D162" s="454">
         <v>872.26366499999995</v>
       </c>
-      <c r="E162" s="457">
+      <c r="E162" s="455">
         <f t="shared" ref="E162" si="6">D162*C162</f>
         <v>0</v>
       </c>
-      <c r="F162" s="459">
+      <c r="F162" s="457">
         <v>900.29758900000002</v>
       </c>
-      <c r="G162" s="458">
+      <c r="G162" s="456">
         <f t="shared" ref="G162" si="7">F162*C162</f>
         <v>0</v>
       </c>
@@ -12623,39 +12623,39 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="453">
+      <c r="A163" s="451">
         <v>45680</v>
       </c>
-      <c r="B163" s="454" t="s">
+      <c r="B163" s="452" t="s">
         <v>1613</v>
       </c>
-      <c r="C163" s="455"/>
-      <c r="D163" s="456"/>
-      <c r="E163" s="457"/>
+      <c r="C163" s="453"/>
+      <c r="D163" s="454"/>
+      <c r="E163" s="455"/>
       <c r="F163" s="418"/>
-      <c r="G163" s="458"/>
+      <c r="G163" s="456"/>
       <c r="H163" s="418"/>
       <c r="I163" s="418"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="453">
+      <c r="A164" s="451">
         <v>45699</v>
       </c>
-      <c r="B164" s="454" t="s">
+      <c r="B164" s="452" t="s">
         <v>1667</v>
       </c>
-      <c r="C164" s="455"/>
-      <c r="D164" s="456">
+      <c r="C164" s="453"/>
+      <c r="D164" s="454">
         <v>872.26366499999995</v>
       </c>
-      <c r="E164" s="457">
+      <c r="E164" s="455">
         <f>D164*C164</f>
         <v>0</v>
       </c>
-      <c r="F164" s="459">
+      <c r="F164" s="457">
         <v>907.06739800000003</v>
       </c>
-      <c r="G164" s="458">
+      <c r="G164" s="456">
         <f>F164*C164</f>
         <v>0</v>
       </c>
@@ -12666,22 +12666,22 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="453">
+      <c r="A165" s="451">
         <v>45692</v>
       </c>
-      <c r="B165" s="454"/>
-      <c r="C165" s="455"/>
-      <c r="D165" s="456">
+      <c r="B165" s="452"/>
+      <c r="C165" s="453"/>
+      <c r="D165" s="454">
         <v>872.26366499999995</v>
       </c>
-      <c r="E165" s="457">
+      <c r="E165" s="455">
         <f t="shared" ref="E165" si="8">D165*C165</f>
         <v>0</v>
       </c>
-      <c r="F165" s="459">
+      <c r="F165" s="457">
         <v>907.06739800000003</v>
       </c>
-      <c r="G165" s="458">
+      <c r="G165" s="456">
         <f t="shared" ref="G165" si="9">F165*C165</f>
         <v>0</v>
       </c>
@@ -12692,39 +12692,39 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="453">
+      <c r="A166" s="451">
         <v>45699</v>
       </c>
-      <c r="B166" s="454" t="s">
+      <c r="B166" s="452" t="s">
         <v>1613</v>
       </c>
-      <c r="C166" s="455"/>
-      <c r="D166" s="456"/>
-      <c r="E166" s="457"/>
+      <c r="C166" s="453"/>
+      <c r="D166" s="454"/>
+      <c r="E166" s="455"/>
       <c r="F166" s="418"/>
-      <c r="G166" s="458"/>
+      <c r="G166" s="456"/>
       <c r="H166" s="418"/>
       <c r="I166" s="418"/>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="453"/>
-      <c r="B167" s="454"/>
-      <c r="C167" s="455"/>
-      <c r="D167" s="456"/>
-      <c r="E167" s="457"/>
+      <c r="A167" s="451"/>
+      <c r="B167" s="452"/>
+      <c r="C167" s="453"/>
+      <c r="D167" s="454"/>
+      <c r="E167" s="455"/>
       <c r="F167" s="418"/>
-      <c r="G167" s="458"/>
+      <c r="G167" s="456"/>
       <c r="H167" s="418"/>
       <c r="I167" s="418"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="453"/>
-      <c r="B168" s="454"/>
-      <c r="C168" s="455"/>
-      <c r="D168" s="456"/>
-      <c r="E168" s="457"/>
+      <c r="A168" s="451"/>
+      <c r="B168" s="452"/>
+      <c r="C168" s="453"/>
+      <c r="D168" s="454"/>
+      <c r="E168" s="455"/>
       <c r="F168" s="418"/>
-      <c r="G168" s="458"/>
+      <c r="G168" s="456"/>
       <c r="H168" s="418"/>
       <c r="I168" s="418"/>
     </row>
@@ -12748,7 +12748,7 @@
       <c r="F170" s="418"/>
       <c r="G170" s="418"/>
       <c r="H170" s="418"/>
-      <c r="I170" s="460">
+      <c r="I170" s="458">
         <f>SUM(I155:I169)</f>
         <v>2168.41</v>
       </c>
@@ -12836,7 +12836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126:F127">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>D126</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15470,77 +15470,77 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F128:F130 F159 F156 F152:F153">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="lessThan">
       <formula>D128</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F136">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="lessThan">
       <formula>D134</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="lessThan">
       <formula>D125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThan">
       <formula>D124</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F160 F122">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="lessThan">
       <formula>D122</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="lessThan">
       <formula>D123</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F163:F164">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
       <formula>D163</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F154">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
       <formula>D154</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="lessThan">
       <formula>D155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F157">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
       <formula>D157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
       <formula>D173</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
       <formula>D158</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F121">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>D121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>D162</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>D161</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18258,42 +18258,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F125:F127">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>D125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F133">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
       <formula>D131</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="lessThan">
       <formula>D122</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F121">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
       <formula>D121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:F119">
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="lessThan">
       <formula>D118</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I165:I166">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>H165&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>D120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>D147</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20819,10 +20819,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="449" t="s">
+      <c r="L1" s="462" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="449"/>
+      <c r="M1" s="462"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -21534,11 +21534,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="450">
+      <c r="L17" s="463">
         <f>L15+M15</f>
         <v>1080.7929879999999</v>
       </c>
-      <c r="M17" s="450"/>
+      <c r="M17" s="463"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
@@ -25655,10 +25655,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="449" t="s">
+      <c r="L1" s="462" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="449"/>
+      <c r="M1" s="462"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -26370,11 +26370,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="450">
+      <c r="L17" s="463">
         <f>L15+M15</f>
         <v>976.10596800000008</v>
       </c>
-      <c r="M17" s="450"/>
+      <c r="M17" s="463"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">

--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2F6158-3FB9-49ED-BB86-AB82A1848C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD82767-7643-4858-8A59-832A72589A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="1691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4567" uniqueCount="1691">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -5837,7 +5837,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6124,6 +6124,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -6543,7 +6549,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="464">
+  <cellXfs count="462">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7136,9 +7142,6 @@
     <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="16" fillId="43" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="190" fontId="46" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -7149,13 +7152,16 @@
     <xf numFmtId="4" fontId="3" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="189" fontId="3" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -10086,10 +10092,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -10126,19 +10132,19 @@
         <v>67</v>
       </c>
       <c r="D2" s="77">
-        <f>SUM(D4:D36)</f>
-        <v>15000</v>
+        <f>SUM(D4:D33)</f>
+        <v>30000</v>
       </c>
       <c r="E2" s="77">
-        <f>SUM(E4:E36)</f>
+        <f>SUM(E4:E33)</f>
         <v>-79968.850000000006</v>
       </c>
       <c r="F2" s="77">
-        <f>SUM(F4:F36)</f>
+        <f>SUM(F4:F33)</f>
         <v>0</v>
       </c>
       <c r="G2" s="77">
-        <f>SUM(G4:G36)</f>
+        <f>SUM(G4:G33)</f>
         <v>-36002.019999999997</v>
       </c>
       <c r="H2" s="77">
@@ -10152,7 +10158,7 @@
     <row r="4" spans="1:14">
       <c r="B4" s="41"/>
       <c r="H4" s="77">
-        <f t="shared" ref="H4:H34" si="0">H3+F4+G4</f>
+        <f t="shared" ref="H4:H31" si="0">H3+F4+G4</f>
         <v>0</v>
       </c>
     </row>
@@ -10173,17 +10179,17 @@
       <c r="N5" s="78"/>
     </row>
     <row r="6" spans="1:14" s="11" customFormat="1">
-      <c r="A6" s="446">
+      <c r="A6" s="428">
         <v>45718</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="458" t="s">
         <v>1683</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87">
+      <c r="C6" s="393"/>
+      <c r="D6" s="387"/>
+      <c r="E6" s="387"/>
+      <c r="F6" s="387"/>
+      <c r="G6" s="387">
         <v>-213.25</v>
       </c>
       <c r="H6" s="87">
@@ -10196,13 +10202,13 @@
       <c r="N6" s="78"/>
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1">
-      <c r="A7" s="446"/>
-      <c r="B7" s="177" t="s">
+      <c r="A7" s="428"/>
+      <c r="B7" s="394" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87">
+      <c r="C7" s="393"/>
+      <c r="D7" s="387"/>
+      <c r="E7" s="387">
         <v>0</v>
       </c>
       <c r="F7" s="87"/>
@@ -10217,15 +10223,15 @@
       <c r="N7" s="78"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="446">
+      <c r="A8" s="428">
         <v>45721</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="392" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87">
+      <c r="C8" s="392"/>
+      <c r="D8" s="387"/>
+      <c r="E8" s="387">
         <v>-2117.06</v>
       </c>
       <c r="F8" s="87"/>
@@ -10238,16 +10244,16 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="459">
+      <c r="A9" s="428">
         <v>45722</v>
       </c>
-      <c r="B9" s="460" t="s">
+      <c r="B9" s="394" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="461"/>
-      <c r="D9" s="426"/>
-      <c r="E9" s="426">
-        <f>E64</f>
+      <c r="C9" s="393"/>
+      <c r="D9" s="387"/>
+      <c r="E9" s="387">
+        <f>E61</f>
         <v>-14628.179999999997</v>
       </c>
       <c r="F9" s="87"/>
@@ -10261,159 +10267,214 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="447">
+      <c r="A10" s="428">
         <v>45723</v>
       </c>
-      <c r="B10" s="448" t="s">
+      <c r="B10" s="394" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="441"/>
-      <c r="D10" s="406"/>
-      <c r="E10" s="406">
-        <f>E40</f>
+      <c r="C10" s="393"/>
+      <c r="D10" s="387"/>
+      <c r="E10" s="387">
+        <f>E37</f>
         <v>-19043.61</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90">
+      <c r="F10" s="87"/>
+      <c r="G10" s="87">
         <f>E10</f>
         <v>-19043.61</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="H11" s="90">
+      <c r="A11" s="459">
+        <v>45723</v>
+      </c>
+      <c r="B11" s="460" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="460"/>
+      <c r="D11" s="461">
+        <v>15000</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="12" spans="1:14">
+      <c r="A12" s="428">
+        <v>45723</v>
+      </c>
+      <c r="B12" s="392" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C12" s="392"/>
+      <c r="D12" s="387"/>
+      <c r="E12" s="387">
+        <v>-17500</v>
+      </c>
+      <c r="F12" s="87"/>
       <c r="G12" s="87"/>
-      <c r="H12" s="90">
+      <c r="H12" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="H13" s="90">
+      <c r="H13" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="98">
-        <v>45723</v>
-      </c>
-      <c r="B14" s="89" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90">
-        <v>-17500</v>
-      </c>
-      <c r="H14" s="90">
+    <row r="14" spans="1:14" s="78" customFormat="1">
+      <c r="A14" s="98"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="H15" s="90">
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:14" s="78" customFormat="1">
+      <c r="A15" s="98"/>
+      <c r="B15" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90">
+        <v>-1000</v>
+      </c>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
+    <row r="16" spans="1:14" s="78" customFormat="1">
+      <c r="A16" s="98"/>
+      <c r="B16" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="93"/>
       <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="H16" s="90">
+      <c r="E16" s="90">
+        <v>-200</v>
+      </c>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="78" customFormat="1">
       <c r="A17" s="98"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
+      <c r="B17" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90">
+        <v>-200</v>
+      </c>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
-      <c r="H17" s="90">
+      <c r="H17" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
-      <c r="I17"/>
-      <c r="J17"/>
     </row>
     <row r="18" spans="1:13" s="78" customFormat="1">
       <c r="A18" s="98"/>
-      <c r="B18" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90">
-        <v>-1000</v>
-      </c>
+      <c r="B18" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="92"/>
+      <c r="D18" s="90">
+        <v>15000</v>
+      </c>
+      <c r="E18" s="90"/>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
-      <c r="H18" s="90">
+      <c r="H18" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="96"/>
     </row>
     <row r="19" spans="1:13" s="78" customFormat="1">
       <c r="A19" s="98"/>
-      <c r="B19" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="93"/>
+      <c r="B19" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="92"/>
       <c r="D19" s="90"/>
       <c r="E19" s="90">
-        <v>-200</v>
+        <v>-7500</v>
       </c>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
-      <c r="H19" s="90">
+      <c r="H19" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="96"/>
     </row>
     <row r="20" spans="1:13" s="78" customFormat="1">
       <c r="A20" s="98"/>
-      <c r="B20" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="89"/>
+      <c r="B20" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="92"/>
       <c r="D20" s="90"/>
       <c r="E20" s="90">
-        <v>-200</v>
+        <v>-7500</v>
       </c>
       <c r="F20" s="77"/>
       <c r="G20" s="77"/>
-      <c r="H20" s="90">
+      <c r="H20" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="96"/>
     </row>
     <row r="21" spans="1:13" s="78" customFormat="1">
       <c r="A21" s="98"/>
       <c r="B21" s="92" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C21" s="92"/>
-      <c r="D21" s="90">
-        <v>15000</v>
-      </c>
-      <c r="E21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90">
+        <v>-7500</v>
+      </c>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
-      <c r="H21" s="77">
+      <c r="H21" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
@@ -10424,17 +10485,13 @@
     </row>
     <row r="22" spans="1:13" s="78" customFormat="1">
       <c r="A22" s="98"/>
-      <c r="B22" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90">
-        <v>-7500</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
-      <c r="H22" s="77">
+      <c r="H22" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
@@ -10445,17 +10502,13 @@
     </row>
     <row r="23" spans="1:13" s="78" customFormat="1">
       <c r="A23" s="98"/>
-      <c r="B23" s="92" t="s">
-        <v>78</v>
-      </c>
+      <c r="B23" s="92"/>
       <c r="C23" s="92"/>
       <c r="D23" s="90"/>
-      <c r="E23" s="90">
-        <v>-7500</v>
-      </c>
+      <c r="E23" s="90"/>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
-      <c r="H23" s="77">
+      <c r="H23" s="87">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
@@ -10465,14 +10518,18 @@
       <c r="M23" s="96"/>
     </row>
     <row r="24" spans="1:13" s="78" customFormat="1">
-      <c r="A24" s="98"/>
-      <c r="B24" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90">
-        <v>-7500</v>
+      <c r="A24" s="98">
+        <v>45716</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77">
+        <v>-1380</v>
       </c>
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
@@ -10487,10 +10544,14 @@
     </row>
     <row r="25" spans="1:13" s="78" customFormat="1">
       <c r="A25" s="98"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="99"/>
       <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
+      <c r="E25" s="77">
+        <v>-600</v>
+      </c>
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
       <c r="H25" s="77">
@@ -10504,10 +10565,14 @@
     </row>
     <row r="26" spans="1:13" s="78" customFormat="1">
       <c r="A26" s="98"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
+      <c r="B26" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="99"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77">
+        <v>-800</v>
+      </c>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
       <c r="H26" s="77">
@@ -10520,279 +10585,269 @@
       <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" s="78" customFormat="1">
-      <c r="A27" s="98">
-        <v>45716</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>1605</v>
-      </c>
+      <c r="A27" s="98"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="77"/>
-      <c r="E27" s="77">
-        <v>-1380</v>
-      </c>
+      <c r="E27" s="77"/>
       <c r="F27" s="77"/>
       <c r="G27" s="77"/>
       <c r="H27" s="77">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="96"/>
     </row>
     <row r="28" spans="1:13" s="78" customFormat="1">
       <c r="A28" s="98"/>
-      <c r="B28" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="99"/>
       <c r="D28" s="77"/>
-      <c r="E28" s="77">
-        <v>-600</v>
-      </c>
+      <c r="E28" s="77"/>
       <c r="F28" s="77"/>
       <c r="G28" s="77"/>
       <c r="H28" s="77">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="96"/>
-    </row>
-    <row r="29" spans="1:13" s="78" customFormat="1">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77">
-        <v>-800</v>
-      </c>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="101"/>
       <c r="H29" s="77">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="96"/>
-    </row>
-    <row r="30" spans="1:13" s="78" customFormat="1">
-      <c r="A30" s="98"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="H30" s="77">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="78" customFormat="1">
-      <c r="A31" s="98"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
+    <row r="31" spans="1:13">
       <c r="H31" s="77">
         <f t="shared" si="0"/>
         <v>-36002.019999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="B32" s="101" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="101"/>
-      <c r="H32" s="77">
-        <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
-      </c>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="H33" s="77">
-        <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="H34" s="77">
-        <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="78" customFormat="1">
-      <c r="A36" s="98"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36"/>
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="1:14" s="78" customFormat="1">
-      <c r="A37" s="98"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
+    <row r="33" spans="1:14" s="78" customFormat="1">
+      <c r="A33" s="98"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:14" s="78" customFormat="1">
+      <c r="A34" s="98"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+    </row>
+    <row r="35" spans="1:14" s="77" customFormat="1">
+      <c r="A35" s="98"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+    </row>
+    <row r="36" spans="1:14" s="77" customFormat="1">
+      <c r="A36" s="433"/>
+      <c r="B36" s="102"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="434"/>
+      <c r="B37" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="103"/>
+      <c r="E37" s="77">
+        <f>SUM(E38:E55)</f>
+        <v>-19043.61</v>
+      </c>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
     </row>
     <row r="38" spans="1:14" s="77" customFormat="1">
       <c r="A38" s="98"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="I38"/>
+      <c r="J38"/>
       <c r="K38" s="78"/>
       <c r="L38" s="78"/>
       <c r="M38" s="78"/>
       <c r="N38" s="78"/>
     </row>
     <row r="39" spans="1:14" s="77" customFormat="1">
-      <c r="A39" s="433"/>
-      <c r="B39" s="102"/>
+      <c r="A39" s="98">
+        <v>45715</v>
+      </c>
+      <c r="B39" s="90" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C39" s="90">
+        <v>5938.7</v>
+      </c>
+      <c r="D39" s="90" t="s">
+        <v>700</v>
+      </c>
+      <c r="E39" s="90">
+        <v>-989.78</v>
+      </c>
+      <c r="F39" s="77">
+        <v>0</v>
+      </c>
       <c r="K39" s="78"/>
       <c r="L39" s="78"/>
       <c r="M39" s="78"/>
       <c r="N39" s="78"/>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="434"/>
-      <c r="B40" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="103"/>
+    <row r="40" spans="1:14" s="77" customFormat="1">
+      <c r="A40" s="98">
+        <v>45715</v>
+      </c>
+      <c r="B40" s="77" t="s">
+        <v>1639</v>
+      </c>
       <c r="E40" s="77">
-        <f>SUM(E41:E58)</f>
-        <v>-19043.61</v>
-      </c>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
+        <v>-2820</v>
+      </c>
+      <c r="F40" s="77">
+        <v>0</v>
+      </c>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
     </row>
     <row r="41" spans="1:14" s="77" customFormat="1">
-      <c r="A41" s="98"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="I41"/>
-      <c r="J41"/>
+      <c r="A41" s="98">
+        <v>45715</v>
+      </c>
+      <c r="B41" s="77" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E41" s="77">
+        <v>-3196.34</v>
+      </c>
+      <c r="F41" s="77">
+        <v>0</v>
+      </c>
       <c r="K41" s="78"/>
       <c r="L41" s="78"/>
       <c r="M41" s="78"/>
       <c r="N41" s="78"/>
     </row>
-    <row r="42" spans="1:14" s="77" customFormat="1">
+    <row r="42" spans="1:14">
       <c r="A42" s="98">
         <v>45715</v>
       </c>
       <c r="B42" s="90" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C42" s="90">
-        <v>5938.7</v>
-      </c>
-      <c r="D42" s="90" t="s">
-        <v>700</v>
-      </c>
-      <c r="E42" s="90">
-        <v>-989.78</v>
+        <v>1640</v>
+      </c>
+      <c r="C42" s="77"/>
+      <c r="E42" s="77">
+        <v>-467.95</v>
       </c>
       <c r="F42" s="77">
         <v>0</v>
       </c>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
     </row>
     <row r="43" spans="1:14" s="77" customFormat="1">
       <c r="A43" s="98">
         <v>45715</v>
       </c>
-      <c r="B43" s="77" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E43" s="77">
-        <v>-2820</v>
-      </c>
-      <c r="F43" s="77">
-        <v>0</v>
-      </c>
+      <c r="B43" s="90" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C43"/>
+      <c r="I43"/>
+      <c r="J43"/>
       <c r="K43" s="78"/>
       <c r="L43" s="78"/>
       <c r="M43" s="78"/>
       <c r="N43" s="78"/>
     </row>
     <row r="44" spans="1:14" s="77" customFormat="1">
-      <c r="A44" s="98">
-        <v>45715</v>
-      </c>
-      <c r="B44" s="77" t="s">
-        <v>1641</v>
-      </c>
-      <c r="E44" s="77">
-        <v>-3196.34</v>
-      </c>
-      <c r="F44" s="77">
-        <v>0</v>
-      </c>
+      <c r="A44" s="98"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
       <c r="K44" s="78"/>
       <c r="L44" s="78"/>
       <c r="M44" s="78"/>
       <c r="N44" s="78"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" s="77" customFormat="1">
       <c r="A45" s="98">
-        <v>45715</v>
-      </c>
-      <c r="B45" s="90" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C45" s="77"/>
+        <v>45691</v>
+      </c>
+      <c r="B45" s="106" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C45" s="106"/>
       <c r="E45" s="77">
-        <v>-467.95</v>
+        <v>-1580</v>
       </c>
       <c r="F45" s="77">
         <v>0</v>
       </c>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="78"/>
     </row>
     <row r="46" spans="1:14" s="77" customFormat="1">
       <c r="A46" s="98">
-        <v>45715</v>
-      </c>
-      <c r="B46" s="90" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C46"/>
-      <c r="I46"/>
-      <c r="J46"/>
+        <v>45691</v>
+      </c>
+      <c r="B46" s="107" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C46" s="106"/>
+      <c r="E46" s="77">
+        <v>-1338</v>
+      </c>
+      <c r="F46" s="77">
+        <v>0</v>
+      </c>
       <c r="K46" s="78"/>
       <c r="L46" s="78"/>
       <c r="M46" s="78"/>
       <c r="N46" s="78"/>
     </row>
     <row r="47" spans="1:14" s="77" customFormat="1">
-      <c r="A47" s="98"/>
-      <c r="B47" s="106"/>
+      <c r="A47" s="98">
+        <v>45691</v>
+      </c>
+      <c r="B47" s="107" t="s">
+        <v>1659</v>
+      </c>
       <c r="C47" s="106"/>
+      <c r="E47" s="77">
+        <v>-1200</v>
+      </c>
+      <c r="F47" s="77">
+        <v>0</v>
+      </c>
       <c r="K47" s="78"/>
       <c r="L47" s="78"/>
       <c r="M47" s="78"/>
@@ -10802,12 +10857,11 @@
       <c r="A48" s="98">
         <v>45691</v>
       </c>
-      <c r="B48" s="106" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C48" s="106"/>
+      <c r="B48" s="107" t="s">
+        <v>1665</v>
+      </c>
       <c r="E48" s="77">
-        <v>-1580</v>
+        <v>-1300.54</v>
       </c>
       <c r="F48" s="77">
         <v>0</v>
@@ -10819,14 +10873,14 @@
     </row>
     <row r="49" spans="1:14" s="77" customFormat="1">
       <c r="A49" s="98">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B49" s="107" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="C49" s="106"/>
       <c r="E49" s="77">
-        <v>-1338</v>
+        <v>-3720</v>
       </c>
       <c r="F49" s="77">
         <v>0</v>
@@ -10838,14 +10892,13 @@
     </row>
     <row r="50" spans="1:14" s="77" customFormat="1">
       <c r="A50" s="98">
-        <v>45691</v>
-      </c>
-      <c r="B50" s="107" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C50" s="106"/>
+        <v>45699</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1673</v>
+      </c>
       <c r="E50" s="77">
-        <v>-1200</v>
+        <v>-2235</v>
       </c>
       <c r="F50" s="77">
         <v>0</v>
@@ -10855,17 +10908,17 @@
       <c r="M50" s="78"/>
       <c r="N50" s="78"/>
     </row>
-    <row r="51" spans="1:14" s="77" customFormat="1">
+    <row r="51" spans="1:14" s="90" customFormat="1">
       <c r="A51" s="98">
-        <v>45691</v>
-      </c>
-      <c r="B51" s="107" t="s">
-        <v>1665</v>
-      </c>
-      <c r="E51" s="77">
-        <v>-1300.54</v>
-      </c>
-      <c r="F51" s="77">
+        <v>45703</v>
+      </c>
+      <c r="B51" s="92" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E51" s="90">
+        <v>-196</v>
+      </c>
+      <c r="F51" s="90">
         <v>0</v>
       </c>
       <c r="K51" s="78"/>
@@ -10873,67 +10926,36 @@
       <c r="M51" s="78"/>
       <c r="N51" s="78"/>
     </row>
-    <row r="52" spans="1:14" s="77" customFormat="1">
-      <c r="A52" s="98">
-        <v>45689</v>
-      </c>
-      <c r="B52" s="107" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C52" s="106"/>
-      <c r="E52" s="77">
-        <v>-3720</v>
-      </c>
-      <c r="F52" s="77">
-        <v>0</v>
+    <row r="52" spans="1:14" s="90" customFormat="1" ht="15">
+      <c r="A52" s="98"/>
+      <c r="B52" s="92"/>
+      <c r="E52" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="K52" s="78"/>
       <c r="L52" s="78"/>
       <c r="M52" s="78"/>
       <c r="N52" s="78"/>
     </row>
-    <row r="53" spans="1:14" s="77" customFormat="1">
-      <c r="A53" s="98">
-        <v>45699</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E53" s="77">
-        <v>-2235</v>
-      </c>
-      <c r="F53" s="77">
-        <v>0</v>
-      </c>
+    <row r="53" spans="1:14" s="90" customFormat="1">
+      <c r="A53" s="98"/>
+      <c r="B53" s="92"/>
       <c r="K53" s="78"/>
       <c r="L53" s="78"/>
       <c r="M53" s="78"/>
       <c r="N53" s="78"/>
     </row>
     <row r="54" spans="1:14" s="90" customFormat="1">
-      <c r="A54" s="98">
-        <v>45703</v>
-      </c>
-      <c r="B54" s="92" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E54" s="90">
-        <v>-196</v>
-      </c>
-      <c r="F54" s="90">
-        <v>0</v>
-      </c>
+      <c r="A54" s="98"/>
+      <c r="B54" s="92"/>
       <c r="K54" s="78"/>
       <c r="L54" s="78"/>
       <c r="M54" s="78"/>
       <c r="N54" s="78"/>
     </row>
-    <row r="55" spans="1:14" s="90" customFormat="1" ht="15">
+    <row r="55" spans="1:14" s="90" customFormat="1">
       <c r="A55" s="98"/>
       <c r="B55" s="92"/>
-      <c r="E55" s="105" t="s">
-        <v>84</v>
-      </c>
       <c r="K55" s="78"/>
       <c r="L55" s="78"/>
       <c r="M55" s="78"/>
@@ -10957,7 +10979,6 @@
     </row>
     <row r="58" spans="1:14" s="90" customFormat="1">
       <c r="A58" s="98"/>
-      <c r="B58" s="92"/>
       <c r="K58" s="78"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
@@ -10971,122 +10992,146 @@
       <c r="M59" s="78"/>
       <c r="N59" s="78"/>
     </row>
-    <row r="60" spans="1:14" s="90" customFormat="1">
+    <row r="60" spans="1:14" s="77" customFormat="1">
       <c r="A60" s="98"/>
-      <c r="B60" s="92"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="106"/>
       <c r="K60" s="78"/>
       <c r="L60" s="78"/>
       <c r="M60" s="78"/>
       <c r="N60" s="78"/>
     </row>
-    <row r="61" spans="1:14" s="90" customFormat="1">
-      <c r="A61" s="98"/>
+    <row r="61" spans="1:14" s="77" customFormat="1">
+      <c r="A61" s="434"/>
+      <c r="B61" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="103"/>
+      <c r="E61" s="77">
+        <f>SUM(E62:E95)</f>
+        <v>-14628.179999999997</v>
+      </c>
       <c r="K61" s="78"/>
       <c r="L61" s="78"/>
       <c r="M61" s="78"/>
       <c r="N61" s="78"/>
     </row>
-    <row r="62" spans="1:14" s="90" customFormat="1">
+    <row r="62" spans="1:14" s="77" customFormat="1">
       <c r="A62" s="98"/>
-      <c r="B62" s="92"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="106"/>
       <c r="K62" s="78"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="1:14" s="77" customFormat="1">
-      <c r="A63" s="98"/>
-      <c r="B63" s="106"/>
-      <c r="C63" s="106"/>
+      <c r="A63" s="433"/>
+      <c r="F63" s="90"/>
       <c r="K63" s="78"/>
       <c r="L63" s="78"/>
       <c r="M63" s="78"/>
       <c r="N63" s="78"/>
     </row>
-    <row r="64" spans="1:14" s="77" customFormat="1">
-      <c r="A64" s="434"/>
-      <c r="B64" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="103"/>
-      <c r="E64" s="77">
-        <f>SUM(E65:E98)</f>
-        <v>-14628.179999999997</v>
+    <row r="64" spans="1:14" s="90" customFormat="1">
+      <c r="A64" s="433">
+        <v>45692</v>
+      </c>
+      <c r="B64" s="90" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D64" s="90" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E64" s="90">
+        <v>-600.13</v>
       </c>
       <c r="K64" s="78"/>
       <c r="L64" s="78"/>
       <c r="M64" s="78"/>
       <c r="N64" s="78"/>
     </row>
-    <row r="65" spans="1:14" s="77" customFormat="1">
-      <c r="A65" s="98"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
+    <row r="65" spans="1:14" s="90" customFormat="1">
+      <c r="A65" s="433">
+        <v>45692</v>
+      </c>
+      <c r="B65" s="90" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D65" s="90" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E65" s="90">
+        <v>-2500.3000000000002</v>
+      </c>
       <c r="K65" s="78"/>
       <c r="L65" s="78"/>
       <c r="M65" s="78"/>
       <c r="N65" s="78"/>
     </row>
-    <row r="66" spans="1:14" s="77" customFormat="1">
+    <row r="66" spans="1:14" s="90" customFormat="1">
       <c r="A66" s="433"/>
-      <c r="F66" s="90"/>
       <c r="K66" s="78"/>
       <c r="L66" s="78"/>
       <c r="M66" s="78"/>
       <c r="N66" s="78"/>
     </row>
     <row r="67" spans="1:14" s="90" customFormat="1">
-      <c r="A67" s="433">
-        <v>45692</v>
-      </c>
-      <c r="B67" s="90" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D67" s="90" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E67" s="90">
-        <v>-600.13</v>
-      </c>
+      <c r="A67" s="433"/>
       <c r="K67" s="78"/>
       <c r="L67" s="78"/>
       <c r="M67" s="78"/>
       <c r="N67" s="78"/>
     </row>
     <row r="68" spans="1:14" s="90" customFormat="1">
-      <c r="A68" s="433">
-        <v>45692</v>
-      </c>
-      <c r="B68" s="90" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D68" s="90" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E68" s="90">
-        <v>-2500.3000000000002</v>
-      </c>
+      <c r="A68" s="433"/>
       <c r="K68" s="78"/>
       <c r="L68" s="78"/>
       <c r="M68" s="78"/>
       <c r="N68" s="78"/>
     </row>
     <row r="69" spans="1:14" s="90" customFormat="1">
-      <c r="A69" s="433"/>
+      <c r="A69" s="98">
+        <v>45681</v>
+      </c>
+      <c r="B69" s="92" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C69" s="106"/>
+      <c r="E69" s="90">
+        <v>-1798</v>
+      </c>
+      <c r="F69" s="77"/>
       <c r="K69" s="78"/>
       <c r="L69" s="78"/>
       <c r="M69" s="78"/>
       <c r="N69" s="78"/>
     </row>
     <row r="70" spans="1:14" s="90" customFormat="1">
-      <c r="A70" s="433"/>
+      <c r="A70" s="98"/>
+      <c r="B70" s="92" t="s">
+        <v>539</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="E70" s="90">
+        <v>1.8</v>
+      </c>
       <c r="K70" s="78"/>
       <c r="L70" s="78"/>
       <c r="M70" s="78"/>
       <c r="N70" s="78"/>
     </row>
     <row r="71" spans="1:14" s="90" customFormat="1">
-      <c r="A71" s="433"/>
+      <c r="A71" s="98">
+        <v>45681</v>
+      </c>
+      <c r="B71" s="92" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="E71" s="90">
+        <v>-700</v>
+      </c>
       <c r="K71" s="78"/>
       <c r="L71" s="78"/>
       <c r="M71" s="78"/>
@@ -11097,26 +11142,27 @@
         <v>45681</v>
       </c>
       <c r="B72" s="92" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C72" s="106"/>
       <c r="E72" s="90">
-        <v>-1798</v>
-      </c>
-      <c r="F72" s="77"/>
+        <v>-120</v>
+      </c>
       <c r="K72" s="78"/>
       <c r="L72" s="78"/>
       <c r="M72" s="78"/>
       <c r="N72" s="78"/>
     </row>
     <row r="73" spans="1:14" s="90" customFormat="1">
-      <c r="A73" s="98"/>
+      <c r="A73" s="98">
+        <v>45682</v>
+      </c>
       <c r="B73" s="92" t="s">
-        <v>539</v>
+        <v>1620</v>
       </c>
       <c r="C73" s="106"/>
       <c r="E73" s="90">
-        <v>1.8</v>
+        <v>-70</v>
       </c>
       <c r="K73" s="78"/>
       <c r="L73" s="78"/>
@@ -11125,14 +11171,14 @@
     </row>
     <row r="74" spans="1:14" s="90" customFormat="1">
       <c r="A74" s="98">
-        <v>45681</v>
+        <v>45682</v>
       </c>
       <c r="B74" s="92" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C74" s="106"/>
       <c r="E74" s="90">
-        <v>-700</v>
+        <v>-699.99</v>
       </c>
       <c r="K74" s="78"/>
       <c r="L74" s="78"/>
@@ -11141,14 +11187,14 @@
     </row>
     <row r="75" spans="1:14" s="90" customFormat="1">
       <c r="A75" s="98">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B75" s="92" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
       <c r="C75" s="106"/>
       <c r="E75" s="90">
-        <v>-120</v>
+        <v>-70</v>
       </c>
       <c r="K75" s="78"/>
       <c r="L75" s="78"/>
@@ -11157,14 +11203,13 @@
     </row>
     <row r="76" spans="1:14" s="90" customFormat="1">
       <c r="A76" s="98">
-        <v>45682</v>
-      </c>
-      <c r="B76" s="92" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C76" s="106"/>
+        <v>45686</v>
+      </c>
+      <c r="B76" s="90" t="s">
+        <v>1668</v>
+      </c>
       <c r="E76" s="90">
-        <v>-70</v>
+        <v>-3600</v>
       </c>
       <c r="K76" s="78"/>
       <c r="L76" s="78"/>
@@ -11173,14 +11218,13 @@
     </row>
     <row r="77" spans="1:14" s="90" customFormat="1">
       <c r="A77" s="98">
-        <v>45682</v>
-      </c>
-      <c r="B77" s="92" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C77" s="106"/>
-      <c r="E77" s="90">
-        <v>-699.99</v>
+        <v>45691</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="106">
+        <v>18950.04</v>
       </c>
       <c r="K77" s="78"/>
       <c r="L77" s="78"/>
@@ -11189,14 +11233,13 @@
     </row>
     <row r="78" spans="1:14" s="90" customFormat="1">
       <c r="A78" s="98">
-        <v>45684</v>
+        <v>45691</v>
       </c>
       <c r="B78" s="92" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C78" s="106"/>
-      <c r="E78" s="90">
-        <v>-70</v>
+        <v>130</v>
+      </c>
+      <c r="C78" s="106">
+        <v>10153.299999999999</v>
       </c>
       <c r="K78" s="78"/>
       <c r="L78" s="78"/>
@@ -11204,14 +11247,14 @@
       <c r="N78" s="78"/>
     </row>
     <row r="79" spans="1:14" s="90" customFormat="1">
-      <c r="A79" s="98">
-        <v>45686</v>
+      <c r="A79" s="433">
+        <v>45694</v>
       </c>
       <c r="B79" s="90" t="s">
-        <v>1668</v>
+        <v>1620</v>
       </c>
       <c r="E79" s="90">
-        <v>-3600</v>
+        <v>-70</v>
       </c>
       <c r="K79" s="78"/>
       <c r="L79" s="78"/>
@@ -11219,58 +11262,58 @@
       <c r="N79" s="78"/>
     </row>
     <row r="80" spans="1:14" s="90" customFormat="1">
-      <c r="A80" s="98">
-        <v>45691</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" s="106">
-        <v>18950.04</v>
+      <c r="A80" s="433">
+        <v>45695</v>
+      </c>
+      <c r="B80" s="90" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E80" s="90">
+        <v>-200</v>
       </c>
       <c r="K80" s="78"/>
       <c r="L80" s="78"/>
       <c r="M80" s="78"/>
       <c r="N80" s="78"/>
     </row>
-    <row r="81" spans="1:14" s="90" customFormat="1">
-      <c r="A81" s="98">
-        <v>45691</v>
-      </c>
-      <c r="B81" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81" s="106">
-        <v>10153.299999999999</v>
+    <row r="81" spans="1:14" s="77" customFormat="1">
+      <c r="A81" s="433">
+        <v>45696</v>
+      </c>
+      <c r="B81" s="77" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E81" s="77">
+        <v>-550</v>
       </c>
       <c r="K81" s="78"/>
       <c r="L81" s="78"/>
       <c r="M81" s="78"/>
       <c r="N81" s="78"/>
     </row>
-    <row r="82" spans="1:14" s="90" customFormat="1">
+    <row r="82" spans="1:14" s="77" customFormat="1">
       <c r="A82" s="433">
-        <v>45694</v>
-      </c>
-      <c r="B82" s="90" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E82" s="90">
-        <v>-70</v>
+        <v>45697</v>
+      </c>
+      <c r="B82" s="77" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E82" s="77">
+        <v>-329.97</v>
       </c>
       <c r="K82" s="78"/>
       <c r="L82" s="78"/>
       <c r="M82" s="78"/>
       <c r="N82" s="78"/>
     </row>
-    <row r="83" spans="1:14" s="90" customFormat="1">
+    <row r="83" spans="1:14" s="77" customFormat="1">
       <c r="A83" s="433">
-        <v>45695</v>
-      </c>
-      <c r="B83" s="90" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E83" s="90">
+        <v>45699</v>
+      </c>
+      <c r="B83" s="77" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E83" s="77">
         <v>-200</v>
       </c>
       <c r="K83" s="78"/>
@@ -11280,13 +11323,13 @@
     </row>
     <row r="84" spans="1:14" s="77" customFormat="1">
       <c r="A84" s="433">
-        <v>45696</v>
+        <v>45700</v>
       </c>
       <c r="B84" s="77" t="s">
-        <v>1671</v>
+        <v>1620</v>
       </c>
       <c r="E84" s="77">
-        <v>-550</v>
+        <v>-70</v>
       </c>
       <c r="K84" s="78"/>
       <c r="L84" s="78"/>
@@ -11295,13 +11338,13 @@
     </row>
     <row r="85" spans="1:14" s="77" customFormat="1">
       <c r="A85" s="433">
-        <v>45697</v>
+        <v>45701</v>
       </c>
       <c r="B85" s="77" t="s">
-        <v>1672</v>
+        <v>1621</v>
       </c>
       <c r="E85" s="77">
-        <v>-329.97</v>
+        <v>-230</v>
       </c>
       <c r="K85" s="78"/>
       <c r="L85" s="78"/>
@@ -11310,13 +11353,13 @@
     </row>
     <row r="86" spans="1:14" s="77" customFormat="1">
       <c r="A86" s="433">
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="B86" s="77" t="s">
-        <v>1676</v>
+        <v>489</v>
       </c>
       <c r="E86" s="77">
-        <v>-200</v>
+        <v>-250</v>
       </c>
       <c r="K86" s="78"/>
       <c r="L86" s="78"/>
@@ -11325,13 +11368,13 @@
     </row>
     <row r="87" spans="1:14" s="77" customFormat="1">
       <c r="A87" s="433">
-        <v>45700</v>
+        <v>45703</v>
       </c>
       <c r="B87" s="77" t="s">
-        <v>1620</v>
+        <v>1677</v>
       </c>
       <c r="E87" s="77">
-        <v>-70</v>
+        <v>-210</v>
       </c>
       <c r="K87" s="78"/>
       <c r="L87" s="78"/>
@@ -11339,60 +11382,61 @@
       <c r="N87" s="78"/>
     </row>
     <row r="88" spans="1:14" s="77" customFormat="1">
-      <c r="A88" s="433">
-        <v>45701</v>
-      </c>
-      <c r="B88" s="77" t="s">
-        <v>1621</v>
-      </c>
+      <c r="A88" s="98">
+        <v>45704</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="106"/>
       <c r="E88" s="77">
-        <v>-230</v>
+        <v>-467.38</v>
       </c>
       <c r="K88" s="78"/>
       <c r="L88" s="78"/>
       <c r="M88" s="78"/>
       <c r="N88" s="78"/>
     </row>
-    <row r="89" spans="1:14" s="77" customFormat="1">
-      <c r="A89" s="433">
-        <v>45702</v>
-      </c>
-      <c r="B89" s="77" t="s">
-        <v>489</v>
-      </c>
-      <c r="E89" s="77">
-        <v>-250</v>
+    <row r="89" spans="1:14" s="90" customFormat="1">
+      <c r="A89" s="98">
+        <v>45705</v>
+      </c>
+      <c r="B89" s="92" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C89" s="106"/>
+      <c r="E89" s="90">
+        <v>-350</v>
       </c>
       <c r="K89" s="78"/>
       <c r="L89" s="78"/>
       <c r="M89" s="78"/>
       <c r="N89" s="78"/>
     </row>
-    <row r="90" spans="1:14" s="77" customFormat="1">
-      <c r="A90" s="433">
-        <v>45703</v>
-      </c>
-      <c r="B90" s="77" t="s">
-        <v>1677</v>
-      </c>
-      <c r="E90" s="77">
-        <v>-210</v>
+    <row r="90" spans="1:14" s="90" customFormat="1">
+      <c r="A90" s="98">
+        <v>45704</v>
+      </c>
+      <c r="B90" s="92"/>
+      <c r="C90" s="106"/>
+      <c r="E90" s="90">
+        <v>-33</v>
       </c>
       <c r="K90" s="78"/>
       <c r="L90" s="78"/>
       <c r="M90" s="78"/>
       <c r="N90" s="78"/>
     </row>
-    <row r="91" spans="1:14" s="77" customFormat="1">
+    <row r="91" spans="1:14" s="90" customFormat="1">
       <c r="A91" s="98">
-        <v>45704</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>128</v>
+        <v>45705</v>
+      </c>
+      <c r="B91" s="92" t="s">
+        <v>415</v>
       </c>
       <c r="C91" s="106"/>
-      <c r="E91" s="77">
-        <v>-467.38</v>
+      <c r="E91" s="90">
+        <v>-380</v>
       </c>
       <c r="K91" s="78"/>
       <c r="L91" s="78"/>
@@ -11401,14 +11445,14 @@
     </row>
     <row r="92" spans="1:14" s="90" customFormat="1">
       <c r="A92" s="98">
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B92" s="92" t="s">
-        <v>1678</v>
+        <v>1620</v>
       </c>
       <c r="C92" s="106"/>
       <c r="E92" s="90">
-        <v>-350</v>
+        <v>-400</v>
       </c>
       <c r="K92" s="78"/>
       <c r="L92" s="78"/>
@@ -11417,60 +11461,58 @@
     </row>
     <row r="93" spans="1:14" s="90" customFormat="1">
       <c r="A93" s="98">
-        <v>45704</v>
-      </c>
-      <c r="B93" s="92"/>
+        <v>45706</v>
+      </c>
+      <c r="B93" s="92" t="s">
+        <v>128</v>
+      </c>
       <c r="C93" s="106"/>
       <c r="E93" s="90">
-        <v>-33</v>
+        <v>-215.21</v>
       </c>
       <c r="K93" s="78"/>
       <c r="L93" s="78"/>
       <c r="M93" s="78"/>
       <c r="N93" s="78"/>
     </row>
-    <row r="94" spans="1:14" s="90" customFormat="1">
+    <row r="94" spans="1:14" s="77" customFormat="1">
       <c r="A94" s="98">
-        <v>45705</v>
-      </c>
-      <c r="B94" s="92" t="s">
-        <v>415</v>
+        <v>45709</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>1679</v>
       </c>
       <c r="C94" s="106"/>
-      <c r="E94" s="90">
-        <v>-380</v>
+      <c r="E94" s="77">
+        <v>-120</v>
       </c>
       <c r="K94" s="78"/>
       <c r="L94" s="78"/>
       <c r="M94" s="78"/>
       <c r="N94" s="78"/>
     </row>
-    <row r="95" spans="1:14" s="90" customFormat="1">
+    <row r="95" spans="1:14" s="77" customFormat="1">
       <c r="A95" s="98">
-        <v>45706</v>
-      </c>
-      <c r="B95" s="92" t="s">
-        <v>1620</v>
+        <v>45710</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C95" s="106"/>
-      <c r="E95" s="90">
-        <v>-400</v>
+      <c r="E95" s="77">
+        <v>-396</v>
       </c>
       <c r="K95" s="78"/>
       <c r="L95" s="78"/>
       <c r="M95" s="78"/>
       <c r="N95" s="78"/>
     </row>
-    <row r="96" spans="1:14" s="90" customFormat="1">
-      <c r="A96" s="98">
-        <v>45706</v>
-      </c>
-      <c r="B96" s="92" t="s">
-        <v>128</v>
-      </c>
+    <row r="96" spans="1:14" s="77" customFormat="1" ht="15">
+      <c r="A96" s="98"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="106"/>
-      <c r="E96" s="90">
-        <v>-215.21</v>
+      <c r="E96" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="K96" s="78"/>
       <c r="L96" s="78"/>
@@ -11478,44 +11520,26 @@
       <c r="N96" s="78"/>
     </row>
     <row r="97" spans="1:14" s="77" customFormat="1">
-      <c r="A97" s="98">
-        <v>45709</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>1679</v>
-      </c>
+      <c r="A97" s="98"/>
+      <c r="B97" s="3"/>
       <c r="C97" s="106"/>
-      <c r="E97" s="77">
-        <v>-120</v>
-      </c>
       <c r="K97" s="78"/>
       <c r="L97" s="78"/>
       <c r="M97" s="78"/>
       <c r="N97" s="78"/>
     </row>
     <row r="98" spans="1:14" s="77" customFormat="1">
-      <c r="A98" s="98">
-        <v>45710</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="A98" s="98"/>
       <c r="C98" s="106"/>
-      <c r="E98" s="77">
-        <v>-396</v>
-      </c>
       <c r="K98" s="78"/>
       <c r="L98" s="78"/>
       <c r="M98" s="78"/>
       <c r="N98" s="78"/>
     </row>
-    <row r="99" spans="1:14" s="77" customFormat="1" ht="15">
+    <row r="99" spans="1:14" s="77" customFormat="1">
       <c r="A99" s="98"/>
       <c r="B99" s="3"/>
       <c r="C99" s="106"/>
-      <c r="E99" s="105" t="s">
-        <v>84</v>
-      </c>
       <c r="K99" s="78"/>
       <c r="L99" s="78"/>
       <c r="M99" s="78"/>
@@ -11532,819 +11556,826 @@
     </row>
     <row r="101" spans="1:14" s="77" customFormat="1">
       <c r="A101" s="98"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="106"/>
       <c r="K101" s="78"/>
       <c r="L101" s="78"/>
       <c r="M101" s="78"/>
       <c r="N101" s="78"/>
     </row>
-    <row r="102" spans="1:14" s="77" customFormat="1">
-      <c r="A102" s="98"/>
+    <row r="102" spans="1:14">
       <c r="B102" s="3"/>
       <c r="C102" s="106"/>
-      <c r="K102" s="78"/>
-      <c r="L102" s="78"/>
-      <c r="M102" s="78"/>
-      <c r="N102" s="78"/>
-    </row>
-    <row r="103" spans="1:14" s="77" customFormat="1">
-      <c r="A103" s="98"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="106"/>
-      <c r="K103" s="78"/>
-      <c r="L103" s="78"/>
-      <c r="M103" s="78"/>
-      <c r="N103" s="78"/>
-    </row>
-    <row r="104" spans="1:14" s="77" customFormat="1">
-      <c r="A104" s="98"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="106"/>
-      <c r="K104" s="78"/>
-      <c r="L104" s="78"/>
-      <c r="M104" s="78"/>
-      <c r="N104" s="78"/>
-    </row>
-    <row r="105" spans="1:14">
-      <c r="B105" s="3"/>
-      <c r="C105" s="106"/>
-      <c r="I105" s="77"/>
-      <c r="J105" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="113" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B111" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="103">
+        <v>2025</v>
+      </c>
+      <c r="D111" s="90"/>
+      <c r="E111" s="90"/>
+      <c r="F111" s="90"/>
+      <c r="G111" s="90">
+        <f>SUM(G115:G143)</f>
+        <v>1097621.0538949999</v>
+      </c>
+      <c r="H111" s="90"/>
+      <c r="I111" s="90"/>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="113"/>
+      <c r="B112" s="104"/>
+      <c r="C112" s="103"/>
+      <c r="D112" s="90"/>
+      <c r="E112" s="90"/>
+      <c r="F112" s="90"/>
+      <c r="G112" s="90"/>
+      <c r="H112" s="90"/>
+      <c r="I112" s="90"/>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="113"/>
+      <c r="B113" s="104"/>
+      <c r="C113" s="103"/>
+      <c r="D113" s="90"/>
+      <c r="E113" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="F113" s="90"/>
+      <c r="G113" s="90"/>
+      <c r="H113" s="90"/>
+      <c r="I113" s="90"/>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="113" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B114" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="C114" s="103">
-        <v>2025</v>
-      </c>
+      <c r="A114" s="100"/>
+      <c r="B114" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="90"/>
       <c r="D114" s="90"/>
       <c r="E114" s="90"/>
       <c r="F114" s="90"/>
       <c r="G114" s="90">
-        <f>SUM(G118:G146)</f>
-        <v>1097621.0538949999</v>
+        <v>0</v>
       </c>
       <c r="H114" s="90"/>
       <c r="I114" s="90"/>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="113"/>
-      <c r="B115" s="104"/>
-      <c r="C115" s="103"/>
+      <c r="A115" s="100"/>
+      <c r="B115" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" s="90"/>
       <c r="D115" s="90"/>
       <c r="E115" s="90"/>
       <c r="F115" s="90"/>
-      <c r="G115" s="90"/>
+      <c r="G115" s="90">
+        <v>0</v>
+      </c>
       <c r="H115" s="90"/>
       <c r="I115" s="90"/>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="113"/>
-      <c r="B116" s="104"/>
-      <c r="C116" s="103"/>
+      <c r="A116" s="100">
+        <v>45721</v>
+      </c>
+      <c r="B116" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116" s="90"/>
       <c r="D116" s="90"/>
-      <c r="E116" s="90" t="s">
-        <v>138</v>
-      </c>
+      <c r="E116" s="90"/>
       <c r="F116" s="90"/>
-      <c r="G116" s="90"/>
+      <c r="G116" s="90">
+        <v>195330</v>
+      </c>
       <c r="H116" s="90"/>
       <c r="I116" s="90"/>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="100"/>
+      <c r="A117" s="100">
+        <v>45721</v>
+      </c>
       <c r="B117" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C117" s="90"/>
-      <c r="D117" s="90"/>
+        <v>140</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
       <c r="E117" s="90"/>
       <c r="F117" s="90"/>
-      <c r="G117" s="90">
-        <v>0</v>
+      <c r="G117" s="17">
+        <v>18000</v>
       </c>
       <c r="H117" s="90"/>
       <c r="I117" s="90"/>
     </row>
-    <row r="118" spans="1:14">
-      <c r="A118" s="100"/>
-      <c r="B118" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="C118" s="90"/>
-      <c r="D118" s="90"/>
+    <row r="118" spans="1:14" s="11" customFormat="1">
+      <c r="A118" s="100">
+        <v>45721</v>
+      </c>
+      <c r="B118" s="90"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
       <c r="E118" s="90"/>
-      <c r="F118" s="90"/>
-      <c r="G118" s="90">
-        <v>0</v>
+      <c r="F118" s="90" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G118" s="17">
+        <v>38850</v>
       </c>
       <c r="H118" s="90"/>
       <c r="I118" s="90"/>
+      <c r="K118" s="78"/>
+      <c r="L118" s="78"/>
+      <c r="M118" s="78"/>
+      <c r="N118" s="78"/>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="100">
         <v>45721</v>
       </c>
       <c r="B119" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="C119" s="90"/>
-      <c r="D119" s="90"/>
+        <v>141</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
       <c r="E119" s="90"/>
       <c r="F119" s="90"/>
-      <c r="G119" s="90">
-        <v>195330</v>
+      <c r="G119" s="17">
+        <v>15000</v>
       </c>
       <c r="H119" s="90"/>
       <c r="I119" s="90"/>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="100">
-        <v>45721</v>
-      </c>
-      <c r="B120" s="90" t="s">
-        <v>140</v>
-      </c>
+      <c r="A120" s="100"/>
+      <c r="B120" s="90"/>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
       <c r="E120" s="90"/>
       <c r="F120" s="90"/>
-      <c r="G120" s="17">
-        <v>18000</v>
-      </c>
+      <c r="G120" s="17"/>
       <c r="H120" s="90"/>
       <c r="I120" s="90"/>
     </row>
-    <row r="121" spans="1:14" s="11" customFormat="1">
+    <row r="121" spans="1:14">
       <c r="A121" s="100">
-        <v>45721</v>
-      </c>
-      <c r="B121" s="90"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="90"/>
-      <c r="F121" s="90" t="s">
-        <v>1689</v>
+        <v>45667</v>
+      </c>
+      <c r="B121" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="114">
+        <v>50</v>
+      </c>
+      <c r="D121" s="115">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E121" s="116">
+        <f t="shared" ref="E121:E126" si="1">D121*C121</f>
+        <v>43613.183249999995</v>
+      </c>
+      <c r="F121" s="405">
+        <v>929.84559100000001</v>
       </c>
       <c r="G121" s="17">
-        <v>38850</v>
+        <f t="shared" ref="G121:G126" si="2">F121*C121</f>
+        <v>46492.279549999999</v>
       </c>
       <c r="H121" s="90"/>
-      <c r="I121" s="90"/>
-      <c r="K121" s="78"/>
-      <c r="L121" s="78"/>
-      <c r="M121" s="78"/>
-      <c r="N121" s="78"/>
+      <c r="I121" s="90">
+        <f t="shared" ref="I121:I126" si="3">G121-E121</f>
+        <v>2879.0963000000047</v>
+      </c>
+      <c r="M121" s="447"/>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="100">
+        <v>45672</v>
+      </c>
+      <c r="B122" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C122" s="114">
+        <v>55</v>
+      </c>
+      <c r="D122" s="115">
+        <v>877.65409299999999</v>
+      </c>
+      <c r="E122" s="116">
+        <f t="shared" si="1"/>
+        <v>48270.975115000001</v>
+      </c>
+      <c r="F122" s="405">
+        <f>F121</f>
+        <v>929.84559100000001</v>
+      </c>
+      <c r="G122" s="17">
+        <f t="shared" si="2"/>
+        <v>51141.507505000001</v>
+      </c>
+      <c r="H122" s="90"/>
+      <c r="I122" s="90">
+        <f t="shared" si="3"/>
+        <v>2870.5323900000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="448">
+        <v>45680</v>
+      </c>
+      <c r="B123" s="449" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C123" s="450"/>
+      <c r="D123" s="451">
+        <v>305</v>
+      </c>
+      <c r="E123" s="452">
+        <f>D123*C123</f>
+        <v>0</v>
+      </c>
+      <c r="F123" s="418">
+        <v>323.75</v>
+      </c>
+      <c r="G123" s="453">
+        <f>F123*C123</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="418"/>
+      <c r="I123" s="418">
+        <f>G123-E123</f>
+        <v>0</v>
+      </c>
+      <c r="J123" s="446"/>
+      <c r="K123" s="100"/>
+      <c r="M123" s="446"/>
+    </row>
+    <row r="124" spans="1:14" s="11" customFormat="1">
+      <c r="A124" s="448">
         <v>45721</v>
       </c>
-      <c r="B122" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="90"/>
-      <c r="F122" s="90"/>
-      <c r="G122" s="17">
-        <v>15000</v>
-      </c>
-      <c r="H122" s="90"/>
-      <c r="I122" s="90"/>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="A123" s="100"/>
-      <c r="B123" s="90"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="90"/>
-      <c r="F123" s="90"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="90"/>
-      <c r="I123" s="90"/>
-    </row>
-    <row r="124" spans="1:14">
-      <c r="A124" s="100">
-        <v>45667</v>
-      </c>
-      <c r="B124" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C124" s="114">
-        <v>50</v>
-      </c>
-      <c r="D124" s="115">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E124" s="116">
-        <f t="shared" ref="E124:E129" si="1">D124*C124</f>
-        <v>43613.183249999995</v>
-      </c>
-      <c r="F124" s="405">
-        <v>929.84559100000001</v>
-      </c>
-      <c r="G124" s="17">
-        <f t="shared" ref="G124:G129" si="2">F124*C124</f>
-        <v>46492.279549999999</v>
-      </c>
-      <c r="H124" s="90"/>
-      <c r="I124" s="90">
-        <f t="shared" ref="I124:I129" si="3">G124-E124</f>
-        <v>2879.0963000000047</v>
-      </c>
-      <c r="M124" s="450"/>
+      <c r="B124" s="449" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C124" s="450"/>
+      <c r="D124" s="451"/>
+      <c r="E124" s="452"/>
+      <c r="F124" s="418"/>
+      <c r="G124" s="453"/>
+      <c r="H124" s="418"/>
+      <c r="I124" s="418">
+        <v>-81.59</v>
+      </c>
+      <c r="J124" s="78"/>
+      <c r="K124" s="446"/>
+      <c r="L124" s="78"/>
+      <c r="M124" s="446"/>
+      <c r="N124" s="78"/>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="100">
-        <v>45672</v>
+        <v>45620</v>
       </c>
       <c r="B125" s="82" t="s">
-        <v>142</v>
+        <v>1612</v>
       </c>
       <c r="C125" s="114">
-        <v>55</v>
-      </c>
-      <c r="D125" s="115">
-        <v>877.65409299999999</v>
+        <v>4000</v>
+      </c>
+      <c r="D125" s="114">
+        <v>32.549999999999997</v>
       </c>
       <c r="E125" s="116">
         <f t="shared" si="1"/>
-        <v>48270.975115000001</v>
-      </c>
-      <c r="F125" s="405">
-        <f>F124</f>
-        <v>929.84559100000001</v>
+        <v>130199.99999999999</v>
+      </c>
+      <c r="F125" s="90">
+        <v>36.369999999999997</v>
       </c>
       <c r="G125" s="17">
         <f t="shared" si="2"/>
-        <v>51141.507505000001</v>
+        <v>145480</v>
       </c>
       <c r="H125" s="90"/>
       <c r="I125" s="90">
         <f t="shared" si="3"/>
-        <v>2870.5323900000003</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
-      <c r="A126" s="451">
-        <v>45680</v>
-      </c>
-      <c r="B126" s="452" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C126" s="453"/>
-      <c r="D126" s="454">
-        <v>305</v>
-      </c>
-      <c r="E126" s="455">
-        <f>D126*C126</f>
-        <v>0</v>
-      </c>
-      <c r="F126" s="418">
-        <v>323.75</v>
-      </c>
-      <c r="G126" s="456">
-        <f>F126*C126</f>
-        <v>0</v>
-      </c>
-      <c r="H126" s="418"/>
-      <c r="I126" s="418">
-        <f>G126-E126</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="449"/>
-      <c r="K126" s="100"/>
-      <c r="M126" s="449"/>
-    </row>
-    <row r="127" spans="1:14" s="11" customFormat="1">
-      <c r="A127" s="451">
-        <v>45721</v>
-      </c>
-      <c r="B127" s="452" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C127" s="453"/>
-      <c r="D127" s="454"/>
-      <c r="E127" s="455"/>
-      <c r="F127" s="418"/>
-      <c r="G127" s="456"/>
-      <c r="H127" s="418"/>
-      <c r="I127" s="418">
-        <v>-81.59</v>
-      </c>
-      <c r="J127" s="78"/>
-      <c r="K127" s="449"/>
-      <c r="L127" s="78"/>
-      <c r="M127" s="449"/>
-      <c r="N127" s="78"/>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="A128" s="100">
-        <v>45620</v>
-      </c>
-      <c r="B128" s="82" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C128" s="114">
+        <v>15280.000000000015</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="13.5" thickBot="1">
+      <c r="A126" s="100">
+        <v>45659</v>
+      </c>
+      <c r="B126" s="82" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C126" s="114">
         <v>4000</v>
       </c>
-      <c r="D128" s="114">
-        <v>32.549999999999997</v>
-      </c>
-      <c r="E128" s="116">
+      <c r="D126" s="115">
+        <v>30.86</v>
+      </c>
+      <c r="E126" s="116">
         <f t="shared" si="1"/>
-        <v>130199.99999999999</v>
-      </c>
-      <c r="F128" s="90">
+        <v>123440</v>
+      </c>
+      <c r="F126" s="90">
+        <f>F125</f>
         <v>36.369999999999997</v>
       </c>
-      <c r="G128" s="17">
+      <c r="G126" s="17">
         <f t="shared" si="2"/>
         <v>145480</v>
       </c>
-      <c r="H128" s="90"/>
-      <c r="I128" s="90">
-        <f t="shared" si="3"/>
-        <v>15280.000000000015</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A129" s="100">
-        <v>45659</v>
-      </c>
-      <c r="B129" s="82" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C129" s="114">
-        <v>4000</v>
-      </c>
-      <c r="D129" s="115">
-        <v>30.86</v>
-      </c>
-      <c r="E129" s="116">
-        <f t="shared" si="1"/>
-        <v>123440</v>
-      </c>
-      <c r="F129" s="90">
-        <f>F128</f>
-        <v>36.369999999999997</v>
-      </c>
-      <c r="G129" s="17">
-        <f t="shared" si="2"/>
-        <v>145480</v>
-      </c>
-      <c r="H129" s="420">
-        <f>SUM(G124:G129)</f>
+      <c r="H126" s="420">
+        <f>SUM(G121:G126)</f>
         <v>388593.78705499996</v>
       </c>
-      <c r="I129" s="90">
+      <c r="I126" s="90">
         <f t="shared" si="3"/>
         <v>22040</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A130" s="100"/>
-      <c r="B130" s="90"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="90">
-        <f>SUM(E124:E129)</f>
+    <row r="127" spans="1:14" ht="13.5" thickBot="1">
+      <c r="A127" s="100"/>
+      <c r="B127" s="90"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="90">
+        <f>SUM(E121:E126)</f>
         <v>345524.15836499998</v>
       </c>
-      <c r="F130" s="90"/>
-      <c r="G130" s="17"/>
-      <c r="H130" s="117">
-        <f>(SUM(G124:G129))-(SUM(E124:E129))</f>
+      <c r="F127" s="90"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="117">
+        <f>(SUM(G121:G126))-(SUM(E121:E126))</f>
         <v>43069.628689999983</v>
       </c>
-      <c r="I130" s="117">
-        <f>SUM(I124:I129)</f>
+      <c r="I127" s="117">
+        <f>SUM(I121:I126)</f>
         <v>42988.038690000016</v>
       </c>
     </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="100"/>
+      <c r="B128" s="90"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="90"/>
+      <c r="F128" s="90"/>
+      <c r="G128" s="90"/>
+      <c r="H128" s="90"/>
+      <c r="I128" s="90"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="100">
+        <v>45345</v>
+      </c>
+      <c r="B129" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" s="118">
+        <v>125000</v>
+      </c>
+      <c r="D129" s="83">
+        <v>1.0399430000000001</v>
+      </c>
+      <c r="E129" s="116">
+        <f>D129*C129</f>
+        <v>129992.87500000001</v>
+      </c>
+      <c r="F129" s="119">
+        <v>0.76836099999999996</v>
+      </c>
+      <c r="G129" s="17">
+        <f>F129*C129</f>
+        <v>96045.125</v>
+      </c>
+      <c r="H129" s="90"/>
+      <c r="I129" s="90">
+        <f t="shared" ref="I129:I133" si="4">G129-E129</f>
+        <v>-33947.750000000015</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="100">
+        <v>45667</v>
+      </c>
+      <c r="B130" s="82" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C130" s="118">
+        <v>240</v>
+      </c>
+      <c r="D130" s="83">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E130" s="116">
+        <f>D130*C130</f>
+        <v>209343.27959999998</v>
+      </c>
+      <c r="F130" s="404">
+        <f>F122</f>
+        <v>929.84559100000001</v>
+      </c>
+      <c r="G130" s="17">
+        <f>F130*C130</f>
+        <v>223162.94184000001</v>
+      </c>
+      <c r="H130" s="90"/>
+      <c r="I130" s="90">
+        <f t="shared" si="4"/>
+        <v>13819.662240000034</v>
+      </c>
+    </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="100"/>
-      <c r="B131" s="90"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="90"/>
-      <c r="F131" s="90"/>
-      <c r="G131" s="90"/>
+      <c r="A131" s="100">
+        <v>45400</v>
+      </c>
+      <c r="B131" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" s="114">
+        <v>10</v>
+      </c>
+      <c r="D131" s="83">
+        <v>135</v>
+      </c>
+      <c r="E131" s="116">
+        <f>D131*C131</f>
+        <v>1350</v>
+      </c>
+      <c r="F131" s="90">
+        <v>112.6</v>
+      </c>
+      <c r="G131" s="17">
+        <f>F131*C131</f>
+        <v>1126</v>
+      </c>
       <c r="H131" s="90"/>
-      <c r="I131" s="90"/>
+      <c r="I131" s="90">
+        <f t="shared" si="4"/>
+        <v>-224</v>
+      </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="100">
-        <v>45345</v>
+        <v>45418</v>
       </c>
       <c r="B132" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="C132" s="118">
-        <v>125000</v>
+        <v>146</v>
+      </c>
+      <c r="C132" s="114">
+        <v>38</v>
       </c>
       <c r="D132" s="83">
-        <v>1.0399430000000001</v>
+        <v>30.5</v>
       </c>
       <c r="E132" s="116">
         <f>D132*C132</f>
-        <v>129992.87500000001</v>
-      </c>
-      <c r="F132" s="119">
-        <v>0.76836099999999996</v>
+        <v>1159</v>
+      </c>
+      <c r="F132" s="90">
+        <v>16.899999999999999</v>
       </c>
       <c r="G132" s="17">
         <f>F132*C132</f>
-        <v>96045.125</v>
+        <v>642.19999999999993</v>
       </c>
       <c r="H132" s="90"/>
       <c r="I132" s="90">
-        <f t="shared" ref="I132:I136" si="4">G132-E132</f>
-        <v>-33947.750000000015</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <f t="shared" si="4"/>
+        <v>-516.80000000000007</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="13.5" thickBot="1">
       <c r="A133" s="100">
-        <v>45667</v>
+        <v>45418</v>
       </c>
       <c r="B133" s="82" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C133" s="118">
-        <v>240</v>
+        <v>147</v>
+      </c>
+      <c r="C133" s="114">
+        <v>26</v>
       </c>
       <c r="D133" s="83">
-        <v>872.26366499999995</v>
+        <v>37.115000000000002</v>
       </c>
       <c r="E133" s="116">
         <f>D133*C133</f>
-        <v>209343.27959999998</v>
-      </c>
-      <c r="F133" s="404">
-        <f>F125</f>
-        <v>929.84559100000001</v>
+        <v>964.99</v>
+      </c>
+      <c r="F133" s="90">
+        <v>23.5</v>
       </c>
       <c r="G133" s="17">
         <f>F133*C133</f>
-        <v>223162.94184000001</v>
-      </c>
-      <c r="H133" s="90"/>
+        <v>611</v>
+      </c>
+      <c r="H133" s="420">
+        <f>SUM(G129:G133)</f>
+        <v>321587.26684</v>
+      </c>
       <c r="I133" s="90">
         <f t="shared" si="4"/>
-        <v>13819.662240000034</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="100">
-        <v>45400</v>
-      </c>
-      <c r="B134" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="C134" s="114">
-        <v>10</v>
-      </c>
-      <c r="D134" s="83">
-        <v>135</v>
-      </c>
-      <c r="E134" s="116">
-        <f>D134*C134</f>
-        <v>1350</v>
-      </c>
-      <c r="F134" s="90">
-        <v>112.6</v>
-      </c>
-      <c r="G134" s="17">
-        <f>F134*C134</f>
-        <v>1126</v>
-      </c>
-      <c r="H134" s="90"/>
-      <c r="I134" s="90">
-        <f t="shared" si="4"/>
-        <v>-224</v>
-      </c>
+        <v>-353.99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A134" s="100"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="90">
+        <f>SUM(E129:E133)</f>
+        <v>342810.1446</v>
+      </c>
+      <c r="F134" s="90"/>
+      <c r="G134" s="90"/>
+      <c r="H134" s="117">
+        <f>(SUM(G129:G133))-(SUM(E129:E133))</f>
+        <v>-21222.877760000003</v>
+      </c>
+      <c r="I134" s="90"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="100">
-        <v>45418</v>
-      </c>
-      <c r="B135" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="C135" s="114">
-        <v>38</v>
-      </c>
-      <c r="D135" s="83">
-        <v>30.5</v>
-      </c>
-      <c r="E135" s="116">
-        <f>D135*C135</f>
-        <v>1159</v>
-      </c>
-      <c r="F135" s="90">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="G135" s="17">
-        <f>F135*C135</f>
-        <v>642.19999999999993</v>
-      </c>
+      <c r="A135" s="100"/>
+      <c r="B135" s="90"/>
+      <c r="C135" s="90"/>
+      <c r="D135" s="90"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="90"/>
+      <c r="G135" s="90"/>
       <c r="H135" s="90"/>
-      <c r="I135" s="90">
-        <f t="shared" si="4"/>
-        <v>-516.80000000000007</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="13.5" thickBot="1">
+      <c r="I135" s="90"/>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="100">
-        <v>45418</v>
+        <v>45509</v>
       </c>
       <c r="B136" s="82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C136" s="114">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D136" s="83">
-        <v>37.115000000000002</v>
+        <v>2500</v>
       </c>
       <c r="E136" s="116">
         <f>D136*C136</f>
-        <v>964.99</v>
+        <v>2500</v>
       </c>
       <c r="F136" s="90">
-        <v>23.5</v>
+        <v>3350</v>
       </c>
       <c r="G136" s="17">
-        <f>F136*C136</f>
-        <v>611</v>
-      </c>
-      <c r="H136" s="420">
-        <f>SUM(G132:G136)</f>
-        <v>321587.26684</v>
-      </c>
+        <f>C136*F136</f>
+        <v>3350</v>
+      </c>
+      <c r="H136" s="90"/>
       <c r="I136" s="90">
-        <f t="shared" si="4"/>
-        <v>-353.99</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A137" s="100"/>
-      <c r="B137" s="90"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="90">
-        <f>SUM(E132:E136)</f>
-        <v>342810.1446</v>
-      </c>
-      <c r="F137" s="90"/>
-      <c r="G137" s="90"/>
-      <c r="H137" s="117">
-        <f>(SUM(G132:G136))-(SUM(E132:E136))</f>
-        <v>-21222.877760000003</v>
-      </c>
-      <c r="I137" s="90"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="100"/>
-      <c r="B138" s="90"/>
-      <c r="C138" s="90"/>
-      <c r="D138" s="90"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="90"/>
-      <c r="G138" s="90"/>
-      <c r="H138" s="90"/>
-      <c r="I138" s="90"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="100">
+        <f t="shared" ref="I136:I138" si="5">G136-E136</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="100">
         <v>45509</v>
       </c>
-      <c r="B139" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C139" s="114">
-        <v>1</v>
-      </c>
-      <c r="D139" s="83">
-        <v>2500</v>
-      </c>
-      <c r="E139" s="116">
-        <f>D139*C139</f>
-        <v>2500</v>
-      </c>
-      <c r="F139" s="90">
-        <v>3350</v>
-      </c>
-      <c r="G139" s="17">
-        <f>C139*F139</f>
-        <v>3350</v>
-      </c>
-      <c r="H139" s="90"/>
-      <c r="I139" s="90">
-        <f t="shared" ref="I139:I141" si="5">G139-E139</f>
-        <v>850</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="100">
-        <v>45509</v>
-      </c>
-      <c r="B140" s="82" t="s">
+      <c r="B137" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="C140" s="114">
+      <c r="C137" s="114">
         <v>16</v>
       </c>
-      <c r="D140" s="83">
+      <c r="D137" s="83">
         <v>4100</v>
       </c>
-      <c r="E140" s="116">
-        <f>D140*C140</f>
+      <c r="E137" s="116">
+        <f>D137*C137</f>
         <v>65600</v>
       </c>
-      <c r="F140" s="90">
-        <f>F139*1.73</f>
+      <c r="F137" s="90">
+        <f>F136*1.73</f>
         <v>5795.5</v>
       </c>
-      <c r="G140" s="17">
-        <f>C140*F140</f>
+      <c r="G137" s="17">
+        <f>C137*F137</f>
         <v>92728</v>
       </c>
-      <c r="H140" s="90"/>
-      <c r="I140" s="90">
+      <c r="H137" s="90"/>
+      <c r="I137" s="90">
         <f t="shared" si="5"/>
         <v>27128</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A141" s="100">
+    <row r="138" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A138" s="100">
         <v>45509</v>
       </c>
-      <c r="B141" s="82" t="s">
+      <c r="B138" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C141" s="114">
+      <c r="C138" s="114">
         <v>1</v>
       </c>
-      <c r="D141" s="83">
+      <c r="D138" s="83">
         <v>16200</v>
       </c>
-      <c r="E141" s="116">
-        <f>D141*C141</f>
+      <c r="E138" s="116">
+        <f>D138*C138</f>
         <v>16200</v>
       </c>
-      <c r="F141" s="90">
-        <f>F140*4</f>
+      <c r="F138" s="90">
+        <f>F137*4</f>
         <v>23182</v>
       </c>
-      <c r="G141" s="17">
-        <f>C141*F141</f>
+      <c r="G138" s="17">
+        <f>C138*F138</f>
         <v>23182</v>
       </c>
-      <c r="H141" s="420">
-        <f>SUM(G139:G141)</f>
+      <c r="H138" s="420">
+        <f>SUM(G136:G138)</f>
         <v>119260</v>
       </c>
-      <c r="I141" s="90">
+      <c r="I138" s="90">
         <f t="shared" si="5"/>
         <v>6982</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="13.5" thickBot="1">
+    <row r="139" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A139" s="100"/>
+      <c r="B139" s="90"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="90">
+        <f>SUM(E136:E138)</f>
+        <v>84300</v>
+      </c>
+      <c r="F139" s="90"/>
+      <c r="G139" s="90"/>
+      <c r="H139" s="117">
+        <f>(SUM(G136:G138))-(SUM(E136:E138))</f>
+        <v>34960</v>
+      </c>
+      <c r="I139" s="90"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="100"/>
+      <c r="B140" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" s="120">
+        <v>33.250599999999999</v>
+      </c>
+      <c r="D140" s="12"/>
+      <c r="E140" s="90"/>
+      <c r="F140" s="90"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="90"/>
+      <c r="I140" s="90"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="100"/>
+      <c r="B141" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" s="120">
+        <v>36.854999999999997</v>
+      </c>
+      <c r="D141" s="12"/>
+      <c r="E141" s="90"/>
+      <c r="F141" s="90"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="90"/>
+      <c r="I141" s="90"/>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="100"/>
-      <c r="B142" s="90"/>
+      <c r="B142" s="90" t="s">
+        <v>153</v>
+      </c>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
-      <c r="E142" s="90">
-        <f>SUM(E139:E141)</f>
-        <v>84300</v>
-      </c>
+      <c r="E142" s="90"/>
       <c r="F142" s="90"/>
-      <c r="G142" s="90"/>
-      <c r="H142" s="117">
-        <f>(SUM(G139:G141))-(SUM(E139:E141))</f>
-        <v>34960</v>
-      </c>
+      <c r="G142" s="17">
+        <v>0</v>
+      </c>
+      <c r="H142" s="90"/>
       <c r="I142" s="90"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" ht="13.5" thickBot="1">
       <c r="A143" s="100"/>
       <c r="B143" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="C143" s="120">
-        <v>33.250599999999999</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C143" s="12"/>
       <c r="D143" s="12"/>
       <c r="E143" s="90"/>
       <c r="F143" s="90"/>
-      <c r="G143" s="17"/>
+      <c r="G143" s="17">
+        <v>1000</v>
+      </c>
       <c r="H143" s="90"/>
       <c r="I143" s="90"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" ht="13.5" thickBot="1">
       <c r="A144" s="100"/>
-      <c r="B144" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="C144" s="120">
-        <v>36.854999999999997</v>
-      </c>
-      <c r="D144" s="12"/>
-      <c r="E144" s="90"/>
-      <c r="F144" s="90"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="90"/>
+      <c r="B144" s="90"/>
+      <c r="C144" s="90"/>
+      <c r="D144" s="90"/>
+      <c r="E144" s="121"/>
+      <c r="F144" s="122"/>
+      <c r="G144" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="H144" s="432">
+        <f>H139+H134+H127</f>
+        <v>56806.75092999998</v>
+      </c>
       <c r="I144" s="90"/>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="100"/>
-      <c r="B145" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
+      <c r="B145" s="90"/>
+      <c r="C145" s="124"/>
+      <c r="D145" s="92"/>
       <c r="E145" s="90"/>
       <c r="F145" s="90"/>
-      <c r="G145" s="17">
-        <v>0</v>
-      </c>
+      <c r="G145" s="124"/>
       <c r="H145" s="90"/>
       <c r="I145" s="90"/>
     </row>
-    <row r="146" spans="1:13" ht="13.5" thickBot="1">
+    <row r="146" spans="1:13">
       <c r="A146" s="100"/>
-      <c r="B146" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
+      <c r="B146" s="90"/>
+      <c r="C146" s="124"/>
+      <c r="D146" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="E146" s="90"/>
       <c r="F146" s="90"/>
-      <c r="G146" s="17">
-        <v>1000</v>
+      <c r="G146" s="9">
+        <f>SUM(G115:G143)</f>
+        <v>1097621.0538949999</v>
       </c>
       <c r="H146" s="90"/>
       <c r="I146" s="90"/>
     </row>
-    <row r="147" spans="1:13" ht="13.5" thickBot="1">
+    <row r="147" spans="1:13">
       <c r="A147" s="100"/>
       <c r="B147" s="90"/>
-      <c r="C147" s="90"/>
-      <c r="D147" s="90"/>
-      <c r="E147" s="121"/>
-      <c r="F147" s="122"/>
-      <c r="G147" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="H147" s="432">
-        <f>H142+H137+H130</f>
-        <v>56806.75092999998</v>
-      </c>
+      <c r="C147" s="126" t="str">
+        <f>A111</f>
+        <v>NİSAN 2025 e</v>
+      </c>
+      <c r="D147" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="E147" s="90"/>
+      <c r="F147" s="90"/>
+      <c r="G147" s="127"/>
+      <c r="H147" s="90"/>
       <c r="I147" s="90"/>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="100"/>
       <c r="B148" s="90"/>
-      <c r="C148" s="124"/>
-      <c r="D148" s="92"/>
+      <c r="C148" s="125"/>
+      <c r="D148" s="126"/>
       <c r="E148" s="90"/>
       <c r="F148" s="90"/>
-      <c r="G148" s="124"/>
+      <c r="G148" s="127"/>
       <c r="H148" s="90"/>
       <c r="I148" s="90"/>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="100"/>
       <c r="B149" s="90"/>
-      <c r="C149" s="124"/>
-      <c r="D149" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="C149" s="125"/>
+      <c r="D149" s="126"/>
       <c r="E149" s="90"/>
       <c r="F149" s="90"/>
-      <c r="G149" s="9">
-        <f>SUM(G118:G146)</f>
-        <v>1097621.0538949999</v>
-      </c>
+      <c r="G149" s="127"/>
       <c r="H149" s="90"/>
       <c r="I149" s="90"/>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="100"/>
       <c r="B150" s="90"/>
-      <c r="C150" s="126" t="str">
-        <f>A114</f>
-        <v>NİSAN 2025 e</v>
-      </c>
-      <c r="D150" s="126" t="s">
-        <v>157</v>
-      </c>
+      <c r="C150" s="125"/>
+      <c r="D150" s="126"/>
       <c r="E150" s="90"/>
       <c r="F150" s="90"/>
       <c r="G150" s="127"/>
@@ -12352,170 +12383,208 @@
       <c r="I150" s="90"/>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="100"/>
+      <c r="A151" s="90"/>
       <c r="B151" s="90"/>
-      <c r="C151" s="125"/>
-      <c r="D151" s="126"/>
+      <c r="C151" s="90"/>
+      <c r="D151" s="90"/>
       <c r="E151" s="90"/>
       <c r="F151" s="90"/>
-      <c r="G151" s="127"/>
+      <c r="G151" s="90"/>
       <c r="H151" s="90"/>
-      <c r="I151" s="90"/>
+      <c r="I151" s="90" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1684</v>
+      </c>
+      <c r="K151" s="78" t="s">
+        <v>1685</v>
+      </c>
+      <c r="L151" s="78" t="s">
+        <v>1686</v>
+      </c>
+      <c r="M151" s="78" t="s">
+        <v>1687</v>
+      </c>
     </row>
     <row r="152" spans="1:13">
-      <c r="A152" s="100"/>
-      <c r="B152" s="90"/>
-      <c r="C152" s="125"/>
-      <c r="D152" s="126"/>
-      <c r="E152" s="90"/>
-      <c r="F152" s="90"/>
-      <c r="G152" s="127"/>
+      <c r="A152" s="100">
+        <v>45680</v>
+      </c>
+      <c r="B152" s="82" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C152" s="114">
+        <v>120</v>
+      </c>
+      <c r="D152" s="115">
+        <v>305</v>
+      </c>
+      <c r="E152" s="116">
+        <f>D152*C152</f>
+        <v>36600</v>
+      </c>
+      <c r="F152" s="90">
+        <v>323.75</v>
+      </c>
+      <c r="G152" s="17">
+        <f>F152*C152</f>
+        <v>38850</v>
+      </c>
       <c r="H152" s="90"/>
-      <c r="I152" s="90"/>
+      <c r="I152" s="90">
+        <f>G152-E152</f>
+        <v>2250</v>
+      </c>
+      <c r="J152" s="446">
+        <f>(I152-I153)/E152</f>
+        <v>6.3704644808743174E-2</v>
+      </c>
+      <c r="K152" s="100">
+        <v>45721</v>
+      </c>
+      <c r="L152" s="78">
+        <f>K152-A152</f>
+        <v>41</v>
+      </c>
+      <c r="M152" s="446">
+        <f>J152/L152*30</f>
+        <v>4.6613154738104762E-2</v>
+      </c>
     </row>
     <row r="153" spans="1:13">
-      <c r="A153" s="100"/>
-      <c r="B153" s="90"/>
-      <c r="C153" s="125"/>
-      <c r="D153" s="126"/>
-      <c r="E153" s="90"/>
+      <c r="A153" s="100">
+        <v>45721</v>
+      </c>
+      <c r="B153" s="82" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C153" s="114"/>
+      <c r="D153" s="115"/>
+      <c r="E153" s="116"/>
       <c r="F153" s="90"/>
-      <c r="G153" s="127"/>
+      <c r="G153" s="17"/>
       <c r="H153" s="90"/>
-      <c r="I153" s="90"/>
+      <c r="I153" s="90">
+        <v>-81.59</v>
+      </c>
+      <c r="J153" s="78">
+        <f>I152-I153</f>
+        <v>2331.59</v>
+      </c>
+      <c r="K153" s="446" t="s">
+        <v>1688</v>
+      </c>
+      <c r="M153" s="446"/>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="90"/>
-      <c r="B154" s="90"/>
-      <c r="C154" s="90"/>
-      <c r="D154" s="90"/>
-      <c r="E154" s="90"/>
-      <c r="F154" s="90"/>
-      <c r="G154" s="90"/>
-      <c r="H154" s="90"/>
-      <c r="I154" s="90" t="s">
-        <v>1684</v>
-      </c>
-      <c r="J154" t="s">
-        <v>1684</v>
-      </c>
-      <c r="K154" s="78" t="s">
-        <v>1685</v>
-      </c>
-      <c r="L154" s="78" t="s">
-        <v>1686</v>
-      </c>
-      <c r="M154" s="78" t="s">
-        <v>1687</v>
-      </c>
+      <c r="A154" s="448">
+        <v>45680</v>
+      </c>
+      <c r="B154" s="449" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C154" s="450"/>
+      <c r="D154" s="451"/>
+      <c r="E154" s="452">
+        <v>299.37</v>
+      </c>
+      <c r="F154" s="418"/>
+      <c r="G154" s="453"/>
+      <c r="H154" s="418"/>
+      <c r="I154" s="418"/>
     </row>
     <row r="155" spans="1:13">
-      <c r="A155" s="100">
+      <c r="A155" s="448">
+        <v>45691</v>
+      </c>
+      <c r="B155" s="449" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C155" s="450"/>
+      <c r="D155" s="451">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E155" s="452">
+        <f>D155*C155</f>
+        <v>0</v>
+      </c>
+      <c r="F155" s="454">
+        <f>F161</f>
+        <v>907.06739800000003</v>
+      </c>
+      <c r="G155" s="453">
+        <f>F155*C155</f>
+        <v>0</v>
+      </c>
+      <c r="H155" s="418"/>
+      <c r="I155" s="418">
+        <f>G155-E155</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="448">
         <v>45680</v>
       </c>
-      <c r="B155" s="82" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C155" s="114">
-        <v>120</v>
-      </c>
-      <c r="D155" s="115">
-        <v>305</v>
-      </c>
-      <c r="E155" s="116">
-        <f>D155*C155</f>
-        <v>36600</v>
-      </c>
-      <c r="F155" s="90">
-        <v>323.75</v>
-      </c>
-      <c r="G155" s="17">
-        <f>F155*C155</f>
-        <v>38850</v>
-      </c>
-      <c r="H155" s="90"/>
-      <c r="I155" s="90">
-        <f>G155-E155</f>
-        <v>2250</v>
-      </c>
-      <c r="J155" s="449">
-        <f>(I155-I156)/E155</f>
-        <v>6.3704644808743174E-2</v>
-      </c>
-      <c r="K155" s="100">
-        <v>45721</v>
-      </c>
-      <c r="L155" s="78">
-        <f>K155-A155</f>
-        <v>41</v>
-      </c>
-      <c r="M155" s="449">
-        <f>J155/L155*30</f>
-        <v>4.6613154738104762E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13">
-      <c r="A156" s="100">
-        <v>45721</v>
-      </c>
-      <c r="B156" s="82" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C156" s="114"/>
-      <c r="D156" s="115"/>
-      <c r="E156" s="116"/>
-      <c r="F156" s="90"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="90"/>
-      <c r="I156" s="90">
-        <v>-81.59</v>
-      </c>
-      <c r="J156" s="78">
-        <f>I155-I156</f>
-        <v>2331.59</v>
-      </c>
-      <c r="K156" s="449" t="s">
-        <v>1688</v>
-      </c>
-      <c r="M156" s="449"/>
+      <c r="B156" s="449" t="s">
+        <v>142</v>
+      </c>
+      <c r="C156" s="450"/>
+      <c r="D156" s="451">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E156" s="452">
+        <f>D156*C156</f>
+        <v>0</v>
+      </c>
+      <c r="F156" s="418">
+        <v>899.26057400000002</v>
+      </c>
+      <c r="G156" s="453">
+        <f>F156*C156</f>
+        <v>0</v>
+      </c>
+      <c r="H156" s="418"/>
+      <c r="I156" s="418">
+        <f>E156-G156</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="451">
+      <c r="A157" s="448">
         <v>45680</v>
       </c>
-      <c r="B157" s="452" t="s">
+      <c r="B157" s="449" t="s">
         <v>1613</v>
       </c>
-      <c r="C157" s="453"/>
-      <c r="D157" s="454"/>
-      <c r="E157" s="455">
-        <v>299.37</v>
-      </c>
+      <c r="C157" s="450"/>
+      <c r="D157" s="451"/>
+      <c r="E157" s="452"/>
       <c r="F157" s="418"/>
-      <c r="G157" s="456"/>
+      <c r="G157" s="453"/>
       <c r="H157" s="418"/>
       <c r="I157" s="418"/>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="451">
-        <v>45691</v>
-      </c>
-      <c r="B158" s="452" t="s">
+      <c r="A158" s="448">
+        <v>45692</v>
+      </c>
+      <c r="B158" s="449" t="s">
         <v>1653</v>
       </c>
-      <c r="C158" s="453"/>
-      <c r="D158" s="454">
+      <c r="C158" s="450"/>
+      <c r="D158" s="451">
         <v>872.26366499999995</v>
       </c>
-      <c r="E158" s="455">
+      <c r="E158" s="452">
         <f>D158*C158</f>
         <v>0</v>
       </c>
-      <c r="F158" s="457">
-        <f>F164</f>
-        <v>907.06739800000003</v>
-      </c>
-      <c r="G158" s="456">
+      <c r="F158" s="454">
+        <v>900.29758900000002</v>
+      </c>
+      <c r="G158" s="453">
         <f>F158*C158</f>
         <v>0</v>
       </c>
@@ -12526,25 +12595,23 @@
       </c>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="451">
-        <v>45680</v>
-      </c>
-      <c r="B159" s="452" t="s">
-        <v>142</v>
-      </c>
-      <c r="C159" s="453"/>
-      <c r="D159" s="454">
+      <c r="A159" s="448">
+        <v>45692</v>
+      </c>
+      <c r="B159" s="449"/>
+      <c r="C159" s="450"/>
+      <c r="D159" s="451">
         <v>872.26366499999995</v>
       </c>
-      <c r="E159" s="455">
-        <f>D159*C159</f>
+      <c r="E159" s="452">
+        <f t="shared" ref="E159" si="6">D159*C159</f>
         <v>0</v>
       </c>
-      <c r="F159" s="418">
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G159" s="456">
-        <f>F159*C159</f>
+      <c r="F159" s="454">
+        <v>900.29758900000002</v>
+      </c>
+      <c r="G159" s="453">
+        <f t="shared" ref="G159" si="7">F159*C159</f>
         <v>0</v>
       </c>
       <c r="H159" s="418"/>
@@ -12554,39 +12621,39 @@
       </c>
     </row>
     <row r="160" spans="1:13">
-      <c r="A160" s="451">
+      <c r="A160" s="448">
         <v>45680</v>
       </c>
-      <c r="B160" s="452" t="s">
+      <c r="B160" s="449" t="s">
         <v>1613</v>
       </c>
-      <c r="C160" s="453"/>
-      <c r="D160" s="454"/>
-      <c r="E160" s="455"/>
+      <c r="C160" s="450"/>
+      <c r="D160" s="451"/>
+      <c r="E160" s="452"/>
       <c r="F160" s="418"/>
-      <c r="G160" s="456"/>
+      <c r="G160" s="453"/>
       <c r="H160" s="418"/>
       <c r="I160" s="418"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="451">
-        <v>45692</v>
-      </c>
-      <c r="B161" s="452" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C161" s="453"/>
-      <c r="D161" s="454">
+      <c r="A161" s="448">
+        <v>45699</v>
+      </c>
+      <c r="B161" s="449" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C161" s="450"/>
+      <c r="D161" s="451">
         <v>872.26366499999995</v>
       </c>
-      <c r="E161" s="455">
+      <c r="E161" s="452">
         <f>D161*C161</f>
         <v>0</v>
       </c>
-      <c r="F161" s="457">
-        <v>900.29758900000002</v>
-      </c>
-      <c r="G161" s="456">
+      <c r="F161" s="454">
+        <v>907.06739800000003</v>
+      </c>
+      <c r="G161" s="453">
         <f>F161*C161</f>
         <v>0</v>
       </c>
@@ -12597,23 +12664,23 @@
       </c>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="451">
+      <c r="A162" s="448">
         <v>45692</v>
       </c>
-      <c r="B162" s="452"/>
-      <c r="C162" s="453"/>
-      <c r="D162" s="454">
+      <c r="B162" s="449"/>
+      <c r="C162" s="450"/>
+      <c r="D162" s="451">
         <v>872.26366499999995</v>
       </c>
-      <c r="E162" s="455">
-        <f t="shared" ref="E162" si="6">D162*C162</f>
+      <c r="E162" s="452">
+        <f t="shared" ref="E162" si="8">D162*C162</f>
         <v>0</v>
       </c>
-      <c r="F162" s="457">
-        <v>900.29758900000002</v>
-      </c>
-      <c r="G162" s="456">
-        <f t="shared" ref="G162" si="7">F162*C162</f>
+      <c r="F162" s="454">
+        <v>907.06739800000003</v>
+      </c>
+      <c r="G162" s="453">
+        <f t="shared" ref="G162" si="9">F162*C162</f>
         <v>0</v>
       </c>
       <c r="H162" s="418"/>
@@ -12623,221 +12690,152 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="451">
-        <v>45680</v>
-      </c>
-      <c r="B163" s="452" t="s">
+      <c r="A163" s="448">
+        <v>45699</v>
+      </c>
+      <c r="B163" s="449" t="s">
         <v>1613</v>
       </c>
-      <c r="C163" s="453"/>
-      <c r="D163" s="454"/>
-      <c r="E163" s="455"/>
+      <c r="C163" s="450"/>
+      <c r="D163" s="451"/>
+      <c r="E163" s="452"/>
       <c r="F163" s="418"/>
-      <c r="G163" s="456"/>
+      <c r="G163" s="453"/>
       <c r="H163" s="418"/>
       <c r="I163" s="418"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="451">
-        <v>45699</v>
-      </c>
-      <c r="B164" s="452" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C164" s="453"/>
-      <c r="D164" s="454">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E164" s="455">
-        <f>D164*C164</f>
-        <v>0</v>
-      </c>
-      <c r="F164" s="457">
-        <v>907.06739800000003</v>
-      </c>
-      <c r="G164" s="456">
-        <f>F164*C164</f>
-        <v>0</v>
-      </c>
+      <c r="A164" s="448"/>
+      <c r="B164" s="449"/>
+      <c r="C164" s="450"/>
+      <c r="D164" s="451"/>
+      <c r="E164" s="452"/>
+      <c r="F164" s="418"/>
+      <c r="G164" s="453"/>
       <c r="H164" s="418"/>
-      <c r="I164" s="418">
-        <f>G164-E164</f>
-        <v>0</v>
-      </c>
+      <c r="I164" s="418"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="451">
-        <v>45692</v>
-      </c>
-      <c r="B165" s="452"/>
-      <c r="C165" s="453"/>
-      <c r="D165" s="454">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E165" s="455">
-        <f t="shared" ref="E165" si="8">D165*C165</f>
-        <v>0</v>
-      </c>
-      <c r="F165" s="457">
-        <v>907.06739800000003</v>
-      </c>
-      <c r="G165" s="456">
-        <f t="shared" ref="G165" si="9">F165*C165</f>
-        <v>0</v>
-      </c>
+      <c r="A165" s="448"/>
+      <c r="B165" s="449"/>
+      <c r="C165" s="450"/>
+      <c r="D165" s="451"/>
+      <c r="E165" s="452"/>
+      <c r="F165" s="418"/>
+      <c r="G165" s="453"/>
       <c r="H165" s="418"/>
-      <c r="I165" s="418">
-        <f>E165-G165</f>
-        <v>0</v>
-      </c>
+      <c r="I165" s="418"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="451">
-        <v>45699</v>
-      </c>
-      <c r="B166" s="452" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C166" s="453"/>
-      <c r="D166" s="454"/>
-      <c r="E166" s="455"/>
+      <c r="A166" s="431"/>
+      <c r="B166" s="431"/>
+      <c r="C166" s="431"/>
+      <c r="D166" s="418"/>
+      <c r="E166" s="418"/>
       <c r="F166" s="418"/>
-      <c r="G166" s="456"/>
+      <c r="G166" s="418"/>
       <c r="H166" s="418"/>
-      <c r="I166" s="418"/>
+      <c r="I166" s="431"/>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="451"/>
-      <c r="B167" s="452"/>
-      <c r="C167" s="453"/>
-      <c r="D167" s="454"/>
-      <c r="E167" s="455"/>
+      <c r="A167" s="431"/>
+      <c r="B167" s="431"/>
+      <c r="C167" s="431"/>
+      <c r="D167" s="418"/>
+      <c r="E167" s="418"/>
       <c r="F167" s="418"/>
-      <c r="G167" s="456"/>
+      <c r="G167" s="418"/>
       <c r="H167" s="418"/>
-      <c r="I167" s="418"/>
+      <c r="I167" s="455">
+        <f>SUM(I152:I166)</f>
+        <v>2168.41</v>
+      </c>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="451"/>
-      <c r="B168" s="452"/>
-      <c r="C168" s="453"/>
-      <c r="D168" s="454"/>
-      <c r="E168" s="455"/>
-      <c r="F168" s="418"/>
-      <c r="G168" s="456"/>
-      <c r="H168" s="418"/>
-      <c r="I168" s="418"/>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="431"/>
-      <c r="B169" s="431"/>
-      <c r="C169" s="431"/>
-      <c r="D169" s="418"/>
-      <c r="E169" s="418"/>
-      <c r="F169" s="418"/>
-      <c r="G169" s="418"/>
-      <c r="H169" s="418"/>
-      <c r="I169" s="431"/>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="A170" s="431"/>
-      <c r="B170" s="431"/>
-      <c r="C170" s="431"/>
-      <c r="D170" s="418"/>
-      <c r="E170" s="418"/>
-      <c r="F170" s="418"/>
-      <c r="G170" s="418"/>
-      <c r="H170" s="418"/>
-      <c r="I170" s="458">
-        <f>SUM(I155:I169)</f>
-        <v>2168.41</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="90"/>
-      <c r="E171" s="90"/>
-      <c r="F171" s="90"/>
-      <c r="G171" s="90"/>
-      <c r="H171" s="90"/>
-      <c r="I171" s="11"/>
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="90"/>
+      <c r="E168" s="90"/>
+      <c r="F168" s="90"/>
+      <c r="G168" s="90"/>
+      <c r="H168" s="90"/>
+      <c r="I168" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F139:F141 F163 F160 F157">
+  <conditionalFormatting sqref="F136:F138 F160 F157 F154">
     <cfRule type="cellIs" dxfId="37" priority="11" operator="lessThan">
-      <formula>D139</formula>
+      <formula>D136</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F134:F136">
+  <conditionalFormatting sqref="F131:F133">
     <cfRule type="cellIs" dxfId="36" priority="12" operator="lessThan">
-      <formula>D134</formula>
+      <formula>D131</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F129">
+  <conditionalFormatting sqref="F126">
     <cfRule type="cellIs" dxfId="35" priority="13" operator="lessThan">
-      <formula>D129</formula>
+      <formula>D126</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F128">
+  <conditionalFormatting sqref="F125">
     <cfRule type="cellIs" dxfId="34" priority="14" operator="lessThan">
-      <formula>D128</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F164 F125">
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="lessThan">
       <formula>D125</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F155:F156">
+  <conditionalFormatting sqref="F161 F122">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="lessThan">
+      <formula>D122</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F152:F153">
     <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
+      <formula>D152</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F164:F165">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="lessThan">
+      <formula>D164</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F155">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
       <formula>D155</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F167:F168">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="lessThan">
-      <formula>D167</formula>
+  <conditionalFormatting sqref="F156">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
+      <formula>D156</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
       <formula>D158</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
       <formula>D159</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F161">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
-      <formula>D161</formula>
+  <conditionalFormatting sqref="F121">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
+      <formula>D121</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F163">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
+      <formula>D163</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
       <formula>D162</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F124">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
-      <formula>D124</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F166">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
-      <formula>D166</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F165">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
-      <formula>D165</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F126:F127">
+  <conditionalFormatting sqref="F123:F124">
     <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
-      <formula>D126</formula>
+      <formula>D123</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
@@ -12856,8 +12854,8 @@
   </sheetPr>
   <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H143" sqref="H143"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -20819,10 +20817,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="462" t="s">
+      <c r="L1" s="456" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="462"/>
+      <c r="M1" s="456"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -21534,11 +21532,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="463">
+      <c r="L17" s="457">
         <f>L15+M15</f>
         <v>1080.7929879999999</v>
       </c>
-      <c r="M17" s="463"/>
+      <c r="M17" s="457"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
@@ -25655,10 +25653,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="462" t="s">
+      <c r="L1" s="456" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="462"/>
+      <c r="M1" s="456"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -25806,7 +25804,7 @@
       </c>
       <c r="B5" s="32">
         <f>'03_25'!D2</f>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="C5" s="32">
         <f>'03_25'!E2</f>
@@ -25814,7 +25812,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" si="0"/>
-        <v>247732.34999999995</v>
+        <v>262732.34999999998</v>
       </c>
       <c r="E5" s="32">
         <f>'03_25'!F2</f>
@@ -25839,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="8">
-        <f>'03_25'!E144/1000</f>
+        <f>'03_25'!E141/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -25857,7 +25855,7 @@
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
-        <v>95455.959999999934</v>
+        <v>110455.95999999996</v>
       </c>
       <c r="E6" s="32">
         <f>'04_25'!F2</f>
@@ -25900,7 +25898,7 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>64549.119999999937</v>
+        <v>79549.119999999966</v>
       </c>
       <c r="E7" s="32">
         <f>'05_25'!F2</f>
@@ -25943,7 +25941,7 @@
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
-        <v>26142.279999999941</v>
+        <v>41142.27999999997</v>
       </c>
       <c r="E8" s="32">
         <f>'06_25'!F2</f>
@@ -25989,7 +25987,7 @@
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
-        <v>-12264.560000000056</v>
+        <v>2735.4399999999732</v>
       </c>
       <c r="E9" s="32">
         <f>'07_25'!F2</f>
@@ -26038,7 +26036,7 @@
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
-        <v>-50671.400000000052</v>
+        <v>-35671.400000000023</v>
       </c>
       <c r="E10" s="32">
         <f>'08_25'!F2</f>
@@ -26084,7 +26082,7 @@
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
-        <v>-88088.46000000005</v>
+        <v>-73088.460000000021</v>
       </c>
       <c r="E11" s="32">
         <f>'09_25'!F2</f>
@@ -26133,7 +26131,7 @@
       </c>
       <c r="D12" s="33">
         <f t="shared" si="0"/>
-        <v>-125505.52000000005</v>
+        <v>-110505.52000000002</v>
       </c>
       <c r="E12" s="32">
         <f>'10_25'!F2</f>
@@ -26182,7 +26180,7 @@
       </c>
       <c r="D13" s="33">
         <f t="shared" si="0"/>
-        <v>-162922.58000000005</v>
+        <v>-147922.58000000002</v>
       </c>
       <c r="E13" s="32">
         <f>'11_25'!F2</f>
@@ -26231,7 +26229,7 @@
       </c>
       <c r="D14" s="33">
         <f t="shared" si="0"/>
-        <v>-200339.64000000004</v>
+        <v>-185339.64</v>
       </c>
       <c r="E14" s="32">
         <f>'12_25'!F2</f>
@@ -26272,7 +26270,7 @@
       </c>
       <c r="B15" s="33">
         <f>SUM(B3:B14)</f>
-        <v>593664</v>
+        <v>608664</v>
       </c>
       <c r="C15" s="33">
         <f>SUM(C3:C14)</f>
@@ -26280,7 +26278,7 @@
       </c>
       <c r="D15" s="33">
         <f>B15+C15</f>
-        <v>-200339.64000000013</v>
+        <v>-185339.64000000013</v>
       </c>
       <c r="E15" s="33">
         <f>SUM(E3:E14)</f>
@@ -26319,7 +26317,7 @@
       </c>
       <c r="B16" s="54">
         <f>B15/A16</f>
-        <v>49472</v>
+        <v>50722</v>
       </c>
       <c r="C16" s="55">
         <f>C15/A16</f>
@@ -26370,18 +26368,18 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="463">
+      <c r="L17" s="457">
         <f>L15+M15</f>
         <v>976.10596800000008</v>
       </c>
-      <c r="M17" s="463"/>
+      <c r="M17" s="457"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="2">
-        <f>'01_25'!F32+'02_25'!F14+'02_25'!F26+'03_25'!F22+'04_25'!F41+'05_25'!F22+'06_25'!F19+'06_25'!F31+'04_25'!F15</f>
+        <f>'01_25'!F32+'02_25'!F14+'02_25'!F26+'03_25'!F19+'04_25'!F41+'05_25'!F22+'06_25'!F19+'06_25'!F31+'04_25'!F15</f>
         <v>15000</v>
       </c>
       <c r="J18" s="35"/>

--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD82767-7643-4858-8A59-832A72589A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE36E53-A1C9-465E-BE1C-276B03CD3B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4567" uniqueCount="1691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4564" uniqueCount="1695">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -5457,6 +5457,18 @@
   </si>
   <si>
     <t>İş ytrm 1626748 THYAO             satış 120</t>
+  </si>
+  <si>
+    <t>iş ytrm 382789 801             nzn EMANET</t>
+  </si>
+  <si>
+    <t>ALİ DEMİREL (219000) VE SALİH ANT(290000) ÖDEMELERİ MAHKEMEDE İADE OLABİLECEĞİ İÇİN ÖDEME YAPILMADI</t>
+  </si>
+  <si>
+    <t>YATIRIM SATIŞI SONUCU</t>
+  </si>
+  <si>
+    <t>KAR</t>
   </si>
 </sst>
 </file>
@@ -6549,7 +6561,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="462">
+  <cellXfs count="463">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7150,18 +7162,19 @@
     <xf numFmtId="179" fontId="0" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="189" fontId="3" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="18" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -10092,10 +10105,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:N168"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -10182,7 +10195,7 @@
       <c r="A6" s="428">
         <v>45718</v>
       </c>
-      <c r="B6" s="458" t="s">
+      <c r="B6" s="455" t="s">
         <v>1683</v>
       </c>
       <c r="C6" s="393"/>
@@ -10290,14 +10303,14 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="459">
+      <c r="A11" s="456">
         <v>45723</v>
       </c>
-      <c r="B11" s="460" t="s">
+      <c r="B11" s="457" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="460"/>
-      <c r="D11" s="461">
+      <c r="C11" s="457"/>
+      <c r="D11" s="458">
         <v>15000</v>
       </c>
       <c r="E11" s="87"/>
@@ -11584,7 +11597,7 @@
       <c r="F111" s="90"/>
       <c r="G111" s="90">
         <f>SUM(G115:G143)</f>
-        <v>1097621.0538949999</v>
+        <v>887383.30463499995</v>
       </c>
       <c r="H111" s="90"/>
       <c r="I111" s="90"/>
@@ -11645,7 +11658,7 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="100">
-        <v>45721</v>
+        <v>45739</v>
       </c>
       <c r="B116" s="90" t="s">
         <v>139</v>
@@ -11672,7 +11685,7 @@
       <c r="E117" s="90"/>
       <c r="F117" s="90"/>
       <c r="G117" s="17">
-        <v>18000</v>
+        <v>24221</v>
       </c>
       <c r="H117" s="90"/>
       <c r="I117" s="90"/>
@@ -11689,7 +11702,7 @@
         <v>1689</v>
       </c>
       <c r="G118" s="17">
-        <v>38850</v>
+        <v>0</v>
       </c>
       <c r="H118" s="90"/>
       <c r="I118" s="90"/>
@@ -11710,7 +11723,7 @@
       <c r="E119" s="90"/>
       <c r="F119" s="90"/>
       <c r="G119" s="17">
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="H119" s="90"/>
       <c r="I119" s="90"/>
@@ -11724,7 +11737,9 @@
       <c r="F120" s="90"/>
       <c r="G120" s="17"/>
       <c r="H120" s="90"/>
-      <c r="I120" s="90"/>
+      <c r="I120" s="90" t="s">
+        <v>1694</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="100">
@@ -11744,16 +11759,16 @@
         <v>43613.183249999995</v>
       </c>
       <c r="F121" s="405">
-        <v>929.84559100000001</v>
+        <v>945.85618699999998</v>
       </c>
       <c r="G121" s="17">
         <f t="shared" ref="G121:G126" si="2">F121*C121</f>
-        <v>46492.279549999999</v>
+        <v>47292.809349999996</v>
       </c>
       <c r="H121" s="90"/>
       <c r="I121" s="90">
         <f t="shared" ref="I121:I126" si="3">G121-E121</f>
-        <v>2879.0963000000047</v>
+        <v>3679.6261000000013</v>
       </c>
       <c r="M121" s="447"/>
     </row>
@@ -11776,16 +11791,16 @@
       </c>
       <c r="F122" s="405">
         <f>F121</f>
-        <v>929.84559100000001</v>
+        <v>945.85618699999998</v>
       </c>
       <c r="G122" s="17">
         <f t="shared" si="2"/>
-        <v>51141.507505000001</v>
+        <v>52022.090284999998</v>
       </c>
       <c r="H122" s="90"/>
       <c r="I122" s="90">
         <f t="shared" si="3"/>
-        <v>2870.5323900000003</v>
+        <v>3751.1151699999973</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -11859,16 +11874,16 @@
         <v>130199.99999999999</v>
       </c>
       <c r="F125" s="90">
-        <v>36.369999999999997</v>
+        <v>41.56</v>
       </c>
       <c r="G125" s="17">
         <f t="shared" si="2"/>
-        <v>145480</v>
+        <v>166240</v>
       </c>
       <c r="H125" s="90"/>
       <c r="I125" s="90">
         <f t="shared" si="3"/>
-        <v>15280.000000000015</v>
+        <v>36040.000000000015</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="13.5" thickBot="1">
@@ -11890,19 +11905,19 @@
       </c>
       <c r="F126" s="90">
         <f>F125</f>
-        <v>36.369999999999997</v>
+        <v>41.56</v>
       </c>
       <c r="G126" s="17">
         <f t="shared" si="2"/>
-        <v>145480</v>
+        <v>166240</v>
       </c>
       <c r="H126" s="420">
         <f>SUM(G121:G126)</f>
-        <v>388593.78705499996</v>
+        <v>431794.89963499998</v>
       </c>
       <c r="I126" s="90">
         <f t="shared" si="3"/>
-        <v>22040</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="13.5" thickBot="1">
@@ -11918,11 +11933,11 @@
       <c r="G127" s="17"/>
       <c r="H127" s="117">
         <f>(SUM(G121:G126))-(SUM(E121:E126))</f>
-        <v>43069.628689999983</v>
+        <v>86270.741269999999</v>
       </c>
       <c r="I127" s="117">
         <f>SUM(I121:I126)</f>
-        <v>42988.038690000016</v>
+        <v>86189.151270000017</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -11954,47 +11969,16 @@
         <v>129992.87500000001</v>
       </c>
       <c r="F129" s="119">
-        <v>0.76836099999999996</v>
+        <v>0.86241299999999999</v>
       </c>
       <c r="G129" s="17">
         <f>F129*C129</f>
-        <v>96045.125</v>
+        <v>107801.625</v>
       </c>
       <c r="H129" s="90"/>
       <c r="I129" s="90">
         <f t="shared" ref="I129:I133" si="4">G129-E129</f>
-        <v>-33947.750000000015</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="100">
-        <v>45667</v>
-      </c>
-      <c r="B130" s="82" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C130" s="118">
-        <v>240</v>
-      </c>
-      <c r="D130" s="83">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E130" s="116">
-        <f>D130*C130</f>
-        <v>209343.27959999998</v>
-      </c>
-      <c r="F130" s="404">
-        <f>F122</f>
-        <v>929.84559100000001</v>
-      </c>
-      <c r="G130" s="17">
-        <f>F130*C130</f>
-        <v>223162.94184000001</v>
-      </c>
-      <c r="H130" s="90"/>
-      <c r="I130" s="90">
-        <f t="shared" si="4"/>
-        <v>13819.662240000034</v>
+        <v>-22191.250000000015</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -12015,16 +11999,16 @@
         <v>1350</v>
       </c>
       <c r="F131" s="90">
-        <v>112.6</v>
+        <v>97.65</v>
       </c>
       <c r="G131" s="17">
         <f>F131*C131</f>
-        <v>1126</v>
+        <v>976.5</v>
       </c>
       <c r="H131" s="90"/>
       <c r="I131" s="90">
         <f t="shared" si="4"/>
-        <v>-224</v>
+        <v>-373.5</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -12045,16 +12029,16 @@
         <v>1159</v>
       </c>
       <c r="F132" s="90">
-        <v>16.899999999999999</v>
+        <v>14.62</v>
       </c>
       <c r="G132" s="17">
         <f>F132*C132</f>
-        <v>642.19999999999993</v>
+        <v>555.55999999999995</v>
       </c>
       <c r="H132" s="90"/>
       <c r="I132" s="90">
         <f t="shared" si="4"/>
-        <v>-516.80000000000007</v>
+        <v>-603.44000000000005</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="13.5" thickBot="1">
@@ -12075,19 +12059,19 @@
         <v>964.99</v>
       </c>
       <c r="F133" s="90">
-        <v>23.5</v>
+        <v>23.22</v>
       </c>
       <c r="G133" s="17">
         <f>F133*C133</f>
-        <v>611</v>
+        <v>603.72</v>
       </c>
       <c r="H133" s="420">
         <f>SUM(G129:G133)</f>
-        <v>321587.26684</v>
+        <v>109937.405</v>
       </c>
       <c r="I133" s="90">
         <f t="shared" si="4"/>
-        <v>-353.99</v>
+        <v>-361.27</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="13.5" thickBot="1">
@@ -12097,13 +12081,13 @@
       <c r="D134" s="12"/>
       <c r="E134" s="90">
         <f>SUM(E129:E133)</f>
-        <v>342810.1446</v>
+        <v>133466.86499999999</v>
       </c>
       <c r="F134" s="90"/>
       <c r="G134" s="90"/>
       <c r="H134" s="117">
         <f>(SUM(G129:G133))-(SUM(E129:E133))</f>
-        <v>-21222.877760000003</v>
+        <v>-23529.459999999992</v>
       </c>
       <c r="I134" s="90"/>
     </row>
@@ -12136,16 +12120,16 @@
         <v>2500</v>
       </c>
       <c r="F136" s="90">
-        <v>3350</v>
+        <v>3500</v>
       </c>
       <c r="G136" s="17">
         <f>C136*F136</f>
-        <v>3350</v>
+        <v>3500</v>
       </c>
       <c r="H136" s="90"/>
       <c r="I136" s="90">
         <f t="shared" ref="I136:I138" si="5">G136-E136</f>
-        <v>850</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -12167,16 +12151,16 @@
       </c>
       <c r="F137" s="90">
         <f>F136*1.73</f>
-        <v>5795.5</v>
+        <v>6055</v>
       </c>
       <c r="G137" s="17">
         <f>C137*F137</f>
-        <v>92728</v>
+        <v>96880</v>
       </c>
       <c r="H137" s="90"/>
       <c r="I137" s="90">
         <f t="shared" si="5"/>
-        <v>27128</v>
+        <v>31280</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="13.5" thickBot="1">
@@ -12198,19 +12182,19 @@
       </c>
       <c r="F138" s="90">
         <f>F137*4</f>
-        <v>23182</v>
+        <v>24220</v>
       </c>
       <c r="G138" s="17">
         <f>C138*F138</f>
-        <v>23182</v>
+        <v>24220</v>
       </c>
       <c r="H138" s="420">
         <f>SUM(G136:G138)</f>
-        <v>119260</v>
+        <v>124600</v>
       </c>
       <c r="I138" s="90">
         <f t="shared" si="5"/>
-        <v>6982</v>
+        <v>8020</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="13.5" thickBot="1">
@@ -12226,7 +12210,7 @@
       <c r="G139" s="90"/>
       <c r="H139" s="117">
         <f>(SUM(G136:G138))-(SUM(E136:E138))</f>
-        <v>34960</v>
+        <v>40300</v>
       </c>
       <c r="I139" s="90"/>
     </row>
@@ -12302,11 +12286,11 @@
       </c>
       <c r="H144" s="432">
         <f>H139+H134+H127</f>
-        <v>56806.75092999998</v>
+        <v>103041.28127000001</v>
       </c>
       <c r="I144" s="90"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:14">
       <c r="A145" s="100"/>
       <c r="B145" s="90"/>
       <c r="C145" s="124"/>
@@ -12317,7 +12301,7 @@
       <c r="H145" s="90"/>
       <c r="I145" s="90"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:14">
       <c r="A146" s="100"/>
       <c r="B146" s="90"/>
       <c r="C146" s="124"/>
@@ -12328,12 +12312,12 @@
       <c r="F146" s="90"/>
       <c r="G146" s="9">
         <f>SUM(G115:G143)</f>
-        <v>1097621.0538949999</v>
+        <v>887383.30463499995</v>
       </c>
       <c r="H146" s="90"/>
       <c r="I146" s="90"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:14">
       <c r="A147" s="100"/>
       <c r="B147" s="90"/>
       <c r="C147" s="126" t="str">
@@ -12349,421 +12333,372 @@
       <c r="H147" s="90"/>
       <c r="I147" s="90"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:14">
       <c r="A148" s="100"/>
-      <c r="B148" s="90"/>
-      <c r="C148" s="125"/>
-      <c r="D148" s="126"/>
-      <c r="E148" s="90"/>
-      <c r="F148" s="90"/>
-      <c r="G148" s="127"/>
-      <c r="H148" s="90"/>
+      <c r="B148" s="406"/>
+      <c r="C148" s="441"/>
+      <c r="D148" s="442"/>
+      <c r="E148" s="406"/>
+      <c r="F148" s="406"/>
+      <c r="G148" s="410"/>
+      <c r="H148" s="406"/>
       <c r="I148" s="90"/>
     </row>
-    <row r="149" spans="1:13">
-      <c r="A149" s="100"/>
-      <c r="B149" s="90"/>
-      <c r="C149" s="125"/>
-      <c r="D149" s="126"/>
-      <c r="E149" s="90"/>
-      <c r="F149" s="90"/>
-      <c r="G149" s="127"/>
+    <row r="149" spans="1:14">
+      <c r="A149" s="100">
+        <v>45667</v>
+      </c>
+      <c r="B149" s="82" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C149" s="118">
+        <v>240</v>
+      </c>
+      <c r="D149" s="83">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E149" s="116">
+        <f>D149*C149</f>
+        <v>209343.27959999998</v>
+      </c>
+      <c r="F149" s="404">
+        <f>F122</f>
+        <v>945.85618699999998</v>
+      </c>
+      <c r="G149" s="17">
+        <f>F149*C149</f>
+        <v>227005.48488</v>
+      </c>
       <c r="H149" s="90"/>
-      <c r="I149" s="90"/>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="I149" s="90">
+        <f>G149-E149</f>
+        <v>17662.205280000024</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" s="100"/>
-      <c r="B150" s="90"/>
-      <c r="C150" s="125"/>
-      <c r="D150" s="126"/>
-      <c r="E150" s="90"/>
-      <c r="F150" s="90"/>
-      <c r="G150" s="127"/>
+      <c r="B150" s="90" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C150" s="441"/>
+      <c r="D150" s="442"/>
+      <c r="E150" s="406"/>
+      <c r="F150" s="406"/>
+      <c r="G150" s="410"/>
       <c r="H150" s="90"/>
       <c r="I150" s="90"/>
     </row>
-    <row r="151" spans="1:13">
-      <c r="A151" s="90"/>
+    <row r="151" spans="1:14" s="11" customFormat="1">
+      <c r="A151" s="100"/>
       <c r="B151" s="90"/>
-      <c r="C151" s="90"/>
-      <c r="D151" s="90"/>
-      <c r="E151" s="90"/>
-      <c r="F151" s="90"/>
-      <c r="G151" s="90"/>
+      <c r="C151" s="441"/>
+      <c r="D151" s="442"/>
+      <c r="E151" s="406"/>
+      <c r="F151" s="406"/>
+      <c r="G151" s="410"/>
       <c r="H151" s="90"/>
-      <c r="I151" s="90" t="s">
+      <c r="I151" s="90"/>
+      <c r="K151" s="78"/>
+      <c r="L151" s="78"/>
+      <c r="M151" s="78"/>
+      <c r="N151" s="78"/>
+    </row>
+    <row r="152" spans="1:14" s="11" customFormat="1">
+      <c r="A152" s="100"/>
+      <c r="B152" s="90"/>
+      <c r="C152" s="441"/>
+      <c r="D152" s="442"/>
+      <c r="E152" s="406"/>
+      <c r="F152" s="406"/>
+      <c r="G152" s="410"/>
+      <c r="H152" s="90"/>
+      <c r="I152" s="90"/>
+      <c r="K152" s="78"/>
+      <c r="L152" s="78"/>
+      <c r="M152" s="78"/>
+      <c r="N152" s="78"/>
+    </row>
+    <row r="153" spans="1:14" s="11" customFormat="1">
+      <c r="A153" s="100"/>
+      <c r="C153" s="441"/>
+      <c r="D153" s="442"/>
+      <c r="E153" s="406"/>
+      <c r="F153" s="406"/>
+      <c r="G153" s="410"/>
+      <c r="H153" s="90"/>
+      <c r="I153" s="90"/>
+      <c r="K153" s="78"/>
+      <c r="L153" s="78"/>
+      <c r="M153" s="78"/>
+      <c r="N153" s="78"/>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="90"/>
+      <c r="B154" s="90" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C154" s="90"/>
+      <c r="D154" s="90"/>
+      <c r="E154" s="90"/>
+      <c r="F154" s="90"/>
+      <c r="G154" s="90"/>
+      <c r="H154" s="90"/>
+      <c r="I154" s="90" t="s">
         <v>1684</v>
       </c>
-      <c r="J151" t="s">
+      <c r="J154" t="s">
         <v>1684</v>
       </c>
-      <c r="K151" s="78" t="s">
+      <c r="K154" s="78" t="s">
         <v>1685</v>
       </c>
-      <c r="L151" s="78" t="s">
+      <c r="L154" s="78" t="s">
         <v>1686</v>
       </c>
-      <c r="M151" s="78" t="s">
+      <c r="M154" s="78" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
-      <c r="A152" s="100">
+    <row r="155" spans="1:14">
+      <c r="A155" s="100">
         <v>45680</v>
       </c>
-      <c r="B152" s="82" t="s">
+      <c r="B155" s="82" t="s">
         <v>1690</v>
       </c>
-      <c r="C152" s="114">
+      <c r="C155" s="114">
         <v>120</v>
       </c>
-      <c r="D152" s="115">
+      <c r="D155" s="115">
         <v>305</v>
       </c>
-      <c r="E152" s="116">
-        <f>D152*C152</f>
+      <c r="E155" s="116">
+        <f>D155*C155</f>
         <v>36600</v>
       </c>
-      <c r="F152" s="90">
+      <c r="F155" s="90">
         <v>323.75</v>
       </c>
-      <c r="G152" s="17">
-        <f>F152*C152</f>
+      <c r="G155" s="17">
+        <f>F155*C155</f>
         <v>38850</v>
       </c>
-      <c r="H152" s="90"/>
-      <c r="I152" s="90">
-        <f>G152-E152</f>
+      <c r="H155" s="90"/>
+      <c r="I155" s="90">
+        <f>G155-E155</f>
         <v>2250</v>
       </c>
-      <c r="J152" s="446">
-        <f>(I152-I153)/E152</f>
+      <c r="J155" s="446">
+        <f>(I155-I156)/E155</f>
         <v>6.3704644808743174E-2</v>
       </c>
-      <c r="K152" s="100">
+      <c r="K155" s="100">
         <v>45721</v>
       </c>
-      <c r="L152" s="78">
-        <f>K152-A152</f>
+      <c r="L155" s="78">
+        <f>K155-A155</f>
         <v>41</v>
       </c>
-      <c r="M152" s="446">
-        <f>J152/L152*30</f>
+      <c r="M155" s="446">
+        <f>J155/L155*30</f>
         <v>4.6613154738104762E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="100">
+    <row r="156" spans="1:14">
+      <c r="A156" s="100">
         <v>45721</v>
       </c>
-      <c r="B153" s="82" t="s">
+      <c r="B156" s="82" t="s">
         <v>1610</v>
       </c>
-      <c r="C153" s="114"/>
-      <c r="D153" s="115"/>
-      <c r="E153" s="116"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="17"/>
-      <c r="H153" s="90"/>
-      <c r="I153" s="90">
+      <c r="C156" s="114"/>
+      <c r="D156" s="115"/>
+      <c r="E156" s="116"/>
+      <c r="F156" s="90"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="90"/>
+      <c r="I156" s="90">
         <v>-81.59</v>
       </c>
-      <c r="J153" s="78">
-        <f>I152-I153</f>
+      <c r="J156" s="78">
+        <f>I155-I156</f>
         <v>2331.59</v>
       </c>
-      <c r="K153" s="446" t="s">
+      <c r="K156" s="446" t="s">
         <v>1688</v>
       </c>
-      <c r="M153" s="446"/>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154" s="448">
-        <v>45680</v>
-      </c>
-      <c r="B154" s="449" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C154" s="450"/>
-      <c r="D154" s="451"/>
-      <c r="E154" s="452">
-        <v>299.37</v>
-      </c>
-      <c r="F154" s="418"/>
-      <c r="G154" s="453"/>
-      <c r="H154" s="418"/>
-      <c r="I154" s="418"/>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155" s="448">
-        <v>45691</v>
-      </c>
-      <c r="B155" s="449" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C155" s="450"/>
-      <c r="D155" s="451">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E155" s="452">
-        <f>D155*C155</f>
-        <v>0</v>
-      </c>
-      <c r="F155" s="454">
-        <f>F161</f>
-        <v>907.06739800000003</v>
-      </c>
-      <c r="G155" s="453">
-        <f>F155*C155</f>
-        <v>0</v>
-      </c>
-      <c r="H155" s="418"/>
-      <c r="I155" s="418">
-        <f>G155-E155</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13">
-      <c r="A156" s="448">
-        <v>45680</v>
-      </c>
-      <c r="B156" s="449" t="s">
-        <v>142</v>
-      </c>
-      <c r="C156" s="450"/>
-      <c r="D156" s="451">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E156" s="452">
-        <f>D156*C156</f>
-        <v>0</v>
-      </c>
-      <c r="F156" s="418">
-        <v>899.26057400000002</v>
-      </c>
-      <c r="G156" s="453">
-        <f>F156*C156</f>
-        <v>0</v>
-      </c>
-      <c r="H156" s="418"/>
-      <c r="I156" s="418">
-        <f>E156-G156</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="448">
-        <v>45680</v>
-      </c>
-      <c r="B157" s="449" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C157" s="450"/>
-      <c r="D157" s="451"/>
-      <c r="E157" s="452"/>
-      <c r="F157" s="418"/>
-      <c r="G157" s="453"/>
-      <c r="H157" s="418"/>
-      <c r="I157" s="418"/>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="448">
-        <v>45692</v>
-      </c>
-      <c r="B158" s="449" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C158" s="450"/>
-      <c r="D158" s="451">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E158" s="452">
-        <f>D158*C158</f>
-        <v>0</v>
-      </c>
-      <c r="F158" s="454">
-        <v>900.29758900000002</v>
-      </c>
-      <c r="G158" s="453">
-        <f>F158*C158</f>
-        <v>0</v>
-      </c>
-      <c r="H158" s="418"/>
-      <c r="I158" s="418">
-        <f>G158-E158</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
-      <c r="A159" s="448">
-        <v>45692</v>
-      </c>
-      <c r="B159" s="449"/>
-      <c r="C159" s="450"/>
-      <c r="D159" s="451">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E159" s="452">
-        <f t="shared" ref="E159" si="6">D159*C159</f>
-        <v>0</v>
-      </c>
-      <c r="F159" s="454">
-        <v>900.29758900000002</v>
-      </c>
-      <c r="G159" s="453">
-        <f t="shared" ref="G159" si="7">F159*C159</f>
-        <v>0</v>
-      </c>
-      <c r="H159" s="418"/>
-      <c r="I159" s="418">
-        <f>E159-G159</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="448">
-        <v>45680</v>
-      </c>
-      <c r="B160" s="449" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C160" s="450"/>
-      <c r="D160" s="451"/>
-      <c r="E160" s="452"/>
-      <c r="F160" s="418"/>
-      <c r="G160" s="453"/>
-      <c r="H160" s="418"/>
-      <c r="I160" s="418"/>
+      <c r="M156" s="446"/>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" s="407"/>
+      <c r="B157" s="408"/>
+      <c r="C157" s="459"/>
+      <c r="D157" s="460"/>
+      <c r="E157" s="410"/>
+      <c r="F157" s="406"/>
+      <c r="G157" s="410"/>
+      <c r="H157" s="406"/>
+      <c r="I157" s="406"/>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" s="407"/>
+      <c r="B158" s="408"/>
+      <c r="C158" s="459"/>
+      <c r="D158" s="460"/>
+      <c r="E158" s="410"/>
+      <c r="F158" s="440"/>
+      <c r="G158" s="410"/>
+      <c r="H158" s="406"/>
+      <c r="I158" s="406"/>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="407"/>
+      <c r="B159" s="408"/>
+      <c r="C159" s="459"/>
+      <c r="D159" s="460"/>
+      <c r="E159" s="410"/>
+      <c r="F159" s="406"/>
+      <c r="G159" s="410"/>
+      <c r="H159" s="406"/>
+      <c r="I159" s="406"/>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="407"/>
+      <c r="B160" s="408"/>
+      <c r="C160" s="459"/>
+      <c r="D160" s="460"/>
+      <c r="E160" s="410"/>
+      <c r="F160" s="406"/>
+      <c r="G160" s="410"/>
+      <c r="H160" s="406"/>
+      <c r="I160" s="406"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="448">
-        <v>45699</v>
-      </c>
-      <c r="B161" s="449" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C161" s="450"/>
-      <c r="D161" s="451">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E161" s="452">
-        <f>D161*C161</f>
-        <v>0</v>
-      </c>
-      <c r="F161" s="454">
-        <v>907.06739800000003</v>
-      </c>
-      <c r="G161" s="453">
-        <f>F161*C161</f>
-        <v>0</v>
-      </c>
-      <c r="H161" s="418"/>
-      <c r="I161" s="418">
-        <f>G161-E161</f>
-        <v>0</v>
-      </c>
+      <c r="A161" s="407"/>
+      <c r="B161" s="408"/>
+      <c r="C161" s="459"/>
+      <c r="D161" s="460"/>
+      <c r="E161" s="410"/>
+      <c r="F161" s="440"/>
+      <c r="G161" s="410"/>
+      <c r="H161" s="406"/>
+      <c r="I161" s="406"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="448">
-        <v>45692</v>
-      </c>
-      <c r="B162" s="449"/>
-      <c r="C162" s="450"/>
-      <c r="D162" s="451">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E162" s="452">
-        <f t="shared" ref="E162" si="8">D162*C162</f>
-        <v>0</v>
-      </c>
-      <c r="F162" s="454">
-        <v>907.06739800000003</v>
-      </c>
-      <c r="G162" s="453">
-        <f t="shared" ref="G162" si="9">F162*C162</f>
-        <v>0</v>
-      </c>
-      <c r="H162" s="418"/>
-      <c r="I162" s="418">
-        <f>E162-G162</f>
-        <v>0</v>
-      </c>
+      <c r="A162" s="407"/>
+      <c r="B162" s="408"/>
+      <c r="C162" s="459"/>
+      <c r="D162" s="460"/>
+      <c r="E162" s="410"/>
+      <c r="F162" s="440"/>
+      <c r="G162" s="410"/>
+      <c r="H162" s="406"/>
+      <c r="I162" s="406"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="448">
-        <v>45699</v>
-      </c>
-      <c r="B163" s="449" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C163" s="450"/>
-      <c r="D163" s="451"/>
-      <c r="E163" s="452"/>
-      <c r="F163" s="418"/>
-      <c r="G163" s="453"/>
-      <c r="H163" s="418"/>
-      <c r="I163" s="418"/>
+      <c r="A163" s="407"/>
+      <c r="B163" s="408"/>
+      <c r="C163" s="459"/>
+      <c r="D163" s="460"/>
+      <c r="E163" s="410"/>
+      <c r="F163" s="406"/>
+      <c r="G163" s="410"/>
+      <c r="H163" s="406"/>
+      <c r="I163" s="406"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="448"/>
-      <c r="B164" s="449"/>
-      <c r="C164" s="450"/>
-      <c r="D164" s="451"/>
-      <c r="E164" s="452"/>
-      <c r="F164" s="418"/>
-      <c r="G164" s="453"/>
-      <c r="H164" s="418"/>
-      <c r="I164" s="418"/>
+      <c r="A164" s="407"/>
+      <c r="B164" s="408"/>
+      <c r="C164" s="459"/>
+      <c r="D164" s="460"/>
+      <c r="E164" s="410"/>
+      <c r="F164" s="440"/>
+      <c r="G164" s="410"/>
+      <c r="H164" s="406"/>
+      <c r="I164" s="406"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="448"/>
-      <c r="B165" s="449"/>
-      <c r="C165" s="450"/>
-      <c r="D165" s="451"/>
-      <c r="E165" s="452"/>
-      <c r="F165" s="418"/>
-      <c r="G165" s="453"/>
-      <c r="H165" s="418"/>
-      <c r="I165" s="418"/>
+      <c r="A165" s="407"/>
+      <c r="B165" s="408"/>
+      <c r="C165" s="459"/>
+      <c r="D165" s="460"/>
+      <c r="E165" s="410"/>
+      <c r="F165" s="440"/>
+      <c r="G165" s="410"/>
+      <c r="H165" s="406"/>
+      <c r="I165" s="406"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="431"/>
-      <c r="B166" s="431"/>
-      <c r="C166" s="431"/>
-      <c r="D166" s="418"/>
-      <c r="E166" s="418"/>
-      <c r="F166" s="418"/>
-      <c r="G166" s="418"/>
-      <c r="H166" s="418"/>
-      <c r="I166" s="431"/>
+      <c r="A166" s="407"/>
+      <c r="B166" s="408"/>
+      <c r="C166" s="459"/>
+      <c r="D166" s="460"/>
+      <c r="E166" s="410"/>
+      <c r="F166" s="406"/>
+      <c r="G166" s="410"/>
+      <c r="H166" s="406"/>
+      <c r="I166" s="406"/>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="431"/>
-      <c r="B167" s="431"/>
-      <c r="C167" s="431"/>
-      <c r="D167" s="418"/>
-      <c r="E167" s="418"/>
-      <c r="F167" s="418"/>
-      <c r="G167" s="418"/>
-      <c r="H167" s="418"/>
-      <c r="I167" s="455">
-        <f>SUM(I152:I166)</f>
+      <c r="A167" s="407"/>
+      <c r="B167" s="408"/>
+      <c r="C167" s="459"/>
+      <c r="D167" s="460"/>
+      <c r="E167" s="410"/>
+      <c r="F167" s="406"/>
+      <c r="G167" s="410"/>
+      <c r="H167" s="406"/>
+      <c r="I167" s="406"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="407"/>
+      <c r="B168" s="408"/>
+      <c r="C168" s="459"/>
+      <c r="D168" s="460"/>
+      <c r="E168" s="410"/>
+      <c r="F168" s="406"/>
+      <c r="G168" s="410"/>
+      <c r="H168" s="406"/>
+      <c r="I168" s="406"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="408"/>
+      <c r="B169" s="408"/>
+      <c r="C169" s="408"/>
+      <c r="D169" s="406"/>
+      <c r="E169" s="406"/>
+      <c r="F169" s="406"/>
+      <c r="G169" s="406"/>
+      <c r="H169" s="406"/>
+      <c r="I169" s="408"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="431"/>
+      <c r="B170" s="431"/>
+      <c r="C170" s="431"/>
+      <c r="D170" s="418"/>
+      <c r="E170" s="418"/>
+      <c r="F170" s="418"/>
+      <c r="G170" s="418"/>
+      <c r="H170" s="418"/>
+      <c r="I170" s="454">
+        <f>SUM(I155:I169)</f>
         <v>2168.41</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="90"/>
-      <c r="E168" s="90"/>
-      <c r="F168" s="90"/>
-      <c r="G168" s="90"/>
-      <c r="H168" s="90"/>
-      <c r="I168" s="11"/>
+    <row r="171" spans="1:9">
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="90"/>
+      <c r="E171" s="90"/>
+      <c r="F171" s="90"/>
+      <c r="G171" s="90"/>
+      <c r="H171" s="90"/>
+      <c r="I171" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F136:F138 F160 F157 F154">
+  <conditionalFormatting sqref="F136:F138 F163 F160 F157">
     <cfRule type="cellIs" dxfId="37" priority="11" operator="lessThan">
       <formula>D136</formula>
     </cfRule>
@@ -12783,39 +12718,39 @@
       <formula>D125</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F161 F122">
+  <conditionalFormatting sqref="F164 F122">
     <cfRule type="cellIs" dxfId="33" priority="15" operator="lessThan">
       <formula>D122</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F152:F153">
+  <conditionalFormatting sqref="F155:F156">
     <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
-      <formula>D152</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F164:F165">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="lessThan">
-      <formula>D164</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F155">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
       <formula>D155</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F156">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
-      <formula>D156</formula>
+  <conditionalFormatting sqref="F167:F168">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="lessThan">
+      <formula>D167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
       <formula>D158</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
+      <formula>D159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F161">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
+      <formula>D161</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F162">
     <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
-      <formula>D159</formula>
+      <formula>D162</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F121">
@@ -12823,14 +12758,14 @@
       <formula>D121</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F163">
+  <conditionalFormatting sqref="F166">
     <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
-      <formula>D163</formula>
+      <formula>D166</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F162">
+  <conditionalFormatting sqref="F165">
     <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
-      <formula>D162</formula>
+      <formula>D165</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123:F124">
@@ -12854,8 +12789,8 @@
   </sheetPr>
   <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:D28"/>
+    <sheetView topLeftCell="A133" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -15071,7 +15006,9 @@
     </row>
     <row r="149" spans="1:14" s="11" customFormat="1">
       <c r="A149" s="100"/>
-      <c r="B149" s="90"/>
+      <c r="B149" s="90" t="s">
+        <v>1692</v>
+      </c>
       <c r="C149" s="441"/>
       <c r="D149" s="442"/>
       <c r="E149" s="406"/>
@@ -15556,10 +15493,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:N188"/>
+  <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView topLeftCell="A129" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -17880,7 +17817,9 @@
     </row>
     <row r="146" spans="1:14" s="90" customFormat="1">
       <c r="A146" s="100"/>
-      <c r="B146" s="408"/>
+      <c r="B146" s="90" t="s">
+        <v>1692</v>
+      </c>
       <c r="C146" s="409"/>
       <c r="D146" s="406"/>
       <c r="E146" s="410"/>
@@ -17892,121 +17831,118 @@
       <c r="N146" s="78"/>
     </row>
     <row r="147" spans="1:14" s="90" customFormat="1">
-      <c r="A147" s="397">
-        <v>45680</v>
-      </c>
-      <c r="B147" s="398" t="s">
-        <v>142</v>
-      </c>
-      <c r="C147" s="399">
-        <v>-15</v>
-      </c>
-      <c r="D147" s="400">
-        <v>752.55561799999998</v>
-      </c>
-      <c r="E147" s="401">
-        <f>D147*C147</f>
-        <v>-11288.334269999999</v>
-      </c>
-      <c r="F147" s="402">
-        <v>886.51320299999998</v>
-      </c>
-      <c r="G147" s="403">
-        <f>F147*C147</f>
-        <v>-13297.698044999999</v>
-      </c>
-      <c r="H147" s="402"/>
-      <c r="I147" s="402">
-        <f>E147-G147</f>
-        <v>2009.3637749999998</v>
-      </c>
+      <c r="A147" s="100"/>
+      <c r="C147" s="409"/>
+      <c r="D147" s="406"/>
+      <c r="E147" s="410"/>
+      <c r="F147" s="440"/>
+      <c r="G147" s="17"/>
       <c r="K147" s="78"/>
       <c r="L147" s="78"/>
       <c r="M147" s="78"/>
       <c r="N147" s="78"/>
     </row>
     <row r="148" spans="1:14" s="90" customFormat="1">
-      <c r="A148" s="397">
-        <v>45680</v>
-      </c>
-      <c r="B148" s="398" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C148" s="399"/>
-      <c r="D148" s="400"/>
-      <c r="E148" s="401">
-        <v>150.77000000000001</v>
-      </c>
-      <c r="F148" s="402"/>
-      <c r="G148" s="403"/>
-      <c r="H148" s="402"/>
-      <c r="I148" s="402">
-        <f>G148-E148</f>
-        <v>-150.77000000000001</v>
-      </c>
+      <c r="A148" s="100"/>
+      <c r="C148" s="409"/>
+      <c r="D148" s="406"/>
+      <c r="E148" s="410"/>
+      <c r="F148" s="440"/>
+      <c r="G148" s="17"/>
       <c r="K148" s="78"/>
       <c r="L148" s="78"/>
       <c r="M148" s="78"/>
       <c r="N148" s="78"/>
     </row>
     <row r="149" spans="1:14" s="90" customFormat="1">
+      <c r="A149" s="100"/>
+      <c r="C149" s="409"/>
+      <c r="D149" s="406"/>
+      <c r="E149" s="410"/>
+      <c r="F149" s="440"/>
+      <c r="G149" s="17"/>
       <c r="K149" s="78"/>
       <c r="L149" s="78"/>
       <c r="M149" s="78"/>
       <c r="N149" s="78"/>
     </row>
     <row r="150" spans="1:14" s="90" customFormat="1">
+      <c r="A150" s="397">
+        <v>45680</v>
+      </c>
+      <c r="B150" s="398" t="s">
+        <v>142</v>
+      </c>
+      <c r="C150" s="399">
+        <v>-15</v>
+      </c>
+      <c r="D150" s="400">
+        <v>752.55561799999998</v>
+      </c>
+      <c r="E150" s="401">
+        <f>D150*C150</f>
+        <v>-11288.334269999999</v>
+      </c>
+      <c r="F150" s="402">
+        <v>886.51320299999998</v>
+      </c>
+      <c r="G150" s="403">
+        <f>F150*C150</f>
+        <v>-13297.698044999999</v>
+      </c>
+      <c r="H150" s="402"/>
+      <c r="I150" s="402">
+        <f>E150-G150</f>
+        <v>2009.3637749999998</v>
+      </c>
       <c r="K150" s="78"/>
       <c r="L150" s="78"/>
       <c r="M150" s="78"/>
       <c r="N150" s="78"/>
     </row>
     <row r="151" spans="1:14" s="90" customFormat="1">
+      <c r="A151" s="397">
+        <v>45680</v>
+      </c>
+      <c r="B151" s="398" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C151" s="399"/>
+      <c r="D151" s="400"/>
+      <c r="E151" s="401">
+        <v>150.77000000000001</v>
+      </c>
+      <c r="F151" s="402"/>
+      <c r="G151" s="403"/>
+      <c r="H151" s="402"/>
+      <c r="I151" s="402">
+        <f>G151-E151</f>
+        <v>-150.77000000000001</v>
+      </c>
       <c r="K151" s="78"/>
       <c r="L151" s="78"/>
       <c r="M151" s="78"/>
       <c r="N151" s="78"/>
     </row>
     <row r="152" spans="1:14" s="90" customFormat="1">
-      <c r="A152" s="406"/>
-      <c r="B152" s="406"/>
-      <c r="C152" s="406"/>
-      <c r="D152" s="406"/>
-      <c r="E152" s="406"/>
-      <c r="F152" s="406"/>
-      <c r="G152" s="406"/>
       <c r="K152" s="78"/>
       <c r="L152" s="78"/>
       <c r="M152" s="78"/>
       <c r="N152" s="78"/>
     </row>
     <row r="153" spans="1:14" s="90" customFormat="1">
-      <c r="A153" s="406"/>
-      <c r="B153" s="406"/>
-      <c r="C153" s="406"/>
-      <c r="D153" s="406"/>
-      <c r="E153" s="406"/>
-      <c r="F153" s="406"/>
-      <c r="G153" s="406"/>
       <c r="K153" s="78"/>
       <c r="L153" s="78"/>
       <c r="M153" s="78"/>
       <c r="N153" s="78"/>
     </row>
-    <row r="154" spans="1:14" s="77" customFormat="1">
-      <c r="A154" s="406"/>
-      <c r="B154" s="406"/>
-      <c r="C154" s="406"/>
-      <c r="D154" s="406"/>
-      <c r="E154" s="406"/>
-      <c r="F154" s="406"/>
-      <c r="G154" s="406"/>
+    <row r="154" spans="1:14" s="90" customFormat="1">
       <c r="K154" s="78"/>
       <c r="L154" s="78"/>
       <c r="M154" s="78"/>
       <c r="N154" s="78"/>
     </row>
-    <row r="155" spans="1:14" s="77" customFormat="1">
+    <row r="155" spans="1:14" s="90" customFormat="1">
       <c r="A155" s="406"/>
       <c r="B155" s="406"/>
       <c r="C155" s="406"/>
@@ -18019,138 +17955,141 @@
       <c r="M155" s="78"/>
       <c r="N155" s="78"/>
     </row>
-    <row r="156" spans="1:14" s="77" customFormat="1">
-      <c r="A156" s="407"/>
-      <c r="B156" s="408"/>
-      <c r="C156" s="409"/>
+    <row r="156" spans="1:14" s="90" customFormat="1">
+      <c r="A156" s="406"/>
+      <c r="B156" s="406"/>
+      <c r="C156" s="406"/>
       <c r="D156" s="406"/>
-      <c r="E156" s="410"/>
+      <c r="E156" s="406"/>
       <c r="F156" s="406"/>
-      <c r="G156" s="410"/>
+      <c r="G156" s="406"/>
       <c r="K156" s="78"/>
       <c r="L156" s="78"/>
       <c r="M156" s="78"/>
       <c r="N156" s="78"/>
     </row>
     <row r="157" spans="1:14" s="77" customFormat="1">
-      <c r="A157" s="100"/>
+      <c r="A157" s="406"/>
+      <c r="B157" s="406"/>
+      <c r="C157" s="406"/>
+      <c r="D157" s="406"/>
+      <c r="E157" s="406"/>
+      <c r="F157" s="406"/>
+      <c r="G157" s="406"/>
       <c r="K157" s="78"/>
       <c r="L157" s="78"/>
       <c r="M157" s="78"/>
       <c r="N157" s="78"/>
     </row>
-    <row r="158" spans="1:14">
-      <c r="B158" t="s">
+    <row r="158" spans="1:14" s="77" customFormat="1">
+      <c r="A158" s="406"/>
+      <c r="B158" s="406"/>
+      <c r="C158" s="406"/>
+      <c r="D158" s="406"/>
+      <c r="E158" s="406"/>
+      <c r="F158" s="406"/>
+      <c r="G158" s="406"/>
+      <c r="K158" s="78"/>
+      <c r="L158" s="78"/>
+      <c r="M158" s="78"/>
+      <c r="N158" s="78"/>
+    </row>
+    <row r="159" spans="1:14" s="77" customFormat="1">
+      <c r="A159" s="407"/>
+      <c r="B159" s="408"/>
+      <c r="C159" s="409"/>
+      <c r="D159" s="406"/>
+      <c r="E159" s="410"/>
+      <c r="F159" s="406"/>
+      <c r="G159" s="410"/>
+      <c r="K159" s="78"/>
+      <c r="L159" s="78"/>
+      <c r="M159" s="78"/>
+      <c r="N159" s="78"/>
+    </row>
+    <row r="160" spans="1:14" s="77" customFormat="1">
+      <c r="A160" s="100"/>
+      <c r="K160" s="78"/>
+      <c r="L160" s="78"/>
+      <c r="M160" s="78"/>
+      <c r="N160" s="78"/>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="B161" t="s">
         <v>158</v>
       </c>
-      <c r="E158" s="77">
+      <c r="E161" s="77">
         <v>13006</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
-      <c r="B159" t="s">
+    <row r="162" spans="1:12">
+      <c r="B162" t="s">
         <v>159</v>
       </c>
-      <c r="D159" s="76">
+      <c r="D162" s="76">
         <v>0.1575</v>
       </c>
-      <c r="E159" s="77">
-        <f>E158*D159</f>
+      <c r="E162" s="77">
+        <f>E161*D162</f>
         <v>2048.4450000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
-      <c r="B160" t="s">
+    <row r="163" spans="1:12">
+      <c r="B163" t="s">
         <v>160</v>
       </c>
-      <c r="E160" s="77">
-        <f>SUM(E158:E159)</f>
+      <c r="E163" s="77">
+        <f>SUM(E161:E162)</f>
         <v>15054.445</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
-      <c r="A163" s="11"/>
-      <c r="B163" s="98"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="11"/>
-      <c r="K163" s="11"/>
-      <c r="L163" s="11"/>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="A164" s="11"/>
-      <c r="B164" s="98"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
-      <c r="E164" s="11"/>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="11"/>
-      <c r="I164" s="11"/>
-      <c r="J164" s="11"/>
-      <c r="K164" s="11"/>
-      <c r="L164" s="11"/>
-    </row>
-    <row r="165" spans="1:12" ht="15">
-      <c r="A165" s="98"/>
-      <c r="B165" s="11"/>
-      <c r="D165" s="382"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="383"/>
-    </row>
-    <row r="166" spans="1:12" ht="15">
-      <c r="A166" s="98"/>
-      <c r="B166" s="11"/>
-      <c r="D166" s="382"/>
+    <row r="166" spans="1:12">
+      <c r="A166" s="11"/>
+      <c r="B166" s="98"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
-      <c r="I166" s="11"/>
-      <c r="J166" s="383"/>
-    </row>
-    <row r="167" spans="1:12" ht="15">
-      <c r="A167" s="98"/>
-      <c r="B167" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="11"/>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="11"/>
+      <c r="B167" s="98"/>
       <c r="C167" s="11"/>
-      <c r="D167" s="382"/>
+      <c r="D167" s="11"/>
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
       <c r="I167" s="11"/>
       <c r="J167" s="11"/>
-    </row>
-    <row r="168" spans="1:12">
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
+    </row>
+    <row r="168" spans="1:12" ht="15">
       <c r="A168" s="98"/>
       <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
+      <c r="D168" s="382"/>
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
       <c r="I168" s="11"/>
-      <c r="J168" s="11"/>
+      <c r="J168" s="383"/>
     </row>
     <row r="169" spans="1:12" ht="15">
       <c r="A169" s="98"/>
       <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
       <c r="D169" s="382"/>
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
       <c r="I169" s="11"/>
-      <c r="J169" s="11"/>
+      <c r="J169" s="383"/>
     </row>
     <row r="170" spans="1:12" ht="15">
       <c r="A170" s="98"/>
@@ -18165,37 +18104,58 @@
       <c r="J170" s="11"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="C171" s="77"/>
-      <c r="H171"/>
-      <c r="J171" s="78"/>
-    </row>
-    <row r="172" spans="1:12">
+      <c r="A171" s="98"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
+    </row>
+    <row r="172" spans="1:12" ht="15">
+      <c r="A172" s="98"/>
+      <c r="B172" s="11"/>
       <c r="C172" s="11"/>
-      <c r="H172"/>
-      <c r="J172" s="78"/>
-    </row>
-    <row r="173" spans="1:12">
+      <c r="D172" s="382"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+    </row>
+    <row r="173" spans="1:12" ht="15">
+      <c r="A173" s="98"/>
+      <c r="B173" s="11"/>
       <c r="C173" s="11"/>
-      <c r="H173"/>
-      <c r="J173" s="78"/>
+      <c r="D173" s="382"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
     </row>
     <row r="174" spans="1:12">
-      <c r="C174" s="11"/>
+      <c r="C174" s="77"/>
       <c r="H174"/>
       <c r="J174" s="78"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="C175" s="77"/>
+      <c r="C175" s="11"/>
       <c r="H175"/>
       <c r="J175" s="78"/>
     </row>
     <row r="176" spans="1:12">
-      <c r="C176" s="77"/>
+      <c r="C176" s="11"/>
       <c r="H176"/>
       <c r="J176" s="78"/>
     </row>
     <row r="177" spans="3:10">
-      <c r="C177" s="77"/>
+      <c r="C177" s="11"/>
       <c r="H177"/>
       <c r="J177" s="78"/>
     </row>
@@ -18253,6 +18213,21 @@
       <c r="C188" s="77"/>
       <c r="H188"/>
       <c r="J188" s="78"/>
+    </row>
+    <row r="189" spans="3:10">
+      <c r="C189" s="77"/>
+      <c r="H189"/>
+      <c r="J189" s="78"/>
+    </row>
+    <row r="190" spans="3:10">
+      <c r="C190" s="77"/>
+      <c r="H190"/>
+      <c r="J190" s="78"/>
+    </row>
+    <row r="191" spans="3:10">
+      <c r="C191" s="77"/>
+      <c r="H191"/>
+      <c r="J191" s="78"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F125:F127">
@@ -18280,9 +18255,9 @@
       <formula>D118</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I165:I166">
+  <conditionalFormatting sqref="I168:I169">
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>H165&gt;0</formula>
+      <formula>H168&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
@@ -18290,9 +18265,9 @@
       <formula>D120</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F147:F148">
+  <conditionalFormatting sqref="F150:F151">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>D147</formula>
+      <formula>D150</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
@@ -20817,10 +20792,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="456" t="s">
+      <c r="L1" s="461" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="456"/>
+      <c r="M1" s="461"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -21532,11 +21507,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="457">
+      <c r="L17" s="462">
         <f>L15+M15</f>
         <v>1080.7929879999999</v>
       </c>
-      <c r="M17" s="457"/>
+      <c r="M17" s="462"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">
@@ -25653,10 +25628,10 @@
       <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="456" t="s">
+      <c r="L1" s="461" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="456"/>
+      <c r="M1" s="461"/>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
@@ -26368,11 +26343,11 @@
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="457">
+      <c r="L17" s="462">
         <f>L15+M15</f>
         <v>976.10596800000008</v>
       </c>
-      <c r="M17" s="457"/>
+      <c r="M17" s="462"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="64" t="s">

--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE36E53-A1C9-465E-BE1C-276B03CD3B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A3CEE-5A1C-423F-BBF0-1FFDE87468FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_25" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4564" uniqueCount="1695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4588" uniqueCount="1711">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -5469,6 +5469,54 @@
   </si>
   <si>
     <t>KAR</t>
+  </si>
+  <si>
+    <t>audi akü ahmet karan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 1 / 6 - </t>
+  </si>
+  <si>
+    <t>tcdd 2 kişi buss tokat-ank     27-3</t>
+  </si>
+  <si>
+    <t>topçam ankara tokat dönüş      09-04-25</t>
+  </si>
+  <si>
+    <t>mrcmk</t>
+  </si>
+  <si>
+    <t>edeler dondurma</t>
+  </si>
+  <si>
+    <t>audi buji örkç</t>
+  </si>
+  <si>
+    <t>audi buji 1800 bobin 650 antfrz 600 işç "1000</t>
+  </si>
+  <si>
+    <t>audi turbo soğ radyt  örkç</t>
+  </si>
+  <si>
+    <t>audi yağ hava-yağ filt</t>
+  </si>
+  <si>
+    <t>toyota benz sivas peri</t>
+  </si>
+  <si>
+    <t>aşçıbaşı köfte</t>
+  </si>
+  <si>
+    <t>a101 yıldızeli</t>
+  </si>
+  <si>
+    <t>euro borç tl karşılığı</t>
+  </si>
+  <si>
+    <t>???????</t>
+  </si>
+  <si>
+    <t>BELEDİYE sanayi sayaç 7 taksitler</t>
   </si>
 </sst>
 </file>
@@ -6561,7 +6609,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="463">
+  <cellXfs count="464">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7175,6 +7223,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -9214,14 +9263,15 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
+    <col min="1" max="1" width="12.28515625" style="98"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="77" customWidth="1"/>
@@ -9245,7 +9295,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="433" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="79" t="s">
@@ -9257,7 +9307,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E32)</f>
-        <v>-167276.39000000001</v>
+        <v>-188900.93</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F32)</f>
@@ -9265,11 +9315,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G32)</f>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9290,7 +9340,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="80"/>
+      <c r="A6" s="463"/>
       <c r="B6" s="81"/>
       <c r="C6" s="82"/>
       <c r="D6" s="83"/>
@@ -9301,7 +9351,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="84"/>
+      <c r="A7" s="463"/>
       <c r="B7" s="81" t="s">
         <v>68</v>
       </c>
@@ -9309,48 +9359,47 @@
       <c r="D7" s="86"/>
       <c r="E7" s="86">
         <f>E35</f>
-        <v>-119989.55</v>
+        <v>-122650.69</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87">
         <f>E7</f>
-        <v>-119989.55</v>
+        <v>-122650.69</v>
       </c>
       <c r="H7" s="77">
         <f t="shared" si="0"/>
-        <v>-119989.55</v>
+        <v>-122650.69</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="80"/>
+      <c r="A8" s="463"/>
       <c r="B8" s="81" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="86"/>
       <c r="E8" s="86">
-        <f>E50</f>
-        <v>-989.78</v>
+        <f>E52</f>
+        <v>-19953.18</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87">
         <f>E8</f>
-        <v>-989.78</v>
+        <v>-19953.18</v>
       </c>
       <c r="H8" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="G9" s="87"/>
       <c r="H9" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="88"/>
       <c r="B10" s="89" t="s">
         <v>70</v>
       </c>
@@ -9361,7 +9410,7 @@
       </c>
       <c r="H10" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9375,7 +9424,7 @@
       </c>
       <c r="H11" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9389,22 +9438,21 @@
       </c>
       <c r="H12" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="88"/>
       <c r="B13" s="92"/>
       <c r="C13" s="92"/>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
       <c r="H13" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="78" customFormat="1">
-      <c r="A14" s="88"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="77"/>
@@ -9413,13 +9461,13 @@
       <c r="G14" s="77"/>
       <c r="H14" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" s="78" customFormat="1">
-      <c r="A15" s="88"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="93" t="s">
         <v>73</v>
       </c>
@@ -9432,11 +9480,11 @@
       <c r="G15" s="77"/>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="78" customFormat="1">
-      <c r="A16" s="88"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="93" t="s">
         <v>74</v>
       </c>
@@ -9449,11 +9497,11 @@
       <c r="G16" s="77"/>
       <c r="H16" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="78" customFormat="1">
-      <c r="A17" s="88"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="89" t="s">
         <v>75</v>
       </c>
@@ -9466,11 +9514,11 @@
       <c r="G17" s="77"/>
       <c r="H17" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="78" customFormat="1">
-      <c r="A18" s="88"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="92" t="s">
         <v>76</v>
       </c>
@@ -9483,7 +9531,7 @@
       <c r="G18" s="77"/>
       <c r="H18" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="94"/>
@@ -9491,6 +9539,7 @@
       <c r="M18" s="96"/>
     </row>
     <row r="19" spans="1:13" s="78" customFormat="1">
+      <c r="A19" s="98"/>
       <c r="B19" s="92" t="s">
         <v>77</v>
       </c>
@@ -9503,7 +9552,7 @@
       <c r="G19" s="77"/>
       <c r="H19" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
       <c r="J19" s="94"/>
       <c r="K19" s="94"/>
@@ -9511,6 +9560,7 @@
       <c r="M19" s="96"/>
     </row>
     <row r="20" spans="1:13" s="78" customFormat="1">
+      <c r="A20" s="98"/>
       <c r="B20" s="92" t="s">
         <v>78</v>
       </c>
@@ -9523,7 +9573,7 @@
       <c r="G20" s="77"/>
       <c r="H20" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
       <c r="J20" s="94"/>
       <c r="K20" s="94"/>
@@ -9531,6 +9581,7 @@
       <c r="M20" s="96"/>
     </row>
     <row r="21" spans="1:13" s="78" customFormat="1">
+      <c r="A21" s="98"/>
       <c r="B21" s="92" t="s">
         <v>79</v>
       </c>
@@ -9543,7 +9594,7 @@
       <c r="G21" s="77"/>
       <c r="H21" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="94"/>
@@ -9551,6 +9602,7 @@
       <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" s="78" customFormat="1">
+      <c r="A22" s="98"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="77"/>
@@ -9559,7 +9611,7 @@
       <c r="G22" s="77"/>
       <c r="H22" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="94"/>
@@ -9567,7 +9619,7 @@
       <c r="M22" s="96"/>
     </row>
     <row r="23" spans="1:13" s="78" customFormat="1">
-      <c r="A23" s="97"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="92"/>
       <c r="C23" s="92"/>
       <c r="D23" s="90"/>
@@ -9576,7 +9628,7 @@
       <c r="G23" s="77"/>
       <c r="H23" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -9601,7 +9653,7 @@
       <c r="G24" s="77"/>
       <c r="H24" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -9609,6 +9661,7 @@
       <c r="M24" s="96"/>
     </row>
     <row r="25" spans="1:13" s="78" customFormat="1">
+      <c r="A25" s="98"/>
       <c r="B25" s="99" t="s">
         <v>80</v>
       </c>
@@ -9621,7 +9674,7 @@
       <c r="G25" s="77"/>
       <c r="H25" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -9629,6 +9682,7 @@
       <c r="M25" s="96"/>
     </row>
     <row r="26" spans="1:13" s="78" customFormat="1">
+      <c r="A26" s="98"/>
       <c r="B26" s="99" t="s">
         <v>81</v>
       </c>
@@ -9641,7 +9695,7 @@
       <c r="G26" s="77"/>
       <c r="H26" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -9649,6 +9703,7 @@
       <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" s="78" customFormat="1">
+      <c r="A27" s="98"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="77"/>
@@ -9657,47 +9712,46 @@
       <c r="G27" s="77"/>
       <c r="H27" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="78" customFormat="1">
+      <c r="A28" s="98"/>
       <c r="D28" s="77"/>
       <c r="E28" s="77"/>
       <c r="F28" s="77"/>
       <c r="G28" s="77"/>
       <c r="H28" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="100"/>
       <c r="B29" s="101" t="s">
         <v>100</v>
       </c>
       <c r="C29" s="101"/>
       <c r="H29" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
       <c r="I29" s="78"/>
       <c r="J29" s="78"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="100"/>
       <c r="H30" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="H31" s="77">
         <f t="shared" si="0"/>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="78" customFormat="1">
-      <c r="A32"/>
+      <c r="A32" s="98"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" s="77"/>
@@ -9709,7 +9763,7 @@
       <c r="J32"/>
     </row>
     <row r="33" spans="1:14" s="77" customFormat="1">
-      <c r="A33" s="88"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="78"/>
       <c r="C33" s="78"/>
       <c r="I33" s="78"/>
@@ -9720,6 +9774,7 @@
       <c r="N33" s="78"/>
     </row>
     <row r="34" spans="1:14" s="77" customFormat="1">
+      <c r="A34" s="433"/>
       <c r="B34" s="102"/>
       <c r="K34" s="78"/>
       <c r="L34" s="78"/>
@@ -9727,25 +9782,22 @@
       <c r="N34" s="78"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="103"/>
+      <c r="A35" s="434"/>
       <c r="B35" s="104" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="103"/>
       <c r="E35" s="77">
-        <f>SUM(E36:E47)</f>
-        <v>-119989.55</v>
+        <f>SUM(E37:E46)</f>
+        <v>-122650.69</v>
       </c>
       <c r="I35" s="77"/>
       <c r="J35" s="77"/>
     </row>
-    <row r="36" spans="1:14" s="77" customFormat="1" ht="15">
-      <c r="A36"/>
+    <row r="36" spans="1:14" s="77" customFormat="1">
+      <c r="A36" s="98"/>
       <c r="B36"/>
       <c r="C36"/>
-      <c r="E36" s="105" t="s">
-        <v>84</v>
-      </c>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36" s="78"/>
@@ -9753,103 +9805,150 @@
       <c r="M36" s="78"/>
       <c r="N36" s="78"/>
     </row>
-    <row r="37" spans="1:14" s="77" customFormat="1">
-      <c r="A37" s="88"/>
+    <row r="37" spans="1:14" s="90" customFormat="1">
+      <c r="A37" s="98">
+        <v>45713</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E37" s="90">
+        <v>-291.36</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="78"/>
       <c r="L37" s="78"/>
       <c r="M37" s="78"/>
       <c r="N37" s="78"/>
     </row>
-    <row r="38" spans="1:14" s="77" customFormat="1">
-      <c r="A38" s="88"/>
-      <c r="B38" s="77" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E38" s="77">
-        <v>-1023.05</v>
-      </c>
+    <row r="38" spans="1:14" s="90" customFormat="1">
+      <c r="A38" s="98"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="78"/>
       <c r="L38" s="78"/>
       <c r="M38" s="78"/>
       <c r="N38" s="78"/>
     </row>
     <row r="39" spans="1:14" s="77" customFormat="1">
-      <c r="A39" s="88"/>
+      <c r="A39" s="98">
+        <v>45715</v>
+      </c>
       <c r="B39" s="90" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E39" s="77">
-        <v>-118966.5</v>
+        <v>1645</v>
+      </c>
+      <c r="C39" s="90">
+        <v>5938.68</v>
+      </c>
+      <c r="D39" s="90" t="s">
+        <v>665</v>
+      </c>
+      <c r="E39" s="90">
+        <v>-989.78</v>
       </c>
       <c r="K39" s="78"/>
       <c r="L39" s="78"/>
       <c r="M39" s="78"/>
       <c r="N39" s="78"/>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="88"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
+    <row r="40" spans="1:14" s="77" customFormat="1">
+      <c r="A40" s="98">
+        <v>45716</v>
+      </c>
+      <c r="B40" s="77" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E40" s="77">
+        <v>-1023.05</v>
+      </c>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
     </row>
     <row r="41" spans="1:14" s="77" customFormat="1">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="I41"/>
-      <c r="J41"/>
+      <c r="A41" s="98">
+        <v>45716</v>
+      </c>
+      <c r="B41" s="90" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E41" s="77">
+        <v>-118966.5</v>
+      </c>
       <c r="K41" s="78"/>
       <c r="L41" s="78"/>
       <c r="M41" s="78"/>
       <c r="N41" s="78"/>
     </row>
-    <row r="42" spans="1:14" s="77" customFormat="1">
-      <c r="A42" s="100"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
+    <row r="42" spans="1:14">
+      <c r="A42" s="98">
+        <v>45716</v>
+      </c>
+      <c r="B42" s="90" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90">
+        <v>-1380</v>
+      </c>
+      <c r="F42" s="90"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
     </row>
     <row r="43" spans="1:14" s="77" customFormat="1">
-      <c r="A43" s="100"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
+      <c r="A43" s="433">
+        <v>45723</v>
+      </c>
+      <c r="B43" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="77">
+        <v>19043.61</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43"/>
       <c r="K43" s="78"/>
       <c r="L43" s="78"/>
       <c r="M43" s="78"/>
       <c r="N43" s="78"/>
     </row>
-    <row r="44" spans="1:14" s="77" customFormat="1">
-      <c r="A44" s="100"/>
-      <c r="B44" s="107"/>
+    <row r="44" spans="1:14" s="77" customFormat="1" ht="15">
+      <c r="A44" s="98"/>
+      <c r="B44" s="106"/>
       <c r="C44" s="106"/>
+      <c r="E44" s="105" t="s">
+        <v>84</v>
+      </c>
       <c r="K44" s="78"/>
       <c r="L44" s="78"/>
       <c r="M44" s="78"/>
       <c r="N44" s="78"/>
     </row>
     <row r="45" spans="1:14" s="77" customFormat="1">
-      <c r="A45" s="100"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="106"/>
       <c r="K45" s="78"/>
       <c r="L45" s="78"/>
       <c r="M45" s="78"/>
       <c r="N45" s="78"/>
     </row>
     <row r="46" spans="1:14" s="77" customFormat="1">
-      <c r="A46" s="100"/>
+      <c r="A46" s="98"/>
       <c r="B46" s="107"/>
+      <c r="C46" s="106"/>
       <c r="K46" s="78"/>
       <c r="L46" s="78"/>
       <c r="M46" s="78"/>
       <c r="N46" s="78"/>
     </row>
     <row r="47" spans="1:14" s="77" customFormat="1">
-      <c r="A47" s="100"/>
+      <c r="A47" s="98"/>
       <c r="B47" s="107"/>
       <c r="C47" s="106"/>
       <c r="K47" s="78"/>
@@ -9858,16 +9957,16 @@
       <c r="N47" s="78"/>
     </row>
     <row r="48" spans="1:14" s="77" customFormat="1">
-      <c r="A48" s="100"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="107"/>
       <c r="K48" s="78"/>
       <c r="L48" s="78"/>
       <c r="M48" s="78"/>
       <c r="N48" s="78"/>
     </row>
     <row r="49" spans="1:14" s="77" customFormat="1">
-      <c r="A49" s="100"/>
-      <c r="B49" s="106"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="106"/>
       <c r="K49" s="78"/>
       <c r="L49" s="78"/>
@@ -9875,22 +9974,13 @@
       <c r="N49" s="78"/>
     </row>
     <row r="50" spans="1:14" s="77" customFormat="1">
-      <c r="A50" s="103"/>
-      <c r="B50" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="103"/>
-      <c r="E50" s="77">
-        <f>SUM(E51:E69)</f>
-        <v>-989.78</v>
-      </c>
       <c r="K50" s="78"/>
       <c r="L50" s="78"/>
       <c r="M50" s="78"/>
       <c r="N50" s="78"/>
     </row>
     <row r="51" spans="1:14" s="77" customFormat="1">
-      <c r="A51" s="100"/>
+      <c r="A51" s="98"/>
       <c r="B51" s="106"/>
       <c r="C51" s="106"/>
       <c r="K51" s="78"/>
@@ -9899,29 +9989,30 @@
       <c r="N51" s="78"/>
     </row>
     <row r="52" spans="1:14" s="77" customFormat="1">
-      <c r="A52" s="100"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="106"/>
+      <c r="A52" s="434"/>
+      <c r="B52" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="103"/>
+      <c r="E52" s="77">
+        <f>SUM(E53:E76)</f>
+        <v>-19953.18</v>
+      </c>
+      <c r="F52" s="77">
+        <v>19953.18</v>
+      </c>
       <c r="K52" s="78"/>
       <c r="L52" s="78"/>
       <c r="M52" s="78"/>
       <c r="N52" s="78"/>
     </row>
     <row r="53" spans="1:14" s="77" customFormat="1">
-      <c r="A53" s="88">
-        <v>45715</v>
-      </c>
-      <c r="B53" s="90" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C53" s="90">
-        <v>5938.68</v>
-      </c>
-      <c r="D53" s="90" t="s">
-        <v>665</v>
-      </c>
-      <c r="E53" s="90">
-        <v>-989.78</v>
+      <c r="A53" s="98"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
+      <c r="F53" s="77">
+        <f>F52+E52</f>
+        <v>0</v>
       </c>
       <c r="K53" s="78"/>
       <c r="L53" s="78"/>
@@ -9929,8 +10020,8 @@
       <c r="N53" s="78"/>
     </row>
     <row r="54" spans="1:14" s="77" customFormat="1">
-      <c r="A54" s="100"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="106"/>
       <c r="C54" s="106"/>
       <c r="K54" s="78"/>
       <c r="L54" s="78"/>
@@ -9938,44 +10029,70 @@
       <c r="N54" s="78"/>
     </row>
     <row r="55" spans="1:14" s="77" customFormat="1">
-      <c r="A55" s="100"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="106"/>
       <c r="K55" s="78"/>
       <c r="L55" s="78"/>
       <c r="M55" s="78"/>
       <c r="N55" s="78"/>
     </row>
     <row r="56" spans="1:14" s="77" customFormat="1">
-      <c r="A56" s="100"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="106"/>
+      <c r="A56" s="98">
+        <v>45728</v>
+      </c>
+      <c r="B56" s="90" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56" s="77" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E56" s="77">
+        <v>-625</v>
+      </c>
       <c r="K56" s="78"/>
       <c r="L56" s="78"/>
       <c r="M56" s="78"/>
       <c r="N56" s="78"/>
     </row>
     <row r="57" spans="1:14" s="77" customFormat="1">
-      <c r="A57" s="100"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="106"/>
+      <c r="A57" s="433">
+        <v>45692</v>
+      </c>
+      <c r="B57" s="90" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90" t="s">
+        <v>996</v>
+      </c>
+      <c r="E57" s="90">
+        <v>-600.13</v>
+      </c>
       <c r="K57" s="78"/>
       <c r="L57" s="78"/>
       <c r="M57" s="78"/>
       <c r="N57" s="78"/>
     </row>
-    <row r="58" spans="1:14" s="77" customFormat="1">
-      <c r="A58" s="100"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="106"/>
+    <row r="58" spans="1:14" s="90" customFormat="1">
+      <c r="A58" s="433">
+        <v>45692</v>
+      </c>
+      <c r="B58" s="90" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D58" s="90" t="s">
+        <v>996</v>
+      </c>
+      <c r="E58" s="90">
+        <v>-2500.3000000000002</v>
+      </c>
       <c r="K58" s="78"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
       <c r="N58" s="78"/>
     </row>
-    <row r="59" spans="1:14" s="77" customFormat="1">
-      <c r="A59" s="100"/>
-      <c r="B59" s="3"/>
+    <row r="59" spans="1:14" s="90" customFormat="1">
+      <c r="A59" s="98"/>
+      <c r="B59" s="92"/>
       <c r="C59" s="106"/>
       <c r="K59" s="78"/>
       <c r="L59" s="78"/>
@@ -9983,47 +10100,76 @@
       <c r="N59" s="78"/>
     </row>
     <row r="60" spans="1:14" s="77" customFormat="1">
-      <c r="A60" s="100"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="106"/>
+      <c r="A60" s="98">
+        <v>45737</v>
+      </c>
+      <c r="B60" s="77" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E60" s="77">
+        <v>-2350</v>
+      </c>
       <c r="K60" s="78"/>
       <c r="L60" s="78"/>
       <c r="M60" s="78"/>
       <c r="N60" s="78"/>
     </row>
     <row r="61" spans="1:14" s="77" customFormat="1">
-      <c r="A61" s="100"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="106"/>
+      <c r="A61" s="98">
+        <v>45737</v>
+      </c>
+      <c r="B61" s="77" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E61" s="77">
+        <v>-1800</v>
+      </c>
       <c r="K61" s="78"/>
       <c r="L61" s="78"/>
       <c r="M61" s="78"/>
       <c r="N61" s="78"/>
     </row>
     <row r="62" spans="1:14" s="77" customFormat="1">
-      <c r="A62" s="100"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="98">
+        <v>45714</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1620</v>
+      </c>
       <c r="C62" s="106"/>
+      <c r="E62" s="77">
+        <v>-80</v>
+      </c>
       <c r="K62" s="78"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="1:14" s="77" customFormat="1">
-      <c r="A63" s="100"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="98">
+        <v>45716</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1699</v>
+      </c>
       <c r="C63" s="106"/>
+      <c r="E63" s="77">
+        <v>-120</v>
+      </c>
       <c r="K63" s="78"/>
       <c r="L63" s="78"/>
       <c r="M63" s="78"/>
       <c r="N63" s="78"/>
     </row>
-    <row r="64" spans="1:14" s="77" customFormat="1" ht="15">
-      <c r="A64" s="100"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="106"/>
-      <c r="E64" s="105" t="s">
-        <v>84</v>
+    <row r="64" spans="1:14" s="77" customFormat="1">
+      <c r="A64" s="98">
+        <v>45716</v>
+      </c>
+      <c r="B64" s="77" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E64" s="77">
+        <v>-360</v>
       </c>
       <c r="K64" s="78"/>
       <c r="L64" s="78"/>
@@ -10031,25 +10177,38 @@
       <c r="N64" s="78"/>
     </row>
     <row r="65" spans="1:14" s="77" customFormat="1">
-      <c r="A65" s="100"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="106"/>
+      <c r="A65" s="433">
+        <v>45717</v>
+      </c>
+      <c r="B65" s="77" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E65" s="77">
+        <v>-500</v>
+      </c>
       <c r="K65" s="78"/>
       <c r="L65" s="78"/>
       <c r="M65" s="78"/>
       <c r="N65" s="78"/>
     </row>
     <row r="66" spans="1:14" s="77" customFormat="1">
-      <c r="A66" s="100"/>
-      <c r="B66" s="3"/>
+      <c r="A66" s="98">
+        <v>45721</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="C66" s="106"/>
+      <c r="D66" s="77">
+        <v>14628.183000000001</v>
+      </c>
       <c r="K66" s="78"/>
       <c r="L66" s="78"/>
       <c r="M66" s="78"/>
       <c r="N66" s="78"/>
     </row>
     <row r="67" spans="1:14" s="77" customFormat="1">
-      <c r="A67" s="100"/>
+      <c r="A67" s="98"/>
       <c r="B67" s="3"/>
       <c r="C67" s="106"/>
       <c r="K67" s="78"/>
@@ -10058,41 +10217,126 @@
       <c r="N67" s="78"/>
     </row>
     <row r="68" spans="1:14" s="77" customFormat="1">
-      <c r="A68" s="100"/>
-      <c r="B68" s="3"/>
+      <c r="A68" s="98">
+        <v>45728</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1701</v>
+      </c>
       <c r="C68" s="106"/>
+      <c r="E68" s="77">
+        <v>-1400</v>
+      </c>
       <c r="K68" s="78"/>
       <c r="L68" s="78"/>
       <c r="M68" s="78"/>
       <c r="N68" s="78"/>
     </row>
     <row r="69" spans="1:14" s="77" customFormat="1">
-      <c r="A69" s="100"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="98">
+        <v>45728</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1702</v>
+      </c>
       <c r="C69" s="106"/>
+      <c r="E69" s="77">
+        <v>-4150</v>
+      </c>
       <c r="K69" s="78"/>
       <c r="L69" s="78"/>
       <c r="M69" s="78"/>
       <c r="N69" s="78"/>
     </row>
     <row r="70" spans="1:14" s="77" customFormat="1">
-      <c r="A70" s="100"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="98">
+        <v>45733</v>
+      </c>
+      <c r="B70" s="92" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="E70" s="77">
+        <v>-2500</v>
+      </c>
       <c r="K70" s="78"/>
       <c r="L70" s="78"/>
       <c r="M70" s="78"/>
       <c r="N70" s="78"/>
     </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="100"/>
-      <c r="B71" s="3"/>
+    <row r="71" spans="1:14" s="77" customFormat="1">
+      <c r="A71" s="98">
+        <v>45733</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>1704</v>
+      </c>
       <c r="C71" s="106"/>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
+      <c r="E71" s="77">
+        <v>-1400</v>
+      </c>
+      <c r="K71" s="78"/>
+      <c r="L71" s="78"/>
+      <c r="M71" s="78"/>
+      <c r="N71" s="78"/>
+    </row>
+    <row r="72" spans="1:14" s="77" customFormat="1">
+      <c r="A72" s="98">
+        <v>45739</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="E72" s="77">
+        <v>-1000</v>
+      </c>
+      <c r="K72" s="78"/>
+      <c r="L72" s="78"/>
+      <c r="M72" s="78"/>
+      <c r="N72" s="78"/>
+    </row>
+    <row r="73" spans="1:14" s="77" customFormat="1">
+      <c r="A73" s="98">
+        <v>45739</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C73" s="106"/>
+      <c r="E73" s="77">
+        <v>-550</v>
+      </c>
+      <c r="K73" s="78"/>
+      <c r="L73" s="78"/>
+      <c r="M73" s="78"/>
+      <c r="N73" s="78"/>
+    </row>
+    <row r="74" spans="1:14" s="77" customFormat="1">
+      <c r="A74" s="98"/>
+      <c r="B74" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E74" s="77">
+        <v>-17.75</v>
+      </c>
+      <c r="K74" s="78"/>
+      <c r="L74" s="78"/>
+      <c r="M74" s="78"/>
+      <c r="N74" s="78"/>
+    </row>
+    <row r="75" spans="1:14" ht="15">
+      <c r="B75" s="3"/>
+      <c r="C75" s="106"/>
+      <c r="E75" s="105" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75" s="77"/>
+      <c r="J75" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
-  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -10107,8 +10351,8 @@
   </sheetPr>
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -25826,11 +26070,11 @@
       </c>
       <c r="C6" s="32">
         <f>'04_25'!E2</f>
-        <v>-167276.39000000001</v>
+        <v>-188900.93</v>
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
-        <v>110455.95999999996</v>
+        <v>88831.419999999984</v>
       </c>
       <c r="E6" s="32">
         <f>'04_25'!F2</f>
@@ -25838,11 +26082,11 @@
       </c>
       <c r="F6" s="32">
         <f>'04_25'!G2</f>
-        <v>-120979.33</v>
+        <v>-142603.87</v>
       </c>
       <c r="G6" s="33">
         <f t="shared" si="1"/>
-        <v>37480.820000000022</v>
+        <v>15856.280000000028</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="41" t="s">
@@ -25855,7 +26099,7 @@
         <v>15</v>
       </c>
       <c r="N6" s="8">
-        <f>'04_25'!E111/1000</f>
+        <f>'04_25'!E115/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -25873,7 +26117,7 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>79549.119999999966</v>
+        <v>57924.579999999987</v>
       </c>
       <c r="E7" s="32">
         <f>'05_25'!F2</f>
@@ -25885,7 +26129,7 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>36491.040000000023</v>
+        <v>14866.500000000027</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="41" t="s">
@@ -25916,7 +26160,7 @@
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
-        <v>41142.27999999997</v>
+        <v>19517.739999999991</v>
       </c>
       <c r="E8" s="32">
         <f>'06_25'!F2</f>
@@ -25928,7 +26172,7 @@
       </c>
       <c r="G8" s="33">
         <f t="shared" si="1"/>
-        <v>35501.260000000024</v>
+        <v>13876.720000000027</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="35" t="s">
@@ -25962,7 +26206,7 @@
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
-        <v>2735.4399999999732</v>
+        <v>-18889.100000000006</v>
       </c>
       <c r="E9" s="32">
         <f>'07_25'!F2</f>
@@ -25974,7 +26218,7 @@
       </c>
       <c r="G9" s="33">
         <f t="shared" si="1"/>
-        <v>34511.480000000025</v>
+        <v>12886.940000000026</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="35" t="s">
@@ -26011,7 +26255,7 @@
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
-        <v>-35671.400000000023</v>
+        <v>-57295.94</v>
       </c>
       <c r="E10" s="32">
         <f>'08_25'!F2</f>
@@ -26023,7 +26267,7 @@
       </c>
       <c r="G10" s="33">
         <f t="shared" si="1"/>
-        <v>33521.700000000026</v>
+        <v>11897.160000000025</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="35" t="s">
@@ -26057,7 +26301,7 @@
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
-        <v>-73088.460000000021</v>
+        <v>-94713</v>
       </c>
       <c r="E11" s="32">
         <f>'09_25'!F2</f>
@@ -26069,7 +26313,7 @@
       </c>
       <c r="G11" s="33">
         <f t="shared" si="1"/>
-        <v>33521.700000000026</v>
+        <v>11897.160000000025</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="35" t="s">
@@ -26106,7 +26350,7 @@
       </c>
       <c r="D12" s="33">
         <f t="shared" si="0"/>
-        <v>-110505.52000000002</v>
+        <v>-132130.06</v>
       </c>
       <c r="E12" s="32">
         <f>'10_25'!F2</f>
@@ -26118,7 +26362,7 @@
       </c>
       <c r="G12" s="33">
         <f t="shared" si="1"/>
-        <v>33521.700000000026</v>
+        <v>11897.160000000025</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="35" t="s">
@@ -26155,7 +26399,7 @@
       </c>
       <c r="D13" s="33">
         <f t="shared" si="0"/>
-        <v>-147922.58000000002</v>
+        <v>-169547.12</v>
       </c>
       <c r="E13" s="32">
         <f>'11_25'!F2</f>
@@ -26167,7 +26411,7 @@
       </c>
       <c r="G13" s="33">
         <f t="shared" si="1"/>
-        <v>33521.700000000026</v>
+        <v>11897.160000000025</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="35" t="s">
@@ -26204,7 +26448,7 @@
       </c>
       <c r="D14" s="33">
         <f t="shared" si="0"/>
-        <v>-185339.64</v>
+        <v>-206964.18</v>
       </c>
       <c r="E14" s="32">
         <f>'12_25'!F2</f>
@@ -26216,7 +26460,7 @@
       </c>
       <c r="G14" s="33">
         <f t="shared" si="1"/>
-        <v>33521.700000000026</v>
+        <v>11897.160000000025</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="44" t="s">
@@ -26249,11 +26493,11 @@
       </c>
       <c r="C15" s="33">
         <f>SUM(C3:C14)</f>
-        <v>-794003.64000000013</v>
+        <v>-815628.17999999993</v>
       </c>
       <c r="D15" s="33">
         <f>B15+C15</f>
-        <v>-185339.64000000013</v>
+        <v>-206964.17999999993</v>
       </c>
       <c r="E15" s="33">
         <f>SUM(E3:E14)</f>
@@ -26261,11 +26505,11 @@
       </c>
       <c r="F15" s="33">
         <f>SUM(F3:F14)</f>
-        <v>-316588.06000000011</v>
+        <v>-338212.60000000009</v>
       </c>
       <c r="G15" s="33">
         <f>E15+F15</f>
-        <v>33521.699999999895</v>
+        <v>11897.159999999916</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="48"/>
@@ -26296,7 +26540,7 @@
       </c>
       <c r="C16" s="55">
         <f>C15/A16</f>
-        <v>-66166.970000000016</v>
+        <v>-67969.014999999999</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55">
@@ -26305,11 +26549,11 @@
       </c>
       <c r="F16" s="55">
         <f>F15/A16</f>
-        <v>-26382.338333333344</v>
+        <v>-28184.383333333342</v>
       </c>
       <c r="G16" s="55">
         <f>G15/A16</f>
-        <v>2793.4749999999913</v>
+        <v>991.42999999999302</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="57"/>
@@ -26354,7 +26598,7 @@
         <v>58</v>
       </c>
       <c r="E18" s="2">
-        <f>'01_25'!F32+'02_25'!F14+'02_25'!F26+'03_25'!F19+'04_25'!F41+'05_25'!F22+'06_25'!F19+'06_25'!F31+'04_25'!F15</f>
+        <f>'01_25'!F32+'02_25'!F14+'02_25'!F26+'03_25'!F19+'04_25'!F43+'05_25'!F22+'06_25'!F19+'06_25'!F31+'04_25'!F15</f>
         <v>15000</v>
       </c>
       <c r="J18" s="35"/>

--- a/04-25-Gnlkson.xlsx
+++ b/04-25-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A3CEE-5A1C-423F-BBF0-1FFDE87468FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F529770-491B-4AD2-9B1B-6FFE7AC9B305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_25" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4588" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4608" uniqueCount="1727">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -5510,13 +5510,61 @@
     <t>a101 yıldızeli</t>
   </si>
   <si>
-    <t>euro borç tl karşılığı</t>
-  </si>
-  <si>
     <t>???????</t>
   </si>
   <si>
     <t>BELEDİYE sanayi sayaç 7 taksitler</t>
+  </si>
+  <si>
+    <t>audi motor</t>
+  </si>
+  <si>
+    <t>audi zincir</t>
+  </si>
+  <si>
+    <t>hvl masraf</t>
+  </si>
+  <si>
+    <t>elektrikçi adnan işçilik</t>
+  </si>
+  <si>
+    <t>emrullah - ali demirel istinaf</t>
+  </si>
+  <si>
+    <t>audi için  kk toplam</t>
+  </si>
+  <si>
+    <t>audi zincir iş havale</t>
+  </si>
+  <si>
+    <t>audi motor iş havale</t>
+  </si>
+  <si>
+    <t>elektrikçi adnan işçilik iş havale</t>
+  </si>
+  <si>
+    <t>audi toplam masraf</t>
+  </si>
+  <si>
+    <t>motor nakliye</t>
+  </si>
+  <si>
+    <t>motor işçilik</t>
+  </si>
+  <si>
+    <t>audi toplam masraf nisan ayı kk hesabı altında</t>
+  </si>
+  <si>
+    <t>euro borç tl karşılığı rum kesimi mrkt khv</t>
+  </si>
+  <si>
+    <t>akü 6*625</t>
+  </si>
+  <si>
+    <t>audi</t>
+  </si>
+  <si>
+    <t>nisan d86</t>
   </si>
 </sst>
 </file>
@@ -6609,7 +6657,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="464">
+  <cellXfs count="478">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7223,7 +7271,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7251,7 +7313,7 @@
     <cellStyle name="Warning 21" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Yüzde" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
     <dxf>
       <font>
         <b/>
@@ -7285,6 +7347,19 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <numFmt numFmtId="192" formatCode="0.00;[Red]0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79989013336588644"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8034,10 +8109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -8108,7 +8183,7 @@
       </c>
       <c r="E7" s="423"/>
       <c r="F7" s="2">
-        <f t="shared" ref="F7:F17" si="0">F6+D7-E7</f>
+        <f t="shared" ref="F7:F19" si="0">F6+D7-E7</f>
         <v>277330</v>
       </c>
     </row>
@@ -8191,166 +8266,200 @@
         <v>195330</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>45762</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>1594</v>
+    <row r="13" spans="1:6" s="11" customFormat="1">
+      <c r="A13" s="10">
+        <v>45741</v>
+      </c>
+      <c r="B13" s="393" t="s">
+        <v>205</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="12"/>
+      <c r="E13" s="12">
+        <v>36000</v>
+      </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>195330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>45792</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="12"/>
+        <v>159330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="11" customFormat="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="393" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D14" s="12">
+        <f>'04_25'!D87</f>
+        <v>141100</v>
+      </c>
       <c r="F14" s="12">
         <f t="shared" si="0"/>
-        <v>195330</v>
+        <v>300430</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>45823</v>
+        <v>45762</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="12"/>
       <c r="F15" s="12">
-        <f t="shared" si="0"/>
-        <v>195330</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" thickBot="1">
+        <f>F14+D15-E15</f>
+        <v>300430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>45853</v>
+        <v>45792</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="12"/>
       <c r="F16" s="12">
         <f t="shared" si="0"/>
-        <v>195330</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="13"/>
-      <c r="F17" s="389">
-        <f t="shared" si="0"/>
-        <v>195330</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" ht="13.5" thickBot="1">
-      <c r="E18" s="15"/>
-      <c r="F18" s="16" t="s">
+        <v>300430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="12"/>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>300430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A18" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="12"/>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>300430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="E19" s="13"/>
+      <c r="F19" s="389">
+        <f t="shared" si="0"/>
+        <v>300430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" thickBot="1">
+      <c r="E20" s="15"/>
+      <c r="F20" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="8" t="s">
+    <row r="39" spans="2:6">
+      <c r="B39" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="F39" s="2">
-        <f t="shared" ref="F39:F44" si="1">F38+D39-E39</f>
+    <row r="41" spans="2:6">
+      <c r="F41" s="2">
+        <f t="shared" ref="F41:F46" si="1">F40+D41-E41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="8" t="s">
+    <row r="42" spans="2:6">
+      <c r="B42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D42" s="2">
         <v>50000</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F42" s="2">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="8" t="s">
+    <row r="43" spans="2:6">
+      <c r="B43" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D43" s="2">
         <v>140000</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F43" s="2">
         <f t="shared" si="1"/>
         <v>190000</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="8" t="s">
+    <row r="44" spans="2:6">
+      <c r="B44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D44" s="2">
         <v>195000</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F44" s="2">
         <f t="shared" si="1"/>
         <v>385000</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="8" t="s">
+    <row r="45" spans="2:6">
+      <c r="B45" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E45" s="2">
         <v>310000</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F45" s="2">
         <f t="shared" si="1"/>
         <v>75000</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="3" t="s">
+    <row r="46" spans="2:6">
+      <c r="B46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17">
+      <c r="C46" s="3"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17">
         <f t="shared" si="1"/>
         <v>75000</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="3" t="s">
+    <row r="47" spans="2:6">
+      <c r="B47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="17" t="e">
-        <f>#REF!-F43</f>
+      <c r="C47" s="3"/>
+      <c r="D47" s="17" t="e">
+        <f>#REF!-F45</f>
         <v>#REF!</v>
       </c>
-      <c r="F45" s="2" t="e">
-        <f>F43+D45-E45</f>
+      <c r="F47" s="2" t="e">
+        <f>F45+D47-E47</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
-      <c r="E46" s="18" t="s">
+    <row r="48" spans="2:6">
+      <c r="E48" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="17" t="e">
-        <f>F45</f>
+      <c r="F48" s="17" t="e">
+        <f>F47</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -8371,7 +8480,7 @@
   </sheetPr>
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -9263,10 +9372,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -9302,24 +9411,24 @@
         <v>67</v>
       </c>
       <c r="D2" s="77">
-        <f>SUM(D4:D32)</f>
+        <f>SUM(D4:D31)</f>
         <v>15000</v>
       </c>
       <c r="E2" s="77">
-        <f>SUM(E4:E32)</f>
+        <f>SUM(E4:E31)</f>
         <v>-188900.93</v>
       </c>
       <c r="F2" s="77">
-        <f>SUM(F4:F32)</f>
+        <f>SUM(F4:F31)</f>
         <v>0</v>
       </c>
       <c r="G2" s="77">
-        <f>SUM(G4:G32)</f>
-        <v>-142603.87</v>
+        <f>SUM(G4:G31)</f>
+        <v>-162433.87</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-142603.87</v>
+        <v>-162433.87</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9328,220 +9437,256 @@
     <row r="4" spans="1:10">
       <c r="B4" s="41"/>
       <c r="H4" s="77">
-        <f t="shared" ref="H4:H31" si="0">H3+F4+G4</f>
+        <f>H3+F4+G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="41"/>
-      <c r="H5" s="77">
-        <f t="shared" si="0"/>
+      <c r="A5" s="433"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90">
+        <f t="shared" ref="H5:H15" si="0">H4+F5+G5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="463"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="H6" s="77">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A6" s="433">
+        <v>45748</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="99"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90">
+        <v>-2117.06</v>
+      </c>
+      <c r="G6" s="90">
+        <v>-2117</v>
+      </c>
+      <c r="H6" s="90">
+        <f t="shared" si="0"/>
+        <v>-2117</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="463"/>
-      <c r="B7" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86">
-        <f>E35</f>
-        <v>-122650.69</v>
-      </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87">
-        <f>E7</f>
-        <v>-122650.69</v>
-      </c>
-      <c r="H7" s="77">
-        <f t="shared" si="0"/>
-        <v>-122650.69</v>
+      <c r="A7" s="473">
+        <v>45749</v>
+      </c>
+      <c r="B7" s="474" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C7" s="441"/>
+      <c r="D7" s="406"/>
+      <c r="E7" s="406"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90">
+        <v>-213</v>
+      </c>
+      <c r="H7" s="90">
+        <f t="shared" si="0"/>
+        <v>-2330</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="463"/>
-      <c r="B8" s="81" t="s">
+      <c r="A8" s="473">
+        <v>45750</v>
+      </c>
+      <c r="B8" s="474" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86">
-        <f>E52</f>
+      <c r="C8" s="441"/>
+      <c r="D8" s="406"/>
+      <c r="E8" s="406">
+        <f>E51</f>
         <v>-19953.18</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87">
+      <c r="F8" s="90"/>
+      <c r="G8" s="90">
         <f>E8</f>
         <v>-19953.18</v>
       </c>
-      <c r="H8" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
+      <c r="H8" s="90">
+        <f t="shared" si="0"/>
+        <v>-22283.18</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="G9" s="87"/>
-      <c r="H9" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
+      <c r="A9" s="473">
+        <v>45723</v>
+      </c>
+      <c r="B9" s="474" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="441"/>
+      <c r="D9" s="406"/>
+      <c r="E9" s="406">
+        <f>E34</f>
+        <v>-122650.69</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90">
+        <f>E9</f>
+        <v>-122650.69</v>
+      </c>
+      <c r="H9" s="90">
+        <f t="shared" si="0"/>
+        <v>-144933.87</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="89"/>
+      <c r="A10" s="433">
+        <v>45754</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C10" s="99"/>
       <c r="D10" s="90"/>
       <c r="E10" s="90">
-        <v>-2117.06</v>
-      </c>
-      <c r="H10" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
+        <v>-17500</v>
+      </c>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90">
+        <v>-17500</v>
+      </c>
+      <c r="H10" s="90">
+        <f t="shared" si="0"/>
+        <v>-162433.87</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="89" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C11" s="89"/>
+      <c r="A11" s="433"/>
+      <c r="B11" s="178" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="92"/>
       <c r="D11" s="90"/>
       <c r="E11" s="90">
-        <v>-17500</v>
-      </c>
-      <c r="H11" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90">
+        <f t="shared" si="0"/>
+        <v>-162433.87</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="91" t="s">
-        <v>72</v>
-      </c>
+      <c r="B12" s="92"/>
       <c r="C12" s="92"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="90">
-        <v>0</v>
-      </c>
-      <c r="H12" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="H13" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
-      </c>
+      <c r="E12" s="90"/>
+      <c r="H12" s="90">
+        <f t="shared" si="0"/>
+        <v>-162433.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="78" customFormat="1">
+      <c r="A13" s="98"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="90">
+        <f t="shared" si="0"/>
+        <v>-162433.87</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
     </row>
     <row r="14" spans="1:10" s="78" customFormat="1">
       <c r="A14" s="98"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
+      <c r="B14" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="93"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90">
+        <v>-1000</v>
+      </c>
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
-      <c r="H14" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14"/>
+      <c r="H14" s="90">
+        <f t="shared" si="0"/>
+        <v>-162433.87</v>
+      </c>
     </row>
     <row r="15" spans="1:10" s="78" customFormat="1">
       <c r="A15" s="98"/>
       <c r="B15" s="93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="93"/>
       <c r="D15" s="90"/>
       <c r="E15" s="90">
-        <v>-1000</v>
+        <v>-200</v>
       </c>
       <c r="F15" s="77"/>
       <c r="G15" s="77"/>
-      <c r="H15" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
+      <c r="H15" s="90">
+        <f t="shared" si="0"/>
+        <v>-162433.87</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="78" customFormat="1">
       <c r="A16" s="98"/>
-      <c r="B16" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90">
-        <v>-200</v>
-      </c>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
-      <c r="H16" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="78" customFormat="1">
+      <c r="H16" s="90">
+        <f t="shared" ref="H16:H30" si="1">H15+F16+G16</f>
+        <v>-162433.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="78" customFormat="1">
       <c r="A17" s="98"/>
-      <c r="B17" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90">
-        <v>-200</v>
-      </c>
+      <c r="B17" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="90">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="90"/>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
       <c r="H17" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="78" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
+      </c>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="96"/>
+    </row>
+    <row r="18" spans="1:14" s="78" customFormat="1">
       <c r="A18" s="98"/>
       <c r="B18" s="92" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="92"/>
-      <c r="D18" s="90">
-        <v>15000</v>
-      </c>
-      <c r="E18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90">
+        <v>-7500</v>
+      </c>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
       <c r="H18" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="94"/>
       <c r="L18" s="95"/>
       <c r="M18" s="96"/>
     </row>
-    <row r="19" spans="1:13" s="78" customFormat="1">
+    <row r="19" spans="1:14" s="78" customFormat="1">
       <c r="A19" s="98"/>
       <c r="B19" s="92" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" s="92"/>
       <c r="D19" s="90"/>
@@ -9551,18 +9696,18 @@
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
       <c r="H19" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
       </c>
       <c r="J19" s="94"/>
       <c r="K19" s="94"/>
       <c r="L19" s="95"/>
       <c r="M19" s="96"/>
     </row>
-    <row r="20" spans="1:13" s="78" customFormat="1">
+    <row r="20" spans="1:14" s="78" customFormat="1">
       <c r="A20" s="98"/>
       <c r="B20" s="92" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="92"/>
       <c r="D20" s="90"/>
@@ -9572,252 +9717,246 @@
       <c r="F20" s="77"/>
       <c r="G20" s="77"/>
       <c r="H20" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
       </c>
       <c r="J20" s="94"/>
       <c r="K20" s="94"/>
       <c r="L20" s="95"/>
       <c r="M20" s="96"/>
     </row>
-    <row r="21" spans="1:13" s="78" customFormat="1">
+    <row r="21" spans="1:14" s="78" customFormat="1">
       <c r="A21" s="98"/>
-      <c r="B21" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90">
-        <v>-7500</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
       <c r="H21" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="94"/>
       <c r="L21" s="95"/>
       <c r="M21" s="96"/>
     </row>
-    <row r="22" spans="1:13" s="78" customFormat="1">
+    <row r="22" spans="1:14" s="78" customFormat="1">
       <c r="A22" s="98"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
+      <c r="B22" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="99"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90">
+        <v>-200</v>
+      </c>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
       <c r="H22" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="94"/>
       <c r="L22" s="95"/>
       <c r="M22" s="96"/>
     </row>
-    <row r="23" spans="1:13" s="78" customFormat="1">
-      <c r="A23" s="98"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
+    <row r="23" spans="1:14" s="78" customFormat="1">
+      <c r="A23" s="98">
+        <v>45776</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77">
+        <v>-1380</v>
+      </c>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
       <c r="H23" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
       <c r="L23" s="95"/>
       <c r="M23" s="96"/>
     </row>
-    <row r="24" spans="1:13" s="78" customFormat="1">
-      <c r="A24" s="98">
-        <v>45776</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>99</v>
-      </c>
+    <row r="24" spans="1:14" s="78" customFormat="1">
+      <c r="A24" s="98"/>
+      <c r="B24" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="99"/>
       <c r="D24" s="77"/>
       <c r="E24" s="77">
-        <v>-1380</v>
+        <v>-600</v>
       </c>
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
       <c r="H24" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
       <c r="L24" s="95"/>
       <c r="M24" s="96"/>
     </row>
-    <row r="25" spans="1:13" s="78" customFormat="1">
+    <row r="25" spans="1:14" s="78" customFormat="1">
       <c r="A25" s="98"/>
       <c r="B25" s="99" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="99"/>
       <c r="D25" s="77"/>
       <c r="E25" s="77">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
       <c r="H25" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
       <c r="L25" s="95"/>
       <c r="M25" s="96"/>
     </row>
-    <row r="26" spans="1:13" s="78" customFormat="1">
+    <row r="26" spans="1:14" s="78" customFormat="1">
       <c r="A26" s="98"/>
-      <c r="B26" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="99"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="77"/>
-      <c r="E26" s="77">
-        <v>-800</v>
-      </c>
+      <c r="E26" s="77"/>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
       <c r="H26" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
-      </c>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="96"/>
-    </row>
-    <row r="27" spans="1:13" s="78" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="78" customFormat="1">
       <c r="A27" s="98"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
       <c r="D27" s="77"/>
       <c r="E27" s="77"/>
       <c r="F27" s="77"/>
       <c r="G27" s="77"/>
       <c r="H27" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="78" customFormat="1">
-      <c r="A28" s="98"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="101"/>
       <c r="H28" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="B29" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="101"/>
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
+      </c>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="H29" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
-      </c>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-    </row>
-    <row r="30" spans="1:13">
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="H30" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="H31" s="77">
-        <f t="shared" si="0"/>
-        <v>-142603.87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="78" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>-162433.87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="78" customFormat="1">
+      <c r="A31" s="98"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:14" s="77" customFormat="1">
       <c r="A32" s="98"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32"/>
-      <c r="J32"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
     </row>
     <row r="33" spans="1:14" s="77" customFormat="1">
-      <c r="A33" s="98"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
+      <c r="A33" s="433"/>
+      <c r="B33" s="102"/>
       <c r="K33" s="78"/>
       <c r="L33" s="78"/>
       <c r="M33" s="78"/>
       <c r="N33" s="78"/>
     </row>
-    <row r="34" spans="1:14" s="77" customFormat="1">
-      <c r="A34" s="433"/>
-      <c r="B34" s="102"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="434"/>
-      <c r="B35" s="104" t="s">
+    <row r="34" spans="1:14">
+      <c r="A34" s="434"/>
+      <c r="B34" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="E35" s="77">
-        <f>SUM(E37:E46)</f>
+      <c r="C34" s="103"/>
+      <c r="E34" s="77">
+        <f>SUM(E36:E45)</f>
         <v>-122650.69</v>
       </c>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-    </row>
-    <row r="36" spans="1:14" s="77" customFormat="1">
-      <c r="A36" s="98"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="I36"/>
-      <c r="J36"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+    </row>
+    <row r="35" spans="1:14" s="77" customFormat="1">
+      <c r="A35" s="98"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+    </row>
+    <row r="36" spans="1:14" s="90" customFormat="1">
+      <c r="A36" s="98">
+        <v>45713</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E36" s="90">
+        <v>-291.36</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="78"/>
       <c r="L36" s="78"/>
       <c r="M36" s="78"/>
       <c r="N36" s="78"/>
     </row>
     <row r="37" spans="1:14" s="90" customFormat="1">
-      <c r="A37" s="98">
-        <v>45713</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>1709</v>
-      </c>
-      <c r="E37" s="90">
-        <v>-291.36</v>
-      </c>
+      <c r="A37" s="98"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="78"/>
@@ -9825,12 +9964,22 @@
       <c r="M37" s="78"/>
       <c r="N37" s="78"/>
     </row>
-    <row r="38" spans="1:14" s="90" customFormat="1">
-      <c r="A38" s="98"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+    <row r="38" spans="1:14" s="77" customFormat="1">
+      <c r="A38" s="98">
+        <v>45715</v>
+      </c>
+      <c r="B38" s="90" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C38" s="90">
+        <v>5938.68</v>
+      </c>
+      <c r="D38" s="90" t="s">
+        <v>665</v>
+      </c>
+      <c r="E38" s="90">
+        <v>-989.78</v>
+      </c>
       <c r="K38" s="78"/>
       <c r="L38" s="78"/>
       <c r="M38" s="78"/>
@@ -9838,19 +9987,13 @@
     </row>
     <row r="39" spans="1:14" s="77" customFormat="1">
       <c r="A39" s="98">
-        <v>45715</v>
-      </c>
-      <c r="B39" s="90" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C39" s="90">
-        <v>5938.68</v>
-      </c>
-      <c r="D39" s="90" t="s">
-        <v>665</v>
-      </c>
-      <c r="E39" s="90">
-        <v>-989.78</v>
+        <v>45716</v>
+      </c>
+      <c r="B39" s="77" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E39" s="77">
+        <v>-1023.05</v>
       </c>
       <c r="K39" s="78"/>
       <c r="L39" s="78"/>
@@ -9861,78 +10004,72 @@
       <c r="A40" s="98">
         <v>45716</v>
       </c>
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="90" t="s">
         <v>1680</v>
       </c>
       <c r="E40" s="77">
-        <v>-1023.05</v>
+        <v>-118966.5</v>
       </c>
       <c r="K40" s="78"/>
       <c r="L40" s="78"/>
       <c r="M40" s="78"/>
       <c r="N40" s="78"/>
     </row>
-    <row r="41" spans="1:14" s="77" customFormat="1">
+    <row r="41" spans="1:14">
       <c r="A41" s="98">
         <v>45716</v>
       </c>
       <c r="B41" s="90" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E41" s="77">
-        <v>-118966.5</v>
-      </c>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="98">
-        <v>45716</v>
-      </c>
-      <c r="B42" s="90" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90">
+        <v>1709</v>
+      </c>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90">
         <v>-1380</v>
       </c>
-      <c r="F42" s="90"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-    </row>
-    <row r="43" spans="1:14" s="77" customFormat="1">
-      <c r="A43" s="433">
+      <c r="F41" s="90"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+    </row>
+    <row r="42" spans="1:14" s="77" customFormat="1">
+      <c r="A42" s="433">
         <v>45723</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="B42" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="77">
+      <c r="D42" s="77">
         <v>19043.61</v>
       </c>
-      <c r="I43"/>
-      <c r="J43"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+    </row>
+    <row r="43" spans="1:14" s="77" customFormat="1" ht="15">
+      <c r="A43" s="98"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="E43" s="105" t="s">
+        <v>84</v>
+      </c>
       <c r="K43" s="78"/>
       <c r="L43" s="78"/>
       <c r="M43" s="78"/>
       <c r="N43" s="78"/>
     </row>
-    <row r="44" spans="1:14" s="77" customFormat="1" ht="15">
-      <c r="A44" s="98"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="E44" s="105" t="s">
-        <v>84</v>
-      </c>
+    <row r="44" spans="1:14" s="77" customFormat="1">
       <c r="K44" s="78"/>
       <c r="L44" s="78"/>
       <c r="M44" s="78"/>
       <c r="N44" s="78"/>
     </row>
     <row r="45" spans="1:14" s="77" customFormat="1">
+      <c r="A45" s="98"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="106"/>
       <c r="K45" s="78"/>
       <c r="L45" s="78"/>
       <c r="M45" s="78"/>
@@ -9950,7 +10087,6 @@
     <row r="47" spans="1:14" s="77" customFormat="1">
       <c r="A47" s="98"/>
       <c r="B47" s="107"/>
-      <c r="C47" s="106"/>
       <c r="K47" s="78"/>
       <c r="L47" s="78"/>
       <c r="M47" s="78"/>
@@ -9959,48 +10095,46 @@
     <row r="48" spans="1:14" s="77" customFormat="1">
       <c r="A48" s="98"/>
       <c r="B48" s="107"/>
+      <c r="C48" s="106"/>
       <c r="K48" s="78"/>
       <c r="L48" s="78"/>
       <c r="M48" s="78"/>
       <c r="N48" s="78"/>
     </row>
     <row r="49" spans="1:14" s="77" customFormat="1">
-      <c r="A49" s="98"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="106"/>
       <c r="K49" s="78"/>
       <c r="L49" s="78"/>
       <c r="M49" s="78"/>
       <c r="N49" s="78"/>
     </row>
     <row r="50" spans="1:14" s="77" customFormat="1">
+      <c r="A50" s="98"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
       <c r="K50" s="78"/>
       <c r="L50" s="78"/>
       <c r="M50" s="78"/>
       <c r="N50" s="78"/>
     </row>
     <row r="51" spans="1:14" s="77" customFormat="1">
-      <c r="A51" s="98"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
+      <c r="A51" s="434"/>
+      <c r="B51" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="103"/>
+      <c r="E51" s="77">
+        <f>SUM(E52:E75)</f>
+        <v>-19953.18</v>
+      </c>
       <c r="K51" s="78"/>
       <c r="L51" s="78"/>
       <c r="M51" s="78"/>
       <c r="N51" s="78"/>
     </row>
     <row r="52" spans="1:14" s="77" customFormat="1">
-      <c r="A52" s="434"/>
-      <c r="B52" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="103"/>
-      <c r="E52" s="77">
-        <f>SUM(E53:E76)</f>
-        <v>-19953.18</v>
-      </c>
-      <c r="F52" s="77">
-        <v>19953.18</v>
-      </c>
+      <c r="A52" s="98"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="106"/>
       <c r="K52" s="78"/>
       <c r="L52" s="78"/>
       <c r="M52" s="78"/>
@@ -10010,62 +10144,67 @@
       <c r="A53" s="98"/>
       <c r="B53" s="106"/>
       <c r="C53" s="106"/>
-      <c r="F53" s="77">
-        <f>F52+E52</f>
-        <v>0</v>
-      </c>
       <c r="K53" s="78"/>
       <c r="L53" s="78"/>
       <c r="M53" s="78"/>
       <c r="N53" s="78"/>
     </row>
     <row r="54" spans="1:14" s="77" customFormat="1">
-      <c r="A54" s="98"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="106"/>
       <c r="K54" s="78"/>
       <c r="L54" s="78"/>
       <c r="M54" s="78"/>
       <c r="N54" s="78"/>
     </row>
     <row r="55" spans="1:14" s="77" customFormat="1">
+      <c r="A55" s="98">
+        <v>45728</v>
+      </c>
+      <c r="B55" s="90" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55" s="77" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E55" s="77">
+        <v>-625</v>
+      </c>
       <c r="K55" s="78"/>
       <c r="L55" s="78"/>
       <c r="M55" s="78"/>
       <c r="N55" s="78"/>
     </row>
     <row r="56" spans="1:14" s="77" customFormat="1">
-      <c r="A56" s="98">
-        <v>45728</v>
+      <c r="A56" s="433">
+        <v>45692</v>
       </c>
       <c r="B56" s="90" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C56"/>
-      <c r="D56" s="77" t="s">
-        <v>1696</v>
-      </c>
-      <c r="E56" s="77">
-        <v>-625</v>
+        <v>1670</v>
+      </c>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90" t="s">
+        <v>996</v>
+      </c>
+      <c r="E56" s="90">
+        <v>-600.13</v>
       </c>
       <c r="K56" s="78"/>
       <c r="L56" s="78"/>
       <c r="M56" s="78"/>
       <c r="N56" s="78"/>
     </row>
-    <row r="57" spans="1:14" s="77" customFormat="1">
+    <row r="57" spans="1:14" s="90" customFormat="1">
       <c r="A57" s="433">
         <v>45692</v>
       </c>
       <c r="B57" s="90" t="s">
         <v>1670</v>
       </c>
-      <c r="C57" s="90"/>
       <c r="D57" s="90" t="s">
         <v>996</v>
       </c>
       <c r="E57" s="90">
-        <v>-600.13</v>
+        <v>-2500.3000000000002</v>
       </c>
       <c r="K57" s="78"/>
       <c r="L57" s="78"/>
@@ -10073,27 +10212,24 @@
       <c r="N57" s="78"/>
     </row>
     <row r="58" spans="1:14" s="90" customFormat="1">
-      <c r="A58" s="433">
-        <v>45692</v>
-      </c>
-      <c r="B58" s="90" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D58" s="90" t="s">
-        <v>996</v>
-      </c>
-      <c r="E58" s="90">
-        <v>-2500.3000000000002</v>
-      </c>
+      <c r="A58" s="98"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="106"/>
       <c r="K58" s="78"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
       <c r="N58" s="78"/>
     </row>
-    <row r="59" spans="1:14" s="90" customFormat="1">
-      <c r="A59" s="98"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="106"/>
+    <row r="59" spans="1:14" s="77" customFormat="1">
+      <c r="A59" s="98">
+        <v>45737</v>
+      </c>
+      <c r="B59" s="77" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E59" s="77">
+        <v>-2350</v>
+      </c>
       <c r="K59" s="78"/>
       <c r="L59" s="78"/>
       <c r="M59" s="78"/>
@@ -10104,10 +10240,10 @@
         <v>45737</v>
       </c>
       <c r="B60" s="77" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="E60" s="77">
-        <v>-2350</v>
+        <v>-1800</v>
       </c>
       <c r="K60" s="78"/>
       <c r="L60" s="78"/>
@@ -10116,13 +10252,14 @@
     </row>
     <row r="61" spans="1:14" s="77" customFormat="1">
       <c r="A61" s="98">
-        <v>45737</v>
-      </c>
-      <c r="B61" s="77" t="s">
-        <v>1698</v>
-      </c>
+        <v>45714</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C61" s="106"/>
       <c r="E61" s="77">
-        <v>-1800</v>
+        <v>-80</v>
       </c>
       <c r="K61" s="78"/>
       <c r="L61" s="78"/>
@@ -10131,14 +10268,14 @@
     </row>
     <row r="62" spans="1:14" s="77" customFormat="1">
       <c r="A62" s="98">
-        <v>45714</v>
+        <v>45716</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1620</v>
+        <v>1699</v>
       </c>
       <c r="C62" s="106"/>
       <c r="E62" s="77">
-        <v>-80</v>
+        <v>-120</v>
       </c>
       <c r="K62" s="78"/>
       <c r="L62" s="78"/>
@@ -10149,12 +10286,11 @@
       <c r="A63" s="98">
         <v>45716</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C63" s="106"/>
+      <c r="B63" s="77" t="s">
+        <v>1620</v>
+      </c>
       <c r="E63" s="77">
-        <v>-120</v>
+        <v>-360</v>
       </c>
       <c r="K63" s="78"/>
       <c r="L63" s="78"/>
@@ -10162,14 +10298,14 @@
       <c r="N63" s="78"/>
     </row>
     <row r="64" spans="1:14" s="77" customFormat="1">
-      <c r="A64" s="98">
-        <v>45716</v>
+      <c r="A64" s="433">
+        <v>45717</v>
       </c>
       <c r="B64" s="77" t="s">
-        <v>1620</v>
+        <v>1700</v>
       </c>
       <c r="E64" s="77">
-        <v>-360</v>
+        <v>-500</v>
       </c>
       <c r="K64" s="78"/>
       <c r="L64" s="78"/>
@@ -10177,40 +10313,44 @@
       <c r="N64" s="78"/>
     </row>
     <row r="65" spans="1:14" s="77" customFormat="1">
-      <c r="A65" s="433">
-        <v>45717</v>
-      </c>
-      <c r="B65" s="77" t="s">
-        <v>1700</v>
-      </c>
-      <c r="E65" s="77">
-        <v>-500</v>
+      <c r="A65" s="98">
+        <v>45721</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="106"/>
+      <c r="D65" s="77">
+        <v>14628.183000000001</v>
       </c>
       <c r="K65" s="78"/>
       <c r="L65" s="78"/>
       <c r="M65" s="78"/>
       <c r="N65" s="78"/>
     </row>
-    <row r="66" spans="1:14" s="77" customFormat="1">
-      <c r="A66" s="98">
-        <v>45721</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>130</v>
-      </c>
+    <row r="66" spans="1:14" s="77" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A66" s="98"/>
+      <c r="B66" s="3"/>
       <c r="C66" s="106"/>
-      <c r="D66" s="77">
-        <v>14628.183000000001</v>
-      </c>
       <c r="K66" s="78"/>
       <c r="L66" s="78"/>
       <c r="M66" s="78"/>
       <c r="N66" s="78"/>
     </row>
     <row r="67" spans="1:14" s="77" customFormat="1">
-      <c r="A67" s="98"/>
-      <c r="B67" s="3"/>
+      <c r="A67" s="98">
+        <v>45728</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1701</v>
+      </c>
       <c r="C67" s="106"/>
+      <c r="D67" s="464">
+        <v>1400</v>
+      </c>
+      <c r="E67" s="77">
+        <v>-1400</v>
+      </c>
       <c r="K67" s="78"/>
       <c r="L67" s="78"/>
       <c r="M67" s="78"/>
@@ -10221,11 +10361,14 @@
         <v>45728</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C68" s="106"/>
+      <c r="D68" s="465">
+        <v>4150</v>
+      </c>
       <c r="E68" s="77">
-        <v>-1400</v>
+        <v>-4150</v>
       </c>
       <c r="K68" s="78"/>
       <c r="L68" s="78"/>
@@ -10234,14 +10377,17 @@
     </row>
     <row r="69" spans="1:14" s="77" customFormat="1">
       <c r="A69" s="98">
-        <v>45728</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>1702</v>
+        <v>45733</v>
+      </c>
+      <c r="B69" s="92" t="s">
+        <v>1703</v>
       </c>
       <c r="C69" s="106"/>
+      <c r="D69" s="465">
+        <v>2500</v>
+      </c>
       <c r="E69" s="77">
-        <v>-4150</v>
+        <v>-2500</v>
       </c>
       <c r="K69" s="78"/>
       <c r="L69" s="78"/>
@@ -10252,12 +10398,15 @@
       <c r="A70" s="98">
         <v>45733</v>
       </c>
-      <c r="B70" s="92" t="s">
-        <v>1703</v>
+      <c r="B70" s="3" t="s">
+        <v>1704</v>
       </c>
       <c r="C70" s="106"/>
+      <c r="D70" s="465">
+        <v>1400</v>
+      </c>
       <c r="E70" s="77">
-        <v>-2500</v>
+        <v>-1400</v>
       </c>
       <c r="K70" s="78"/>
       <c r="L70" s="78"/>
@@ -10266,14 +10415,17 @@
     </row>
     <row r="71" spans="1:14" s="77" customFormat="1">
       <c r="A71" s="98">
-        <v>45733</v>
+        <v>45739</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C71" s="106"/>
+      <c r="D71" s="465">
+        <v>1200</v>
+      </c>
       <c r="E71" s="77">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="K71" s="78"/>
       <c r="L71" s="78"/>
@@ -10285,11 +10437,12 @@
         <v>45739</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C72" s="106"/>
+      <c r="D72" s="465"/>
       <c r="E72" s="77">
-        <v>-1000</v>
+        <v>-550</v>
       </c>
       <c r="K72" s="78"/>
       <c r="L72" s="78"/>
@@ -10297,42 +10450,153 @@
       <c r="N72" s="78"/>
     </row>
     <row r="73" spans="1:14" s="77" customFormat="1">
-      <c r="A73" s="98">
-        <v>45739</v>
-      </c>
+      <c r="A73" s="98"/>
       <c r="B73" s="3" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C73" s="106"/>
+        <v>1707</v>
+      </c>
+      <c r="D73" s="465"/>
       <c r="E73" s="77">
-        <v>-550</v>
+        <v>-17.75</v>
       </c>
       <c r="K73" s="78"/>
       <c r="L73" s="78"/>
       <c r="M73" s="78"/>
       <c r="N73" s="78"/>
     </row>
-    <row r="74" spans="1:14" s="77" customFormat="1">
-      <c r="A74" s="98"/>
-      <c r="B74" s="3" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E74" s="77">
-        <v>-17.75</v>
-      </c>
-      <c r="K74" s="78"/>
-      <c r="L74" s="78"/>
-      <c r="M74" s="78"/>
-      <c r="N74" s="78"/>
-    </row>
-    <row r="75" spans="1:14" ht="15">
-      <c r="B75" s="3"/>
-      <c r="C75" s="106"/>
-      <c r="E75" s="105" t="s">
+    <row r="74" spans="1:14" ht="15">
+      <c r="B74" s="3"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="465"/>
+      <c r="E74" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="I75" s="77"/>
-      <c r="J75" s="77"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="77"/>
+    </row>
+    <row r="75" spans="1:14" ht="13.5" thickBot="1">
+      <c r="D75" s="465"/>
+    </row>
+    <row r="76" spans="1:14" ht="13.5" thickBot="1">
+      <c r="B76" s="468" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C76" s="151"/>
+      <c r="D76" s="117">
+        <f>SUM(D67:D75)</f>
+        <v>10650</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="463">
+        <v>45740</v>
+      </c>
+      <c r="B77" s="408" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C77" s="408"/>
+      <c r="D77" s="470">
+        <v>8500</v>
+      </c>
+      <c r="E77" s="406"/>
+      <c r="F77" s="406"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="463">
+        <v>45740</v>
+      </c>
+      <c r="B78" s="408" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C78" s="408"/>
+      <c r="D78" s="471">
+        <v>90000</v>
+      </c>
+      <c r="E78" s="406"/>
+      <c r="F78" s="406"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="463">
+        <v>45728</v>
+      </c>
+      <c r="B79" s="408" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C79" s="408"/>
+      <c r="D79" s="471">
+        <v>1500</v>
+      </c>
+      <c r="E79" s="406"/>
+      <c r="F79" s="406"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="B80" s="472" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D80" s="465">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="B81" s="475" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C81" s="476"/>
+      <c r="D81" s="477">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="B82" s="475" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C82" s="476"/>
+      <c r="D82" s="477">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="11" customFormat="1">
+      <c r="A83" s="98"/>
+      <c r="B83" s="475"/>
+      <c r="C83" s="476"/>
+      <c r="D83" s="477"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="90"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="90"/>
+      <c r="K83" s="78"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="78"/>
+      <c r="N83" s="78"/>
+    </row>
+    <row r="84" spans="1:14" s="11" customFormat="1">
+      <c r="A84" s="98"/>
+      <c r="B84" s="475"/>
+      <c r="C84" s="476"/>
+      <c r="D84" s="477"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
+      <c r="G84" s="90"/>
+      <c r="H84" s="90"/>
+      <c r="K84" s="78"/>
+      <c r="L84" s="78"/>
+      <c r="M84" s="78"/>
+      <c r="N84" s="78"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="D85" s="465"/>
+    </row>
+    <row r="86" spans="1:14" ht="13.5" thickBot="1">
+      <c r="D86" s="466"/>
+    </row>
+    <row r="87" spans="1:14" ht="13.5" thickBot="1">
+      <c r="B87" s="468" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C87" s="469"/>
+      <c r="D87" s="467">
+        <f>SUM(D76:D86)</f>
+        <v>141100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
@@ -10349,10 +10613,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -10389,24 +10653,24 @@
         <v>67</v>
       </c>
       <c r="D2" s="77">
-        <f>SUM(D4:D33)</f>
+        <f>SUM(D4:D34)</f>
         <v>30000</v>
       </c>
       <c r="E2" s="77">
-        <f>SUM(E4:E33)</f>
+        <f>SUM(E4:E34)</f>
         <v>-79968.850000000006</v>
       </c>
       <c r="F2" s="77">
-        <f>SUM(F4:F33)</f>
+        <f>SUM(F4:F34)</f>
         <v>0</v>
       </c>
       <c r="G2" s="77">
-        <f>SUM(G4:G33)</f>
-        <v>-36002.019999999997</v>
+        <f>SUM(G4:G38)</f>
+        <v>-159548.84999999998</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-36002.019999999997</v>
+        <v>-159548.84999999998</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -10415,7 +10679,7 @@
     <row r="4" spans="1:14">
       <c r="B4" s="41"/>
       <c r="H4" s="77">
-        <f t="shared" ref="H4:H31" si="0">H3+F4+G4</f>
+        <f t="shared" ref="H4:H35" si="0">H3+F4+G4</f>
         <v>0</v>
       </c>
     </row>
@@ -10510,7 +10774,7 @@
       <c r="C9" s="393"/>
       <c r="D9" s="387"/>
       <c r="E9" s="387">
-        <f>E61</f>
+        <f>E65</f>
         <v>-14628.179999999997</v>
       </c>
       <c r="F9" s="87"/>
@@ -10533,7 +10797,7 @@
       <c r="C10" s="393"/>
       <c r="D10" s="387"/>
       <c r="E10" s="387">
-        <f>E37</f>
+        <f>E41</f>
         <v>-19043.61</v>
       </c>
       <c r="F10" s="87"/>
@@ -10578,99 +10842,121 @@
         <v>-17500</v>
       </c>
       <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
+      <c r="G12" s="87">
+        <v>-17500</v>
+      </c>
       <c r="H12" s="87">
         <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>-53502.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="78" customFormat="1">
+      <c r="A13" s="428">
+        <v>45734</v>
+      </c>
+      <c r="B13" s="411" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="411"/>
+      <c r="D13" s="387"/>
+      <c r="E13" s="387">
+        <v>-1000</v>
+      </c>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87">
+        <v>-2645</v>
+      </c>
       <c r="H13" s="87">
         <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
+        <v>-56147.02</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="78" customFormat="1">
-      <c r="A14" s="98"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
+      <c r="A14" s="428">
+        <v>45733</v>
+      </c>
+      <c r="B14" s="411" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="411"/>
+      <c r="D14" s="387"/>
+      <c r="E14" s="387">
+        <v>-200</v>
+      </c>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87">
+        <v>-25</v>
+      </c>
       <c r="H14" s="87">
         <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14"/>
+        <v>-56172.02</v>
+      </c>
     </row>
     <row r="15" spans="1:14" s="78" customFormat="1">
-      <c r="A15" s="98"/>
-      <c r="B15" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90">
-        <v>-1000</v>
-      </c>
       <c r="F15" s="77"/>
       <c r="G15" s="77"/>
       <c r="H15" s="87">
         <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
+        <v>-56172.02</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="78" customFormat="1">
       <c r="A16" s="98"/>
-      <c r="B16" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90">
-        <v>-200</v>
-      </c>
+      <c r="B16" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="90">
+        <v>15000</v>
+      </c>
+      <c r="E16" s="90"/>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
       <c r="H16" s="87">
         <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
-      </c>
+        <v>-56172.02</v>
+      </c>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="96"/>
     </row>
     <row r="17" spans="1:13" s="78" customFormat="1">
       <c r="A17" s="98"/>
-      <c r="B17" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="89"/>
+      <c r="B17" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="92"/>
       <c r="D17" s="90"/>
       <c r="E17" s="90">
-        <v>-200</v>
+        <v>-7500</v>
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
       <c r="H17" s="87">
         <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
-      </c>
+        <v>-56172.02</v>
+      </c>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="96"/>
     </row>
     <row r="18" spans="1:13" s="78" customFormat="1">
       <c r="A18" s="98"/>
       <c r="B18" s="92" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18" s="92"/>
-      <c r="D18" s="90">
-        <v>15000</v>
-      </c>
-      <c r="E18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90">
+        <v>-7500</v>
+      </c>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
       <c r="H18" s="87">
         <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
+        <v>-56172.02</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="94"/>
@@ -10680,7 +10966,7 @@
     <row r="19" spans="1:13" s="78" customFormat="1">
       <c r="A19" s="98"/>
       <c r="B19" s="92" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C19" s="92"/>
       <c r="D19" s="90"/>
@@ -10691,7 +10977,7 @@
       <c r="G19" s="77"/>
       <c r="H19" s="87">
         <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
+        <v>-56172.02</v>
       </c>
       <c r="J19" s="94"/>
       <c r="K19" s="94"/>
@@ -10700,19 +10986,15 @@
     </row>
     <row r="20" spans="1:13" s="78" customFormat="1">
       <c r="A20" s="98"/>
-      <c r="B20" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90">
-        <v>-7500</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="77"/>
       <c r="G20" s="77"/>
       <c r="H20" s="87">
         <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
+        <v>-56172.02</v>
       </c>
       <c r="J20" s="94"/>
       <c r="K20" s="94"/>
@@ -10721,19 +11003,15 @@
     </row>
     <row r="21" spans="1:13" s="78" customFormat="1">
       <c r="A21" s="98"/>
-      <c r="B21" s="92" t="s">
-        <v>79</v>
-      </c>
+      <c r="B21" s="92"/>
       <c r="C21" s="92"/>
       <c r="D21" s="90"/>
-      <c r="E21" s="90">
-        <v>-7500</v>
-      </c>
+      <c r="E21" s="90"/>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
       <c r="H21" s="87">
         <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
+        <v>-56172.02</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="94"/>
@@ -10741,16 +11019,24 @@
       <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" s="78" customFormat="1">
-      <c r="A22" s="98"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="98">
+        <v>45716</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1605</v>
+      </c>
       <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
+      <c r="E22" s="77">
+        <v>-1380</v>
+      </c>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
-      <c r="H22" s="87">
-        <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
+      <c r="H22" s="77">
+        <f t="shared" si="0"/>
+        <v>-56172.02</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="94"/>
@@ -10759,15 +11045,19 @@
     </row>
     <row r="23" spans="1:13" s="78" customFormat="1">
       <c r="A23" s="98"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
+      <c r="B23" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="99"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77">
+        <v>-600</v>
+      </c>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
-      <c r="H23" s="87">
-        <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
+      <c r="H23" s="77">
+        <f t="shared" si="0"/>
+        <v>-56172.02</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -10775,24 +11065,20 @@
       <c r="M23" s="96"/>
     </row>
     <row r="24" spans="1:13" s="78" customFormat="1">
-      <c r="A24" s="98">
-        <v>45716</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1605</v>
-      </c>
+      <c r="A24" s="98"/>
+      <c r="B24" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="99"/>
       <c r="D24" s="77"/>
       <c r="E24" s="77">
-        <v>-1380</v>
+        <v>-800</v>
       </c>
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
-      <c r="H24" s="77">
-        <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
+      <c r="H24" s="90">
+        <f t="shared" si="0"/>
+        <v>-56172.02</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -10801,253 +11087,294 @@
     </row>
     <row r="25" spans="1:13" s="78" customFormat="1">
       <c r="A25" s="98"/>
-      <c r="B25" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="99"/>
+      <c r="B25" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="77"/>
-      <c r="E25" s="77">
-        <v>-600</v>
-      </c>
+      <c r="E25" s="77"/>
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
-      <c r="H25" s="77">
-        <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
-      </c>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="96"/>
+      <c r="H25" s="90">
+        <f t="shared" si="0"/>
+        <v>-56172.02</v>
+      </c>
     </row>
     <row r="26" spans="1:13" s="78" customFormat="1">
       <c r="A26" s="98"/>
-      <c r="B26" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77">
-        <v>-800</v>
-      </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77">
-        <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
-      </c>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="96"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90">
+        <f t="shared" si="0"/>
+        <v>-56172.02</v>
+      </c>
     </row>
     <row r="27" spans="1:13" s="78" customFormat="1">
       <c r="A27" s="98"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77">
-        <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
+      <c r="B27" s="101"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90">
+        <f t="shared" si="0"/>
+        <v>-56172.02</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="78" customFormat="1">
-      <c r="A28" s="98"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77">
-        <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="B29" s="101" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="101"/>
-      <c r="H29" s="77">
-        <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
-      </c>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
+      <c r="A28" s="428">
+        <v>45741</v>
+      </c>
+      <c r="B28" s="392" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="392"/>
+      <c r="D28" s="387"/>
+      <c r="E28" s="387">
+        <v>-200</v>
+      </c>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90">
+        <v>-564.03</v>
+      </c>
+      <c r="H28" s="90">
+        <f t="shared" si="0"/>
+        <v>-56736.049999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="78" customFormat="1">
+      <c r="A29" s="414"/>
+      <c r="B29" s="415" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C29" s="415"/>
+      <c r="D29" s="384"/>
+      <c r="E29" s="384"/>
+      <c r="F29" s="384"/>
+      <c r="G29" s="384">
+        <v>-2800</v>
+      </c>
+      <c r="H29" s="90">
+        <f t="shared" si="0"/>
+        <v>-59536.049999999996</v>
+      </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="H30" s="77">
-        <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
-      </c>
+      <c r="C30" s="101"/>
+      <c r="H30" s="90">
+        <f t="shared" si="0"/>
+        <v>-59536.049999999996</v>
+      </c>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="H31" s="77">
-        <f t="shared" si="0"/>
-        <v>-36002.019999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="78" customFormat="1">
-      <c r="A33" s="98"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33"/>
-      <c r="J33"/>
+      <c r="A31" s="414">
+        <v>45740</v>
+      </c>
+      <c r="B31" s="422" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C31" s="422"/>
+      <c r="D31" s="384"/>
+      <c r="E31" s="384"/>
+      <c r="F31" s="384"/>
+      <c r="G31" s="384">
+        <v>-8500</v>
+      </c>
+      <c r="H31" s="90">
+        <f t="shared" si="0"/>
+        <v>-68036.049999999988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="414">
+        <v>45740</v>
+      </c>
+      <c r="B32" s="422" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C32" s="422"/>
+      <c r="D32" s="384"/>
+      <c r="E32" s="384"/>
+      <c r="F32" s="384"/>
+      <c r="G32" s="384">
+        <v>-90000</v>
+      </c>
+      <c r="H32" s="90">
+        <f t="shared" si="0"/>
+        <v>-158036.04999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="414"/>
+      <c r="B33" s="422" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C33" s="416" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D33" s="384"/>
+      <c r="E33" s="384"/>
+      <c r="F33" s="384"/>
+      <c r="G33" s="384">
+        <v>-12.8</v>
+      </c>
+      <c r="H33" s="90">
+        <f t="shared" si="0"/>
+        <v>-158048.84999999998</v>
+      </c>
     </row>
     <row r="34" spans="1:14" s="78" customFormat="1">
-      <c r="A34" s="98"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-    </row>
-    <row r="35" spans="1:14" s="77" customFormat="1">
+      <c r="A34" s="414">
+        <v>45728</v>
+      </c>
+      <c r="B34" s="422" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C34" s="422"/>
+      <c r="D34" s="384"/>
+      <c r="E34" s="384"/>
+      <c r="F34" s="384"/>
+      <c r="G34" s="384">
+        <v>-1500</v>
+      </c>
+      <c r="H34" s="90">
+        <f t="shared" si="0"/>
+        <v>-159548.84999999998</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:14" s="78" customFormat="1">
       <c r="A35" s="98"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="90">
+        <f t="shared" si="0"/>
+        <v>-159548.84999999998</v>
+      </c>
     </row>
     <row r="36" spans="1:14" s="77" customFormat="1">
-      <c r="A36" s="433"/>
-      <c r="B36" s="102"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
       <c r="K36" s="78"/>
       <c r="L36" s="78"/>
       <c r="M36" s="78"/>
       <c r="N36" s="78"/>
     </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="434"/>
-      <c r="B37" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="103"/>
-      <c r="E37" s="77">
-        <f>SUM(E38:E55)</f>
-        <v>-19043.61</v>
-      </c>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-    </row>
-    <row r="38" spans="1:14" s="77" customFormat="1">
+    <row r="37" spans="1:14" s="90" customFormat="1">
+      <c r="A37" s="98"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+    </row>
+    <row r="38" spans="1:14" s="90" customFormat="1">
       <c r="A38" s="98"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="I38"/>
-      <c r="J38"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
       <c r="K38" s="78"/>
       <c r="L38" s="78"/>
       <c r="M38" s="78"/>
       <c r="N38" s="78"/>
     </row>
-    <row r="39" spans="1:14" s="77" customFormat="1">
-      <c r="A39" s="98">
-        <v>45715</v>
-      </c>
-      <c r="B39" s="90" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C39" s="90">
-        <v>5938.7</v>
-      </c>
-      <c r="D39" s="90" t="s">
-        <v>700</v>
-      </c>
-      <c r="E39" s="90">
-        <v>-989.78</v>
-      </c>
-      <c r="F39" s="77">
-        <v>0</v>
-      </c>
+    <row r="39" spans="1:14" s="90" customFormat="1">
+      <c r="A39" s="98"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
       <c r="K39" s="78"/>
       <c r="L39" s="78"/>
       <c r="M39" s="78"/>
       <c r="N39" s="78"/>
     </row>
     <row r="40" spans="1:14" s="77" customFormat="1">
-      <c r="A40" s="98">
-        <v>45715</v>
-      </c>
-      <c r="B40" s="77" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E40" s="77">
-        <v>-2820</v>
-      </c>
-      <c r="F40" s="77">
-        <v>0</v>
-      </c>
+      <c r="A40" s="433"/>
+      <c r="B40" s="102"/>
       <c r="K40" s="78"/>
       <c r="L40" s="78"/>
       <c r="M40" s="78"/>
       <c r="N40" s="78"/>
     </row>
-    <row r="41" spans="1:14" s="77" customFormat="1">
-      <c r="A41" s="98">
-        <v>45715</v>
-      </c>
-      <c r="B41" s="77" t="s">
-        <v>1641</v>
-      </c>
+    <row r="41" spans="1:14">
+      <c r="A41" s="434"/>
+      <c r="B41" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="103"/>
       <c r="E41" s="77">
-        <v>-3196.34</v>
-      </c>
-      <c r="F41" s="77">
-        <v>0</v>
-      </c>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="98">
-        <v>45715</v>
-      </c>
-      <c r="B42" s="90" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C42" s="77"/>
-      <c r="E42" s="77">
-        <v>-467.95</v>
-      </c>
-      <c r="F42" s="77">
-        <v>0</v>
-      </c>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
+        <f>SUM(E42:E59)</f>
+        <v>-19043.61</v>
+      </c>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+    </row>
+    <row r="42" spans="1:14" s="77" customFormat="1">
+      <c r="A42" s="98"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
     </row>
     <row r="43" spans="1:14" s="77" customFormat="1">
       <c r="A43" s="98">
         <v>45715</v>
       </c>
       <c r="B43" s="90" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C43"/>
-      <c r="I43"/>
-      <c r="J43"/>
+        <v>1645</v>
+      </c>
+      <c r="C43" s="90">
+        <v>5938.7</v>
+      </c>
+      <c r="D43" s="90" t="s">
+        <v>700</v>
+      </c>
+      <c r="E43" s="90">
+        <v>-989.78</v>
+      </c>
+      <c r="F43" s="77">
+        <v>0</v>
+      </c>
       <c r="K43" s="78"/>
       <c r="L43" s="78"/>
       <c r="M43" s="78"/>
       <c r="N43" s="78"/>
     </row>
     <row r="44" spans="1:14" s="77" customFormat="1">
-      <c r="A44" s="98"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
+      <c r="A44" s="98">
+        <v>45715</v>
+      </c>
+      <c r="B44" s="77" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E44" s="77">
+        <v>-2820</v>
+      </c>
+      <c r="F44" s="77">
+        <v>0</v>
+      </c>
       <c r="K44" s="78"/>
       <c r="L44" s="78"/>
       <c r="M44" s="78"/>
@@ -11055,14 +11382,13 @@
     </row>
     <row r="45" spans="1:14" s="77" customFormat="1">
       <c r="A45" s="98">
-        <v>45691</v>
-      </c>
-      <c r="B45" s="106" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C45" s="106"/>
+        <v>45715</v>
+      </c>
+      <c r="B45" s="77" t="s">
+        <v>1641</v>
+      </c>
       <c r="E45" s="77">
-        <v>-1580</v>
+        <v>-3196.34</v>
       </c>
       <c r="F45" s="77">
         <v>0</v>
@@ -11072,57 +11398,42 @@
       <c r="M45" s="78"/>
       <c r="N45" s="78"/>
     </row>
-    <row r="46" spans="1:14" s="77" customFormat="1">
+    <row r="46" spans="1:14">
       <c r="A46" s="98">
-        <v>45691</v>
-      </c>
-      <c r="B46" s="107" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C46" s="106"/>
+        <v>45715</v>
+      </c>
+      <c r="B46" s="90" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C46" s="77"/>
       <c r="E46" s="77">
-        <v>-1338</v>
+        <v>-467.95</v>
       </c>
       <c r="F46" s="77">
         <v>0</v>
       </c>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
     </row>
     <row r="47" spans="1:14" s="77" customFormat="1">
       <c r="A47" s="98">
-        <v>45691</v>
-      </c>
-      <c r="B47" s="107" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C47" s="106"/>
-      <c r="E47" s="77">
-        <v>-1200</v>
-      </c>
-      <c r="F47" s="77">
-        <v>0</v>
-      </c>
+        <v>45715</v>
+      </c>
+      <c r="B47" s="90" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C47"/>
+      <c r="I47"/>
+      <c r="J47"/>
       <c r="K47" s="78"/>
       <c r="L47" s="78"/>
       <c r="M47" s="78"/>
       <c r="N47" s="78"/>
     </row>
     <row r="48" spans="1:14" s="77" customFormat="1">
-      <c r="A48" s="98">
-        <v>45691</v>
-      </c>
-      <c r="B48" s="107" t="s">
-        <v>1665</v>
-      </c>
-      <c r="E48" s="77">
-        <v>-1300.54</v>
-      </c>
-      <c r="F48" s="77">
-        <v>0</v>
-      </c>
+      <c r="A48" s="98"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="106"/>
       <c r="K48" s="78"/>
       <c r="L48" s="78"/>
       <c r="M48" s="78"/>
@@ -11130,14 +11441,14 @@
     </row>
     <row r="49" spans="1:14" s="77" customFormat="1">
       <c r="A49" s="98">
-        <v>45689</v>
-      </c>
-      <c r="B49" s="107" t="s">
-        <v>1660</v>
+        <v>45691</v>
+      </c>
+      <c r="B49" s="106" t="s">
+        <v>1658</v>
       </c>
       <c r="C49" s="106"/>
       <c r="E49" s="77">
-        <v>-3720</v>
+        <v>-1580</v>
       </c>
       <c r="F49" s="77">
         <v>0</v>
@@ -11149,13 +11460,14 @@
     </row>
     <row r="50" spans="1:14" s="77" customFormat="1">
       <c r="A50" s="98">
-        <v>45699</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>1673</v>
-      </c>
+        <v>45691</v>
+      </c>
+      <c r="B50" s="107" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C50" s="106"/>
       <c r="E50" s="77">
-        <v>-2235</v>
+        <v>-1338</v>
       </c>
       <c r="F50" s="77">
         <v>0</v>
@@ -11165,17 +11477,18 @@
       <c r="M50" s="78"/>
       <c r="N50" s="78"/>
     </row>
-    <row r="51" spans="1:14" s="90" customFormat="1">
+    <row r="51" spans="1:14" s="77" customFormat="1">
       <c r="A51" s="98">
-        <v>45703</v>
-      </c>
-      <c r="B51" s="92" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E51" s="90">
-        <v>-196</v>
-      </c>
-      <c r="F51" s="90">
+        <v>45691</v>
+      </c>
+      <c r="B51" s="107" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C51" s="106"/>
+      <c r="E51" s="77">
+        <v>-1200</v>
+      </c>
+      <c r="F51" s="77">
         <v>0</v>
       </c>
       <c r="K51" s="78"/>
@@ -11183,44 +11496,85 @@
       <c r="M51" s="78"/>
       <c r="N51" s="78"/>
     </row>
-    <row r="52" spans="1:14" s="90" customFormat="1" ht="15">
-      <c r="A52" s="98"/>
-      <c r="B52" s="92"/>
-      <c r="E52" s="105" t="s">
-        <v>84</v>
+    <row r="52" spans="1:14" s="77" customFormat="1">
+      <c r="A52" s="98">
+        <v>45691</v>
+      </c>
+      <c r="B52" s="107" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E52" s="77">
+        <v>-1300.54</v>
+      </c>
+      <c r="F52" s="77">
+        <v>0</v>
       </c>
       <c r="K52" s="78"/>
       <c r="L52" s="78"/>
       <c r="M52" s="78"/>
       <c r="N52" s="78"/>
     </row>
-    <row r="53" spans="1:14" s="90" customFormat="1">
-      <c r="A53" s="98"/>
-      <c r="B53" s="92"/>
+    <row r="53" spans="1:14" s="77" customFormat="1">
+      <c r="A53" s="98">
+        <v>45689</v>
+      </c>
+      <c r="B53" s="107" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C53" s="106"/>
+      <c r="E53" s="77">
+        <v>-3720</v>
+      </c>
+      <c r="F53" s="77">
+        <v>0</v>
+      </c>
       <c r="K53" s="78"/>
       <c r="L53" s="78"/>
       <c r="M53" s="78"/>
       <c r="N53" s="78"/>
     </row>
-    <row r="54" spans="1:14" s="90" customFormat="1">
-      <c r="A54" s="98"/>
-      <c r="B54" s="92"/>
+    <row r="54" spans="1:14" s="77" customFormat="1">
+      <c r="A54" s="98">
+        <v>45699</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E54" s="77">
+        <v>-2235</v>
+      </c>
+      <c r="F54" s="77">
+        <v>0</v>
+      </c>
       <c r="K54" s="78"/>
       <c r="L54" s="78"/>
       <c r="M54" s="78"/>
       <c r="N54" s="78"/>
     </row>
     <row r="55" spans="1:14" s="90" customFormat="1">
-      <c r="A55" s="98"/>
-      <c r="B55" s="92"/>
+      <c r="A55" s="98">
+        <v>45703</v>
+      </c>
+      <c r="B55" s="92" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E55" s="90">
+        <v>-196</v>
+      </c>
+      <c r="F55" s="90">
+        <v>0</v>
+      </c>
       <c r="K55" s="78"/>
       <c r="L55" s="78"/>
       <c r="M55" s="78"/>
       <c r="N55" s="78"/>
     </row>
-    <row r="56" spans="1:14" s="90" customFormat="1">
+    <row r="56" spans="1:14" s="90" customFormat="1" ht="15">
       <c r="A56" s="98"/>
       <c r="B56" s="92"/>
+      <c r="E56" s="105" t="s">
+        <v>84</v>
+      </c>
       <c r="K56" s="78"/>
       <c r="L56" s="78"/>
       <c r="M56" s="78"/>
@@ -11236,6 +11590,7 @@
     </row>
     <row r="58" spans="1:14" s="90" customFormat="1">
       <c r="A58" s="98"/>
+      <c r="B58" s="92"/>
       <c r="K58" s="78"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
@@ -11249,162 +11604,130 @@
       <c r="M59" s="78"/>
       <c r="N59" s="78"/>
     </row>
-    <row r="60" spans="1:14" s="77" customFormat="1">
+    <row r="60" spans="1:14" s="90" customFormat="1">
       <c r="A60" s="98"/>
-      <c r="B60" s="106"/>
-      <c r="C60" s="106"/>
+      <c r="B60" s="92"/>
       <c r="K60" s="78"/>
       <c r="L60" s="78"/>
       <c r="M60" s="78"/>
       <c r="N60" s="78"/>
     </row>
-    <row r="61" spans="1:14" s="77" customFormat="1">
-      <c r="A61" s="434"/>
-      <c r="B61" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="103"/>
-      <c r="E61" s="77">
-        <f>SUM(E62:E95)</f>
-        <v>-14628.179999999997</v>
-      </c>
+    <row r="61" spans="1:14" s="90" customFormat="1">
+      <c r="A61" s="98"/>
+      <c r="B61" s="92"/>
       <c r="K61" s="78"/>
       <c r="L61" s="78"/>
       <c r="M61" s="78"/>
       <c r="N61" s="78"/>
     </row>
-    <row r="62" spans="1:14" s="77" customFormat="1">
+    <row r="62" spans="1:14" s="90" customFormat="1">
       <c r="A62" s="98"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106"/>
       <c r="K62" s="78"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
       <c r="N62" s="78"/>
     </row>
-    <row r="63" spans="1:14" s="77" customFormat="1">
-      <c r="A63" s="433"/>
-      <c r="F63" s="90"/>
+    <row r="63" spans="1:14" s="90" customFormat="1">
+      <c r="A63" s="98"/>
+      <c r="B63" s="92"/>
       <c r="K63" s="78"/>
       <c r="L63" s="78"/>
       <c r="M63" s="78"/>
       <c r="N63" s="78"/>
     </row>
-    <row r="64" spans="1:14" s="90" customFormat="1">
-      <c r="A64" s="433">
-        <v>45692</v>
-      </c>
-      <c r="B64" s="90" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D64" s="90" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E64" s="90">
-        <v>-600.13</v>
-      </c>
+    <row r="64" spans="1:14" s="77" customFormat="1">
+      <c r="A64" s="98"/>
+      <c r="B64" s="106"/>
+      <c r="C64" s="106"/>
       <c r="K64" s="78"/>
       <c r="L64" s="78"/>
       <c r="M64" s="78"/>
       <c r="N64" s="78"/>
     </row>
-    <row r="65" spans="1:14" s="90" customFormat="1">
-      <c r="A65" s="433">
-        <v>45692</v>
-      </c>
-      <c r="B65" s="90" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D65" s="90" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E65" s="90">
-        <v>-2500.3000000000002</v>
+    <row r="65" spans="1:14" s="77" customFormat="1">
+      <c r="A65" s="434"/>
+      <c r="B65" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="103"/>
+      <c r="E65" s="77">
+        <f>SUM(E66:E99)</f>
+        <v>-14628.179999999997</v>
       </c>
       <c r="K65" s="78"/>
       <c r="L65" s="78"/>
       <c r="M65" s="78"/>
       <c r="N65" s="78"/>
     </row>
-    <row r="66" spans="1:14" s="90" customFormat="1">
-      <c r="A66" s="433"/>
+    <row r="66" spans="1:14" s="77" customFormat="1">
+      <c r="A66" s="98"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
       <c r="K66" s="78"/>
       <c r="L66" s="78"/>
       <c r="M66" s="78"/>
       <c r="N66" s="78"/>
     </row>
-    <row r="67" spans="1:14" s="90" customFormat="1">
+    <row r="67" spans="1:14" s="77" customFormat="1">
       <c r="A67" s="433"/>
+      <c r="F67" s="90"/>
       <c r="K67" s="78"/>
       <c r="L67" s="78"/>
       <c r="M67" s="78"/>
       <c r="N67" s="78"/>
     </row>
     <row r="68" spans="1:14" s="90" customFormat="1">
-      <c r="A68" s="433"/>
+      <c r="A68" s="433">
+        <v>45692</v>
+      </c>
+      <c r="B68" s="90" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D68" s="90" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E68" s="90">
+        <v>-600.13</v>
+      </c>
       <c r="K68" s="78"/>
       <c r="L68" s="78"/>
       <c r="M68" s="78"/>
       <c r="N68" s="78"/>
     </row>
     <row r="69" spans="1:14" s="90" customFormat="1">
-      <c r="A69" s="98">
-        <v>45681</v>
-      </c>
-      <c r="B69" s="92" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C69" s="106"/>
+      <c r="A69" s="433">
+        <v>45692</v>
+      </c>
+      <c r="B69" s="90" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D69" s="90" t="s">
+        <v>1048</v>
+      </c>
       <c r="E69" s="90">
-        <v>-1798</v>
-      </c>
-      <c r="F69" s="77"/>
+        <v>-2500.3000000000002</v>
+      </c>
       <c r="K69" s="78"/>
       <c r="L69" s="78"/>
       <c r="M69" s="78"/>
       <c r="N69" s="78"/>
     </row>
     <row r="70" spans="1:14" s="90" customFormat="1">
-      <c r="A70" s="98"/>
-      <c r="B70" s="92" t="s">
-        <v>539</v>
-      </c>
-      <c r="C70" s="106"/>
-      <c r="E70" s="90">
-        <v>1.8</v>
-      </c>
+      <c r="A70" s="433"/>
       <c r="K70" s="78"/>
       <c r="L70" s="78"/>
       <c r="M70" s="78"/>
       <c r="N70" s="78"/>
     </row>
     <row r="71" spans="1:14" s="90" customFormat="1">
-      <c r="A71" s="98">
-        <v>45681</v>
-      </c>
-      <c r="B71" s="92" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C71" s="106"/>
-      <c r="E71" s="90">
-        <v>-700</v>
-      </c>
+      <c r="A71" s="433"/>
       <c r="K71" s="78"/>
       <c r="L71" s="78"/>
       <c r="M71" s="78"/>
       <c r="N71" s="78"/>
     </row>
     <row r="72" spans="1:14" s="90" customFormat="1">
-      <c r="A72" s="98">
-        <v>45681</v>
-      </c>
-      <c r="B72" s="92" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C72" s="106"/>
-      <c r="E72" s="90">
-        <v>-120</v>
-      </c>
+      <c r="A72" s="433"/>
       <c r="K72" s="78"/>
       <c r="L72" s="78"/>
       <c r="M72" s="78"/>
@@ -11412,30 +11735,29 @@
     </row>
     <row r="73" spans="1:14" s="90" customFormat="1">
       <c r="A73" s="98">
-        <v>45682</v>
+        <v>45681</v>
       </c>
       <c r="B73" s="92" t="s">
-        <v>1620</v>
+        <v>1631</v>
       </c>
       <c r="C73" s="106"/>
       <c r="E73" s="90">
-        <v>-70</v>
-      </c>
+        <v>-1798</v>
+      </c>
+      <c r="F73" s="77"/>
       <c r="K73" s="78"/>
       <c r="L73" s="78"/>
       <c r="M73" s="78"/>
       <c r="N73" s="78"/>
     </row>
     <row r="74" spans="1:14" s="90" customFormat="1">
-      <c r="A74" s="98">
-        <v>45682</v>
-      </c>
+      <c r="A74" s="98"/>
       <c r="B74" s="92" t="s">
-        <v>1633</v>
+        <v>539</v>
       </c>
       <c r="C74" s="106"/>
       <c r="E74" s="90">
-        <v>-699.99</v>
+        <v>1.8</v>
       </c>
       <c r="K74" s="78"/>
       <c r="L74" s="78"/>
@@ -11444,14 +11766,14 @@
     </row>
     <row r="75" spans="1:14" s="90" customFormat="1">
       <c r="A75" s="98">
-        <v>45684</v>
+        <v>45681</v>
       </c>
       <c r="B75" s="92" t="s">
-        <v>1620</v>
+        <v>1632</v>
       </c>
       <c r="C75" s="106"/>
       <c r="E75" s="90">
-        <v>-70</v>
+        <v>-700</v>
       </c>
       <c r="K75" s="78"/>
       <c r="L75" s="78"/>
@@ -11460,13 +11782,14 @@
     </row>
     <row r="76" spans="1:14" s="90" customFormat="1">
       <c r="A76" s="98">
-        <v>45686</v>
-      </c>
-      <c r="B76" s="90" t="s">
-        <v>1668</v>
-      </c>
+        <v>45681</v>
+      </c>
+      <c r="B76" s="92" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C76" s="106"/>
       <c r="E76" s="90">
-        <v>-3600</v>
+        <v>-120</v>
       </c>
       <c r="K76" s="78"/>
       <c r="L76" s="78"/>
@@ -11475,13 +11798,14 @@
     </row>
     <row r="77" spans="1:14" s="90" customFormat="1">
       <c r="A77" s="98">
-        <v>45691</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" s="106">
-        <v>18950.04</v>
+        <v>45682</v>
+      </c>
+      <c r="B77" s="92" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C77" s="106"/>
+      <c r="E77" s="90">
+        <v>-70</v>
       </c>
       <c r="K77" s="78"/>
       <c r="L77" s="78"/>
@@ -11490,13 +11814,14 @@
     </row>
     <row r="78" spans="1:14" s="90" customFormat="1">
       <c r="A78" s="98">
-        <v>45691</v>
+        <v>45682</v>
       </c>
       <c r="B78" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" s="106">
-        <v>10153.299999999999</v>
+        <v>1633</v>
+      </c>
+      <c r="C78" s="106"/>
+      <c r="E78" s="90">
+        <v>-699.99</v>
       </c>
       <c r="K78" s="78"/>
       <c r="L78" s="78"/>
@@ -11504,12 +11829,13 @@
       <c r="N78" s="78"/>
     </row>
     <row r="79" spans="1:14" s="90" customFormat="1">
-      <c r="A79" s="433">
-        <v>45694</v>
-      </c>
-      <c r="B79" s="90" t="s">
+      <c r="A79" s="98">
+        <v>45684</v>
+      </c>
+      <c r="B79" s="92" t="s">
         <v>1620</v>
       </c>
+      <c r="C79" s="106"/>
       <c r="E79" s="90">
         <v>-70</v>
       </c>
@@ -11519,74 +11845,74 @@
       <c r="N79" s="78"/>
     </row>
     <row r="80" spans="1:14" s="90" customFormat="1">
-      <c r="A80" s="433">
-        <v>45695</v>
+      <c r="A80" s="98">
+        <v>45686</v>
       </c>
       <c r="B80" s="90" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E80" s="90">
-        <v>-200</v>
+        <v>-3600</v>
       </c>
       <c r="K80" s="78"/>
       <c r="L80" s="78"/>
       <c r="M80" s="78"/>
       <c r="N80" s="78"/>
     </row>
-    <row r="81" spans="1:14" s="77" customFormat="1">
-      <c r="A81" s="433">
-        <v>45696</v>
-      </c>
-      <c r="B81" s="77" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E81" s="77">
-        <v>-550</v>
+    <row r="81" spans="1:14" s="90" customFormat="1">
+      <c r="A81" s="98">
+        <v>45691</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="106">
+        <v>18950.04</v>
       </c>
       <c r="K81" s="78"/>
       <c r="L81" s="78"/>
       <c r="M81" s="78"/>
       <c r="N81" s="78"/>
     </row>
-    <row r="82" spans="1:14" s="77" customFormat="1">
-      <c r="A82" s="433">
-        <v>45697</v>
-      </c>
-      <c r="B82" s="77" t="s">
-        <v>1672</v>
-      </c>
-      <c r="E82" s="77">
-        <v>-329.97</v>
+    <row r="82" spans="1:14" s="90" customFormat="1">
+      <c r="A82" s="98">
+        <v>45691</v>
+      </c>
+      <c r="B82" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="106">
+        <v>10153.299999999999</v>
       </c>
       <c r="K82" s="78"/>
       <c r="L82" s="78"/>
       <c r="M82" s="78"/>
       <c r="N82" s="78"/>
     </row>
-    <row r="83" spans="1:14" s="77" customFormat="1">
+    <row r="83" spans="1:14" s="90" customFormat="1">
       <c r="A83" s="433">
-        <v>45699</v>
-      </c>
-      <c r="B83" s="77" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E83" s="77">
-        <v>-200</v>
+        <v>45694</v>
+      </c>
+      <c r="B83" s="90" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E83" s="90">
+        <v>-70</v>
       </c>
       <c r="K83" s="78"/>
       <c r="L83" s="78"/>
       <c r="M83" s="78"/>
       <c r="N83" s="78"/>
     </row>
-    <row r="84" spans="1:14" s="77" customFormat="1">
+    <row r="84" spans="1:14" s="90" customFormat="1">
       <c r="A84" s="433">
-        <v>45700</v>
-      </c>
-      <c r="B84" s="77" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E84" s="77">
-        <v>-70</v>
+        <v>45695</v>
+      </c>
+      <c r="B84" s="90" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E84" s="90">
+        <v>-200</v>
       </c>
       <c r="K84" s="78"/>
       <c r="L84" s="78"/>
@@ -11595,13 +11921,13 @@
     </row>
     <row r="85" spans="1:14" s="77" customFormat="1">
       <c r="A85" s="433">
-        <v>45701</v>
+        <v>45696</v>
       </c>
       <c r="B85" s="77" t="s">
-        <v>1621</v>
+        <v>1671</v>
       </c>
       <c r="E85" s="77">
-        <v>-230</v>
+        <v>-550</v>
       </c>
       <c r="K85" s="78"/>
       <c r="L85" s="78"/>
@@ -11610,13 +11936,13 @@
     </row>
     <row r="86" spans="1:14" s="77" customFormat="1">
       <c r="A86" s="433">
-        <v>45702</v>
+        <v>45697</v>
       </c>
       <c r="B86" s="77" t="s">
-        <v>489</v>
+        <v>1672</v>
       </c>
       <c r="E86" s="77">
-        <v>-250</v>
+        <v>-329.97</v>
       </c>
       <c r="K86" s="78"/>
       <c r="L86" s="78"/>
@@ -11625,13 +11951,13 @@
     </row>
     <row r="87" spans="1:14" s="77" customFormat="1">
       <c r="A87" s="433">
-        <v>45703</v>
+        <v>45699</v>
       </c>
       <c r="B87" s="77" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E87" s="77">
-        <v>-210</v>
+        <v>-200</v>
       </c>
       <c r="K87" s="78"/>
       <c r="L87" s="78"/>
@@ -11639,77 +11965,75 @@
       <c r="N87" s="78"/>
     </row>
     <row r="88" spans="1:14" s="77" customFormat="1">
-      <c r="A88" s="98">
-        <v>45704</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="106"/>
+      <c r="A88" s="433">
+        <v>45700</v>
+      </c>
+      <c r="B88" s="77" t="s">
+        <v>1620</v>
+      </c>
       <c r="E88" s="77">
-        <v>-467.38</v>
+        <v>-70</v>
       </c>
       <c r="K88" s="78"/>
       <c r="L88" s="78"/>
       <c r="M88" s="78"/>
       <c r="N88" s="78"/>
     </row>
-    <row r="89" spans="1:14" s="90" customFormat="1">
-      <c r="A89" s="98">
-        <v>45705</v>
-      </c>
-      <c r="B89" s="92" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C89" s="106"/>
-      <c r="E89" s="90">
-        <v>-350</v>
+    <row r="89" spans="1:14" s="77" customFormat="1">
+      <c r="A89" s="433">
+        <v>45701</v>
+      </c>
+      <c r="B89" s="77" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E89" s="77">
+        <v>-230</v>
       </c>
       <c r="K89" s="78"/>
       <c r="L89" s="78"/>
       <c r="M89" s="78"/>
       <c r="N89" s="78"/>
     </row>
-    <row r="90" spans="1:14" s="90" customFormat="1">
-      <c r="A90" s="98">
-        <v>45704</v>
-      </c>
-      <c r="B90" s="92"/>
-      <c r="C90" s="106"/>
-      <c r="E90" s="90">
-        <v>-33</v>
+    <row r="90" spans="1:14" s="77" customFormat="1">
+      <c r="A90" s="433">
+        <v>45702</v>
+      </c>
+      <c r="B90" s="77" t="s">
+        <v>489</v>
+      </c>
+      <c r="E90" s="77">
+        <v>-250</v>
       </c>
       <c r="K90" s="78"/>
       <c r="L90" s="78"/>
       <c r="M90" s="78"/>
       <c r="N90" s="78"/>
     </row>
-    <row r="91" spans="1:14" s="90" customFormat="1">
-      <c r="A91" s="98">
-        <v>45705</v>
-      </c>
-      <c r="B91" s="92" t="s">
-        <v>415</v>
-      </c>
-      <c r="C91" s="106"/>
-      <c r="E91" s="90">
-        <v>-380</v>
+    <row r="91" spans="1:14" s="77" customFormat="1">
+      <c r="A91" s="433">
+        <v>45703</v>
+      </c>
+      <c r="B91" s="77" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E91" s="77">
+        <v>-210</v>
       </c>
       <c r="K91" s="78"/>
       <c r="L91" s="78"/>
       <c r="M91" s="78"/>
       <c r="N91" s="78"/>
     </row>
-    <row r="92" spans="1:14" s="90" customFormat="1">
+    <row r="92" spans="1:14" s="77" customFormat="1">
       <c r="A92" s="98">
-        <v>45706</v>
-      </c>
-      <c r="B92" s="92" t="s">
-        <v>1620</v>
+        <v>45704</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C92" s="106"/>
-      <c r="E92" s="90">
-        <v>-400</v>
+      <c r="E92" s="77">
+        <v>-467.38</v>
       </c>
       <c r="K92" s="78"/>
       <c r="L92" s="78"/>
@@ -11718,94 +12042,121 @@
     </row>
     <row r="93" spans="1:14" s="90" customFormat="1">
       <c r="A93" s="98">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B93" s="92" t="s">
-        <v>128</v>
+        <v>1678</v>
       </c>
       <c r="C93" s="106"/>
       <c r="E93" s="90">
-        <v>-215.21</v>
+        <v>-350</v>
       </c>
       <c r="K93" s="78"/>
       <c r="L93" s="78"/>
       <c r="M93" s="78"/>
       <c r="N93" s="78"/>
     </row>
-    <row r="94" spans="1:14" s="77" customFormat="1">
+    <row r="94" spans="1:14" s="90" customFormat="1">
       <c r="A94" s="98">
-        <v>45709</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>1679</v>
-      </c>
+        <v>45704</v>
+      </c>
+      <c r="B94" s="92"/>
       <c r="C94" s="106"/>
-      <c r="E94" s="77">
-        <v>-120</v>
+      <c r="E94" s="90">
+        <v>-33</v>
       </c>
       <c r="K94" s="78"/>
       <c r="L94" s="78"/>
       <c r="M94" s="78"/>
       <c r="N94" s="78"/>
     </row>
-    <row r="95" spans="1:14" s="77" customFormat="1">
+    <row r="95" spans="1:14" s="90" customFormat="1">
       <c r="A95" s="98">
-        <v>45710</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>128</v>
+        <v>45705</v>
+      </c>
+      <c r="B95" s="92" t="s">
+        <v>415</v>
       </c>
       <c r="C95" s="106"/>
-      <c r="E95" s="77">
-        <v>-396</v>
+      <c r="E95" s="90">
+        <v>-380</v>
       </c>
       <c r="K95" s="78"/>
       <c r="L95" s="78"/>
       <c r="M95" s="78"/>
       <c r="N95" s="78"/>
     </row>
-    <row r="96" spans="1:14" s="77" customFormat="1" ht="15">
-      <c r="A96" s="98"/>
-      <c r="B96" s="3"/>
+    <row r="96" spans="1:14" s="90" customFormat="1">
+      <c r="A96" s="98">
+        <v>45706</v>
+      </c>
+      <c r="B96" s="92" t="s">
+        <v>1620</v>
+      </c>
       <c r="C96" s="106"/>
-      <c r="E96" s="105" t="s">
-        <v>84</v>
+      <c r="E96" s="90">
+        <v>-400</v>
       </c>
       <c r="K96" s="78"/>
       <c r="L96" s="78"/>
       <c r="M96" s="78"/>
       <c r="N96" s="78"/>
     </row>
-    <row r="97" spans="1:14" s="77" customFormat="1">
-      <c r="A97" s="98"/>
-      <c r="B97" s="3"/>
+    <row r="97" spans="1:14" s="90" customFormat="1">
+      <c r="A97" s="98">
+        <v>45706</v>
+      </c>
+      <c r="B97" s="92" t="s">
+        <v>128</v>
+      </c>
       <c r="C97" s="106"/>
+      <c r="E97" s="90">
+        <v>-215.21</v>
+      </c>
       <c r="K97" s="78"/>
       <c r="L97" s="78"/>
       <c r="M97" s="78"/>
       <c r="N97" s="78"/>
     </row>
     <row r="98" spans="1:14" s="77" customFormat="1">
-      <c r="A98" s="98"/>
+      <c r="A98" s="98">
+        <v>45709</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1679</v>
+      </c>
       <c r="C98" s="106"/>
+      <c r="E98" s="77">
+        <v>-120</v>
+      </c>
       <c r="K98" s="78"/>
       <c r="L98" s="78"/>
       <c r="M98" s="78"/>
       <c r="N98" s="78"/>
     </row>
     <row r="99" spans="1:14" s="77" customFormat="1">
-      <c r="A99" s="98"/>
-      <c r="B99" s="3"/>
+      <c r="A99" s="98">
+        <v>45710</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="C99" s="106"/>
+      <c r="E99" s="77">
+        <v>-396</v>
+      </c>
       <c r="K99" s="78"/>
       <c r="L99" s="78"/>
       <c r="M99" s="78"/>
       <c r="N99" s="78"/>
     </row>
-    <row r="100" spans="1:14" s="77" customFormat="1">
+    <row r="100" spans="1:14" s="77" customFormat="1" ht="15">
       <c r="A100" s="98"/>
       <c r="B100" s="3"/>
       <c r="C100" s="106"/>
+      <c r="E100" s="105" t="s">
+        <v>84</v>
+      </c>
       <c r="K100" s="78"/>
       <c r="L100" s="78"/>
       <c r="M100" s="78"/>
@@ -11820,1024 +12171,1054 @@
       <c r="M101" s="78"/>
       <c r="N101" s="78"/>
     </row>
-    <row r="102" spans="1:14">
-      <c r="B102" s="3"/>
+    <row r="102" spans="1:14" s="77" customFormat="1">
+      <c r="A102" s="98"/>
       <c r="C102" s="106"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111" s="113" t="s">
+      <c r="K102" s="78"/>
+      <c r="L102" s="78"/>
+      <c r="M102" s="78"/>
+      <c r="N102" s="78"/>
+    </row>
+    <row r="103" spans="1:14" s="77" customFormat="1">
+      <c r="A103" s="98"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="106"/>
+      <c r="K103" s="78"/>
+      <c r="L103" s="78"/>
+      <c r="M103" s="78"/>
+      <c r="N103" s="78"/>
+    </row>
+    <row r="104" spans="1:14" s="77" customFormat="1">
+      <c r="A104" s="98"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="106"/>
+      <c r="K104" s="78"/>
+      <c r="L104" s="78"/>
+      <c r="M104" s="78"/>
+      <c r="N104" s="78"/>
+    </row>
+    <row r="105" spans="1:14" s="77" customFormat="1">
+      <c r="A105" s="98"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="106"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="78"/>
+      <c r="M105" s="78"/>
+      <c r="N105" s="78"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="B106" s="3"/>
+      <c r="C106" s="106"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="113" t="s">
         <v>1682</v>
       </c>
-      <c r="B111" s="104" t="s">
+      <c r="B115" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="C111" s="103">
+      <c r="C115" s="103">
         <v>2025</v>
       </c>
-      <c r="D111" s="90"/>
-      <c r="E111" s="90"/>
-      <c r="F111" s="90"/>
-      <c r="G111" s="90">
-        <f>SUM(G115:G143)</f>
-        <v>887383.30463499995</v>
-      </c>
-      <c r="H111" s="90"/>
-      <c r="I111" s="90"/>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112" s="113"/>
-      <c r="B112" s="104"/>
-      <c r="C112" s="103"/>
-      <c r="D112" s="90"/>
-      <c r="E112" s="90"/>
-      <c r="F112" s="90"/>
-      <c r="G112" s="90"/>
-      <c r="H112" s="90"/>
-      <c r="I112" s="90"/>
-    </row>
-    <row r="113" spans="1:14">
-      <c r="A113" s="113"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="103"/>
-      <c r="D113" s="90"/>
-      <c r="E113" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="F113" s="90"/>
-      <c r="G113" s="90"/>
-      <c r="H113" s="90"/>
-      <c r="I113" s="90"/>
-    </row>
-    <row r="114" spans="1:14">
-      <c r="A114" s="100"/>
-      <c r="B114" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C114" s="90"/>
-      <c r="D114" s="90"/>
-      <c r="E114" s="90"/>
-      <c r="F114" s="90"/>
-      <c r="G114" s="90">
-        <v>0</v>
-      </c>
-      <c r="H114" s="90"/>
-      <c r="I114" s="90"/>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="A115" s="100"/>
-      <c r="B115" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="C115" s="90"/>
       <c r="D115" s="90"/>
       <c r="E115" s="90"/>
       <c r="F115" s="90"/>
       <c r="G115" s="90">
-        <v>0</v>
+        <f>SUM(G119:G147)</f>
+        <v>882654.02370000002</v>
       </c>
       <c r="H115" s="90"/>
       <c r="I115" s="90"/>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="100">
-        <v>45739</v>
-      </c>
-      <c r="B116" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="C116" s="90"/>
+      <c r="A116" s="113"/>
+      <c r="B116" s="104"/>
+      <c r="C116" s="103"/>
       <c r="D116" s="90"/>
       <c r="E116" s="90"/>
       <c r="F116" s="90"/>
-      <c r="G116" s="90">
-        <v>195330</v>
-      </c>
+      <c r="G116" s="90"/>
       <c r="H116" s="90"/>
       <c r="I116" s="90"/>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="100">
-        <v>45721</v>
-      </c>
-      <c r="B117" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="90"/>
+      <c r="A117" s="113"/>
+      <c r="B117" s="104"/>
+      <c r="C117" s="103"/>
+      <c r="D117" s="90"/>
+      <c r="E117" s="90" t="s">
+        <v>138</v>
+      </c>
       <c r="F117" s="90"/>
-      <c r="G117" s="17">
-        <v>24221</v>
-      </c>
+      <c r="G117" s="90"/>
       <c r="H117" s="90"/>
       <c r="I117" s="90"/>
     </row>
-    <row r="118" spans="1:14" s="11" customFormat="1">
-      <c r="A118" s="100">
-        <v>45721</v>
-      </c>
-      <c r="B118" s="90"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
+    <row r="118" spans="1:14">
+      <c r="A118" s="100"/>
+      <c r="B118" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" s="90"/>
+      <c r="D118" s="90"/>
       <c r="E118" s="90"/>
-      <c r="F118" s="90" t="s">
-        <v>1689</v>
-      </c>
-      <c r="G118" s="17">
+      <c r="F118" s="90"/>
+      <c r="G118" s="90">
         <v>0</v>
       </c>
       <c r="H118" s="90"/>
       <c r="I118" s="90"/>
-      <c r="K118" s="78"/>
-      <c r="L118" s="78"/>
-      <c r="M118" s="78"/>
-      <c r="N118" s="78"/>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="100">
-        <v>45721</v>
-      </c>
+      <c r="A119" s="100"/>
       <c r="B119" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
+        <v>78</v>
+      </c>
+      <c r="C119" s="90"/>
+      <c r="D119" s="90"/>
       <c r="E119" s="90"/>
       <c r="F119" s="90"/>
-      <c r="G119" s="17">
-        <v>500</v>
+      <c r="G119" s="90">
+        <v>0</v>
       </c>
       <c r="H119" s="90"/>
       <c r="I119" s="90"/>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="100"/>
-      <c r="B120" s="90"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
+      <c r="A120" s="100">
+        <v>45739</v>
+      </c>
+      <c r="B120" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="90"/>
+      <c r="D120" s="90"/>
       <c r="E120" s="90"/>
       <c r="F120" s="90"/>
-      <c r="G120" s="17"/>
+      <c r="G120" s="90">
+        <v>195330</v>
+      </c>
       <c r="H120" s="90"/>
-      <c r="I120" s="90" t="s">
-        <v>1694</v>
-      </c>
+      <c r="I120" s="90"/>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="100">
-        <v>45667</v>
-      </c>
-      <c r="B121" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C121" s="114">
-        <v>50</v>
-      </c>
-      <c r="D121" s="115">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E121" s="116">
-        <f t="shared" ref="E121:E126" si="1">D121*C121</f>
-        <v>43613.183249999995</v>
-      </c>
-      <c r="F121" s="405">
-        <v>945.85618699999998</v>
-      </c>
+        <v>45721</v>
+      </c>
+      <c r="B121" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="90"/>
+      <c r="F121" s="90"/>
       <c r="G121" s="17">
-        <f t="shared" ref="G121:G126" si="2">F121*C121</f>
-        <v>47292.809349999996</v>
+        <v>24221</v>
       </c>
       <c r="H121" s="90"/>
-      <c r="I121" s="90">
-        <f t="shared" ref="I121:I126" si="3">G121-E121</f>
-        <v>3679.6261000000013</v>
-      </c>
-      <c r="M121" s="447"/>
-    </row>
-    <row r="122" spans="1:14">
+      <c r="I121" s="90"/>
+    </row>
+    <row r="122" spans="1:14" s="11" customFormat="1">
       <c r="A122" s="100">
-        <v>45672</v>
-      </c>
-      <c r="B122" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C122" s="114">
-        <v>55</v>
-      </c>
-      <c r="D122" s="115">
-        <v>877.65409299999999</v>
-      </c>
-      <c r="E122" s="116">
-        <f t="shared" si="1"/>
-        <v>48270.975115000001</v>
-      </c>
-      <c r="F122" s="405">
-        <f>F121</f>
-        <v>945.85618699999998</v>
+        <v>45721</v>
+      </c>
+      <c r="B122" s="90"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="90"/>
+      <c r="F122" s="90" t="s">
+        <v>1689</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="2"/>
-        <v>52022.090284999998</v>
+        <v>0</v>
       </c>
       <c r="H122" s="90"/>
-      <c r="I122" s="90">
-        <f t="shared" si="3"/>
-        <v>3751.1151699999973</v>
-      </c>
+      <c r="I122" s="90"/>
+      <c r="K122" s="78"/>
+      <c r="L122" s="78"/>
+      <c r="M122" s="78"/>
+      <c r="N122" s="78"/>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="448">
-        <v>45680</v>
-      </c>
-      <c r="B123" s="449" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C123" s="450"/>
-      <c r="D123" s="451">
-        <v>305</v>
-      </c>
-      <c r="E123" s="452">
-        <f>D123*C123</f>
-        <v>0</v>
-      </c>
-      <c r="F123" s="418">
-        <v>323.75</v>
-      </c>
-      <c r="G123" s="453">
-        <f>F123*C123</f>
-        <v>0</v>
-      </c>
-      <c r="H123" s="418"/>
-      <c r="I123" s="418">
-        <f>G123-E123</f>
-        <v>0</v>
-      </c>
-      <c r="J123" s="446"/>
-      <c r="K123" s="100"/>
-      <c r="M123" s="446"/>
-    </row>
-    <row r="124" spans="1:14" s="11" customFormat="1">
-      <c r="A124" s="448">
+      <c r="A123" s="100">
         <v>45721</v>
       </c>
-      <c r="B124" s="449" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C124" s="450"/>
-      <c r="D124" s="451"/>
-      <c r="E124" s="452"/>
-      <c r="F124" s="418"/>
-      <c r="G124" s="453"/>
-      <c r="H124" s="418"/>
-      <c r="I124" s="418">
-        <v>-81.59</v>
-      </c>
-      <c r="J124" s="78"/>
-      <c r="K124" s="446"/>
-      <c r="L124" s="78"/>
-      <c r="M124" s="446"/>
-      <c r="N124" s="78"/>
+      <c r="B123" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="17">
+        <v>500</v>
+      </c>
+      <c r="H123" s="90"/>
+      <c r="I123" s="90"/>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="100"/>
+      <c r="B124" s="90"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="90"/>
+      <c r="F124" s="90"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="90"/>
+      <c r="I124" s="90" t="s">
+        <v>1694</v>
+      </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="100">
+        <v>45667</v>
+      </c>
+      <c r="B125" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C125" s="114">
+        <v>50</v>
+      </c>
+      <c r="D125" s="115">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E125" s="116">
+        <f t="shared" ref="E125:E130" si="1">D125*C125</f>
+        <v>43613.183249999995</v>
+      </c>
+      <c r="F125" s="405">
+        <v>945.85618699999998</v>
+      </c>
+      <c r="G125" s="17">
+        <f t="shared" ref="G125:G130" si="2">F125*C125</f>
+        <v>47292.809349999996</v>
+      </c>
+      <c r="H125" s="90"/>
+      <c r="I125" s="90">
+        <f t="shared" ref="I125:I130" si="3">G125-E125</f>
+        <v>3679.6261000000013</v>
+      </c>
+      <c r="M125" s="447"/>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="100">
+        <v>45672</v>
+      </c>
+      <c r="B126" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C126" s="114">
+        <v>50</v>
+      </c>
+      <c r="D126" s="115">
+        <v>877.65409299999999</v>
+      </c>
+      <c r="E126" s="116">
+        <f t="shared" si="1"/>
+        <v>43882.70465</v>
+      </c>
+      <c r="F126" s="405">
+        <f>F125</f>
+        <v>945.85618699999998</v>
+      </c>
+      <c r="G126" s="17">
+        <f t="shared" si="2"/>
+        <v>47292.809349999996</v>
+      </c>
+      <c r="H126" s="90"/>
+      <c r="I126" s="90">
+        <f t="shared" si="3"/>
+        <v>3410.1046999999962</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="448">
+        <v>45680</v>
+      </c>
+      <c r="B127" s="449" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C127" s="450"/>
+      <c r="D127" s="451">
+        <v>305</v>
+      </c>
+      <c r="E127" s="452">
+        <f>D127*C127</f>
+        <v>0</v>
+      </c>
+      <c r="F127" s="418">
+        <v>323.75</v>
+      </c>
+      <c r="G127" s="453">
+        <f>F127*C127</f>
+        <v>0</v>
+      </c>
+      <c r="H127" s="418"/>
+      <c r="I127" s="418">
+        <f>G127-E127</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="446"/>
+      <c r="K127" s="100"/>
+      <c r="M127" s="446"/>
+    </row>
+    <row r="128" spans="1:14" s="11" customFormat="1">
+      <c r="A128" s="448">
+        <v>45721</v>
+      </c>
+      <c r="B128" s="449" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C128" s="450"/>
+      <c r="D128" s="451"/>
+      <c r="E128" s="452"/>
+      <c r="F128" s="418"/>
+      <c r="G128" s="453"/>
+      <c r="H128" s="418"/>
+      <c r="I128" s="418">
+        <v>-81.59</v>
+      </c>
+      <c r="J128" s="78"/>
+      <c r="K128" s="446"/>
+      <c r="L128" s="78"/>
+      <c r="M128" s="446"/>
+      <c r="N128" s="78"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="100">
         <v>45620</v>
       </c>
-      <c r="B125" s="82" t="s">
+      <c r="B129" s="82" t="s">
         <v>1612</v>
       </c>
-      <c r="C125" s="114">
+      <c r="C129" s="114">
         <v>4000</v>
       </c>
-      <c r="D125" s="114">
+      <c r="D129" s="114">
         <v>32.549999999999997</v>
       </c>
-      <c r="E125" s="116">
+      <c r="E129" s="116">
         <f t="shared" si="1"/>
         <v>130199.99999999999</v>
       </c>
-      <c r="F125" s="90">
+      <c r="F129" s="90">
         <v>41.56</v>
       </c>
-      <c r="G125" s="17">
+      <c r="G129" s="17">
         <f t="shared" si="2"/>
         <v>166240</v>
       </c>
-      <c r="H125" s="90"/>
-      <c r="I125" s="90">
+      <c r="H129" s="90"/>
+      <c r="I129" s="90">
         <f t="shared" si="3"/>
         <v>36040.000000000015</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A126" s="100">
+    <row r="130" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A130" s="100">
         <v>45659</v>
       </c>
-      <c r="B126" s="82" t="s">
+      <c r="B130" s="82" t="s">
         <v>1611</v>
       </c>
-      <c r="C126" s="114">
+      <c r="C130" s="114">
         <v>4000</v>
       </c>
-      <c r="D126" s="115">
+      <c r="D130" s="115">
         <v>30.86</v>
       </c>
-      <c r="E126" s="116">
+      <c r="E130" s="116">
         <f t="shared" si="1"/>
         <v>123440</v>
       </c>
-      <c r="F126" s="90">
-        <f>F125</f>
+      <c r="F130" s="90">
+        <f>F129</f>
         <v>41.56</v>
       </c>
-      <c r="G126" s="17">
+      <c r="G130" s="17">
         <f t="shared" si="2"/>
         <v>166240</v>
       </c>
-      <c r="H126" s="420">
-        <f>SUM(G121:G126)</f>
-        <v>431794.89963499998</v>
-      </c>
-      <c r="I126" s="90">
+      <c r="H130" s="420">
+        <f>SUM(G125:G130)</f>
+        <v>427065.61869999999</v>
+      </c>
+      <c r="I130" s="90">
         <f t="shared" si="3"/>
         <v>42800</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A127" s="100"/>
-      <c r="B127" s="90"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="90">
-        <f>SUM(E121:E126)</f>
-        <v>345524.15836499998</v>
-      </c>
-      <c r="F127" s="90"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="117">
-        <f>(SUM(G121:G126))-(SUM(E121:E126))</f>
-        <v>86270.741269999999</v>
-      </c>
-      <c r="I127" s="117">
-        <f>SUM(I121:I126)</f>
-        <v>86189.151270000017</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="A128" s="100"/>
-      <c r="B128" s="90"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="90"/>
-      <c r="F128" s="90"/>
-      <c r="G128" s="90"/>
-      <c r="H128" s="90"/>
-      <c r="I128" s="90"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="100">
+    <row r="131" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A131" s="100"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="90">
+        <f>SUM(E125:E130)</f>
+        <v>341135.88789999997</v>
+      </c>
+      <c r="F131" s="90"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="117">
+        <f>(SUM(G125:G130))-(SUM(E125:E130))</f>
+        <v>85929.730800000019</v>
+      </c>
+      <c r="I131" s="117">
+        <f>SUM(I125:I130)</f>
+        <v>85848.140800000008</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="100"/>
+      <c r="B132" s="90"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="90"/>
+      <c r="F132" s="90"/>
+      <c r="G132" s="90"/>
+      <c r="H132" s="90"/>
+      <c r="I132" s="90"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="100">
         <v>45345</v>
       </c>
-      <c r="B129" s="82" t="s">
+      <c r="B133" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="C129" s="118">
+      <c r="C133" s="118">
         <v>125000</v>
       </c>
-      <c r="D129" s="83">
+      <c r="D133" s="83">
         <v>1.0399430000000001</v>
       </c>
-      <c r="E129" s="116">
-        <f>D129*C129</f>
+      <c r="E133" s="116">
+        <f>D133*C133</f>
         <v>129992.87500000001</v>
       </c>
-      <c r="F129" s="119">
+      <c r="F133" s="119">
         <v>0.86241299999999999</v>
       </c>
-      <c r="G129" s="17">
-        <f>F129*C129</f>
+      <c r="G133" s="17">
+        <f>F133*C133</f>
         <v>107801.625</v>
       </c>
-      <c r="H129" s="90"/>
-      <c r="I129" s="90">
-        <f t="shared" ref="I129:I133" si="4">G129-E129</f>
+      <c r="H133" s="90"/>
+      <c r="I133" s="90">
+        <f t="shared" ref="I133:I137" si="4">G133-E133</f>
         <v>-22191.250000000015</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="100">
+    <row r="135" spans="1:9">
+      <c r="A135" s="100">
         <v>45400</v>
       </c>
-      <c r="B131" s="82" t="s">
+      <c r="B135" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="C131" s="114">
+      <c r="C135" s="114">
         <v>10</v>
       </c>
-      <c r="D131" s="83">
+      <c r="D135" s="83">
         <v>135</v>
       </c>
-      <c r="E131" s="116">
-        <f>D131*C131</f>
+      <c r="E135" s="116">
+        <f>D135*C135</f>
         <v>1350</v>
       </c>
-      <c r="F131" s="90">
+      <c r="F135" s="90">
         <v>97.65</v>
       </c>
-      <c r="G131" s="17">
-        <f>F131*C131</f>
+      <c r="G135" s="17">
+        <f>F135*C135</f>
         <v>976.5</v>
       </c>
-      <c r="H131" s="90"/>
-      <c r="I131" s="90">
+      <c r="H135" s="90"/>
+      <c r="I135" s="90">
         <f t="shared" si="4"/>
         <v>-373.5</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="100">
+    <row r="136" spans="1:9">
+      <c r="A136" s="100">
         <v>45418</v>
       </c>
-      <c r="B132" s="82" t="s">
+      <c r="B136" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="C132" s="114">
+      <c r="C136" s="114">
         <v>38</v>
       </c>
-      <c r="D132" s="83">
+      <c r="D136" s="83">
         <v>30.5</v>
       </c>
-      <c r="E132" s="116">
-        <f>D132*C132</f>
+      <c r="E136" s="116">
+        <f>D136*C136</f>
         <v>1159</v>
       </c>
-      <c r="F132" s="90">
+      <c r="F136" s="90">
         <v>14.62</v>
       </c>
-      <c r="G132" s="17">
-        <f>F132*C132</f>
+      <c r="G136" s="17">
+        <f>F136*C136</f>
         <v>555.55999999999995</v>
       </c>
-      <c r="H132" s="90"/>
-      <c r="I132" s="90">
+      <c r="H136" s="90"/>
+      <c r="I136" s="90">
         <f t="shared" si="4"/>
         <v>-603.44000000000005</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A133" s="100">
+    <row r="137" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A137" s="100">
         <v>45418</v>
       </c>
-      <c r="B133" s="82" t="s">
+      <c r="B137" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="C133" s="114">
+      <c r="C137" s="114">
         <v>26</v>
       </c>
-      <c r="D133" s="83">
+      <c r="D137" s="83">
         <v>37.115000000000002</v>
       </c>
-      <c r="E133" s="116">
-        <f>D133*C133</f>
+      <c r="E137" s="116">
+        <f>D137*C137</f>
         <v>964.99</v>
       </c>
-      <c r="F133" s="90">
+      <c r="F137" s="90">
         <v>23.22</v>
       </c>
-      <c r="G133" s="17">
-        <f>F133*C133</f>
+      <c r="G137" s="17">
+        <f>F137*C137</f>
         <v>603.72</v>
       </c>
-      <c r="H133" s="420">
-        <f>SUM(G129:G133)</f>
+      <c r="H137" s="420">
+        <f>SUM(G133:G137)</f>
         <v>109937.405</v>
       </c>
-      <c r="I133" s="90">
+      <c r="I137" s="90">
         <f t="shared" si="4"/>
         <v>-361.27</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A134" s="100"/>
-      <c r="B134" s="90"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="90">
-        <f>SUM(E129:E133)</f>
+    <row r="138" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A138" s="100"/>
+      <c r="B138" s="90"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="90">
+        <f>SUM(E133:E137)</f>
         <v>133466.86499999999</v>
       </c>
-      <c r="F134" s="90"/>
-      <c r="G134" s="90"/>
-      <c r="H134" s="117">
-        <f>(SUM(G129:G133))-(SUM(E129:E133))</f>
+      <c r="F138" s="90"/>
+      <c r="G138" s="90"/>
+      <c r="H138" s="117">
+        <f>(SUM(G133:G137))-(SUM(E133:E137))</f>
         <v>-23529.459999999992</v>
       </c>
-      <c r="I134" s="90"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="100"/>
-      <c r="B135" s="90"/>
-      <c r="C135" s="90"/>
-      <c r="D135" s="90"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="90"/>
-      <c r="G135" s="90"/>
-      <c r="H135" s="90"/>
-      <c r="I135" s="90"/>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="100">
+      <c r="I138" s="90"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="100"/>
+      <c r="B139" s="90"/>
+      <c r="C139" s="90"/>
+      <c r="D139" s="90"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="90"/>
+      <c r="G139" s="90"/>
+      <c r="H139" s="90"/>
+      <c r="I139" s="90"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="100">
         <v>45509</v>
       </c>
-      <c r="B136" s="82" t="s">
+      <c r="B140" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="C136" s="114">
+      <c r="C140" s="114">
         <v>1</v>
       </c>
-      <c r="D136" s="83">
+      <c r="D140" s="83">
         <v>2500</v>
       </c>
-      <c r="E136" s="116">
-        <f>D136*C136</f>
+      <c r="E140" s="116">
+        <f>D140*C140</f>
         <v>2500</v>
       </c>
-      <c r="F136" s="90">
+      <c r="F140" s="90">
         <v>3500</v>
       </c>
-      <c r="G136" s="17">
-        <f>C136*F136</f>
+      <c r="G140" s="17">
+        <f>C140*F140</f>
         <v>3500</v>
       </c>
-      <c r="H136" s="90"/>
-      <c r="I136" s="90">
-        <f t="shared" ref="I136:I138" si="5">G136-E136</f>
+      <c r="H140" s="90"/>
+      <c r="I140" s="90">
+        <f t="shared" ref="I140:I142" si="5">G140-E140</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="100">
+    <row r="141" spans="1:9">
+      <c r="A141" s="100">
         <v>45509</v>
       </c>
-      <c r="B137" s="82" t="s">
+      <c r="B141" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="C137" s="114">
+      <c r="C141" s="114">
         <v>16</v>
       </c>
-      <c r="D137" s="83">
+      <c r="D141" s="83">
         <v>4100</v>
       </c>
-      <c r="E137" s="116">
-        <f>D137*C137</f>
+      <c r="E141" s="116">
+        <f>D141*C141</f>
         <v>65600</v>
       </c>
-      <c r="F137" s="90">
-        <f>F136*1.73</f>
+      <c r="F141" s="90">
+        <f>F140*1.73</f>
         <v>6055</v>
       </c>
-      <c r="G137" s="17">
-        <f>C137*F137</f>
+      <c r="G141" s="17">
+        <f>C141*F141</f>
         <v>96880</v>
       </c>
-      <c r="H137" s="90"/>
-      <c r="I137" s="90">
+      <c r="H141" s="90"/>
+      <c r="I141" s="90">
         <f t="shared" si="5"/>
         <v>31280</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A138" s="100">
+    <row r="142" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A142" s="100">
         <v>45509</v>
       </c>
-      <c r="B138" s="82" t="s">
+      <c r="B142" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C138" s="114">
+      <c r="C142" s="114">
         <v>1</v>
       </c>
-      <c r="D138" s="83">
+      <c r="D142" s="83">
         <v>16200</v>
       </c>
-      <c r="E138" s="116">
-        <f>D138*C138</f>
+      <c r="E142" s="116">
+        <f>D142*C142</f>
         <v>16200</v>
       </c>
-      <c r="F138" s="90">
-        <f>F137*4</f>
+      <c r="F142" s="90">
+        <f>F141*4</f>
         <v>24220</v>
       </c>
-      <c r="G138" s="17">
-        <f>C138*F138</f>
+      <c r="G142" s="17">
+        <f>C142*F142</f>
         <v>24220</v>
       </c>
-      <c r="H138" s="420">
-        <f>SUM(G136:G138)</f>
+      <c r="H142" s="420">
+        <f>SUM(G140:G142)</f>
         <v>124600</v>
       </c>
-      <c r="I138" s="90">
+      <c r="I142" s="90">
         <f t="shared" si="5"/>
         <v>8020</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A139" s="100"/>
-      <c r="B139" s="90"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="90">
-        <f>SUM(E136:E138)</f>
-        <v>84300</v>
-      </c>
-      <c r="F139" s="90"/>
-      <c r="G139" s="90"/>
-      <c r="H139" s="117">
-        <f>(SUM(G136:G138))-(SUM(E136:E138))</f>
-        <v>40300</v>
-      </c>
-      <c r="I139" s="90"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="100"/>
-      <c r="B140" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="C140" s="120">
-        <v>33.250599999999999</v>
-      </c>
-      <c r="D140" s="12"/>
-      <c r="E140" s="90"/>
-      <c r="F140" s="90"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="90"/>
-      <c r="I140" s="90"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="100"/>
-      <c r="B141" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="C141" s="120">
-        <v>36.854999999999997</v>
-      </c>
-      <c r="D141" s="12"/>
-      <c r="E141" s="90"/>
-      <c r="F141" s="90"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="90"/>
-      <c r="I141" s="90"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="100"/>
-      <c r="B142" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="90"/>
-      <c r="F142" s="90"/>
-      <c r="G142" s="17">
-        <v>0</v>
-      </c>
-      <c r="H142" s="90"/>
-      <c r="I142" s="90"/>
-    </row>
     <row r="143" spans="1:9" ht="13.5" thickBot="1">
       <c r="A143" s="100"/>
-      <c r="B143" s="90" t="s">
-        <v>154</v>
-      </c>
+      <c r="B143" s="90"/>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
-      <c r="E143" s="90"/>
+      <c r="E143" s="90">
+        <f>SUM(E140:E142)</f>
+        <v>84300</v>
+      </c>
       <c r="F143" s="90"/>
-      <c r="G143" s="17">
-        <v>1000</v>
-      </c>
-      <c r="H143" s="90"/>
+      <c r="G143" s="90"/>
+      <c r="H143" s="117">
+        <f>(SUM(G140:G142))-(SUM(E140:E142))</f>
+        <v>40300</v>
+      </c>
       <c r="I143" s="90"/>
     </row>
-    <row r="144" spans="1:9" ht="13.5" thickBot="1">
+    <row r="144" spans="1:9">
       <c r="A144" s="100"/>
-      <c r="B144" s="90"/>
-      <c r="C144" s="90"/>
-      <c r="D144" s="90"/>
-      <c r="E144" s="121"/>
-      <c r="F144" s="122"/>
-      <c r="G144" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="H144" s="432">
-        <f>H139+H134+H127</f>
-        <v>103041.28127000001</v>
-      </c>
+      <c r="B144" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" s="120">
+        <v>33.250599999999999</v>
+      </c>
+      <c r="D144" s="12"/>
+      <c r="E144" s="90"/>
+      <c r="F144" s="90"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="90"/>
       <c r="I144" s="90"/>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="100"/>
-      <c r="B145" s="90"/>
-      <c r="C145" s="124"/>
-      <c r="D145" s="92"/>
+      <c r="B145" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" s="120">
+        <v>36.854999999999997</v>
+      </c>
+      <c r="D145" s="12"/>
       <c r="E145" s="90"/>
       <c r="F145" s="90"/>
-      <c r="G145" s="124"/>
+      <c r="G145" s="17"/>
       <c r="H145" s="90"/>
       <c r="I145" s="90"/>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="100"/>
-      <c r="B146" s="90"/>
-      <c r="C146" s="124"/>
-      <c r="D146" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="B146" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
       <c r="E146" s="90"/>
       <c r="F146" s="90"/>
-      <c r="G146" s="9">
-        <f>SUM(G115:G143)</f>
-        <v>887383.30463499995</v>
+      <c r="G146" s="17">
+        <v>0</v>
       </c>
       <c r="H146" s="90"/>
       <c r="I146" s="90"/>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" ht="13.5" thickBot="1">
       <c r="A147" s="100"/>
-      <c r="B147" s="90"/>
-      <c r="C147" s="126" t="str">
-        <f>A111</f>
-        <v>NİSAN 2025 e</v>
-      </c>
-      <c r="D147" s="126" t="s">
-        <v>157</v>
-      </c>
+      <c r="B147" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
       <c r="E147" s="90"/>
       <c r="F147" s="90"/>
-      <c r="G147" s="127"/>
+      <c r="G147" s="17">
+        <v>1000</v>
+      </c>
       <c r="H147" s="90"/>
       <c r="I147" s="90"/>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" ht="13.5" thickBot="1">
       <c r="A148" s="100"/>
-      <c r="B148" s="406"/>
-      <c r="C148" s="441"/>
-      <c r="D148" s="442"/>
-      <c r="E148" s="406"/>
-      <c r="F148" s="406"/>
-      <c r="G148" s="410"/>
-      <c r="H148" s="406"/>
+      <c r="B148" s="90"/>
+      <c r="C148" s="90"/>
+      <c r="D148" s="90"/>
+      <c r="E148" s="121"/>
+      <c r="F148" s="122"/>
+      <c r="G148" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="H148" s="432">
+        <f>H143+H138+H131</f>
+        <v>102700.27080000003</v>
+      </c>
       <c r="I148" s="90"/>
     </row>
     <row r="149" spans="1:14">
-      <c r="A149" s="100">
-        <v>45667</v>
-      </c>
-      <c r="B149" s="82" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C149" s="118">
-        <v>240</v>
-      </c>
-      <c r="D149" s="83">
-        <v>872.26366499999995</v>
-      </c>
-      <c r="E149" s="116">
-        <f>D149*C149</f>
-        <v>209343.27959999998</v>
-      </c>
-      <c r="F149" s="404">
-        <f>F122</f>
-        <v>945.85618699999998</v>
-      </c>
-      <c r="G149" s="17">
-        <f>F149*C149</f>
-        <v>227005.48488</v>
-      </c>
+      <c r="A149" s="100"/>
+      <c r="B149" s="90"/>
+      <c r="C149" s="124"/>
+      <c r="D149" s="92"/>
+      <c r="E149" s="90"/>
+      <c r="F149" s="90"/>
+      <c r="G149" s="124"/>
       <c r="H149" s="90"/>
-      <c r="I149" s="90">
-        <f>G149-E149</f>
-        <v>17662.205280000024</v>
-      </c>
+      <c r="I149" s="90"/>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="100"/>
-      <c r="B150" s="90" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C150" s="441"/>
-      <c r="D150" s="442"/>
-      <c r="E150" s="406"/>
-      <c r="F150" s="406"/>
-      <c r="G150" s="410"/>
+      <c r="B150" s="90"/>
+      <c r="C150" s="124"/>
+      <c r="D150" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E150" s="90"/>
+      <c r="F150" s="90"/>
+      <c r="G150" s="9">
+        <f>SUM(G119:G147)</f>
+        <v>882654.02370000002</v>
+      </c>
       <c r="H150" s="90"/>
       <c r="I150" s="90"/>
     </row>
-    <row r="151" spans="1:14" s="11" customFormat="1">
+    <row r="151" spans="1:14">
       <c r="A151" s="100"/>
       <c r="B151" s="90"/>
-      <c r="C151" s="441"/>
-      <c r="D151" s="442"/>
-      <c r="E151" s="406"/>
-      <c r="F151" s="406"/>
-      <c r="G151" s="410"/>
+      <c r="C151" s="126" t="str">
+        <f>A115</f>
+        <v>NİSAN 2025 e</v>
+      </c>
+      <c r="D151" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="E151" s="90"/>
+      <c r="F151" s="90"/>
+      <c r="G151" s="127"/>
       <c r="H151" s="90"/>
       <c r="I151" s="90"/>
-      <c r="K151" s="78"/>
-      <c r="L151" s="78"/>
-      <c r="M151" s="78"/>
-      <c r="N151" s="78"/>
-    </row>
-    <row r="152" spans="1:14" s="11" customFormat="1">
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" s="100"/>
-      <c r="B152" s="90"/>
+      <c r="B152" s="406"/>
       <c r="C152" s="441"/>
       <c r="D152" s="442"/>
       <c r="E152" s="406"/>
       <c r="F152" s="406"/>
       <c r="G152" s="410"/>
-      <c r="H152" s="90"/>
+      <c r="H152" s="406"/>
       <c r="I152" s="90"/>
-      <c r="K152" s="78"/>
-      <c r="L152" s="78"/>
-      <c r="M152" s="78"/>
-      <c r="N152" s="78"/>
-    </row>
-    <row r="153" spans="1:14" s="11" customFormat="1">
-      <c r="A153" s="100"/>
-      <c r="C153" s="441"/>
-      <c r="D153" s="442"/>
-      <c r="E153" s="406"/>
-      <c r="F153" s="406"/>
-      <c r="G153" s="410"/>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="100">
+        <v>45667</v>
+      </c>
+      <c r="B153" s="82" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C153" s="118">
+        <v>240</v>
+      </c>
+      <c r="D153" s="83">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E153" s="116">
+        <f>D153*C153</f>
+        <v>209343.27959999998</v>
+      </c>
+      <c r="F153" s="404">
+        <f>F126</f>
+        <v>945.85618699999998</v>
+      </c>
+      <c r="G153" s="17">
+        <f>F153*C153</f>
+        <v>227005.48488</v>
+      </c>
       <c r="H153" s="90"/>
-      <c r="I153" s="90"/>
-      <c r="K153" s="78"/>
-      <c r="L153" s="78"/>
-      <c r="M153" s="78"/>
-      <c r="N153" s="78"/>
+      <c r="I153" s="90">
+        <f>G153-E153</f>
+        <v>17662.205280000024</v>
+      </c>
     </row>
     <row r="154" spans="1:14">
-      <c r="A154" s="90"/>
+      <c r="A154" s="100"/>
       <c r="B154" s="90" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C154" s="90"/>
-      <c r="D154" s="90"/>
-      <c r="E154" s="90"/>
-      <c r="F154" s="90"/>
-      <c r="G154" s="90"/>
+        <v>1692</v>
+      </c>
+      <c r="C154" s="441"/>
+      <c r="D154" s="442"/>
+      <c r="E154" s="406"/>
+      <c r="F154" s="406"/>
+      <c r="G154" s="410"/>
       <c r="H154" s="90"/>
-      <c r="I154" s="90" t="s">
-        <v>1684</v>
-      </c>
-      <c r="J154" t="s">
-        <v>1684</v>
-      </c>
-      <c r="K154" s="78" t="s">
-        <v>1685</v>
-      </c>
-      <c r="L154" s="78" t="s">
-        <v>1686</v>
-      </c>
-      <c r="M154" s="78" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
-      <c r="A155" s="100">
-        <v>45680</v>
-      </c>
-      <c r="B155" s="82" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C155" s="114">
-        <v>120</v>
-      </c>
-      <c r="D155" s="115">
-        <v>305</v>
-      </c>
-      <c r="E155" s="116">
-        <f>D155*C155</f>
-        <v>36600</v>
-      </c>
-      <c r="F155" s="90">
-        <v>323.75</v>
-      </c>
-      <c r="G155" s="17">
-        <f>F155*C155</f>
-        <v>38850</v>
-      </c>
+      <c r="I154" s="90"/>
+    </row>
+    <row r="155" spans="1:14" s="11" customFormat="1">
+      <c r="A155" s="100"/>
+      <c r="B155" s="90"/>
+      <c r="C155" s="441"/>
+      <c r="D155" s="442"/>
+      <c r="E155" s="406"/>
+      <c r="F155" s="406"/>
+      <c r="G155" s="410"/>
       <c r="H155" s="90"/>
-      <c r="I155" s="90">
-        <f>G155-E155</f>
-        <v>2250</v>
-      </c>
-      <c r="J155" s="446">
-        <f>(I155-I156)/E155</f>
-        <v>6.3704644808743174E-2</v>
-      </c>
-      <c r="K155" s="100">
-        <v>45721</v>
-      </c>
-      <c r="L155" s="78">
-        <f>K155-A155</f>
-        <v>41</v>
-      </c>
-      <c r="M155" s="446">
-        <f>J155/L155*30</f>
-        <v>4.6613154738104762E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
-      <c r="A156" s="100">
-        <v>45721</v>
-      </c>
-      <c r="B156" s="82" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C156" s="114"/>
-      <c r="D156" s="115"/>
-      <c r="E156" s="116"/>
-      <c r="F156" s="90"/>
-      <c r="G156" s="17"/>
+      <c r="I155" s="90"/>
+      <c r="K155" s="78"/>
+      <c r="L155" s="78"/>
+      <c r="M155" s="78"/>
+      <c r="N155" s="78"/>
+    </row>
+    <row r="156" spans="1:14" s="11" customFormat="1">
+      <c r="A156" s="100"/>
+      <c r="B156" s="90"/>
+      <c r="C156" s="441"/>
+      <c r="D156" s="442"/>
+      <c r="E156" s="406"/>
+      <c r="F156" s="406"/>
+      <c r="G156" s="410"/>
       <c r="H156" s="90"/>
-      <c r="I156" s="90">
-        <v>-81.59</v>
-      </c>
-      <c r="J156" s="78">
-        <f>I155-I156</f>
-        <v>2331.59</v>
-      </c>
-      <c r="K156" s="446" t="s">
-        <v>1688</v>
-      </c>
-      <c r="M156" s="446"/>
-    </row>
-    <row r="157" spans="1:14">
-      <c r="A157" s="407"/>
-      <c r="B157" s="408"/>
-      <c r="C157" s="459"/>
-      <c r="D157" s="460"/>
-      <c r="E157" s="410"/>
+      <c r="I156" s="90"/>
+      <c r="K156" s="78"/>
+      <c r="L156" s="78"/>
+      <c r="M156" s="78"/>
+      <c r="N156" s="78"/>
+    </row>
+    <row r="157" spans="1:14" s="11" customFormat="1">
+      <c r="A157" s="100"/>
+      <c r="C157" s="441"/>
+      <c r="D157" s="442"/>
+      <c r="E157" s="406"/>
       <c r="F157" s="406"/>
       <c r="G157" s="410"/>
-      <c r="H157" s="406"/>
-      <c r="I157" s="406"/>
+      <c r="H157" s="90"/>
+      <c r="I157" s="90"/>
+      <c r="K157" s="78"/>
+      <c r="L157" s="78"/>
+      <c r="M157" s="78"/>
+      <c r="N157" s="78"/>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="407"/>
-      <c r="B158" s="408"/>
-      <c r="C158" s="459"/>
-      <c r="D158" s="460"/>
-      <c r="E158" s="410"/>
-      <c r="F158" s="440"/>
-      <c r="G158" s="410"/>
-      <c r="H158" s="406"/>
-      <c r="I158" s="406"/>
+      <c r="A158" s="90"/>
+      <c r="B158" s="90" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C158" s="90"/>
+      <c r="D158" s="90"/>
+      <c r="E158" s="90"/>
+      <c r="F158" s="90"/>
+      <c r="G158" s="90"/>
+      <c r="H158" s="90"/>
+      <c r="I158" s="90" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1684</v>
+      </c>
+      <c r="K158" s="78" t="s">
+        <v>1685</v>
+      </c>
+      <c r="L158" s="78" t="s">
+        <v>1686</v>
+      </c>
+      <c r="M158" s="78" t="s">
+        <v>1687</v>
+      </c>
     </row>
     <row r="159" spans="1:14">
-      <c r="A159" s="407"/>
-      <c r="B159" s="408"/>
-      <c r="C159" s="459"/>
-      <c r="D159" s="460"/>
-      <c r="E159" s="410"/>
-      <c r="F159" s="406"/>
-      <c r="G159" s="410"/>
-      <c r="H159" s="406"/>
-      <c r="I159" s="406"/>
+      <c r="A159" s="100">
+        <v>45680</v>
+      </c>
+      <c r="B159" s="82" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C159" s="114">
+        <v>120</v>
+      </c>
+      <c r="D159" s="115">
+        <v>305</v>
+      </c>
+      <c r="E159" s="116">
+        <f>D159*C159</f>
+        <v>36600</v>
+      </c>
+      <c r="F159" s="90">
+        <v>323.75</v>
+      </c>
+      <c r="G159" s="17">
+        <f>F159*C159</f>
+        <v>38850</v>
+      </c>
+      <c r="H159" s="90"/>
+      <c r="I159" s="90">
+        <f>G159-E159</f>
+        <v>2250</v>
+      </c>
+      <c r="J159" s="446">
+        <f>(I159-I160)/E159</f>
+        <v>6.3704644808743174E-2</v>
+      </c>
+      <c r="K159" s="100">
+        <v>45721</v>
+      </c>
+      <c r="L159" s="78">
+        <f>K159-A159</f>
+        <v>41</v>
+      </c>
+      <c r="M159" s="446">
+        <f>J159/L159*30</f>
+        <v>4.6613154738104762E-2</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
-      <c r="A160" s="407"/>
-      <c r="B160" s="408"/>
-      <c r="C160" s="459"/>
-      <c r="D160" s="460"/>
-      <c r="E160" s="410"/>
-      <c r="F160" s="406"/>
-      <c r="G160" s="410"/>
-      <c r="H160" s="406"/>
-      <c r="I160" s="406"/>
+      <c r="A160" s="100">
+        <v>45721</v>
+      </c>
+      <c r="B160" s="82" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C160" s="114"/>
+      <c r="D160" s="115"/>
+      <c r="E160" s="116"/>
+      <c r="F160" s="90"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="90"/>
+      <c r="I160" s="90">
+        <v>-81.59</v>
+      </c>
+      <c r="J160" s="78">
+        <f>I159-I160</f>
+        <v>2331.59</v>
+      </c>
+      <c r="K160" s="446" t="s">
+        <v>1688</v>
+      </c>
+      <c r="M160" s="446"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="407"/>
-      <c r="B161" s="408"/>
-      <c r="C161" s="459"/>
-      <c r="D161" s="460"/>
-      <c r="E161" s="410"/>
-      <c r="F161" s="440"/>
-      <c r="G161" s="410"/>
-      <c r="H161" s="406"/>
-      <c r="I161" s="406"/>
+      <c r="A161" s="100">
+        <v>45667</v>
+      </c>
+      <c r="B161" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C161" s="114">
+        <v>50</v>
+      </c>
+      <c r="D161" s="115">
+        <v>872.26366499999995</v>
+      </c>
+      <c r="E161" s="116">
+        <f t="shared" ref="E161:E162" si="6">D161*C161</f>
+        <v>43613.183249999995</v>
+      </c>
+      <c r="F161" s="405">
+        <v>945.85618699999998</v>
+      </c>
+      <c r="G161" s="17">
+        <f t="shared" ref="G161:G162" si="7">F161*C161</f>
+        <v>47292.809349999996</v>
+      </c>
+      <c r="H161" s="90"/>
+      <c r="I161" s="90">
+        <f t="shared" ref="I161:I162" si="8">G161-E161</f>
+        <v>3679.6261000000013</v>
+      </c>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="407"/>
-      <c r="B162" s="408"/>
-      <c r="C162" s="459"/>
-      <c r="D162" s="460"/>
-      <c r="E162" s="410"/>
-      <c r="F162" s="440"/>
-      <c r="G162" s="410"/>
-      <c r="H162" s="406"/>
-      <c r="I162" s="406"/>
+      <c r="A162" s="100">
+        <v>45672</v>
+      </c>
+      <c r="B162" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C162" s="114">
+        <v>50</v>
+      </c>
+      <c r="D162" s="115">
+        <v>877.65409299999999</v>
+      </c>
+      <c r="E162" s="116">
+        <f t="shared" si="6"/>
+        <v>43882.70465</v>
+      </c>
+      <c r="F162" s="405">
+        <f>F161</f>
+        <v>945.85618699999998</v>
+      </c>
+      <c r="G162" s="17">
+        <f t="shared" si="7"/>
+        <v>47292.809349999996</v>
+      </c>
+      <c r="H162" s="90"/>
+      <c r="I162" s="90">
+        <f t="shared" si="8"/>
+        <v>3410.1046999999962</v>
+      </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="407"/>
@@ -12856,7 +13237,7 @@
       <c r="C164" s="459"/>
       <c r="D164" s="460"/>
       <c r="E164" s="410"/>
-      <c r="F164" s="440"/>
+      <c r="F164" s="406"/>
       <c r="G164" s="410"/>
       <c r="H164" s="406"/>
       <c r="I164" s="406"/>
@@ -12878,7 +13259,7 @@
       <c r="C166" s="459"/>
       <c r="D166" s="460"/>
       <c r="E166" s="410"/>
-      <c r="F166" s="406"/>
+      <c r="F166" s="440"/>
       <c r="G166" s="410"/>
       <c r="H166" s="406"/>
       <c r="I166" s="406"/>
@@ -12900,121 +13281,170 @@
       <c r="C168" s="459"/>
       <c r="D168" s="460"/>
       <c r="E168" s="410"/>
-      <c r="F168" s="406"/>
+      <c r="F168" s="440"/>
       <c r="G168" s="410"/>
       <c r="H168" s="406"/>
       <c r="I168" s="406"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="408"/>
+      <c r="A169" s="407"/>
       <c r="B169" s="408"/>
-      <c r="C169" s="408"/>
-      <c r="D169" s="406"/>
-      <c r="E169" s="406"/>
-      <c r="F169" s="406"/>
-      <c r="G169" s="406"/>
+      <c r="C169" s="459"/>
+      <c r="D169" s="460"/>
+      <c r="E169" s="410"/>
+      <c r="F169" s="440"/>
+      <c r="G169" s="410"/>
       <c r="H169" s="406"/>
-      <c r="I169" s="408"/>
+      <c r="I169" s="406"/>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="431"/>
-      <c r="B170" s="431"/>
-      <c r="C170" s="431"/>
-      <c r="D170" s="418"/>
-      <c r="E170" s="418"/>
-      <c r="F170" s="418"/>
-      <c r="G170" s="418"/>
-      <c r="H170" s="418"/>
-      <c r="I170" s="454">
-        <f>SUM(I155:I169)</f>
-        <v>2168.41</v>
-      </c>
+      <c r="A170" s="407"/>
+      <c r="B170" s="408"/>
+      <c r="C170" s="459"/>
+      <c r="D170" s="460"/>
+      <c r="E170" s="410"/>
+      <c r="F170" s="406"/>
+      <c r="G170" s="410"/>
+      <c r="H170" s="406"/>
+      <c r="I170" s="406"/>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="90"/>
-      <c r="E171" s="90"/>
-      <c r="F171" s="90"/>
-      <c r="G171" s="90"/>
-      <c r="H171" s="90"/>
-      <c r="I171" s="11"/>
+      <c r="A171" s="407"/>
+      <c r="B171" s="408"/>
+      <c r="C171" s="459"/>
+      <c r="D171" s="460"/>
+      <c r="E171" s="410"/>
+      <c r="F171" s="406"/>
+      <c r="G171" s="410"/>
+      <c r="H171" s="406"/>
+      <c r="I171" s="406"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="407"/>
+      <c r="B172" s="408"/>
+      <c r="C172" s="459"/>
+      <c r="D172" s="460"/>
+      <c r="E172" s="410"/>
+      <c r="F172" s="406"/>
+      <c r="G172" s="410"/>
+      <c r="H172" s="406"/>
+      <c r="I172" s="406"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="408"/>
+      <c r="B173" s="408"/>
+      <c r="C173" s="408"/>
+      <c r="D173" s="406"/>
+      <c r="E173" s="406"/>
+      <c r="F173" s="406"/>
+      <c r="G173" s="406"/>
+      <c r="H173" s="406"/>
+      <c r="I173" s="408"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="431"/>
+      <c r="B174" s="431"/>
+      <c r="C174" s="431"/>
+      <c r="D174" s="418"/>
+      <c r="E174" s="418"/>
+      <c r="F174" s="418"/>
+      <c r="G174" s="418"/>
+      <c r="H174" s="418"/>
+      <c r="I174" s="454">
+        <f>SUM(I159:I173)</f>
+        <v>9258.1407999999974</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="90"/>
+      <c r="E175" s="90"/>
+      <c r="F175" s="90"/>
+      <c r="G175" s="90"/>
+      <c r="H175" s="90"/>
+      <c r="I175" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F136:F138 F163 F160 F157">
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="lessThan">
-      <formula>D136</formula>
+  <conditionalFormatting sqref="F140:F142 F167 F164">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="lessThan">
+      <formula>D140</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F131:F133">
-    <cfRule type="cellIs" dxfId="36" priority="12" operator="lessThan">
-      <formula>D131</formula>
+  <conditionalFormatting sqref="F135:F137">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="lessThan">
+      <formula>D135</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F126">
-    <cfRule type="cellIs" dxfId="35" priority="13" operator="lessThan">
+  <conditionalFormatting sqref="F130">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="lessThan">
+      <formula>D130</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F129">
+    <cfRule type="cellIs" dxfId="35" priority="16" operator="lessThan">
+      <formula>D129</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F168 F126">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="lessThan">
       <formula>D126</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F159:F160">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="lessThan">
+      <formula>D159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F171:F172">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="lessThan">
+      <formula>D171</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F165">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
+      <formula>D165</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F163">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="lessThan">
+      <formula>D163</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F166">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
+      <formula>D166</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F125">
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
       <formula>D125</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F164 F122">
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="lessThan">
-      <formula>D122</formula>
+  <conditionalFormatting sqref="F170">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
+      <formula>D170</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F155:F156">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
-      <formula>D155</formula>
+  <conditionalFormatting sqref="F169">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
+      <formula>D169</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F167:F168">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="lessThan">
-      <formula>D167</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F158">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
-      <formula>D158</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F159">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
-      <formula>D159</formula>
+  <conditionalFormatting sqref="F127:F128">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
+      <formula>D127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
       <formula>D161</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
       <formula>D162</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F121">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
-      <formula>D121</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F166">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
-      <formula>D166</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F165">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
-      <formula>D165</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123:F124">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
-      <formula>D123</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
@@ -13033,7 +13463,7 @@
   </sheetPr>
   <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
@@ -26039,11 +26469,11 @@
       </c>
       <c r="F5" s="32">
         <f>'03_25'!G2</f>
-        <v>-36002.019999999997</v>
+        <v>-159548.84999999998</v>
       </c>
       <c r="G5" s="33">
         <f t="shared" si="1"/>
-        <v>158460.15000000002</v>
+        <v>34913.320000000036</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="35" t="s">
@@ -26056,7 +26486,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="8">
-        <f>'03_25'!E141/1000</f>
+        <f>'03_25'!E145/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -26082,11 +26512,11 @@
       </c>
       <c r="F6" s="32">
         <f>'04_25'!G2</f>
-        <v>-142603.87</v>
+        <v>-162433.87</v>
       </c>
       <c r="G6" s="33">
         <f t="shared" si="1"/>
-        <v>15856.280000000028</v>
+        <v>-127520.54999999996</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="41" t="s">
@@ -26129,7 +26559,7 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>14866.500000000027</v>
+        <v>-128510.32999999996</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="41" t="s">
@@ -26172,7 +26602,7 @@
       </c>
       <c r="G8" s="33">
         <f t="shared" si="1"/>
-        <v>13876.720000000027</v>
+        <v>-129500.10999999996</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="35" t="s">
@@ -26218,7 +26648,7 @@
       </c>
       <c r="G9" s="33">
         <f t="shared" si="1"/>
-        <v>12886.940000000026</v>
+        <v>-130489.88999999996</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="35" t="s">
@@ -26267,7 +26697,7 @@
       </c>
       <c r="G10" s="33">
         <f t="shared" si="1"/>
-        <v>11897.160000000025</v>
+        <v>-131479.66999999995</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="35" t="s">
@@ -26313,7 +26743,7 @@
       </c>
       <c r="G11" s="33">
         <f t="shared" si="1"/>
-        <v>11897.160000000025</v>
+        <v>-131479.66999999995</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="35" t="s">
@@ -26362,7 +26792,7 @@
       </c>
       <c r="G12" s="33">
         <f t="shared" si="1"/>
-        <v>11897.160000000025</v>
+        <v>-131479.66999999995</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="35" t="s">
@@ -26411,7 +26841,7 @@
       </c>
       <c r="G13" s="33">
         <f t="shared" si="1"/>
-        <v>11897.160000000025</v>
+        <v>-131479.66999999995</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="35" t="s">
@@ -26460,7 +26890,7 @@
       </c>
       <c r="G14" s="33">
         <f t="shared" si="1"/>
-        <v>11897.160000000025</v>
+        <v>-131479.66999999995</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="44" t="s">
@@ -26505,11 +26935,11 @@
       </c>
       <c r="F15" s="33">
         <f>SUM(F3:F14)</f>
-        <v>-338212.60000000009</v>
+        <v>-481589.43000000005</v>
       </c>
       <c r="G15" s="33">
         <f>E15+F15</f>
-        <v>11897.159999999916</v>
+        <v>-131479.67000000004</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="48"/>
@@ -26549,11 +26979,11 @@
       </c>
       <c r="F16" s="55">
         <f>F15/A16</f>
-        <v>-28184.383333333342</v>
+        <v>-40132.452500000007</v>
       </c>
       <c r="G16" s="55">
         <f>G15/A16</f>
-        <v>991.42999999999302</v>
+        <v>-10956.63916666667</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="57"/>
@@ -26598,7 +27028,7 @@
         <v>58</v>
       </c>
       <c r="E18" s="2">
-        <f>'01_25'!F32+'02_25'!F14+'02_25'!F26+'03_25'!F19+'04_25'!F43+'05_25'!F22+'06_25'!F19+'06_25'!F31+'04_25'!F15</f>
+        <f>'01_25'!F32+'02_25'!F14+'02_25'!F26+'03_25'!F17+'04_25'!F42+'05_25'!F22+'06_25'!F19+'06_25'!F31+'04_25'!F14</f>
         <v>15000</v>
       </c>
       <c r="J18" s="35"/>
